--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">铁钩怪人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙娘测试</t>
   </si>
 </sst>
 </file>
@@ -245,14 +248,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -324,7 +327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,7 +364,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,20 +372,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -573,7 +588,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topRight" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,10 +861,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>146036</v>
+        <v>268048</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>97857</v>
+        <v>268567</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>550</v>
@@ -875,23 +890,23 @@
       <c r="N5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="12" t="n">
         <v>97861</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="Q5" s="12" t="n">
         <v>285139</v>
       </c>
       <c r="R5" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="V5" s="12"/>
+      <c r="V5" s="13"/>
       <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
+      <c r="X5" s="13"/>
       <c r="AA5" s="11"/>
-      <c r="AD5" s="13"/>
+      <c r="AD5" s="14"/>
       <c r="AMH5" s="2"/>
       <c r="AMI5" s="2"/>
       <c r="AMJ5" s="2"/>
@@ -900,19 +915,19 @@
       <c r="A6" s="7" t="n">
         <v>1002</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="12" t="n">
         <v>174947</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="12" t="n">
         <v>122498</v>
       </c>
       <c r="G6" s="6" t="n">
@@ -939,20 +954,20 @@
       <c r="N6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="12" t="n">
         <v>97861</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="Q6" s="12" t="n">
         <v>285139</v>
       </c>
       <c r="R6" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="V6" s="13"/>
+      <c r="X6" s="13"/>
       <c r="AMH6" s="2"/>
       <c r="AMI6" s="2"/>
       <c r="AMJ6" s="2"/>
@@ -970,10 +985,10 @@
       <c r="D7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="12" t="n">
         <v>146185</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="12" t="n">
         <v>122549</v>
       </c>
       <c r="G7" s="6" t="n">
@@ -1000,21 +1015,21 @@
       <c r="N7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="Q7" s="12" t="n">
         <v>20291</v>
       </c>
       <c r="R7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="V7" s="12"/>
+      <c r="V7" s="13"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
+      <c r="X7" s="13"/>
       <c r="AA7" s="11"/>
-      <c r="AD7" s="13"/>
+      <c r="AD7" s="14"/>
       <c r="AMH7" s="2"/>
       <c r="AMI7" s="2"/>
       <c r="AMJ7" s="2"/>
@@ -1023,13 +1038,13 @@
       <c r="A8" s="7" t="n">
         <v>1004</v>
       </c>
-      <c r="B8" s="14" t="n">
+      <c r="B8" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="6" t="n">
@@ -1062,7 +1077,7 @@
       <c r="N8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="12" t="n">
         <v>145952</v>
       </c>
       <c r="P8" s="6" t="n">
@@ -1074,8 +1089,8 @@
       <c r="R8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="V8" s="13"/>
+      <c r="X8" s="13"/>
       <c r="AMH8" s="2"/>
       <c r="AMI8" s="2"/>
       <c r="AMJ8" s="2"/>
@@ -1084,19 +1099,19 @@
       <c r="A9" s="7" t="n">
         <v>1005</v>
       </c>
-      <c r="B9" s="14" t="n">
+      <c r="B9" s="15" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>174911</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="12" t="n">
         <v>97860</v>
       </c>
       <c r="G9" s="6" t="n">
@@ -1123,20 +1138,20 @@
       <c r="N9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="12" t="n">
         <v>97861</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q9" s="9" t="n">
+      <c r="Q9" s="12" t="n">
         <v>285139</v>
       </c>
       <c r="R9" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="V9" s="13"/>
+      <c r="X9" s="13"/>
       <c r="AMH9" s="2"/>
       <c r="AMI9" s="2"/>
       <c r="AMJ9" s="2"/>
@@ -1145,19 +1160,19 @@
       <c r="A10" s="7" t="n">
         <v>1006</v>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="15" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>145900</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="12" t="n">
         <v>122498</v>
       </c>
       <c r="G10" s="6" t="n">
@@ -1184,41 +1199,95 @@
       <c r="N10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="12" t="n">
         <v>97861</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q10" s="9" t="n">
+      <c r="Q10" s="12" t="n">
         <v>285139</v>
       </c>
       <c r="R10" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="X10" s="12"/>
+      <c r="V10" s="13"/>
+      <c r="X10" s="13"/>
       <c r="AMH10" s="2"/>
       <c r="AMI10" s="2"/>
       <c r="AMJ10" s="2"/>
     </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>268048</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>268567</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>107535</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>97861</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>281693</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
-      <c r="V15" s="12"/>
-      <c r="X15" s="12"/>
+      <c r="V15" s="13"/>
+      <c r="X15" s="13"/>
       <c r="AMH15" s="2"/>
       <c r="AMI15" s="2"/>
       <c r="AMJ15" s="2"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="K16" s="13"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="13"/>
       <c r="AA16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AMH16" s="2"/>
@@ -1227,8 +1296,8 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
-      <c r="V17" s="12"/>
-      <c r="X17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="X17" s="13"/>
       <c r="AMH17" s="2"/>
       <c r="AMI17" s="2"/>
       <c r="AMJ17" s="2"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>int</t>
   </si>
@@ -104,6 +104,9 @@
     <t>magicResist</t>
   </si>
   <si>
+    <t>buff</t>
+  </si>
+  <si>
     <t>怪物id</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
   </si>
   <si>
     <t>初始魔抗</t>
+  </si>
+  <si>
+    <t>怪物的Buff</t>
   </si>
   <si>
     <t>Language</t>
@@ -219,7 +225,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -246,12 +252,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -753,18 +753,21 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,122 +776,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -920,17 +920,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1393,7 +1396,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9416666666667" defaultRowHeight="16.5"/>
@@ -1416,7 +1419,7 @@
     <col min="18" max="18" width="17.35" style="2" customWidth="1"/>
     <col min="19" max="19" width="10.9583333333333" style="2"/>
     <col min="20" max="20" width="15.5833333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.9583333333333" style="2"/>
+    <col min="21" max="21" width="23.0833333333333" style="2" customWidth="1"/>
     <col min="23" max="23" width="10.9583333333333" style="2"/>
     <col min="25" max="1021" width="10.9583333333333" style="2"/>
   </cols>
@@ -1482,7 +1485,9 @@
       <c r="T1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="4"/>
+      <c r="U1" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="V1" s="16"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -1561,7 +1566,9 @@
       <c r="T2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="4"/>
+      <c r="U2" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="V2" s="16"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
@@ -1581,66 +1588,68 @@
     </row>
     <row r="3" ht="95.5" customHeight="1" spans="1:37">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="V3" s="16"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -1660,7 +1669,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="3:1024">
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L4" s="6"/>
       <c r="V4" s="6"/>
@@ -1674,10 +1683,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8">
         <v>268048</v>
@@ -1707,7 +1716,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O5" s="10">
         <v>97861</v>
@@ -1727,11 +1736,14 @@
       <c r="T5" s="1">
         <v>200</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="U5" s="6">
+        <v>5001</v>
+      </c>
+      <c r="V5" s="18"/>
       <c r="W5" s="13"/>
-      <c r="X5" s="17"/>
+      <c r="X5" s="18"/>
       <c r="AA5" s="13"/>
-      <c r="AD5" s="15"/>
+      <c r="AD5" s="13"/>
       <c r="AMH5" s="3"/>
       <c r="AMI5" s="3"/>
       <c r="AMJ5" s="3"/>
@@ -1744,10 +1756,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="10">
         <v>174947</v>
@@ -1777,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O6" s="10">
         <v>97861</v>
@@ -1797,8 +1809,8 @@
       <c r="T6" s="1">
         <v>200</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="X6" s="17"/>
+      <c r="V6" s="18"/>
+      <c r="X6" s="18"/>
       <c r="AMH6" s="3"/>
       <c r="AMI6" s="3"/>
       <c r="AMJ6" s="3"/>
@@ -1811,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="10">
         <v>146185</v>
@@ -1844,7 +1856,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="1">
@@ -1862,11 +1874,11 @@
       <c r="T7" s="1">
         <v>200</v>
       </c>
-      <c r="V7" s="17"/>
+      <c r="V7" s="18"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="17"/>
+      <c r="X7" s="18"/>
       <c r="AA7" s="13"/>
-      <c r="AD7" s="15"/>
+      <c r="AD7" s="13"/>
       <c r="AMH7" s="3"/>
       <c r="AMI7" s="3"/>
       <c r="AMJ7" s="3"/>
@@ -1879,10 +1891,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
         <v>151835</v>
@@ -1912,7 +1924,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O8" s="10">
         <v>145952</v>
@@ -1932,8 +1944,8 @@
       <c r="T8" s="1">
         <v>200</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="X8" s="17"/>
+      <c r="V8" s="18"/>
+      <c r="X8" s="18"/>
       <c r="AMH8" s="3"/>
       <c r="AMI8" s="3"/>
       <c r="AMJ8" s="3"/>
@@ -1946,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1">
         <v>174911</v>
@@ -1979,7 +1991,7 @@
         <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O9" s="10">
         <v>97861</v>
@@ -1999,8 +2011,8 @@
       <c r="T9" s="1">
         <v>200</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="V9" s="18"/>
+      <c r="X9" s="18"/>
       <c r="AMH9" s="3"/>
       <c r="AMI9" s="3"/>
       <c r="AMJ9" s="3"/>
@@ -2013,10 +2025,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
         <v>145900</v>
@@ -2046,7 +2058,7 @@
         <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O10" s="10">
         <v>97861</v>
@@ -2066,8 +2078,8 @@
       <c r="T10" s="1">
         <v>200</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="X10" s="18"/>
       <c r="AMH10" s="3"/>
       <c r="AMI10" s="3"/>
       <c r="AMJ10" s="3"/>
@@ -2078,10 +2090,10 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>268048</v>
@@ -2111,7 +2123,7 @@
         <v>23</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O11" s="1">
         <v>97861</v>
@@ -2134,8 +2146,8 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:1024">
       <c r="A15" s="6"/>
-      <c r="V15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="X15" s="18"/>
       <c r="AMH15" s="3"/>
       <c r="AMI15" s="3"/>
       <c r="AMJ15" s="3"/>
@@ -2145,10 +2157,10 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="K16" s="15"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="17"/>
+      <c r="K16" s="13"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="18"/>
       <c r="AA16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AMH16" s="3"/>
@@ -2157,8 +2169,8 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1024">
       <c r="A17" s="6"/>
-      <c r="V17" s="17"/>
-      <c r="X17" s="17"/>
+      <c r="V17" s="18"/>
+      <c r="X17" s="18"/>
       <c r="AMH17" s="3"/>
       <c r="AMI17" s="3"/>
       <c r="AMJ17" s="3"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -1396,7 +1396,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U17" sqref="U17"/>
+      <selection pane="topRight" activeCell="Q21" sqref="Q21:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9416666666667" defaultRowHeight="16.5"/>
@@ -1737,7 +1737,7 @@
         <v>200</v>
       </c>
       <c r="U5" s="6">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="13"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">名字备注</t>
   </si>
   <si>
-    <t xml:space="preserve">元素类型（1——6对应光暗水火土木）</t>
+    <t xml:space="preserve">元素类型（1——6对应光暗水火木土）</t>
   </si>
   <si>
     <t xml:space="preserve">换装guid</t>
@@ -609,7 +609,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topRight" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">deadAnimDur</t>
   </si>
   <si>
+    <t xml:space="preserve">vertigoDelay</t>
+  </si>
+  <si>
     <t xml:space="preserve">armor</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">死亡动画持续时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眩晕后的内置CD（从怪物受到眩晕buff时，应用该列计时，时间内怪物不会再次受到眩晕buff影响）</t>
   </si>
   <si>
     <t xml:space="preserve">初始护甲</t>
@@ -604,12 +610,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMK376"/>
+  <dimension ref="A1:AML376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topRight" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -630,11 +636,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="26" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="27" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -701,11 +708,13 @@
       <c r="U1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="3"/>
+      <c r="X1" s="5"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -720,6 +729,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -785,11 +795,13 @@
       <c r="U2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="3"/>
+      <c r="W2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="5"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -804,76 +816,79 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="5"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -888,27 +903,28 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="AMI4" s="2"/>
+      <c r="X4" s="9"/>
+      <c r="Z4" s="9"/>
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
+      <c r="AML4" s="2"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>1001</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>1</v>
@@ -941,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="14" t="n">
         <v>97861</v>
@@ -956,22 +972,25 @@
         <v>1.5</v>
       </c>
       <c r="T5" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="V5" s="9" t="n">
+      <c r="V5" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="W5" s="9" t="n">
         <v>5002</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="15"/>
-      <c r="AB5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AMI5" s="2"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="15"/>
+      <c r="AC5" s="13"/>
+      <c r="AF5" s="13"/>
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
+      <c r="AML5" s="2"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -981,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="16" t="n">
         <v>2</v>
@@ -1017,7 +1036,7 @@
         <v>23</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P6" s="14" t="n">
         <v>97861</v>
@@ -1032,16 +1051,19 @@
         <v>1.5</v>
       </c>
       <c r="T6" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U6" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="AMI6" s="2"/>
+      <c r="V6" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="X6" s="15"/>
+      <c r="Z6" s="15"/>
       <c r="AMJ6" s="2"/>
       <c r="AMK6" s="2"/>
+      <c r="AML6" s="2"/>
     </row>
     <row r="7" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -1051,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>3</v>
@@ -1087,7 +1109,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="8" t="n">
@@ -1100,19 +1122,22 @@
         <v>1</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U7" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="15"/>
-      <c r="AB7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AMI7" s="2"/>
+      <c r="V7" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="15"/>
+      <c r="AC7" s="13"/>
+      <c r="AF7" s="13"/>
       <c r="AMJ7" s="2"/>
       <c r="AMK7" s="2"/>
+      <c r="AML7" s="2"/>
     </row>
     <row r="8" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -1122,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="16" t="n">
         <v>4</v>
@@ -1158,7 +1183,7 @@
         <v>23</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P8" s="14" t="n">
         <v>145952</v>
@@ -1173,16 +1198,19 @@
         <v>1</v>
       </c>
       <c r="T8" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U8" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="AMI8" s="2"/>
+      <c r="V8" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Z8" s="15"/>
       <c r="AMJ8" s="2"/>
       <c r="AMK8" s="2"/>
+      <c r="AML8" s="2"/>
     </row>
     <row r="9" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -1192,10 +1220,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" s="16" t="n">
         <v>5</v>
@@ -1228,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P9" s="14" t="n">
         <v>97861</v>
@@ -1243,16 +1271,19 @@
         <v>1.5</v>
       </c>
       <c r="T9" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U9" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="AMI9" s="2"/>
+      <c r="V9" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="X9" s="15"/>
+      <c r="Z9" s="15"/>
       <c r="AMJ9" s="2"/>
       <c r="AMK9" s="2"/>
+      <c r="AML9" s="2"/>
     </row>
     <row r="10" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -1262,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="16" t="n">
         <v>6</v>
@@ -1298,7 +1329,7 @@
         <v>23</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="14" t="n">
         <v>97861</v>
@@ -1313,16 +1344,19 @@
         <v>1.5</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="AMI10" s="2"/>
+      <c r="V10" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="X10" s="15"/>
+      <c r="Z10" s="15"/>
       <c r="AMJ10" s="2"/>
       <c r="AMK10" s="2"/>
+      <c r="AML10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
@@ -1330,10 +1364,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>6</v>
@@ -1366,7 +1400,7 @@
         <v>23</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11" s="8" t="n">
         <v>97861</v>
@@ -1381,19 +1415,22 @@
         <v>1.5</v>
       </c>
       <c r="T11" s="8" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="U11" s="8" t="n">
         <v>200</v>
       </c>
+      <c r="V11" s="8" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="AMI15" s="2"/>
+      <c r="X15" s="15"/>
+      <c r="Z15" s="15"/>
       <c r="AMJ15" s="2"/>
       <c r="AMK15" s="2"/>
+      <c r="AML15" s="2"/>
     </row>
     <row r="16" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -1402,22 +1439,22 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="L16" s="13"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="15"/>
-      <c r="AB16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AMI16" s="2"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="15"/>
+      <c r="AC16" s="13"/>
+      <c r="AF16" s="13"/>
       <c r="AMJ16" s="2"/>
       <c r="AMK16" s="2"/>
+      <c r="AML16" s="2"/>
     </row>
     <row r="17" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="AMI17" s="2"/>
+      <c r="X17" s="15"/>
+      <c r="Z17" s="15"/>
       <c r="AMJ17" s="2"/>
       <c r="AMK17" s="2"/>
+      <c r="AML17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -1441,8 +1478,8 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="Y18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -2439,2833 +2476,2834 @@
       <c r="AMF18" s="2"/>
       <c r="AMG18" s="2"/>
       <c r="AMH18" s="2"/>
+      <c r="AMI18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R19" s="2"/>
     </row>
     <row r="24" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="AMI24" s="2"/>
+      <c r="X24" s="9"/>
+      <c r="Z24" s="9"/>
       <c r="AMJ24" s="2"/>
       <c r="AMK24" s="2"/>
+      <c r="AML24" s="2"/>
     </row>
     <row r="25" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="AMI25" s="2"/>
+      <c r="X25" s="9"/>
+      <c r="Z25" s="9"/>
       <c r="AMJ25" s="2"/>
       <c r="AMK25" s="2"/>
+      <c r="AML25" s="2"/>
     </row>
     <row r="26" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="AMI26" s="2"/>
+      <c r="X26" s="9"/>
+      <c r="Z26" s="9"/>
       <c r="AMJ26" s="2"/>
       <c r="AMK26" s="2"/>
+      <c r="AML26" s="2"/>
     </row>
     <row r="27" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="AMI27" s="2"/>
+      <c r="X27" s="9"/>
+      <c r="Z27" s="9"/>
       <c r="AMJ27" s="2"/>
       <c r="AMK27" s="2"/>
+      <c r="AML27" s="2"/>
     </row>
     <row r="28" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="AMI28" s="2"/>
+      <c r="X28" s="9"/>
+      <c r="Z28" s="9"/>
       <c r="AMJ28" s="2"/>
       <c r="AMK28" s="2"/>
+      <c r="AML28" s="2"/>
     </row>
     <row r="29" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="AMI29" s="2"/>
+      <c r="X29" s="9"/>
+      <c r="Z29" s="9"/>
       <c r="AMJ29" s="2"/>
       <c r="AMK29" s="2"/>
+      <c r="AML29" s="2"/>
     </row>
     <row r="30" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="AMI30" s="2"/>
+      <c r="X30" s="9"/>
+      <c r="Z30" s="9"/>
       <c r="AMJ30" s="2"/>
       <c r="AMK30" s="2"/>
+      <c r="AML30" s="2"/>
     </row>
     <row r="31" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="AMI31" s="2"/>
+      <c r="X31" s="9"/>
+      <c r="Z31" s="9"/>
       <c r="AMJ31" s="2"/>
       <c r="AMK31" s="2"/>
+      <c r="AML31" s="2"/>
     </row>
     <row r="32" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="AMI32" s="2"/>
+      <c r="X32" s="9"/>
+      <c r="Z32" s="9"/>
       <c r="AMJ32" s="2"/>
       <c r="AMK32" s="2"/>
+      <c r="AML32" s="2"/>
     </row>
     <row r="33" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="AMI33" s="2"/>
+      <c r="X33" s="9"/>
+      <c r="Z33" s="9"/>
       <c r="AMJ33" s="2"/>
       <c r="AMK33" s="2"/>
+      <c r="AML33" s="2"/>
     </row>
     <row r="34" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="AMI34" s="2"/>
+      <c r="X34" s="9"/>
+      <c r="Z34" s="9"/>
       <c r="AMJ34" s="2"/>
       <c r="AMK34" s="2"/>
+      <c r="AML34" s="2"/>
     </row>
     <row r="35" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="AMI35" s="2"/>
+      <c r="X35" s="9"/>
+      <c r="Z35" s="9"/>
       <c r="AMJ35" s="2"/>
       <c r="AMK35" s="2"/>
+      <c r="AML35" s="2"/>
     </row>
     <row r="36" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="AMI36" s="2"/>
+      <c r="X36" s="9"/>
+      <c r="Z36" s="9"/>
       <c r="AMJ36" s="2"/>
       <c r="AMK36" s="2"/>
+      <c r="AML36" s="2"/>
     </row>
     <row r="37" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="AMI37" s="2"/>
+      <c r="X37" s="9"/>
+      <c r="Z37" s="9"/>
       <c r="AMJ37" s="2"/>
       <c r="AMK37" s="2"/>
+      <c r="AML37" s="2"/>
     </row>
     <row r="38" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="AMI38" s="2"/>
+      <c r="X38" s="9"/>
+      <c r="Z38" s="9"/>
       <c r="AMJ38" s="2"/>
       <c r="AMK38" s="2"/>
+      <c r="AML38" s="2"/>
     </row>
     <row r="39" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="AMI39" s="2"/>
+      <c r="X39" s="9"/>
+      <c r="Z39" s="9"/>
       <c r="AMJ39" s="2"/>
       <c r="AMK39" s="2"/>
+      <c r="AML39" s="2"/>
     </row>
     <row r="40" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="AMI40" s="2"/>
+      <c r="X40" s="9"/>
+      <c r="Z40" s="9"/>
       <c r="AMJ40" s="2"/>
       <c r="AMK40" s="2"/>
+      <c r="AML40" s="2"/>
     </row>
     <row r="41" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="AMI41" s="2"/>
+      <c r="X41" s="9"/>
+      <c r="Z41" s="9"/>
       <c r="AMJ41" s="2"/>
       <c r="AMK41" s="2"/>
+      <c r="AML41" s="2"/>
     </row>
     <row r="42" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="AMI42" s="2"/>
+      <c r="X42" s="9"/>
+      <c r="Z42" s="9"/>
       <c r="AMJ42" s="2"/>
       <c r="AMK42" s="2"/>
+      <c r="AML42" s="2"/>
     </row>
     <row r="43" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="AMI43" s="2"/>
+      <c r="X43" s="9"/>
+      <c r="Z43" s="9"/>
       <c r="AMJ43" s="2"/>
       <c r="AMK43" s="2"/>
+      <c r="AML43" s="2"/>
     </row>
     <row r="44" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="AMI44" s="2"/>
+      <c r="X44" s="9"/>
+      <c r="Z44" s="9"/>
       <c r="AMJ44" s="2"/>
       <c r="AMK44" s="2"/>
+      <c r="AML44" s="2"/>
     </row>
     <row r="45" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="AMI45" s="2"/>
+      <c r="X45" s="9"/>
+      <c r="Z45" s="9"/>
       <c r="AMJ45" s="2"/>
       <c r="AMK45" s="2"/>
+      <c r="AML45" s="2"/>
     </row>
     <row r="46" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="AMI46" s="2"/>
+      <c r="X46" s="9"/>
+      <c r="Z46" s="9"/>
       <c r="AMJ46" s="2"/>
       <c r="AMK46" s="2"/>
+      <c r="AML46" s="2"/>
     </row>
     <row r="47" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="AMI47" s="2"/>
+      <c r="X47" s="9"/>
+      <c r="Z47" s="9"/>
       <c r="AMJ47" s="2"/>
       <c r="AMK47" s="2"/>
+      <c r="AML47" s="2"/>
     </row>
     <row r="48" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="AMI48" s="2"/>
+      <c r="X48" s="9"/>
+      <c r="Z48" s="9"/>
       <c r="AMJ48" s="2"/>
       <c r="AMK48" s="2"/>
+      <c r="AML48" s="2"/>
     </row>
     <row r="49" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="AMI49" s="2"/>
+      <c r="X49" s="9"/>
+      <c r="Z49" s="9"/>
       <c r="AMJ49" s="2"/>
       <c r="AMK49" s="2"/>
+      <c r="AML49" s="2"/>
     </row>
     <row r="50" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="AMI50" s="2"/>
+      <c r="X50" s="9"/>
+      <c r="Z50" s="9"/>
       <c r="AMJ50" s="2"/>
       <c r="AMK50" s="2"/>
+      <c r="AML50" s="2"/>
     </row>
     <row r="51" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="AMI51" s="2"/>
+      <c r="X51" s="9"/>
+      <c r="Z51" s="9"/>
       <c r="AMJ51" s="2"/>
       <c r="AMK51" s="2"/>
+      <c r="AML51" s="2"/>
     </row>
     <row r="52" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="AMI52" s="2"/>
+      <c r="X52" s="9"/>
+      <c r="Z52" s="9"/>
       <c r="AMJ52" s="2"/>
       <c r="AMK52" s="2"/>
+      <c r="AML52" s="2"/>
     </row>
     <row r="53" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="AMI53" s="2"/>
+      <c r="X53" s="9"/>
+      <c r="Z53" s="9"/>
       <c r="AMJ53" s="2"/>
       <c r="AMK53" s="2"/>
+      <c r="AML53" s="2"/>
     </row>
     <row r="54" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="AMI54" s="2"/>
+      <c r="X54" s="9"/>
+      <c r="Z54" s="9"/>
       <c r="AMJ54" s="2"/>
       <c r="AMK54" s="2"/>
+      <c r="AML54" s="2"/>
     </row>
     <row r="55" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="AMI55" s="2"/>
+      <c r="X55" s="9"/>
+      <c r="Z55" s="9"/>
       <c r="AMJ55" s="2"/>
       <c r="AMK55" s="2"/>
+      <c r="AML55" s="2"/>
     </row>
     <row r="56" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="AMI56" s="2"/>
+      <c r="X56" s="9"/>
+      <c r="Z56" s="9"/>
       <c r="AMJ56" s="2"/>
       <c r="AMK56" s="2"/>
+      <c r="AML56" s="2"/>
     </row>
     <row r="57" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="AMI57" s="2"/>
+      <c r="X57" s="9"/>
+      <c r="Z57" s="9"/>
       <c r="AMJ57" s="2"/>
       <c r="AMK57" s="2"/>
+      <c r="AML57" s="2"/>
     </row>
     <row r="58" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="AMI58" s="2"/>
+      <c r="X58" s="9"/>
+      <c r="Z58" s="9"/>
       <c r="AMJ58" s="2"/>
       <c r="AMK58" s="2"/>
+      <c r="AML58" s="2"/>
     </row>
     <row r="59" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="AMI59" s="2"/>
+      <c r="X59" s="9"/>
+      <c r="Z59" s="9"/>
       <c r="AMJ59" s="2"/>
       <c r="AMK59" s="2"/>
+      <c r="AML59" s="2"/>
     </row>
     <row r="60" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="AMI60" s="2"/>
+      <c r="X60" s="9"/>
+      <c r="Z60" s="9"/>
       <c r="AMJ60" s="2"/>
       <c r="AMK60" s="2"/>
+      <c r="AML60" s="2"/>
     </row>
     <row r="61" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="AMI61" s="2"/>
+      <c r="X61" s="9"/>
+      <c r="Z61" s="9"/>
       <c r="AMJ61" s="2"/>
       <c r="AMK61" s="2"/>
+      <c r="AML61" s="2"/>
     </row>
     <row r="62" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="AMI62" s="2"/>
+      <c r="X62" s="9"/>
+      <c r="Z62" s="9"/>
       <c r="AMJ62" s="2"/>
       <c r="AMK62" s="2"/>
+      <c r="AML62" s="2"/>
     </row>
     <row r="63" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="AMI63" s="2"/>
+      <c r="X63" s="9"/>
+      <c r="Z63" s="9"/>
       <c r="AMJ63" s="2"/>
       <c r="AMK63" s="2"/>
+      <c r="AML63" s="2"/>
     </row>
     <row r="64" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="AMI64" s="2"/>
+      <c r="X64" s="9"/>
+      <c r="Z64" s="9"/>
       <c r="AMJ64" s="2"/>
       <c r="AMK64" s="2"/>
+      <c r="AML64" s="2"/>
     </row>
     <row r="65" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="AMI65" s="2"/>
+      <c r="X65" s="9"/>
+      <c r="Z65" s="9"/>
       <c r="AMJ65" s="2"/>
       <c r="AMK65" s="2"/>
+      <c r="AML65" s="2"/>
     </row>
     <row r="66" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="AMI66" s="2"/>
+      <c r="X66" s="9"/>
+      <c r="Z66" s="9"/>
       <c r="AMJ66" s="2"/>
       <c r="AMK66" s="2"/>
+      <c r="AML66" s="2"/>
     </row>
     <row r="67" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="AMI67" s="2"/>
+      <c r="X67" s="9"/>
+      <c r="Z67" s="9"/>
       <c r="AMJ67" s="2"/>
       <c r="AMK67" s="2"/>
+      <c r="AML67" s="2"/>
     </row>
     <row r="68" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="AMI68" s="2"/>
+      <c r="X68" s="9"/>
+      <c r="Z68" s="9"/>
       <c r="AMJ68" s="2"/>
       <c r="AMK68" s="2"/>
+      <c r="AML68" s="2"/>
     </row>
     <row r="69" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="AMI69" s="2"/>
+      <c r="X69" s="9"/>
+      <c r="Z69" s="9"/>
       <c r="AMJ69" s="2"/>
       <c r="AMK69" s="2"/>
+      <c r="AML69" s="2"/>
     </row>
     <row r="70" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="AMI70" s="2"/>
+      <c r="X70" s="9"/>
+      <c r="Z70" s="9"/>
       <c r="AMJ70" s="2"/>
       <c r="AMK70" s="2"/>
+      <c r="AML70" s="2"/>
     </row>
     <row r="71" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="AMI71" s="2"/>
+      <c r="X71" s="9"/>
+      <c r="Z71" s="9"/>
       <c r="AMJ71" s="2"/>
       <c r="AMK71" s="2"/>
+      <c r="AML71" s="2"/>
     </row>
     <row r="72" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="AMI72" s="2"/>
+      <c r="X72" s="9"/>
+      <c r="Z72" s="9"/>
       <c r="AMJ72" s="2"/>
       <c r="AMK72" s="2"/>
+      <c r="AML72" s="2"/>
     </row>
     <row r="73" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="AMI73" s="2"/>
+      <c r="X73" s="9"/>
+      <c r="Z73" s="9"/>
       <c r="AMJ73" s="2"/>
       <c r="AMK73" s="2"/>
+      <c r="AML73" s="2"/>
     </row>
     <row r="74" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="AMI74" s="2"/>
+      <c r="X74" s="9"/>
+      <c r="Z74" s="9"/>
       <c r="AMJ74" s="2"/>
       <c r="AMK74" s="2"/>
+      <c r="AML74" s="2"/>
     </row>
     <row r="75" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="AMI75" s="2"/>
+      <c r="X75" s="9"/>
+      <c r="Z75" s="9"/>
       <c r="AMJ75" s="2"/>
       <c r="AMK75" s="2"/>
+      <c r="AML75" s="2"/>
     </row>
     <row r="76" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="AMI76" s="2"/>
+      <c r="X76" s="9"/>
+      <c r="Z76" s="9"/>
       <c r="AMJ76" s="2"/>
       <c r="AMK76" s="2"/>
+      <c r="AML76" s="2"/>
     </row>
     <row r="77" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="AMI77" s="2"/>
+      <c r="X77" s="9"/>
+      <c r="Z77" s="9"/>
       <c r="AMJ77" s="2"/>
       <c r="AMK77" s="2"/>
+      <c r="AML77" s="2"/>
     </row>
     <row r="78" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="AMI78" s="2"/>
+      <c r="X78" s="9"/>
+      <c r="Z78" s="9"/>
       <c r="AMJ78" s="2"/>
       <c r="AMK78" s="2"/>
+      <c r="AML78" s="2"/>
     </row>
     <row r="79" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="AMI79" s="2"/>
+      <c r="X79" s="9"/>
+      <c r="Z79" s="9"/>
       <c r="AMJ79" s="2"/>
       <c r="AMK79" s="2"/>
+      <c r="AML79" s="2"/>
     </row>
     <row r="80" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="AMI80" s="2"/>
+      <c r="X80" s="9"/>
+      <c r="Z80" s="9"/>
       <c r="AMJ80" s="2"/>
       <c r="AMK80" s="2"/>
+      <c r="AML80" s="2"/>
     </row>
     <row r="81" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="AMI81" s="2"/>
+      <c r="X81" s="9"/>
+      <c r="Z81" s="9"/>
       <c r="AMJ81" s="2"/>
       <c r="AMK81" s="2"/>
+      <c r="AML81" s="2"/>
     </row>
     <row r="82" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="AMI82" s="2"/>
+      <c r="X82" s="9"/>
+      <c r="Z82" s="9"/>
       <c r="AMJ82" s="2"/>
       <c r="AMK82" s="2"/>
+      <c r="AML82" s="2"/>
     </row>
     <row r="83" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="Y83" s="9"/>
-      <c r="AMI83" s="2"/>
+      <c r="X83" s="9"/>
+      <c r="Z83" s="9"/>
       <c r="AMJ83" s="2"/>
       <c r="AMK83" s="2"/>
+      <c r="AML83" s="2"/>
     </row>
     <row r="84" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="AMI84" s="2"/>
+      <c r="X84" s="9"/>
+      <c r="Z84" s="9"/>
       <c r="AMJ84" s="2"/>
       <c r="AMK84" s="2"/>
+      <c r="AML84" s="2"/>
     </row>
     <row r="85" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="AMI85" s="2"/>
+      <c r="X85" s="9"/>
+      <c r="Z85" s="9"/>
       <c r="AMJ85" s="2"/>
       <c r="AMK85" s="2"/>
+      <c r="AML85" s="2"/>
     </row>
     <row r="86" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="AMI86" s="2"/>
+      <c r="X86" s="9"/>
+      <c r="Z86" s="9"/>
       <c r="AMJ86" s="2"/>
       <c r="AMK86" s="2"/>
+      <c r="AML86" s="2"/>
     </row>
     <row r="87" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="AMI87" s="2"/>
+      <c r="X87" s="9"/>
+      <c r="Z87" s="9"/>
       <c r="AMJ87" s="2"/>
       <c r="AMK87" s="2"/>
+      <c r="AML87" s="2"/>
     </row>
     <row r="88" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M88" s="9"/>
-      <c r="W88" s="9"/>
-      <c r="Y88" s="9"/>
-      <c r="AMI88" s="2"/>
+      <c r="X88" s="9"/>
+      <c r="Z88" s="9"/>
       <c r="AMJ88" s="2"/>
       <c r="AMK88" s="2"/>
+      <c r="AML88" s="2"/>
     </row>
     <row r="89" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M89" s="9"/>
-      <c r="W89" s="9"/>
-      <c r="Y89" s="9"/>
-      <c r="AMI89" s="2"/>
+      <c r="X89" s="9"/>
+      <c r="Z89" s="9"/>
       <c r="AMJ89" s="2"/>
       <c r="AMK89" s="2"/>
+      <c r="AML89" s="2"/>
     </row>
     <row r="90" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="Y90" s="9"/>
-      <c r="AMI90" s="2"/>
+      <c r="X90" s="9"/>
+      <c r="Z90" s="9"/>
       <c r="AMJ90" s="2"/>
       <c r="AMK90" s="2"/>
+      <c r="AML90" s="2"/>
     </row>
     <row r="91" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="Y91" s="9"/>
-      <c r="AMI91" s="2"/>
+      <c r="X91" s="9"/>
+      <c r="Z91" s="9"/>
       <c r="AMJ91" s="2"/>
       <c r="AMK91" s="2"/>
+      <c r="AML91" s="2"/>
     </row>
     <row r="92" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="Y92" s="9"/>
-      <c r="AMI92" s="2"/>
+      <c r="X92" s="9"/>
+      <c r="Z92" s="9"/>
       <c r="AMJ92" s="2"/>
       <c r="AMK92" s="2"/>
+      <c r="AML92" s="2"/>
     </row>
     <row r="93" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="Y93" s="9"/>
-      <c r="AMI93" s="2"/>
+      <c r="X93" s="9"/>
+      <c r="Z93" s="9"/>
       <c r="AMJ93" s="2"/>
       <c r="AMK93" s="2"/>
+      <c r="AML93" s="2"/>
     </row>
     <row r="94" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="Y94" s="9"/>
-      <c r="AMI94" s="2"/>
+      <c r="X94" s="9"/>
+      <c r="Z94" s="9"/>
       <c r="AMJ94" s="2"/>
       <c r="AMK94" s="2"/>
+      <c r="AML94" s="2"/>
     </row>
     <row r="95" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="Y95" s="9"/>
-      <c r="AMI95" s="2"/>
+      <c r="X95" s="9"/>
+      <c r="Z95" s="9"/>
       <c r="AMJ95" s="2"/>
       <c r="AMK95" s="2"/>
+      <c r="AML95" s="2"/>
     </row>
     <row r="96" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="Y96" s="9"/>
-      <c r="AMI96" s="2"/>
+      <c r="X96" s="9"/>
+      <c r="Z96" s="9"/>
       <c r="AMJ96" s="2"/>
       <c r="AMK96" s="2"/>
+      <c r="AML96" s="2"/>
     </row>
     <row r="97" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M97" s="9"/>
-      <c r="W97" s="9"/>
-      <c r="Y97" s="9"/>
-      <c r="AMI97" s="2"/>
+      <c r="X97" s="9"/>
+      <c r="Z97" s="9"/>
       <c r="AMJ97" s="2"/>
       <c r="AMK97" s="2"/>
+      <c r="AML97" s="2"/>
     </row>
     <row r="98" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="Y98" s="9"/>
-      <c r="AMI98" s="2"/>
+      <c r="X98" s="9"/>
+      <c r="Z98" s="9"/>
       <c r="AMJ98" s="2"/>
       <c r="AMK98" s="2"/>
+      <c r="AML98" s="2"/>
     </row>
     <row r="99" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M99" s="9"/>
-      <c r="W99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="AMI99" s="2"/>
+      <c r="X99" s="9"/>
+      <c r="Z99" s="9"/>
       <c r="AMJ99" s="2"/>
       <c r="AMK99" s="2"/>
+      <c r="AML99" s="2"/>
     </row>
     <row r="100" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="Y100" s="9"/>
-      <c r="AMI100" s="2"/>
+      <c r="X100" s="9"/>
+      <c r="Z100" s="9"/>
       <c r="AMJ100" s="2"/>
       <c r="AMK100" s="2"/>
+      <c r="AML100" s="2"/>
     </row>
     <row r="101" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="Y101" s="9"/>
-      <c r="AMI101" s="2"/>
+      <c r="X101" s="9"/>
+      <c r="Z101" s="9"/>
       <c r="AMJ101" s="2"/>
       <c r="AMK101" s="2"/>
+      <c r="AML101" s="2"/>
     </row>
     <row r="102" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="AMI102" s="2"/>
+      <c r="X102" s="9"/>
+      <c r="Z102" s="9"/>
       <c r="AMJ102" s="2"/>
       <c r="AMK102" s="2"/>
+      <c r="AML102" s="2"/>
     </row>
     <row r="103" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M103" s="9"/>
-      <c r="W103" s="9"/>
-      <c r="Y103" s="9"/>
-      <c r="AMI103" s="2"/>
+      <c r="X103" s="9"/>
+      <c r="Z103" s="9"/>
       <c r="AMJ103" s="2"/>
       <c r="AMK103" s="2"/>
+      <c r="AML103" s="2"/>
     </row>
     <row r="104" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="Y104" s="9"/>
-      <c r="AMI104" s="2"/>
+      <c r="X104" s="9"/>
+      <c r="Z104" s="9"/>
       <c r="AMJ104" s="2"/>
       <c r="AMK104" s="2"/>
+      <c r="AML104" s="2"/>
     </row>
     <row r="105" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="Y105" s="9"/>
-      <c r="AMI105" s="2"/>
+      <c r="X105" s="9"/>
+      <c r="Z105" s="9"/>
       <c r="AMJ105" s="2"/>
       <c r="AMK105" s="2"/>
+      <c r="AML105" s="2"/>
     </row>
     <row r="106" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="Y106" s="9"/>
-      <c r="AMI106" s="2"/>
+      <c r="X106" s="9"/>
+      <c r="Z106" s="9"/>
       <c r="AMJ106" s="2"/>
       <c r="AMK106" s="2"/>
+      <c r="AML106" s="2"/>
     </row>
     <row r="107" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="Y107" s="9"/>
-      <c r="AMI107" s="2"/>
+      <c r="X107" s="9"/>
+      <c r="Z107" s="9"/>
       <c r="AMJ107" s="2"/>
       <c r="AMK107" s="2"/>
+      <c r="AML107" s="2"/>
     </row>
     <row r="108" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="Y108" s="9"/>
-      <c r="AMI108" s="2"/>
+      <c r="X108" s="9"/>
+      <c r="Z108" s="9"/>
       <c r="AMJ108" s="2"/>
       <c r="AMK108" s="2"/>
+      <c r="AML108" s="2"/>
     </row>
     <row r="109" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="Y109" s="9"/>
-      <c r="AMI109" s="2"/>
+      <c r="X109" s="9"/>
+      <c r="Z109" s="9"/>
       <c r="AMJ109" s="2"/>
       <c r="AMK109" s="2"/>
+      <c r="AML109" s="2"/>
     </row>
     <row r="110" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M110" s="9"/>
-      <c r="W110" s="9"/>
-      <c r="Y110" s="9"/>
-      <c r="AMI110" s="2"/>
+      <c r="X110" s="9"/>
+      <c r="Z110" s="9"/>
       <c r="AMJ110" s="2"/>
       <c r="AMK110" s="2"/>
+      <c r="AML110" s="2"/>
     </row>
     <row r="111" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M111" s="9"/>
-      <c r="W111" s="9"/>
-      <c r="Y111" s="9"/>
-      <c r="AMI111" s="2"/>
+      <c r="X111" s="9"/>
+      <c r="Z111" s="9"/>
       <c r="AMJ111" s="2"/>
       <c r="AMK111" s="2"/>
+      <c r="AML111" s="2"/>
     </row>
     <row r="112" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M112" s="9"/>
-      <c r="W112" s="9"/>
-      <c r="Y112" s="9"/>
-      <c r="AMI112" s="2"/>
+      <c r="X112" s="9"/>
+      <c r="Z112" s="9"/>
       <c r="AMJ112" s="2"/>
       <c r="AMK112" s="2"/>
+      <c r="AML112" s="2"/>
     </row>
     <row r="113" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M113" s="9"/>
-      <c r="W113" s="9"/>
-      <c r="Y113" s="9"/>
-      <c r="AMI113" s="2"/>
+      <c r="X113" s="9"/>
+      <c r="Z113" s="9"/>
       <c r="AMJ113" s="2"/>
       <c r="AMK113" s="2"/>
+      <c r="AML113" s="2"/>
     </row>
     <row r="114" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="Y114" s="9"/>
-      <c r="AMI114" s="2"/>
+      <c r="X114" s="9"/>
+      <c r="Z114" s="9"/>
       <c r="AMJ114" s="2"/>
       <c r="AMK114" s="2"/>
+      <c r="AML114" s="2"/>
     </row>
     <row r="115" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M115" s="9"/>
-      <c r="W115" s="9"/>
-      <c r="Y115" s="9"/>
-      <c r="AMI115" s="2"/>
+      <c r="X115" s="9"/>
+      <c r="Z115" s="9"/>
       <c r="AMJ115" s="2"/>
       <c r="AMK115" s="2"/>
+      <c r="AML115" s="2"/>
     </row>
     <row r="116" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M116" s="9"/>
-      <c r="W116" s="9"/>
-      <c r="Y116" s="9"/>
-      <c r="AMI116" s="2"/>
+      <c r="X116" s="9"/>
+      <c r="Z116" s="9"/>
       <c r="AMJ116" s="2"/>
       <c r="AMK116" s="2"/>
+      <c r="AML116" s="2"/>
     </row>
     <row r="117" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="Y117" s="9"/>
-      <c r="AMI117" s="2"/>
+      <c r="X117" s="9"/>
+      <c r="Z117" s="9"/>
       <c r="AMJ117" s="2"/>
       <c r="AMK117" s="2"/>
+      <c r="AML117" s="2"/>
     </row>
     <row r="118" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M118" s="9"/>
-      <c r="W118" s="9"/>
-      <c r="Y118" s="9"/>
-      <c r="AMI118" s="2"/>
+      <c r="X118" s="9"/>
+      <c r="Z118" s="9"/>
       <c r="AMJ118" s="2"/>
       <c r="AMK118" s="2"/>
+      <c r="AML118" s="2"/>
     </row>
     <row r="119" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M119" s="9"/>
-      <c r="W119" s="9"/>
-      <c r="Y119" s="9"/>
-      <c r="AMI119" s="2"/>
+      <c r="X119" s="9"/>
+      <c r="Z119" s="9"/>
       <c r="AMJ119" s="2"/>
       <c r="AMK119" s="2"/>
+      <c r="AML119" s="2"/>
     </row>
     <row r="120" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M120" s="9"/>
-      <c r="W120" s="9"/>
-      <c r="Y120" s="9"/>
-      <c r="AMI120" s="2"/>
+      <c r="X120" s="9"/>
+      <c r="Z120" s="9"/>
       <c r="AMJ120" s="2"/>
       <c r="AMK120" s="2"/>
+      <c r="AML120" s="2"/>
     </row>
     <row r="121" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M121" s="9"/>
-      <c r="W121" s="9"/>
-      <c r="Y121" s="9"/>
-      <c r="AMI121" s="2"/>
+      <c r="X121" s="9"/>
+      <c r="Z121" s="9"/>
       <c r="AMJ121" s="2"/>
       <c r="AMK121" s="2"/>
+      <c r="AML121" s="2"/>
     </row>
     <row r="122" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="Y122" s="9"/>
-      <c r="AMI122" s="2"/>
+      <c r="X122" s="9"/>
+      <c r="Z122" s="9"/>
       <c r="AMJ122" s="2"/>
       <c r="AMK122" s="2"/>
+      <c r="AML122" s="2"/>
     </row>
     <row r="123" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="Y123" s="9"/>
-      <c r="AMI123" s="2"/>
+      <c r="X123" s="9"/>
+      <c r="Z123" s="9"/>
       <c r="AMJ123" s="2"/>
       <c r="AMK123" s="2"/>
+      <c r="AML123" s="2"/>
     </row>
     <row r="124" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M124" s="9"/>
-      <c r="W124" s="9"/>
-      <c r="Y124" s="9"/>
-      <c r="AMI124" s="2"/>
+      <c r="X124" s="9"/>
+      <c r="Z124" s="9"/>
       <c r="AMJ124" s="2"/>
       <c r="AMK124" s="2"/>
+      <c r="AML124" s="2"/>
     </row>
     <row r="125" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="AMI125" s="2"/>
+      <c r="X125" s="9"/>
+      <c r="Z125" s="9"/>
       <c r="AMJ125" s="2"/>
       <c r="AMK125" s="2"/>
+      <c r="AML125" s="2"/>
     </row>
     <row r="126" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="Y126" s="9"/>
-      <c r="AMI126" s="2"/>
+      <c r="X126" s="9"/>
+      <c r="Z126" s="9"/>
       <c r="AMJ126" s="2"/>
       <c r="AMK126" s="2"/>
+      <c r="AML126" s="2"/>
     </row>
     <row r="127" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M127" s="9"/>
-      <c r="W127" s="9"/>
-      <c r="Y127" s="9"/>
-      <c r="AMI127" s="2"/>
+      <c r="X127" s="9"/>
+      <c r="Z127" s="9"/>
       <c r="AMJ127" s="2"/>
       <c r="AMK127" s="2"/>
+      <c r="AML127" s="2"/>
     </row>
     <row r="128" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M128" s="9"/>
-      <c r="W128" s="9"/>
-      <c r="Y128" s="9"/>
-      <c r="AMI128" s="2"/>
+      <c r="X128" s="9"/>
+      <c r="Z128" s="9"/>
       <c r="AMJ128" s="2"/>
       <c r="AMK128" s="2"/>
+      <c r="AML128" s="2"/>
     </row>
     <row r="129" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M129" s="9"/>
-      <c r="W129" s="9"/>
-      <c r="Y129" s="9"/>
-      <c r="AMI129" s="2"/>
+      <c r="X129" s="9"/>
+      <c r="Z129" s="9"/>
       <c r="AMJ129" s="2"/>
       <c r="AMK129" s="2"/>
+      <c r="AML129" s="2"/>
     </row>
     <row r="130" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="AMI130" s="2"/>
+      <c r="X130" s="9"/>
+      <c r="Z130" s="9"/>
       <c r="AMJ130" s="2"/>
       <c r="AMK130" s="2"/>
+      <c r="AML130" s="2"/>
     </row>
     <row r="131" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="Y131" s="9"/>
-      <c r="AMI131" s="2"/>
+      <c r="X131" s="9"/>
+      <c r="Z131" s="9"/>
       <c r="AMJ131" s="2"/>
       <c r="AMK131" s="2"/>
+      <c r="AML131" s="2"/>
     </row>
     <row r="132" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="AMI132" s="2"/>
+      <c r="X132" s="9"/>
+      <c r="Z132" s="9"/>
       <c r="AMJ132" s="2"/>
       <c r="AMK132" s="2"/>
+      <c r="AML132" s="2"/>
     </row>
     <row r="133" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="Y133" s="9"/>
-      <c r="AMI133" s="2"/>
+      <c r="X133" s="9"/>
+      <c r="Z133" s="9"/>
       <c r="AMJ133" s="2"/>
       <c r="AMK133" s="2"/>
+      <c r="AML133" s="2"/>
     </row>
     <row r="134" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="Y134" s="9"/>
-      <c r="AMI134" s="2"/>
+      <c r="X134" s="9"/>
+      <c r="Z134" s="9"/>
       <c r="AMJ134" s="2"/>
       <c r="AMK134" s="2"/>
+      <c r="AML134" s="2"/>
     </row>
     <row r="135" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="Y135" s="9"/>
-      <c r="AMI135" s="2"/>
+      <c r="X135" s="9"/>
+      <c r="Z135" s="9"/>
       <c r="AMJ135" s="2"/>
       <c r="AMK135" s="2"/>
+      <c r="AML135" s="2"/>
     </row>
     <row r="136" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="Y136" s="9"/>
-      <c r="AMI136" s="2"/>
+      <c r="X136" s="9"/>
+      <c r="Z136" s="9"/>
       <c r="AMJ136" s="2"/>
       <c r="AMK136" s="2"/>
+      <c r="AML136" s="2"/>
     </row>
     <row r="137" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="AMI137" s="2"/>
+      <c r="X137" s="9"/>
+      <c r="Z137" s="9"/>
       <c r="AMJ137" s="2"/>
       <c r="AMK137" s="2"/>
+      <c r="AML137" s="2"/>
     </row>
     <row r="138" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M138" s="9"/>
-      <c r="W138" s="9"/>
-      <c r="Y138" s="9"/>
-      <c r="AMI138" s="2"/>
+      <c r="X138" s="9"/>
+      <c r="Z138" s="9"/>
       <c r="AMJ138" s="2"/>
       <c r="AMK138" s="2"/>
+      <c r="AML138" s="2"/>
     </row>
     <row r="139" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M139" s="9"/>
-      <c r="W139" s="9"/>
-      <c r="Y139" s="9"/>
-      <c r="AMI139" s="2"/>
+      <c r="X139" s="9"/>
+      <c r="Z139" s="9"/>
       <c r="AMJ139" s="2"/>
       <c r="AMK139" s="2"/>
+      <c r="AML139" s="2"/>
     </row>
     <row r="140" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M140" s="9"/>
-      <c r="W140" s="9"/>
-      <c r="Y140" s="9"/>
-      <c r="AMI140" s="2"/>
+      <c r="X140" s="9"/>
+      <c r="Z140" s="9"/>
       <c r="AMJ140" s="2"/>
       <c r="AMK140" s="2"/>
+      <c r="AML140" s="2"/>
     </row>
     <row r="141" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="Y141" s="9"/>
-      <c r="AMI141" s="2"/>
+      <c r="X141" s="9"/>
+      <c r="Z141" s="9"/>
       <c r="AMJ141" s="2"/>
       <c r="AMK141" s="2"/>
+      <c r="AML141" s="2"/>
     </row>
     <row r="142" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="Y142" s="9"/>
-      <c r="AMI142" s="2"/>
+      <c r="X142" s="9"/>
+      <c r="Z142" s="9"/>
       <c r="AMJ142" s="2"/>
       <c r="AMK142" s="2"/>
+      <c r="AML142" s="2"/>
     </row>
     <row r="143" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="Y143" s="9"/>
-      <c r="AMI143" s="2"/>
+      <c r="X143" s="9"/>
+      <c r="Z143" s="9"/>
       <c r="AMJ143" s="2"/>
       <c r="AMK143" s="2"/>
+      <c r="AML143" s="2"/>
     </row>
     <row r="144" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M144" s="9"/>
-      <c r="W144" s="9"/>
-      <c r="Y144" s="9"/>
-      <c r="AMI144" s="2"/>
+      <c r="X144" s="9"/>
+      <c r="Z144" s="9"/>
       <c r="AMJ144" s="2"/>
       <c r="AMK144" s="2"/>
+      <c r="AML144" s="2"/>
     </row>
     <row r="145" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M145" s="9"/>
-      <c r="W145" s="9"/>
-      <c r="Y145" s="9"/>
-      <c r="AMI145" s="2"/>
+      <c r="X145" s="9"/>
+      <c r="Z145" s="9"/>
       <c r="AMJ145" s="2"/>
       <c r="AMK145" s="2"/>
+      <c r="AML145" s="2"/>
     </row>
     <row r="146" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="Y146" s="9"/>
-      <c r="AMI146" s="2"/>
+      <c r="X146" s="9"/>
+      <c r="Z146" s="9"/>
       <c r="AMJ146" s="2"/>
       <c r="AMK146" s="2"/>
+      <c r="AML146" s="2"/>
     </row>
     <row r="147" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M147" s="9"/>
-      <c r="W147" s="9"/>
-      <c r="Y147" s="9"/>
-      <c r="AMI147" s="2"/>
+      <c r="X147" s="9"/>
+      <c r="Z147" s="9"/>
       <c r="AMJ147" s="2"/>
       <c r="AMK147" s="2"/>
+      <c r="AML147" s="2"/>
     </row>
     <row r="148" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M148" s="9"/>
-      <c r="W148" s="9"/>
-      <c r="Y148" s="9"/>
-      <c r="AMI148" s="2"/>
+      <c r="X148" s="9"/>
+      <c r="Z148" s="9"/>
       <c r="AMJ148" s="2"/>
       <c r="AMK148" s="2"/>
+      <c r="AML148" s="2"/>
     </row>
     <row r="149" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M149" s="9"/>
-      <c r="W149" s="9"/>
-      <c r="Y149" s="9"/>
-      <c r="AMI149" s="2"/>
+      <c r="X149" s="9"/>
+      <c r="Z149" s="9"/>
       <c r="AMJ149" s="2"/>
       <c r="AMK149" s="2"/>
+      <c r="AML149" s="2"/>
     </row>
     <row r="150" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M150" s="9"/>
-      <c r="W150" s="9"/>
-      <c r="Y150" s="9"/>
-      <c r="AMI150" s="2"/>
+      <c r="X150" s="9"/>
+      <c r="Z150" s="9"/>
       <c r="AMJ150" s="2"/>
       <c r="AMK150" s="2"/>
+      <c r="AML150" s="2"/>
     </row>
     <row r="151" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M151" s="9"/>
-      <c r="W151" s="9"/>
-      <c r="Y151" s="9"/>
-      <c r="AMI151" s="2"/>
+      <c r="X151" s="9"/>
+      <c r="Z151" s="9"/>
       <c r="AMJ151" s="2"/>
       <c r="AMK151" s="2"/>
+      <c r="AML151" s="2"/>
     </row>
     <row r="152" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M152" s="9"/>
-      <c r="W152" s="9"/>
-      <c r="Y152" s="9"/>
-      <c r="AMI152" s="2"/>
+      <c r="X152" s="9"/>
+      <c r="Z152" s="9"/>
       <c r="AMJ152" s="2"/>
       <c r="AMK152" s="2"/>
+      <c r="AML152" s="2"/>
     </row>
     <row r="153" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M153" s="9"/>
-      <c r="W153" s="9"/>
-      <c r="Y153" s="9"/>
-      <c r="AMI153" s="2"/>
+      <c r="X153" s="9"/>
+      <c r="Z153" s="9"/>
       <c r="AMJ153" s="2"/>
       <c r="AMK153" s="2"/>
+      <c r="AML153" s="2"/>
     </row>
     <row r="154" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M154" s="9"/>
-      <c r="W154" s="9"/>
-      <c r="Y154" s="9"/>
-      <c r="AMI154" s="2"/>
+      <c r="X154" s="9"/>
+      <c r="Z154" s="9"/>
       <c r="AMJ154" s="2"/>
       <c r="AMK154" s="2"/>
+      <c r="AML154" s="2"/>
     </row>
     <row r="155" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M155" s="9"/>
-      <c r="W155" s="9"/>
-      <c r="Y155" s="9"/>
-      <c r="AMI155" s="2"/>
+      <c r="X155" s="9"/>
+      <c r="Z155" s="9"/>
       <c r="AMJ155" s="2"/>
       <c r="AMK155" s="2"/>
+      <c r="AML155" s="2"/>
     </row>
     <row r="156" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M156" s="9"/>
-      <c r="W156" s="9"/>
-      <c r="Y156" s="9"/>
-      <c r="AMI156" s="2"/>
+      <c r="X156" s="9"/>
+      <c r="Z156" s="9"/>
       <c r="AMJ156" s="2"/>
       <c r="AMK156" s="2"/>
+      <c r="AML156" s="2"/>
     </row>
     <row r="157" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M157" s="9"/>
-      <c r="W157" s="9"/>
-      <c r="Y157" s="9"/>
-      <c r="AMI157" s="2"/>
+      <c r="X157" s="9"/>
+      <c r="Z157" s="9"/>
       <c r="AMJ157" s="2"/>
       <c r="AMK157" s="2"/>
+      <c r="AML157" s="2"/>
     </row>
     <row r="158" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M158" s="9"/>
-      <c r="W158" s="9"/>
-      <c r="Y158" s="9"/>
-      <c r="AMI158" s="2"/>
+      <c r="X158" s="9"/>
+      <c r="Z158" s="9"/>
       <c r="AMJ158" s="2"/>
       <c r="AMK158" s="2"/>
+      <c r="AML158" s="2"/>
     </row>
     <row r="159" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M159" s="9"/>
-      <c r="W159" s="9"/>
-      <c r="Y159" s="9"/>
-      <c r="AMI159" s="2"/>
+      <c r="X159" s="9"/>
+      <c r="Z159" s="9"/>
       <c r="AMJ159" s="2"/>
       <c r="AMK159" s="2"/>
+      <c r="AML159" s="2"/>
     </row>
     <row r="160" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M160" s="9"/>
-      <c r="W160" s="9"/>
-      <c r="Y160" s="9"/>
-      <c r="AMI160" s="2"/>
+      <c r="X160" s="9"/>
+      <c r="Z160" s="9"/>
       <c r="AMJ160" s="2"/>
       <c r="AMK160" s="2"/>
+      <c r="AML160" s="2"/>
     </row>
     <row r="161" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M161" s="9"/>
-      <c r="W161" s="9"/>
-      <c r="Y161" s="9"/>
-      <c r="AMI161" s="2"/>
+      <c r="X161" s="9"/>
+      <c r="Z161" s="9"/>
       <c r="AMJ161" s="2"/>
       <c r="AMK161" s="2"/>
+      <c r="AML161" s="2"/>
     </row>
     <row r="162" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M162" s="9"/>
-      <c r="W162" s="9"/>
-      <c r="Y162" s="9"/>
-      <c r="AMI162" s="2"/>
+      <c r="X162" s="9"/>
+      <c r="Z162" s="9"/>
       <c r="AMJ162" s="2"/>
       <c r="AMK162" s="2"/>
+      <c r="AML162" s="2"/>
     </row>
     <row r="163" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M163" s="9"/>
-      <c r="W163" s="9"/>
-      <c r="Y163" s="9"/>
-      <c r="AMI163" s="2"/>
+      <c r="X163" s="9"/>
+      <c r="Z163" s="9"/>
       <c r="AMJ163" s="2"/>
       <c r="AMK163" s="2"/>
+      <c r="AML163" s="2"/>
     </row>
     <row r="164" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M164" s="9"/>
-      <c r="W164" s="9"/>
-      <c r="Y164" s="9"/>
-      <c r="AMI164" s="2"/>
+      <c r="X164" s="9"/>
+      <c r="Z164" s="9"/>
       <c r="AMJ164" s="2"/>
       <c r="AMK164" s="2"/>
+      <c r="AML164" s="2"/>
     </row>
     <row r="165" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M165" s="9"/>
-      <c r="W165" s="9"/>
-      <c r="Y165" s="9"/>
-      <c r="AMI165" s="2"/>
+      <c r="X165" s="9"/>
+      <c r="Z165" s="9"/>
       <c r="AMJ165" s="2"/>
       <c r="AMK165" s="2"/>
+      <c r="AML165" s="2"/>
     </row>
     <row r="166" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M166" s="9"/>
-      <c r="W166" s="9"/>
-      <c r="Y166" s="9"/>
-      <c r="AMI166" s="2"/>
+      <c r="X166" s="9"/>
+      <c r="Z166" s="9"/>
       <c r="AMJ166" s="2"/>
       <c r="AMK166" s="2"/>
+      <c r="AML166" s="2"/>
     </row>
     <row r="167" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M167" s="9"/>
-      <c r="W167" s="9"/>
-      <c r="Y167" s="9"/>
-      <c r="AMI167" s="2"/>
+      <c r="X167" s="9"/>
+      <c r="Z167" s="9"/>
       <c r="AMJ167" s="2"/>
       <c r="AMK167" s="2"/>
+      <c r="AML167" s="2"/>
     </row>
     <row r="168" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M168" s="9"/>
-      <c r="W168" s="9"/>
-      <c r="Y168" s="9"/>
-      <c r="AMI168" s="2"/>
+      <c r="X168" s="9"/>
+      <c r="Z168" s="9"/>
       <c r="AMJ168" s="2"/>
       <c r="AMK168" s="2"/>
+      <c r="AML168" s="2"/>
     </row>
     <row r="169" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M169" s="9"/>
-      <c r="W169" s="9"/>
-      <c r="Y169" s="9"/>
-      <c r="AMI169" s="2"/>
+      <c r="X169" s="9"/>
+      <c r="Z169" s="9"/>
       <c r="AMJ169" s="2"/>
       <c r="AMK169" s="2"/>
+      <c r="AML169" s="2"/>
     </row>
     <row r="170" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M170" s="9"/>
-      <c r="W170" s="9"/>
-      <c r="Y170" s="9"/>
-      <c r="AMI170" s="2"/>
+      <c r="X170" s="9"/>
+      <c r="Z170" s="9"/>
       <c r="AMJ170" s="2"/>
       <c r="AMK170" s="2"/>
+      <c r="AML170" s="2"/>
     </row>
     <row r="171" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M171" s="9"/>
-      <c r="W171" s="9"/>
-      <c r="Y171" s="9"/>
-      <c r="AMI171" s="2"/>
+      <c r="X171" s="9"/>
+      <c r="Z171" s="9"/>
       <c r="AMJ171" s="2"/>
       <c r="AMK171" s="2"/>
+      <c r="AML171" s="2"/>
     </row>
     <row r="172" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M172" s="9"/>
-      <c r="W172" s="9"/>
-      <c r="Y172" s="9"/>
-      <c r="AMI172" s="2"/>
+      <c r="X172" s="9"/>
+      <c r="Z172" s="9"/>
       <c r="AMJ172" s="2"/>
       <c r="AMK172" s="2"/>
+      <c r="AML172" s="2"/>
     </row>
     <row r="173" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M173" s="9"/>
-      <c r="W173" s="9"/>
-      <c r="Y173" s="9"/>
-      <c r="AMI173" s="2"/>
+      <c r="X173" s="9"/>
+      <c r="Z173" s="9"/>
       <c r="AMJ173" s="2"/>
       <c r="AMK173" s="2"/>
+      <c r="AML173" s="2"/>
     </row>
     <row r="174" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M174" s="9"/>
-      <c r="W174" s="9"/>
-      <c r="Y174" s="9"/>
-      <c r="AMI174" s="2"/>
+      <c r="X174" s="9"/>
+      <c r="Z174" s="9"/>
       <c r="AMJ174" s="2"/>
       <c r="AMK174" s="2"/>
+      <c r="AML174" s="2"/>
     </row>
     <row r="175" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M175" s="9"/>
-      <c r="W175" s="9"/>
-      <c r="Y175" s="9"/>
-      <c r="AMI175" s="2"/>
+      <c r="X175" s="9"/>
+      <c r="Z175" s="9"/>
       <c r="AMJ175" s="2"/>
       <c r="AMK175" s="2"/>
+      <c r="AML175" s="2"/>
     </row>
     <row r="176" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M176" s="9"/>
-      <c r="W176" s="9"/>
-      <c r="Y176" s="9"/>
-      <c r="AMI176" s="2"/>
+      <c r="X176" s="9"/>
+      <c r="Z176" s="9"/>
       <c r="AMJ176" s="2"/>
       <c r="AMK176" s="2"/>
+      <c r="AML176" s="2"/>
     </row>
     <row r="177" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M177" s="9"/>
-      <c r="W177" s="9"/>
-      <c r="Y177" s="9"/>
-      <c r="AMI177" s="2"/>
+      <c r="X177" s="9"/>
+      <c r="Z177" s="9"/>
       <c r="AMJ177" s="2"/>
       <c r="AMK177" s="2"/>
+      <c r="AML177" s="2"/>
     </row>
     <row r="178" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M178" s="9"/>
-      <c r="W178" s="9"/>
-      <c r="Y178" s="9"/>
-      <c r="AMI178" s="2"/>
+      <c r="X178" s="9"/>
+      <c r="Z178" s="9"/>
       <c r="AMJ178" s="2"/>
       <c r="AMK178" s="2"/>
+      <c r="AML178" s="2"/>
     </row>
     <row r="179" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M179" s="9"/>
-      <c r="W179" s="9"/>
-      <c r="Y179" s="9"/>
-      <c r="AMI179" s="2"/>
+      <c r="X179" s="9"/>
+      <c r="Z179" s="9"/>
       <c r="AMJ179" s="2"/>
       <c r="AMK179" s="2"/>
+      <c r="AML179" s="2"/>
     </row>
     <row r="180" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M180" s="9"/>
-      <c r="W180" s="9"/>
-      <c r="Y180" s="9"/>
-      <c r="AMI180" s="2"/>
+      <c r="X180" s="9"/>
+      <c r="Z180" s="9"/>
       <c r="AMJ180" s="2"/>
       <c r="AMK180" s="2"/>
+      <c r="AML180" s="2"/>
     </row>
     <row r="181" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M181" s="9"/>
-      <c r="W181" s="9"/>
-      <c r="Y181" s="9"/>
-      <c r="AMI181" s="2"/>
+      <c r="X181" s="9"/>
+      <c r="Z181" s="9"/>
       <c r="AMJ181" s="2"/>
       <c r="AMK181" s="2"/>
+      <c r="AML181" s="2"/>
     </row>
     <row r="182" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M182" s="9"/>
-      <c r="W182" s="9"/>
-      <c r="Y182" s="9"/>
-      <c r="AMI182" s="2"/>
+      <c r="X182" s="9"/>
+      <c r="Z182" s="9"/>
       <c r="AMJ182" s="2"/>
       <c r="AMK182" s="2"/>
+      <c r="AML182" s="2"/>
     </row>
     <row r="183" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M183" s="9"/>
-      <c r="W183" s="9"/>
-      <c r="Y183" s="9"/>
-      <c r="AMI183" s="2"/>
+      <c r="X183" s="9"/>
+      <c r="Z183" s="9"/>
       <c r="AMJ183" s="2"/>
       <c r="AMK183" s="2"/>
+      <c r="AML183" s="2"/>
     </row>
     <row r="184" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M184" s="9"/>
-      <c r="W184" s="9"/>
-      <c r="Y184" s="9"/>
-      <c r="AMI184" s="2"/>
+      <c r="X184" s="9"/>
+      <c r="Z184" s="9"/>
       <c r="AMJ184" s="2"/>
       <c r="AMK184" s="2"/>
+      <c r="AML184" s="2"/>
     </row>
     <row r="185" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M185" s="9"/>
-      <c r="W185" s="9"/>
-      <c r="Y185" s="9"/>
-      <c r="AMI185" s="2"/>
+      <c r="X185" s="9"/>
+      <c r="Z185" s="9"/>
       <c r="AMJ185" s="2"/>
       <c r="AMK185" s="2"/>
+      <c r="AML185" s="2"/>
     </row>
     <row r="186" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M186" s="9"/>
-      <c r="W186" s="9"/>
-      <c r="Y186" s="9"/>
-      <c r="AMI186" s="2"/>
+      <c r="X186" s="9"/>
+      <c r="Z186" s="9"/>
       <c r="AMJ186" s="2"/>
       <c r="AMK186" s="2"/>
+      <c r="AML186" s="2"/>
     </row>
     <row r="187" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M187" s="9"/>
-      <c r="W187" s="9"/>
-      <c r="Y187" s="9"/>
-      <c r="AMI187" s="2"/>
+      <c r="X187" s="9"/>
+      <c r="Z187" s="9"/>
       <c r="AMJ187" s="2"/>
       <c r="AMK187" s="2"/>
+      <c r="AML187" s="2"/>
     </row>
     <row r="188" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M188" s="9"/>
-      <c r="W188" s="9"/>
-      <c r="Y188" s="9"/>
-      <c r="AMI188" s="2"/>
+      <c r="X188" s="9"/>
+      <c r="Z188" s="9"/>
       <c r="AMJ188" s="2"/>
       <c r="AMK188" s="2"/>
+      <c r="AML188" s="2"/>
     </row>
     <row r="189" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M189" s="9"/>
-      <c r="W189" s="9"/>
-      <c r="Y189" s="9"/>
-      <c r="AMI189" s="2"/>
+      <c r="X189" s="9"/>
+      <c r="Z189" s="9"/>
       <c r="AMJ189" s="2"/>
       <c r="AMK189" s="2"/>
+      <c r="AML189" s="2"/>
     </row>
     <row r="190" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M190" s="9"/>
-      <c r="W190" s="9"/>
-      <c r="Y190" s="9"/>
-      <c r="AMI190" s="2"/>
+      <c r="X190" s="9"/>
+      <c r="Z190" s="9"/>
       <c r="AMJ190" s="2"/>
       <c r="AMK190" s="2"/>
+      <c r="AML190" s="2"/>
     </row>
     <row r="191" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M191" s="9"/>
-      <c r="W191" s="9"/>
-      <c r="Y191" s="9"/>
-      <c r="AMI191" s="2"/>
+      <c r="X191" s="9"/>
+      <c r="Z191" s="9"/>
       <c r="AMJ191" s="2"/>
       <c r="AMK191" s="2"/>
+      <c r="AML191" s="2"/>
     </row>
     <row r="192" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M192" s="9"/>
-      <c r="W192" s="9"/>
-      <c r="Y192" s="9"/>
-      <c r="AMI192" s="2"/>
+      <c r="X192" s="9"/>
+      <c r="Z192" s="9"/>
       <c r="AMJ192" s="2"/>
       <c r="AMK192" s="2"/>
+      <c r="AML192" s="2"/>
     </row>
     <row r="193" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M193" s="9"/>
-      <c r="W193" s="9"/>
-      <c r="Y193" s="9"/>
-      <c r="AMI193" s="2"/>
+      <c r="X193" s="9"/>
+      <c r="Z193" s="9"/>
       <c r="AMJ193" s="2"/>
       <c r="AMK193" s="2"/>
+      <c r="AML193" s="2"/>
     </row>
     <row r="194" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M194" s="9"/>
-      <c r="W194" s="9"/>
-      <c r="Y194" s="9"/>
-      <c r="AMI194" s="2"/>
+      <c r="X194" s="9"/>
+      <c r="Z194" s="9"/>
       <c r="AMJ194" s="2"/>
       <c r="AMK194" s="2"/>
+      <c r="AML194" s="2"/>
     </row>
     <row r="195" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M195" s="9"/>
-      <c r="W195" s="9"/>
-      <c r="Y195" s="9"/>
-      <c r="AMI195" s="2"/>
+      <c r="X195" s="9"/>
+      <c r="Z195" s="9"/>
       <c r="AMJ195" s="2"/>
       <c r="AMK195" s="2"/>
+      <c r="AML195" s="2"/>
     </row>
     <row r="196" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M196" s="9"/>
-      <c r="W196" s="9"/>
-      <c r="Y196" s="9"/>
-      <c r="AMI196" s="2"/>
+      <c r="X196" s="9"/>
+      <c r="Z196" s="9"/>
       <c r="AMJ196" s="2"/>
       <c r="AMK196" s="2"/>
+      <c r="AML196" s="2"/>
     </row>
     <row r="197" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M197" s="9"/>
-      <c r="W197" s="9"/>
-      <c r="Y197" s="9"/>
-      <c r="AMI197" s="2"/>
+      <c r="X197" s="9"/>
+      <c r="Z197" s="9"/>
       <c r="AMJ197" s="2"/>
       <c r="AMK197" s="2"/>
+      <c r="AML197" s="2"/>
     </row>
     <row r="198" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M198" s="9"/>
-      <c r="W198" s="9"/>
-      <c r="Y198" s="9"/>
-      <c r="AMI198" s="2"/>
+      <c r="X198" s="9"/>
+      <c r="Z198" s="9"/>
       <c r="AMJ198" s="2"/>
       <c r="AMK198" s="2"/>
+      <c r="AML198" s="2"/>
     </row>
     <row r="199" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M199" s="9"/>
-      <c r="W199" s="9"/>
-      <c r="Y199" s="9"/>
-      <c r="AMI199" s="2"/>
+      <c r="X199" s="9"/>
+      <c r="Z199" s="9"/>
       <c r="AMJ199" s="2"/>
       <c r="AMK199" s="2"/>
+      <c r="AML199" s="2"/>
     </row>
     <row r="200" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M200" s="9"/>
-      <c r="W200" s="9"/>
-      <c r="Y200" s="9"/>
-      <c r="AMI200" s="2"/>
+      <c r="X200" s="9"/>
+      <c r="Z200" s="9"/>
       <c r="AMJ200" s="2"/>
       <c r="AMK200" s="2"/>
+      <c r="AML200" s="2"/>
     </row>
     <row r="201" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M201" s="9"/>
-      <c r="W201" s="9"/>
-      <c r="Y201" s="9"/>
-      <c r="AMI201" s="2"/>
+      <c r="X201" s="9"/>
+      <c r="Z201" s="9"/>
       <c r="AMJ201" s="2"/>
       <c r="AMK201" s="2"/>
+      <c r="AML201" s="2"/>
     </row>
     <row r="202" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M202" s="9"/>
-      <c r="W202" s="9"/>
-      <c r="Y202" s="9"/>
-      <c r="AMI202" s="2"/>
+      <c r="X202" s="9"/>
+      <c r="Z202" s="9"/>
       <c r="AMJ202" s="2"/>
       <c r="AMK202" s="2"/>
+      <c r="AML202" s="2"/>
     </row>
     <row r="203" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M203" s="9"/>
-      <c r="W203" s="9"/>
-      <c r="Y203" s="9"/>
-      <c r="AMI203" s="2"/>
+      <c r="X203" s="9"/>
+      <c r="Z203" s="9"/>
       <c r="AMJ203" s="2"/>
       <c r="AMK203" s="2"/>
+      <c r="AML203" s="2"/>
     </row>
     <row r="204" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M204" s="9"/>
-      <c r="W204" s="9"/>
-      <c r="Y204" s="9"/>
-      <c r="AMI204" s="2"/>
+      <c r="X204" s="9"/>
+      <c r="Z204" s="9"/>
       <c r="AMJ204" s="2"/>
       <c r="AMK204" s="2"/>
+      <c r="AML204" s="2"/>
     </row>
     <row r="205" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M205" s="9"/>
-      <c r="W205" s="9"/>
-      <c r="Y205" s="9"/>
-      <c r="AMI205" s="2"/>
+      <c r="X205" s="9"/>
+      <c r="Z205" s="9"/>
       <c r="AMJ205" s="2"/>
       <c r="AMK205" s="2"/>
+      <c r="AML205" s="2"/>
     </row>
     <row r="206" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M206" s="9"/>
-      <c r="W206" s="9"/>
-      <c r="Y206" s="9"/>
-      <c r="AMI206" s="2"/>
+      <c r="X206" s="9"/>
+      <c r="Z206" s="9"/>
       <c r="AMJ206" s="2"/>
       <c r="AMK206" s="2"/>
+      <c r="AML206" s="2"/>
     </row>
     <row r="207" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M207" s="9"/>
-      <c r="W207" s="9"/>
-      <c r="Y207" s="9"/>
-      <c r="AMI207" s="2"/>
+      <c r="X207" s="9"/>
+      <c r="Z207" s="9"/>
       <c r="AMJ207" s="2"/>
       <c r="AMK207" s="2"/>
+      <c r="AML207" s="2"/>
     </row>
     <row r="208" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M208" s="9"/>
-      <c r="W208" s="9"/>
-      <c r="Y208" s="9"/>
-      <c r="AMI208" s="2"/>
+      <c r="X208" s="9"/>
+      <c r="Z208" s="9"/>
       <c r="AMJ208" s="2"/>
       <c r="AMK208" s="2"/>
+      <c r="AML208" s="2"/>
     </row>
     <row r="209" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M209" s="9"/>
-      <c r="W209" s="9"/>
-      <c r="Y209" s="9"/>
-      <c r="AMI209" s="2"/>
+      <c r="X209" s="9"/>
+      <c r="Z209" s="9"/>
       <c r="AMJ209" s="2"/>
       <c r="AMK209" s="2"/>
+      <c r="AML209" s="2"/>
     </row>
     <row r="210" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M210" s="9"/>
-      <c r="W210" s="9"/>
-      <c r="Y210" s="9"/>
-      <c r="AMI210" s="2"/>
+      <c r="X210" s="9"/>
+      <c r="Z210" s="9"/>
       <c r="AMJ210" s="2"/>
       <c r="AMK210" s="2"/>
+      <c r="AML210" s="2"/>
     </row>
     <row r="211" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M211" s="9"/>
-      <c r="W211" s="9"/>
-      <c r="Y211" s="9"/>
-      <c r="AMI211" s="2"/>
+      <c r="X211" s="9"/>
+      <c r="Z211" s="9"/>
       <c r="AMJ211" s="2"/>
       <c r="AMK211" s="2"/>
+      <c r="AML211" s="2"/>
     </row>
     <row r="212" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M212" s="9"/>
-      <c r="W212" s="9"/>
-      <c r="Y212" s="9"/>
-      <c r="AMI212" s="2"/>
+      <c r="X212" s="9"/>
+      <c r="Z212" s="9"/>
       <c r="AMJ212" s="2"/>
       <c r="AMK212" s="2"/>
+      <c r="AML212" s="2"/>
     </row>
     <row r="213" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M213" s="9"/>
-      <c r="W213" s="9"/>
-      <c r="Y213" s="9"/>
-      <c r="AMI213" s="2"/>
+      <c r="X213" s="9"/>
+      <c r="Z213" s="9"/>
       <c r="AMJ213" s="2"/>
       <c r="AMK213" s="2"/>
+      <c r="AML213" s="2"/>
     </row>
     <row r="214" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M214" s="9"/>
-      <c r="W214" s="9"/>
-      <c r="Y214" s="9"/>
-      <c r="AMI214" s="2"/>
+      <c r="X214" s="9"/>
+      <c r="Z214" s="9"/>
       <c r="AMJ214" s="2"/>
       <c r="AMK214" s="2"/>
+      <c r="AML214" s="2"/>
     </row>
     <row r="215" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M215" s="9"/>
-      <c r="W215" s="9"/>
-      <c r="Y215" s="9"/>
-      <c r="AMI215" s="2"/>
+      <c r="X215" s="9"/>
+      <c r="Z215" s="9"/>
       <c r="AMJ215" s="2"/>
       <c r="AMK215" s="2"/>
+      <c r="AML215" s="2"/>
     </row>
     <row r="216" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M216" s="9"/>
-      <c r="W216" s="9"/>
-      <c r="Y216" s="9"/>
-      <c r="AMI216" s="2"/>
+      <c r="X216" s="9"/>
+      <c r="Z216" s="9"/>
       <c r="AMJ216" s="2"/>
       <c r="AMK216" s="2"/>
+      <c r="AML216" s="2"/>
     </row>
     <row r="217" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M217" s="9"/>
-      <c r="W217" s="9"/>
-      <c r="Y217" s="9"/>
-      <c r="AMI217" s="2"/>
+      <c r="X217" s="9"/>
+      <c r="Z217" s="9"/>
       <c r="AMJ217" s="2"/>
       <c r="AMK217" s="2"/>
+      <c r="AML217" s="2"/>
     </row>
     <row r="218" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M218" s="9"/>
-      <c r="W218" s="9"/>
-      <c r="Y218" s="9"/>
-      <c r="AMI218" s="2"/>
+      <c r="X218" s="9"/>
+      <c r="Z218" s="9"/>
       <c r="AMJ218" s="2"/>
       <c r="AMK218" s="2"/>
+      <c r="AML218" s="2"/>
     </row>
     <row r="219" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M219" s="9"/>
-      <c r="W219" s="9"/>
-      <c r="Y219" s="9"/>
-      <c r="AMI219" s="2"/>
+      <c r="X219" s="9"/>
+      <c r="Z219" s="9"/>
       <c r="AMJ219" s="2"/>
       <c r="AMK219" s="2"/>
+      <c r="AML219" s="2"/>
     </row>
     <row r="220" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M220" s="9"/>
-      <c r="W220" s="9"/>
-      <c r="Y220" s="9"/>
-      <c r="AMI220" s="2"/>
+      <c r="X220" s="9"/>
+      <c r="Z220" s="9"/>
       <c r="AMJ220" s="2"/>
       <c r="AMK220" s="2"/>
+      <c r="AML220" s="2"/>
     </row>
     <row r="221" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M221" s="9"/>
-      <c r="W221" s="9"/>
-      <c r="Y221" s="9"/>
-      <c r="AMI221" s="2"/>
+      <c r="X221" s="9"/>
+      <c r="Z221" s="9"/>
       <c r="AMJ221" s="2"/>
       <c r="AMK221" s="2"/>
+      <c r="AML221" s="2"/>
     </row>
     <row r="222" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M222" s="9"/>
-      <c r="W222" s="9"/>
-      <c r="Y222" s="9"/>
-      <c r="AMI222" s="2"/>
+      <c r="X222" s="9"/>
+      <c r="Z222" s="9"/>
       <c r="AMJ222" s="2"/>
       <c r="AMK222" s="2"/>
+      <c r="AML222" s="2"/>
     </row>
     <row r="223" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M223" s="9"/>
-      <c r="W223" s="9"/>
-      <c r="Y223" s="9"/>
-      <c r="AMI223" s="2"/>
+      <c r="X223" s="9"/>
+      <c r="Z223" s="9"/>
       <c r="AMJ223" s="2"/>
       <c r="AMK223" s="2"/>
+      <c r="AML223" s="2"/>
     </row>
     <row r="224" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M224" s="9"/>
-      <c r="W224" s="9"/>
-      <c r="Y224" s="9"/>
-      <c r="AMI224" s="2"/>
+      <c r="X224" s="9"/>
+      <c r="Z224" s="9"/>
       <c r="AMJ224" s="2"/>
       <c r="AMK224" s="2"/>
+      <c r="AML224" s="2"/>
     </row>
     <row r="225" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M225" s="9"/>
-      <c r="W225" s="9"/>
-      <c r="Y225" s="9"/>
-      <c r="AMI225" s="2"/>
+      <c r="X225" s="9"/>
+      <c r="Z225" s="9"/>
       <c r="AMJ225" s="2"/>
       <c r="AMK225" s="2"/>
+      <c r="AML225" s="2"/>
     </row>
     <row r="226" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M226" s="9"/>
-      <c r="W226" s="9"/>
-      <c r="Y226" s="9"/>
-      <c r="AMI226" s="2"/>
+      <c r="X226" s="9"/>
+      <c r="Z226" s="9"/>
       <c r="AMJ226" s="2"/>
       <c r="AMK226" s="2"/>
+      <c r="AML226" s="2"/>
     </row>
     <row r="227" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M227" s="9"/>
-      <c r="W227" s="9"/>
-      <c r="Y227" s="9"/>
-      <c r="AMI227" s="2"/>
+      <c r="X227" s="9"/>
+      <c r="Z227" s="9"/>
       <c r="AMJ227" s="2"/>
       <c r="AMK227" s="2"/>
+      <c r="AML227" s="2"/>
     </row>
     <row r="228" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M228" s="9"/>
-      <c r="W228" s="9"/>
-      <c r="Y228" s="9"/>
-      <c r="AMI228" s="2"/>
+      <c r="X228" s="9"/>
+      <c r="Z228" s="9"/>
       <c r="AMJ228" s="2"/>
       <c r="AMK228" s="2"/>
+      <c r="AML228" s="2"/>
     </row>
     <row r="229" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M229" s="9"/>
-      <c r="W229" s="9"/>
-      <c r="Y229" s="9"/>
-      <c r="AMI229" s="2"/>
+      <c r="X229" s="9"/>
+      <c r="Z229" s="9"/>
       <c r="AMJ229" s="2"/>
       <c r="AMK229" s="2"/>
+      <c r="AML229" s="2"/>
     </row>
     <row r="230" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M230" s="9"/>
-      <c r="W230" s="9"/>
-      <c r="Y230" s="9"/>
-      <c r="AMI230" s="2"/>
+      <c r="X230" s="9"/>
+      <c r="Z230" s="9"/>
       <c r="AMJ230" s="2"/>
       <c r="AMK230" s="2"/>
+      <c r="AML230" s="2"/>
     </row>
     <row r="231" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M231" s="9"/>
-      <c r="W231" s="9"/>
-      <c r="Y231" s="9"/>
-      <c r="AMI231" s="2"/>
+      <c r="X231" s="9"/>
+      <c r="Z231" s="9"/>
       <c r="AMJ231" s="2"/>
       <c r="AMK231" s="2"/>
+      <c r="AML231" s="2"/>
     </row>
     <row r="232" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M232" s="9"/>
-      <c r="W232" s="9"/>
-      <c r="Y232" s="9"/>
-      <c r="AMI232" s="2"/>
+      <c r="X232" s="9"/>
+      <c r="Z232" s="9"/>
       <c r="AMJ232" s="2"/>
       <c r="AMK232" s="2"/>
+      <c r="AML232" s="2"/>
     </row>
     <row r="233" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M233" s="9"/>
-      <c r="W233" s="9"/>
-      <c r="Y233" s="9"/>
-      <c r="AMI233" s="2"/>
+      <c r="X233" s="9"/>
+      <c r="Z233" s="9"/>
       <c r="AMJ233" s="2"/>
       <c r="AMK233" s="2"/>
+      <c r="AML233" s="2"/>
     </row>
     <row r="234" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M234" s="9"/>
-      <c r="W234" s="9"/>
-      <c r="Y234" s="9"/>
-      <c r="AMI234" s="2"/>
+      <c r="X234" s="9"/>
+      <c r="Z234" s="9"/>
       <c r="AMJ234" s="2"/>
       <c r="AMK234" s="2"/>
+      <c r="AML234" s="2"/>
     </row>
     <row r="235" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M235" s="9"/>
-      <c r="W235" s="9"/>
-      <c r="Y235" s="9"/>
-      <c r="AMI235" s="2"/>
+      <c r="X235" s="9"/>
+      <c r="Z235" s="9"/>
       <c r="AMJ235" s="2"/>
       <c r="AMK235" s="2"/>
+      <c r="AML235" s="2"/>
     </row>
     <row r="236" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M236" s="9"/>
-      <c r="W236" s="9"/>
-      <c r="Y236" s="9"/>
-      <c r="AMI236" s="2"/>
+      <c r="X236" s="9"/>
+      <c r="Z236" s="9"/>
       <c r="AMJ236" s="2"/>
       <c r="AMK236" s="2"/>
+      <c r="AML236" s="2"/>
     </row>
     <row r="237" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M237" s="9"/>
-      <c r="W237" s="9"/>
-      <c r="Y237" s="9"/>
-      <c r="AMI237" s="2"/>
+      <c r="X237" s="9"/>
+      <c r="Z237" s="9"/>
       <c r="AMJ237" s="2"/>
       <c r="AMK237" s="2"/>
+      <c r="AML237" s="2"/>
     </row>
     <row r="238" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M238" s="9"/>
-      <c r="W238" s="9"/>
-      <c r="Y238" s="9"/>
-      <c r="AMI238" s="2"/>
+      <c r="X238" s="9"/>
+      <c r="Z238" s="9"/>
       <c r="AMJ238" s="2"/>
       <c r="AMK238" s="2"/>
+      <c r="AML238" s="2"/>
     </row>
     <row r="239" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M239" s="9"/>
-      <c r="W239" s="9"/>
-      <c r="Y239" s="9"/>
-      <c r="AMI239" s="2"/>
+      <c r="X239" s="9"/>
+      <c r="Z239" s="9"/>
       <c r="AMJ239" s="2"/>
       <c r="AMK239" s="2"/>
+      <c r="AML239" s="2"/>
     </row>
     <row r="240" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M240" s="9"/>
-      <c r="W240" s="9"/>
-      <c r="Y240" s="9"/>
-      <c r="AMI240" s="2"/>
+      <c r="X240" s="9"/>
+      <c r="Z240" s="9"/>
       <c r="AMJ240" s="2"/>
       <c r="AMK240" s="2"/>
+      <c r="AML240" s="2"/>
     </row>
     <row r="241" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M241" s="9"/>
-      <c r="W241" s="9"/>
-      <c r="Y241" s="9"/>
-      <c r="AMI241" s="2"/>
+      <c r="X241" s="9"/>
+      <c r="Z241" s="9"/>
       <c r="AMJ241" s="2"/>
       <c r="AMK241" s="2"/>
+      <c r="AML241" s="2"/>
     </row>
     <row r="242" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M242" s="9"/>
-      <c r="W242" s="9"/>
-      <c r="Y242" s="9"/>
-      <c r="AMI242" s="2"/>
+      <c r="X242" s="9"/>
+      <c r="Z242" s="9"/>
       <c r="AMJ242" s="2"/>
       <c r="AMK242" s="2"/>
+      <c r="AML242" s="2"/>
     </row>
     <row r="243" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M243" s="9"/>
-      <c r="W243" s="9"/>
-      <c r="Y243" s="9"/>
-      <c r="AMI243" s="2"/>
+      <c r="X243" s="9"/>
+      <c r="Z243" s="9"/>
       <c r="AMJ243" s="2"/>
       <c r="AMK243" s="2"/>
+      <c r="AML243" s="2"/>
     </row>
     <row r="244" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M244" s="9"/>
-      <c r="W244" s="9"/>
-      <c r="Y244" s="9"/>
-      <c r="AMI244" s="2"/>
+      <c r="X244" s="9"/>
+      <c r="Z244" s="9"/>
       <c r="AMJ244" s="2"/>
       <c r="AMK244" s="2"/>
+      <c r="AML244" s="2"/>
     </row>
     <row r="245" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M245" s="9"/>
-      <c r="W245" s="9"/>
-      <c r="Y245" s="9"/>
-      <c r="AMI245" s="2"/>
+      <c r="X245" s="9"/>
+      <c r="Z245" s="9"/>
       <c r="AMJ245" s="2"/>
       <c r="AMK245" s="2"/>
+      <c r="AML245" s="2"/>
     </row>
     <row r="246" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M246" s="9"/>
-      <c r="W246" s="9"/>
-      <c r="Y246" s="9"/>
-      <c r="AMI246" s="2"/>
+      <c r="X246" s="9"/>
+      <c r="Z246" s="9"/>
       <c r="AMJ246" s="2"/>
       <c r="AMK246" s="2"/>
+      <c r="AML246" s="2"/>
     </row>
     <row r="247" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M247" s="9"/>
-      <c r="W247" s="9"/>
-      <c r="Y247" s="9"/>
-      <c r="AMI247" s="2"/>
+      <c r="X247" s="9"/>
+      <c r="Z247" s="9"/>
       <c r="AMJ247" s="2"/>
       <c r="AMK247" s="2"/>
+      <c r="AML247" s="2"/>
     </row>
     <row r="248" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M248" s="9"/>
-      <c r="W248" s="9"/>
-      <c r="Y248" s="9"/>
-      <c r="AMI248" s="2"/>
+      <c r="X248" s="9"/>
+      <c r="Z248" s="9"/>
       <c r="AMJ248" s="2"/>
       <c r="AMK248" s="2"/>
+      <c r="AML248" s="2"/>
     </row>
     <row r="249" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M249" s="9"/>
-      <c r="W249" s="9"/>
-      <c r="Y249" s="9"/>
-      <c r="AMI249" s="2"/>
+      <c r="X249" s="9"/>
+      <c r="Z249" s="9"/>
       <c r="AMJ249" s="2"/>
       <c r="AMK249" s="2"/>
+      <c r="AML249" s="2"/>
     </row>
     <row r="250" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M250" s="9"/>
-      <c r="W250" s="9"/>
-      <c r="Y250" s="9"/>
-      <c r="AMI250" s="2"/>
+      <c r="X250" s="9"/>
+      <c r="Z250" s="9"/>
       <c r="AMJ250" s="2"/>
       <c r="AMK250" s="2"/>
+      <c r="AML250" s="2"/>
     </row>
     <row r="251" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M251" s="9"/>
-      <c r="W251" s="9"/>
-      <c r="Y251" s="9"/>
-      <c r="AMI251" s="2"/>
+      <c r="X251" s="9"/>
+      <c r="Z251" s="9"/>
       <c r="AMJ251" s="2"/>
       <c r="AMK251" s="2"/>
+      <c r="AML251" s="2"/>
     </row>
     <row r="252" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M252" s="9"/>
-      <c r="W252" s="9"/>
-      <c r="Y252" s="9"/>
-      <c r="AMI252" s="2"/>
+      <c r="X252" s="9"/>
+      <c r="Z252" s="9"/>
       <c r="AMJ252" s="2"/>
       <c r="AMK252" s="2"/>
+      <c r="AML252" s="2"/>
     </row>
     <row r="253" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M253" s="9"/>
-      <c r="W253" s="9"/>
-      <c r="Y253" s="9"/>
-      <c r="AMI253" s="2"/>
+      <c r="X253" s="9"/>
+      <c r="Z253" s="9"/>
       <c r="AMJ253" s="2"/>
       <c r="AMK253" s="2"/>
+      <c r="AML253" s="2"/>
     </row>
     <row r="254" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M254" s="9"/>
-      <c r="W254" s="9"/>
-      <c r="Y254" s="9"/>
-      <c r="AMI254" s="2"/>
+      <c r="X254" s="9"/>
+      <c r="Z254" s="9"/>
       <c r="AMJ254" s="2"/>
       <c r="AMK254" s="2"/>
+      <c r="AML254" s="2"/>
     </row>
     <row r="255" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M255" s="9"/>
-      <c r="W255" s="9"/>
-      <c r="Y255" s="9"/>
-      <c r="AMI255" s="2"/>
+      <c r="X255" s="9"/>
+      <c r="Z255" s="9"/>
       <c r="AMJ255" s="2"/>
       <c r="AMK255" s="2"/>
+      <c r="AML255" s="2"/>
     </row>
     <row r="256" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M256" s="9"/>
-      <c r="W256" s="9"/>
-      <c r="Y256" s="9"/>
-      <c r="AMI256" s="2"/>
+      <c r="X256" s="9"/>
+      <c r="Z256" s="9"/>
       <c r="AMJ256" s="2"/>
       <c r="AMK256" s="2"/>
+      <c r="AML256" s="2"/>
     </row>
     <row r="257" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M257" s="9"/>
-      <c r="W257" s="9"/>
-      <c r="Y257" s="9"/>
-      <c r="AMI257" s="2"/>
+      <c r="X257" s="9"/>
+      <c r="Z257" s="9"/>
       <c r="AMJ257" s="2"/>
       <c r="AMK257" s="2"/>
+      <c r="AML257" s="2"/>
     </row>
     <row r="258" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M258" s="9"/>
-      <c r="W258" s="9"/>
-      <c r="Y258" s="9"/>
-      <c r="AMI258" s="2"/>
+      <c r="X258" s="9"/>
+      <c r="Z258" s="9"/>
       <c r="AMJ258" s="2"/>
       <c r="AMK258" s="2"/>
+      <c r="AML258" s="2"/>
     </row>
     <row r="259" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M259" s="9"/>
-      <c r="W259" s="9"/>
-      <c r="Y259" s="9"/>
-      <c r="AMI259" s="2"/>
+      <c r="X259" s="9"/>
+      <c r="Z259" s="9"/>
       <c r="AMJ259" s="2"/>
       <c r="AMK259" s="2"/>
+      <c r="AML259" s="2"/>
     </row>
     <row r="260" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M260" s="9"/>
-      <c r="W260" s="9"/>
-      <c r="Y260" s="9"/>
-      <c r="AMI260" s="2"/>
+      <c r="X260" s="9"/>
+      <c r="Z260" s="9"/>
       <c r="AMJ260" s="2"/>
       <c r="AMK260" s="2"/>
+      <c r="AML260" s="2"/>
     </row>
     <row r="261" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M261" s="9"/>
-      <c r="W261" s="9"/>
-      <c r="Y261" s="9"/>
-      <c r="AMI261" s="2"/>
+      <c r="X261" s="9"/>
+      <c r="Z261" s="9"/>
       <c r="AMJ261" s="2"/>
       <c r="AMK261" s="2"/>
+      <c r="AML261" s="2"/>
     </row>
     <row r="262" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M262" s="9"/>
-      <c r="W262" s="9"/>
-      <c r="Y262" s="9"/>
-      <c r="AMI262" s="2"/>
+      <c r="X262" s="9"/>
+      <c r="Z262" s="9"/>
       <c r="AMJ262" s="2"/>
       <c r="AMK262" s="2"/>
+      <c r="AML262" s="2"/>
     </row>
     <row r="263" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M263" s="9"/>
-      <c r="W263" s="9"/>
-      <c r="Y263" s="9"/>
-      <c r="AMI263" s="2"/>
+      <c r="X263" s="9"/>
+      <c r="Z263" s="9"/>
       <c r="AMJ263" s="2"/>
       <c r="AMK263" s="2"/>
+      <c r="AML263" s="2"/>
     </row>
     <row r="264" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M264" s="9"/>
-      <c r="W264" s="9"/>
-      <c r="Y264" s="9"/>
-      <c r="AMI264" s="2"/>
+      <c r="X264" s="9"/>
+      <c r="Z264" s="9"/>
       <c r="AMJ264" s="2"/>
       <c r="AMK264" s="2"/>
+      <c r="AML264" s="2"/>
     </row>
     <row r="265" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M265" s="9"/>
-      <c r="W265" s="9"/>
-      <c r="Y265" s="9"/>
-      <c r="AMI265" s="2"/>
+      <c r="X265" s="9"/>
+      <c r="Z265" s="9"/>
       <c r="AMJ265" s="2"/>
       <c r="AMK265" s="2"/>
+      <c r="AML265" s="2"/>
     </row>
     <row r="266" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M266" s="9"/>
-      <c r="W266" s="9"/>
-      <c r="Y266" s="9"/>
-      <c r="AMI266" s="2"/>
+      <c r="X266" s="9"/>
+      <c r="Z266" s="9"/>
       <c r="AMJ266" s="2"/>
       <c r="AMK266" s="2"/>
+      <c r="AML266" s="2"/>
     </row>
     <row r="267" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M267" s="9"/>
-      <c r="W267" s="9"/>
-      <c r="Y267" s="9"/>
-      <c r="AMI267" s="2"/>
+      <c r="X267" s="9"/>
+      <c r="Z267" s="9"/>
       <c r="AMJ267" s="2"/>
       <c r="AMK267" s="2"/>
+      <c r="AML267" s="2"/>
     </row>
     <row r="268" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M268" s="9"/>
-      <c r="W268" s="9"/>
-      <c r="Y268" s="9"/>
-      <c r="AMI268" s="2"/>
+      <c r="X268" s="9"/>
+      <c r="Z268" s="9"/>
       <c r="AMJ268" s="2"/>
       <c r="AMK268" s="2"/>
+      <c r="AML268" s="2"/>
     </row>
     <row r="269" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M269" s="9"/>
-      <c r="W269" s="9"/>
-      <c r="Y269" s="9"/>
-      <c r="AMI269" s="2"/>
+      <c r="X269" s="9"/>
+      <c r="Z269" s="9"/>
       <c r="AMJ269" s="2"/>
       <c r="AMK269" s="2"/>
+      <c r="AML269" s="2"/>
     </row>
     <row r="270" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M270" s="9"/>
-      <c r="W270" s="9"/>
-      <c r="Y270" s="9"/>
-      <c r="AMI270" s="2"/>
+      <c r="X270" s="9"/>
+      <c r="Z270" s="9"/>
       <c r="AMJ270" s="2"/>
       <c r="AMK270" s="2"/>
+      <c r="AML270" s="2"/>
     </row>
     <row r="271" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M271" s="9"/>
-      <c r="W271" s="9"/>
-      <c r="Y271" s="9"/>
-      <c r="AMI271" s="2"/>
+      <c r="X271" s="9"/>
+      <c r="Z271" s="9"/>
       <c r="AMJ271" s="2"/>
       <c r="AMK271" s="2"/>
+      <c r="AML271" s="2"/>
     </row>
     <row r="272" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M272" s="9"/>
-      <c r="W272" s="9"/>
-      <c r="Y272" s="9"/>
-      <c r="AMI272" s="2"/>
+      <c r="X272" s="9"/>
+      <c r="Z272" s="9"/>
       <c r="AMJ272" s="2"/>
       <c r="AMK272" s="2"/>
+      <c r="AML272" s="2"/>
     </row>
     <row r="273" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M273" s="9"/>
-      <c r="W273" s="9"/>
-      <c r="Y273" s="9"/>
-      <c r="AMI273" s="2"/>
+      <c r="X273" s="9"/>
+      <c r="Z273" s="9"/>
       <c r="AMJ273" s="2"/>
       <c r="AMK273" s="2"/>
+      <c r="AML273" s="2"/>
     </row>
     <row r="274" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M274" s="9"/>
-      <c r="W274" s="9"/>
-      <c r="Y274" s="9"/>
-      <c r="AMI274" s="2"/>
+      <c r="X274" s="9"/>
+      <c r="Z274" s="9"/>
       <c r="AMJ274" s="2"/>
       <c r="AMK274" s="2"/>
+      <c r="AML274" s="2"/>
     </row>
     <row r="275" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M275" s="9"/>
-      <c r="W275" s="9"/>
-      <c r="Y275" s="9"/>
-      <c r="AMI275" s="2"/>
+      <c r="X275" s="9"/>
+      <c r="Z275" s="9"/>
       <c r="AMJ275" s="2"/>
       <c r="AMK275" s="2"/>
+      <c r="AML275" s="2"/>
     </row>
     <row r="276" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M276" s="9"/>
-      <c r="W276" s="9"/>
-      <c r="Y276" s="9"/>
-      <c r="AMI276" s="2"/>
+      <c r="X276" s="9"/>
+      <c r="Z276" s="9"/>
       <c r="AMJ276" s="2"/>
       <c r="AMK276" s="2"/>
+      <c r="AML276" s="2"/>
     </row>
     <row r="277" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M277" s="9"/>
-      <c r="W277" s="9"/>
-      <c r="Y277" s="9"/>
-      <c r="AMI277" s="2"/>
+      <c r="X277" s="9"/>
+      <c r="Z277" s="9"/>
       <c r="AMJ277" s="2"/>
       <c r="AMK277" s="2"/>
+      <c r="AML277" s="2"/>
     </row>
     <row r="278" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M278" s="9"/>
-      <c r="W278" s="9"/>
-      <c r="Y278" s="9"/>
-      <c r="AMI278" s="2"/>
+      <c r="X278" s="9"/>
+      <c r="Z278" s="9"/>
       <c r="AMJ278" s="2"/>
       <c r="AMK278" s="2"/>
+      <c r="AML278" s="2"/>
     </row>
     <row r="279" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M279" s="9"/>
-      <c r="W279" s="9"/>
-      <c r="Y279" s="9"/>
-      <c r="AMI279" s="2"/>
+      <c r="X279" s="9"/>
+      <c r="Z279" s="9"/>
       <c r="AMJ279" s="2"/>
       <c r="AMK279" s="2"/>
+      <c r="AML279" s="2"/>
     </row>
     <row r="280" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M280" s="9"/>
-      <c r="W280" s="9"/>
-      <c r="Y280" s="9"/>
-      <c r="AMI280" s="2"/>
+      <c r="X280" s="9"/>
+      <c r="Z280" s="9"/>
       <c r="AMJ280" s="2"/>
       <c r="AMK280" s="2"/>
+      <c r="AML280" s="2"/>
     </row>
     <row r="281" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M281" s="9"/>
-      <c r="W281" s="9"/>
-      <c r="Y281" s="9"/>
-      <c r="AMI281" s="2"/>
+      <c r="X281" s="9"/>
+      <c r="Z281" s="9"/>
       <c r="AMJ281" s="2"/>
       <c r="AMK281" s="2"/>
+      <c r="AML281" s="2"/>
     </row>
     <row r="282" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M282" s="9"/>
-      <c r="W282" s="9"/>
-      <c r="Y282" s="9"/>
-      <c r="AMI282" s="2"/>
+      <c r="X282" s="9"/>
+      <c r="Z282" s="9"/>
       <c r="AMJ282" s="2"/>
       <c r="AMK282" s="2"/>
+      <c r="AML282" s="2"/>
     </row>
     <row r="283" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M283" s="9"/>
-      <c r="W283" s="9"/>
-      <c r="Y283" s="9"/>
-      <c r="AMI283" s="2"/>
+      <c r="X283" s="9"/>
+      <c r="Z283" s="9"/>
       <c r="AMJ283" s="2"/>
       <c r="AMK283" s="2"/>
+      <c r="AML283" s="2"/>
     </row>
     <row r="284" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M284" s="9"/>
-      <c r="W284" s="9"/>
-      <c r="Y284" s="9"/>
-      <c r="AMI284" s="2"/>
+      <c r="X284" s="9"/>
+      <c r="Z284" s="9"/>
       <c r="AMJ284" s="2"/>
       <c r="AMK284" s="2"/>
+      <c r="AML284" s="2"/>
     </row>
     <row r="285" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M285" s="9"/>
-      <c r="W285" s="9"/>
-      <c r="Y285" s="9"/>
-      <c r="AMI285" s="2"/>
+      <c r="X285" s="9"/>
+      <c r="Z285" s="9"/>
       <c r="AMJ285" s="2"/>
       <c r="AMK285" s="2"/>
+      <c r="AML285" s="2"/>
     </row>
     <row r="286" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M286" s="9"/>
-      <c r="W286" s="9"/>
-      <c r="Y286" s="9"/>
-      <c r="AMI286" s="2"/>
+      <c r="X286" s="9"/>
+      <c r="Z286" s="9"/>
       <c r="AMJ286" s="2"/>
       <c r="AMK286" s="2"/>
+      <c r="AML286" s="2"/>
     </row>
     <row r="287" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M287" s="9"/>
-      <c r="W287" s="9"/>
-      <c r="Y287" s="9"/>
-      <c r="AMI287" s="2"/>
+      <c r="X287" s="9"/>
+      <c r="Z287" s="9"/>
       <c r="AMJ287" s="2"/>
       <c r="AMK287" s="2"/>
+      <c r="AML287" s="2"/>
     </row>
     <row r="288" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M288" s="9"/>
-      <c r="W288" s="9"/>
-      <c r="Y288" s="9"/>
-      <c r="AMI288" s="2"/>
+      <c r="X288" s="9"/>
+      <c r="Z288" s="9"/>
       <c r="AMJ288" s="2"/>
       <c r="AMK288" s="2"/>
+      <c r="AML288" s="2"/>
     </row>
     <row r="289" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M289" s="9"/>
-      <c r="W289" s="9"/>
-      <c r="Y289" s="9"/>
-      <c r="AMI289" s="2"/>
+      <c r="X289" s="9"/>
+      <c r="Z289" s="9"/>
       <c r="AMJ289" s="2"/>
       <c r="AMK289" s="2"/>
+      <c r="AML289" s="2"/>
     </row>
     <row r="290" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M290" s="9"/>
-      <c r="W290" s="9"/>
-      <c r="Y290" s="9"/>
-      <c r="AMI290" s="2"/>
+      <c r="X290" s="9"/>
+      <c r="Z290" s="9"/>
       <c r="AMJ290" s="2"/>
       <c r="AMK290" s="2"/>
+      <c r="AML290" s="2"/>
     </row>
     <row r="291" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M291" s="9"/>
-      <c r="W291" s="9"/>
-      <c r="Y291" s="9"/>
-      <c r="AMI291" s="2"/>
+      <c r="X291" s="9"/>
+      <c r="Z291" s="9"/>
       <c r="AMJ291" s="2"/>
       <c r="AMK291" s="2"/>
+      <c r="AML291" s="2"/>
     </row>
     <row r="292" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M292" s="9"/>
-      <c r="W292" s="9"/>
-      <c r="Y292" s="9"/>
-      <c r="AMI292" s="2"/>
+      <c r="X292" s="9"/>
+      <c r="Z292" s="9"/>
       <c r="AMJ292" s="2"/>
       <c r="AMK292" s="2"/>
+      <c r="AML292" s="2"/>
     </row>
     <row r="293" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M293" s="9"/>
-      <c r="W293" s="9"/>
-      <c r="Y293" s="9"/>
-      <c r="AMI293" s="2"/>
+      <c r="X293" s="9"/>
+      <c r="Z293" s="9"/>
       <c r="AMJ293" s="2"/>
       <c r="AMK293" s="2"/>
+      <c r="AML293" s="2"/>
     </row>
     <row r="294" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M294" s="9"/>
-      <c r="W294" s="9"/>
-      <c r="Y294" s="9"/>
-      <c r="AMI294" s="2"/>
+      <c r="X294" s="9"/>
+      <c r="Z294" s="9"/>
       <c r="AMJ294" s="2"/>
       <c r="AMK294" s="2"/>
+      <c r="AML294" s="2"/>
     </row>
     <row r="295" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M295" s="9"/>
-      <c r="W295" s="9"/>
-      <c r="Y295" s="9"/>
-      <c r="AMI295" s="2"/>
+      <c r="X295" s="9"/>
+      <c r="Z295" s="9"/>
       <c r="AMJ295" s="2"/>
       <c r="AMK295" s="2"/>
+      <c r="AML295" s="2"/>
     </row>
     <row r="296" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M296" s="9"/>
-      <c r="W296" s="9"/>
-      <c r="Y296" s="9"/>
-      <c r="AMI296" s="2"/>
+      <c r="X296" s="9"/>
+      <c r="Z296" s="9"/>
       <c r="AMJ296" s="2"/>
       <c r="AMK296" s="2"/>
+      <c r="AML296" s="2"/>
     </row>
     <row r="297" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M297" s="9"/>
-      <c r="W297" s="9"/>
-      <c r="Y297" s="9"/>
-      <c r="AMI297" s="2"/>
+      <c r="X297" s="9"/>
+      <c r="Z297" s="9"/>
       <c r="AMJ297" s="2"/>
       <c r="AMK297" s="2"/>
+      <c r="AML297" s="2"/>
     </row>
     <row r="298" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M298" s="9"/>
-      <c r="W298" s="9"/>
-      <c r="Y298" s="9"/>
-      <c r="AMI298" s="2"/>
+      <c r="X298" s="9"/>
+      <c r="Z298" s="9"/>
       <c r="AMJ298" s="2"/>
       <c r="AMK298" s="2"/>
+      <c r="AML298" s="2"/>
     </row>
     <row r="299" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M299" s="9"/>
-      <c r="W299" s="9"/>
-      <c r="Y299" s="9"/>
-      <c r="AMI299" s="2"/>
+      <c r="X299" s="9"/>
+      <c r="Z299" s="9"/>
       <c r="AMJ299" s="2"/>
       <c r="AMK299" s="2"/>
+      <c r="AML299" s="2"/>
     </row>
     <row r="300" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M300" s="9"/>
-      <c r="W300" s="9"/>
-      <c r="Y300" s="9"/>
-      <c r="AMI300" s="2"/>
+      <c r="X300" s="9"/>
+      <c r="Z300" s="9"/>
       <c r="AMJ300" s="2"/>
       <c r="AMK300" s="2"/>
+      <c r="AML300" s="2"/>
     </row>
     <row r="301" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M301" s="9"/>
-      <c r="W301" s="9"/>
-      <c r="Y301" s="9"/>
-      <c r="AMI301" s="2"/>
+      <c r="X301" s="9"/>
+      <c r="Z301" s="9"/>
       <c r="AMJ301" s="2"/>
       <c r="AMK301" s="2"/>
+      <c r="AML301" s="2"/>
     </row>
     <row r="302" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M302" s="9"/>
-      <c r="W302" s="9"/>
-      <c r="Y302" s="9"/>
-      <c r="AMI302" s="2"/>
+      <c r="X302" s="9"/>
+      <c r="Z302" s="9"/>
       <c r="AMJ302" s="2"/>
       <c r="AMK302" s="2"/>
+      <c r="AML302" s="2"/>
     </row>
     <row r="303" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M303" s="9"/>
-      <c r="W303" s="9"/>
-      <c r="Y303" s="9"/>
-      <c r="AMI303" s="2"/>
+      <c r="X303" s="9"/>
+      <c r="Z303" s="9"/>
       <c r="AMJ303" s="2"/>
       <c r="AMK303" s="2"/>
+      <c r="AML303" s="2"/>
     </row>
     <row r="304" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M304" s="9"/>
-      <c r="W304" s="9"/>
-      <c r="Y304" s="9"/>
-      <c r="AMI304" s="2"/>
+      <c r="X304" s="9"/>
+      <c r="Z304" s="9"/>
       <c r="AMJ304" s="2"/>
       <c r="AMK304" s="2"/>
+      <c r="AML304" s="2"/>
     </row>
     <row r="305" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M305" s="9"/>
-      <c r="W305" s="9"/>
-      <c r="Y305" s="9"/>
-      <c r="AMI305" s="2"/>
+      <c r="X305" s="9"/>
+      <c r="Z305" s="9"/>
       <c r="AMJ305" s="2"/>
       <c r="AMK305" s="2"/>
+      <c r="AML305" s="2"/>
     </row>
     <row r="306" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M306" s="9"/>
-      <c r="W306" s="9"/>
-      <c r="Y306" s="9"/>
-      <c r="AMI306" s="2"/>
+      <c r="X306" s="9"/>
+      <c r="Z306" s="9"/>
       <c r="AMJ306" s="2"/>
       <c r="AMK306" s="2"/>
+      <c r="AML306" s="2"/>
     </row>
     <row r="307" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M307" s="9"/>
-      <c r="W307" s="9"/>
-      <c r="Y307" s="9"/>
-      <c r="AMI307" s="2"/>
+      <c r="X307" s="9"/>
+      <c r="Z307" s="9"/>
       <c r="AMJ307" s="2"/>
       <c r="AMK307" s="2"/>
+      <c r="AML307" s="2"/>
     </row>
     <row r="308" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M308" s="9"/>
-      <c r="W308" s="9"/>
-      <c r="Y308" s="9"/>
-      <c r="AMI308" s="2"/>
+      <c r="X308" s="9"/>
+      <c r="Z308" s="9"/>
       <c r="AMJ308" s="2"/>
       <c r="AMK308" s="2"/>
+      <c r="AML308" s="2"/>
     </row>
     <row r="309" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M309" s="9"/>
-      <c r="W309" s="9"/>
-      <c r="Y309" s="9"/>
-      <c r="AMI309" s="2"/>
+      <c r="X309" s="9"/>
+      <c r="Z309" s="9"/>
       <c r="AMJ309" s="2"/>
       <c r="AMK309" s="2"/>
+      <c r="AML309" s="2"/>
     </row>
     <row r="310" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M310" s="9"/>
-      <c r="W310" s="9"/>
-      <c r="Y310" s="9"/>
-      <c r="AMI310" s="2"/>
+      <c r="X310" s="9"/>
+      <c r="Z310" s="9"/>
       <c r="AMJ310" s="2"/>
       <c r="AMK310" s="2"/>
+      <c r="AML310" s="2"/>
     </row>
     <row r="311" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M311" s="9"/>
-      <c r="W311" s="9"/>
-      <c r="Y311" s="9"/>
-      <c r="AMI311" s="2"/>
+      <c r="X311" s="9"/>
+      <c r="Z311" s="9"/>
       <c r="AMJ311" s="2"/>
       <c r="AMK311" s="2"/>
+      <c r="AML311" s="2"/>
     </row>
     <row r="312" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M312" s="9"/>
-      <c r="W312" s="9"/>
-      <c r="Y312" s="9"/>
-      <c r="AMI312" s="2"/>
+      <c r="X312" s="9"/>
+      <c r="Z312" s="9"/>
       <c r="AMJ312" s="2"/>
       <c r="AMK312" s="2"/>
+      <c r="AML312" s="2"/>
     </row>
     <row r="313" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M313" s="9"/>
-      <c r="W313" s="9"/>
-      <c r="Y313" s="9"/>
-      <c r="AMI313" s="2"/>
+      <c r="X313" s="9"/>
+      <c r="Z313" s="9"/>
       <c r="AMJ313" s="2"/>
       <c r="AMK313" s="2"/>
+      <c r="AML313" s="2"/>
     </row>
     <row r="314" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M314" s="9"/>
-      <c r="W314" s="9"/>
-      <c r="Y314" s="9"/>
-      <c r="AMI314" s="2"/>
+      <c r="X314" s="9"/>
+      <c r="Z314" s="9"/>
       <c r="AMJ314" s="2"/>
       <c r="AMK314" s="2"/>
+      <c r="AML314" s="2"/>
     </row>
     <row r="315" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M315" s="9"/>
-      <c r="W315" s="9"/>
-      <c r="Y315" s="9"/>
-      <c r="AMI315" s="2"/>
+      <c r="X315" s="9"/>
+      <c r="Z315" s="9"/>
       <c r="AMJ315" s="2"/>
       <c r="AMK315" s="2"/>
+      <c r="AML315" s="2"/>
     </row>
     <row r="316" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M316" s="9"/>
-      <c r="W316" s="9"/>
-      <c r="Y316" s="9"/>
-      <c r="AMI316" s="2"/>
+      <c r="X316" s="9"/>
+      <c r="Z316" s="9"/>
       <c r="AMJ316" s="2"/>
       <c r="AMK316" s="2"/>
+      <c r="AML316" s="2"/>
     </row>
     <row r="317" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M317" s="9"/>
-      <c r="W317" s="9"/>
-      <c r="Y317" s="9"/>
-      <c r="AMI317" s="2"/>
+      <c r="X317" s="9"/>
+      <c r="Z317" s="9"/>
       <c r="AMJ317" s="2"/>
       <c r="AMK317" s="2"/>
+      <c r="AML317" s="2"/>
     </row>
     <row r="318" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M318" s="9"/>
-      <c r="W318" s="9"/>
-      <c r="Y318" s="9"/>
-      <c r="AMI318" s="2"/>
+      <c r="X318" s="9"/>
+      <c r="Z318" s="9"/>
       <c r="AMJ318" s="2"/>
       <c r="AMK318" s="2"/>
+      <c r="AML318" s="2"/>
     </row>
     <row r="319" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M319" s="9"/>
-      <c r="W319" s="9"/>
-      <c r="Y319" s="9"/>
-      <c r="AMI319" s="2"/>
+      <c r="X319" s="9"/>
+      <c r="Z319" s="9"/>
       <c r="AMJ319" s="2"/>
       <c r="AMK319" s="2"/>
+      <c r="AML319" s="2"/>
     </row>
     <row r="320" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M320" s="9"/>
-      <c r="W320" s="9"/>
-      <c r="Y320" s="9"/>
-      <c r="AMI320" s="2"/>
+      <c r="X320" s="9"/>
+      <c r="Z320" s="9"/>
       <c r="AMJ320" s="2"/>
       <c r="AMK320" s="2"/>
+      <c r="AML320" s="2"/>
     </row>
     <row r="321" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M321" s="9"/>
-      <c r="W321" s="9"/>
-      <c r="Y321" s="9"/>
-      <c r="AMI321" s="2"/>
+      <c r="X321" s="9"/>
+      <c r="Z321" s="9"/>
       <c r="AMJ321" s="2"/>
       <c r="AMK321" s="2"/>
+      <c r="AML321" s="2"/>
     </row>
     <row r="322" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M322" s="9"/>
-      <c r="W322" s="9"/>
-      <c r="Y322" s="9"/>
-      <c r="AMI322" s="2"/>
+      <c r="X322" s="9"/>
+      <c r="Z322" s="9"/>
       <c r="AMJ322" s="2"/>
       <c r="AMK322" s="2"/>
+      <c r="AML322" s="2"/>
     </row>
     <row r="323" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M323" s="9"/>
-      <c r="W323" s="9"/>
-      <c r="Y323" s="9"/>
-      <c r="AMI323" s="2"/>
+      <c r="X323" s="9"/>
+      <c r="Z323" s="9"/>
       <c r="AMJ323" s="2"/>
       <c r="AMK323" s="2"/>
+      <c r="AML323" s="2"/>
     </row>
     <row r="324" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M324" s="9"/>
-      <c r="W324" s="9"/>
-      <c r="Y324" s="9"/>
-      <c r="AMI324" s="2"/>
+      <c r="X324" s="9"/>
+      <c r="Z324" s="9"/>
       <c r="AMJ324" s="2"/>
       <c r="AMK324" s="2"/>
+      <c r="AML324" s="2"/>
     </row>
     <row r="325" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M325" s="9"/>
-      <c r="W325" s="9"/>
-      <c r="Y325" s="9"/>
-      <c r="AMI325" s="2"/>
+      <c r="X325" s="9"/>
+      <c r="Z325" s="9"/>
       <c r="AMJ325" s="2"/>
       <c r="AMK325" s="2"/>
+      <c r="AML325" s="2"/>
     </row>
     <row r="326" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M326" s="9"/>
-      <c r="W326" s="9"/>
-      <c r="Y326" s="9"/>
-      <c r="AMI326" s="2"/>
+      <c r="X326" s="9"/>
+      <c r="Z326" s="9"/>
       <c r="AMJ326" s="2"/>
       <c r="AMK326" s="2"/>
+      <c r="AML326" s="2"/>
     </row>
     <row r="327" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M327" s="9"/>
-      <c r="W327" s="9"/>
-      <c r="Y327" s="9"/>
-      <c r="AMI327" s="2"/>
+      <c r="X327" s="9"/>
+      <c r="Z327" s="9"/>
       <c r="AMJ327" s="2"/>
       <c r="AMK327" s="2"/>
+      <c r="AML327" s="2"/>
     </row>
     <row r="328" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M328" s="9"/>
-      <c r="W328" s="9"/>
-      <c r="Y328" s="9"/>
-      <c r="AMI328" s="2"/>
+      <c r="X328" s="9"/>
+      <c r="Z328" s="9"/>
       <c r="AMJ328" s="2"/>
       <c r="AMK328" s="2"/>
+      <c r="AML328" s="2"/>
     </row>
     <row r="329" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M329" s="9"/>
-      <c r="W329" s="9"/>
-      <c r="Y329" s="9"/>
-      <c r="AMI329" s="2"/>
+      <c r="X329" s="9"/>
+      <c r="Z329" s="9"/>
       <c r="AMJ329" s="2"/>
       <c r="AMK329" s="2"/>
+      <c r="AML329" s="2"/>
     </row>
     <row r="330" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M330" s="9"/>
-      <c r="W330" s="9"/>
-      <c r="Y330" s="9"/>
-      <c r="AMI330" s="2"/>
+      <c r="X330" s="9"/>
+      <c r="Z330" s="9"/>
       <c r="AMJ330" s="2"/>
       <c r="AMK330" s="2"/>
+      <c r="AML330" s="2"/>
     </row>
     <row r="331" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M331" s="9"/>
-      <c r="W331" s="9"/>
-      <c r="Y331" s="9"/>
-      <c r="AMI331" s="2"/>
+      <c r="X331" s="9"/>
+      <c r="Z331" s="9"/>
       <c r="AMJ331" s="2"/>
       <c r="AMK331" s="2"/>
+      <c r="AML331" s="2"/>
     </row>
     <row r="332" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M332" s="9"/>
-      <c r="W332" s="9"/>
-      <c r="Y332" s="9"/>
-      <c r="AMI332" s="2"/>
+      <c r="X332" s="9"/>
+      <c r="Z332" s="9"/>
       <c r="AMJ332" s="2"/>
       <c r="AMK332" s="2"/>
+      <c r="AML332" s="2"/>
     </row>
     <row r="333" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M333" s="9"/>
-      <c r="W333" s="9"/>
-      <c r="Y333" s="9"/>
-      <c r="AMI333" s="2"/>
+      <c r="X333" s="9"/>
+      <c r="Z333" s="9"/>
       <c r="AMJ333" s="2"/>
       <c r="AMK333" s="2"/>
+      <c r="AML333" s="2"/>
     </row>
     <row r="334" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M334" s="9"/>
-      <c r="W334" s="9"/>
-      <c r="Y334" s="9"/>
-      <c r="AMI334" s="2"/>
+      <c r="X334" s="9"/>
+      <c r="Z334" s="9"/>
       <c r="AMJ334" s="2"/>
       <c r="AMK334" s="2"/>
+      <c r="AML334" s="2"/>
     </row>
     <row r="335" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M335" s="9"/>
-      <c r="W335" s="9"/>
-      <c r="Y335" s="9"/>
-      <c r="AMI335" s="2"/>
+      <c r="X335" s="9"/>
+      <c r="Z335" s="9"/>
       <c r="AMJ335" s="2"/>
       <c r="AMK335" s="2"/>
+      <c r="AML335" s="2"/>
     </row>
     <row r="336" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M336" s="9"/>
-      <c r="W336" s="9"/>
-      <c r="Y336" s="9"/>
-      <c r="AMI336" s="2"/>
+      <c r="X336" s="9"/>
+      <c r="Z336" s="9"/>
       <c r="AMJ336" s="2"/>
       <c r="AMK336" s="2"/>
+      <c r="AML336" s="2"/>
     </row>
     <row r="337" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M337" s="9"/>
-      <c r="W337" s="9"/>
-      <c r="Y337" s="9"/>
-      <c r="AMI337" s="2"/>
+      <c r="X337" s="9"/>
+      <c r="Z337" s="9"/>
       <c r="AMJ337" s="2"/>
       <c r="AMK337" s="2"/>
+      <c r="AML337" s="2"/>
     </row>
     <row r="338" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M338" s="9"/>
-      <c r="W338" s="9"/>
-      <c r="Y338" s="9"/>
-      <c r="AMI338" s="2"/>
+      <c r="X338" s="9"/>
+      <c r="Z338" s="9"/>
       <c r="AMJ338" s="2"/>
       <c r="AMK338" s="2"/>
+      <c r="AML338" s="2"/>
     </row>
     <row r="339" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M339" s="9"/>
-      <c r="W339" s="9"/>
-      <c r="Y339" s="9"/>
-      <c r="AMI339" s="2"/>
+      <c r="X339" s="9"/>
+      <c r="Z339" s="9"/>
       <c r="AMJ339" s="2"/>
       <c r="AMK339" s="2"/>
+      <c r="AML339" s="2"/>
     </row>
     <row r="340" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M340" s="9"/>
-      <c r="W340" s="9"/>
-      <c r="Y340" s="9"/>
-      <c r="AMI340" s="2"/>
+      <c r="X340" s="9"/>
+      <c r="Z340" s="9"/>
       <c r="AMJ340" s="2"/>
       <c r="AMK340" s="2"/>
+      <c r="AML340" s="2"/>
     </row>
     <row r="341" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M341" s="9"/>
-      <c r="W341" s="9"/>
-      <c r="Y341" s="9"/>
-      <c r="AMI341" s="2"/>
+      <c r="X341" s="9"/>
+      <c r="Z341" s="9"/>
       <c r="AMJ341" s="2"/>
       <c r="AMK341" s="2"/>
+      <c r="AML341" s="2"/>
     </row>
     <row r="342" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M342" s="9"/>
-      <c r="W342" s="9"/>
-      <c r="Y342" s="9"/>
-      <c r="AMI342" s="2"/>
+      <c r="X342" s="9"/>
+      <c r="Z342" s="9"/>
       <c r="AMJ342" s="2"/>
       <c r="AMK342" s="2"/>
+      <c r="AML342" s="2"/>
     </row>
     <row r="343" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M343" s="9"/>
-      <c r="W343" s="9"/>
-      <c r="Y343" s="9"/>
-      <c r="AMI343" s="2"/>
+      <c r="X343" s="9"/>
+      <c r="Z343" s="9"/>
       <c r="AMJ343" s="2"/>
       <c r="AMK343" s="2"/>
+      <c r="AML343" s="2"/>
     </row>
     <row r="344" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M344" s="9"/>
-      <c r="W344" s="9"/>
-      <c r="Y344" s="9"/>
-      <c r="AMI344" s="2"/>
+      <c r="X344" s="9"/>
+      <c r="Z344" s="9"/>
       <c r="AMJ344" s="2"/>
       <c r="AMK344" s="2"/>
+      <c r="AML344" s="2"/>
     </row>
     <row r="345" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M345" s="9"/>
-      <c r="W345" s="9"/>
-      <c r="Y345" s="9"/>
-      <c r="AMI345" s="2"/>
+      <c r="X345" s="9"/>
+      <c r="Z345" s="9"/>
       <c r="AMJ345" s="2"/>
       <c r="AMK345" s="2"/>
+      <c r="AML345" s="2"/>
     </row>
     <row r="346" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M346" s="9"/>
-      <c r="W346" s="9"/>
-      <c r="Y346" s="9"/>
-      <c r="AMI346" s="2"/>
+      <c r="X346" s="9"/>
+      <c r="Z346" s="9"/>
       <c r="AMJ346" s="2"/>
       <c r="AMK346" s="2"/>
+      <c r="AML346" s="2"/>
     </row>
     <row r="347" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M347" s="9"/>
-      <c r="W347" s="9"/>
-      <c r="Y347" s="9"/>
-      <c r="AMI347" s="2"/>
+      <c r="X347" s="9"/>
+      <c r="Z347" s="9"/>
       <c r="AMJ347" s="2"/>
       <c r="AMK347" s="2"/>
+      <c r="AML347" s="2"/>
     </row>
     <row r="348" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M348" s="9"/>
-      <c r="W348" s="9"/>
-      <c r="Y348" s="9"/>
-      <c r="AMI348" s="2"/>
+      <c r="X348" s="9"/>
+      <c r="Z348" s="9"/>
       <c r="AMJ348" s="2"/>
       <c r="AMK348" s="2"/>
+      <c r="AML348" s="2"/>
     </row>
     <row r="349" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M349" s="9"/>
-      <c r="W349" s="9"/>
-      <c r="Y349" s="9"/>
-      <c r="AMI349" s="2"/>
+      <c r="X349" s="9"/>
+      <c r="Z349" s="9"/>
       <c r="AMJ349" s="2"/>
       <c r="AMK349" s="2"/>
+      <c r="AML349" s="2"/>
     </row>
     <row r="350" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M350" s="9"/>
-      <c r="W350" s="9"/>
-      <c r="Y350" s="9"/>
-      <c r="AMI350" s="2"/>
+      <c r="X350" s="9"/>
+      <c r="Z350" s="9"/>
       <c r="AMJ350" s="2"/>
       <c r="AMK350" s="2"/>
+      <c r="AML350" s="2"/>
     </row>
     <row r="351" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M351" s="9"/>
-      <c r="W351" s="9"/>
-      <c r="Y351" s="9"/>
-      <c r="AMI351" s="2"/>
+      <c r="X351" s="9"/>
+      <c r="Z351" s="9"/>
       <c r="AMJ351" s="2"/>
       <c r="AMK351" s="2"/>
+      <c r="AML351" s="2"/>
     </row>
     <row r="352" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M352" s="9"/>
-      <c r="W352" s="9"/>
-      <c r="Y352" s="9"/>
-      <c r="AMI352" s="2"/>
+      <c r="X352" s="9"/>
+      <c r="Z352" s="9"/>
       <c r="AMJ352" s="2"/>
       <c r="AMK352" s="2"/>
+      <c r="AML352" s="2"/>
     </row>
     <row r="353" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M353" s="9"/>
-      <c r="W353" s="9"/>
-      <c r="Y353" s="9"/>
-      <c r="AMI353" s="2"/>
+      <c r="X353" s="9"/>
+      <c r="Z353" s="9"/>
       <c r="AMJ353" s="2"/>
       <c r="AMK353" s="2"/>
+      <c r="AML353" s="2"/>
     </row>
     <row r="354" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M354" s="9"/>
-      <c r="W354" s="9"/>
-      <c r="Y354" s="9"/>
-      <c r="AMI354" s="2"/>
+      <c r="X354" s="9"/>
+      <c r="Z354" s="9"/>
       <c r="AMJ354" s="2"/>
       <c r="AMK354" s="2"/>
+      <c r="AML354" s="2"/>
     </row>
     <row r="355" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M355" s="9"/>
-      <c r="W355" s="9"/>
-      <c r="Y355" s="9"/>
-      <c r="AMI355" s="2"/>
+      <c r="X355" s="9"/>
+      <c r="Z355" s="9"/>
       <c r="AMJ355" s="2"/>
       <c r="AMK355" s="2"/>
+      <c r="AML355" s="2"/>
     </row>
     <row r="356" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M356" s="9"/>
-      <c r="W356" s="9"/>
-      <c r="Y356" s="9"/>
-      <c r="AMI356" s="2"/>
+      <c r="X356" s="9"/>
+      <c r="Z356" s="9"/>
       <c r="AMJ356" s="2"/>
       <c r="AMK356" s="2"/>
+      <c r="AML356" s="2"/>
     </row>
     <row r="357" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M357" s="9"/>
-      <c r="W357" s="9"/>
-      <c r="Y357" s="9"/>
-      <c r="AMI357" s="2"/>
+      <c r="X357" s="9"/>
+      <c r="Z357" s="9"/>
       <c r="AMJ357" s="2"/>
       <c r="AMK357" s="2"/>
+      <c r="AML357" s="2"/>
     </row>
     <row r="358" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M358" s="9"/>
-      <c r="W358" s="9"/>
-      <c r="Y358" s="9"/>
-      <c r="AMI358" s="2"/>
+      <c r="X358" s="9"/>
+      <c r="Z358" s="9"/>
       <c r="AMJ358" s="2"/>
       <c r="AMK358" s="2"/>
+      <c r="AML358" s="2"/>
     </row>
     <row r="359" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M359" s="9"/>
-      <c r="W359" s="9"/>
-      <c r="Y359" s="9"/>
-      <c r="AMI359" s="2"/>
+      <c r="X359" s="9"/>
+      <c r="Z359" s="9"/>
       <c r="AMJ359" s="2"/>
       <c r="AMK359" s="2"/>
+      <c r="AML359" s="2"/>
     </row>
     <row r="360" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M360" s="9"/>
-      <c r="W360" s="9"/>
-      <c r="Y360" s="9"/>
-      <c r="AMI360" s="2"/>
+      <c r="X360" s="9"/>
+      <c r="Z360" s="9"/>
       <c r="AMJ360" s="2"/>
       <c r="AMK360" s="2"/>
+      <c r="AML360" s="2"/>
     </row>
     <row r="361" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M361" s="9"/>
-      <c r="W361" s="9"/>
-      <c r="Y361" s="9"/>
-      <c r="AMI361" s="2"/>
+      <c r="X361" s="9"/>
+      <c r="Z361" s="9"/>
       <c r="AMJ361" s="2"/>
       <c r="AMK361" s="2"/>
+      <c r="AML361" s="2"/>
     </row>
     <row r="362" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M362" s="9"/>
-      <c r="W362" s="9"/>
-      <c r="Y362" s="9"/>
-      <c r="AMI362" s="2"/>
+      <c r="X362" s="9"/>
+      <c r="Z362" s="9"/>
       <c r="AMJ362" s="2"/>
       <c r="AMK362" s="2"/>
+      <c r="AML362" s="2"/>
     </row>
     <row r="363" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M363" s="9"/>
-      <c r="W363" s="9"/>
-      <c r="Y363" s="9"/>
-      <c r="AMI363" s="2"/>
+      <c r="X363" s="9"/>
+      <c r="Z363" s="9"/>
       <c r="AMJ363" s="2"/>
       <c r="AMK363" s="2"/>
+      <c r="AML363" s="2"/>
     </row>
     <row r="364" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M364" s="9"/>
-      <c r="W364" s="9"/>
-      <c r="Y364" s="9"/>
-      <c r="AMI364" s="2"/>
+      <c r="X364" s="9"/>
+      <c r="Z364" s="9"/>
       <c r="AMJ364" s="2"/>
       <c r="AMK364" s="2"/>
+      <c r="AML364" s="2"/>
     </row>
     <row r="365" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M365" s="9"/>
-      <c r="W365" s="9"/>
-      <c r="Y365" s="9"/>
-      <c r="AMI365" s="2"/>
+      <c r="X365" s="9"/>
+      <c r="Z365" s="9"/>
       <c r="AMJ365" s="2"/>
       <c r="AMK365" s="2"/>
+      <c r="AML365" s="2"/>
     </row>
     <row r="366" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M366" s="9"/>
-      <c r="W366" s="9"/>
-      <c r="Y366" s="9"/>
-      <c r="AMI366" s="2"/>
+      <c r="X366" s="9"/>
+      <c r="Z366" s="9"/>
       <c r="AMJ366" s="2"/>
       <c r="AMK366" s="2"/>
+      <c r="AML366" s="2"/>
     </row>
     <row r="367" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M367" s="9"/>
-      <c r="W367" s="9"/>
-      <c r="Y367" s="9"/>
-      <c r="AMI367" s="2"/>
+      <c r="X367" s="9"/>
+      <c r="Z367" s="9"/>
       <c r="AMJ367" s="2"/>
       <c r="AMK367" s="2"/>
+      <c r="AML367" s="2"/>
     </row>
     <row r="368" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M368" s="9"/>
-      <c r="W368" s="9"/>
-      <c r="Y368" s="9"/>
-      <c r="AMI368" s="2"/>
+      <c r="X368" s="9"/>
+      <c r="Z368" s="9"/>
       <c r="AMJ368" s="2"/>
       <c r="AMK368" s="2"/>
+      <c r="AML368" s="2"/>
     </row>
     <row r="369" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M369" s="9"/>
-      <c r="W369" s="9"/>
-      <c r="Y369" s="9"/>
-      <c r="AMI369" s="2"/>
+      <c r="X369" s="9"/>
+      <c r="Z369" s="9"/>
       <c r="AMJ369" s="2"/>
       <c r="AMK369" s="2"/>
+      <c r="AML369" s="2"/>
     </row>
     <row r="370" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M370" s="9"/>
-      <c r="W370" s="9"/>
-      <c r="Y370" s="9"/>
-      <c r="AMI370" s="2"/>
+      <c r="X370" s="9"/>
+      <c r="Z370" s="9"/>
       <c r="AMJ370" s="2"/>
       <c r="AMK370" s="2"/>
+      <c r="AML370" s="2"/>
     </row>
     <row r="371" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M371" s="9"/>
-      <c r="W371" s="9"/>
-      <c r="Y371" s="9"/>
-      <c r="AMI371" s="2"/>
+      <c r="X371" s="9"/>
+      <c r="Z371" s="9"/>
       <c r="AMJ371" s="2"/>
       <c r="AMK371" s="2"/>
+      <c r="AML371" s="2"/>
     </row>
     <row r="372" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M372" s="9"/>
-      <c r="W372" s="9"/>
-      <c r="Y372" s="9"/>
-      <c r="AMI372" s="2"/>
+      <c r="X372" s="9"/>
+      <c r="Z372" s="9"/>
       <c r="AMJ372" s="2"/>
       <c r="AMK372" s="2"/>
+      <c r="AML372" s="2"/>
     </row>
     <row r="373" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M373" s="9"/>
-      <c r="W373" s="9"/>
-      <c r="Y373" s="9"/>
-      <c r="AMI373" s="2"/>
+      <c r="X373" s="9"/>
+      <c r="Z373" s="9"/>
       <c r="AMJ373" s="2"/>
       <c r="AMK373" s="2"/>
+      <c r="AML373" s="2"/>
     </row>
     <row r="374" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M374" s="9"/>
-      <c r="W374" s="9"/>
-      <c r="Y374" s="9"/>
-      <c r="AMI374" s="2"/>
+      <c r="X374" s="9"/>
+      <c r="Z374" s="9"/>
       <c r="AMJ374" s="2"/>
       <c r="AMK374" s="2"/>
+      <c r="AML374" s="2"/>
     </row>
     <row r="375" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M375" s="9"/>
-      <c r="W375" s="9"/>
-      <c r="Y375" s="9"/>
-      <c r="AMI375" s="2"/>
+      <c r="X375" s="9"/>
+      <c r="Z375" s="9"/>
       <c r="AMJ375" s="2"/>
       <c r="AMK375" s="2"/>
+      <c r="AML375" s="2"/>
     </row>
     <row r="376" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M376" s="9"/>
-      <c r="W376" s="9"/>
-      <c r="Y376" s="9"/>
-      <c r="AMI376" s="2"/>
+      <c r="X376" s="9"/>
+      <c r="Z376" s="9"/>
       <c r="AMJ376" s="2"/>
       <c r="AMK376" s="2"/>
+      <c r="AML376" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -218,6 +218,198 @@
   </si>
   <si>
     <t xml:space="preserve">龙娘测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑木乃伊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">羊角怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飞行羊角怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗战士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗首领</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛇女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">憎恶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝恶魔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玄冰战士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玄冰守卫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玄冰巫师</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南瓜小怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹿角怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荆棘之兴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老树人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女树人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熔岩小怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熔岩巨兽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火焰小兵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火恶魔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熔岩铁甲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草地小怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石头怪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">屠夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老年地精</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青年地精</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木乃伊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光巨人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机甲战士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光战士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster_name_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未来战士</t>
   </si>
 </sst>
 </file>
@@ -350,7 +542,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,6 +617,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -612,10 +808,10 @@
   </sheetPr>
   <dimension ref="A1:AML376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="T16" activeCellId="0" sqref="T16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D25" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topRight" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1424,8 +1620,61 @@
         <v>200</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="15" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="X15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AMJ15" s="2"/>
@@ -1433,11 +1682,19 @@
       <c r="AML15" s="2"/>
     </row>
     <row r="16" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8" t="n">
+        <v>1012</v>
+      </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" s="13"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="13"/>
@@ -1449,7 +1706,18 @@
       <c r="AML16" s="2"/>
     </row>
     <row r="17" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="X17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AMJ17" s="2"/>
@@ -1457,11 +1725,19 @@
       <c r="AML17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="8" t="n">
+        <v>1014</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2479,9 +2755,89 @@
       <c r="AMI18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" s="2"/>
     </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="24" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2490,6 +2846,18 @@
       <c r="AML24" s="2"/>
     </row>
     <row r="25" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2498,6 +2866,18 @@
       <c r="AML25" s="2"/>
     </row>
     <row r="26" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Z26" s="9"/>
@@ -2506,6 +2886,18 @@
       <c r="AML26" s="2"/>
     </row>
     <row r="27" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Z27" s="9"/>
@@ -2514,6 +2906,18 @@
       <c r="AML27" s="2"/>
     </row>
     <row r="28" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="X28" s="9"/>
       <c r="Z28" s="9"/>
@@ -2522,6 +2926,18 @@
       <c r="AML28" s="2"/>
     </row>
     <row r="29" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Z29" s="9"/>
@@ -2530,6 +2946,18 @@
       <c r="AML29" s="2"/>
     </row>
     <row r="30" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Z30" s="9"/>
@@ -2538,6 +2966,18 @@
       <c r="AML30" s="2"/>
     </row>
     <row r="31" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Z31" s="9"/>
@@ -2546,6 +2986,18 @@
       <c r="AML31" s="2"/>
     </row>
     <row r="32" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="X32" s="9"/>
       <c r="Z32" s="9"/>
@@ -2554,6 +3006,18 @@
       <c r="AML32" s="2"/>
     </row>
     <row r="33" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Z33" s="9"/>
@@ -2562,6 +3026,18 @@
       <c r="AML33" s="2"/>
     </row>
     <row r="34" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Z34" s="9"/>
@@ -2570,6 +3046,18 @@
       <c r="AML34" s="2"/>
     </row>
     <row r="35" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Z35" s="9"/>
@@ -2578,6 +3066,18 @@
       <c r="AML35" s="2"/>
     </row>
     <row r="36" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Z36" s="9"/>
@@ -2586,6 +3086,18 @@
       <c r="AML36" s="2"/>
     </row>
     <row r="37" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Z37" s="9"/>
@@ -2594,6 +3106,18 @@
       <c r="AML37" s="2"/>
     </row>
     <row r="38" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="M38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Z38" s="9"/>
@@ -2602,6 +3126,18 @@
       <c r="AML38" s="2"/>
     </row>
     <row r="39" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Z39" s="9"/>
@@ -2610,6 +3146,18 @@
       <c r="AML39" s="2"/>
     </row>
     <row r="40" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Z40" s="9"/>
@@ -2618,6 +3166,18 @@
       <c r="AML40" s="2"/>
     </row>
     <row r="41" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Z41" s="9"/>
@@ -2626,6 +3186,18 @@
       <c r="AML41" s="2"/>
     </row>
     <row r="42" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Z42" s="9"/>
@@ -2634,6 +3206,18 @@
       <c r="AML42" s="2"/>
     </row>
     <row r="43" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" s="9"/>
       <c r="X43" s="9"/>
       <c r="Z43" s="9"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -480,7 +480,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +491,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -542,7 +554,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,8 +631,72 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -679,11 +755,11 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -808,10 +884,10 @@
   </sheetPr>
   <dimension ref="A1:AML376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D25" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="topRight" activeCell="L41" activeCellId="0" sqref="L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D16" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topRight" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1620,19 +1696,1070 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
         <v>1008</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="19" t="n">
         <v>2</v>
       </c>
+      <c r="F12" s="23" t="n">
+        <v>156486</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>268562</v>
+      </c>
+      <c r="H12" s="20" t="n">
+        <v>200</v>
+      </c>
+      <c r="I12" s="20" t="n">
+        <v>105</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="19" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q12" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="20" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S12" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+      <c r="CC12" s="20"/>
+      <c r="CD12" s="20"/>
+      <c r="CE12" s="20"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
+      <c r="CH12" s="20"/>
+      <c r="CI12" s="20"/>
+      <c r="CJ12" s="20"/>
+      <c r="CK12" s="20"/>
+      <c r="CL12" s="20"/>
+      <c r="CM12" s="20"/>
+      <c r="CN12" s="20"/>
+      <c r="CO12" s="20"/>
+      <c r="CP12" s="20"/>
+      <c r="CQ12" s="20"/>
+      <c r="CR12" s="20"/>
+      <c r="CS12" s="20"/>
+      <c r="CT12" s="20"/>
+      <c r="CU12" s="20"/>
+      <c r="CV12" s="20"/>
+      <c r="CW12" s="20"/>
+      <c r="CX12" s="20"/>
+      <c r="CY12" s="20"/>
+      <c r="CZ12" s="20"/>
+      <c r="DA12" s="20"/>
+      <c r="DB12" s="20"/>
+      <c r="DC12" s="20"/>
+      <c r="DD12" s="20"/>
+      <c r="DE12" s="20"/>
+      <c r="DF12" s="20"/>
+      <c r="DG12" s="20"/>
+      <c r="DH12" s="20"/>
+      <c r="DI12" s="20"/>
+      <c r="DJ12" s="20"/>
+      <c r="DK12" s="20"/>
+      <c r="DL12" s="20"/>
+      <c r="DM12" s="20"/>
+      <c r="DN12" s="20"/>
+      <c r="DO12" s="20"/>
+      <c r="DP12" s="20"/>
+      <c r="DQ12" s="20"/>
+      <c r="DR12" s="20"/>
+      <c r="DS12" s="20"/>
+      <c r="DT12" s="20"/>
+      <c r="DU12" s="20"/>
+      <c r="DV12" s="20"/>
+      <c r="DW12" s="20"/>
+      <c r="DX12" s="20"/>
+      <c r="DY12" s="20"/>
+      <c r="DZ12" s="20"/>
+      <c r="EA12" s="20"/>
+      <c r="EB12" s="20"/>
+      <c r="EC12" s="20"/>
+      <c r="ED12" s="20"/>
+      <c r="EE12" s="20"/>
+      <c r="EF12" s="20"/>
+      <c r="EG12" s="20"/>
+      <c r="EH12" s="20"/>
+      <c r="EI12" s="20"/>
+      <c r="EJ12" s="20"/>
+      <c r="EK12" s="20"/>
+      <c r="EL12" s="20"/>
+      <c r="EM12" s="20"/>
+      <c r="EN12" s="20"/>
+      <c r="EO12" s="20"/>
+      <c r="EP12" s="20"/>
+      <c r="EQ12" s="20"/>
+      <c r="ER12" s="20"/>
+      <c r="ES12" s="20"/>
+      <c r="ET12" s="20"/>
+      <c r="EU12" s="20"/>
+      <c r="EV12" s="20"/>
+      <c r="EW12" s="20"/>
+      <c r="EX12" s="20"/>
+      <c r="EY12" s="20"/>
+      <c r="EZ12" s="20"/>
+      <c r="FA12" s="20"/>
+      <c r="FB12" s="20"/>
+      <c r="FC12" s="20"/>
+      <c r="FD12" s="20"/>
+      <c r="FE12" s="20"/>
+      <c r="FF12" s="20"/>
+      <c r="FG12" s="20"/>
+      <c r="FH12" s="20"/>
+      <c r="FI12" s="20"/>
+      <c r="FJ12" s="20"/>
+      <c r="FK12" s="20"/>
+      <c r="FL12" s="20"/>
+      <c r="FM12" s="20"/>
+      <c r="FN12" s="20"/>
+      <c r="FO12" s="20"/>
+      <c r="FP12" s="20"/>
+      <c r="FQ12" s="20"/>
+      <c r="FR12" s="20"/>
+      <c r="FS12" s="20"/>
+      <c r="FT12" s="20"/>
+      <c r="FU12" s="20"/>
+      <c r="FV12" s="20"/>
+      <c r="FW12" s="20"/>
+      <c r="FX12" s="20"/>
+      <c r="FY12" s="20"/>
+      <c r="FZ12" s="20"/>
+      <c r="GA12" s="20"/>
+      <c r="GB12" s="20"/>
+      <c r="GC12" s="20"/>
+      <c r="GD12" s="20"/>
+      <c r="GE12" s="20"/>
+      <c r="GF12" s="20"/>
+      <c r="GG12" s="20"/>
+      <c r="GH12" s="20"/>
+      <c r="GI12" s="20"/>
+      <c r="GJ12" s="20"/>
+      <c r="GK12" s="20"/>
+      <c r="GL12" s="20"/>
+      <c r="GM12" s="20"/>
+      <c r="GN12" s="20"/>
+      <c r="GO12" s="20"/>
+      <c r="GP12" s="20"/>
+      <c r="GQ12" s="20"/>
+      <c r="GR12" s="20"/>
+      <c r="GS12" s="20"/>
+      <c r="GT12" s="20"/>
+      <c r="GU12" s="20"/>
+      <c r="GV12" s="20"/>
+      <c r="GW12" s="20"/>
+      <c r="GX12" s="20"/>
+      <c r="GY12" s="20"/>
+      <c r="GZ12" s="20"/>
+      <c r="HA12" s="20"/>
+      <c r="HB12" s="20"/>
+      <c r="HC12" s="20"/>
+      <c r="HD12" s="20"/>
+      <c r="HE12" s="20"/>
+      <c r="HF12" s="20"/>
+      <c r="HG12" s="20"/>
+      <c r="HH12" s="20"/>
+      <c r="HI12" s="20"/>
+      <c r="HJ12" s="20"/>
+      <c r="HK12" s="20"/>
+      <c r="HL12" s="20"/>
+      <c r="HM12" s="20"/>
+      <c r="HN12" s="20"/>
+      <c r="HO12" s="20"/>
+      <c r="HP12" s="20"/>
+      <c r="HQ12" s="20"/>
+      <c r="HR12" s="20"/>
+      <c r="HS12" s="20"/>
+      <c r="HT12" s="20"/>
+      <c r="HU12" s="20"/>
+      <c r="HV12" s="20"/>
+      <c r="HW12" s="20"/>
+      <c r="HX12" s="20"/>
+      <c r="HY12" s="20"/>
+      <c r="HZ12" s="20"/>
+      <c r="IA12" s="20"/>
+      <c r="IB12" s="20"/>
+      <c r="IC12" s="20"/>
+      <c r="ID12" s="20"/>
+      <c r="IE12" s="20"/>
+      <c r="IF12" s="20"/>
+      <c r="IG12" s="20"/>
+      <c r="IH12" s="20"/>
+      <c r="II12" s="20"/>
+      <c r="IJ12" s="20"/>
+      <c r="IK12" s="20"/>
+      <c r="IL12" s="20"/>
+      <c r="IM12" s="20"/>
+      <c r="IN12" s="20"/>
+      <c r="IO12" s="20"/>
+      <c r="IP12" s="20"/>
+      <c r="IQ12" s="20"/>
+      <c r="IR12" s="20"/>
+      <c r="IS12" s="20"/>
+      <c r="IT12" s="20"/>
+      <c r="IU12" s="20"/>
+      <c r="IV12" s="20"/>
+      <c r="IW12" s="20"/>
+      <c r="IX12" s="20"/>
+      <c r="IY12" s="20"/>
+      <c r="IZ12" s="20"/>
+      <c r="JA12" s="20"/>
+      <c r="JB12" s="20"/>
+      <c r="JC12" s="20"/>
+      <c r="JD12" s="20"/>
+      <c r="JE12" s="20"/>
+      <c r="JF12" s="20"/>
+      <c r="JG12" s="20"/>
+      <c r="JH12" s="20"/>
+      <c r="JI12" s="20"/>
+      <c r="JJ12" s="20"/>
+      <c r="JK12" s="20"/>
+      <c r="JL12" s="20"/>
+      <c r="JM12" s="20"/>
+      <c r="JN12" s="20"/>
+      <c r="JO12" s="20"/>
+      <c r="JP12" s="20"/>
+      <c r="JQ12" s="20"/>
+      <c r="JR12" s="20"/>
+      <c r="JS12" s="20"/>
+      <c r="JT12" s="20"/>
+      <c r="JU12" s="20"/>
+      <c r="JV12" s="20"/>
+      <c r="JW12" s="20"/>
+      <c r="JX12" s="20"/>
+      <c r="JY12" s="20"/>
+      <c r="JZ12" s="20"/>
+      <c r="KA12" s="20"/>
+      <c r="KB12" s="20"/>
+      <c r="KC12" s="20"/>
+      <c r="KD12" s="20"/>
+      <c r="KE12" s="20"/>
+      <c r="KF12" s="20"/>
+      <c r="KG12" s="20"/>
+      <c r="KH12" s="20"/>
+      <c r="KI12" s="20"/>
+      <c r="KJ12" s="20"/>
+      <c r="KK12" s="20"/>
+      <c r="KL12" s="20"/>
+      <c r="KM12" s="20"/>
+      <c r="KN12" s="20"/>
+      <c r="KO12" s="20"/>
+      <c r="KP12" s="20"/>
+      <c r="KQ12" s="20"/>
+      <c r="KR12" s="20"/>
+      <c r="KS12" s="20"/>
+      <c r="KT12" s="20"/>
+      <c r="KU12" s="20"/>
+      <c r="KV12" s="20"/>
+      <c r="KW12" s="20"/>
+      <c r="KX12" s="20"/>
+      <c r="KY12" s="20"/>
+      <c r="KZ12" s="20"/>
+      <c r="LA12" s="20"/>
+      <c r="LB12" s="20"/>
+      <c r="LC12" s="20"/>
+      <c r="LD12" s="20"/>
+      <c r="LE12" s="20"/>
+      <c r="LF12" s="20"/>
+      <c r="LG12" s="20"/>
+      <c r="LH12" s="20"/>
+      <c r="LI12" s="20"/>
+      <c r="LJ12" s="20"/>
+      <c r="LK12" s="20"/>
+      <c r="LL12" s="20"/>
+      <c r="LM12" s="20"/>
+      <c r="LN12" s="20"/>
+      <c r="LO12" s="20"/>
+      <c r="LP12" s="20"/>
+      <c r="LQ12" s="20"/>
+      <c r="LR12" s="20"/>
+      <c r="LS12" s="20"/>
+      <c r="LT12" s="20"/>
+      <c r="LU12" s="20"/>
+      <c r="LV12" s="20"/>
+      <c r="LW12" s="20"/>
+      <c r="LX12" s="20"/>
+      <c r="LY12" s="20"/>
+      <c r="LZ12" s="20"/>
+      <c r="MA12" s="20"/>
+      <c r="MB12" s="20"/>
+      <c r="MC12" s="20"/>
+      <c r="MD12" s="20"/>
+      <c r="ME12" s="20"/>
+      <c r="MF12" s="20"/>
+      <c r="MG12" s="20"/>
+      <c r="MH12" s="20"/>
+      <c r="MI12" s="20"/>
+      <c r="MJ12" s="20"/>
+      <c r="MK12" s="20"/>
+      <c r="ML12" s="20"/>
+      <c r="MM12" s="20"/>
+      <c r="MN12" s="20"/>
+      <c r="MO12" s="20"/>
+      <c r="MP12" s="20"/>
+      <c r="MQ12" s="20"/>
+      <c r="MR12" s="20"/>
+      <c r="MS12" s="20"/>
+      <c r="MT12" s="20"/>
+      <c r="MU12" s="20"/>
+      <c r="MV12" s="20"/>
+      <c r="MW12" s="20"/>
+      <c r="MX12" s="20"/>
+      <c r="MY12" s="20"/>
+      <c r="MZ12" s="20"/>
+      <c r="NA12" s="20"/>
+      <c r="NB12" s="20"/>
+      <c r="NC12" s="20"/>
+      <c r="ND12" s="20"/>
+      <c r="NE12" s="20"/>
+      <c r="NF12" s="20"/>
+      <c r="NG12" s="20"/>
+      <c r="NH12" s="20"/>
+      <c r="NI12" s="20"/>
+      <c r="NJ12" s="20"/>
+      <c r="NK12" s="20"/>
+      <c r="NL12" s="20"/>
+      <c r="NM12" s="20"/>
+      <c r="NN12" s="20"/>
+      <c r="NO12" s="20"/>
+      <c r="NP12" s="20"/>
+      <c r="NQ12" s="20"/>
+      <c r="NR12" s="20"/>
+      <c r="NS12" s="20"/>
+      <c r="NT12" s="20"/>
+      <c r="NU12" s="20"/>
+      <c r="NV12" s="20"/>
+      <c r="NW12" s="20"/>
+      <c r="NX12" s="20"/>
+      <c r="NY12" s="20"/>
+      <c r="NZ12" s="20"/>
+      <c r="OA12" s="20"/>
+      <c r="OB12" s="20"/>
+      <c r="OC12" s="20"/>
+      <c r="OD12" s="20"/>
+      <c r="OE12" s="20"/>
+      <c r="OF12" s="20"/>
+      <c r="OG12" s="20"/>
+      <c r="OH12" s="20"/>
+      <c r="OI12" s="20"/>
+      <c r="OJ12" s="20"/>
+      <c r="OK12" s="20"/>
+      <c r="OL12" s="20"/>
+      <c r="OM12" s="20"/>
+      <c r="ON12" s="20"/>
+      <c r="OO12" s="20"/>
+      <c r="OP12" s="20"/>
+      <c r="OQ12" s="20"/>
+      <c r="OR12" s="20"/>
+      <c r="OS12" s="20"/>
+      <c r="OT12" s="20"/>
+      <c r="OU12" s="20"/>
+      <c r="OV12" s="20"/>
+      <c r="OW12" s="20"/>
+      <c r="OX12" s="20"/>
+      <c r="OY12" s="20"/>
+      <c r="OZ12" s="20"/>
+      <c r="PA12" s="20"/>
+      <c r="PB12" s="20"/>
+      <c r="PC12" s="20"/>
+      <c r="PD12" s="20"/>
+      <c r="PE12" s="20"/>
+      <c r="PF12" s="20"/>
+      <c r="PG12" s="20"/>
+      <c r="PH12" s="20"/>
+      <c r="PI12" s="20"/>
+      <c r="PJ12" s="20"/>
+      <c r="PK12" s="20"/>
+      <c r="PL12" s="20"/>
+      <c r="PM12" s="20"/>
+      <c r="PN12" s="20"/>
+      <c r="PO12" s="20"/>
+      <c r="PP12" s="20"/>
+      <c r="PQ12" s="20"/>
+      <c r="PR12" s="20"/>
+      <c r="PS12" s="20"/>
+      <c r="PT12" s="20"/>
+      <c r="PU12" s="20"/>
+      <c r="PV12" s="20"/>
+      <c r="PW12" s="20"/>
+      <c r="PX12" s="20"/>
+      <c r="PY12" s="20"/>
+      <c r="PZ12" s="20"/>
+      <c r="QA12" s="20"/>
+      <c r="QB12" s="20"/>
+      <c r="QC12" s="20"/>
+      <c r="QD12" s="20"/>
+      <c r="QE12" s="20"/>
+      <c r="QF12" s="20"/>
+      <c r="QG12" s="20"/>
+      <c r="QH12" s="20"/>
+      <c r="QI12" s="20"/>
+      <c r="QJ12" s="20"/>
+      <c r="QK12" s="20"/>
+      <c r="QL12" s="20"/>
+      <c r="QM12" s="20"/>
+      <c r="QN12" s="20"/>
+      <c r="QO12" s="20"/>
+      <c r="QP12" s="20"/>
+      <c r="QQ12" s="20"/>
+      <c r="QR12" s="20"/>
+      <c r="QS12" s="20"/>
+      <c r="QT12" s="20"/>
+      <c r="QU12" s="20"/>
+      <c r="QV12" s="20"/>
+      <c r="QW12" s="20"/>
+      <c r="QX12" s="20"/>
+      <c r="QY12" s="20"/>
+      <c r="QZ12" s="20"/>
+      <c r="RA12" s="20"/>
+      <c r="RB12" s="20"/>
+      <c r="RC12" s="20"/>
+      <c r="RD12" s="20"/>
+      <c r="RE12" s="20"/>
+      <c r="RF12" s="20"/>
+      <c r="RG12" s="20"/>
+      <c r="RH12" s="20"/>
+      <c r="RI12" s="20"/>
+      <c r="RJ12" s="20"/>
+      <c r="RK12" s="20"/>
+      <c r="RL12" s="20"/>
+      <c r="RM12" s="20"/>
+      <c r="RN12" s="20"/>
+      <c r="RO12" s="20"/>
+      <c r="RP12" s="20"/>
+      <c r="RQ12" s="20"/>
+      <c r="RR12" s="20"/>
+      <c r="RS12" s="20"/>
+      <c r="RT12" s="20"/>
+      <c r="RU12" s="20"/>
+      <c r="RV12" s="20"/>
+      <c r="RW12" s="20"/>
+      <c r="RX12" s="20"/>
+      <c r="RY12" s="20"/>
+      <c r="RZ12" s="20"/>
+      <c r="SA12" s="20"/>
+      <c r="SB12" s="20"/>
+      <c r="SC12" s="20"/>
+      <c r="SD12" s="20"/>
+      <c r="SE12" s="20"/>
+      <c r="SF12" s="20"/>
+      <c r="SG12" s="20"/>
+      <c r="SH12" s="20"/>
+      <c r="SI12" s="20"/>
+      <c r="SJ12" s="20"/>
+      <c r="SK12" s="20"/>
+      <c r="SL12" s="20"/>
+      <c r="SM12" s="20"/>
+      <c r="SN12" s="20"/>
+      <c r="SO12" s="20"/>
+      <c r="SP12" s="20"/>
+      <c r="SQ12" s="20"/>
+      <c r="SR12" s="20"/>
+      <c r="SS12" s="20"/>
+      <c r="ST12" s="20"/>
+      <c r="SU12" s="20"/>
+      <c r="SV12" s="20"/>
+      <c r="SW12" s="20"/>
+      <c r="SX12" s="20"/>
+      <c r="SY12" s="20"/>
+      <c r="SZ12" s="20"/>
+      <c r="TA12" s="20"/>
+      <c r="TB12" s="20"/>
+      <c r="TC12" s="20"/>
+      <c r="TD12" s="20"/>
+      <c r="TE12" s="20"/>
+      <c r="TF12" s="20"/>
+      <c r="TG12" s="20"/>
+      <c r="TH12" s="20"/>
+      <c r="TI12" s="20"/>
+      <c r="TJ12" s="20"/>
+      <c r="TK12" s="20"/>
+      <c r="TL12" s="20"/>
+      <c r="TM12" s="20"/>
+      <c r="TN12" s="20"/>
+      <c r="TO12" s="20"/>
+      <c r="TP12" s="20"/>
+      <c r="TQ12" s="20"/>
+      <c r="TR12" s="20"/>
+      <c r="TS12" s="20"/>
+      <c r="TT12" s="20"/>
+      <c r="TU12" s="20"/>
+      <c r="TV12" s="20"/>
+      <c r="TW12" s="20"/>
+      <c r="TX12" s="20"/>
+      <c r="TY12" s="20"/>
+      <c r="TZ12" s="20"/>
+      <c r="UA12" s="20"/>
+      <c r="UB12" s="20"/>
+      <c r="UC12" s="20"/>
+      <c r="UD12" s="20"/>
+      <c r="UE12" s="20"/>
+      <c r="UF12" s="20"/>
+      <c r="UG12" s="20"/>
+      <c r="UH12" s="20"/>
+      <c r="UI12" s="20"/>
+      <c r="UJ12" s="20"/>
+      <c r="UK12" s="20"/>
+      <c r="UL12" s="20"/>
+      <c r="UM12" s="20"/>
+      <c r="UN12" s="20"/>
+      <c r="UO12" s="20"/>
+      <c r="UP12" s="20"/>
+      <c r="UQ12" s="20"/>
+      <c r="UR12" s="20"/>
+      <c r="US12" s="20"/>
+      <c r="UT12" s="20"/>
+      <c r="UU12" s="20"/>
+      <c r="UV12" s="20"/>
+      <c r="UW12" s="20"/>
+      <c r="UX12" s="20"/>
+      <c r="UY12" s="20"/>
+      <c r="UZ12" s="20"/>
+      <c r="VA12" s="20"/>
+      <c r="VB12" s="20"/>
+      <c r="VC12" s="20"/>
+      <c r="VD12" s="20"/>
+      <c r="VE12" s="20"/>
+      <c r="VF12" s="20"/>
+      <c r="VG12" s="20"/>
+      <c r="VH12" s="20"/>
+      <c r="VI12" s="20"/>
+      <c r="VJ12" s="20"/>
+      <c r="VK12" s="20"/>
+      <c r="VL12" s="20"/>
+      <c r="VM12" s="20"/>
+      <c r="VN12" s="20"/>
+      <c r="VO12" s="20"/>
+      <c r="VP12" s="20"/>
+      <c r="VQ12" s="20"/>
+      <c r="VR12" s="20"/>
+      <c r="VS12" s="20"/>
+      <c r="VT12" s="20"/>
+      <c r="VU12" s="20"/>
+      <c r="VV12" s="20"/>
+      <c r="VW12" s="20"/>
+      <c r="VX12" s="20"/>
+      <c r="VY12" s="20"/>
+      <c r="VZ12" s="20"/>
+      <c r="WA12" s="20"/>
+      <c r="WB12" s="20"/>
+      <c r="WC12" s="20"/>
+      <c r="WD12" s="20"/>
+      <c r="WE12" s="20"/>
+      <c r="WF12" s="20"/>
+      <c r="WG12" s="20"/>
+      <c r="WH12" s="20"/>
+      <c r="WI12" s="20"/>
+      <c r="WJ12" s="20"/>
+      <c r="WK12" s="20"/>
+      <c r="WL12" s="20"/>
+      <c r="WM12" s="20"/>
+      <c r="WN12" s="20"/>
+      <c r="WO12" s="20"/>
+      <c r="WP12" s="20"/>
+      <c r="WQ12" s="20"/>
+      <c r="WR12" s="20"/>
+      <c r="WS12" s="20"/>
+      <c r="WT12" s="20"/>
+      <c r="WU12" s="20"/>
+      <c r="WV12" s="20"/>
+      <c r="WW12" s="20"/>
+      <c r="WX12" s="20"/>
+      <c r="WY12" s="20"/>
+      <c r="WZ12" s="20"/>
+      <c r="XA12" s="20"/>
+      <c r="XB12" s="20"/>
+      <c r="XC12" s="20"/>
+      <c r="XD12" s="20"/>
+      <c r="XE12" s="20"/>
+      <c r="XF12" s="20"/>
+      <c r="XG12" s="20"/>
+      <c r="XH12" s="20"/>
+      <c r="XI12" s="20"/>
+      <c r="XJ12" s="20"/>
+      <c r="XK12" s="20"/>
+      <c r="XL12" s="20"/>
+      <c r="XM12" s="20"/>
+      <c r="XN12" s="20"/>
+      <c r="XO12" s="20"/>
+      <c r="XP12" s="20"/>
+      <c r="XQ12" s="20"/>
+      <c r="XR12" s="20"/>
+      <c r="XS12" s="20"/>
+      <c r="XT12" s="20"/>
+      <c r="XU12" s="20"/>
+      <c r="XV12" s="20"/>
+      <c r="XW12" s="20"/>
+      <c r="XX12" s="20"/>
+      <c r="XY12" s="20"/>
+      <c r="XZ12" s="20"/>
+      <c r="YA12" s="20"/>
+      <c r="YB12" s="20"/>
+      <c r="YC12" s="20"/>
+      <c r="YD12" s="20"/>
+      <c r="YE12" s="20"/>
+      <c r="YF12" s="20"/>
+      <c r="YG12" s="20"/>
+      <c r="YH12" s="20"/>
+      <c r="YI12" s="20"/>
+      <c r="YJ12" s="20"/>
+      <c r="YK12" s="20"/>
+      <c r="YL12" s="20"/>
+      <c r="YM12" s="20"/>
+      <c r="YN12" s="20"/>
+      <c r="YO12" s="20"/>
+      <c r="YP12" s="20"/>
+      <c r="YQ12" s="20"/>
+      <c r="YR12" s="20"/>
+      <c r="YS12" s="20"/>
+      <c r="YT12" s="20"/>
+      <c r="YU12" s="20"/>
+      <c r="YV12" s="20"/>
+      <c r="YW12" s="20"/>
+      <c r="YX12" s="20"/>
+      <c r="YY12" s="20"/>
+      <c r="YZ12" s="20"/>
+      <c r="ZA12" s="20"/>
+      <c r="ZB12" s="20"/>
+      <c r="ZC12" s="20"/>
+      <c r="ZD12" s="20"/>
+      <c r="ZE12" s="20"/>
+      <c r="ZF12" s="20"/>
+      <c r="ZG12" s="20"/>
+      <c r="ZH12" s="20"/>
+      <c r="ZI12" s="20"/>
+      <c r="ZJ12" s="20"/>
+      <c r="ZK12" s="20"/>
+      <c r="ZL12" s="20"/>
+      <c r="ZM12" s="20"/>
+      <c r="ZN12" s="20"/>
+      <c r="ZO12" s="20"/>
+      <c r="ZP12" s="20"/>
+      <c r="ZQ12" s="20"/>
+      <c r="ZR12" s="20"/>
+      <c r="ZS12" s="20"/>
+      <c r="ZT12" s="20"/>
+      <c r="ZU12" s="20"/>
+      <c r="ZV12" s="20"/>
+      <c r="ZW12" s="20"/>
+      <c r="ZX12" s="20"/>
+      <c r="ZY12" s="20"/>
+      <c r="ZZ12" s="20"/>
+      <c r="AAA12" s="20"/>
+      <c r="AAB12" s="20"/>
+      <c r="AAC12" s="20"/>
+      <c r="AAD12" s="20"/>
+      <c r="AAE12" s="20"/>
+      <c r="AAF12" s="20"/>
+      <c r="AAG12" s="20"/>
+      <c r="AAH12" s="20"/>
+      <c r="AAI12" s="20"/>
+      <c r="AAJ12" s="20"/>
+      <c r="AAK12" s="20"/>
+      <c r="AAL12" s="20"/>
+      <c r="AAM12" s="20"/>
+      <c r="AAN12" s="20"/>
+      <c r="AAO12" s="20"/>
+      <c r="AAP12" s="20"/>
+      <c r="AAQ12" s="20"/>
+      <c r="AAR12" s="20"/>
+      <c r="AAS12" s="20"/>
+      <c r="AAT12" s="20"/>
+      <c r="AAU12" s="20"/>
+      <c r="AAV12" s="20"/>
+      <c r="AAW12" s="20"/>
+      <c r="AAX12" s="20"/>
+      <c r="AAY12" s="20"/>
+      <c r="AAZ12" s="20"/>
+      <c r="ABA12" s="20"/>
+      <c r="ABB12" s="20"/>
+      <c r="ABC12" s="20"/>
+      <c r="ABD12" s="20"/>
+      <c r="ABE12" s="20"/>
+      <c r="ABF12" s="20"/>
+      <c r="ABG12" s="20"/>
+      <c r="ABH12" s="20"/>
+      <c r="ABI12" s="20"/>
+      <c r="ABJ12" s="20"/>
+      <c r="ABK12" s="20"/>
+      <c r="ABL12" s="20"/>
+      <c r="ABM12" s="20"/>
+      <c r="ABN12" s="20"/>
+      <c r="ABO12" s="20"/>
+      <c r="ABP12" s="20"/>
+      <c r="ABQ12" s="20"/>
+      <c r="ABR12" s="20"/>
+      <c r="ABS12" s="20"/>
+      <c r="ABT12" s="20"/>
+      <c r="ABU12" s="20"/>
+      <c r="ABV12" s="20"/>
+      <c r="ABW12" s="20"/>
+      <c r="ABX12" s="20"/>
+      <c r="ABY12" s="20"/>
+      <c r="ABZ12" s="20"/>
+      <c r="ACA12" s="20"/>
+      <c r="ACB12" s="20"/>
+      <c r="ACC12" s="20"/>
+      <c r="ACD12" s="20"/>
+      <c r="ACE12" s="20"/>
+      <c r="ACF12" s="20"/>
+      <c r="ACG12" s="20"/>
+      <c r="ACH12" s="20"/>
+      <c r="ACI12" s="20"/>
+      <c r="ACJ12" s="20"/>
+      <c r="ACK12" s="20"/>
+      <c r="ACL12" s="20"/>
+      <c r="ACM12" s="20"/>
+      <c r="ACN12" s="20"/>
+      <c r="ACO12" s="20"/>
+      <c r="ACP12" s="20"/>
+      <c r="ACQ12" s="20"/>
+      <c r="ACR12" s="20"/>
+      <c r="ACS12" s="20"/>
+      <c r="ACT12" s="20"/>
+      <c r="ACU12" s="20"/>
+      <c r="ACV12" s="20"/>
+      <c r="ACW12" s="20"/>
+      <c r="ACX12" s="20"/>
+      <c r="ACY12" s="20"/>
+      <c r="ACZ12" s="20"/>
+      <c r="ADA12" s="20"/>
+      <c r="ADB12" s="20"/>
+      <c r="ADC12" s="20"/>
+      <c r="ADD12" s="20"/>
+      <c r="ADE12" s="20"/>
+      <c r="ADF12" s="20"/>
+      <c r="ADG12" s="20"/>
+      <c r="ADH12" s="20"/>
+      <c r="ADI12" s="20"/>
+      <c r="ADJ12" s="20"/>
+      <c r="ADK12" s="20"/>
+      <c r="ADL12" s="20"/>
+      <c r="ADM12" s="20"/>
+      <c r="ADN12" s="20"/>
+      <c r="ADO12" s="20"/>
+      <c r="ADP12" s="20"/>
+      <c r="ADQ12" s="20"/>
+      <c r="ADR12" s="20"/>
+      <c r="ADS12" s="20"/>
+      <c r="ADT12" s="20"/>
+      <c r="ADU12" s="20"/>
+      <c r="ADV12" s="20"/>
+      <c r="ADW12" s="20"/>
+      <c r="ADX12" s="20"/>
+      <c r="ADY12" s="20"/>
+      <c r="ADZ12" s="20"/>
+      <c r="AEA12" s="20"/>
+      <c r="AEB12" s="20"/>
+      <c r="AEC12" s="20"/>
+      <c r="AED12" s="20"/>
+      <c r="AEE12" s="20"/>
+      <c r="AEF12" s="20"/>
+      <c r="AEG12" s="20"/>
+      <c r="AEH12" s="20"/>
+      <c r="AEI12" s="20"/>
+      <c r="AEJ12" s="20"/>
+      <c r="AEK12" s="20"/>
+      <c r="AEL12" s="20"/>
+      <c r="AEM12" s="20"/>
+      <c r="AEN12" s="20"/>
+      <c r="AEO12" s="20"/>
+      <c r="AEP12" s="20"/>
+      <c r="AEQ12" s="20"/>
+      <c r="AER12" s="20"/>
+      <c r="AES12" s="20"/>
+      <c r="AET12" s="20"/>
+      <c r="AEU12" s="20"/>
+      <c r="AEV12" s="20"/>
+      <c r="AEW12" s="20"/>
+      <c r="AEX12" s="20"/>
+      <c r="AEY12" s="20"/>
+      <c r="AEZ12" s="20"/>
+      <c r="AFA12" s="20"/>
+      <c r="AFB12" s="20"/>
+      <c r="AFC12" s="20"/>
+      <c r="AFD12" s="20"/>
+      <c r="AFE12" s="20"/>
+      <c r="AFF12" s="20"/>
+      <c r="AFG12" s="20"/>
+      <c r="AFH12" s="20"/>
+      <c r="AFI12" s="20"/>
+      <c r="AFJ12" s="20"/>
+      <c r="AFK12" s="20"/>
+      <c r="AFL12" s="20"/>
+      <c r="AFM12" s="20"/>
+      <c r="AFN12" s="20"/>
+      <c r="AFO12" s="20"/>
+      <c r="AFP12" s="20"/>
+      <c r="AFQ12" s="20"/>
+      <c r="AFR12" s="20"/>
+      <c r="AFS12" s="20"/>
+      <c r="AFT12" s="20"/>
+      <c r="AFU12" s="20"/>
+      <c r="AFV12" s="20"/>
+      <c r="AFW12" s="20"/>
+      <c r="AFX12" s="20"/>
+      <c r="AFY12" s="20"/>
+      <c r="AFZ12" s="20"/>
+      <c r="AGA12" s="20"/>
+      <c r="AGB12" s="20"/>
+      <c r="AGC12" s="20"/>
+      <c r="AGD12" s="20"/>
+      <c r="AGE12" s="20"/>
+      <c r="AGF12" s="20"/>
+      <c r="AGG12" s="20"/>
+      <c r="AGH12" s="20"/>
+      <c r="AGI12" s="20"/>
+      <c r="AGJ12" s="20"/>
+      <c r="AGK12" s="20"/>
+      <c r="AGL12" s="20"/>
+      <c r="AGM12" s="20"/>
+      <c r="AGN12" s="20"/>
+      <c r="AGO12" s="20"/>
+      <c r="AGP12" s="20"/>
+      <c r="AGQ12" s="20"/>
+      <c r="AGR12" s="20"/>
+      <c r="AGS12" s="20"/>
+      <c r="AGT12" s="20"/>
+      <c r="AGU12" s="20"/>
+      <c r="AGV12" s="20"/>
+      <c r="AGW12" s="20"/>
+      <c r="AGX12" s="20"/>
+      <c r="AGY12" s="20"/>
+      <c r="AGZ12" s="20"/>
+      <c r="AHA12" s="20"/>
+      <c r="AHB12" s="20"/>
+      <c r="AHC12" s="20"/>
+      <c r="AHD12" s="20"/>
+      <c r="AHE12" s="20"/>
+      <c r="AHF12" s="20"/>
+      <c r="AHG12" s="20"/>
+      <c r="AHH12" s="20"/>
+      <c r="AHI12" s="20"/>
+      <c r="AHJ12" s="20"/>
+      <c r="AHK12" s="20"/>
+      <c r="AHL12" s="20"/>
+      <c r="AHM12" s="20"/>
+      <c r="AHN12" s="20"/>
+      <c r="AHO12" s="20"/>
+      <c r="AHP12" s="20"/>
+      <c r="AHQ12" s="20"/>
+      <c r="AHR12" s="20"/>
+      <c r="AHS12" s="20"/>
+      <c r="AHT12" s="20"/>
+      <c r="AHU12" s="20"/>
+      <c r="AHV12" s="20"/>
+      <c r="AHW12" s="20"/>
+      <c r="AHX12" s="20"/>
+      <c r="AHY12" s="20"/>
+      <c r="AHZ12" s="20"/>
+      <c r="AIA12" s="20"/>
+      <c r="AIB12" s="20"/>
+      <c r="AIC12" s="20"/>
+      <c r="AID12" s="20"/>
+      <c r="AIE12" s="20"/>
+      <c r="AIF12" s="20"/>
+      <c r="AIG12" s="20"/>
+      <c r="AIH12" s="20"/>
+      <c r="AII12" s="20"/>
+      <c r="AIJ12" s="20"/>
+      <c r="AIK12" s="20"/>
+      <c r="AIL12" s="20"/>
+      <c r="AIM12" s="20"/>
+      <c r="AIN12" s="20"/>
+      <c r="AIO12" s="20"/>
+      <c r="AIP12" s="20"/>
+      <c r="AIQ12" s="20"/>
+      <c r="AIR12" s="20"/>
+      <c r="AIS12" s="20"/>
+      <c r="AIT12" s="20"/>
+      <c r="AIU12" s="20"/>
+      <c r="AIV12" s="20"/>
+      <c r="AIW12" s="20"/>
+      <c r="AIX12" s="20"/>
+      <c r="AIY12" s="20"/>
+      <c r="AIZ12" s="20"/>
+      <c r="AJA12" s="20"/>
+      <c r="AJB12" s="20"/>
+      <c r="AJC12" s="20"/>
+      <c r="AJD12" s="20"/>
+      <c r="AJE12" s="20"/>
+      <c r="AJF12" s="20"/>
+      <c r="AJG12" s="20"/>
+      <c r="AJH12" s="20"/>
+      <c r="AJI12" s="20"/>
+      <c r="AJJ12" s="20"/>
+      <c r="AJK12" s="20"/>
+      <c r="AJL12" s="20"/>
+      <c r="AJM12" s="20"/>
+      <c r="AJN12" s="20"/>
+      <c r="AJO12" s="20"/>
+      <c r="AJP12" s="20"/>
+      <c r="AJQ12" s="20"/>
+      <c r="AJR12" s="20"/>
+      <c r="AJS12" s="20"/>
+      <c r="AJT12" s="20"/>
+      <c r="AJU12" s="20"/>
+      <c r="AJV12" s="20"/>
+      <c r="AJW12" s="20"/>
+      <c r="AJX12" s="20"/>
+      <c r="AJY12" s="20"/>
+      <c r="AJZ12" s="20"/>
+      <c r="AKA12" s="20"/>
+      <c r="AKB12" s="20"/>
+      <c r="AKC12" s="20"/>
+      <c r="AKD12" s="20"/>
+      <c r="AKE12" s="20"/>
+      <c r="AKF12" s="20"/>
+      <c r="AKG12" s="20"/>
+      <c r="AKH12" s="20"/>
+      <c r="AKI12" s="20"/>
+      <c r="AKJ12" s="20"/>
+      <c r="AKK12" s="20"/>
+      <c r="AKL12" s="20"/>
+      <c r="AKM12" s="20"/>
+      <c r="AKN12" s="20"/>
+      <c r="AKO12" s="20"/>
+      <c r="AKP12" s="20"/>
+      <c r="AKQ12" s="20"/>
+      <c r="AKR12" s="20"/>
+      <c r="AKS12" s="20"/>
+      <c r="AKT12" s="20"/>
+      <c r="AKU12" s="20"/>
+      <c r="AKV12" s="20"/>
+      <c r="AKW12" s="20"/>
+      <c r="AKX12" s="20"/>
+      <c r="AKY12" s="20"/>
+      <c r="AKZ12" s="20"/>
+      <c r="ALA12" s="20"/>
+      <c r="ALB12" s="20"/>
+      <c r="ALC12" s="20"/>
+      <c r="ALD12" s="20"/>
+      <c r="ALE12" s="20"/>
+      <c r="ALF12" s="20"/>
+      <c r="ALG12" s="20"/>
+      <c r="ALH12" s="20"/>
+      <c r="ALI12" s="20"/>
+      <c r="ALJ12" s="20"/>
+      <c r="ALK12" s="20"/>
+      <c r="ALL12" s="20"/>
+      <c r="ALM12" s="20"/>
+      <c r="ALN12" s="20"/>
+      <c r="ALO12" s="20"/>
+      <c r="ALP12" s="20"/>
+      <c r="ALQ12" s="20"/>
+      <c r="ALR12" s="20"/>
+      <c r="ALS12" s="20"/>
+      <c r="ALT12" s="20"/>
+      <c r="ALU12" s="20"/>
+      <c r="ALV12" s="20"/>
+      <c r="ALW12" s="20"/>
+      <c r="ALX12" s="20"/>
+      <c r="ALY12" s="20"/>
+      <c r="ALZ12" s="20"/>
+      <c r="AMA12" s="20"/>
+      <c r="AMB12" s="20"/>
+      <c r="AMC12" s="20"/>
+      <c r="AMD12" s="20"/>
+      <c r="AME12" s="20"/>
+      <c r="AMF12" s="20"/>
+      <c r="AMG12" s="20"/>
+      <c r="AMH12" s="20"/>
+      <c r="AMI12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
@@ -1641,26 +2768,1128 @@
       <c r="C13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="8" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="F13" s="28" t="n">
+        <v>157055</v>
+      </c>
+      <c r="G13" s="29" t="n">
+        <v>122498</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q13" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S13" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="35" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="n">
         <v>1010</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="30" t="n">
         <v>2</v>
       </c>
+      <c r="F14" s="34" t="n">
+        <v>183662</v>
+      </c>
+      <c r="G14" s="31" t="n">
+        <v>285174</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S14" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="31"/>
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="31"/>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="31"/>
+      <c r="CG14" s="31"/>
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="31"/>
+      <c r="CJ14" s="31"/>
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="31"/>
+      <c r="CM14" s="31"/>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
+      <c r="CS14" s="31"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="31"/>
+      <c r="CV14" s="31"/>
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="31"/>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="31"/>
+      <c r="DB14" s="31"/>
+      <c r="DC14" s="31"/>
+      <c r="DD14" s="31"/>
+      <c r="DE14" s="31"/>
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="31"/>
+      <c r="DH14" s="31"/>
+      <c r="DI14" s="31"/>
+      <c r="DJ14" s="31"/>
+      <c r="DK14" s="31"/>
+      <c r="DL14" s="31"/>
+      <c r="DM14" s="31"/>
+      <c r="DN14" s="31"/>
+      <c r="DO14" s="31"/>
+      <c r="DP14" s="31"/>
+      <c r="DQ14" s="31"/>
+      <c r="DR14" s="31"/>
+      <c r="DS14" s="31"/>
+      <c r="DT14" s="31"/>
+      <c r="DU14" s="31"/>
+      <c r="DV14" s="31"/>
+      <c r="DW14" s="31"/>
+      <c r="DX14" s="31"/>
+      <c r="DY14" s="31"/>
+      <c r="DZ14" s="31"/>
+      <c r="EA14" s="31"/>
+      <c r="EB14" s="31"/>
+      <c r="EC14" s="31"/>
+      <c r="ED14" s="31"/>
+      <c r="EE14" s="31"/>
+      <c r="EF14" s="31"/>
+      <c r="EG14" s="31"/>
+      <c r="EH14" s="31"/>
+      <c r="EI14" s="31"/>
+      <c r="EJ14" s="31"/>
+      <c r="EK14" s="31"/>
+      <c r="EL14" s="31"/>
+      <c r="EM14" s="31"/>
+      <c r="EN14" s="31"/>
+      <c r="EO14" s="31"/>
+      <c r="EP14" s="31"/>
+      <c r="EQ14" s="31"/>
+      <c r="ER14" s="31"/>
+      <c r="ES14" s="31"/>
+      <c r="ET14" s="31"/>
+      <c r="EU14" s="31"/>
+      <c r="EV14" s="31"/>
+      <c r="EW14" s="31"/>
+      <c r="EX14" s="31"/>
+      <c r="EY14" s="31"/>
+      <c r="EZ14" s="31"/>
+      <c r="FA14" s="31"/>
+      <c r="FB14" s="31"/>
+      <c r="FC14" s="31"/>
+      <c r="FD14" s="31"/>
+      <c r="FE14" s="31"/>
+      <c r="FF14" s="31"/>
+      <c r="FG14" s="31"/>
+      <c r="FH14" s="31"/>
+      <c r="FI14" s="31"/>
+      <c r="FJ14" s="31"/>
+      <c r="FK14" s="31"/>
+      <c r="FL14" s="31"/>
+      <c r="FM14" s="31"/>
+      <c r="FN14" s="31"/>
+      <c r="FO14" s="31"/>
+      <c r="FP14" s="31"/>
+      <c r="FQ14" s="31"/>
+      <c r="FR14" s="31"/>
+      <c r="FS14" s="31"/>
+      <c r="FT14" s="31"/>
+      <c r="FU14" s="31"/>
+      <c r="FV14" s="31"/>
+      <c r="FW14" s="31"/>
+      <c r="FX14" s="31"/>
+      <c r="FY14" s="31"/>
+      <c r="FZ14" s="31"/>
+      <c r="GA14" s="31"/>
+      <c r="GB14" s="31"/>
+      <c r="GC14" s="31"/>
+      <c r="GD14" s="31"/>
+      <c r="GE14" s="31"/>
+      <c r="GF14" s="31"/>
+      <c r="GG14" s="31"/>
+      <c r="GH14" s="31"/>
+      <c r="GI14" s="31"/>
+      <c r="GJ14" s="31"/>
+      <c r="GK14" s="31"/>
+      <c r="GL14" s="31"/>
+      <c r="GM14" s="31"/>
+      <c r="GN14" s="31"/>
+      <c r="GO14" s="31"/>
+      <c r="GP14" s="31"/>
+      <c r="GQ14" s="31"/>
+      <c r="GR14" s="31"/>
+      <c r="GS14" s="31"/>
+      <c r="GT14" s="31"/>
+      <c r="GU14" s="31"/>
+      <c r="GV14" s="31"/>
+      <c r="GW14" s="31"/>
+      <c r="GX14" s="31"/>
+      <c r="GY14" s="31"/>
+      <c r="GZ14" s="31"/>
+      <c r="HA14" s="31"/>
+      <c r="HB14" s="31"/>
+      <c r="HC14" s="31"/>
+      <c r="HD14" s="31"/>
+      <c r="HE14" s="31"/>
+      <c r="HF14" s="31"/>
+      <c r="HG14" s="31"/>
+      <c r="HH14" s="31"/>
+      <c r="HI14" s="31"/>
+      <c r="HJ14" s="31"/>
+      <c r="HK14" s="31"/>
+      <c r="HL14" s="31"/>
+      <c r="HM14" s="31"/>
+      <c r="HN14" s="31"/>
+      <c r="HO14" s="31"/>
+      <c r="HP14" s="31"/>
+      <c r="HQ14" s="31"/>
+      <c r="HR14" s="31"/>
+      <c r="HS14" s="31"/>
+      <c r="HT14" s="31"/>
+      <c r="HU14" s="31"/>
+      <c r="HV14" s="31"/>
+      <c r="HW14" s="31"/>
+      <c r="HX14" s="31"/>
+      <c r="HY14" s="31"/>
+      <c r="HZ14" s="31"/>
+      <c r="IA14" s="31"/>
+      <c r="IB14" s="31"/>
+      <c r="IC14" s="31"/>
+      <c r="ID14" s="31"/>
+      <c r="IE14" s="31"/>
+      <c r="IF14" s="31"/>
+      <c r="IG14" s="31"/>
+      <c r="IH14" s="31"/>
+      <c r="II14" s="31"/>
+      <c r="IJ14" s="31"/>
+      <c r="IK14" s="31"/>
+      <c r="IL14" s="31"/>
+      <c r="IM14" s="31"/>
+      <c r="IN14" s="31"/>
+      <c r="IO14" s="31"/>
+      <c r="IP14" s="31"/>
+      <c r="IQ14" s="31"/>
+      <c r="IR14" s="31"/>
+      <c r="IS14" s="31"/>
+      <c r="IT14" s="31"/>
+      <c r="IU14" s="31"/>
+      <c r="IV14" s="31"/>
+      <c r="IW14" s="31"/>
+      <c r="IX14" s="31"/>
+      <c r="IY14" s="31"/>
+      <c r="IZ14" s="31"/>
+      <c r="JA14" s="31"/>
+      <c r="JB14" s="31"/>
+      <c r="JC14" s="31"/>
+      <c r="JD14" s="31"/>
+      <c r="JE14" s="31"/>
+      <c r="JF14" s="31"/>
+      <c r="JG14" s="31"/>
+      <c r="JH14" s="31"/>
+      <c r="JI14" s="31"/>
+      <c r="JJ14" s="31"/>
+      <c r="JK14" s="31"/>
+      <c r="JL14" s="31"/>
+      <c r="JM14" s="31"/>
+      <c r="JN14" s="31"/>
+      <c r="JO14" s="31"/>
+      <c r="JP14" s="31"/>
+      <c r="JQ14" s="31"/>
+      <c r="JR14" s="31"/>
+      <c r="JS14" s="31"/>
+      <c r="JT14" s="31"/>
+      <c r="JU14" s="31"/>
+      <c r="JV14" s="31"/>
+      <c r="JW14" s="31"/>
+      <c r="JX14" s="31"/>
+      <c r="JY14" s="31"/>
+      <c r="JZ14" s="31"/>
+      <c r="KA14" s="31"/>
+      <c r="KB14" s="31"/>
+      <c r="KC14" s="31"/>
+      <c r="KD14" s="31"/>
+      <c r="KE14" s="31"/>
+      <c r="KF14" s="31"/>
+      <c r="KG14" s="31"/>
+      <c r="KH14" s="31"/>
+      <c r="KI14" s="31"/>
+      <c r="KJ14" s="31"/>
+      <c r="KK14" s="31"/>
+      <c r="KL14" s="31"/>
+      <c r="KM14" s="31"/>
+      <c r="KN14" s="31"/>
+      <c r="KO14" s="31"/>
+      <c r="KP14" s="31"/>
+      <c r="KQ14" s="31"/>
+      <c r="KR14" s="31"/>
+      <c r="KS14" s="31"/>
+      <c r="KT14" s="31"/>
+      <c r="KU14" s="31"/>
+      <c r="KV14" s="31"/>
+      <c r="KW14" s="31"/>
+      <c r="KX14" s="31"/>
+      <c r="KY14" s="31"/>
+      <c r="KZ14" s="31"/>
+      <c r="LA14" s="31"/>
+      <c r="LB14" s="31"/>
+      <c r="LC14" s="31"/>
+      <c r="LD14" s="31"/>
+      <c r="LE14" s="31"/>
+      <c r="LF14" s="31"/>
+      <c r="LG14" s="31"/>
+      <c r="LH14" s="31"/>
+      <c r="LI14" s="31"/>
+      <c r="LJ14" s="31"/>
+      <c r="LK14" s="31"/>
+      <c r="LL14" s="31"/>
+      <c r="LM14" s="31"/>
+      <c r="LN14" s="31"/>
+      <c r="LO14" s="31"/>
+      <c r="LP14" s="31"/>
+      <c r="LQ14" s="31"/>
+      <c r="LR14" s="31"/>
+      <c r="LS14" s="31"/>
+      <c r="LT14" s="31"/>
+      <c r="LU14" s="31"/>
+      <c r="LV14" s="31"/>
+      <c r="LW14" s="31"/>
+      <c r="LX14" s="31"/>
+      <c r="LY14" s="31"/>
+      <c r="LZ14" s="31"/>
+      <c r="MA14" s="31"/>
+      <c r="MB14" s="31"/>
+      <c r="MC14" s="31"/>
+      <c r="MD14" s="31"/>
+      <c r="ME14" s="31"/>
+      <c r="MF14" s="31"/>
+      <c r="MG14" s="31"/>
+      <c r="MH14" s="31"/>
+      <c r="MI14" s="31"/>
+      <c r="MJ14" s="31"/>
+      <c r="MK14" s="31"/>
+      <c r="ML14" s="31"/>
+      <c r="MM14" s="31"/>
+      <c r="MN14" s="31"/>
+      <c r="MO14" s="31"/>
+      <c r="MP14" s="31"/>
+      <c r="MQ14" s="31"/>
+      <c r="MR14" s="31"/>
+      <c r="MS14" s="31"/>
+      <c r="MT14" s="31"/>
+      <c r="MU14" s="31"/>
+      <c r="MV14" s="31"/>
+      <c r="MW14" s="31"/>
+      <c r="MX14" s="31"/>
+      <c r="MY14" s="31"/>
+      <c r="MZ14" s="31"/>
+      <c r="NA14" s="31"/>
+      <c r="NB14" s="31"/>
+      <c r="NC14" s="31"/>
+      <c r="ND14" s="31"/>
+      <c r="NE14" s="31"/>
+      <c r="NF14" s="31"/>
+      <c r="NG14" s="31"/>
+      <c r="NH14" s="31"/>
+      <c r="NI14" s="31"/>
+      <c r="NJ14" s="31"/>
+      <c r="NK14" s="31"/>
+      <c r="NL14" s="31"/>
+      <c r="NM14" s="31"/>
+      <c r="NN14" s="31"/>
+      <c r="NO14" s="31"/>
+      <c r="NP14" s="31"/>
+      <c r="NQ14" s="31"/>
+      <c r="NR14" s="31"/>
+      <c r="NS14" s="31"/>
+      <c r="NT14" s="31"/>
+      <c r="NU14" s="31"/>
+      <c r="NV14" s="31"/>
+      <c r="NW14" s="31"/>
+      <c r="NX14" s="31"/>
+      <c r="NY14" s="31"/>
+      <c r="NZ14" s="31"/>
+      <c r="OA14" s="31"/>
+      <c r="OB14" s="31"/>
+      <c r="OC14" s="31"/>
+      <c r="OD14" s="31"/>
+      <c r="OE14" s="31"/>
+      <c r="OF14" s="31"/>
+      <c r="OG14" s="31"/>
+      <c r="OH14" s="31"/>
+      <c r="OI14" s="31"/>
+      <c r="OJ14" s="31"/>
+      <c r="OK14" s="31"/>
+      <c r="OL14" s="31"/>
+      <c r="OM14" s="31"/>
+      <c r="ON14" s="31"/>
+      <c r="OO14" s="31"/>
+      <c r="OP14" s="31"/>
+      <c r="OQ14" s="31"/>
+      <c r="OR14" s="31"/>
+      <c r="OS14" s="31"/>
+      <c r="OT14" s="31"/>
+      <c r="OU14" s="31"/>
+      <c r="OV14" s="31"/>
+      <c r="OW14" s="31"/>
+      <c r="OX14" s="31"/>
+      <c r="OY14" s="31"/>
+      <c r="OZ14" s="31"/>
+      <c r="PA14" s="31"/>
+      <c r="PB14" s="31"/>
+      <c r="PC14" s="31"/>
+      <c r="PD14" s="31"/>
+      <c r="PE14" s="31"/>
+      <c r="PF14" s="31"/>
+      <c r="PG14" s="31"/>
+      <c r="PH14" s="31"/>
+      <c r="PI14" s="31"/>
+      <c r="PJ14" s="31"/>
+      <c r="PK14" s="31"/>
+      <c r="PL14" s="31"/>
+      <c r="PM14" s="31"/>
+      <c r="PN14" s="31"/>
+      <c r="PO14" s="31"/>
+      <c r="PP14" s="31"/>
+      <c r="PQ14" s="31"/>
+      <c r="PR14" s="31"/>
+      <c r="PS14" s="31"/>
+      <c r="PT14" s="31"/>
+      <c r="PU14" s="31"/>
+      <c r="PV14" s="31"/>
+      <c r="PW14" s="31"/>
+      <c r="PX14" s="31"/>
+      <c r="PY14" s="31"/>
+      <c r="PZ14" s="31"/>
+      <c r="QA14" s="31"/>
+      <c r="QB14" s="31"/>
+      <c r="QC14" s="31"/>
+      <c r="QD14" s="31"/>
+      <c r="QE14" s="31"/>
+      <c r="QF14" s="31"/>
+      <c r="QG14" s="31"/>
+      <c r="QH14" s="31"/>
+      <c r="QI14" s="31"/>
+      <c r="QJ14" s="31"/>
+      <c r="QK14" s="31"/>
+      <c r="QL14" s="31"/>
+      <c r="QM14" s="31"/>
+      <c r="QN14" s="31"/>
+      <c r="QO14" s="31"/>
+      <c r="QP14" s="31"/>
+      <c r="QQ14" s="31"/>
+      <c r="QR14" s="31"/>
+      <c r="QS14" s="31"/>
+      <c r="QT14" s="31"/>
+      <c r="QU14" s="31"/>
+      <c r="QV14" s="31"/>
+      <c r="QW14" s="31"/>
+      <c r="QX14" s="31"/>
+      <c r="QY14" s="31"/>
+      <c r="QZ14" s="31"/>
+      <c r="RA14" s="31"/>
+      <c r="RB14" s="31"/>
+      <c r="RC14" s="31"/>
+      <c r="RD14" s="31"/>
+      <c r="RE14" s="31"/>
+      <c r="RF14" s="31"/>
+      <c r="RG14" s="31"/>
+      <c r="RH14" s="31"/>
+      <c r="RI14" s="31"/>
+      <c r="RJ14" s="31"/>
+      <c r="RK14" s="31"/>
+      <c r="RL14" s="31"/>
+      <c r="RM14" s="31"/>
+      <c r="RN14" s="31"/>
+      <c r="RO14" s="31"/>
+      <c r="RP14" s="31"/>
+      <c r="RQ14" s="31"/>
+      <c r="RR14" s="31"/>
+      <c r="RS14" s="31"/>
+      <c r="RT14" s="31"/>
+      <c r="RU14" s="31"/>
+      <c r="RV14" s="31"/>
+      <c r="RW14" s="31"/>
+      <c r="RX14" s="31"/>
+      <c r="RY14" s="31"/>
+      <c r="RZ14" s="31"/>
+      <c r="SA14" s="31"/>
+      <c r="SB14" s="31"/>
+      <c r="SC14" s="31"/>
+      <c r="SD14" s="31"/>
+      <c r="SE14" s="31"/>
+      <c r="SF14" s="31"/>
+      <c r="SG14" s="31"/>
+      <c r="SH14" s="31"/>
+      <c r="SI14" s="31"/>
+      <c r="SJ14" s="31"/>
+      <c r="SK14" s="31"/>
+      <c r="SL14" s="31"/>
+      <c r="SM14" s="31"/>
+      <c r="SN14" s="31"/>
+      <c r="SO14" s="31"/>
+      <c r="SP14" s="31"/>
+      <c r="SQ14" s="31"/>
+      <c r="SR14" s="31"/>
+      <c r="SS14" s="31"/>
+      <c r="ST14" s="31"/>
+      <c r="SU14" s="31"/>
+      <c r="SV14" s="31"/>
+      <c r="SW14" s="31"/>
+      <c r="SX14" s="31"/>
+      <c r="SY14" s="31"/>
+      <c r="SZ14" s="31"/>
+      <c r="TA14" s="31"/>
+      <c r="TB14" s="31"/>
+      <c r="TC14" s="31"/>
+      <c r="TD14" s="31"/>
+      <c r="TE14" s="31"/>
+      <c r="TF14" s="31"/>
+      <c r="TG14" s="31"/>
+      <c r="TH14" s="31"/>
+      <c r="TI14" s="31"/>
+      <c r="TJ14" s="31"/>
+      <c r="TK14" s="31"/>
+      <c r="TL14" s="31"/>
+      <c r="TM14" s="31"/>
+      <c r="TN14" s="31"/>
+      <c r="TO14" s="31"/>
+      <c r="TP14" s="31"/>
+      <c r="TQ14" s="31"/>
+      <c r="TR14" s="31"/>
+      <c r="TS14" s="31"/>
+      <c r="TT14" s="31"/>
+      <c r="TU14" s="31"/>
+      <c r="TV14" s="31"/>
+      <c r="TW14" s="31"/>
+      <c r="TX14" s="31"/>
+      <c r="TY14" s="31"/>
+      <c r="TZ14" s="31"/>
+      <c r="UA14" s="31"/>
+      <c r="UB14" s="31"/>
+      <c r="UC14" s="31"/>
+      <c r="UD14" s="31"/>
+      <c r="UE14" s="31"/>
+      <c r="UF14" s="31"/>
+      <c r="UG14" s="31"/>
+      <c r="UH14" s="31"/>
+      <c r="UI14" s="31"/>
+      <c r="UJ14" s="31"/>
+      <c r="UK14" s="31"/>
+      <c r="UL14" s="31"/>
+      <c r="UM14" s="31"/>
+      <c r="UN14" s="31"/>
+      <c r="UO14" s="31"/>
+      <c r="UP14" s="31"/>
+      <c r="UQ14" s="31"/>
+      <c r="UR14" s="31"/>
+      <c r="US14" s="31"/>
+      <c r="UT14" s="31"/>
+      <c r="UU14" s="31"/>
+      <c r="UV14" s="31"/>
+      <c r="UW14" s="31"/>
+      <c r="UX14" s="31"/>
+      <c r="UY14" s="31"/>
+      <c r="UZ14" s="31"/>
+      <c r="VA14" s="31"/>
+      <c r="VB14" s="31"/>
+      <c r="VC14" s="31"/>
+      <c r="VD14" s="31"/>
+      <c r="VE14" s="31"/>
+      <c r="VF14" s="31"/>
+      <c r="VG14" s="31"/>
+      <c r="VH14" s="31"/>
+      <c r="VI14" s="31"/>
+      <c r="VJ14" s="31"/>
+      <c r="VK14" s="31"/>
+      <c r="VL14" s="31"/>
+      <c r="VM14" s="31"/>
+      <c r="VN14" s="31"/>
+      <c r="VO14" s="31"/>
+      <c r="VP14" s="31"/>
+      <c r="VQ14" s="31"/>
+      <c r="VR14" s="31"/>
+      <c r="VS14" s="31"/>
+      <c r="VT14" s="31"/>
+      <c r="VU14" s="31"/>
+      <c r="VV14" s="31"/>
+      <c r="VW14" s="31"/>
+      <c r="VX14" s="31"/>
+      <c r="VY14" s="31"/>
+      <c r="VZ14" s="31"/>
+      <c r="WA14" s="31"/>
+      <c r="WB14" s="31"/>
+      <c r="WC14" s="31"/>
+      <c r="WD14" s="31"/>
+      <c r="WE14" s="31"/>
+      <c r="WF14" s="31"/>
+      <c r="WG14" s="31"/>
+      <c r="WH14" s="31"/>
+      <c r="WI14" s="31"/>
+      <c r="WJ14" s="31"/>
+      <c r="WK14" s="31"/>
+      <c r="WL14" s="31"/>
+      <c r="WM14" s="31"/>
+      <c r="WN14" s="31"/>
+      <c r="WO14" s="31"/>
+      <c r="WP14" s="31"/>
+      <c r="WQ14" s="31"/>
+      <c r="WR14" s="31"/>
+      <c r="WS14" s="31"/>
+      <c r="WT14" s="31"/>
+      <c r="WU14" s="31"/>
+      <c r="WV14" s="31"/>
+      <c r="WW14" s="31"/>
+      <c r="WX14" s="31"/>
+      <c r="WY14" s="31"/>
+      <c r="WZ14" s="31"/>
+      <c r="XA14" s="31"/>
+      <c r="XB14" s="31"/>
+      <c r="XC14" s="31"/>
+      <c r="XD14" s="31"/>
+      <c r="XE14" s="31"/>
+      <c r="XF14" s="31"/>
+      <c r="XG14" s="31"/>
+      <c r="XH14" s="31"/>
+      <c r="XI14" s="31"/>
+      <c r="XJ14" s="31"/>
+      <c r="XK14" s="31"/>
+      <c r="XL14" s="31"/>
+      <c r="XM14" s="31"/>
+      <c r="XN14" s="31"/>
+      <c r="XO14" s="31"/>
+      <c r="XP14" s="31"/>
+      <c r="XQ14" s="31"/>
+      <c r="XR14" s="31"/>
+      <c r="XS14" s="31"/>
+      <c r="XT14" s="31"/>
+      <c r="XU14" s="31"/>
+      <c r="XV14" s="31"/>
+      <c r="XW14" s="31"/>
+      <c r="XX14" s="31"/>
+      <c r="XY14" s="31"/>
+      <c r="XZ14" s="31"/>
+      <c r="YA14" s="31"/>
+      <c r="YB14" s="31"/>
+      <c r="YC14" s="31"/>
+      <c r="YD14" s="31"/>
+      <c r="YE14" s="31"/>
+      <c r="YF14" s="31"/>
+      <c r="YG14" s="31"/>
+      <c r="YH14" s="31"/>
+      <c r="YI14" s="31"/>
+      <c r="YJ14" s="31"/>
+      <c r="YK14" s="31"/>
+      <c r="YL14" s="31"/>
+      <c r="YM14" s="31"/>
+      <c r="YN14" s="31"/>
+      <c r="YO14" s="31"/>
+      <c r="YP14" s="31"/>
+      <c r="YQ14" s="31"/>
+      <c r="YR14" s="31"/>
+      <c r="YS14" s="31"/>
+      <c r="YT14" s="31"/>
+      <c r="YU14" s="31"/>
+      <c r="YV14" s="31"/>
+      <c r="YW14" s="31"/>
+      <c r="YX14" s="31"/>
+      <c r="YY14" s="31"/>
+      <c r="YZ14" s="31"/>
+      <c r="ZA14" s="31"/>
+      <c r="ZB14" s="31"/>
+      <c r="ZC14" s="31"/>
+      <c r="ZD14" s="31"/>
+      <c r="ZE14" s="31"/>
+      <c r="ZF14" s="31"/>
+      <c r="ZG14" s="31"/>
+      <c r="ZH14" s="31"/>
+      <c r="ZI14" s="31"/>
+      <c r="ZJ14" s="31"/>
+      <c r="ZK14" s="31"/>
+      <c r="ZL14" s="31"/>
+      <c r="ZM14" s="31"/>
+      <c r="ZN14" s="31"/>
+      <c r="ZO14" s="31"/>
+      <c r="ZP14" s="31"/>
+      <c r="ZQ14" s="31"/>
+      <c r="ZR14" s="31"/>
+      <c r="ZS14" s="31"/>
+      <c r="ZT14" s="31"/>
+      <c r="ZU14" s="31"/>
+      <c r="ZV14" s="31"/>
+      <c r="ZW14" s="31"/>
+      <c r="ZX14" s="31"/>
+      <c r="ZY14" s="31"/>
+      <c r="ZZ14" s="31"/>
+      <c r="AAA14" s="31"/>
+      <c r="AAB14" s="31"/>
+      <c r="AAC14" s="31"/>
+      <c r="AAD14" s="31"/>
+      <c r="AAE14" s="31"/>
+      <c r="AAF14" s="31"/>
+      <c r="AAG14" s="31"/>
+      <c r="AAH14" s="31"/>
+      <c r="AAI14" s="31"/>
+      <c r="AAJ14" s="31"/>
+      <c r="AAK14" s="31"/>
+      <c r="AAL14" s="31"/>
+      <c r="AAM14" s="31"/>
+      <c r="AAN14" s="31"/>
+      <c r="AAO14" s="31"/>
+      <c r="AAP14" s="31"/>
+      <c r="AAQ14" s="31"/>
+      <c r="AAR14" s="31"/>
+      <c r="AAS14" s="31"/>
+      <c r="AAT14" s="31"/>
+      <c r="AAU14" s="31"/>
+      <c r="AAV14" s="31"/>
+      <c r="AAW14" s="31"/>
+      <c r="AAX14" s="31"/>
+      <c r="AAY14" s="31"/>
+      <c r="AAZ14" s="31"/>
+      <c r="ABA14" s="31"/>
+      <c r="ABB14" s="31"/>
+      <c r="ABC14" s="31"/>
+      <c r="ABD14" s="31"/>
+      <c r="ABE14" s="31"/>
+      <c r="ABF14" s="31"/>
+      <c r="ABG14" s="31"/>
+      <c r="ABH14" s="31"/>
+      <c r="ABI14" s="31"/>
+      <c r="ABJ14" s="31"/>
+      <c r="ABK14" s="31"/>
+      <c r="ABL14" s="31"/>
+      <c r="ABM14" s="31"/>
+      <c r="ABN14" s="31"/>
+      <c r="ABO14" s="31"/>
+      <c r="ABP14" s="31"/>
+      <c r="ABQ14" s="31"/>
+      <c r="ABR14" s="31"/>
+      <c r="ABS14" s="31"/>
+      <c r="ABT14" s="31"/>
+      <c r="ABU14" s="31"/>
+      <c r="ABV14" s="31"/>
+      <c r="ABW14" s="31"/>
+      <c r="ABX14" s="31"/>
+      <c r="ABY14" s="31"/>
+      <c r="ABZ14" s="31"/>
+      <c r="ACA14" s="31"/>
+      <c r="ACB14" s="31"/>
+      <c r="ACC14" s="31"/>
+      <c r="ACD14" s="31"/>
+      <c r="ACE14" s="31"/>
+      <c r="ACF14" s="31"/>
+      <c r="ACG14" s="31"/>
+      <c r="ACH14" s="31"/>
+      <c r="ACI14" s="31"/>
+      <c r="ACJ14" s="31"/>
+      <c r="ACK14" s="31"/>
+      <c r="ACL14" s="31"/>
+      <c r="ACM14" s="31"/>
+      <c r="ACN14" s="31"/>
+      <c r="ACO14" s="31"/>
+      <c r="ACP14" s="31"/>
+      <c r="ACQ14" s="31"/>
+      <c r="ACR14" s="31"/>
+      <c r="ACS14" s="31"/>
+      <c r="ACT14" s="31"/>
+      <c r="ACU14" s="31"/>
+      <c r="ACV14" s="31"/>
+      <c r="ACW14" s="31"/>
+      <c r="ACX14" s="31"/>
+      <c r="ACY14" s="31"/>
+      <c r="ACZ14" s="31"/>
+      <c r="ADA14" s="31"/>
+      <c r="ADB14" s="31"/>
+      <c r="ADC14" s="31"/>
+      <c r="ADD14" s="31"/>
+      <c r="ADE14" s="31"/>
+      <c r="ADF14" s="31"/>
+      <c r="ADG14" s="31"/>
+      <c r="ADH14" s="31"/>
+      <c r="ADI14" s="31"/>
+      <c r="ADJ14" s="31"/>
+      <c r="ADK14" s="31"/>
+      <c r="ADL14" s="31"/>
+      <c r="ADM14" s="31"/>
+      <c r="ADN14" s="31"/>
+      <c r="ADO14" s="31"/>
+      <c r="ADP14" s="31"/>
+      <c r="ADQ14" s="31"/>
+      <c r="ADR14" s="31"/>
+      <c r="ADS14" s="31"/>
+      <c r="ADT14" s="31"/>
+      <c r="ADU14" s="31"/>
+      <c r="ADV14" s="31"/>
+      <c r="ADW14" s="31"/>
+      <c r="ADX14" s="31"/>
+      <c r="ADY14" s="31"/>
+      <c r="ADZ14" s="31"/>
+      <c r="AEA14" s="31"/>
+      <c r="AEB14" s="31"/>
+      <c r="AEC14" s="31"/>
+      <c r="AED14" s="31"/>
+      <c r="AEE14" s="31"/>
+      <c r="AEF14" s="31"/>
+      <c r="AEG14" s="31"/>
+      <c r="AEH14" s="31"/>
+      <c r="AEI14" s="31"/>
+      <c r="AEJ14" s="31"/>
+      <c r="AEK14" s="31"/>
+      <c r="AEL14" s="31"/>
+      <c r="AEM14" s="31"/>
+      <c r="AEN14" s="31"/>
+      <c r="AEO14" s="31"/>
+      <c r="AEP14" s="31"/>
+      <c r="AEQ14" s="31"/>
+      <c r="AER14" s="31"/>
+      <c r="AES14" s="31"/>
+      <c r="AET14" s="31"/>
+      <c r="AEU14" s="31"/>
+      <c r="AEV14" s="31"/>
+      <c r="AEW14" s="31"/>
+      <c r="AEX14" s="31"/>
+      <c r="AEY14" s="31"/>
+      <c r="AEZ14" s="31"/>
+      <c r="AFA14" s="31"/>
+      <c r="AFB14" s="31"/>
+      <c r="AFC14" s="31"/>
+      <c r="AFD14" s="31"/>
+      <c r="AFE14" s="31"/>
+      <c r="AFF14" s="31"/>
+      <c r="AFG14" s="31"/>
+      <c r="AFH14" s="31"/>
+      <c r="AFI14" s="31"/>
+      <c r="AFJ14" s="31"/>
+      <c r="AFK14" s="31"/>
+      <c r="AFL14" s="31"/>
+      <c r="AFM14" s="31"/>
+      <c r="AFN14" s="31"/>
+      <c r="AFO14" s="31"/>
+      <c r="AFP14" s="31"/>
+      <c r="AFQ14" s="31"/>
+      <c r="AFR14" s="31"/>
+      <c r="AFS14" s="31"/>
+      <c r="AFT14" s="31"/>
+      <c r="AFU14" s="31"/>
+      <c r="AFV14" s="31"/>
+      <c r="AFW14" s="31"/>
+      <c r="AFX14" s="31"/>
+      <c r="AFY14" s="31"/>
+      <c r="AFZ14" s="31"/>
+      <c r="AGA14" s="31"/>
+      <c r="AGB14" s="31"/>
+      <c r="AGC14" s="31"/>
+      <c r="AGD14" s="31"/>
+      <c r="AGE14" s="31"/>
+      <c r="AGF14" s="31"/>
+      <c r="AGG14" s="31"/>
+      <c r="AGH14" s="31"/>
+      <c r="AGI14" s="31"/>
+      <c r="AGJ14" s="31"/>
+      <c r="AGK14" s="31"/>
+      <c r="AGL14" s="31"/>
+      <c r="AGM14" s="31"/>
+      <c r="AGN14" s="31"/>
+      <c r="AGO14" s="31"/>
+      <c r="AGP14" s="31"/>
+      <c r="AGQ14" s="31"/>
+      <c r="AGR14" s="31"/>
+      <c r="AGS14" s="31"/>
+      <c r="AGT14" s="31"/>
+      <c r="AGU14" s="31"/>
+      <c r="AGV14" s="31"/>
+      <c r="AGW14" s="31"/>
+      <c r="AGX14" s="31"/>
+      <c r="AGY14" s="31"/>
+      <c r="AGZ14" s="31"/>
+      <c r="AHA14" s="31"/>
+      <c r="AHB14" s="31"/>
+      <c r="AHC14" s="31"/>
+      <c r="AHD14" s="31"/>
+      <c r="AHE14" s="31"/>
+      <c r="AHF14" s="31"/>
+      <c r="AHG14" s="31"/>
+      <c r="AHH14" s="31"/>
+      <c r="AHI14" s="31"/>
+      <c r="AHJ14" s="31"/>
+      <c r="AHK14" s="31"/>
+      <c r="AHL14" s="31"/>
+      <c r="AHM14" s="31"/>
+      <c r="AHN14" s="31"/>
+      <c r="AHO14" s="31"/>
+      <c r="AHP14" s="31"/>
+      <c r="AHQ14" s="31"/>
+      <c r="AHR14" s="31"/>
+      <c r="AHS14" s="31"/>
+      <c r="AHT14" s="31"/>
+      <c r="AHU14" s="31"/>
+      <c r="AHV14" s="31"/>
+      <c r="AHW14" s="31"/>
+      <c r="AHX14" s="31"/>
+      <c r="AHY14" s="31"/>
+      <c r="AHZ14" s="31"/>
+      <c r="AIA14" s="31"/>
+      <c r="AIB14" s="31"/>
+      <c r="AIC14" s="31"/>
+      <c r="AID14" s="31"/>
+      <c r="AIE14" s="31"/>
+      <c r="AIF14" s="31"/>
+      <c r="AIG14" s="31"/>
+      <c r="AIH14" s="31"/>
+      <c r="AII14" s="31"/>
+      <c r="AIJ14" s="31"/>
+      <c r="AIK14" s="31"/>
+      <c r="AIL14" s="31"/>
+      <c r="AIM14" s="31"/>
+      <c r="AIN14" s="31"/>
+      <c r="AIO14" s="31"/>
+      <c r="AIP14" s="31"/>
+      <c r="AIQ14" s="31"/>
+      <c r="AIR14" s="31"/>
+      <c r="AIS14" s="31"/>
+      <c r="AIT14" s="31"/>
+      <c r="AIU14" s="31"/>
+      <c r="AIV14" s="31"/>
+      <c r="AIW14" s="31"/>
+      <c r="AIX14" s="31"/>
+      <c r="AIY14" s="31"/>
+      <c r="AIZ14" s="31"/>
+      <c r="AJA14" s="31"/>
+      <c r="AJB14" s="31"/>
+      <c r="AJC14" s="31"/>
+      <c r="AJD14" s="31"/>
+      <c r="AJE14" s="31"/>
+      <c r="AJF14" s="31"/>
+      <c r="AJG14" s="31"/>
+      <c r="AJH14" s="31"/>
+      <c r="AJI14" s="31"/>
+      <c r="AJJ14" s="31"/>
+      <c r="AJK14" s="31"/>
+      <c r="AJL14" s="31"/>
+      <c r="AJM14" s="31"/>
+      <c r="AJN14" s="31"/>
+      <c r="AJO14" s="31"/>
+      <c r="AJP14" s="31"/>
+      <c r="AJQ14" s="31"/>
+      <c r="AJR14" s="31"/>
+      <c r="AJS14" s="31"/>
+      <c r="AJT14" s="31"/>
+      <c r="AJU14" s="31"/>
+      <c r="AJV14" s="31"/>
+      <c r="AJW14" s="31"/>
+      <c r="AJX14" s="31"/>
+      <c r="AJY14" s="31"/>
+      <c r="AJZ14" s="31"/>
+      <c r="AKA14" s="31"/>
+      <c r="AKB14" s="31"/>
+      <c r="AKC14" s="31"/>
+      <c r="AKD14" s="31"/>
+      <c r="AKE14" s="31"/>
+      <c r="AKF14" s="31"/>
+      <c r="AKG14" s="31"/>
+      <c r="AKH14" s="31"/>
+      <c r="AKI14" s="31"/>
+      <c r="AKJ14" s="31"/>
+      <c r="AKK14" s="31"/>
+      <c r="AKL14" s="31"/>
+      <c r="AKM14" s="31"/>
+      <c r="AKN14" s="31"/>
+      <c r="AKO14" s="31"/>
+      <c r="AKP14" s="31"/>
+      <c r="AKQ14" s="31"/>
+      <c r="AKR14" s="31"/>
+      <c r="AKS14" s="31"/>
+      <c r="AKT14" s="31"/>
+      <c r="AKU14" s="31"/>
+      <c r="AKV14" s="31"/>
+      <c r="AKW14" s="31"/>
+      <c r="AKX14" s="31"/>
+      <c r="AKY14" s="31"/>
+      <c r="AKZ14" s="31"/>
+      <c r="ALA14" s="31"/>
+      <c r="ALB14" s="31"/>
+      <c r="ALC14" s="31"/>
+      <c r="ALD14" s="31"/>
+      <c r="ALE14" s="31"/>
+      <c r="ALF14" s="31"/>
+      <c r="ALG14" s="31"/>
+      <c r="ALH14" s="31"/>
+      <c r="ALI14" s="31"/>
+      <c r="ALJ14" s="31"/>
+      <c r="ALK14" s="31"/>
+      <c r="ALL14" s="31"/>
+      <c r="ALM14" s="31"/>
+      <c r="ALN14" s="31"/>
+      <c r="ALO14" s="31"/>
+      <c r="ALP14" s="31"/>
+      <c r="ALQ14" s="31"/>
+      <c r="ALR14" s="31"/>
+      <c r="ALS14" s="31"/>
+      <c r="ALT14" s="31"/>
+      <c r="ALU14" s="31"/>
+      <c r="ALV14" s="31"/>
+      <c r="ALW14" s="31"/>
+      <c r="ALX14" s="31"/>
+      <c r="ALY14" s="31"/>
+      <c r="ALZ14" s="31"/>
+      <c r="AMA14" s="31"/>
+      <c r="AMB14" s="31"/>
+      <c r="AMC14" s="31"/>
+      <c r="AMD14" s="31"/>
+      <c r="AME14" s="31"/>
+      <c r="AMF14" s="31"/>
+      <c r="AMG14" s="31"/>
+      <c r="AMH14" s="31"/>
+      <c r="AMI14" s="31"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -1669,11 +3898,62 @@
       <c r="C15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>2</v>
+      </c>
+      <c r="F15" s="28" t="n">
+        <v>156842</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>281015</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q15" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S15" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Z15" s="15"/>
@@ -1689,13 +3969,63 @@
       <c r="C16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="F16" s="28" t="n">
+        <v>157127</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>269143</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S16" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="15"/>
@@ -1712,11 +4042,62 @@
       <c r="C17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="8" t="n">
         <v>2</v>
+      </c>
+      <c r="F17" s="28" t="n">
+        <v>311953</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>318617</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q17" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S17" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="X17" s="15"/>
       <c r="Z17" s="15"/>
@@ -1732,25 +4113,54 @@
       <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="F18" s="28" t="n">
+        <v>192626</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>285336</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q18" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S18" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2761,13 +5171,54 @@
       <c r="C19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="F19" s="28" t="n">
+        <v>195139</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>268512</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q19" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S19" s="8" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
@@ -2776,11 +5227,53 @@
       <c r="C20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="8" t="n">
         <v>3</v>
+      </c>
+      <c r="F20" s="28" t="n">
+        <v>155187</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>284926</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q20" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S20" s="8" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,11 +5283,53 @@
       <c r="C21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="8" t="n">
         <v>3</v>
+      </c>
+      <c r="F21" s="28" t="n">
+        <v>156952</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>268725</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q21" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S21" s="8" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,11 +5339,53 @@
       <c r="C22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="8" t="n">
         <v>3</v>
+      </c>
+      <c r="F22" s="28" t="n">
+        <v>156959</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>280699</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S22" s="8" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,11 +5395,53 @@
       <c r="C23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="8" t="n">
         <v>3</v>
+      </c>
+      <c r="F23" s="28" t="n">
+        <v>194484</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>268562</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q23" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S23" s="8" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,13 +5451,54 @@
       <c r="C24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="F24" s="28" t="n">
+        <v>151885</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>268512</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J24" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q24" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S24" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AMJ24" s="2"/>
@@ -2852,13 +5512,54 @@
       <c r="C25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="27" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="F25" s="28" t="n">
+        <v>156764</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>284926</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q25" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S25" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AMJ25" s="2"/>
@@ -2872,13 +5573,54 @@
       <c r="C26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="27" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="F26" s="28" t="n">
+        <v>156809</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>268567</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J26" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q26" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S26" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AMJ26" s="2"/>
@@ -2892,13 +5634,54 @@
       <c r="C27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="27" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="F27" s="28" t="n">
+        <v>157271</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>285336</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J27" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q27" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S27" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AMJ27" s="2"/>
@@ -2912,13 +5695,54 @@
       <c r="C28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="27" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="M28" s="9"/>
+      <c r="F28" s="28" t="n">
+        <v>155742</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>268512</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q28" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S28" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AMJ28" s="2"/>
@@ -2932,13 +5756,51 @@
       <c r="C29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="F29" s="28" t="n">
+        <v>151835</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J29" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q29" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S29" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AMJ29" s="2"/>
@@ -2952,13 +5814,51 @@
       <c r="C30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="27" t="s">
         <v>103</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="F30" s="28" t="n">
+        <v>192832</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J30" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q30" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S30" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AMJ30" s="2"/>
@@ -2972,13 +5872,51 @@
       <c r="C31" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="27" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="F31" s="28" t="n">
+        <v>192643</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J31" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q31" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S31" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AMJ31" s="2"/>
@@ -2992,13 +5930,51 @@
       <c r="C32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="F32" s="28" t="n">
+        <v>311954</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J32" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S32" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AMJ32" s="2"/>
@@ -3012,13 +5988,51 @@
       <c r="C33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="F33" s="28" t="n">
+        <v>195287</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J33" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q33" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S33" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AMJ33" s="2"/>
@@ -3032,13 +6046,51 @@
       <c r="C34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="27" t="s">
         <v>111</v>
       </c>
       <c r="E34" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="F34" s="28" t="n">
+        <v>151886</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J34" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q34" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S34" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AMJ34" s="2"/>
@@ -3052,13 +6104,51 @@
       <c r="C35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="27" t="s">
         <v>113</v>
       </c>
       <c r="E35" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="F35" s="28" t="n">
+        <v>180478</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J35" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q35" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S35" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AMJ35" s="2"/>
@@ -3072,13 +6162,51 @@
       <c r="C36" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E36" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="F36" s="28" t="n">
+        <v>179413</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J36" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q36" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S36" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AMJ36" s="2"/>
@@ -3092,13 +6220,51 @@
       <c r="C37" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E37" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="M37" s="9"/>
+      <c r="F37" s="28" t="n">
+        <v>142306</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J37" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q37" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S37" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AMJ37" s="2"/>
@@ -3112,13 +6278,51 @@
       <c r="C38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="9"/>
+      <c r="F38" s="28" t="n">
+        <v>142300</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J38" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S38" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AMJ38" s="2"/>
@@ -3132,13 +6336,51 @@
       <c r="C39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="27" t="s">
         <v>121</v>
       </c>
       <c r="E39" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="F39" s="28" t="n">
+        <v>151157</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J39" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q39" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S39" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AMJ39" s="2"/>
@@ -3152,13 +6394,51 @@
       <c r="C40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="27" t="s">
         <v>123</v>
       </c>
       <c r="E40" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="F40" s="28" t="n">
+        <v>196958</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J40" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S40" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AMJ40" s="2"/>
@@ -3172,13 +6452,51 @@
       <c r="C41" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="27" t="s">
         <v>125</v>
       </c>
       <c r="E41" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M41" s="9"/>
+      <c r="F41" s="28" t="n">
+        <v>142396</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J41" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q41" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S41" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AMJ41" s="2"/>
@@ -3192,13 +6510,51 @@
       <c r="C42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="27" t="s">
         <v>127</v>
       </c>
       <c r="E42" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M42" s="9"/>
+      <c r="F42" s="28" t="n">
+        <v>137844</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J42" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q42" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S42" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AMJ42" s="2"/>
@@ -3212,13 +6568,51 @@
       <c r="C43" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="27" t="s">
         <v>129</v>
       </c>
       <c r="E43" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="F43" s="28" t="n">
+        <v>142153</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J43" s="12" t="n">
+        <v>107535</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="8" t="n">
+        <v>97861</v>
+      </c>
+      <c r="Q43" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>281693</v>
+      </c>
+      <c r="S43" s="8" t="n">
+        <v>1.5</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AMJ43" s="2"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -554,7 +554,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,7 +647,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,16 +659,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -691,11 +683,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,10 +876,10 @@
   </sheetPr>
   <dimension ref="A1:AML376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D16" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="topRight" activeCell="I45" activeCellId="0" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1696,7 +1688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="n">
         <v>1008</v>
       </c>
@@ -1717,10 +1709,10 @@
         <v>268562</v>
       </c>
       <c r="H12" s="20" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="20" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="J12" s="24" t="n">
         <v>107535</v>
@@ -1756,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="U12" s="20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V12" s="20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W12" s="20"/>
       <c r="Y12" s="20"/>
@@ -2768,16 +2760,16 @@
       <c r="C13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="28" t="n">
+      <c r="F13" s="14" t="n">
         <v>157055</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="27" t="n">
         <v>122498</v>
       </c>
       <c r="H13" s="1" t="n">
@@ -2826,24 +2818,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" s="35" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="n">
+    <row r="14" s="33" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="n">
         <v>1010</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="30" t="n">
+      <c r="E14" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="34" t="n">
+      <c r="F14" s="32" t="n">
         <v>183662</v>
       </c>
-      <c r="G14" s="31" t="n">
+      <c r="G14" s="29" t="n">
         <v>285174</v>
       </c>
       <c r="H14" s="1" t="n">
@@ -2891,1005 +2883,1005 @@
       <c r="V14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="31"/>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="31"/>
-      <c r="BN14" s="31"/>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="31"/>
-      <c r="BQ14" s="31"/>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="31"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="31"/>
-      <c r="BW14" s="31"/>
-      <c r="BX14" s="31"/>
-      <c r="BY14" s="31"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="31"/>
-      <c r="CC14" s="31"/>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="31"/>
-      <c r="CF14" s="31"/>
-      <c r="CG14" s="31"/>
-      <c r="CH14" s="31"/>
-      <c r="CI14" s="31"/>
-      <c r="CJ14" s="31"/>
-      <c r="CK14" s="31"/>
-      <c r="CL14" s="31"/>
-      <c r="CM14" s="31"/>
-      <c r="CN14" s="31"/>
-      <c r="CO14" s="31"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="31"/>
-      <c r="CR14" s="31"/>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="31"/>
-      <c r="CU14" s="31"/>
-      <c r="CV14" s="31"/>
-      <c r="CW14" s="31"/>
-      <c r="CX14" s="31"/>
-      <c r="CY14" s="31"/>
-      <c r="CZ14" s="31"/>
-      <c r="DA14" s="31"/>
-      <c r="DB14" s="31"/>
-      <c r="DC14" s="31"/>
-      <c r="DD14" s="31"/>
-      <c r="DE14" s="31"/>
-      <c r="DF14" s="31"/>
-      <c r="DG14" s="31"/>
-      <c r="DH14" s="31"/>
-      <c r="DI14" s="31"/>
-      <c r="DJ14" s="31"/>
-      <c r="DK14" s="31"/>
-      <c r="DL14" s="31"/>
-      <c r="DM14" s="31"/>
-      <c r="DN14" s="31"/>
-      <c r="DO14" s="31"/>
-      <c r="DP14" s="31"/>
-      <c r="DQ14" s="31"/>
-      <c r="DR14" s="31"/>
-      <c r="DS14" s="31"/>
-      <c r="DT14" s="31"/>
-      <c r="DU14" s="31"/>
-      <c r="DV14" s="31"/>
-      <c r="DW14" s="31"/>
-      <c r="DX14" s="31"/>
-      <c r="DY14" s="31"/>
-      <c r="DZ14" s="31"/>
-      <c r="EA14" s="31"/>
-      <c r="EB14" s="31"/>
-      <c r="EC14" s="31"/>
-      <c r="ED14" s="31"/>
-      <c r="EE14" s="31"/>
-      <c r="EF14" s="31"/>
-      <c r="EG14" s="31"/>
-      <c r="EH14" s="31"/>
-      <c r="EI14" s="31"/>
-      <c r="EJ14" s="31"/>
-      <c r="EK14" s="31"/>
-      <c r="EL14" s="31"/>
-      <c r="EM14" s="31"/>
-      <c r="EN14" s="31"/>
-      <c r="EO14" s="31"/>
-      <c r="EP14" s="31"/>
-      <c r="EQ14" s="31"/>
-      <c r="ER14" s="31"/>
-      <c r="ES14" s="31"/>
-      <c r="ET14" s="31"/>
-      <c r="EU14" s="31"/>
-      <c r="EV14" s="31"/>
-      <c r="EW14" s="31"/>
-      <c r="EX14" s="31"/>
-      <c r="EY14" s="31"/>
-      <c r="EZ14" s="31"/>
-      <c r="FA14" s="31"/>
-      <c r="FB14" s="31"/>
-      <c r="FC14" s="31"/>
-      <c r="FD14" s="31"/>
-      <c r="FE14" s="31"/>
-      <c r="FF14" s="31"/>
-      <c r="FG14" s="31"/>
-      <c r="FH14" s="31"/>
-      <c r="FI14" s="31"/>
-      <c r="FJ14" s="31"/>
-      <c r="FK14" s="31"/>
-      <c r="FL14" s="31"/>
-      <c r="FM14" s="31"/>
-      <c r="FN14" s="31"/>
-      <c r="FO14" s="31"/>
-      <c r="FP14" s="31"/>
-      <c r="FQ14" s="31"/>
-      <c r="FR14" s="31"/>
-      <c r="FS14" s="31"/>
-      <c r="FT14" s="31"/>
-      <c r="FU14" s="31"/>
-      <c r="FV14" s="31"/>
-      <c r="FW14" s="31"/>
-      <c r="FX14" s="31"/>
-      <c r="FY14" s="31"/>
-      <c r="FZ14" s="31"/>
-      <c r="GA14" s="31"/>
-      <c r="GB14" s="31"/>
-      <c r="GC14" s="31"/>
-      <c r="GD14" s="31"/>
-      <c r="GE14" s="31"/>
-      <c r="GF14" s="31"/>
-      <c r="GG14" s="31"/>
-      <c r="GH14" s="31"/>
-      <c r="GI14" s="31"/>
-      <c r="GJ14" s="31"/>
-      <c r="GK14" s="31"/>
-      <c r="GL14" s="31"/>
-      <c r="GM14" s="31"/>
-      <c r="GN14" s="31"/>
-      <c r="GO14" s="31"/>
-      <c r="GP14" s="31"/>
-      <c r="GQ14" s="31"/>
-      <c r="GR14" s="31"/>
-      <c r="GS14" s="31"/>
-      <c r="GT14" s="31"/>
-      <c r="GU14" s="31"/>
-      <c r="GV14" s="31"/>
-      <c r="GW14" s="31"/>
-      <c r="GX14" s="31"/>
-      <c r="GY14" s="31"/>
-      <c r="GZ14" s="31"/>
-      <c r="HA14" s="31"/>
-      <c r="HB14" s="31"/>
-      <c r="HC14" s="31"/>
-      <c r="HD14" s="31"/>
-      <c r="HE14" s="31"/>
-      <c r="HF14" s="31"/>
-      <c r="HG14" s="31"/>
-      <c r="HH14" s="31"/>
-      <c r="HI14" s="31"/>
-      <c r="HJ14" s="31"/>
-      <c r="HK14" s="31"/>
-      <c r="HL14" s="31"/>
-      <c r="HM14" s="31"/>
-      <c r="HN14" s="31"/>
-      <c r="HO14" s="31"/>
-      <c r="HP14" s="31"/>
-      <c r="HQ14" s="31"/>
-      <c r="HR14" s="31"/>
-      <c r="HS14" s="31"/>
-      <c r="HT14" s="31"/>
-      <c r="HU14" s="31"/>
-      <c r="HV14" s="31"/>
-      <c r="HW14" s="31"/>
-      <c r="HX14" s="31"/>
-      <c r="HY14" s="31"/>
-      <c r="HZ14" s="31"/>
-      <c r="IA14" s="31"/>
-      <c r="IB14" s="31"/>
-      <c r="IC14" s="31"/>
-      <c r="ID14" s="31"/>
-      <c r="IE14" s="31"/>
-      <c r="IF14" s="31"/>
-      <c r="IG14" s="31"/>
-      <c r="IH14" s="31"/>
-      <c r="II14" s="31"/>
-      <c r="IJ14" s="31"/>
-      <c r="IK14" s="31"/>
-      <c r="IL14" s="31"/>
-      <c r="IM14" s="31"/>
-      <c r="IN14" s="31"/>
-      <c r="IO14" s="31"/>
-      <c r="IP14" s="31"/>
-      <c r="IQ14" s="31"/>
-      <c r="IR14" s="31"/>
-      <c r="IS14" s="31"/>
-      <c r="IT14" s="31"/>
-      <c r="IU14" s="31"/>
-      <c r="IV14" s="31"/>
-      <c r="IW14" s="31"/>
-      <c r="IX14" s="31"/>
-      <c r="IY14" s="31"/>
-      <c r="IZ14" s="31"/>
-      <c r="JA14" s="31"/>
-      <c r="JB14" s="31"/>
-      <c r="JC14" s="31"/>
-      <c r="JD14" s="31"/>
-      <c r="JE14" s="31"/>
-      <c r="JF14" s="31"/>
-      <c r="JG14" s="31"/>
-      <c r="JH14" s="31"/>
-      <c r="JI14" s="31"/>
-      <c r="JJ14" s="31"/>
-      <c r="JK14" s="31"/>
-      <c r="JL14" s="31"/>
-      <c r="JM14" s="31"/>
-      <c r="JN14" s="31"/>
-      <c r="JO14" s="31"/>
-      <c r="JP14" s="31"/>
-      <c r="JQ14" s="31"/>
-      <c r="JR14" s="31"/>
-      <c r="JS14" s="31"/>
-      <c r="JT14" s="31"/>
-      <c r="JU14" s="31"/>
-      <c r="JV14" s="31"/>
-      <c r="JW14" s="31"/>
-      <c r="JX14" s="31"/>
-      <c r="JY14" s="31"/>
-      <c r="JZ14" s="31"/>
-      <c r="KA14" s="31"/>
-      <c r="KB14" s="31"/>
-      <c r="KC14" s="31"/>
-      <c r="KD14" s="31"/>
-      <c r="KE14" s="31"/>
-      <c r="KF14" s="31"/>
-      <c r="KG14" s="31"/>
-      <c r="KH14" s="31"/>
-      <c r="KI14" s="31"/>
-      <c r="KJ14" s="31"/>
-      <c r="KK14" s="31"/>
-      <c r="KL14" s="31"/>
-      <c r="KM14" s="31"/>
-      <c r="KN14" s="31"/>
-      <c r="KO14" s="31"/>
-      <c r="KP14" s="31"/>
-      <c r="KQ14" s="31"/>
-      <c r="KR14" s="31"/>
-      <c r="KS14" s="31"/>
-      <c r="KT14" s="31"/>
-      <c r="KU14" s="31"/>
-      <c r="KV14" s="31"/>
-      <c r="KW14" s="31"/>
-      <c r="KX14" s="31"/>
-      <c r="KY14" s="31"/>
-      <c r="KZ14" s="31"/>
-      <c r="LA14" s="31"/>
-      <c r="LB14" s="31"/>
-      <c r="LC14" s="31"/>
-      <c r="LD14" s="31"/>
-      <c r="LE14" s="31"/>
-      <c r="LF14" s="31"/>
-      <c r="LG14" s="31"/>
-      <c r="LH14" s="31"/>
-      <c r="LI14" s="31"/>
-      <c r="LJ14" s="31"/>
-      <c r="LK14" s="31"/>
-      <c r="LL14" s="31"/>
-      <c r="LM14" s="31"/>
-      <c r="LN14" s="31"/>
-      <c r="LO14" s="31"/>
-      <c r="LP14" s="31"/>
-      <c r="LQ14" s="31"/>
-      <c r="LR14" s="31"/>
-      <c r="LS14" s="31"/>
-      <c r="LT14" s="31"/>
-      <c r="LU14" s="31"/>
-      <c r="LV14" s="31"/>
-      <c r="LW14" s="31"/>
-      <c r="LX14" s="31"/>
-      <c r="LY14" s="31"/>
-      <c r="LZ14" s="31"/>
-      <c r="MA14" s="31"/>
-      <c r="MB14" s="31"/>
-      <c r="MC14" s="31"/>
-      <c r="MD14" s="31"/>
-      <c r="ME14" s="31"/>
-      <c r="MF14" s="31"/>
-      <c r="MG14" s="31"/>
-      <c r="MH14" s="31"/>
-      <c r="MI14" s="31"/>
-      <c r="MJ14" s="31"/>
-      <c r="MK14" s="31"/>
-      <c r="ML14" s="31"/>
-      <c r="MM14" s="31"/>
-      <c r="MN14" s="31"/>
-      <c r="MO14" s="31"/>
-      <c r="MP14" s="31"/>
-      <c r="MQ14" s="31"/>
-      <c r="MR14" s="31"/>
-      <c r="MS14" s="31"/>
-      <c r="MT14" s="31"/>
-      <c r="MU14" s="31"/>
-      <c r="MV14" s="31"/>
-      <c r="MW14" s="31"/>
-      <c r="MX14" s="31"/>
-      <c r="MY14" s="31"/>
-      <c r="MZ14" s="31"/>
-      <c r="NA14" s="31"/>
-      <c r="NB14" s="31"/>
-      <c r="NC14" s="31"/>
-      <c r="ND14" s="31"/>
-      <c r="NE14" s="31"/>
-      <c r="NF14" s="31"/>
-      <c r="NG14" s="31"/>
-      <c r="NH14" s="31"/>
-      <c r="NI14" s="31"/>
-      <c r="NJ14" s="31"/>
-      <c r="NK14" s="31"/>
-      <c r="NL14" s="31"/>
-      <c r="NM14" s="31"/>
-      <c r="NN14" s="31"/>
-      <c r="NO14" s="31"/>
-      <c r="NP14" s="31"/>
-      <c r="NQ14" s="31"/>
-      <c r="NR14" s="31"/>
-      <c r="NS14" s="31"/>
-      <c r="NT14" s="31"/>
-      <c r="NU14" s="31"/>
-      <c r="NV14" s="31"/>
-      <c r="NW14" s="31"/>
-      <c r="NX14" s="31"/>
-      <c r="NY14" s="31"/>
-      <c r="NZ14" s="31"/>
-      <c r="OA14" s="31"/>
-      <c r="OB14" s="31"/>
-      <c r="OC14" s="31"/>
-      <c r="OD14" s="31"/>
-      <c r="OE14" s="31"/>
-      <c r="OF14" s="31"/>
-      <c r="OG14" s="31"/>
-      <c r="OH14" s="31"/>
-      <c r="OI14" s="31"/>
-      <c r="OJ14" s="31"/>
-      <c r="OK14" s="31"/>
-      <c r="OL14" s="31"/>
-      <c r="OM14" s="31"/>
-      <c r="ON14" s="31"/>
-      <c r="OO14" s="31"/>
-      <c r="OP14" s="31"/>
-      <c r="OQ14" s="31"/>
-      <c r="OR14" s="31"/>
-      <c r="OS14" s="31"/>
-      <c r="OT14" s="31"/>
-      <c r="OU14" s="31"/>
-      <c r="OV14" s="31"/>
-      <c r="OW14" s="31"/>
-      <c r="OX14" s="31"/>
-      <c r="OY14" s="31"/>
-      <c r="OZ14" s="31"/>
-      <c r="PA14" s="31"/>
-      <c r="PB14" s="31"/>
-      <c r="PC14" s="31"/>
-      <c r="PD14" s="31"/>
-      <c r="PE14" s="31"/>
-      <c r="PF14" s="31"/>
-      <c r="PG14" s="31"/>
-      <c r="PH14" s="31"/>
-      <c r="PI14" s="31"/>
-      <c r="PJ14" s="31"/>
-      <c r="PK14" s="31"/>
-      <c r="PL14" s="31"/>
-      <c r="PM14" s="31"/>
-      <c r="PN14" s="31"/>
-      <c r="PO14" s="31"/>
-      <c r="PP14" s="31"/>
-      <c r="PQ14" s="31"/>
-      <c r="PR14" s="31"/>
-      <c r="PS14" s="31"/>
-      <c r="PT14" s="31"/>
-      <c r="PU14" s="31"/>
-      <c r="PV14" s="31"/>
-      <c r="PW14" s="31"/>
-      <c r="PX14" s="31"/>
-      <c r="PY14" s="31"/>
-      <c r="PZ14" s="31"/>
-      <c r="QA14" s="31"/>
-      <c r="QB14" s="31"/>
-      <c r="QC14" s="31"/>
-      <c r="QD14" s="31"/>
-      <c r="QE14" s="31"/>
-      <c r="QF14" s="31"/>
-      <c r="QG14" s="31"/>
-      <c r="QH14" s="31"/>
-      <c r="QI14" s="31"/>
-      <c r="QJ14" s="31"/>
-      <c r="QK14" s="31"/>
-      <c r="QL14" s="31"/>
-      <c r="QM14" s="31"/>
-      <c r="QN14" s="31"/>
-      <c r="QO14" s="31"/>
-      <c r="QP14" s="31"/>
-      <c r="QQ14" s="31"/>
-      <c r="QR14" s="31"/>
-      <c r="QS14" s="31"/>
-      <c r="QT14" s="31"/>
-      <c r="QU14" s="31"/>
-      <c r="QV14" s="31"/>
-      <c r="QW14" s="31"/>
-      <c r="QX14" s="31"/>
-      <c r="QY14" s="31"/>
-      <c r="QZ14" s="31"/>
-      <c r="RA14" s="31"/>
-      <c r="RB14" s="31"/>
-      <c r="RC14" s="31"/>
-      <c r="RD14" s="31"/>
-      <c r="RE14" s="31"/>
-      <c r="RF14" s="31"/>
-      <c r="RG14" s="31"/>
-      <c r="RH14" s="31"/>
-      <c r="RI14" s="31"/>
-      <c r="RJ14" s="31"/>
-      <c r="RK14" s="31"/>
-      <c r="RL14" s="31"/>
-      <c r="RM14" s="31"/>
-      <c r="RN14" s="31"/>
-      <c r="RO14" s="31"/>
-      <c r="RP14" s="31"/>
-      <c r="RQ14" s="31"/>
-      <c r="RR14" s="31"/>
-      <c r="RS14" s="31"/>
-      <c r="RT14" s="31"/>
-      <c r="RU14" s="31"/>
-      <c r="RV14" s="31"/>
-      <c r="RW14" s="31"/>
-      <c r="RX14" s="31"/>
-      <c r="RY14" s="31"/>
-      <c r="RZ14" s="31"/>
-      <c r="SA14" s="31"/>
-      <c r="SB14" s="31"/>
-      <c r="SC14" s="31"/>
-      <c r="SD14" s="31"/>
-      <c r="SE14" s="31"/>
-      <c r="SF14" s="31"/>
-      <c r="SG14" s="31"/>
-      <c r="SH14" s="31"/>
-      <c r="SI14" s="31"/>
-      <c r="SJ14" s="31"/>
-      <c r="SK14" s="31"/>
-      <c r="SL14" s="31"/>
-      <c r="SM14" s="31"/>
-      <c r="SN14" s="31"/>
-      <c r="SO14" s="31"/>
-      <c r="SP14" s="31"/>
-      <c r="SQ14" s="31"/>
-      <c r="SR14" s="31"/>
-      <c r="SS14" s="31"/>
-      <c r="ST14" s="31"/>
-      <c r="SU14" s="31"/>
-      <c r="SV14" s="31"/>
-      <c r="SW14" s="31"/>
-      <c r="SX14" s="31"/>
-      <c r="SY14" s="31"/>
-      <c r="SZ14" s="31"/>
-      <c r="TA14" s="31"/>
-      <c r="TB14" s="31"/>
-      <c r="TC14" s="31"/>
-      <c r="TD14" s="31"/>
-      <c r="TE14" s="31"/>
-      <c r="TF14" s="31"/>
-      <c r="TG14" s="31"/>
-      <c r="TH14" s="31"/>
-      <c r="TI14" s="31"/>
-      <c r="TJ14" s="31"/>
-      <c r="TK14" s="31"/>
-      <c r="TL14" s="31"/>
-      <c r="TM14" s="31"/>
-      <c r="TN14" s="31"/>
-      <c r="TO14" s="31"/>
-      <c r="TP14" s="31"/>
-      <c r="TQ14" s="31"/>
-      <c r="TR14" s="31"/>
-      <c r="TS14" s="31"/>
-      <c r="TT14" s="31"/>
-      <c r="TU14" s="31"/>
-      <c r="TV14" s="31"/>
-      <c r="TW14" s="31"/>
-      <c r="TX14" s="31"/>
-      <c r="TY14" s="31"/>
-      <c r="TZ14" s="31"/>
-      <c r="UA14" s="31"/>
-      <c r="UB14" s="31"/>
-      <c r="UC14" s="31"/>
-      <c r="UD14" s="31"/>
-      <c r="UE14" s="31"/>
-      <c r="UF14" s="31"/>
-      <c r="UG14" s="31"/>
-      <c r="UH14" s="31"/>
-      <c r="UI14" s="31"/>
-      <c r="UJ14" s="31"/>
-      <c r="UK14" s="31"/>
-      <c r="UL14" s="31"/>
-      <c r="UM14" s="31"/>
-      <c r="UN14" s="31"/>
-      <c r="UO14" s="31"/>
-      <c r="UP14" s="31"/>
-      <c r="UQ14" s="31"/>
-      <c r="UR14" s="31"/>
-      <c r="US14" s="31"/>
-      <c r="UT14" s="31"/>
-      <c r="UU14" s="31"/>
-      <c r="UV14" s="31"/>
-      <c r="UW14" s="31"/>
-      <c r="UX14" s="31"/>
-      <c r="UY14" s="31"/>
-      <c r="UZ14" s="31"/>
-      <c r="VA14" s="31"/>
-      <c r="VB14" s="31"/>
-      <c r="VC14" s="31"/>
-      <c r="VD14" s="31"/>
-      <c r="VE14" s="31"/>
-      <c r="VF14" s="31"/>
-      <c r="VG14" s="31"/>
-      <c r="VH14" s="31"/>
-      <c r="VI14" s="31"/>
-      <c r="VJ14" s="31"/>
-      <c r="VK14" s="31"/>
-      <c r="VL14" s="31"/>
-      <c r="VM14" s="31"/>
-      <c r="VN14" s="31"/>
-      <c r="VO14" s="31"/>
-      <c r="VP14" s="31"/>
-      <c r="VQ14" s="31"/>
-      <c r="VR14" s="31"/>
-      <c r="VS14" s="31"/>
-      <c r="VT14" s="31"/>
-      <c r="VU14" s="31"/>
-      <c r="VV14" s="31"/>
-      <c r="VW14" s="31"/>
-      <c r="VX14" s="31"/>
-      <c r="VY14" s="31"/>
-      <c r="VZ14" s="31"/>
-      <c r="WA14" s="31"/>
-      <c r="WB14" s="31"/>
-      <c r="WC14" s="31"/>
-      <c r="WD14" s="31"/>
-      <c r="WE14" s="31"/>
-      <c r="WF14" s="31"/>
-      <c r="WG14" s="31"/>
-      <c r="WH14" s="31"/>
-      <c r="WI14" s="31"/>
-      <c r="WJ14" s="31"/>
-      <c r="WK14" s="31"/>
-      <c r="WL14" s="31"/>
-      <c r="WM14" s="31"/>
-      <c r="WN14" s="31"/>
-      <c r="WO14" s="31"/>
-      <c r="WP14" s="31"/>
-      <c r="WQ14" s="31"/>
-      <c r="WR14" s="31"/>
-      <c r="WS14" s="31"/>
-      <c r="WT14" s="31"/>
-      <c r="WU14" s="31"/>
-      <c r="WV14" s="31"/>
-      <c r="WW14" s="31"/>
-      <c r="WX14" s="31"/>
-      <c r="WY14" s="31"/>
-      <c r="WZ14" s="31"/>
-      <c r="XA14" s="31"/>
-      <c r="XB14" s="31"/>
-      <c r="XC14" s="31"/>
-      <c r="XD14" s="31"/>
-      <c r="XE14" s="31"/>
-      <c r="XF14" s="31"/>
-      <c r="XG14" s="31"/>
-      <c r="XH14" s="31"/>
-      <c r="XI14" s="31"/>
-      <c r="XJ14" s="31"/>
-      <c r="XK14" s="31"/>
-      <c r="XL14" s="31"/>
-      <c r="XM14" s="31"/>
-      <c r="XN14" s="31"/>
-      <c r="XO14" s="31"/>
-      <c r="XP14" s="31"/>
-      <c r="XQ14" s="31"/>
-      <c r="XR14" s="31"/>
-      <c r="XS14" s="31"/>
-      <c r="XT14" s="31"/>
-      <c r="XU14" s="31"/>
-      <c r="XV14" s="31"/>
-      <c r="XW14" s="31"/>
-      <c r="XX14" s="31"/>
-      <c r="XY14" s="31"/>
-      <c r="XZ14" s="31"/>
-      <c r="YA14" s="31"/>
-      <c r="YB14" s="31"/>
-      <c r="YC14" s="31"/>
-      <c r="YD14" s="31"/>
-      <c r="YE14" s="31"/>
-      <c r="YF14" s="31"/>
-      <c r="YG14" s="31"/>
-      <c r="YH14" s="31"/>
-      <c r="YI14" s="31"/>
-      <c r="YJ14" s="31"/>
-      <c r="YK14" s="31"/>
-      <c r="YL14" s="31"/>
-      <c r="YM14" s="31"/>
-      <c r="YN14" s="31"/>
-      <c r="YO14" s="31"/>
-      <c r="YP14" s="31"/>
-      <c r="YQ14" s="31"/>
-      <c r="YR14" s="31"/>
-      <c r="YS14" s="31"/>
-      <c r="YT14" s="31"/>
-      <c r="YU14" s="31"/>
-      <c r="YV14" s="31"/>
-      <c r="YW14" s="31"/>
-      <c r="YX14" s="31"/>
-      <c r="YY14" s="31"/>
-      <c r="YZ14" s="31"/>
-      <c r="ZA14" s="31"/>
-      <c r="ZB14" s="31"/>
-      <c r="ZC14" s="31"/>
-      <c r="ZD14" s="31"/>
-      <c r="ZE14" s="31"/>
-      <c r="ZF14" s="31"/>
-      <c r="ZG14" s="31"/>
-      <c r="ZH14" s="31"/>
-      <c r="ZI14" s="31"/>
-      <c r="ZJ14" s="31"/>
-      <c r="ZK14" s="31"/>
-      <c r="ZL14" s="31"/>
-      <c r="ZM14" s="31"/>
-      <c r="ZN14" s="31"/>
-      <c r="ZO14" s="31"/>
-      <c r="ZP14" s="31"/>
-      <c r="ZQ14" s="31"/>
-      <c r="ZR14" s="31"/>
-      <c r="ZS14" s="31"/>
-      <c r="ZT14" s="31"/>
-      <c r="ZU14" s="31"/>
-      <c r="ZV14" s="31"/>
-      <c r="ZW14" s="31"/>
-      <c r="ZX14" s="31"/>
-      <c r="ZY14" s="31"/>
-      <c r="ZZ14" s="31"/>
-      <c r="AAA14" s="31"/>
-      <c r="AAB14" s="31"/>
-      <c r="AAC14" s="31"/>
-      <c r="AAD14" s="31"/>
-      <c r="AAE14" s="31"/>
-      <c r="AAF14" s="31"/>
-      <c r="AAG14" s="31"/>
-      <c r="AAH14" s="31"/>
-      <c r="AAI14" s="31"/>
-      <c r="AAJ14" s="31"/>
-      <c r="AAK14" s="31"/>
-      <c r="AAL14" s="31"/>
-      <c r="AAM14" s="31"/>
-      <c r="AAN14" s="31"/>
-      <c r="AAO14" s="31"/>
-      <c r="AAP14" s="31"/>
-      <c r="AAQ14" s="31"/>
-      <c r="AAR14" s="31"/>
-      <c r="AAS14" s="31"/>
-      <c r="AAT14" s="31"/>
-      <c r="AAU14" s="31"/>
-      <c r="AAV14" s="31"/>
-      <c r="AAW14" s="31"/>
-      <c r="AAX14" s="31"/>
-      <c r="AAY14" s="31"/>
-      <c r="AAZ14" s="31"/>
-      <c r="ABA14" s="31"/>
-      <c r="ABB14" s="31"/>
-      <c r="ABC14" s="31"/>
-      <c r="ABD14" s="31"/>
-      <c r="ABE14" s="31"/>
-      <c r="ABF14" s="31"/>
-      <c r="ABG14" s="31"/>
-      <c r="ABH14" s="31"/>
-      <c r="ABI14" s="31"/>
-      <c r="ABJ14" s="31"/>
-      <c r="ABK14" s="31"/>
-      <c r="ABL14" s="31"/>
-      <c r="ABM14" s="31"/>
-      <c r="ABN14" s="31"/>
-      <c r="ABO14" s="31"/>
-      <c r="ABP14" s="31"/>
-      <c r="ABQ14" s="31"/>
-      <c r="ABR14" s="31"/>
-      <c r="ABS14" s="31"/>
-      <c r="ABT14" s="31"/>
-      <c r="ABU14" s="31"/>
-      <c r="ABV14" s="31"/>
-      <c r="ABW14" s="31"/>
-      <c r="ABX14" s="31"/>
-      <c r="ABY14" s="31"/>
-      <c r="ABZ14" s="31"/>
-      <c r="ACA14" s="31"/>
-      <c r="ACB14" s="31"/>
-      <c r="ACC14" s="31"/>
-      <c r="ACD14" s="31"/>
-      <c r="ACE14" s="31"/>
-      <c r="ACF14" s="31"/>
-      <c r="ACG14" s="31"/>
-      <c r="ACH14" s="31"/>
-      <c r="ACI14" s="31"/>
-      <c r="ACJ14" s="31"/>
-      <c r="ACK14" s="31"/>
-      <c r="ACL14" s="31"/>
-      <c r="ACM14" s="31"/>
-      <c r="ACN14" s="31"/>
-      <c r="ACO14" s="31"/>
-      <c r="ACP14" s="31"/>
-      <c r="ACQ14" s="31"/>
-      <c r="ACR14" s="31"/>
-      <c r="ACS14" s="31"/>
-      <c r="ACT14" s="31"/>
-      <c r="ACU14" s="31"/>
-      <c r="ACV14" s="31"/>
-      <c r="ACW14" s="31"/>
-      <c r="ACX14" s="31"/>
-      <c r="ACY14" s="31"/>
-      <c r="ACZ14" s="31"/>
-      <c r="ADA14" s="31"/>
-      <c r="ADB14" s="31"/>
-      <c r="ADC14" s="31"/>
-      <c r="ADD14" s="31"/>
-      <c r="ADE14" s="31"/>
-      <c r="ADF14" s="31"/>
-      <c r="ADG14" s="31"/>
-      <c r="ADH14" s="31"/>
-      <c r="ADI14" s="31"/>
-      <c r="ADJ14" s="31"/>
-      <c r="ADK14" s="31"/>
-      <c r="ADL14" s="31"/>
-      <c r="ADM14" s="31"/>
-      <c r="ADN14" s="31"/>
-      <c r="ADO14" s="31"/>
-      <c r="ADP14" s="31"/>
-      <c r="ADQ14" s="31"/>
-      <c r="ADR14" s="31"/>
-      <c r="ADS14" s="31"/>
-      <c r="ADT14" s="31"/>
-      <c r="ADU14" s="31"/>
-      <c r="ADV14" s="31"/>
-      <c r="ADW14" s="31"/>
-      <c r="ADX14" s="31"/>
-      <c r="ADY14" s="31"/>
-      <c r="ADZ14" s="31"/>
-      <c r="AEA14" s="31"/>
-      <c r="AEB14" s="31"/>
-      <c r="AEC14" s="31"/>
-      <c r="AED14" s="31"/>
-      <c r="AEE14" s="31"/>
-      <c r="AEF14" s="31"/>
-      <c r="AEG14" s="31"/>
-      <c r="AEH14" s="31"/>
-      <c r="AEI14" s="31"/>
-      <c r="AEJ14" s="31"/>
-      <c r="AEK14" s="31"/>
-      <c r="AEL14" s="31"/>
-      <c r="AEM14" s="31"/>
-      <c r="AEN14" s="31"/>
-      <c r="AEO14" s="31"/>
-      <c r="AEP14" s="31"/>
-      <c r="AEQ14" s="31"/>
-      <c r="AER14" s="31"/>
-      <c r="AES14" s="31"/>
-      <c r="AET14" s="31"/>
-      <c r="AEU14" s="31"/>
-      <c r="AEV14" s="31"/>
-      <c r="AEW14" s="31"/>
-      <c r="AEX14" s="31"/>
-      <c r="AEY14" s="31"/>
-      <c r="AEZ14" s="31"/>
-      <c r="AFA14" s="31"/>
-      <c r="AFB14" s="31"/>
-      <c r="AFC14" s="31"/>
-      <c r="AFD14" s="31"/>
-      <c r="AFE14" s="31"/>
-      <c r="AFF14" s="31"/>
-      <c r="AFG14" s="31"/>
-      <c r="AFH14" s="31"/>
-      <c r="AFI14" s="31"/>
-      <c r="AFJ14" s="31"/>
-      <c r="AFK14" s="31"/>
-      <c r="AFL14" s="31"/>
-      <c r="AFM14" s="31"/>
-      <c r="AFN14" s="31"/>
-      <c r="AFO14" s="31"/>
-      <c r="AFP14" s="31"/>
-      <c r="AFQ14" s="31"/>
-      <c r="AFR14" s="31"/>
-      <c r="AFS14" s="31"/>
-      <c r="AFT14" s="31"/>
-      <c r="AFU14" s="31"/>
-      <c r="AFV14" s="31"/>
-      <c r="AFW14" s="31"/>
-      <c r="AFX14" s="31"/>
-      <c r="AFY14" s="31"/>
-      <c r="AFZ14" s="31"/>
-      <c r="AGA14" s="31"/>
-      <c r="AGB14" s="31"/>
-      <c r="AGC14" s="31"/>
-      <c r="AGD14" s="31"/>
-      <c r="AGE14" s="31"/>
-      <c r="AGF14" s="31"/>
-      <c r="AGG14" s="31"/>
-      <c r="AGH14" s="31"/>
-      <c r="AGI14" s="31"/>
-      <c r="AGJ14" s="31"/>
-      <c r="AGK14" s="31"/>
-      <c r="AGL14" s="31"/>
-      <c r="AGM14" s="31"/>
-      <c r="AGN14" s="31"/>
-      <c r="AGO14" s="31"/>
-      <c r="AGP14" s="31"/>
-      <c r="AGQ14" s="31"/>
-      <c r="AGR14" s="31"/>
-      <c r="AGS14" s="31"/>
-      <c r="AGT14" s="31"/>
-      <c r="AGU14" s="31"/>
-      <c r="AGV14" s="31"/>
-      <c r="AGW14" s="31"/>
-      <c r="AGX14" s="31"/>
-      <c r="AGY14" s="31"/>
-      <c r="AGZ14" s="31"/>
-      <c r="AHA14" s="31"/>
-      <c r="AHB14" s="31"/>
-      <c r="AHC14" s="31"/>
-      <c r="AHD14" s="31"/>
-      <c r="AHE14" s="31"/>
-      <c r="AHF14" s="31"/>
-      <c r="AHG14" s="31"/>
-      <c r="AHH14" s="31"/>
-      <c r="AHI14" s="31"/>
-      <c r="AHJ14" s="31"/>
-      <c r="AHK14" s="31"/>
-      <c r="AHL14" s="31"/>
-      <c r="AHM14" s="31"/>
-      <c r="AHN14" s="31"/>
-      <c r="AHO14" s="31"/>
-      <c r="AHP14" s="31"/>
-      <c r="AHQ14" s="31"/>
-      <c r="AHR14" s="31"/>
-      <c r="AHS14" s="31"/>
-      <c r="AHT14" s="31"/>
-      <c r="AHU14" s="31"/>
-      <c r="AHV14" s="31"/>
-      <c r="AHW14" s="31"/>
-      <c r="AHX14" s="31"/>
-      <c r="AHY14" s="31"/>
-      <c r="AHZ14" s="31"/>
-      <c r="AIA14" s="31"/>
-      <c r="AIB14" s="31"/>
-      <c r="AIC14" s="31"/>
-      <c r="AID14" s="31"/>
-      <c r="AIE14" s="31"/>
-      <c r="AIF14" s="31"/>
-      <c r="AIG14" s="31"/>
-      <c r="AIH14" s="31"/>
-      <c r="AII14" s="31"/>
-      <c r="AIJ14" s="31"/>
-      <c r="AIK14" s="31"/>
-      <c r="AIL14" s="31"/>
-      <c r="AIM14" s="31"/>
-      <c r="AIN14" s="31"/>
-      <c r="AIO14" s="31"/>
-      <c r="AIP14" s="31"/>
-      <c r="AIQ14" s="31"/>
-      <c r="AIR14" s="31"/>
-      <c r="AIS14" s="31"/>
-      <c r="AIT14" s="31"/>
-      <c r="AIU14" s="31"/>
-      <c r="AIV14" s="31"/>
-      <c r="AIW14" s="31"/>
-      <c r="AIX14" s="31"/>
-      <c r="AIY14" s="31"/>
-      <c r="AIZ14" s="31"/>
-      <c r="AJA14" s="31"/>
-      <c r="AJB14" s="31"/>
-      <c r="AJC14" s="31"/>
-      <c r="AJD14" s="31"/>
-      <c r="AJE14" s="31"/>
-      <c r="AJF14" s="31"/>
-      <c r="AJG14" s="31"/>
-      <c r="AJH14" s="31"/>
-      <c r="AJI14" s="31"/>
-      <c r="AJJ14" s="31"/>
-      <c r="AJK14" s="31"/>
-      <c r="AJL14" s="31"/>
-      <c r="AJM14" s="31"/>
-      <c r="AJN14" s="31"/>
-      <c r="AJO14" s="31"/>
-      <c r="AJP14" s="31"/>
-      <c r="AJQ14" s="31"/>
-      <c r="AJR14" s="31"/>
-      <c r="AJS14" s="31"/>
-      <c r="AJT14" s="31"/>
-      <c r="AJU14" s="31"/>
-      <c r="AJV14" s="31"/>
-      <c r="AJW14" s="31"/>
-      <c r="AJX14" s="31"/>
-      <c r="AJY14" s="31"/>
-      <c r="AJZ14" s="31"/>
-      <c r="AKA14" s="31"/>
-      <c r="AKB14" s="31"/>
-      <c r="AKC14" s="31"/>
-      <c r="AKD14" s="31"/>
-      <c r="AKE14" s="31"/>
-      <c r="AKF14" s="31"/>
-      <c r="AKG14" s="31"/>
-      <c r="AKH14" s="31"/>
-      <c r="AKI14" s="31"/>
-      <c r="AKJ14" s="31"/>
-      <c r="AKK14" s="31"/>
-      <c r="AKL14" s="31"/>
-      <c r="AKM14" s="31"/>
-      <c r="AKN14" s="31"/>
-      <c r="AKO14" s="31"/>
-      <c r="AKP14" s="31"/>
-      <c r="AKQ14" s="31"/>
-      <c r="AKR14" s="31"/>
-      <c r="AKS14" s="31"/>
-      <c r="AKT14" s="31"/>
-      <c r="AKU14" s="31"/>
-      <c r="AKV14" s="31"/>
-      <c r="AKW14" s="31"/>
-      <c r="AKX14" s="31"/>
-      <c r="AKY14" s="31"/>
-      <c r="AKZ14" s="31"/>
-      <c r="ALA14" s="31"/>
-      <c r="ALB14" s="31"/>
-      <c r="ALC14" s="31"/>
-      <c r="ALD14" s="31"/>
-      <c r="ALE14" s="31"/>
-      <c r="ALF14" s="31"/>
-      <c r="ALG14" s="31"/>
-      <c r="ALH14" s="31"/>
-      <c r="ALI14" s="31"/>
-      <c r="ALJ14" s="31"/>
-      <c r="ALK14" s="31"/>
-      <c r="ALL14" s="31"/>
-      <c r="ALM14" s="31"/>
-      <c r="ALN14" s="31"/>
-      <c r="ALO14" s="31"/>
-      <c r="ALP14" s="31"/>
-      <c r="ALQ14" s="31"/>
-      <c r="ALR14" s="31"/>
-      <c r="ALS14" s="31"/>
-      <c r="ALT14" s="31"/>
-      <c r="ALU14" s="31"/>
-      <c r="ALV14" s="31"/>
-      <c r="ALW14" s="31"/>
-      <c r="ALX14" s="31"/>
-      <c r="ALY14" s="31"/>
-      <c r="ALZ14" s="31"/>
-      <c r="AMA14" s="31"/>
-      <c r="AMB14" s="31"/>
-      <c r="AMC14" s="31"/>
-      <c r="AMD14" s="31"/>
-      <c r="AME14" s="31"/>
-      <c r="AMF14" s="31"/>
-      <c r="AMG14" s="31"/>
-      <c r="AMH14" s="31"/>
-      <c r="AMI14" s="31"/>
+      <c r="W14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="29"/>
+      <c r="BK14" s="29"/>
+      <c r="BL14" s="29"/>
+      <c r="BM14" s="29"/>
+      <c r="BN14" s="29"/>
+      <c r="BO14" s="29"/>
+      <c r="BP14" s="29"/>
+      <c r="BQ14" s="29"/>
+      <c r="BR14" s="29"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="29"/>
+      <c r="BU14" s="29"/>
+      <c r="BV14" s="29"/>
+      <c r="BW14" s="29"/>
+      <c r="BX14" s="29"/>
+      <c r="BY14" s="29"/>
+      <c r="BZ14" s="29"/>
+      <c r="CA14" s="29"/>
+      <c r="CB14" s="29"/>
+      <c r="CC14" s="29"/>
+      <c r="CD14" s="29"/>
+      <c r="CE14" s="29"/>
+      <c r="CF14" s="29"/>
+      <c r="CG14" s="29"/>
+      <c r="CH14" s="29"/>
+      <c r="CI14" s="29"/>
+      <c r="CJ14" s="29"/>
+      <c r="CK14" s="29"/>
+      <c r="CL14" s="29"/>
+      <c r="CM14" s="29"/>
+      <c r="CN14" s="29"/>
+      <c r="CO14" s="29"/>
+      <c r="CP14" s="29"/>
+      <c r="CQ14" s="29"/>
+      <c r="CR14" s="29"/>
+      <c r="CS14" s="29"/>
+      <c r="CT14" s="29"/>
+      <c r="CU14" s="29"/>
+      <c r="CV14" s="29"/>
+      <c r="CW14" s="29"/>
+      <c r="CX14" s="29"/>
+      <c r="CY14" s="29"/>
+      <c r="CZ14" s="29"/>
+      <c r="DA14" s="29"/>
+      <c r="DB14" s="29"/>
+      <c r="DC14" s="29"/>
+      <c r="DD14" s="29"/>
+      <c r="DE14" s="29"/>
+      <c r="DF14" s="29"/>
+      <c r="DG14" s="29"/>
+      <c r="DH14" s="29"/>
+      <c r="DI14" s="29"/>
+      <c r="DJ14" s="29"/>
+      <c r="DK14" s="29"/>
+      <c r="DL14" s="29"/>
+      <c r="DM14" s="29"/>
+      <c r="DN14" s="29"/>
+      <c r="DO14" s="29"/>
+      <c r="DP14" s="29"/>
+      <c r="DQ14" s="29"/>
+      <c r="DR14" s="29"/>
+      <c r="DS14" s="29"/>
+      <c r="DT14" s="29"/>
+      <c r="DU14" s="29"/>
+      <c r="DV14" s="29"/>
+      <c r="DW14" s="29"/>
+      <c r="DX14" s="29"/>
+      <c r="DY14" s="29"/>
+      <c r="DZ14" s="29"/>
+      <c r="EA14" s="29"/>
+      <c r="EB14" s="29"/>
+      <c r="EC14" s="29"/>
+      <c r="ED14" s="29"/>
+      <c r="EE14" s="29"/>
+      <c r="EF14" s="29"/>
+      <c r="EG14" s="29"/>
+      <c r="EH14" s="29"/>
+      <c r="EI14" s="29"/>
+      <c r="EJ14" s="29"/>
+      <c r="EK14" s="29"/>
+      <c r="EL14" s="29"/>
+      <c r="EM14" s="29"/>
+      <c r="EN14" s="29"/>
+      <c r="EO14" s="29"/>
+      <c r="EP14" s="29"/>
+      <c r="EQ14" s="29"/>
+      <c r="ER14" s="29"/>
+      <c r="ES14" s="29"/>
+      <c r="ET14" s="29"/>
+      <c r="EU14" s="29"/>
+      <c r="EV14" s="29"/>
+      <c r="EW14" s="29"/>
+      <c r="EX14" s="29"/>
+      <c r="EY14" s="29"/>
+      <c r="EZ14" s="29"/>
+      <c r="FA14" s="29"/>
+      <c r="FB14" s="29"/>
+      <c r="FC14" s="29"/>
+      <c r="FD14" s="29"/>
+      <c r="FE14" s="29"/>
+      <c r="FF14" s="29"/>
+      <c r="FG14" s="29"/>
+      <c r="FH14" s="29"/>
+      <c r="FI14" s="29"/>
+      <c r="FJ14" s="29"/>
+      <c r="FK14" s="29"/>
+      <c r="FL14" s="29"/>
+      <c r="FM14" s="29"/>
+      <c r="FN14" s="29"/>
+      <c r="FO14" s="29"/>
+      <c r="FP14" s="29"/>
+      <c r="FQ14" s="29"/>
+      <c r="FR14" s="29"/>
+      <c r="FS14" s="29"/>
+      <c r="FT14" s="29"/>
+      <c r="FU14" s="29"/>
+      <c r="FV14" s="29"/>
+      <c r="FW14" s="29"/>
+      <c r="FX14" s="29"/>
+      <c r="FY14" s="29"/>
+      <c r="FZ14" s="29"/>
+      <c r="GA14" s="29"/>
+      <c r="GB14" s="29"/>
+      <c r="GC14" s="29"/>
+      <c r="GD14" s="29"/>
+      <c r="GE14" s="29"/>
+      <c r="GF14" s="29"/>
+      <c r="GG14" s="29"/>
+      <c r="GH14" s="29"/>
+      <c r="GI14" s="29"/>
+      <c r="GJ14" s="29"/>
+      <c r="GK14" s="29"/>
+      <c r="GL14" s="29"/>
+      <c r="GM14" s="29"/>
+      <c r="GN14" s="29"/>
+      <c r="GO14" s="29"/>
+      <c r="GP14" s="29"/>
+      <c r="GQ14" s="29"/>
+      <c r="GR14" s="29"/>
+      <c r="GS14" s="29"/>
+      <c r="GT14" s="29"/>
+      <c r="GU14" s="29"/>
+      <c r="GV14" s="29"/>
+      <c r="GW14" s="29"/>
+      <c r="GX14" s="29"/>
+      <c r="GY14" s="29"/>
+      <c r="GZ14" s="29"/>
+      <c r="HA14" s="29"/>
+      <c r="HB14" s="29"/>
+      <c r="HC14" s="29"/>
+      <c r="HD14" s="29"/>
+      <c r="HE14" s="29"/>
+      <c r="HF14" s="29"/>
+      <c r="HG14" s="29"/>
+      <c r="HH14" s="29"/>
+      <c r="HI14" s="29"/>
+      <c r="HJ14" s="29"/>
+      <c r="HK14" s="29"/>
+      <c r="HL14" s="29"/>
+      <c r="HM14" s="29"/>
+      <c r="HN14" s="29"/>
+      <c r="HO14" s="29"/>
+      <c r="HP14" s="29"/>
+      <c r="HQ14" s="29"/>
+      <c r="HR14" s="29"/>
+      <c r="HS14" s="29"/>
+      <c r="HT14" s="29"/>
+      <c r="HU14" s="29"/>
+      <c r="HV14" s="29"/>
+      <c r="HW14" s="29"/>
+      <c r="HX14" s="29"/>
+      <c r="HY14" s="29"/>
+      <c r="HZ14" s="29"/>
+      <c r="IA14" s="29"/>
+      <c r="IB14" s="29"/>
+      <c r="IC14" s="29"/>
+      <c r="ID14" s="29"/>
+      <c r="IE14" s="29"/>
+      <c r="IF14" s="29"/>
+      <c r="IG14" s="29"/>
+      <c r="IH14" s="29"/>
+      <c r="II14" s="29"/>
+      <c r="IJ14" s="29"/>
+      <c r="IK14" s="29"/>
+      <c r="IL14" s="29"/>
+      <c r="IM14" s="29"/>
+      <c r="IN14" s="29"/>
+      <c r="IO14" s="29"/>
+      <c r="IP14" s="29"/>
+      <c r="IQ14" s="29"/>
+      <c r="IR14" s="29"/>
+      <c r="IS14" s="29"/>
+      <c r="IT14" s="29"/>
+      <c r="IU14" s="29"/>
+      <c r="IV14" s="29"/>
+      <c r="IW14" s="29"/>
+      <c r="IX14" s="29"/>
+      <c r="IY14" s="29"/>
+      <c r="IZ14" s="29"/>
+      <c r="JA14" s="29"/>
+      <c r="JB14" s="29"/>
+      <c r="JC14" s="29"/>
+      <c r="JD14" s="29"/>
+      <c r="JE14" s="29"/>
+      <c r="JF14" s="29"/>
+      <c r="JG14" s="29"/>
+      <c r="JH14" s="29"/>
+      <c r="JI14" s="29"/>
+      <c r="JJ14" s="29"/>
+      <c r="JK14" s="29"/>
+      <c r="JL14" s="29"/>
+      <c r="JM14" s="29"/>
+      <c r="JN14" s="29"/>
+      <c r="JO14" s="29"/>
+      <c r="JP14" s="29"/>
+      <c r="JQ14" s="29"/>
+      <c r="JR14" s="29"/>
+      <c r="JS14" s="29"/>
+      <c r="JT14" s="29"/>
+      <c r="JU14" s="29"/>
+      <c r="JV14" s="29"/>
+      <c r="JW14" s="29"/>
+      <c r="JX14" s="29"/>
+      <c r="JY14" s="29"/>
+      <c r="JZ14" s="29"/>
+      <c r="KA14" s="29"/>
+      <c r="KB14" s="29"/>
+      <c r="KC14" s="29"/>
+      <c r="KD14" s="29"/>
+      <c r="KE14" s="29"/>
+      <c r="KF14" s="29"/>
+      <c r="KG14" s="29"/>
+      <c r="KH14" s="29"/>
+      <c r="KI14" s="29"/>
+      <c r="KJ14" s="29"/>
+      <c r="KK14" s="29"/>
+      <c r="KL14" s="29"/>
+      <c r="KM14" s="29"/>
+      <c r="KN14" s="29"/>
+      <c r="KO14" s="29"/>
+      <c r="KP14" s="29"/>
+      <c r="KQ14" s="29"/>
+      <c r="KR14" s="29"/>
+      <c r="KS14" s="29"/>
+      <c r="KT14" s="29"/>
+      <c r="KU14" s="29"/>
+      <c r="KV14" s="29"/>
+      <c r="KW14" s="29"/>
+      <c r="KX14" s="29"/>
+      <c r="KY14" s="29"/>
+      <c r="KZ14" s="29"/>
+      <c r="LA14" s="29"/>
+      <c r="LB14" s="29"/>
+      <c r="LC14" s="29"/>
+      <c r="LD14" s="29"/>
+      <c r="LE14" s="29"/>
+      <c r="LF14" s="29"/>
+      <c r="LG14" s="29"/>
+      <c r="LH14" s="29"/>
+      <c r="LI14" s="29"/>
+      <c r="LJ14" s="29"/>
+      <c r="LK14" s="29"/>
+      <c r="LL14" s="29"/>
+      <c r="LM14" s="29"/>
+      <c r="LN14" s="29"/>
+      <c r="LO14" s="29"/>
+      <c r="LP14" s="29"/>
+      <c r="LQ14" s="29"/>
+      <c r="LR14" s="29"/>
+      <c r="LS14" s="29"/>
+      <c r="LT14" s="29"/>
+      <c r="LU14" s="29"/>
+      <c r="LV14" s="29"/>
+      <c r="LW14" s="29"/>
+      <c r="LX14" s="29"/>
+      <c r="LY14" s="29"/>
+      <c r="LZ14" s="29"/>
+      <c r="MA14" s="29"/>
+      <c r="MB14" s="29"/>
+      <c r="MC14" s="29"/>
+      <c r="MD14" s="29"/>
+      <c r="ME14" s="29"/>
+      <c r="MF14" s="29"/>
+      <c r="MG14" s="29"/>
+      <c r="MH14" s="29"/>
+      <c r="MI14" s="29"/>
+      <c r="MJ14" s="29"/>
+      <c r="MK14" s="29"/>
+      <c r="ML14" s="29"/>
+      <c r="MM14" s="29"/>
+      <c r="MN14" s="29"/>
+      <c r="MO14" s="29"/>
+      <c r="MP14" s="29"/>
+      <c r="MQ14" s="29"/>
+      <c r="MR14" s="29"/>
+      <c r="MS14" s="29"/>
+      <c r="MT14" s="29"/>
+      <c r="MU14" s="29"/>
+      <c r="MV14" s="29"/>
+      <c r="MW14" s="29"/>
+      <c r="MX14" s="29"/>
+      <c r="MY14" s="29"/>
+      <c r="MZ14" s="29"/>
+      <c r="NA14" s="29"/>
+      <c r="NB14" s="29"/>
+      <c r="NC14" s="29"/>
+      <c r="ND14" s="29"/>
+      <c r="NE14" s="29"/>
+      <c r="NF14" s="29"/>
+      <c r="NG14" s="29"/>
+      <c r="NH14" s="29"/>
+      <c r="NI14" s="29"/>
+      <c r="NJ14" s="29"/>
+      <c r="NK14" s="29"/>
+      <c r="NL14" s="29"/>
+      <c r="NM14" s="29"/>
+      <c r="NN14" s="29"/>
+      <c r="NO14" s="29"/>
+      <c r="NP14" s="29"/>
+      <c r="NQ14" s="29"/>
+      <c r="NR14" s="29"/>
+      <c r="NS14" s="29"/>
+      <c r="NT14" s="29"/>
+      <c r="NU14" s="29"/>
+      <c r="NV14" s="29"/>
+      <c r="NW14" s="29"/>
+      <c r="NX14" s="29"/>
+      <c r="NY14" s="29"/>
+      <c r="NZ14" s="29"/>
+      <c r="OA14" s="29"/>
+      <c r="OB14" s="29"/>
+      <c r="OC14" s="29"/>
+      <c r="OD14" s="29"/>
+      <c r="OE14" s="29"/>
+      <c r="OF14" s="29"/>
+      <c r="OG14" s="29"/>
+      <c r="OH14" s="29"/>
+      <c r="OI14" s="29"/>
+      <c r="OJ14" s="29"/>
+      <c r="OK14" s="29"/>
+      <c r="OL14" s="29"/>
+      <c r="OM14" s="29"/>
+      <c r="ON14" s="29"/>
+      <c r="OO14" s="29"/>
+      <c r="OP14" s="29"/>
+      <c r="OQ14" s="29"/>
+      <c r="OR14" s="29"/>
+      <c r="OS14" s="29"/>
+      <c r="OT14" s="29"/>
+      <c r="OU14" s="29"/>
+      <c r="OV14" s="29"/>
+      <c r="OW14" s="29"/>
+      <c r="OX14" s="29"/>
+      <c r="OY14" s="29"/>
+      <c r="OZ14" s="29"/>
+      <c r="PA14" s="29"/>
+      <c r="PB14" s="29"/>
+      <c r="PC14" s="29"/>
+      <c r="PD14" s="29"/>
+      <c r="PE14" s="29"/>
+      <c r="PF14" s="29"/>
+      <c r="PG14" s="29"/>
+      <c r="PH14" s="29"/>
+      <c r="PI14" s="29"/>
+      <c r="PJ14" s="29"/>
+      <c r="PK14" s="29"/>
+      <c r="PL14" s="29"/>
+      <c r="PM14" s="29"/>
+      <c r="PN14" s="29"/>
+      <c r="PO14" s="29"/>
+      <c r="PP14" s="29"/>
+      <c r="PQ14" s="29"/>
+      <c r="PR14" s="29"/>
+      <c r="PS14" s="29"/>
+      <c r="PT14" s="29"/>
+      <c r="PU14" s="29"/>
+      <c r="PV14" s="29"/>
+      <c r="PW14" s="29"/>
+      <c r="PX14" s="29"/>
+      <c r="PY14" s="29"/>
+      <c r="PZ14" s="29"/>
+      <c r="QA14" s="29"/>
+      <c r="QB14" s="29"/>
+      <c r="QC14" s="29"/>
+      <c r="QD14" s="29"/>
+      <c r="QE14" s="29"/>
+      <c r="QF14" s="29"/>
+      <c r="QG14" s="29"/>
+      <c r="QH14" s="29"/>
+      <c r="QI14" s="29"/>
+      <c r="QJ14" s="29"/>
+      <c r="QK14" s="29"/>
+      <c r="QL14" s="29"/>
+      <c r="QM14" s="29"/>
+      <c r="QN14" s="29"/>
+      <c r="QO14" s="29"/>
+      <c r="QP14" s="29"/>
+      <c r="QQ14" s="29"/>
+      <c r="QR14" s="29"/>
+      <c r="QS14" s="29"/>
+      <c r="QT14" s="29"/>
+      <c r="QU14" s="29"/>
+      <c r="QV14" s="29"/>
+      <c r="QW14" s="29"/>
+      <c r="QX14" s="29"/>
+      <c r="QY14" s="29"/>
+      <c r="QZ14" s="29"/>
+      <c r="RA14" s="29"/>
+      <c r="RB14" s="29"/>
+      <c r="RC14" s="29"/>
+      <c r="RD14" s="29"/>
+      <c r="RE14" s="29"/>
+      <c r="RF14" s="29"/>
+      <c r="RG14" s="29"/>
+      <c r="RH14" s="29"/>
+      <c r="RI14" s="29"/>
+      <c r="RJ14" s="29"/>
+      <c r="RK14" s="29"/>
+      <c r="RL14" s="29"/>
+      <c r="RM14" s="29"/>
+      <c r="RN14" s="29"/>
+      <c r="RO14" s="29"/>
+      <c r="RP14" s="29"/>
+      <c r="RQ14" s="29"/>
+      <c r="RR14" s="29"/>
+      <c r="RS14" s="29"/>
+      <c r="RT14" s="29"/>
+      <c r="RU14" s="29"/>
+      <c r="RV14" s="29"/>
+      <c r="RW14" s="29"/>
+      <c r="RX14" s="29"/>
+      <c r="RY14" s="29"/>
+      <c r="RZ14" s="29"/>
+      <c r="SA14" s="29"/>
+      <c r="SB14" s="29"/>
+      <c r="SC14" s="29"/>
+      <c r="SD14" s="29"/>
+      <c r="SE14" s="29"/>
+      <c r="SF14" s="29"/>
+      <c r="SG14" s="29"/>
+      <c r="SH14" s="29"/>
+      <c r="SI14" s="29"/>
+      <c r="SJ14" s="29"/>
+      <c r="SK14" s="29"/>
+      <c r="SL14" s="29"/>
+      <c r="SM14" s="29"/>
+      <c r="SN14" s="29"/>
+      <c r="SO14" s="29"/>
+      <c r="SP14" s="29"/>
+      <c r="SQ14" s="29"/>
+      <c r="SR14" s="29"/>
+      <c r="SS14" s="29"/>
+      <c r="ST14" s="29"/>
+      <c r="SU14" s="29"/>
+      <c r="SV14" s="29"/>
+      <c r="SW14" s="29"/>
+      <c r="SX14" s="29"/>
+      <c r="SY14" s="29"/>
+      <c r="SZ14" s="29"/>
+      <c r="TA14" s="29"/>
+      <c r="TB14" s="29"/>
+      <c r="TC14" s="29"/>
+      <c r="TD14" s="29"/>
+      <c r="TE14" s="29"/>
+      <c r="TF14" s="29"/>
+      <c r="TG14" s="29"/>
+      <c r="TH14" s="29"/>
+      <c r="TI14" s="29"/>
+      <c r="TJ14" s="29"/>
+      <c r="TK14" s="29"/>
+      <c r="TL14" s="29"/>
+      <c r="TM14" s="29"/>
+      <c r="TN14" s="29"/>
+      <c r="TO14" s="29"/>
+      <c r="TP14" s="29"/>
+      <c r="TQ14" s="29"/>
+      <c r="TR14" s="29"/>
+      <c r="TS14" s="29"/>
+      <c r="TT14" s="29"/>
+      <c r="TU14" s="29"/>
+      <c r="TV14" s="29"/>
+      <c r="TW14" s="29"/>
+      <c r="TX14" s="29"/>
+      <c r="TY14" s="29"/>
+      <c r="TZ14" s="29"/>
+      <c r="UA14" s="29"/>
+      <c r="UB14" s="29"/>
+      <c r="UC14" s="29"/>
+      <c r="UD14" s="29"/>
+      <c r="UE14" s="29"/>
+      <c r="UF14" s="29"/>
+      <c r="UG14" s="29"/>
+      <c r="UH14" s="29"/>
+      <c r="UI14" s="29"/>
+      <c r="UJ14" s="29"/>
+      <c r="UK14" s="29"/>
+      <c r="UL14" s="29"/>
+      <c r="UM14" s="29"/>
+      <c r="UN14" s="29"/>
+      <c r="UO14" s="29"/>
+      <c r="UP14" s="29"/>
+      <c r="UQ14" s="29"/>
+      <c r="UR14" s="29"/>
+      <c r="US14" s="29"/>
+      <c r="UT14" s="29"/>
+      <c r="UU14" s="29"/>
+      <c r="UV14" s="29"/>
+      <c r="UW14" s="29"/>
+      <c r="UX14" s="29"/>
+      <c r="UY14" s="29"/>
+      <c r="UZ14" s="29"/>
+      <c r="VA14" s="29"/>
+      <c r="VB14" s="29"/>
+      <c r="VC14" s="29"/>
+      <c r="VD14" s="29"/>
+      <c r="VE14" s="29"/>
+      <c r="VF14" s="29"/>
+      <c r="VG14" s="29"/>
+      <c r="VH14" s="29"/>
+      <c r="VI14" s="29"/>
+      <c r="VJ14" s="29"/>
+      <c r="VK14" s="29"/>
+      <c r="VL14" s="29"/>
+      <c r="VM14" s="29"/>
+      <c r="VN14" s="29"/>
+      <c r="VO14" s="29"/>
+      <c r="VP14" s="29"/>
+      <c r="VQ14" s="29"/>
+      <c r="VR14" s="29"/>
+      <c r="VS14" s="29"/>
+      <c r="VT14" s="29"/>
+      <c r="VU14" s="29"/>
+      <c r="VV14" s="29"/>
+      <c r="VW14" s="29"/>
+      <c r="VX14" s="29"/>
+      <c r="VY14" s="29"/>
+      <c r="VZ14" s="29"/>
+      <c r="WA14" s="29"/>
+      <c r="WB14" s="29"/>
+      <c r="WC14" s="29"/>
+      <c r="WD14" s="29"/>
+      <c r="WE14" s="29"/>
+      <c r="WF14" s="29"/>
+      <c r="WG14" s="29"/>
+      <c r="WH14" s="29"/>
+      <c r="WI14" s="29"/>
+      <c r="WJ14" s="29"/>
+      <c r="WK14" s="29"/>
+      <c r="WL14" s="29"/>
+      <c r="WM14" s="29"/>
+      <c r="WN14" s="29"/>
+      <c r="WO14" s="29"/>
+      <c r="WP14" s="29"/>
+      <c r="WQ14" s="29"/>
+      <c r="WR14" s="29"/>
+      <c r="WS14" s="29"/>
+      <c r="WT14" s="29"/>
+      <c r="WU14" s="29"/>
+      <c r="WV14" s="29"/>
+      <c r="WW14" s="29"/>
+      <c r="WX14" s="29"/>
+      <c r="WY14" s="29"/>
+      <c r="WZ14" s="29"/>
+      <c r="XA14" s="29"/>
+      <c r="XB14" s="29"/>
+      <c r="XC14" s="29"/>
+      <c r="XD14" s="29"/>
+      <c r="XE14" s="29"/>
+      <c r="XF14" s="29"/>
+      <c r="XG14" s="29"/>
+      <c r="XH14" s="29"/>
+      <c r="XI14" s="29"/>
+      <c r="XJ14" s="29"/>
+      <c r="XK14" s="29"/>
+      <c r="XL14" s="29"/>
+      <c r="XM14" s="29"/>
+      <c r="XN14" s="29"/>
+      <c r="XO14" s="29"/>
+      <c r="XP14" s="29"/>
+      <c r="XQ14" s="29"/>
+      <c r="XR14" s="29"/>
+      <c r="XS14" s="29"/>
+      <c r="XT14" s="29"/>
+      <c r="XU14" s="29"/>
+      <c r="XV14" s="29"/>
+      <c r="XW14" s="29"/>
+      <c r="XX14" s="29"/>
+      <c r="XY14" s="29"/>
+      <c r="XZ14" s="29"/>
+      <c r="YA14" s="29"/>
+      <c r="YB14" s="29"/>
+      <c r="YC14" s="29"/>
+      <c r="YD14" s="29"/>
+      <c r="YE14" s="29"/>
+      <c r="YF14" s="29"/>
+      <c r="YG14" s="29"/>
+      <c r="YH14" s="29"/>
+      <c r="YI14" s="29"/>
+      <c r="YJ14" s="29"/>
+      <c r="YK14" s="29"/>
+      <c r="YL14" s="29"/>
+      <c r="YM14" s="29"/>
+      <c r="YN14" s="29"/>
+      <c r="YO14" s="29"/>
+      <c r="YP14" s="29"/>
+      <c r="YQ14" s="29"/>
+      <c r="YR14" s="29"/>
+      <c r="YS14" s="29"/>
+      <c r="YT14" s="29"/>
+      <c r="YU14" s="29"/>
+      <c r="YV14" s="29"/>
+      <c r="YW14" s="29"/>
+      <c r="YX14" s="29"/>
+      <c r="YY14" s="29"/>
+      <c r="YZ14" s="29"/>
+      <c r="ZA14" s="29"/>
+      <c r="ZB14" s="29"/>
+      <c r="ZC14" s="29"/>
+      <c r="ZD14" s="29"/>
+      <c r="ZE14" s="29"/>
+      <c r="ZF14" s="29"/>
+      <c r="ZG14" s="29"/>
+      <c r="ZH14" s="29"/>
+      <c r="ZI14" s="29"/>
+      <c r="ZJ14" s="29"/>
+      <c r="ZK14" s="29"/>
+      <c r="ZL14" s="29"/>
+      <c r="ZM14" s="29"/>
+      <c r="ZN14" s="29"/>
+      <c r="ZO14" s="29"/>
+      <c r="ZP14" s="29"/>
+      <c r="ZQ14" s="29"/>
+      <c r="ZR14" s="29"/>
+      <c r="ZS14" s="29"/>
+      <c r="ZT14" s="29"/>
+      <c r="ZU14" s="29"/>
+      <c r="ZV14" s="29"/>
+      <c r="ZW14" s="29"/>
+      <c r="ZX14" s="29"/>
+      <c r="ZY14" s="29"/>
+      <c r="ZZ14" s="29"/>
+      <c r="AAA14" s="29"/>
+      <c r="AAB14" s="29"/>
+      <c r="AAC14" s="29"/>
+      <c r="AAD14" s="29"/>
+      <c r="AAE14" s="29"/>
+      <c r="AAF14" s="29"/>
+      <c r="AAG14" s="29"/>
+      <c r="AAH14" s="29"/>
+      <c r="AAI14" s="29"/>
+      <c r="AAJ14" s="29"/>
+      <c r="AAK14" s="29"/>
+      <c r="AAL14" s="29"/>
+      <c r="AAM14" s="29"/>
+      <c r="AAN14" s="29"/>
+      <c r="AAO14" s="29"/>
+      <c r="AAP14" s="29"/>
+      <c r="AAQ14" s="29"/>
+      <c r="AAR14" s="29"/>
+      <c r="AAS14" s="29"/>
+      <c r="AAT14" s="29"/>
+      <c r="AAU14" s="29"/>
+      <c r="AAV14" s="29"/>
+      <c r="AAW14" s="29"/>
+      <c r="AAX14" s="29"/>
+      <c r="AAY14" s="29"/>
+      <c r="AAZ14" s="29"/>
+      <c r="ABA14" s="29"/>
+      <c r="ABB14" s="29"/>
+      <c r="ABC14" s="29"/>
+      <c r="ABD14" s="29"/>
+      <c r="ABE14" s="29"/>
+      <c r="ABF14" s="29"/>
+      <c r="ABG14" s="29"/>
+      <c r="ABH14" s="29"/>
+      <c r="ABI14" s="29"/>
+      <c r="ABJ14" s="29"/>
+      <c r="ABK14" s="29"/>
+      <c r="ABL14" s="29"/>
+      <c r="ABM14" s="29"/>
+      <c r="ABN14" s="29"/>
+      <c r="ABO14" s="29"/>
+      <c r="ABP14" s="29"/>
+      <c r="ABQ14" s="29"/>
+      <c r="ABR14" s="29"/>
+      <c r="ABS14" s="29"/>
+      <c r="ABT14" s="29"/>
+      <c r="ABU14" s="29"/>
+      <c r="ABV14" s="29"/>
+      <c r="ABW14" s="29"/>
+      <c r="ABX14" s="29"/>
+      <c r="ABY14" s="29"/>
+      <c r="ABZ14" s="29"/>
+      <c r="ACA14" s="29"/>
+      <c r="ACB14" s="29"/>
+      <c r="ACC14" s="29"/>
+      <c r="ACD14" s="29"/>
+      <c r="ACE14" s="29"/>
+      <c r="ACF14" s="29"/>
+      <c r="ACG14" s="29"/>
+      <c r="ACH14" s="29"/>
+      <c r="ACI14" s="29"/>
+      <c r="ACJ14" s="29"/>
+      <c r="ACK14" s="29"/>
+      <c r="ACL14" s="29"/>
+      <c r="ACM14" s="29"/>
+      <c r="ACN14" s="29"/>
+      <c r="ACO14" s="29"/>
+      <c r="ACP14" s="29"/>
+      <c r="ACQ14" s="29"/>
+      <c r="ACR14" s="29"/>
+      <c r="ACS14" s="29"/>
+      <c r="ACT14" s="29"/>
+      <c r="ACU14" s="29"/>
+      <c r="ACV14" s="29"/>
+      <c r="ACW14" s="29"/>
+      <c r="ACX14" s="29"/>
+      <c r="ACY14" s="29"/>
+      <c r="ACZ14" s="29"/>
+      <c r="ADA14" s="29"/>
+      <c r="ADB14" s="29"/>
+      <c r="ADC14" s="29"/>
+      <c r="ADD14" s="29"/>
+      <c r="ADE14" s="29"/>
+      <c r="ADF14" s="29"/>
+      <c r="ADG14" s="29"/>
+      <c r="ADH14" s="29"/>
+      <c r="ADI14" s="29"/>
+      <c r="ADJ14" s="29"/>
+      <c r="ADK14" s="29"/>
+      <c r="ADL14" s="29"/>
+      <c r="ADM14" s="29"/>
+      <c r="ADN14" s="29"/>
+      <c r="ADO14" s="29"/>
+      <c r="ADP14" s="29"/>
+      <c r="ADQ14" s="29"/>
+      <c r="ADR14" s="29"/>
+      <c r="ADS14" s="29"/>
+      <c r="ADT14" s="29"/>
+      <c r="ADU14" s="29"/>
+      <c r="ADV14" s="29"/>
+      <c r="ADW14" s="29"/>
+      <c r="ADX14" s="29"/>
+      <c r="ADY14" s="29"/>
+      <c r="ADZ14" s="29"/>
+      <c r="AEA14" s="29"/>
+      <c r="AEB14" s="29"/>
+      <c r="AEC14" s="29"/>
+      <c r="AED14" s="29"/>
+      <c r="AEE14" s="29"/>
+      <c r="AEF14" s="29"/>
+      <c r="AEG14" s="29"/>
+      <c r="AEH14" s="29"/>
+      <c r="AEI14" s="29"/>
+      <c r="AEJ14" s="29"/>
+      <c r="AEK14" s="29"/>
+      <c r="AEL14" s="29"/>
+      <c r="AEM14" s="29"/>
+      <c r="AEN14" s="29"/>
+      <c r="AEO14" s="29"/>
+      <c r="AEP14" s="29"/>
+      <c r="AEQ14" s="29"/>
+      <c r="AER14" s="29"/>
+      <c r="AES14" s="29"/>
+      <c r="AET14" s="29"/>
+      <c r="AEU14" s="29"/>
+      <c r="AEV14" s="29"/>
+      <c r="AEW14" s="29"/>
+      <c r="AEX14" s="29"/>
+      <c r="AEY14" s="29"/>
+      <c r="AEZ14" s="29"/>
+      <c r="AFA14" s="29"/>
+      <c r="AFB14" s="29"/>
+      <c r="AFC14" s="29"/>
+      <c r="AFD14" s="29"/>
+      <c r="AFE14" s="29"/>
+      <c r="AFF14" s="29"/>
+      <c r="AFG14" s="29"/>
+      <c r="AFH14" s="29"/>
+      <c r="AFI14" s="29"/>
+      <c r="AFJ14" s="29"/>
+      <c r="AFK14" s="29"/>
+      <c r="AFL14" s="29"/>
+      <c r="AFM14" s="29"/>
+      <c r="AFN14" s="29"/>
+      <c r="AFO14" s="29"/>
+      <c r="AFP14" s="29"/>
+      <c r="AFQ14" s="29"/>
+      <c r="AFR14" s="29"/>
+      <c r="AFS14" s="29"/>
+      <c r="AFT14" s="29"/>
+      <c r="AFU14" s="29"/>
+      <c r="AFV14" s="29"/>
+      <c r="AFW14" s="29"/>
+      <c r="AFX14" s="29"/>
+      <c r="AFY14" s="29"/>
+      <c r="AFZ14" s="29"/>
+      <c r="AGA14" s="29"/>
+      <c r="AGB14" s="29"/>
+      <c r="AGC14" s="29"/>
+      <c r="AGD14" s="29"/>
+      <c r="AGE14" s="29"/>
+      <c r="AGF14" s="29"/>
+      <c r="AGG14" s="29"/>
+      <c r="AGH14" s="29"/>
+      <c r="AGI14" s="29"/>
+      <c r="AGJ14" s="29"/>
+      <c r="AGK14" s="29"/>
+      <c r="AGL14" s="29"/>
+      <c r="AGM14" s="29"/>
+      <c r="AGN14" s="29"/>
+      <c r="AGO14" s="29"/>
+      <c r="AGP14" s="29"/>
+      <c r="AGQ14" s="29"/>
+      <c r="AGR14" s="29"/>
+      <c r="AGS14" s="29"/>
+      <c r="AGT14" s="29"/>
+      <c r="AGU14" s="29"/>
+      <c r="AGV14" s="29"/>
+      <c r="AGW14" s="29"/>
+      <c r="AGX14" s="29"/>
+      <c r="AGY14" s="29"/>
+      <c r="AGZ14" s="29"/>
+      <c r="AHA14" s="29"/>
+      <c r="AHB14" s="29"/>
+      <c r="AHC14" s="29"/>
+      <c r="AHD14" s="29"/>
+      <c r="AHE14" s="29"/>
+      <c r="AHF14" s="29"/>
+      <c r="AHG14" s="29"/>
+      <c r="AHH14" s="29"/>
+      <c r="AHI14" s="29"/>
+      <c r="AHJ14" s="29"/>
+      <c r="AHK14" s="29"/>
+      <c r="AHL14" s="29"/>
+      <c r="AHM14" s="29"/>
+      <c r="AHN14" s="29"/>
+      <c r="AHO14" s="29"/>
+      <c r="AHP14" s="29"/>
+      <c r="AHQ14" s="29"/>
+      <c r="AHR14" s="29"/>
+      <c r="AHS14" s="29"/>
+      <c r="AHT14" s="29"/>
+      <c r="AHU14" s="29"/>
+      <c r="AHV14" s="29"/>
+      <c r="AHW14" s="29"/>
+      <c r="AHX14" s="29"/>
+      <c r="AHY14" s="29"/>
+      <c r="AHZ14" s="29"/>
+      <c r="AIA14" s="29"/>
+      <c r="AIB14" s="29"/>
+      <c r="AIC14" s="29"/>
+      <c r="AID14" s="29"/>
+      <c r="AIE14" s="29"/>
+      <c r="AIF14" s="29"/>
+      <c r="AIG14" s="29"/>
+      <c r="AIH14" s="29"/>
+      <c r="AII14" s="29"/>
+      <c r="AIJ14" s="29"/>
+      <c r="AIK14" s="29"/>
+      <c r="AIL14" s="29"/>
+      <c r="AIM14" s="29"/>
+      <c r="AIN14" s="29"/>
+      <c r="AIO14" s="29"/>
+      <c r="AIP14" s="29"/>
+      <c r="AIQ14" s="29"/>
+      <c r="AIR14" s="29"/>
+      <c r="AIS14" s="29"/>
+      <c r="AIT14" s="29"/>
+      <c r="AIU14" s="29"/>
+      <c r="AIV14" s="29"/>
+      <c r="AIW14" s="29"/>
+      <c r="AIX14" s="29"/>
+      <c r="AIY14" s="29"/>
+      <c r="AIZ14" s="29"/>
+      <c r="AJA14" s="29"/>
+      <c r="AJB14" s="29"/>
+      <c r="AJC14" s="29"/>
+      <c r="AJD14" s="29"/>
+      <c r="AJE14" s="29"/>
+      <c r="AJF14" s="29"/>
+      <c r="AJG14" s="29"/>
+      <c r="AJH14" s="29"/>
+      <c r="AJI14" s="29"/>
+      <c r="AJJ14" s="29"/>
+      <c r="AJK14" s="29"/>
+      <c r="AJL14" s="29"/>
+      <c r="AJM14" s="29"/>
+      <c r="AJN14" s="29"/>
+      <c r="AJO14" s="29"/>
+      <c r="AJP14" s="29"/>
+      <c r="AJQ14" s="29"/>
+      <c r="AJR14" s="29"/>
+      <c r="AJS14" s="29"/>
+      <c r="AJT14" s="29"/>
+      <c r="AJU14" s="29"/>
+      <c r="AJV14" s="29"/>
+      <c r="AJW14" s="29"/>
+      <c r="AJX14" s="29"/>
+      <c r="AJY14" s="29"/>
+      <c r="AJZ14" s="29"/>
+      <c r="AKA14" s="29"/>
+      <c r="AKB14" s="29"/>
+      <c r="AKC14" s="29"/>
+      <c r="AKD14" s="29"/>
+      <c r="AKE14" s="29"/>
+      <c r="AKF14" s="29"/>
+      <c r="AKG14" s="29"/>
+      <c r="AKH14" s="29"/>
+      <c r="AKI14" s="29"/>
+      <c r="AKJ14" s="29"/>
+      <c r="AKK14" s="29"/>
+      <c r="AKL14" s="29"/>
+      <c r="AKM14" s="29"/>
+      <c r="AKN14" s="29"/>
+      <c r="AKO14" s="29"/>
+      <c r="AKP14" s="29"/>
+      <c r="AKQ14" s="29"/>
+      <c r="AKR14" s="29"/>
+      <c r="AKS14" s="29"/>
+      <c r="AKT14" s="29"/>
+      <c r="AKU14" s="29"/>
+      <c r="AKV14" s="29"/>
+      <c r="AKW14" s="29"/>
+      <c r="AKX14" s="29"/>
+      <c r="AKY14" s="29"/>
+      <c r="AKZ14" s="29"/>
+      <c r="ALA14" s="29"/>
+      <c r="ALB14" s="29"/>
+      <c r="ALC14" s="29"/>
+      <c r="ALD14" s="29"/>
+      <c r="ALE14" s="29"/>
+      <c r="ALF14" s="29"/>
+      <c r="ALG14" s="29"/>
+      <c r="ALH14" s="29"/>
+      <c r="ALI14" s="29"/>
+      <c r="ALJ14" s="29"/>
+      <c r="ALK14" s="29"/>
+      <c r="ALL14" s="29"/>
+      <c r="ALM14" s="29"/>
+      <c r="ALN14" s="29"/>
+      <c r="ALO14" s="29"/>
+      <c r="ALP14" s="29"/>
+      <c r="ALQ14" s="29"/>
+      <c r="ALR14" s="29"/>
+      <c r="ALS14" s="29"/>
+      <c r="ALT14" s="29"/>
+      <c r="ALU14" s="29"/>
+      <c r="ALV14" s="29"/>
+      <c r="ALW14" s="29"/>
+      <c r="ALX14" s="29"/>
+      <c r="ALY14" s="29"/>
+      <c r="ALZ14" s="29"/>
+      <c r="AMA14" s="29"/>
+      <c r="AMB14" s="29"/>
+      <c r="AMC14" s="29"/>
+      <c r="AMD14" s="29"/>
+      <c r="AME14" s="29"/>
+      <c r="AMF14" s="29"/>
+      <c r="AMG14" s="29"/>
+      <c r="AMH14" s="29"/>
+      <c r="AMI14" s="29"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
@@ -3898,13 +3890,13 @@
       <c r="C15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="28" t="n">
+      <c r="F15" s="14" t="n">
         <v>156842</v>
       </c>
       <c r="G15" s="8" t="n">
@@ -3969,13 +3961,13 @@
       <c r="C16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="28" t="n">
+      <c r="F16" s="14" t="n">
         <v>157127</v>
       </c>
       <c r="G16" s="8" t="n">
@@ -4042,13 +4034,13 @@
       <c r="C17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="14" t="n">
         <v>311953</v>
       </c>
       <c r="G17" s="8" t="n">
@@ -4113,13 +4105,13 @@
       <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="28" t="n">
+      <c r="F18" s="14" t="n">
         <v>192626</v>
       </c>
       <c r="G18" s="2" t="n">
@@ -5171,13 +5163,13 @@
       <c r="C19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="28" t="n">
+      <c r="F19" s="14" t="n">
         <v>195139</v>
       </c>
       <c r="G19" s="1" t="n">
@@ -5227,13 +5219,13 @@
       <c r="C20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="28" t="n">
+      <c r="F20" s="14" t="n">
         <v>155187</v>
       </c>
       <c r="G20" s="1" t="n">
@@ -5283,13 +5275,13 @@
       <c r="C21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="28" t="n">
+      <c r="F21" s="14" t="n">
         <v>156952</v>
       </c>
       <c r="G21" s="1" t="n">
@@ -5339,13 +5331,13 @@
       <c r="C22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="28" t="n">
+      <c r="F22" s="14" t="n">
         <v>156959</v>
       </c>
       <c r="G22" s="1" t="n">
@@ -5395,13 +5387,13 @@
       <c r="C23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="28" t="n">
+      <c r="F23" s="14" t="n">
         <v>194484</v>
       </c>
       <c r="G23" s="1" t="n">
@@ -5451,13 +5443,13 @@
       <c r="C24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="28" t="n">
+      <c r="F24" s="14" t="n">
         <v>151885</v>
       </c>
       <c r="G24" s="1" t="n">
@@ -5512,13 +5504,13 @@
       <c r="C25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="28" t="n">
+      <c r="F25" s="14" t="n">
         <v>156764</v>
       </c>
       <c r="G25" s="8" t="n">
@@ -5573,13 +5565,13 @@
       <c r="C26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="28" t="n">
+      <c r="F26" s="14" t="n">
         <v>156809</v>
       </c>
       <c r="G26" s="8" t="n">
@@ -5634,13 +5626,13 @@
       <c r="C27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="28" t="n">
+      <c r="F27" s="14" t="n">
         <v>157271</v>
       </c>
       <c r="G27" s="2" t="n">
@@ -5695,13 +5687,13 @@
       <c r="C28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="28" t="n">
+      <c r="F28" s="14" t="n">
         <v>155742</v>
       </c>
       <c r="G28" s="1" t="n">
@@ -5756,13 +5748,13 @@
       <c r="C29" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>101</v>
       </c>
       <c r="E29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F29" s="28" t="n">
+      <c r="F29" s="14" t="n">
         <v>151835</v>
       </c>
       <c r="H29" s="1" t="n">
@@ -5814,13 +5806,13 @@
       <c r="C30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>103</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="28" t="n">
+      <c r="F30" s="14" t="n">
         <v>192832</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -5872,13 +5864,13 @@
       <c r="C31" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F31" s="28" t="n">
+      <c r="F31" s="14" t="n">
         <v>192643</v>
       </c>
       <c r="H31" s="1" t="n">
@@ -5930,13 +5922,13 @@
       <c r="C32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F32" s="28" t="n">
+      <c r="F32" s="14" t="n">
         <v>311954</v>
       </c>
       <c r="H32" s="1" t="n">
@@ -5988,13 +5980,13 @@
       <c r="C33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="28" t="n">
+      <c r="F33" s="14" t="n">
         <v>195287</v>
       </c>
       <c r="H33" s="1" t="n">
@@ -6046,13 +6038,13 @@
       <c r="C34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>111</v>
       </c>
       <c r="E34" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="28" t="n">
+      <c r="F34" s="14" t="n">
         <v>151886</v>
       </c>
       <c r="H34" s="1" t="n">
@@ -6104,13 +6096,13 @@
       <c r="C35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E35" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F35" s="28" t="n">
+      <c r="F35" s="14" t="n">
         <v>180478</v>
       </c>
       <c r="H35" s="1" t="n">
@@ -6162,13 +6154,13 @@
       <c r="C36" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E36" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F36" s="28" t="n">
+      <c r="F36" s="14" t="n">
         <v>179413</v>
       </c>
       <c r="H36" s="1" t="n">
@@ -6220,13 +6212,13 @@
       <c r="C37" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>117</v>
       </c>
       <c r="E37" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F37" s="28" t="n">
+      <c r="F37" s="14" t="n">
         <v>142306</v>
       </c>
       <c r="H37" s="1" t="n">
@@ -6278,13 +6270,13 @@
       <c r="C38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F38" s="28" t="n">
+      <c r="F38" s="14" t="n">
         <v>142300</v>
       </c>
       <c r="H38" s="1" t="n">
@@ -6336,13 +6328,13 @@
       <c r="C39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E39" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="28" t="n">
+      <c r="F39" s="14" t="n">
         <v>151157</v>
       </c>
       <c r="H39" s="1" t="n">
@@ -6394,13 +6386,13 @@
       <c r="C40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E40" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="28" t="n">
+      <c r="F40" s="14" t="n">
         <v>196958</v>
       </c>
       <c r="H40" s="1" t="n">
@@ -6452,13 +6444,13 @@
       <c r="C41" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>125</v>
       </c>
       <c r="E41" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="28" t="n">
+      <c r="F41" s="14" t="n">
         <v>142396</v>
       </c>
       <c r="H41" s="1" t="n">
@@ -6510,13 +6502,13 @@
       <c r="C42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>127</v>
       </c>
       <c r="E42" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="28" t="n">
+      <c r="F42" s="14" t="n">
         <v>137844</v>
       </c>
       <c r="H42" s="1" t="n">
@@ -6568,13 +6560,13 @@
       <c r="C43" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>129</v>
       </c>
       <c r="E43" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F43" s="28" t="n">
+      <c r="F43" s="14" t="n">
         <v>142153</v>
       </c>
       <c r="H43" s="1" t="n">

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2ED998-7B95-47FF-9598-6F610C02A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2805DF6-3E66-47AC-94B2-3F5E2FA42A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,9 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+      <selection pane="topRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1685,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="33">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M12" s="24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N12" s="19">
         <v>23</v>
@@ -2749,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N13" s="1">
         <v>23</v>
@@ -2817,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
         <v>23</v>
@@ -3881,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N15" s="1">
         <v>23</v>
@@ -3940,7 +3940,7 @@
         <v>269143</v>
       </c>
       <c r="H16" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I16" s="17">
         <v>90</v>
@@ -3952,10 +3952,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N16" s="1">
         <v>23</v>
@@ -4016,7 +4016,7 @@
         <v>500</v>
       </c>
       <c r="I17" s="17">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J17" s="11">
         <v>107535</v>
@@ -4025,10 +4025,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N17" s="1">
         <v>23</v>
@@ -4084,7 +4084,7 @@
         <v>285336</v>
       </c>
       <c r="H18" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="17">
         <v>75</v>
@@ -4096,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N18" s="1">
         <v>23</v>
@@ -5162,10 +5162,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N19" s="1">
         <v>23</v>
@@ -5227,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N20" s="1">
         <v>23</v>
@@ -5280,7 +5280,7 @@
         <v>268725</v>
       </c>
       <c r="H21" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I21" s="17">
         <v>90</v>
@@ -5292,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N21" s="1">
         <v>23</v>
@@ -5348,7 +5348,7 @@
         <v>500</v>
       </c>
       <c r="I22" s="17">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J22" s="11">
         <v>107535</v>
@@ -5357,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N22" s="1">
         <v>23</v>
@@ -5410,7 +5410,7 @@
         <v>268562</v>
       </c>
       <c r="H23" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="17">
         <v>75</v>
@@ -5422,10 +5422,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N23" s="1">
         <v>23</v>
@@ -5490,10 +5490,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N24" s="1">
         <v>23</v>
@@ -5548,7 +5548,7 @@
         <v>284926</v>
       </c>
       <c r="H25" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I25" s="17">
         <v>90</v>
@@ -5560,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N25" s="1">
         <v>23</v>
@@ -5621,7 +5621,7 @@
         <v>500</v>
       </c>
       <c r="I26" s="17">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J26" s="11">
         <v>107535</v>
@@ -5630,10 +5630,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N26" s="1">
         <v>23</v>
@@ -5688,7 +5688,7 @@
         <v>285336</v>
       </c>
       <c r="H27" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I27" s="17">
         <v>75</v>
@@ -5700,10 +5700,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N27" s="1">
         <v>23</v>
@@ -5773,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N28" s="1">
         <v>23</v>
@@ -5841,10 +5841,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N29" s="1">
         <v>23</v>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I30" s="17">
         <v>75</v>
@@ -5909,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N30" s="1">
         <v>23</v>
@@ -5977,10 +5977,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N31" s="1">
         <v>23</v>
@@ -6045,10 +6045,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N32" s="1">
         <v>23</v>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="17">
         <v>90</v>
@@ -6113,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N33" s="1">
         <v>23</v>
@@ -6181,10 +6181,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N34" s="1">
         <v>23</v>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I35" s="17">
         <v>90</v>
@@ -6249,10 +6249,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N35" s="1">
         <v>23</v>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I36" s="17">
         <v>75</v>
@@ -6317,10 +6317,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N36" s="1">
         <v>23</v>
@@ -6388,10 +6388,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N37" s="1">
         <v>23</v>
@@ -6456,10 +6456,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N38" s="1">
         <v>23</v>
@@ -6524,10 +6524,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N39" s="1">
         <v>23</v>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I40" s="17">
         <v>75</v>
@@ -6592,10 +6592,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N40" s="1">
         <v>23</v>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I41" s="17">
         <v>90</v>
@@ -6660,10 +6660,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="17">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="N41" s="1">
         <v>23</v>
@@ -6728,10 +6728,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N42" s="1">
         <v>23</v>
@@ -6790,7 +6790,7 @@
         <v>500</v>
       </c>
       <c r="I43" s="17">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J43" s="11">
         <v>107535</v>
@@ -6799,10 +6799,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="17">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N43" s="1">
         <v>23</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -487,7 +487,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,13 +503,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF5429"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5429"/>
+        <bgColor rgb="FFFF4000"/>
       </patternFill>
     </fill>
   </fills>
@@ -561,7 +567,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,6 +720,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +737,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -770,7 +780,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF5429"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -900,9 +910,9 @@
   <dimension ref="A1:AMI376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D19" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" ySplit="0" topLeftCell="N19" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="topRight" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="topRight" activeCell="S40" activeCellId="0" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4985,8 +4995,8 @@
       <c r="G31" s="2" t="n">
         <v>281015</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>600</v>
+      <c r="H31" s="38" t="n">
+        <v>300</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>105</v>
@@ -5024,11 +5034,11 @@
       <c r="T31" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U31" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="V31" s="2" t="n">
-        <v>50</v>
+      <c r="U31" s="38" t="n">
+        <v>100</v>
+      </c>
+      <c r="V31" s="38" t="n">
+        <v>0</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Z31" s="10"/>
@@ -5052,8 +5062,8 @@
       <c r="G32" s="2" t="n">
         <v>281015</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>700</v>
+      <c r="H32" s="38" t="n">
+        <v>500</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>105</v>
@@ -5091,11 +5101,11 @@
       <c r="T32" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U32" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="V32" s="2" t="n">
-        <v>50</v>
+      <c r="U32" s="38" t="n">
+        <v>200</v>
+      </c>
+      <c r="V32" s="38" t="n">
+        <v>0</v>
       </c>
       <c r="X32" s="10"/>
       <c r="Z32" s="10"/>
@@ -5630,11 +5640,11 @@
       <c r="T40" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U40" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="V40" s="2" t="n">
-        <v>100</v>
+      <c r="U40" s="38" t="n">
+        <v>200</v>
+      </c>
+      <c r="V40" s="38" t="n">
+        <v>200</v>
       </c>
       <c r="X40" s="10"/>
       <c r="Z40" s="10"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -909,10 +909,10 @@
   </sheetPr>
   <dimension ref="A1:AMI376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="N19" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="topRight" activeCell="S40" activeCellId="0" sqref="S40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D16" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topRight" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -909,10 +909,10 @@
   </sheetPr>
   <dimension ref="A1:AMI376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D16" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="topRight" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2859,7 +2859,7 @@
         <v>285174</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>105</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -487,7 +487,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF4000"/>
       </patternFill>
     </fill>
     <fill>
@@ -567,7 +573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,11 +722,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,7 +747,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -787,7 +797,7 @@
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -912,7 +922,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topRight" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3961,11 +3971,11 @@
       <c r="T15" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U15" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>70</v>
+      <c r="U15" s="37" t="n">
+        <v>30</v>
+      </c>
+      <c r="V15" s="37" t="n">
+        <v>140</v>
       </c>
       <c r="X15" s="16"/>
       <c r="Z15" s="16"/>
@@ -4029,11 +4039,11 @@
       <c r="T16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U16" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>100</v>
+      <c r="U16" s="37" t="n">
+        <v>50</v>
+      </c>
+      <c r="V16" s="37" t="n">
+        <v>200</v>
       </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="17"/>
@@ -4172,7 +4182,7 @@
       <c r="V18" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="W18" s="37" t="n">
+      <c r="W18" s="38" t="n">
         <v>5001</v>
       </c>
     </row>
@@ -4500,7 +4510,7 @@
       <c r="V23" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="W23" s="37" t="n">
+      <c r="W23" s="38" t="n">
         <v>5002</v>
       </c>
     </row>
@@ -4769,7 +4779,7 @@
       <c r="V27" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="W27" s="37" t="n">
+      <c r="W27" s="38" t="n">
         <v>5003</v>
       </c>
       <c r="X27" s="10"/>
@@ -4995,7 +5005,7 @@
       <c r="G31" s="2" t="n">
         <v>281015</v>
       </c>
-      <c r="H31" s="38" t="n">
+      <c r="H31" s="39" t="n">
         <v>300</v>
       </c>
       <c r="I31" s="2" t="n">
@@ -5034,10 +5044,10 @@
       <c r="T31" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U31" s="38" t="n">
+      <c r="U31" s="39" t="n">
         <v>100</v>
       </c>
-      <c r="V31" s="38" t="n">
+      <c r="V31" s="39" t="n">
         <v>0</v>
       </c>
       <c r="X31" s="10"/>
@@ -5062,7 +5072,7 @@
       <c r="G32" s="2" t="n">
         <v>281015</v>
       </c>
-      <c r="H32" s="38" t="n">
+      <c r="H32" s="39" t="n">
         <v>500</v>
       </c>
       <c r="I32" s="2" t="n">
@@ -5101,10 +5111,10 @@
       <c r="T32" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U32" s="38" t="n">
+      <c r="U32" s="39" t="n">
         <v>200</v>
       </c>
-      <c r="V32" s="38" t="n">
+      <c r="V32" s="39" t="n">
         <v>0</v>
       </c>
       <c r="X32" s="10"/>
@@ -5375,7 +5385,7 @@
       <c r="V36" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="W36" s="37" t="n">
+      <c r="W36" s="38" t="n">
         <v>5002</v>
       </c>
       <c r="X36" s="10"/>
@@ -5640,10 +5650,10 @@
       <c r="T40" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U40" s="38" t="n">
+      <c r="U40" s="39" t="n">
         <v>200</v>
       </c>
-      <c r="V40" s="38" t="n">
+      <c r="V40" s="39" t="n">
         <v>200</v>
       </c>
       <c r="X40" s="10"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -919,10 +919,10 @@
   </sheetPr>
   <dimension ref="A1:AMI376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4003,8 +4003,8 @@
       <c r="H16" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>90</v>
+      <c r="I16" s="37" t="n">
+        <v>45</v>
       </c>
       <c r="J16" s="13" t="n">
         <v>107535</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -919,10 +919,10 @@
   </sheetPr>
   <dimension ref="A1:AMI376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D4" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="topRight" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D10" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="D25" activeCellId="0" sqref="25:25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4639,11 +4639,11 @@
       <c r="T25" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U25" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="V25" s="2" t="n">
-        <v>70</v>
+      <c r="U25" s="26" t="n">
+        <v>150</v>
+      </c>
+      <c r="V25" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Z25" s="10"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -922,7 +922,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D10" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="D25" activeCellId="0" sqref="25:25"/>
+      <selection pane="topRight" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4737,8 +4737,8 @@
       <c r="H27" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="I27" s="2" t="n">
-        <v>75</v>
+      <c r="I27" s="37" t="n">
+        <v>50</v>
       </c>
       <c r="J27" s="13" t="n">
         <v>107535</v>
@@ -5276,8 +5276,8 @@
       <c r="H35" s="2" t="n">
         <v>1200</v>
       </c>
-      <c r="I35" s="2" t="n">
-        <v>90</v>
+      <c r="I35" s="37" t="n">
+        <v>30</v>
       </c>
       <c r="J35" s="13" t="n">
         <v>107535</v>
@@ -5312,11 +5312,11 @@
       <c r="T35" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U35" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="V35" s="2" t="n">
-        <v>70</v>
+      <c r="U35" s="37" t="n">
+        <v>300</v>
+      </c>
+      <c r="V35" s="37" t="n">
+        <v>30</v>
       </c>
       <c r="X35" s="10"/>
       <c r="Z35" s="10"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -919,10 +919,10 @@
   </sheetPr>
   <dimension ref="A1:AMI376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D10" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="D35" activeCellId="0" sqref="35:35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5449,11 +5449,11 @@
       <c r="T37" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U37" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="V37" s="2" t="n">
-        <v>50</v>
+      <c r="U37" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="37" t="n">
+        <v>45</v>
       </c>
       <c r="X37" s="10"/>
       <c r="Z37" s="10"/>
@@ -5480,8 +5480,8 @@
       <c r="H38" s="2" t="n">
         <v>700</v>
       </c>
-      <c r="I38" s="2" t="n">
-        <v>105</v>
+      <c r="I38" s="37" t="n">
+        <v>90</v>
       </c>
       <c r="J38" s="13" t="n">
         <v>107535</v>
@@ -5516,11 +5516,11 @@
       <c r="T38" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="U38" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="V38" s="2" t="n">
-        <v>50</v>
+      <c r="U38" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" s="37" t="n">
+        <v>90</v>
       </c>
       <c r="X38" s="10"/>
       <c r="Z38" s="10"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView windowWidth="20640" windowHeight="13571" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="190">
   <si>
     <t>int</t>
   </si>
@@ -429,7 +432,175 @@
     <t>Monster_name_39</t>
   </si>
   <si>
-    <t>绷带耿鬼</t>
+    <t>绷带鬼</t>
+  </si>
+  <si>
+    <t>Monster_name_40</t>
+  </si>
+  <si>
+    <t>粉木乃伊</t>
+  </si>
+  <si>
+    <t>Monster_name_41</t>
+  </si>
+  <si>
+    <t>牛角石头人</t>
+  </si>
+  <si>
+    <t>Monster_name_42</t>
+  </si>
+  <si>
+    <t>三头犬</t>
+  </si>
+  <si>
+    <t>Monster_name_43</t>
+  </si>
+  <si>
+    <t>多目傀儡</t>
+  </si>
+  <si>
+    <t>Monster_name_44</t>
+  </si>
+  <si>
+    <t>火焰人</t>
+  </si>
+  <si>
+    <t>Monster_name_45</t>
+  </si>
+  <si>
+    <t>蓝色小龙</t>
+  </si>
+  <si>
+    <t>Monster_name_46</t>
+  </si>
+  <si>
+    <t>睡衣怪</t>
+  </si>
+  <si>
+    <t>Monster_name_47</t>
+  </si>
+  <si>
+    <t>柴犬</t>
+  </si>
+  <si>
+    <t>Monster_name_48</t>
+  </si>
+  <si>
+    <t>僵尸道长</t>
+  </si>
+  <si>
+    <t>Monster_name_49</t>
+  </si>
+  <si>
+    <t>乌鸦哥</t>
+  </si>
+  <si>
+    <t>Monster_name_50</t>
+  </si>
+  <si>
+    <t>猪头人</t>
+  </si>
+  <si>
+    <t>Monster_name_51</t>
+  </si>
+  <si>
+    <t>面具废土人</t>
+  </si>
+  <si>
+    <t>Monster_name_52</t>
+  </si>
+  <si>
+    <t>雪人</t>
+  </si>
+  <si>
+    <t>Monster_name_53</t>
+  </si>
+  <si>
+    <t>呕吐怪</t>
+  </si>
+  <si>
+    <t>Monster_name_54</t>
+  </si>
+  <si>
+    <t>海盗哥</t>
+  </si>
+  <si>
+    <t>Monster_name_55</t>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+  </si>
+  <si>
+    <t>Monster_name_56</t>
+  </si>
+  <si>
+    <t>白色南瓜</t>
+  </si>
+  <si>
+    <t>Monster_name_57</t>
+  </si>
+  <si>
+    <t>金人</t>
+  </si>
+  <si>
+    <t>Monster_name_58</t>
+  </si>
+  <si>
+    <t>护士姐姐</t>
+  </si>
+  <si>
+    <t>Monster_name_59</t>
+  </si>
+  <si>
+    <t>绿鬼</t>
+  </si>
+  <si>
+    <t>Monster_name_60</t>
+  </si>
+  <si>
+    <t>钩子</t>
+  </si>
+  <si>
+    <t>Monster_name_61</t>
+  </si>
+  <si>
+    <t>水史莱姆</t>
+  </si>
+  <si>
+    <t>Monster_name_62</t>
+  </si>
+  <si>
+    <t>岩浆史莱姆</t>
+  </si>
+  <si>
+    <t>Monster_name_63</t>
+  </si>
+  <si>
+    <t>水枪猫</t>
+  </si>
+  <si>
+    <t>Monster_name_64</t>
+  </si>
+  <si>
+    <t>沙漠猫</t>
+  </si>
+  <si>
+    <t>Monster_name_65</t>
+  </si>
+  <si>
+    <t>太阳神</t>
+  </si>
+  <si>
+    <t>Monster_name_66</t>
+  </si>
+  <si>
+    <t>熊人</t>
+  </si>
+  <si>
+    <t>Monster_name_67</t>
+  </si>
+  <si>
+    <t>光兔子</t>
   </si>
 </sst>
 </file>
@@ -437,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -479,8 +650,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -493,7 +664,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -501,21 +672,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -523,7 +694,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -531,7 +702,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -539,7 +710,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -547,7 +718,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -555,14 +726,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -570,7 +741,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +749,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -586,14 +757,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -601,47 +772,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="DejaVu Sans"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +847,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5429"/>
         <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -865,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -885,6 +1062,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,7 +1203,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,119 +1215,119 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1188,9 +1380,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1216,8 +1405,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1228,10 +1451,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1240,57 +1476,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1693,33 +1935,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ376"/>
+  <dimension ref="A1:AMJ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T37" sqref="T37"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.8583333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.9" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.8666666666667" style="4" customWidth="1"/>
-    <col min="4" max="7" width="10" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.8" style="4" customWidth="1"/>
+    <col min="6" max="7" width="10" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.3916666666667" style="5" customWidth="1"/>
     <col min="9" max="10" width="7.50833333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.6333333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.5083333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.1333333333333" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.8583333333333" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.6" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.6" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.6" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.75" style="4" customWidth="1"/>
     <col min="16" max="16" width="21" style="4" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="4" customWidth="1"/>
     <col min="18" max="18" width="17.3916666666667" style="4" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="4" customWidth="1"/>
-    <col min="20" max="20" width="17.3916666666667" style="4" customWidth="1"/>
-    <col min="21" max="21" width="17.5" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.5333333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.9333333333333" style="4" customWidth="1"/>
     <col min="22" max="22" width="11" style="5"/>
     <col min="23" max="23" width="15.6166666666667" style="5" customWidth="1"/>
     <col min="24" max="24" width="23.1416666666667" style="4" customWidth="1"/>
@@ -1800,7 +2044,7 @@
       <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="37"/>
+      <c r="Y1" s="53"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
@@ -1890,7 +2134,7 @@
       <c r="X2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="37"/>
+      <c r="Y2" s="53"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -1935,7 +2179,7 @@
       <c r="I3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="41" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -1977,10 +2221,10 @@
       <c r="W3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="37"/>
+      <c r="Y3" s="53"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -2011,7 +2255,7 @@
       <c r="Y4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row r="5" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A5" s="10">
         <v>1001</v>
       </c>
@@ -2039,13 +2283,13 @@
       <c r="J5" s="5">
         <v>105</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <v>107535</v>
       </c>
-      <c r="L5" s="31">
-        <v>1</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="L5" s="42">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23">
         <v>5</v>
       </c>
       <c r="N5" s="1">
@@ -2063,11 +2307,11 @@
       <c r="R5" s="1">
         <v>0.3</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="52">
         <v>285139</v>
       </c>
       <c r="T5" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
@@ -2078,16 +2322,16 @@
       <c r="W5" s="5">
         <v>200</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="42">
         <v>5002</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38"/>
-      <c r="AD5" s="39"/>
-      <c r="AG5" s="39"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:27">
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="54"/>
+      <c r="AD5" s="55"/>
+      <c r="AG5" s="55"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A6" s="10">
         <v>1002</v>
       </c>
@@ -2118,10 +2362,10 @@
       <c r="J6" s="5">
         <v>200</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <v>107535</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="42">
         <v>1</v>
       </c>
       <c r="M6" s="5">
@@ -2142,11 +2386,11 @@
       <c r="R6" s="1">
         <v>0.3</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="52">
         <v>285139</v>
       </c>
       <c r="T6" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
@@ -2157,10 +2401,11 @@
       <c r="W6" s="5">
         <v>200</v>
       </c>
-      <c r="Y6" s="38"/>
-      <c r="AA6" s="38"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+      <c r="X6" s="42"/>
+      <c r="Y6" s="54"/>
+      <c r="AA6" s="54"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A7" s="10">
         <v>1003</v>
       </c>
@@ -2191,13 +2436,13 @@
       <c r="J7" s="5">
         <v>75</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="30">
         <v>107535</v>
       </c>
-      <c r="L7" s="31">
-        <v>1</v>
-      </c>
-      <c r="M7" s="24">
+      <c r="L7" s="42">
+        <v>1</v>
+      </c>
+      <c r="M7" s="23">
         <v>100</v>
       </c>
       <c r="N7" s="1">
@@ -2209,15 +2454,17 @@
       <c r="P7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="13">
+        <v>97861</v>
+      </c>
       <c r="R7" s="1">
         <v>0.3</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="52">
         <v>20291</v>
       </c>
       <c r="T7" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>3</v>
@@ -2228,13 +2475,14 @@
       <c r="W7" s="5">
         <v>200</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="38"/>
-      <c r="AD7" s="39"/>
-      <c r="AG7" s="39"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:27">
+      <c r="X7" s="42"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="54"/>
+      <c r="AD7" s="55"/>
+      <c r="AG7" s="55"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A8" s="10">
         <v>1004</v>
       </c>
@@ -2265,10 +2513,10 @@
       <c r="J8" s="5">
         <v>150</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <v>107535</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="42">
         <v>1</v>
       </c>
       <c r="M8" s="5">
@@ -2289,11 +2537,11 @@
       <c r="R8" s="1">
         <v>0.3</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>285395</v>
       </c>
       <c r="T8" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>3</v>
@@ -2304,10 +2552,11 @@
       <c r="W8" s="5">
         <v>200</v>
       </c>
-      <c r="Y8" s="38"/>
-      <c r="AA8" s="38"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:27">
+      <c r="X8" s="42"/>
+      <c r="Y8" s="54"/>
+      <c r="AA8" s="54"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A9" s="10">
         <v>1005</v>
       </c>
@@ -2338,10 +2587,10 @@
       <c r="J9" s="5">
         <v>150</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="30">
         <v>107535</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="42">
         <v>1</v>
       </c>
       <c r="M9" s="5">
@@ -2362,11 +2611,11 @@
       <c r="R9" s="1">
         <v>0.3</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="52">
         <v>285139</v>
       </c>
       <c r="T9" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U9" s="1">
         <v>3</v>
@@ -2377,10 +2626,11 @@
       <c r="W9" s="5">
         <v>200</v>
       </c>
-      <c r="Y9" s="38"/>
-      <c r="AA9" s="38"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:27">
+      <c r="X9" s="42"/>
+      <c r="Y9" s="54"/>
+      <c r="AA9" s="54"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A10" s="10">
         <v>1006</v>
       </c>
@@ -2411,10 +2661,10 @@
       <c r="J10" s="5">
         <v>75</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="30">
         <v>107535</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="42">
         <v>1</v>
       </c>
       <c r="M10" s="5">
@@ -2435,11 +2685,11 @@
       <c r="R10" s="1">
         <v>0.3</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="52">
         <v>285139</v>
       </c>
       <c r="T10" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U10" s="1">
         <v>3</v>
@@ -2450,10 +2700,11 @@
       <c r="W10" s="5">
         <v>200</v>
       </c>
-      <c r="Y10" s="38"/>
-      <c r="AA10" s="38"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="42"/>
+      <c r="Y10" s="54"/>
+      <c r="AA10" s="54"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2485,7 +2736,7 @@
       <c r="K11" s="5">
         <v>107535</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>1</v>
       </c>
       <c r="M11" s="5">
@@ -2506,11 +2757,11 @@
       <c r="R11" s="1">
         <v>0.3</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>281693</v>
       </c>
       <c r="T11" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U11" s="1">
         <v>3</v>
@@ -2521,6 +2772,7 @@
       <c r="W11" s="5">
         <v>200</v>
       </c>
+      <c r="X11" s="42"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:1024">
       <c r="A12" s="17">
@@ -2542,22 +2794,22 @@
       <c r="G12" s="21">
         <v>1</v>
       </c>
-      <c r="H12" s="22">
-        <v>268562</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="5">
+        <v>281015</v>
+      </c>
+      <c r="I12" s="43">
         <v>500</v>
       </c>
       <c r="J12" s="5">
         <v>105</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="44">
         <v>107535</v>
       </c>
       <c r="L12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="43">
         <v>5</v>
       </c>
       <c r="N12" s="2">
@@ -2578,19 +2830,19 @@
       <c r="S12" s="18">
         <v>281693</v>
       </c>
-      <c r="T12" s="1">
-        <v>0.9</v>
+      <c r="T12" s="17">
+        <v>1.5</v>
       </c>
       <c r="U12" s="17">
         <v>3</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="43">
         <v>30</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="43">
         <v>30</v>
       </c>
-      <c r="X12" s="18"/>
+      <c r="X12" s="42"/>
       <c r="Z12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
@@ -3590,14 +3842,14 @@
       <c r="AMI12" s="18"/>
       <c r="AMJ12" s="18"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="1">
@@ -3609,7 +3861,7 @@
       <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>122498</v>
       </c>
       <c r="I13" s="5">
@@ -3618,7 +3870,7 @@
       <c r="J13" s="5">
         <v>105</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="30">
         <v>107535</v>
       </c>
       <c r="L13" s="4">
@@ -3646,7 +3898,7 @@
         <v>281693</v>
       </c>
       <c r="T13" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U13" s="1">
         <v>3</v>
@@ -3657,30 +3909,31 @@
       <c r="W13" s="5">
         <v>50</v>
       </c>
+      <c r="X13" s="42"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:1024">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>1010</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>2</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="28">
         <v>183662</v>
       </c>
-      <c r="G14" s="29">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="G14" s="28">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
         <v>285174</v>
       </c>
       <c r="I14" s="5">
@@ -3689,7 +3942,7 @@
       <c r="J14" s="5">
         <v>105</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="30">
         <v>107535</v>
       </c>
       <c r="L14" s="4">
@@ -3717,7 +3970,7 @@
         <v>281693</v>
       </c>
       <c r="T14" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U14" s="1">
         <v>3</v>
@@ -3728,1014 +3981,1014 @@
       <c r="W14" s="5">
         <v>50</v>
       </c>
-      <c r="X14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
-      <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
-      <c r="AW14" s="26"/>
-      <c r="AX14" s="26"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
-      <c r="BA14" s="26"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="26"/>
-      <c r="BD14" s="26"/>
-      <c r="BE14" s="26"/>
-      <c r="BF14" s="26"/>
-      <c r="BG14" s="26"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="26"/>
-      <c r="BL14" s="26"/>
-      <c r="BM14" s="26"/>
-      <c r="BN14" s="26"/>
-      <c r="BO14" s="26"/>
-      <c r="BP14" s="26"/>
-      <c r="BQ14" s="26"/>
-      <c r="BR14" s="26"/>
-      <c r="BS14" s="26"/>
-      <c r="BT14" s="26"/>
-      <c r="BU14" s="26"/>
-      <c r="BV14" s="26"/>
-      <c r="BW14" s="26"/>
-      <c r="BX14" s="26"/>
-      <c r="BY14" s="26"/>
-      <c r="BZ14" s="26"/>
-      <c r="CA14" s="26"/>
-      <c r="CB14" s="26"/>
-      <c r="CC14" s="26"/>
-      <c r="CD14" s="26"/>
-      <c r="CE14" s="26"/>
-      <c r="CF14" s="26"/>
-      <c r="CG14" s="26"/>
-      <c r="CH14" s="26"/>
-      <c r="CI14" s="26"/>
-      <c r="CJ14" s="26"/>
-      <c r="CK14" s="26"/>
-      <c r="CL14" s="26"/>
-      <c r="CM14" s="26"/>
-      <c r="CN14" s="26"/>
-      <c r="CO14" s="26"/>
-      <c r="CP14" s="26"/>
-      <c r="CQ14" s="26"/>
-      <c r="CR14" s="26"/>
-      <c r="CS14" s="26"/>
-      <c r="CT14" s="26"/>
-      <c r="CU14" s="26"/>
-      <c r="CV14" s="26"/>
-      <c r="CW14" s="26"/>
-      <c r="CX14" s="26"/>
-      <c r="CY14" s="26"/>
-      <c r="CZ14" s="26"/>
-      <c r="DA14" s="26"/>
-      <c r="DB14" s="26"/>
-      <c r="DC14" s="26"/>
-      <c r="DD14" s="26"/>
-      <c r="DE14" s="26"/>
-      <c r="DF14" s="26"/>
-      <c r="DG14" s="26"/>
-      <c r="DH14" s="26"/>
-      <c r="DI14" s="26"/>
-      <c r="DJ14" s="26"/>
-      <c r="DK14" s="26"/>
-      <c r="DL14" s="26"/>
-      <c r="DM14" s="26"/>
-      <c r="DN14" s="26"/>
-      <c r="DO14" s="26"/>
-      <c r="DP14" s="26"/>
-      <c r="DQ14" s="26"/>
-      <c r="DR14" s="26"/>
-      <c r="DS14" s="26"/>
-      <c r="DT14" s="26"/>
-      <c r="DU14" s="26"/>
-      <c r="DV14" s="26"/>
-      <c r="DW14" s="26"/>
-      <c r="DX14" s="26"/>
-      <c r="DY14" s="26"/>
-      <c r="DZ14" s="26"/>
-      <c r="EA14" s="26"/>
-      <c r="EB14" s="26"/>
-      <c r="EC14" s="26"/>
-      <c r="ED14" s="26"/>
-      <c r="EE14" s="26"/>
-      <c r="EF14" s="26"/>
-      <c r="EG14" s="26"/>
-      <c r="EH14" s="26"/>
-      <c r="EI14" s="26"/>
-      <c r="EJ14" s="26"/>
-      <c r="EK14" s="26"/>
-      <c r="EL14" s="26"/>
-      <c r="EM14" s="26"/>
-      <c r="EN14" s="26"/>
-      <c r="EO14" s="26"/>
-      <c r="EP14" s="26"/>
-      <c r="EQ14" s="26"/>
-      <c r="ER14" s="26"/>
-      <c r="ES14" s="26"/>
-      <c r="ET14" s="26"/>
-      <c r="EU14" s="26"/>
-      <c r="EV14" s="26"/>
-      <c r="EW14" s="26"/>
-      <c r="EX14" s="26"/>
-      <c r="EY14" s="26"/>
-      <c r="EZ14" s="26"/>
-      <c r="FA14" s="26"/>
-      <c r="FB14" s="26"/>
-      <c r="FC14" s="26"/>
-      <c r="FD14" s="26"/>
-      <c r="FE14" s="26"/>
-      <c r="FF14" s="26"/>
-      <c r="FG14" s="26"/>
-      <c r="FH14" s="26"/>
-      <c r="FI14" s="26"/>
-      <c r="FJ14" s="26"/>
-      <c r="FK14" s="26"/>
-      <c r="FL14" s="26"/>
-      <c r="FM14" s="26"/>
-      <c r="FN14" s="26"/>
-      <c r="FO14" s="26"/>
-      <c r="FP14" s="26"/>
-      <c r="FQ14" s="26"/>
-      <c r="FR14" s="26"/>
-      <c r="FS14" s="26"/>
-      <c r="FT14" s="26"/>
-      <c r="FU14" s="26"/>
-      <c r="FV14" s="26"/>
-      <c r="FW14" s="26"/>
-      <c r="FX14" s="26"/>
-      <c r="FY14" s="26"/>
-      <c r="FZ14" s="26"/>
-      <c r="GA14" s="26"/>
-      <c r="GB14" s="26"/>
-      <c r="GC14" s="26"/>
-      <c r="GD14" s="26"/>
-      <c r="GE14" s="26"/>
-      <c r="GF14" s="26"/>
-      <c r="GG14" s="26"/>
-      <c r="GH14" s="26"/>
-      <c r="GI14" s="26"/>
-      <c r="GJ14" s="26"/>
-      <c r="GK14" s="26"/>
-      <c r="GL14" s="26"/>
-      <c r="GM14" s="26"/>
-      <c r="GN14" s="26"/>
-      <c r="GO14" s="26"/>
-      <c r="GP14" s="26"/>
-      <c r="GQ14" s="26"/>
-      <c r="GR14" s="26"/>
-      <c r="GS14" s="26"/>
-      <c r="GT14" s="26"/>
-      <c r="GU14" s="26"/>
-      <c r="GV14" s="26"/>
-      <c r="GW14" s="26"/>
-      <c r="GX14" s="26"/>
-      <c r="GY14" s="26"/>
-      <c r="GZ14" s="26"/>
-      <c r="HA14" s="26"/>
-      <c r="HB14" s="26"/>
-      <c r="HC14" s="26"/>
-      <c r="HD14" s="26"/>
-      <c r="HE14" s="26"/>
-      <c r="HF14" s="26"/>
-      <c r="HG14" s="26"/>
-      <c r="HH14" s="26"/>
-      <c r="HI14" s="26"/>
-      <c r="HJ14" s="26"/>
-      <c r="HK14" s="26"/>
-      <c r="HL14" s="26"/>
-      <c r="HM14" s="26"/>
-      <c r="HN14" s="26"/>
-      <c r="HO14" s="26"/>
-      <c r="HP14" s="26"/>
-      <c r="HQ14" s="26"/>
-      <c r="HR14" s="26"/>
-      <c r="HS14" s="26"/>
-      <c r="HT14" s="26"/>
-      <c r="HU14" s="26"/>
-      <c r="HV14" s="26"/>
-      <c r="HW14" s="26"/>
-      <c r="HX14" s="26"/>
-      <c r="HY14" s="26"/>
-      <c r="HZ14" s="26"/>
-      <c r="IA14" s="26"/>
-      <c r="IB14" s="26"/>
-      <c r="IC14" s="26"/>
-      <c r="ID14" s="26"/>
-      <c r="IE14" s="26"/>
-      <c r="IF14" s="26"/>
-      <c r="IG14" s="26"/>
-      <c r="IH14" s="26"/>
-      <c r="II14" s="26"/>
-      <c r="IJ14" s="26"/>
-      <c r="IK14" s="26"/>
-      <c r="IL14" s="26"/>
-      <c r="IM14" s="26"/>
-      <c r="IN14" s="26"/>
-      <c r="IO14" s="26"/>
-      <c r="IP14" s="26"/>
-      <c r="IQ14" s="26"/>
-      <c r="IR14" s="26"/>
-      <c r="IS14" s="26"/>
-      <c r="IT14" s="26"/>
-      <c r="IU14" s="26"/>
-      <c r="IV14" s="26"/>
-      <c r="IW14" s="26"/>
-      <c r="IX14" s="26"/>
-      <c r="IY14" s="26"/>
-      <c r="IZ14" s="26"/>
-      <c r="JA14" s="26"/>
-      <c r="JB14" s="26"/>
-      <c r="JC14" s="26"/>
-      <c r="JD14" s="26"/>
-      <c r="JE14" s="26"/>
-      <c r="JF14" s="26"/>
-      <c r="JG14" s="26"/>
-      <c r="JH14" s="26"/>
-      <c r="JI14" s="26"/>
-      <c r="JJ14" s="26"/>
-      <c r="JK14" s="26"/>
-      <c r="JL14" s="26"/>
-      <c r="JM14" s="26"/>
-      <c r="JN14" s="26"/>
-      <c r="JO14" s="26"/>
-      <c r="JP14" s="26"/>
-      <c r="JQ14" s="26"/>
-      <c r="JR14" s="26"/>
-      <c r="JS14" s="26"/>
-      <c r="JT14" s="26"/>
-      <c r="JU14" s="26"/>
-      <c r="JV14" s="26"/>
-      <c r="JW14" s="26"/>
-      <c r="JX14" s="26"/>
-      <c r="JY14" s="26"/>
-      <c r="JZ14" s="26"/>
-      <c r="KA14" s="26"/>
-      <c r="KB14" s="26"/>
-      <c r="KC14" s="26"/>
-      <c r="KD14" s="26"/>
-      <c r="KE14" s="26"/>
-      <c r="KF14" s="26"/>
-      <c r="KG14" s="26"/>
-      <c r="KH14" s="26"/>
-      <c r="KI14" s="26"/>
-      <c r="KJ14" s="26"/>
-      <c r="KK14" s="26"/>
-      <c r="KL14" s="26"/>
-      <c r="KM14" s="26"/>
-      <c r="KN14" s="26"/>
-      <c r="KO14" s="26"/>
-      <c r="KP14" s="26"/>
-      <c r="KQ14" s="26"/>
-      <c r="KR14" s="26"/>
-      <c r="KS14" s="26"/>
-      <c r="KT14" s="26"/>
-      <c r="KU14" s="26"/>
-      <c r="KV14" s="26"/>
-      <c r="KW14" s="26"/>
-      <c r="KX14" s="26"/>
-      <c r="KY14" s="26"/>
-      <c r="KZ14" s="26"/>
-      <c r="LA14" s="26"/>
-      <c r="LB14" s="26"/>
-      <c r="LC14" s="26"/>
-      <c r="LD14" s="26"/>
-      <c r="LE14" s="26"/>
-      <c r="LF14" s="26"/>
-      <c r="LG14" s="26"/>
-      <c r="LH14" s="26"/>
-      <c r="LI14" s="26"/>
-      <c r="LJ14" s="26"/>
-      <c r="LK14" s="26"/>
-      <c r="LL14" s="26"/>
-      <c r="LM14" s="26"/>
-      <c r="LN14" s="26"/>
-      <c r="LO14" s="26"/>
-      <c r="LP14" s="26"/>
-      <c r="LQ14" s="26"/>
-      <c r="LR14" s="26"/>
-      <c r="LS14" s="26"/>
-      <c r="LT14" s="26"/>
-      <c r="LU14" s="26"/>
-      <c r="LV14" s="26"/>
-      <c r="LW14" s="26"/>
-      <c r="LX14" s="26"/>
-      <c r="LY14" s="26"/>
-      <c r="LZ14" s="26"/>
-      <c r="MA14" s="26"/>
-      <c r="MB14" s="26"/>
-      <c r="MC14" s="26"/>
-      <c r="MD14" s="26"/>
-      <c r="ME14" s="26"/>
-      <c r="MF14" s="26"/>
-      <c r="MG14" s="26"/>
-      <c r="MH14" s="26"/>
-      <c r="MI14" s="26"/>
-      <c r="MJ14" s="26"/>
-      <c r="MK14" s="26"/>
-      <c r="ML14" s="26"/>
-      <c r="MM14" s="26"/>
-      <c r="MN14" s="26"/>
-      <c r="MO14" s="26"/>
-      <c r="MP14" s="26"/>
-      <c r="MQ14" s="26"/>
-      <c r="MR14" s="26"/>
-      <c r="MS14" s="26"/>
-      <c r="MT14" s="26"/>
-      <c r="MU14" s="26"/>
-      <c r="MV14" s="26"/>
-      <c r="MW14" s="26"/>
-      <c r="MX14" s="26"/>
-      <c r="MY14" s="26"/>
-      <c r="MZ14" s="26"/>
-      <c r="NA14" s="26"/>
-      <c r="NB14" s="26"/>
-      <c r="NC14" s="26"/>
-      <c r="ND14" s="26"/>
-      <c r="NE14" s="26"/>
-      <c r="NF14" s="26"/>
-      <c r="NG14" s="26"/>
-      <c r="NH14" s="26"/>
-      <c r="NI14" s="26"/>
-      <c r="NJ14" s="26"/>
-      <c r="NK14" s="26"/>
-      <c r="NL14" s="26"/>
-      <c r="NM14" s="26"/>
-      <c r="NN14" s="26"/>
-      <c r="NO14" s="26"/>
-      <c r="NP14" s="26"/>
-      <c r="NQ14" s="26"/>
-      <c r="NR14" s="26"/>
-      <c r="NS14" s="26"/>
-      <c r="NT14" s="26"/>
-      <c r="NU14" s="26"/>
-      <c r="NV14" s="26"/>
-      <c r="NW14" s="26"/>
-      <c r="NX14" s="26"/>
-      <c r="NY14" s="26"/>
-      <c r="NZ14" s="26"/>
-      <c r="OA14" s="26"/>
-      <c r="OB14" s="26"/>
-      <c r="OC14" s="26"/>
-      <c r="OD14" s="26"/>
-      <c r="OE14" s="26"/>
-      <c r="OF14" s="26"/>
-      <c r="OG14" s="26"/>
-      <c r="OH14" s="26"/>
-      <c r="OI14" s="26"/>
-      <c r="OJ14" s="26"/>
-      <c r="OK14" s="26"/>
-      <c r="OL14" s="26"/>
-      <c r="OM14" s="26"/>
-      <c r="ON14" s="26"/>
-      <c r="OO14" s="26"/>
-      <c r="OP14" s="26"/>
-      <c r="OQ14" s="26"/>
-      <c r="OR14" s="26"/>
-      <c r="OS14" s="26"/>
-      <c r="OT14" s="26"/>
-      <c r="OU14" s="26"/>
-      <c r="OV14" s="26"/>
-      <c r="OW14" s="26"/>
-      <c r="OX14" s="26"/>
-      <c r="OY14" s="26"/>
-      <c r="OZ14" s="26"/>
-      <c r="PA14" s="26"/>
-      <c r="PB14" s="26"/>
-      <c r="PC14" s="26"/>
-      <c r="PD14" s="26"/>
-      <c r="PE14" s="26"/>
-      <c r="PF14" s="26"/>
-      <c r="PG14" s="26"/>
-      <c r="PH14" s="26"/>
-      <c r="PI14" s="26"/>
-      <c r="PJ14" s="26"/>
-      <c r="PK14" s="26"/>
-      <c r="PL14" s="26"/>
-      <c r="PM14" s="26"/>
-      <c r="PN14" s="26"/>
-      <c r="PO14" s="26"/>
-      <c r="PP14" s="26"/>
-      <c r="PQ14" s="26"/>
-      <c r="PR14" s="26"/>
-      <c r="PS14" s="26"/>
-      <c r="PT14" s="26"/>
-      <c r="PU14" s="26"/>
-      <c r="PV14" s="26"/>
-      <c r="PW14" s="26"/>
-      <c r="PX14" s="26"/>
-      <c r="PY14" s="26"/>
-      <c r="PZ14" s="26"/>
-      <c r="QA14" s="26"/>
-      <c r="QB14" s="26"/>
-      <c r="QC14" s="26"/>
-      <c r="QD14" s="26"/>
-      <c r="QE14" s="26"/>
-      <c r="QF14" s="26"/>
-      <c r="QG14" s="26"/>
-      <c r="QH14" s="26"/>
-      <c r="QI14" s="26"/>
-      <c r="QJ14" s="26"/>
-      <c r="QK14" s="26"/>
-      <c r="QL14" s="26"/>
-      <c r="QM14" s="26"/>
-      <c r="QN14" s="26"/>
-      <c r="QO14" s="26"/>
-      <c r="QP14" s="26"/>
-      <c r="QQ14" s="26"/>
-      <c r="QR14" s="26"/>
-      <c r="QS14" s="26"/>
-      <c r="QT14" s="26"/>
-      <c r="QU14" s="26"/>
-      <c r="QV14" s="26"/>
-      <c r="QW14" s="26"/>
-      <c r="QX14" s="26"/>
-      <c r="QY14" s="26"/>
-      <c r="QZ14" s="26"/>
-      <c r="RA14" s="26"/>
-      <c r="RB14" s="26"/>
-      <c r="RC14" s="26"/>
-      <c r="RD14" s="26"/>
-      <c r="RE14" s="26"/>
-      <c r="RF14" s="26"/>
-      <c r="RG14" s="26"/>
-      <c r="RH14" s="26"/>
-      <c r="RI14" s="26"/>
-      <c r="RJ14" s="26"/>
-      <c r="RK14" s="26"/>
-      <c r="RL14" s="26"/>
-      <c r="RM14" s="26"/>
-      <c r="RN14" s="26"/>
-      <c r="RO14" s="26"/>
-      <c r="RP14" s="26"/>
-      <c r="RQ14" s="26"/>
-      <c r="RR14" s="26"/>
-      <c r="RS14" s="26"/>
-      <c r="RT14" s="26"/>
-      <c r="RU14" s="26"/>
-      <c r="RV14" s="26"/>
-      <c r="RW14" s="26"/>
-      <c r="RX14" s="26"/>
-      <c r="RY14" s="26"/>
-      <c r="RZ14" s="26"/>
-      <c r="SA14" s="26"/>
-      <c r="SB14" s="26"/>
-      <c r="SC14" s="26"/>
-      <c r="SD14" s="26"/>
-      <c r="SE14" s="26"/>
-      <c r="SF14" s="26"/>
-      <c r="SG14" s="26"/>
-      <c r="SH14" s="26"/>
-      <c r="SI14" s="26"/>
-      <c r="SJ14" s="26"/>
-      <c r="SK14" s="26"/>
-      <c r="SL14" s="26"/>
-      <c r="SM14" s="26"/>
-      <c r="SN14" s="26"/>
-      <c r="SO14" s="26"/>
-      <c r="SP14" s="26"/>
-      <c r="SQ14" s="26"/>
-      <c r="SR14" s="26"/>
-      <c r="SS14" s="26"/>
-      <c r="ST14" s="26"/>
-      <c r="SU14" s="26"/>
-      <c r="SV14" s="26"/>
-      <c r="SW14" s="26"/>
-      <c r="SX14" s="26"/>
-      <c r="SY14" s="26"/>
-      <c r="SZ14" s="26"/>
-      <c r="TA14" s="26"/>
-      <c r="TB14" s="26"/>
-      <c r="TC14" s="26"/>
-      <c r="TD14" s="26"/>
-      <c r="TE14" s="26"/>
-      <c r="TF14" s="26"/>
-      <c r="TG14" s="26"/>
-      <c r="TH14" s="26"/>
-      <c r="TI14" s="26"/>
-      <c r="TJ14" s="26"/>
-      <c r="TK14" s="26"/>
-      <c r="TL14" s="26"/>
-      <c r="TM14" s="26"/>
-      <c r="TN14" s="26"/>
-      <c r="TO14" s="26"/>
-      <c r="TP14" s="26"/>
-      <c r="TQ14" s="26"/>
-      <c r="TR14" s="26"/>
-      <c r="TS14" s="26"/>
-      <c r="TT14" s="26"/>
-      <c r="TU14" s="26"/>
-      <c r="TV14" s="26"/>
-      <c r="TW14" s="26"/>
-      <c r="TX14" s="26"/>
-      <c r="TY14" s="26"/>
-      <c r="TZ14" s="26"/>
-      <c r="UA14" s="26"/>
-      <c r="UB14" s="26"/>
-      <c r="UC14" s="26"/>
-      <c r="UD14" s="26"/>
-      <c r="UE14" s="26"/>
-      <c r="UF14" s="26"/>
-      <c r="UG14" s="26"/>
-      <c r="UH14" s="26"/>
-      <c r="UI14" s="26"/>
-      <c r="UJ14" s="26"/>
-      <c r="UK14" s="26"/>
-      <c r="UL14" s="26"/>
-      <c r="UM14" s="26"/>
-      <c r="UN14" s="26"/>
-      <c r="UO14" s="26"/>
-      <c r="UP14" s="26"/>
-      <c r="UQ14" s="26"/>
-      <c r="UR14" s="26"/>
-      <c r="US14" s="26"/>
-      <c r="UT14" s="26"/>
-      <c r="UU14" s="26"/>
-      <c r="UV14" s="26"/>
-      <c r="UW14" s="26"/>
-      <c r="UX14" s="26"/>
-      <c r="UY14" s="26"/>
-      <c r="UZ14" s="26"/>
-      <c r="VA14" s="26"/>
-      <c r="VB14" s="26"/>
-      <c r="VC14" s="26"/>
-      <c r="VD14" s="26"/>
-      <c r="VE14" s="26"/>
-      <c r="VF14" s="26"/>
-      <c r="VG14" s="26"/>
-      <c r="VH14" s="26"/>
-      <c r="VI14" s="26"/>
-      <c r="VJ14" s="26"/>
-      <c r="VK14" s="26"/>
-      <c r="VL14" s="26"/>
-      <c r="VM14" s="26"/>
-      <c r="VN14" s="26"/>
-      <c r="VO14" s="26"/>
-      <c r="VP14" s="26"/>
-      <c r="VQ14" s="26"/>
-      <c r="VR14" s="26"/>
-      <c r="VS14" s="26"/>
-      <c r="VT14" s="26"/>
-      <c r="VU14" s="26"/>
-      <c r="VV14" s="26"/>
-      <c r="VW14" s="26"/>
-      <c r="VX14" s="26"/>
-      <c r="VY14" s="26"/>
-      <c r="VZ14" s="26"/>
-      <c r="WA14" s="26"/>
-      <c r="WB14" s="26"/>
-      <c r="WC14" s="26"/>
-      <c r="WD14" s="26"/>
-      <c r="WE14" s="26"/>
-      <c r="WF14" s="26"/>
-      <c r="WG14" s="26"/>
-      <c r="WH14" s="26"/>
-      <c r="WI14" s="26"/>
-      <c r="WJ14" s="26"/>
-      <c r="WK14" s="26"/>
-      <c r="WL14" s="26"/>
-      <c r="WM14" s="26"/>
-      <c r="WN14" s="26"/>
-      <c r="WO14" s="26"/>
-      <c r="WP14" s="26"/>
-      <c r="WQ14" s="26"/>
-      <c r="WR14" s="26"/>
-      <c r="WS14" s="26"/>
-      <c r="WT14" s="26"/>
-      <c r="WU14" s="26"/>
-      <c r="WV14" s="26"/>
-      <c r="WW14" s="26"/>
-      <c r="WX14" s="26"/>
-      <c r="WY14" s="26"/>
-      <c r="WZ14" s="26"/>
-      <c r="XA14" s="26"/>
-      <c r="XB14" s="26"/>
-      <c r="XC14" s="26"/>
-      <c r="XD14" s="26"/>
-      <c r="XE14" s="26"/>
-      <c r="XF14" s="26"/>
-      <c r="XG14" s="26"/>
-      <c r="XH14" s="26"/>
-      <c r="XI14" s="26"/>
-      <c r="XJ14" s="26"/>
-      <c r="XK14" s="26"/>
-      <c r="XL14" s="26"/>
-      <c r="XM14" s="26"/>
-      <c r="XN14" s="26"/>
-      <c r="XO14" s="26"/>
-      <c r="XP14" s="26"/>
-      <c r="XQ14" s="26"/>
-      <c r="XR14" s="26"/>
-      <c r="XS14" s="26"/>
-      <c r="XT14" s="26"/>
-      <c r="XU14" s="26"/>
-      <c r="XV14" s="26"/>
-      <c r="XW14" s="26"/>
-      <c r="XX14" s="26"/>
-      <c r="XY14" s="26"/>
-      <c r="XZ14" s="26"/>
-      <c r="YA14" s="26"/>
-      <c r="YB14" s="26"/>
-      <c r="YC14" s="26"/>
-      <c r="YD14" s="26"/>
-      <c r="YE14" s="26"/>
-      <c r="YF14" s="26"/>
-      <c r="YG14" s="26"/>
-      <c r="YH14" s="26"/>
-      <c r="YI14" s="26"/>
-      <c r="YJ14" s="26"/>
-      <c r="YK14" s="26"/>
-      <c r="YL14" s="26"/>
-      <c r="YM14" s="26"/>
-      <c r="YN14" s="26"/>
-      <c r="YO14" s="26"/>
-      <c r="YP14" s="26"/>
-      <c r="YQ14" s="26"/>
-      <c r="YR14" s="26"/>
-      <c r="YS14" s="26"/>
-      <c r="YT14" s="26"/>
-      <c r="YU14" s="26"/>
-      <c r="YV14" s="26"/>
-      <c r="YW14" s="26"/>
-      <c r="YX14" s="26"/>
-      <c r="YY14" s="26"/>
-      <c r="YZ14" s="26"/>
-      <c r="ZA14" s="26"/>
-      <c r="ZB14" s="26"/>
-      <c r="ZC14" s="26"/>
-      <c r="ZD14" s="26"/>
-      <c r="ZE14" s="26"/>
-      <c r="ZF14" s="26"/>
-      <c r="ZG14" s="26"/>
-      <c r="ZH14" s="26"/>
-      <c r="ZI14" s="26"/>
-      <c r="ZJ14" s="26"/>
-      <c r="ZK14" s="26"/>
-      <c r="ZL14" s="26"/>
-      <c r="ZM14" s="26"/>
-      <c r="ZN14" s="26"/>
-      <c r="ZO14" s="26"/>
-      <c r="ZP14" s="26"/>
-      <c r="ZQ14" s="26"/>
-      <c r="ZR14" s="26"/>
-      <c r="ZS14" s="26"/>
-      <c r="ZT14" s="26"/>
-      <c r="ZU14" s="26"/>
-      <c r="ZV14" s="26"/>
-      <c r="ZW14" s="26"/>
-      <c r="ZX14" s="26"/>
-      <c r="ZY14" s="26"/>
-      <c r="ZZ14" s="26"/>
-      <c r="AAA14" s="26"/>
-      <c r="AAB14" s="26"/>
-      <c r="AAC14" s="26"/>
-      <c r="AAD14" s="26"/>
-      <c r="AAE14" s="26"/>
-      <c r="AAF14" s="26"/>
-      <c r="AAG14" s="26"/>
-      <c r="AAH14" s="26"/>
-      <c r="AAI14" s="26"/>
-      <c r="AAJ14" s="26"/>
-      <c r="AAK14" s="26"/>
-      <c r="AAL14" s="26"/>
-      <c r="AAM14" s="26"/>
-      <c r="AAN14" s="26"/>
-      <c r="AAO14" s="26"/>
-      <c r="AAP14" s="26"/>
-      <c r="AAQ14" s="26"/>
-      <c r="AAR14" s="26"/>
-      <c r="AAS14" s="26"/>
-      <c r="AAT14" s="26"/>
-      <c r="AAU14" s="26"/>
-      <c r="AAV14" s="26"/>
-      <c r="AAW14" s="26"/>
-      <c r="AAX14" s="26"/>
-      <c r="AAY14" s="26"/>
-      <c r="AAZ14" s="26"/>
-      <c r="ABA14" s="26"/>
-      <c r="ABB14" s="26"/>
-      <c r="ABC14" s="26"/>
-      <c r="ABD14" s="26"/>
-      <c r="ABE14" s="26"/>
-      <c r="ABF14" s="26"/>
-      <c r="ABG14" s="26"/>
-      <c r="ABH14" s="26"/>
-      <c r="ABI14" s="26"/>
-      <c r="ABJ14" s="26"/>
-      <c r="ABK14" s="26"/>
-      <c r="ABL14" s="26"/>
-      <c r="ABM14" s="26"/>
-      <c r="ABN14" s="26"/>
-      <c r="ABO14" s="26"/>
-      <c r="ABP14" s="26"/>
-      <c r="ABQ14" s="26"/>
-      <c r="ABR14" s="26"/>
-      <c r="ABS14" s="26"/>
-      <c r="ABT14" s="26"/>
-      <c r="ABU14" s="26"/>
-      <c r="ABV14" s="26"/>
-      <c r="ABW14" s="26"/>
-      <c r="ABX14" s="26"/>
-      <c r="ABY14" s="26"/>
-      <c r="ABZ14" s="26"/>
-      <c r="ACA14" s="26"/>
-      <c r="ACB14" s="26"/>
-      <c r="ACC14" s="26"/>
-      <c r="ACD14" s="26"/>
-      <c r="ACE14" s="26"/>
-      <c r="ACF14" s="26"/>
-      <c r="ACG14" s="26"/>
-      <c r="ACH14" s="26"/>
-      <c r="ACI14" s="26"/>
-      <c r="ACJ14" s="26"/>
-      <c r="ACK14" s="26"/>
-      <c r="ACL14" s="26"/>
-      <c r="ACM14" s="26"/>
-      <c r="ACN14" s="26"/>
-      <c r="ACO14" s="26"/>
-      <c r="ACP14" s="26"/>
-      <c r="ACQ14" s="26"/>
-      <c r="ACR14" s="26"/>
-      <c r="ACS14" s="26"/>
-      <c r="ACT14" s="26"/>
-      <c r="ACU14" s="26"/>
-      <c r="ACV14" s="26"/>
-      <c r="ACW14" s="26"/>
-      <c r="ACX14" s="26"/>
-      <c r="ACY14" s="26"/>
-      <c r="ACZ14" s="26"/>
-      <c r="ADA14" s="26"/>
-      <c r="ADB14" s="26"/>
-      <c r="ADC14" s="26"/>
-      <c r="ADD14" s="26"/>
-      <c r="ADE14" s="26"/>
-      <c r="ADF14" s="26"/>
-      <c r="ADG14" s="26"/>
-      <c r="ADH14" s="26"/>
-      <c r="ADI14" s="26"/>
-      <c r="ADJ14" s="26"/>
-      <c r="ADK14" s="26"/>
-      <c r="ADL14" s="26"/>
-      <c r="ADM14" s="26"/>
-      <c r="ADN14" s="26"/>
-      <c r="ADO14" s="26"/>
-      <c r="ADP14" s="26"/>
-      <c r="ADQ14" s="26"/>
-      <c r="ADR14" s="26"/>
-      <c r="ADS14" s="26"/>
-      <c r="ADT14" s="26"/>
-      <c r="ADU14" s="26"/>
-      <c r="ADV14" s="26"/>
-      <c r="ADW14" s="26"/>
-      <c r="ADX14" s="26"/>
-      <c r="ADY14" s="26"/>
-      <c r="ADZ14" s="26"/>
-      <c r="AEA14" s="26"/>
-      <c r="AEB14" s="26"/>
-      <c r="AEC14" s="26"/>
-      <c r="AED14" s="26"/>
-      <c r="AEE14" s="26"/>
-      <c r="AEF14" s="26"/>
-      <c r="AEG14" s="26"/>
-      <c r="AEH14" s="26"/>
-      <c r="AEI14" s="26"/>
-      <c r="AEJ14" s="26"/>
-      <c r="AEK14" s="26"/>
-      <c r="AEL14" s="26"/>
-      <c r="AEM14" s="26"/>
-      <c r="AEN14" s="26"/>
-      <c r="AEO14" s="26"/>
-      <c r="AEP14" s="26"/>
-      <c r="AEQ14" s="26"/>
-      <c r="AER14" s="26"/>
-      <c r="AES14" s="26"/>
-      <c r="AET14" s="26"/>
-      <c r="AEU14" s="26"/>
-      <c r="AEV14" s="26"/>
-      <c r="AEW14" s="26"/>
-      <c r="AEX14" s="26"/>
-      <c r="AEY14" s="26"/>
-      <c r="AEZ14" s="26"/>
-      <c r="AFA14" s="26"/>
-      <c r="AFB14" s="26"/>
-      <c r="AFC14" s="26"/>
-      <c r="AFD14" s="26"/>
-      <c r="AFE14" s="26"/>
-      <c r="AFF14" s="26"/>
-      <c r="AFG14" s="26"/>
-      <c r="AFH14" s="26"/>
-      <c r="AFI14" s="26"/>
-      <c r="AFJ14" s="26"/>
-      <c r="AFK14" s="26"/>
-      <c r="AFL14" s="26"/>
-      <c r="AFM14" s="26"/>
-      <c r="AFN14" s="26"/>
-      <c r="AFO14" s="26"/>
-      <c r="AFP14" s="26"/>
-      <c r="AFQ14" s="26"/>
-      <c r="AFR14" s="26"/>
-      <c r="AFS14" s="26"/>
-      <c r="AFT14" s="26"/>
-      <c r="AFU14" s="26"/>
-      <c r="AFV14" s="26"/>
-      <c r="AFW14" s="26"/>
-      <c r="AFX14" s="26"/>
-      <c r="AFY14" s="26"/>
-      <c r="AFZ14" s="26"/>
-      <c r="AGA14" s="26"/>
-      <c r="AGB14" s="26"/>
-      <c r="AGC14" s="26"/>
-      <c r="AGD14" s="26"/>
-      <c r="AGE14" s="26"/>
-      <c r="AGF14" s="26"/>
-      <c r="AGG14" s="26"/>
-      <c r="AGH14" s="26"/>
-      <c r="AGI14" s="26"/>
-      <c r="AGJ14" s="26"/>
-      <c r="AGK14" s="26"/>
-      <c r="AGL14" s="26"/>
-      <c r="AGM14" s="26"/>
-      <c r="AGN14" s="26"/>
-      <c r="AGO14" s="26"/>
-      <c r="AGP14" s="26"/>
-      <c r="AGQ14" s="26"/>
-      <c r="AGR14" s="26"/>
-      <c r="AGS14" s="26"/>
-      <c r="AGT14" s="26"/>
-      <c r="AGU14" s="26"/>
-      <c r="AGV14" s="26"/>
-      <c r="AGW14" s="26"/>
-      <c r="AGX14" s="26"/>
-      <c r="AGY14" s="26"/>
-      <c r="AGZ14" s="26"/>
-      <c r="AHA14" s="26"/>
-      <c r="AHB14" s="26"/>
-      <c r="AHC14" s="26"/>
-      <c r="AHD14" s="26"/>
-      <c r="AHE14" s="26"/>
-      <c r="AHF14" s="26"/>
-      <c r="AHG14" s="26"/>
-      <c r="AHH14" s="26"/>
-      <c r="AHI14" s="26"/>
-      <c r="AHJ14" s="26"/>
-      <c r="AHK14" s="26"/>
-      <c r="AHL14" s="26"/>
-      <c r="AHM14" s="26"/>
-      <c r="AHN14" s="26"/>
-      <c r="AHO14" s="26"/>
-      <c r="AHP14" s="26"/>
-      <c r="AHQ14" s="26"/>
-      <c r="AHR14" s="26"/>
-      <c r="AHS14" s="26"/>
-      <c r="AHT14" s="26"/>
-      <c r="AHU14" s="26"/>
-      <c r="AHV14" s="26"/>
-      <c r="AHW14" s="26"/>
-      <c r="AHX14" s="26"/>
-      <c r="AHY14" s="26"/>
-      <c r="AHZ14" s="26"/>
-      <c r="AIA14" s="26"/>
-      <c r="AIB14" s="26"/>
-      <c r="AIC14" s="26"/>
-      <c r="AID14" s="26"/>
-      <c r="AIE14" s="26"/>
-      <c r="AIF14" s="26"/>
-      <c r="AIG14" s="26"/>
-      <c r="AIH14" s="26"/>
-      <c r="AII14" s="26"/>
-      <c r="AIJ14" s="26"/>
-      <c r="AIK14" s="26"/>
-      <c r="AIL14" s="26"/>
-      <c r="AIM14" s="26"/>
-      <c r="AIN14" s="26"/>
-      <c r="AIO14" s="26"/>
-      <c r="AIP14" s="26"/>
-      <c r="AIQ14" s="26"/>
-      <c r="AIR14" s="26"/>
-      <c r="AIS14" s="26"/>
-      <c r="AIT14" s="26"/>
-      <c r="AIU14" s="26"/>
-      <c r="AIV14" s="26"/>
-      <c r="AIW14" s="26"/>
-      <c r="AIX14" s="26"/>
-      <c r="AIY14" s="26"/>
-      <c r="AIZ14" s="26"/>
-      <c r="AJA14" s="26"/>
-      <c r="AJB14" s="26"/>
-      <c r="AJC14" s="26"/>
-      <c r="AJD14" s="26"/>
-      <c r="AJE14" s="26"/>
-      <c r="AJF14" s="26"/>
-      <c r="AJG14" s="26"/>
-      <c r="AJH14" s="26"/>
-      <c r="AJI14" s="26"/>
-      <c r="AJJ14" s="26"/>
-      <c r="AJK14" s="26"/>
-      <c r="AJL14" s="26"/>
-      <c r="AJM14" s="26"/>
-      <c r="AJN14" s="26"/>
-      <c r="AJO14" s="26"/>
-      <c r="AJP14" s="26"/>
-      <c r="AJQ14" s="26"/>
-      <c r="AJR14" s="26"/>
-      <c r="AJS14" s="26"/>
-      <c r="AJT14" s="26"/>
-      <c r="AJU14" s="26"/>
-      <c r="AJV14" s="26"/>
-      <c r="AJW14" s="26"/>
-      <c r="AJX14" s="26"/>
-      <c r="AJY14" s="26"/>
-      <c r="AJZ14" s="26"/>
-      <c r="AKA14" s="26"/>
-      <c r="AKB14" s="26"/>
-      <c r="AKC14" s="26"/>
-      <c r="AKD14" s="26"/>
-      <c r="AKE14" s="26"/>
-      <c r="AKF14" s="26"/>
-      <c r="AKG14" s="26"/>
-      <c r="AKH14" s="26"/>
-      <c r="AKI14" s="26"/>
-      <c r="AKJ14" s="26"/>
-      <c r="AKK14" s="26"/>
-      <c r="AKL14" s="26"/>
-      <c r="AKM14" s="26"/>
-      <c r="AKN14" s="26"/>
-      <c r="AKO14" s="26"/>
-      <c r="AKP14" s="26"/>
-      <c r="AKQ14" s="26"/>
-      <c r="AKR14" s="26"/>
-      <c r="AKS14" s="26"/>
-      <c r="AKT14" s="26"/>
-      <c r="AKU14" s="26"/>
-      <c r="AKV14" s="26"/>
-      <c r="AKW14" s="26"/>
-      <c r="AKX14" s="26"/>
-      <c r="AKY14" s="26"/>
-      <c r="AKZ14" s="26"/>
-      <c r="ALA14" s="26"/>
-      <c r="ALB14" s="26"/>
-      <c r="ALC14" s="26"/>
-      <c r="ALD14" s="26"/>
-      <c r="ALE14" s="26"/>
-      <c r="ALF14" s="26"/>
-      <c r="ALG14" s="26"/>
-      <c r="ALH14" s="26"/>
-      <c r="ALI14" s="26"/>
-      <c r="ALJ14" s="26"/>
-      <c r="ALK14" s="26"/>
-      <c r="ALL14" s="26"/>
-      <c r="ALM14" s="26"/>
-      <c r="ALN14" s="26"/>
-      <c r="ALO14" s="26"/>
-      <c r="ALP14" s="26"/>
-      <c r="ALQ14" s="26"/>
-      <c r="ALR14" s="26"/>
-      <c r="ALS14" s="26"/>
-      <c r="ALT14" s="26"/>
-      <c r="ALU14" s="26"/>
-      <c r="ALV14" s="26"/>
-      <c r="ALW14" s="26"/>
-      <c r="ALX14" s="26"/>
-      <c r="ALY14" s="26"/>
-      <c r="ALZ14" s="26"/>
-      <c r="AMA14" s="26"/>
-      <c r="AMB14" s="26"/>
-      <c r="AMC14" s="26"/>
-      <c r="AMD14" s="26"/>
-      <c r="AME14" s="26"/>
-      <c r="AMF14" s="26"/>
-      <c r="AMG14" s="26"/>
-      <c r="AMH14" s="26"/>
-      <c r="AMI14" s="26"/>
-      <c r="AMJ14" s="26"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:27">
+      <c r="X14" s="42"/>
+      <c r="Z14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="25"/>
+      <c r="BX14" s="25"/>
+      <c r="BY14" s="25"/>
+      <c r="BZ14" s="25"/>
+      <c r="CA14" s="25"/>
+      <c r="CB14" s="25"/>
+      <c r="CC14" s="25"/>
+      <c r="CD14" s="25"/>
+      <c r="CE14" s="25"/>
+      <c r="CF14" s="25"/>
+      <c r="CG14" s="25"/>
+      <c r="CH14" s="25"/>
+      <c r="CI14" s="25"/>
+      <c r="CJ14" s="25"/>
+      <c r="CK14" s="25"/>
+      <c r="CL14" s="25"/>
+      <c r="CM14" s="25"/>
+      <c r="CN14" s="25"/>
+      <c r="CO14" s="25"/>
+      <c r="CP14" s="25"/>
+      <c r="CQ14" s="25"/>
+      <c r="CR14" s="25"/>
+      <c r="CS14" s="25"/>
+      <c r="CT14" s="25"/>
+      <c r="CU14" s="25"/>
+      <c r="CV14" s="25"/>
+      <c r="CW14" s="25"/>
+      <c r="CX14" s="25"/>
+      <c r="CY14" s="25"/>
+      <c r="CZ14" s="25"/>
+      <c r="DA14" s="25"/>
+      <c r="DB14" s="25"/>
+      <c r="DC14" s="25"/>
+      <c r="DD14" s="25"/>
+      <c r="DE14" s="25"/>
+      <c r="DF14" s="25"/>
+      <c r="DG14" s="25"/>
+      <c r="DH14" s="25"/>
+      <c r="DI14" s="25"/>
+      <c r="DJ14" s="25"/>
+      <c r="DK14" s="25"/>
+      <c r="DL14" s="25"/>
+      <c r="DM14" s="25"/>
+      <c r="DN14" s="25"/>
+      <c r="DO14" s="25"/>
+      <c r="DP14" s="25"/>
+      <c r="DQ14" s="25"/>
+      <c r="DR14" s="25"/>
+      <c r="DS14" s="25"/>
+      <c r="DT14" s="25"/>
+      <c r="DU14" s="25"/>
+      <c r="DV14" s="25"/>
+      <c r="DW14" s="25"/>
+      <c r="DX14" s="25"/>
+      <c r="DY14" s="25"/>
+      <c r="DZ14" s="25"/>
+      <c r="EA14" s="25"/>
+      <c r="EB14" s="25"/>
+      <c r="EC14" s="25"/>
+      <c r="ED14" s="25"/>
+      <c r="EE14" s="25"/>
+      <c r="EF14" s="25"/>
+      <c r="EG14" s="25"/>
+      <c r="EH14" s="25"/>
+      <c r="EI14" s="25"/>
+      <c r="EJ14" s="25"/>
+      <c r="EK14" s="25"/>
+      <c r="EL14" s="25"/>
+      <c r="EM14" s="25"/>
+      <c r="EN14" s="25"/>
+      <c r="EO14" s="25"/>
+      <c r="EP14" s="25"/>
+      <c r="EQ14" s="25"/>
+      <c r="ER14" s="25"/>
+      <c r="ES14" s="25"/>
+      <c r="ET14" s="25"/>
+      <c r="EU14" s="25"/>
+      <c r="EV14" s="25"/>
+      <c r="EW14" s="25"/>
+      <c r="EX14" s="25"/>
+      <c r="EY14" s="25"/>
+      <c r="EZ14" s="25"/>
+      <c r="FA14" s="25"/>
+      <c r="FB14" s="25"/>
+      <c r="FC14" s="25"/>
+      <c r="FD14" s="25"/>
+      <c r="FE14" s="25"/>
+      <c r="FF14" s="25"/>
+      <c r="FG14" s="25"/>
+      <c r="FH14" s="25"/>
+      <c r="FI14" s="25"/>
+      <c r="FJ14" s="25"/>
+      <c r="FK14" s="25"/>
+      <c r="FL14" s="25"/>
+      <c r="FM14" s="25"/>
+      <c r="FN14" s="25"/>
+      <c r="FO14" s="25"/>
+      <c r="FP14" s="25"/>
+      <c r="FQ14" s="25"/>
+      <c r="FR14" s="25"/>
+      <c r="FS14" s="25"/>
+      <c r="FT14" s="25"/>
+      <c r="FU14" s="25"/>
+      <c r="FV14" s="25"/>
+      <c r="FW14" s="25"/>
+      <c r="FX14" s="25"/>
+      <c r="FY14" s="25"/>
+      <c r="FZ14" s="25"/>
+      <c r="GA14" s="25"/>
+      <c r="GB14" s="25"/>
+      <c r="GC14" s="25"/>
+      <c r="GD14" s="25"/>
+      <c r="GE14" s="25"/>
+      <c r="GF14" s="25"/>
+      <c r="GG14" s="25"/>
+      <c r="GH14" s="25"/>
+      <c r="GI14" s="25"/>
+      <c r="GJ14" s="25"/>
+      <c r="GK14" s="25"/>
+      <c r="GL14" s="25"/>
+      <c r="GM14" s="25"/>
+      <c r="GN14" s="25"/>
+      <c r="GO14" s="25"/>
+      <c r="GP14" s="25"/>
+      <c r="GQ14" s="25"/>
+      <c r="GR14" s="25"/>
+      <c r="GS14" s="25"/>
+      <c r="GT14" s="25"/>
+      <c r="GU14" s="25"/>
+      <c r="GV14" s="25"/>
+      <c r="GW14" s="25"/>
+      <c r="GX14" s="25"/>
+      <c r="GY14" s="25"/>
+      <c r="GZ14" s="25"/>
+      <c r="HA14" s="25"/>
+      <c r="HB14" s="25"/>
+      <c r="HC14" s="25"/>
+      <c r="HD14" s="25"/>
+      <c r="HE14" s="25"/>
+      <c r="HF14" s="25"/>
+      <c r="HG14" s="25"/>
+      <c r="HH14" s="25"/>
+      <c r="HI14" s="25"/>
+      <c r="HJ14" s="25"/>
+      <c r="HK14" s="25"/>
+      <c r="HL14" s="25"/>
+      <c r="HM14" s="25"/>
+      <c r="HN14" s="25"/>
+      <c r="HO14" s="25"/>
+      <c r="HP14" s="25"/>
+      <c r="HQ14" s="25"/>
+      <c r="HR14" s="25"/>
+      <c r="HS14" s="25"/>
+      <c r="HT14" s="25"/>
+      <c r="HU14" s="25"/>
+      <c r="HV14" s="25"/>
+      <c r="HW14" s="25"/>
+      <c r="HX14" s="25"/>
+      <c r="HY14" s="25"/>
+      <c r="HZ14" s="25"/>
+      <c r="IA14" s="25"/>
+      <c r="IB14" s="25"/>
+      <c r="IC14" s="25"/>
+      <c r="ID14" s="25"/>
+      <c r="IE14" s="25"/>
+      <c r="IF14" s="25"/>
+      <c r="IG14" s="25"/>
+      <c r="IH14" s="25"/>
+      <c r="II14" s="25"/>
+      <c r="IJ14" s="25"/>
+      <c r="IK14" s="25"/>
+      <c r="IL14" s="25"/>
+      <c r="IM14" s="25"/>
+      <c r="IN14" s="25"/>
+      <c r="IO14" s="25"/>
+      <c r="IP14" s="25"/>
+      <c r="IQ14" s="25"/>
+      <c r="IR14" s="25"/>
+      <c r="IS14" s="25"/>
+      <c r="IT14" s="25"/>
+      <c r="IU14" s="25"/>
+      <c r="IV14" s="25"/>
+      <c r="IW14" s="25"/>
+      <c r="IX14" s="25"/>
+      <c r="IY14" s="25"/>
+      <c r="IZ14" s="25"/>
+      <c r="JA14" s="25"/>
+      <c r="JB14" s="25"/>
+      <c r="JC14" s="25"/>
+      <c r="JD14" s="25"/>
+      <c r="JE14" s="25"/>
+      <c r="JF14" s="25"/>
+      <c r="JG14" s="25"/>
+      <c r="JH14" s="25"/>
+      <c r="JI14" s="25"/>
+      <c r="JJ14" s="25"/>
+      <c r="JK14" s="25"/>
+      <c r="JL14" s="25"/>
+      <c r="JM14" s="25"/>
+      <c r="JN14" s="25"/>
+      <c r="JO14" s="25"/>
+      <c r="JP14" s="25"/>
+      <c r="JQ14" s="25"/>
+      <c r="JR14" s="25"/>
+      <c r="JS14" s="25"/>
+      <c r="JT14" s="25"/>
+      <c r="JU14" s="25"/>
+      <c r="JV14" s="25"/>
+      <c r="JW14" s="25"/>
+      <c r="JX14" s="25"/>
+      <c r="JY14" s="25"/>
+      <c r="JZ14" s="25"/>
+      <c r="KA14" s="25"/>
+      <c r="KB14" s="25"/>
+      <c r="KC14" s="25"/>
+      <c r="KD14" s="25"/>
+      <c r="KE14" s="25"/>
+      <c r="KF14" s="25"/>
+      <c r="KG14" s="25"/>
+      <c r="KH14" s="25"/>
+      <c r="KI14" s="25"/>
+      <c r="KJ14" s="25"/>
+      <c r="KK14" s="25"/>
+      <c r="KL14" s="25"/>
+      <c r="KM14" s="25"/>
+      <c r="KN14" s="25"/>
+      <c r="KO14" s="25"/>
+      <c r="KP14" s="25"/>
+      <c r="KQ14" s="25"/>
+      <c r="KR14" s="25"/>
+      <c r="KS14" s="25"/>
+      <c r="KT14" s="25"/>
+      <c r="KU14" s="25"/>
+      <c r="KV14" s="25"/>
+      <c r="KW14" s="25"/>
+      <c r="KX14" s="25"/>
+      <c r="KY14" s="25"/>
+      <c r="KZ14" s="25"/>
+      <c r="LA14" s="25"/>
+      <c r="LB14" s="25"/>
+      <c r="LC14" s="25"/>
+      <c r="LD14" s="25"/>
+      <c r="LE14" s="25"/>
+      <c r="LF14" s="25"/>
+      <c r="LG14" s="25"/>
+      <c r="LH14" s="25"/>
+      <c r="LI14" s="25"/>
+      <c r="LJ14" s="25"/>
+      <c r="LK14" s="25"/>
+      <c r="LL14" s="25"/>
+      <c r="LM14" s="25"/>
+      <c r="LN14" s="25"/>
+      <c r="LO14" s="25"/>
+      <c r="LP14" s="25"/>
+      <c r="LQ14" s="25"/>
+      <c r="LR14" s="25"/>
+      <c r="LS14" s="25"/>
+      <c r="LT14" s="25"/>
+      <c r="LU14" s="25"/>
+      <c r="LV14" s="25"/>
+      <c r="LW14" s="25"/>
+      <c r="LX14" s="25"/>
+      <c r="LY14" s="25"/>
+      <c r="LZ14" s="25"/>
+      <c r="MA14" s="25"/>
+      <c r="MB14" s="25"/>
+      <c r="MC14" s="25"/>
+      <c r="MD14" s="25"/>
+      <c r="ME14" s="25"/>
+      <c r="MF14" s="25"/>
+      <c r="MG14" s="25"/>
+      <c r="MH14" s="25"/>
+      <c r="MI14" s="25"/>
+      <c r="MJ14" s="25"/>
+      <c r="MK14" s="25"/>
+      <c r="ML14" s="25"/>
+      <c r="MM14" s="25"/>
+      <c r="MN14" s="25"/>
+      <c r="MO14" s="25"/>
+      <c r="MP14" s="25"/>
+      <c r="MQ14" s="25"/>
+      <c r="MR14" s="25"/>
+      <c r="MS14" s="25"/>
+      <c r="MT14" s="25"/>
+      <c r="MU14" s="25"/>
+      <c r="MV14" s="25"/>
+      <c r="MW14" s="25"/>
+      <c r="MX14" s="25"/>
+      <c r="MY14" s="25"/>
+      <c r="MZ14" s="25"/>
+      <c r="NA14" s="25"/>
+      <c r="NB14" s="25"/>
+      <c r="NC14" s="25"/>
+      <c r="ND14" s="25"/>
+      <c r="NE14" s="25"/>
+      <c r="NF14" s="25"/>
+      <c r="NG14" s="25"/>
+      <c r="NH14" s="25"/>
+      <c r="NI14" s="25"/>
+      <c r="NJ14" s="25"/>
+      <c r="NK14" s="25"/>
+      <c r="NL14" s="25"/>
+      <c r="NM14" s="25"/>
+      <c r="NN14" s="25"/>
+      <c r="NO14" s="25"/>
+      <c r="NP14" s="25"/>
+      <c r="NQ14" s="25"/>
+      <c r="NR14" s="25"/>
+      <c r="NS14" s="25"/>
+      <c r="NT14" s="25"/>
+      <c r="NU14" s="25"/>
+      <c r="NV14" s="25"/>
+      <c r="NW14" s="25"/>
+      <c r="NX14" s="25"/>
+      <c r="NY14" s="25"/>
+      <c r="NZ14" s="25"/>
+      <c r="OA14" s="25"/>
+      <c r="OB14" s="25"/>
+      <c r="OC14" s="25"/>
+      <c r="OD14" s="25"/>
+      <c r="OE14" s="25"/>
+      <c r="OF14" s="25"/>
+      <c r="OG14" s="25"/>
+      <c r="OH14" s="25"/>
+      <c r="OI14" s="25"/>
+      <c r="OJ14" s="25"/>
+      <c r="OK14" s="25"/>
+      <c r="OL14" s="25"/>
+      <c r="OM14" s="25"/>
+      <c r="ON14" s="25"/>
+      <c r="OO14" s="25"/>
+      <c r="OP14" s="25"/>
+      <c r="OQ14" s="25"/>
+      <c r="OR14" s="25"/>
+      <c r="OS14" s="25"/>
+      <c r="OT14" s="25"/>
+      <c r="OU14" s="25"/>
+      <c r="OV14" s="25"/>
+      <c r="OW14" s="25"/>
+      <c r="OX14" s="25"/>
+      <c r="OY14" s="25"/>
+      <c r="OZ14" s="25"/>
+      <c r="PA14" s="25"/>
+      <c r="PB14" s="25"/>
+      <c r="PC14" s="25"/>
+      <c r="PD14" s="25"/>
+      <c r="PE14" s="25"/>
+      <c r="PF14" s="25"/>
+      <c r="PG14" s="25"/>
+      <c r="PH14" s="25"/>
+      <c r="PI14" s="25"/>
+      <c r="PJ14" s="25"/>
+      <c r="PK14" s="25"/>
+      <c r="PL14" s="25"/>
+      <c r="PM14" s="25"/>
+      <c r="PN14" s="25"/>
+      <c r="PO14" s="25"/>
+      <c r="PP14" s="25"/>
+      <c r="PQ14" s="25"/>
+      <c r="PR14" s="25"/>
+      <c r="PS14" s="25"/>
+      <c r="PT14" s="25"/>
+      <c r="PU14" s="25"/>
+      <c r="PV14" s="25"/>
+      <c r="PW14" s="25"/>
+      <c r="PX14" s="25"/>
+      <c r="PY14" s="25"/>
+      <c r="PZ14" s="25"/>
+      <c r="QA14" s="25"/>
+      <c r="QB14" s="25"/>
+      <c r="QC14" s="25"/>
+      <c r="QD14" s="25"/>
+      <c r="QE14" s="25"/>
+      <c r="QF14" s="25"/>
+      <c r="QG14" s="25"/>
+      <c r="QH14" s="25"/>
+      <c r="QI14" s="25"/>
+      <c r="QJ14" s="25"/>
+      <c r="QK14" s="25"/>
+      <c r="QL14" s="25"/>
+      <c r="QM14" s="25"/>
+      <c r="QN14" s="25"/>
+      <c r="QO14" s="25"/>
+      <c r="QP14" s="25"/>
+      <c r="QQ14" s="25"/>
+      <c r="QR14" s="25"/>
+      <c r="QS14" s="25"/>
+      <c r="QT14" s="25"/>
+      <c r="QU14" s="25"/>
+      <c r="QV14" s="25"/>
+      <c r="QW14" s="25"/>
+      <c r="QX14" s="25"/>
+      <c r="QY14" s="25"/>
+      <c r="QZ14" s="25"/>
+      <c r="RA14" s="25"/>
+      <c r="RB14" s="25"/>
+      <c r="RC14" s="25"/>
+      <c r="RD14" s="25"/>
+      <c r="RE14" s="25"/>
+      <c r="RF14" s="25"/>
+      <c r="RG14" s="25"/>
+      <c r="RH14" s="25"/>
+      <c r="RI14" s="25"/>
+      <c r="RJ14" s="25"/>
+      <c r="RK14" s="25"/>
+      <c r="RL14" s="25"/>
+      <c r="RM14" s="25"/>
+      <c r="RN14" s="25"/>
+      <c r="RO14" s="25"/>
+      <c r="RP14" s="25"/>
+      <c r="RQ14" s="25"/>
+      <c r="RR14" s="25"/>
+      <c r="RS14" s="25"/>
+      <c r="RT14" s="25"/>
+      <c r="RU14" s="25"/>
+      <c r="RV14" s="25"/>
+      <c r="RW14" s="25"/>
+      <c r="RX14" s="25"/>
+      <c r="RY14" s="25"/>
+      <c r="RZ14" s="25"/>
+      <c r="SA14" s="25"/>
+      <c r="SB14" s="25"/>
+      <c r="SC14" s="25"/>
+      <c r="SD14" s="25"/>
+      <c r="SE14" s="25"/>
+      <c r="SF14" s="25"/>
+      <c r="SG14" s="25"/>
+      <c r="SH14" s="25"/>
+      <c r="SI14" s="25"/>
+      <c r="SJ14" s="25"/>
+      <c r="SK14" s="25"/>
+      <c r="SL14" s="25"/>
+      <c r="SM14" s="25"/>
+      <c r="SN14" s="25"/>
+      <c r="SO14" s="25"/>
+      <c r="SP14" s="25"/>
+      <c r="SQ14" s="25"/>
+      <c r="SR14" s="25"/>
+      <c r="SS14" s="25"/>
+      <c r="ST14" s="25"/>
+      <c r="SU14" s="25"/>
+      <c r="SV14" s="25"/>
+      <c r="SW14" s="25"/>
+      <c r="SX14" s="25"/>
+      <c r="SY14" s="25"/>
+      <c r="SZ14" s="25"/>
+      <c r="TA14" s="25"/>
+      <c r="TB14" s="25"/>
+      <c r="TC14" s="25"/>
+      <c r="TD14" s="25"/>
+      <c r="TE14" s="25"/>
+      <c r="TF14" s="25"/>
+      <c r="TG14" s="25"/>
+      <c r="TH14" s="25"/>
+      <c r="TI14" s="25"/>
+      <c r="TJ14" s="25"/>
+      <c r="TK14" s="25"/>
+      <c r="TL14" s="25"/>
+      <c r="TM14" s="25"/>
+      <c r="TN14" s="25"/>
+      <c r="TO14" s="25"/>
+      <c r="TP14" s="25"/>
+      <c r="TQ14" s="25"/>
+      <c r="TR14" s="25"/>
+      <c r="TS14" s="25"/>
+      <c r="TT14" s="25"/>
+      <c r="TU14" s="25"/>
+      <c r="TV14" s="25"/>
+      <c r="TW14" s="25"/>
+      <c r="TX14" s="25"/>
+      <c r="TY14" s="25"/>
+      <c r="TZ14" s="25"/>
+      <c r="UA14" s="25"/>
+      <c r="UB14" s="25"/>
+      <c r="UC14" s="25"/>
+      <c r="UD14" s="25"/>
+      <c r="UE14" s="25"/>
+      <c r="UF14" s="25"/>
+      <c r="UG14" s="25"/>
+      <c r="UH14" s="25"/>
+      <c r="UI14" s="25"/>
+      <c r="UJ14" s="25"/>
+      <c r="UK14" s="25"/>
+      <c r="UL14" s="25"/>
+      <c r="UM14" s="25"/>
+      <c r="UN14" s="25"/>
+      <c r="UO14" s="25"/>
+      <c r="UP14" s="25"/>
+      <c r="UQ14" s="25"/>
+      <c r="UR14" s="25"/>
+      <c r="US14" s="25"/>
+      <c r="UT14" s="25"/>
+      <c r="UU14" s="25"/>
+      <c r="UV14" s="25"/>
+      <c r="UW14" s="25"/>
+      <c r="UX14" s="25"/>
+      <c r="UY14" s="25"/>
+      <c r="UZ14" s="25"/>
+      <c r="VA14" s="25"/>
+      <c r="VB14" s="25"/>
+      <c r="VC14" s="25"/>
+      <c r="VD14" s="25"/>
+      <c r="VE14" s="25"/>
+      <c r="VF14" s="25"/>
+      <c r="VG14" s="25"/>
+      <c r="VH14" s="25"/>
+      <c r="VI14" s="25"/>
+      <c r="VJ14" s="25"/>
+      <c r="VK14" s="25"/>
+      <c r="VL14" s="25"/>
+      <c r="VM14" s="25"/>
+      <c r="VN14" s="25"/>
+      <c r="VO14" s="25"/>
+      <c r="VP14" s="25"/>
+      <c r="VQ14" s="25"/>
+      <c r="VR14" s="25"/>
+      <c r="VS14" s="25"/>
+      <c r="VT14" s="25"/>
+      <c r="VU14" s="25"/>
+      <c r="VV14" s="25"/>
+      <c r="VW14" s="25"/>
+      <c r="VX14" s="25"/>
+      <c r="VY14" s="25"/>
+      <c r="VZ14" s="25"/>
+      <c r="WA14" s="25"/>
+      <c r="WB14" s="25"/>
+      <c r="WC14" s="25"/>
+      <c r="WD14" s="25"/>
+      <c r="WE14" s="25"/>
+      <c r="WF14" s="25"/>
+      <c r="WG14" s="25"/>
+      <c r="WH14" s="25"/>
+      <c r="WI14" s="25"/>
+      <c r="WJ14" s="25"/>
+      <c r="WK14" s="25"/>
+      <c r="WL14" s="25"/>
+      <c r="WM14" s="25"/>
+      <c r="WN14" s="25"/>
+      <c r="WO14" s="25"/>
+      <c r="WP14" s="25"/>
+      <c r="WQ14" s="25"/>
+      <c r="WR14" s="25"/>
+      <c r="WS14" s="25"/>
+      <c r="WT14" s="25"/>
+      <c r="WU14" s="25"/>
+      <c r="WV14" s="25"/>
+      <c r="WW14" s="25"/>
+      <c r="WX14" s="25"/>
+      <c r="WY14" s="25"/>
+      <c r="WZ14" s="25"/>
+      <c r="XA14" s="25"/>
+      <c r="XB14" s="25"/>
+      <c r="XC14" s="25"/>
+      <c r="XD14" s="25"/>
+      <c r="XE14" s="25"/>
+      <c r="XF14" s="25"/>
+      <c r="XG14" s="25"/>
+      <c r="XH14" s="25"/>
+      <c r="XI14" s="25"/>
+      <c r="XJ14" s="25"/>
+      <c r="XK14" s="25"/>
+      <c r="XL14" s="25"/>
+      <c r="XM14" s="25"/>
+      <c r="XN14" s="25"/>
+      <c r="XO14" s="25"/>
+      <c r="XP14" s="25"/>
+      <c r="XQ14" s="25"/>
+      <c r="XR14" s="25"/>
+      <c r="XS14" s="25"/>
+      <c r="XT14" s="25"/>
+      <c r="XU14" s="25"/>
+      <c r="XV14" s="25"/>
+      <c r="XW14" s="25"/>
+      <c r="XX14" s="25"/>
+      <c r="XY14" s="25"/>
+      <c r="XZ14" s="25"/>
+      <c r="YA14" s="25"/>
+      <c r="YB14" s="25"/>
+      <c r="YC14" s="25"/>
+      <c r="YD14" s="25"/>
+      <c r="YE14" s="25"/>
+      <c r="YF14" s="25"/>
+      <c r="YG14" s="25"/>
+      <c r="YH14" s="25"/>
+      <c r="YI14" s="25"/>
+      <c r="YJ14" s="25"/>
+      <c r="YK14" s="25"/>
+      <c r="YL14" s="25"/>
+      <c r="YM14" s="25"/>
+      <c r="YN14" s="25"/>
+      <c r="YO14" s="25"/>
+      <c r="YP14" s="25"/>
+      <c r="YQ14" s="25"/>
+      <c r="YR14" s="25"/>
+      <c r="YS14" s="25"/>
+      <c r="YT14" s="25"/>
+      <c r="YU14" s="25"/>
+      <c r="YV14" s="25"/>
+      <c r="YW14" s="25"/>
+      <c r="YX14" s="25"/>
+      <c r="YY14" s="25"/>
+      <c r="YZ14" s="25"/>
+      <c r="ZA14" s="25"/>
+      <c r="ZB14" s="25"/>
+      <c r="ZC14" s="25"/>
+      <c r="ZD14" s="25"/>
+      <c r="ZE14" s="25"/>
+      <c r="ZF14" s="25"/>
+      <c r="ZG14" s="25"/>
+      <c r="ZH14" s="25"/>
+      <c r="ZI14" s="25"/>
+      <c r="ZJ14" s="25"/>
+      <c r="ZK14" s="25"/>
+      <c r="ZL14" s="25"/>
+      <c r="ZM14" s="25"/>
+      <c r="ZN14" s="25"/>
+      <c r="ZO14" s="25"/>
+      <c r="ZP14" s="25"/>
+      <c r="ZQ14" s="25"/>
+      <c r="ZR14" s="25"/>
+      <c r="ZS14" s="25"/>
+      <c r="ZT14" s="25"/>
+      <c r="ZU14" s="25"/>
+      <c r="ZV14" s="25"/>
+      <c r="ZW14" s="25"/>
+      <c r="ZX14" s="25"/>
+      <c r="ZY14" s="25"/>
+      <c r="ZZ14" s="25"/>
+      <c r="AAA14" s="25"/>
+      <c r="AAB14" s="25"/>
+      <c r="AAC14" s="25"/>
+      <c r="AAD14" s="25"/>
+      <c r="AAE14" s="25"/>
+      <c r="AAF14" s="25"/>
+      <c r="AAG14" s="25"/>
+      <c r="AAH14" s="25"/>
+      <c r="AAI14" s="25"/>
+      <c r="AAJ14" s="25"/>
+      <c r="AAK14" s="25"/>
+      <c r="AAL14" s="25"/>
+      <c r="AAM14" s="25"/>
+      <c r="AAN14" s="25"/>
+      <c r="AAO14" s="25"/>
+      <c r="AAP14" s="25"/>
+      <c r="AAQ14" s="25"/>
+      <c r="AAR14" s="25"/>
+      <c r="AAS14" s="25"/>
+      <c r="AAT14" s="25"/>
+      <c r="AAU14" s="25"/>
+      <c r="AAV14" s="25"/>
+      <c r="AAW14" s="25"/>
+      <c r="AAX14" s="25"/>
+      <c r="AAY14" s="25"/>
+      <c r="AAZ14" s="25"/>
+      <c r="ABA14" s="25"/>
+      <c r="ABB14" s="25"/>
+      <c r="ABC14" s="25"/>
+      <c r="ABD14" s="25"/>
+      <c r="ABE14" s="25"/>
+      <c r="ABF14" s="25"/>
+      <c r="ABG14" s="25"/>
+      <c r="ABH14" s="25"/>
+      <c r="ABI14" s="25"/>
+      <c r="ABJ14" s="25"/>
+      <c r="ABK14" s="25"/>
+      <c r="ABL14" s="25"/>
+      <c r="ABM14" s="25"/>
+      <c r="ABN14" s="25"/>
+      <c r="ABO14" s="25"/>
+      <c r="ABP14" s="25"/>
+      <c r="ABQ14" s="25"/>
+      <c r="ABR14" s="25"/>
+      <c r="ABS14" s="25"/>
+      <c r="ABT14" s="25"/>
+      <c r="ABU14" s="25"/>
+      <c r="ABV14" s="25"/>
+      <c r="ABW14" s="25"/>
+      <c r="ABX14" s="25"/>
+      <c r="ABY14" s="25"/>
+      <c r="ABZ14" s="25"/>
+      <c r="ACA14" s="25"/>
+      <c r="ACB14" s="25"/>
+      <c r="ACC14" s="25"/>
+      <c r="ACD14" s="25"/>
+      <c r="ACE14" s="25"/>
+      <c r="ACF14" s="25"/>
+      <c r="ACG14" s="25"/>
+      <c r="ACH14" s="25"/>
+      <c r="ACI14" s="25"/>
+      <c r="ACJ14" s="25"/>
+      <c r="ACK14" s="25"/>
+      <c r="ACL14" s="25"/>
+      <c r="ACM14" s="25"/>
+      <c r="ACN14" s="25"/>
+      <c r="ACO14" s="25"/>
+      <c r="ACP14" s="25"/>
+      <c r="ACQ14" s="25"/>
+      <c r="ACR14" s="25"/>
+      <c r="ACS14" s="25"/>
+      <c r="ACT14" s="25"/>
+      <c r="ACU14" s="25"/>
+      <c r="ACV14" s="25"/>
+      <c r="ACW14" s="25"/>
+      <c r="ACX14" s="25"/>
+      <c r="ACY14" s="25"/>
+      <c r="ACZ14" s="25"/>
+      <c r="ADA14" s="25"/>
+      <c r="ADB14" s="25"/>
+      <c r="ADC14" s="25"/>
+      <c r="ADD14" s="25"/>
+      <c r="ADE14" s="25"/>
+      <c r="ADF14" s="25"/>
+      <c r="ADG14" s="25"/>
+      <c r="ADH14" s="25"/>
+      <c r="ADI14" s="25"/>
+      <c r="ADJ14" s="25"/>
+      <c r="ADK14" s="25"/>
+      <c r="ADL14" s="25"/>
+      <c r="ADM14" s="25"/>
+      <c r="ADN14" s="25"/>
+      <c r="ADO14" s="25"/>
+      <c r="ADP14" s="25"/>
+      <c r="ADQ14" s="25"/>
+      <c r="ADR14" s="25"/>
+      <c r="ADS14" s="25"/>
+      <c r="ADT14" s="25"/>
+      <c r="ADU14" s="25"/>
+      <c r="ADV14" s="25"/>
+      <c r="ADW14" s="25"/>
+      <c r="ADX14" s="25"/>
+      <c r="ADY14" s="25"/>
+      <c r="ADZ14" s="25"/>
+      <c r="AEA14" s="25"/>
+      <c r="AEB14" s="25"/>
+      <c r="AEC14" s="25"/>
+      <c r="AED14" s="25"/>
+      <c r="AEE14" s="25"/>
+      <c r="AEF14" s="25"/>
+      <c r="AEG14" s="25"/>
+      <c r="AEH14" s="25"/>
+      <c r="AEI14" s="25"/>
+      <c r="AEJ14" s="25"/>
+      <c r="AEK14" s="25"/>
+      <c r="AEL14" s="25"/>
+      <c r="AEM14" s="25"/>
+      <c r="AEN14" s="25"/>
+      <c r="AEO14" s="25"/>
+      <c r="AEP14" s="25"/>
+      <c r="AEQ14" s="25"/>
+      <c r="AER14" s="25"/>
+      <c r="AES14" s="25"/>
+      <c r="AET14" s="25"/>
+      <c r="AEU14" s="25"/>
+      <c r="AEV14" s="25"/>
+      <c r="AEW14" s="25"/>
+      <c r="AEX14" s="25"/>
+      <c r="AEY14" s="25"/>
+      <c r="AEZ14" s="25"/>
+      <c r="AFA14" s="25"/>
+      <c r="AFB14" s="25"/>
+      <c r="AFC14" s="25"/>
+      <c r="AFD14" s="25"/>
+      <c r="AFE14" s="25"/>
+      <c r="AFF14" s="25"/>
+      <c r="AFG14" s="25"/>
+      <c r="AFH14" s="25"/>
+      <c r="AFI14" s="25"/>
+      <c r="AFJ14" s="25"/>
+      <c r="AFK14" s="25"/>
+      <c r="AFL14" s="25"/>
+      <c r="AFM14" s="25"/>
+      <c r="AFN14" s="25"/>
+      <c r="AFO14" s="25"/>
+      <c r="AFP14" s="25"/>
+      <c r="AFQ14" s="25"/>
+      <c r="AFR14" s="25"/>
+      <c r="AFS14" s="25"/>
+      <c r="AFT14" s="25"/>
+      <c r="AFU14" s="25"/>
+      <c r="AFV14" s="25"/>
+      <c r="AFW14" s="25"/>
+      <c r="AFX14" s="25"/>
+      <c r="AFY14" s="25"/>
+      <c r="AFZ14" s="25"/>
+      <c r="AGA14" s="25"/>
+      <c r="AGB14" s="25"/>
+      <c r="AGC14" s="25"/>
+      <c r="AGD14" s="25"/>
+      <c r="AGE14" s="25"/>
+      <c r="AGF14" s="25"/>
+      <c r="AGG14" s="25"/>
+      <c r="AGH14" s="25"/>
+      <c r="AGI14" s="25"/>
+      <c r="AGJ14" s="25"/>
+      <c r="AGK14" s="25"/>
+      <c r="AGL14" s="25"/>
+      <c r="AGM14" s="25"/>
+      <c r="AGN14" s="25"/>
+      <c r="AGO14" s="25"/>
+      <c r="AGP14" s="25"/>
+      <c r="AGQ14" s="25"/>
+      <c r="AGR14" s="25"/>
+      <c r="AGS14" s="25"/>
+      <c r="AGT14" s="25"/>
+      <c r="AGU14" s="25"/>
+      <c r="AGV14" s="25"/>
+      <c r="AGW14" s="25"/>
+      <c r="AGX14" s="25"/>
+      <c r="AGY14" s="25"/>
+      <c r="AGZ14" s="25"/>
+      <c r="AHA14" s="25"/>
+      <c r="AHB14" s="25"/>
+      <c r="AHC14" s="25"/>
+      <c r="AHD14" s="25"/>
+      <c r="AHE14" s="25"/>
+      <c r="AHF14" s="25"/>
+      <c r="AHG14" s="25"/>
+      <c r="AHH14" s="25"/>
+      <c r="AHI14" s="25"/>
+      <c r="AHJ14" s="25"/>
+      <c r="AHK14" s="25"/>
+      <c r="AHL14" s="25"/>
+      <c r="AHM14" s="25"/>
+      <c r="AHN14" s="25"/>
+      <c r="AHO14" s="25"/>
+      <c r="AHP14" s="25"/>
+      <c r="AHQ14" s="25"/>
+      <c r="AHR14" s="25"/>
+      <c r="AHS14" s="25"/>
+      <c r="AHT14" s="25"/>
+      <c r="AHU14" s="25"/>
+      <c r="AHV14" s="25"/>
+      <c r="AHW14" s="25"/>
+      <c r="AHX14" s="25"/>
+      <c r="AHY14" s="25"/>
+      <c r="AHZ14" s="25"/>
+      <c r="AIA14" s="25"/>
+      <c r="AIB14" s="25"/>
+      <c r="AIC14" s="25"/>
+      <c r="AID14" s="25"/>
+      <c r="AIE14" s="25"/>
+      <c r="AIF14" s="25"/>
+      <c r="AIG14" s="25"/>
+      <c r="AIH14" s="25"/>
+      <c r="AII14" s="25"/>
+      <c r="AIJ14" s="25"/>
+      <c r="AIK14" s="25"/>
+      <c r="AIL14" s="25"/>
+      <c r="AIM14" s="25"/>
+      <c r="AIN14" s="25"/>
+      <c r="AIO14" s="25"/>
+      <c r="AIP14" s="25"/>
+      <c r="AIQ14" s="25"/>
+      <c r="AIR14" s="25"/>
+      <c r="AIS14" s="25"/>
+      <c r="AIT14" s="25"/>
+      <c r="AIU14" s="25"/>
+      <c r="AIV14" s="25"/>
+      <c r="AIW14" s="25"/>
+      <c r="AIX14" s="25"/>
+      <c r="AIY14" s="25"/>
+      <c r="AIZ14" s="25"/>
+      <c r="AJA14" s="25"/>
+      <c r="AJB14" s="25"/>
+      <c r="AJC14" s="25"/>
+      <c r="AJD14" s="25"/>
+      <c r="AJE14" s="25"/>
+      <c r="AJF14" s="25"/>
+      <c r="AJG14" s="25"/>
+      <c r="AJH14" s="25"/>
+      <c r="AJI14" s="25"/>
+      <c r="AJJ14" s="25"/>
+      <c r="AJK14" s="25"/>
+      <c r="AJL14" s="25"/>
+      <c r="AJM14" s="25"/>
+      <c r="AJN14" s="25"/>
+      <c r="AJO14" s="25"/>
+      <c r="AJP14" s="25"/>
+      <c r="AJQ14" s="25"/>
+      <c r="AJR14" s="25"/>
+      <c r="AJS14" s="25"/>
+      <c r="AJT14" s="25"/>
+      <c r="AJU14" s="25"/>
+      <c r="AJV14" s="25"/>
+      <c r="AJW14" s="25"/>
+      <c r="AJX14" s="25"/>
+      <c r="AJY14" s="25"/>
+      <c r="AJZ14" s="25"/>
+      <c r="AKA14" s="25"/>
+      <c r="AKB14" s="25"/>
+      <c r="AKC14" s="25"/>
+      <c r="AKD14" s="25"/>
+      <c r="AKE14" s="25"/>
+      <c r="AKF14" s="25"/>
+      <c r="AKG14" s="25"/>
+      <c r="AKH14" s="25"/>
+      <c r="AKI14" s="25"/>
+      <c r="AKJ14" s="25"/>
+      <c r="AKK14" s="25"/>
+      <c r="AKL14" s="25"/>
+      <c r="AKM14" s="25"/>
+      <c r="AKN14" s="25"/>
+      <c r="AKO14" s="25"/>
+      <c r="AKP14" s="25"/>
+      <c r="AKQ14" s="25"/>
+      <c r="AKR14" s="25"/>
+      <c r="AKS14" s="25"/>
+      <c r="AKT14" s="25"/>
+      <c r="AKU14" s="25"/>
+      <c r="AKV14" s="25"/>
+      <c r="AKW14" s="25"/>
+      <c r="AKX14" s="25"/>
+      <c r="AKY14" s="25"/>
+      <c r="AKZ14" s="25"/>
+      <c r="ALA14" s="25"/>
+      <c r="ALB14" s="25"/>
+      <c r="ALC14" s="25"/>
+      <c r="ALD14" s="25"/>
+      <c r="ALE14" s="25"/>
+      <c r="ALF14" s="25"/>
+      <c r="ALG14" s="25"/>
+      <c r="ALH14" s="25"/>
+      <c r="ALI14" s="25"/>
+      <c r="ALJ14" s="25"/>
+      <c r="ALK14" s="25"/>
+      <c r="ALL14" s="25"/>
+      <c r="ALM14" s="25"/>
+      <c r="ALN14" s="25"/>
+      <c r="ALO14" s="25"/>
+      <c r="ALP14" s="25"/>
+      <c r="ALQ14" s="25"/>
+      <c r="ALR14" s="25"/>
+      <c r="ALS14" s="25"/>
+      <c r="ALT14" s="25"/>
+      <c r="ALU14" s="25"/>
+      <c r="ALV14" s="25"/>
+      <c r="ALW14" s="25"/>
+      <c r="ALX14" s="25"/>
+      <c r="ALY14" s="25"/>
+      <c r="ALZ14" s="25"/>
+      <c r="AMA14" s="25"/>
+      <c r="AMB14" s="25"/>
+      <c r="AMC14" s="25"/>
+      <c r="AMD14" s="25"/>
+      <c r="AME14" s="25"/>
+      <c r="AMF14" s="25"/>
+      <c r="AMG14" s="25"/>
+      <c r="AMH14" s="25"/>
+      <c r="AMI14" s="25"/>
+      <c r="AMJ14" s="25"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="1">
@@ -4756,7 +5009,7 @@
       <c r="J15" s="5">
         <v>105</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="30">
         <v>107535</v>
       </c>
       <c r="L15" s="4">
@@ -4784,21 +5037,22 @@
         <v>281693</v>
       </c>
       <c r="T15" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U15" s="1">
         <v>3</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="45">
         <v>30</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="45">
         <v>140</v>
       </c>
-      <c r="Y15" s="38"/>
-      <c r="AA15" s="38"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
+      <c r="X15" s="42"/>
+      <c r="Y15" s="54"/>
+      <c r="AA15" s="54"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -4806,7 +5060,7 @@
       <c r="C16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="14">
@@ -4824,10 +5078,10 @@
       <c r="I16" s="5">
         <v>1200</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="45">
         <v>45</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="30">
         <v>107535</v>
       </c>
       <c r="L16" s="4">
@@ -4855,31 +5109,32 @@
         <v>281693</v>
       </c>
       <c r="T16" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U16" s="1">
         <v>3</v>
       </c>
-      <c r="V16" s="34">
+      <c r="V16" s="45">
         <v>50</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="45">
         <v>200</v>
       </c>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="38"/>
-      <c r="AD16" s="39"/>
-      <c r="AG16" s="39"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:27">
+      <c r="X16" s="42"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="54"/>
+      <c r="AD16" s="55"/>
+      <c r="AG16" s="55"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="1">
@@ -4900,7 +5155,7 @@
       <c r="J17" s="5">
         <v>158</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="30">
         <v>107535</v>
       </c>
       <c r="L17" s="4">
@@ -4928,7 +5183,7 @@
         <v>281693</v>
       </c>
       <c r="T17" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U17" s="1">
         <v>3</v>
@@ -4939,8 +5194,9 @@
       <c r="W17" s="5">
         <v>50</v>
       </c>
-      <c r="Y17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="54"/>
+      <c r="AA17" s="54"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1">
@@ -4949,7 +5205,7 @@
       <c r="C18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="10">
@@ -4961,7 +5217,7 @@
       <c r="G18" s="13">
         <v>1</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <v>285336</v>
       </c>
       <c r="I18" s="5">
@@ -4970,7 +5226,7 @@
       <c r="J18" s="5">
         <v>75</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="30">
         <v>107535</v>
       </c>
       <c r="L18" s="4">
@@ -4998,29 +5254,29 @@
         <v>281693</v>
       </c>
       <c r="T18" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U18" s="1">
         <v>3</v>
       </c>
-      <c r="V18" s="31">
+      <c r="V18" s="30">
         <v>100</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="30">
         <v>100</v>
       </c>
-      <c r="X18" s="36">
+      <c r="X18" s="42">
         <v>5001</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E19" s="1">
@@ -5041,7 +5297,7 @@
       <c r="J19" s="5">
         <v>105</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="30">
         <v>107535</v>
       </c>
       <c r="L19" s="4">
@@ -5069,7 +5325,7 @@
         <v>281693</v>
       </c>
       <c r="T19" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U19" s="1">
         <v>3</v>
@@ -5080,15 +5336,16 @@
       <c r="W19" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="1">
@@ -5109,7 +5366,7 @@
       <c r="J20" s="5">
         <v>105</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="30">
         <v>107535</v>
       </c>
       <c r="L20" s="4">
@@ -5137,7 +5394,7 @@
         <v>281693</v>
       </c>
       <c r="T20" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U20" s="1">
         <v>3</v>
@@ -5148,15 +5405,16 @@
       <c r="W20" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="42"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="1">
@@ -5177,7 +5435,7 @@
       <c r="J21" s="5">
         <v>90</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="30">
         <v>107535</v>
       </c>
       <c r="L21" s="4">
@@ -5205,7 +5463,7 @@
         <v>281693</v>
       </c>
       <c r="T21" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U21" s="1">
         <v>3</v>
@@ -5216,15 +5474,16 @@
       <c r="W21" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="42"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="1">
@@ -5245,7 +5504,7 @@
       <c r="J22" s="5">
         <v>158</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="30">
         <v>107535</v>
       </c>
       <c r="L22" s="4">
@@ -5273,7 +5532,7 @@
         <v>281693</v>
       </c>
       <c r="T22" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U22" s="1">
         <v>3</v>
@@ -5284,6 +5543,7 @@
       <c r="W22" s="5">
         <v>50</v>
       </c>
+      <c r="X22" s="42"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1">
@@ -5292,7 +5552,7 @@
       <c r="C23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="1">
@@ -5313,7 +5573,7 @@
       <c r="J23" s="5">
         <v>75</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="30">
         <v>107535</v>
       </c>
       <c r="L23" s="4">
@@ -5341,7 +5601,7 @@
         <v>281693</v>
       </c>
       <c r="T23" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U23" s="1">
         <v>3</v>
@@ -5352,7 +5612,7 @@
       <c r="W23" s="5">
         <v>100</v>
       </c>
-      <c r="X23" s="36">
+      <c r="X23" s="42">
         <v>5002</v>
       </c>
     </row>
@@ -5363,7 +5623,7 @@
       <c r="C24" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="1">
@@ -5384,7 +5644,7 @@
       <c r="J24" s="5">
         <v>105</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="30">
         <v>107535</v>
       </c>
       <c r="L24" s="4">
@@ -5412,7 +5672,7 @@
         <v>281693</v>
       </c>
       <c r="T24" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U24" s="1">
         <v>3</v>
@@ -5423,6 +5683,7 @@
       <c r="W24" s="5">
         <v>30</v>
       </c>
+      <c r="X24" s="42"/>
       <c r="Y24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
@@ -5433,7 +5694,7 @@
       <c r="C25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="1">
@@ -5454,7 +5715,7 @@
       <c r="J25" s="5">
         <v>90</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="30">
         <v>107535</v>
       </c>
       <c r="L25" s="4">
@@ -5482,17 +5743,18 @@
         <v>281693</v>
       </c>
       <c r="T25" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U25" s="1">
         <v>3</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25" s="43">
         <v>150</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25" s="43">
         <v>0</v>
       </c>
+      <c r="X25" s="42"/>
       <c r="Y25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
@@ -5503,7 +5765,7 @@
       <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="1">
@@ -5524,7 +5786,7 @@
       <c r="J26" s="5">
         <v>158</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="30">
         <v>107535</v>
       </c>
       <c r="L26" s="4">
@@ -5552,7 +5814,7 @@
         <v>281693</v>
       </c>
       <c r="T26" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U26" s="1">
         <v>3</v>
@@ -5563,6 +5825,7 @@
       <c r="W26" s="5">
         <v>50</v>
       </c>
+      <c r="X26" s="42"/>
       <c r="Y26" s="10"/>
       <c r="AA26" s="10"/>
     </row>
@@ -5573,7 +5836,7 @@
       <c r="C27" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="1">
@@ -5585,16 +5848,16 @@
       <c r="G27" s="13">
         <v>1</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <v>285336</v>
       </c>
       <c r="I27" s="5">
         <v>2000</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="45">
         <v>50</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="30">
         <v>107535</v>
       </c>
       <c r="L27" s="4">
@@ -5622,7 +5885,7 @@
         <v>281693</v>
       </c>
       <c r="T27" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U27" s="1">
         <v>3</v>
@@ -5633,7 +5896,7 @@
       <c r="W27" s="5">
         <v>100</v>
       </c>
-      <c r="X27" s="36">
+      <c r="X27" s="42">
         <v>5003</v>
       </c>
       <c r="Y27" s="10"/>
@@ -5646,7 +5909,7 @@
       <c r="C28" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="1">
@@ -5667,7 +5930,7 @@
       <c r="J28" s="5">
         <v>105</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="30">
         <v>107535</v>
       </c>
       <c r="L28" s="4">
@@ -5695,7 +5958,7 @@
         <v>281693</v>
       </c>
       <c r="T28" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U28" s="1">
         <v>3</v>
@@ -5706,6 +5969,7 @@
       <c r="W28" s="5">
         <v>50</v>
       </c>
+      <c r="X28" s="42"/>
       <c r="Y28" s="10"/>
       <c r="AA28" s="10"/>
     </row>
@@ -5716,7 +5980,7 @@
       <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="1">
@@ -5737,7 +6001,7 @@
       <c r="J29" s="5">
         <v>105</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="30">
         <v>107535</v>
       </c>
       <c r="L29" s="4">
@@ -5765,7 +6029,7 @@
         <v>281693</v>
       </c>
       <c r="T29" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U29" s="1">
         <v>3</v>
@@ -5776,6 +6040,7 @@
       <c r="W29" s="5">
         <v>30</v>
       </c>
+      <c r="X29" s="42"/>
       <c r="Y29" s="10"/>
       <c r="AA29" s="10"/>
     </row>
@@ -5786,7 +6051,7 @@
       <c r="C30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>105</v>
       </c>
       <c r="E30" s="1">
@@ -5807,7 +6072,7 @@
       <c r="J30" s="5">
         <v>75</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="30">
         <v>107535</v>
       </c>
       <c r="L30" s="4">
@@ -5835,7 +6100,7 @@
         <v>281693</v>
       </c>
       <c r="T30" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U30" s="1">
         <v>3</v>
@@ -5846,6 +6111,7 @@
       <c r="W30" s="5">
         <v>100</v>
       </c>
+      <c r="X30" s="42"/>
       <c r="Y30" s="10"/>
       <c r="AA30" s="10"/>
     </row>
@@ -5856,7 +6122,7 @@
       <c r="C31" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="1">
@@ -5871,13 +6137,13 @@
       <c r="H31" s="5">
         <v>281015</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="46">
         <v>300</v>
       </c>
       <c r="J31" s="5">
         <v>105</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="30">
         <v>107535</v>
       </c>
       <c r="L31" s="4">
@@ -5905,17 +6171,18 @@
         <v>281693</v>
       </c>
       <c r="T31" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U31" s="1">
         <v>3</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="46">
         <v>100</v>
       </c>
-      <c r="W31" s="35">
+      <c r="W31" s="46">
         <v>0</v>
       </c>
+      <c r="X31" s="42"/>
       <c r="Y31" s="10"/>
       <c r="AA31" s="10"/>
     </row>
@@ -5926,7 +6193,7 @@
       <c r="C32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>109</v>
       </c>
       <c r="E32" s="1">
@@ -5941,13 +6208,13 @@
       <c r="H32" s="5">
         <v>281015</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="46">
         <v>500</v>
       </c>
       <c r="J32" s="5">
         <v>105</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="30">
         <v>107535</v>
       </c>
       <c r="L32" s="4">
@@ -5975,17 +6242,18 @@
         <v>281693</v>
       </c>
       <c r="T32" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U32" s="1">
         <v>3</v>
       </c>
-      <c r="V32" s="35">
+      <c r="V32" s="46">
         <v>200</v>
       </c>
-      <c r="W32" s="35">
+      <c r="W32" s="46">
         <v>0</v>
       </c>
+      <c r="X32" s="42"/>
       <c r="Y32" s="10"/>
       <c r="AA32" s="10"/>
     </row>
@@ -5996,7 +6264,7 @@
       <c r="C33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="1">
@@ -6017,7 +6285,7 @@
       <c r="J33" s="5">
         <v>90</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="30">
         <v>107535</v>
       </c>
       <c r="L33" s="4">
@@ -6045,7 +6313,7 @@
         <v>281693</v>
       </c>
       <c r="T33" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U33" s="1">
         <v>3</v>
@@ -6056,6 +6324,7 @@
       <c r="W33" s="5">
         <v>70</v>
       </c>
+      <c r="X33" s="42"/>
       <c r="Y33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
@@ -6066,7 +6335,7 @@
       <c r="C34" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E34" s="1">
@@ -6087,7 +6356,7 @@
       <c r="J34" s="5">
         <v>105</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="30">
         <v>107535</v>
       </c>
       <c r="L34" s="4">
@@ -6115,7 +6384,7 @@
         <v>281693</v>
       </c>
       <c r="T34" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -6126,6 +6395,7 @@
       <c r="W34" s="5">
         <v>30</v>
       </c>
+      <c r="X34" s="42"/>
       <c r="Y34" s="10"/>
       <c r="AA34" s="10"/>
     </row>
@@ -6136,7 +6406,7 @@
       <c r="C35" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="1">
@@ -6154,10 +6424,10 @@
       <c r="I35" s="5">
         <v>1200</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="45">
         <v>30</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="30">
         <v>107535</v>
       </c>
       <c r="L35" s="4">
@@ -6185,17 +6455,18 @@
         <v>281693</v>
       </c>
       <c r="T35" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U35" s="1">
         <v>3</v>
       </c>
-      <c r="V35" s="34">
+      <c r="V35" s="45">
         <v>300</v>
       </c>
-      <c r="W35" s="34">
+      <c r="W35" s="45">
         <v>30</v>
       </c>
+      <c r="X35" s="42"/>
       <c r="Y35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
@@ -6206,7 +6477,7 @@
       <c r="C36" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E36" s="1">
@@ -6227,7 +6498,7 @@
       <c r="J36" s="5">
         <v>75</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="30">
         <v>107535</v>
       </c>
       <c r="L36" s="4">
@@ -6255,7 +6526,7 @@
         <v>281693</v>
       </c>
       <c r="T36" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U36" s="1">
         <v>3</v>
@@ -6266,7 +6537,7 @@
       <c r="W36" s="5">
         <v>100</v>
       </c>
-      <c r="X36" s="36">
+      <c r="X36" s="42">
         <v>5002</v>
       </c>
       <c r="Y36" s="10"/>
@@ -6279,7 +6550,7 @@
       <c r="C37" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>119</v>
       </c>
       <c r="E37" s="1">
@@ -6300,7 +6571,7 @@
       <c r="J37" s="5">
         <v>90</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K37" s="30">
         <v>107535</v>
       </c>
       <c r="L37" s="4">
@@ -6328,17 +6599,18 @@
         <v>281693</v>
       </c>
       <c r="T37" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U37" s="1">
         <v>3</v>
       </c>
-      <c r="V37" s="34">
+      <c r="V37" s="45">
         <v>0</v>
       </c>
-      <c r="W37" s="34">
+      <c r="W37" s="45">
         <v>45</v>
       </c>
+      <c r="X37" s="42"/>
       <c r="Y37" s="10"/>
       <c r="AA37" s="10"/>
     </row>
@@ -6349,7 +6621,7 @@
       <c r="C38" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>121</v>
       </c>
       <c r="E38" s="1">
@@ -6367,10 +6639,10 @@
       <c r="I38" s="5">
         <v>700</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="45">
         <v>90</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="30">
         <v>107535</v>
       </c>
       <c r="L38" s="4">
@@ -6398,17 +6670,18 @@
         <v>281693</v>
       </c>
       <c r="T38" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U38" s="1">
         <v>3</v>
       </c>
-      <c r="V38" s="34">
+      <c r="V38" s="45">
         <v>10</v>
       </c>
-      <c r="W38" s="34">
+      <c r="W38" s="45">
         <v>90</v>
       </c>
+      <c r="X38" s="42"/>
       <c r="Y38" s="10"/>
       <c r="AA38" s="10"/>
     </row>
@@ -6419,7 +6692,7 @@
       <c r="C39" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>123</v>
       </c>
       <c r="E39" s="1">
@@ -6440,7 +6713,7 @@
       <c r="J39" s="5">
         <v>105</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="30">
         <v>107535</v>
       </c>
       <c r="L39" s="4">
@@ -6468,7 +6741,7 @@
         <v>281693</v>
       </c>
       <c r="T39" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U39" s="1">
         <v>3</v>
@@ -6479,6 +6752,7 @@
       <c r="W39" s="5">
         <v>30</v>
       </c>
+      <c r="X39" s="42"/>
       <c r="Y39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
@@ -6489,7 +6763,7 @@
       <c r="C40" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>125</v>
       </c>
       <c r="E40" s="1">
@@ -6510,7 +6784,7 @@
       <c r="J40" s="5">
         <v>75</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="30">
         <v>107535</v>
       </c>
       <c r="L40" s="4">
@@ -6538,28 +6812,29 @@
         <v>281693</v>
       </c>
       <c r="T40" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U40" s="1">
         <v>3</v>
       </c>
-      <c r="V40" s="35">
+      <c r="V40" s="46">
         <v>200</v>
       </c>
-      <c r="W40" s="35">
+      <c r="W40" s="46">
         <v>200</v>
       </c>
+      <c r="X40" s="42"/>
       <c r="Y40" s="10"/>
       <c r="AA40" s="10"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:27">
-      <c r="A41" s="17">
+      <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>127</v>
       </c>
       <c r="E41" s="1">
@@ -6580,7 +6855,7 @@
       <c r="J41" s="5">
         <v>90</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="30">
         <v>107535</v>
       </c>
       <c r="L41" s="4">
@@ -6608,7 +6883,7 @@
         <v>281693</v>
       </c>
       <c r="T41" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U41" s="1">
         <v>3</v>
@@ -6619,17 +6894,18 @@
       <c r="W41" s="5">
         <v>70</v>
       </c>
+      <c r="X41" s="42"/>
       <c r="Y41" s="10"/>
       <c r="AA41" s="10"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:27">
-      <c r="A42" s="17">
+      <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E42" s="1">
@@ -6650,7 +6926,7 @@
       <c r="J42" s="5">
         <v>105</v>
       </c>
-      <c r="K42" s="31">
+      <c r="K42" s="30">
         <v>107535</v>
       </c>
       <c r="L42" s="4">
@@ -6678,7 +6954,7 @@
         <v>281693</v>
       </c>
       <c r="T42" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U42" s="1">
         <v>3</v>
@@ -6689,32 +6965,33 @@
       <c r="W42" s="5">
         <v>50</v>
       </c>
+      <c r="X42" s="42"/>
       <c r="Y42" s="10"/>
       <c r="AA42" s="10"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:27">
-      <c r="A43" s="1">
+      <c r="A43" s="31">
         <v>1039</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="31">
+        <v>1</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="13">
+      <c r="E43" s="31">
+        <v>1</v>
+      </c>
+      <c r="F43" s="34">
         <v>142153</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="34">
         <v>2</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="35">
         <v>281015</v>
       </c>
       <c r="I43" s="5">
@@ -6723,7 +7000,7 @@
       <c r="J43" s="5">
         <v>158</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="30">
         <v>107535</v>
       </c>
       <c r="L43" s="4">
@@ -6751,7 +7028,7 @@
         <v>281693</v>
       </c>
       <c r="T43" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U43" s="1">
         <v>3</v>
@@ -6762,32 +7039,33 @@
       <c r="W43" s="5">
         <v>100</v>
       </c>
+      <c r="X43" s="42"/>
       <c r="Y43" s="10"/>
       <c r="AA43" s="10"/>
     </row>
-    <row r="44" spans="1:1024">
-      <c r="A44" s="1">
+    <row r="44" ht="16.35" spans="1:1024">
+      <c r="A44" s="31">
         <v>1040</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="31">
+        <v>1</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="34">
         <v>268049</v>
       </c>
-      <c r="G44" s="13">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44" s="35">
         <v>281015</v>
       </c>
       <c r="I44" s="5">
@@ -6796,19 +7074,19 @@
       <c r="J44" s="5">
         <v>158</v>
       </c>
-      <c r="K44" s="31">
+      <c r="K44" s="30">
         <v>107535</v>
       </c>
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="47">
         <v>10</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="48">
         <v>100</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="49">
         <v>23</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -6824,7 +7102,7 @@
         <v>281693</v>
       </c>
       <c r="T44" s="1">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="U44" s="1">
         <v>3</v>
@@ -6835,7 +7113,7 @@
       <c r="W44" s="5">
         <v>100</v>
       </c>
-      <c r="X44" s="1"/>
+      <c r="X44" s="42"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="10"/>
@@ -7837,311 +8115,2025 @@
       <c r="AMI44" s="1"/>
       <c r="AMJ44" s="1"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="8:27">
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="10"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
+    <row r="45" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A45" s="36">
+        <v>1041</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="31">
+        <v>4</v>
+      </c>
+      <c r="F45" s="37">
+        <v>151159</v>
+      </c>
+      <c r="G45" s="31">
+        <v>1</v>
+      </c>
+      <c r="H45" s="38">
+        <v>281015</v>
+      </c>
+      <c r="I45" s="5">
+        <v>300</v>
+      </c>
+      <c r="J45" s="5">
+        <v>105</v>
+      </c>
+      <c r="K45" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="47">
+        <v>5</v>
+      </c>
+      <c r="N45" s="50">
+        <v>100</v>
+      </c>
+      <c r="O45" s="49">
+        <v>23</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S45" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U45" s="1">
+        <v>3</v>
+      </c>
+      <c r="V45" s="5">
+        <v>50</v>
+      </c>
+      <c r="W45" s="5">
+        <v>50</v>
+      </c>
+      <c r="X45" s="48"/>
       <c r="Y45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="8:27">
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="10"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+    <row r="46" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A46" s="36">
+        <v>1042</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="31">
+        <v>5</v>
+      </c>
+      <c r="F46" s="37">
+        <v>156501</v>
+      </c>
+      <c r="G46" s="31">
+        <v>1</v>
+      </c>
+      <c r="H46" s="35">
+        <v>269143</v>
+      </c>
+      <c r="I46" s="5">
+        <v>300</v>
+      </c>
+      <c r="J46" s="5">
+        <v>105</v>
+      </c>
+      <c r="K46" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="47">
+        <v>5</v>
+      </c>
+      <c r="N46" s="50">
+        <v>100</v>
+      </c>
+      <c r="O46" s="49">
+        <v>23</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S46" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U46" s="1">
+        <v>3</v>
+      </c>
+      <c r="V46" s="5">
+        <v>50</v>
+      </c>
+      <c r="W46" s="5">
+        <v>50</v>
+      </c>
+      <c r="X46" s="48"/>
       <c r="Y46" s="10"/>
       <c r="AA46" s="10"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="8:27">
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="10"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
+    <row r="47" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A47" s="31">
+        <v>1043</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="31">
+        <v>4</v>
+      </c>
+      <c r="F47" s="37">
+        <v>174697</v>
+      </c>
+      <c r="G47" s="31">
+        <v>1</v>
+      </c>
+      <c r="H47" s="35">
+        <v>150774</v>
+      </c>
+      <c r="I47" s="47">
+        <v>500</v>
+      </c>
+      <c r="J47" s="47">
+        <v>158</v>
+      </c>
+      <c r="K47" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L47" s="49">
+        <v>1</v>
+      </c>
+      <c r="M47" s="47">
+        <v>15</v>
+      </c>
+      <c r="N47" s="48">
+        <v>200</v>
+      </c>
+      <c r="O47" s="49">
+        <v>23</v>
+      </c>
+      <c r="P47" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R47" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S47" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T47" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U47" s="48">
+        <v>3</v>
+      </c>
+      <c r="V47" s="47">
+        <v>30</v>
+      </c>
+      <c r="W47" s="47">
+        <v>30</v>
+      </c>
+      <c r="X47" s="48"/>
       <c r="Y47" s="10"/>
       <c r="AA47" s="10"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="8:27">
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="10"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
+    <row r="48" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A48" s="36">
+        <v>1044</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="31">
+        <v>4</v>
+      </c>
+      <c r="F48" s="37">
+        <v>192427</v>
+      </c>
+      <c r="G48" s="31">
+        <v>1</v>
+      </c>
+      <c r="H48" s="35">
+        <v>269143</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1200</v>
+      </c>
+      <c r="J48" s="5">
+        <v>90</v>
+      </c>
+      <c r="K48" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5">
+        <v>15</v>
+      </c>
+      <c r="N48" s="1">
+        <v>600</v>
+      </c>
+      <c r="O48" s="4">
+        <v>23</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S48" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U48" s="1">
+        <v>3</v>
+      </c>
+      <c r="V48" s="5">
+        <v>70</v>
+      </c>
+      <c r="W48" s="5">
+        <v>70</v>
+      </c>
+      <c r="X48" s="48"/>
       <c r="Y48" s="10"/>
       <c r="AA48" s="10"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="8:27">
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="10"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
+    <row r="49" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A49" s="31">
+        <v>1045</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="31">
+        <v>4</v>
+      </c>
+      <c r="F49" s="37">
+        <v>220755</v>
+      </c>
+      <c r="G49" s="31">
+        <v>1</v>
+      </c>
+      <c r="H49" s="35">
+        <v>281015</v>
+      </c>
+      <c r="I49" s="47">
+        <v>300</v>
+      </c>
+      <c r="J49" s="47">
+        <v>105</v>
+      </c>
+      <c r="K49" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L49" s="49">
+        <v>1</v>
+      </c>
+      <c r="M49" s="47">
+        <v>5</v>
+      </c>
+      <c r="N49" s="48">
+        <v>100</v>
+      </c>
+      <c r="O49" s="49">
+        <v>23</v>
+      </c>
+      <c r="P49" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R49" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S49" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T49" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U49" s="48">
+        <v>3</v>
+      </c>
+      <c r="V49" s="47">
+        <v>0</v>
+      </c>
+      <c r="W49" s="47">
+        <v>100</v>
+      </c>
+      <c r="X49" s="48"/>
       <c r="Y49" s="10"/>
       <c r="AA49" s="10"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="8:27">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="10"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
+    <row r="50" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A50" s="31">
+        <v>1046</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="31">
+        <v>3</v>
+      </c>
+      <c r="F50" s="37">
+        <v>295550</v>
+      </c>
+      <c r="G50" s="31">
+        <v>1</v>
+      </c>
+      <c r="H50" s="35">
+        <v>268562</v>
+      </c>
+      <c r="I50" s="5">
+        <v>600</v>
+      </c>
+      <c r="J50" s="5">
+        <v>90</v>
+      </c>
+      <c r="K50" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5">
+        <v>10</v>
+      </c>
+      <c r="N50" s="1">
+        <v>100</v>
+      </c>
+      <c r="O50" s="4">
+        <v>23</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S50" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U50" s="1">
+        <v>3</v>
+      </c>
+      <c r="V50" s="45">
+        <v>0</v>
+      </c>
+      <c r="W50" s="45">
+        <v>45</v>
+      </c>
+      <c r="X50" s="48"/>
       <c r="Y50" s="10"/>
       <c r="AA50" s="10"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="8:27">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="10"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
+    <row r="51" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A51" s="31">
+        <v>1047</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="31">
+        <v>3</v>
+      </c>
+      <c r="F51" s="37">
+        <v>143394</v>
+      </c>
+      <c r="G51" s="31">
+        <v>2</v>
+      </c>
+      <c r="H51" s="35">
+        <v>281015</v>
+      </c>
+      <c r="I51" s="5">
+        <v>300</v>
+      </c>
+      <c r="J51" s="5">
+        <v>105</v>
+      </c>
+      <c r="K51" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51" s="5">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3">
+        <v>100</v>
+      </c>
+      <c r="O51" s="4">
+        <v>23</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S51" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U51" s="1">
+        <v>3</v>
+      </c>
+      <c r="V51" s="5">
+        <v>50</v>
+      </c>
+      <c r="W51" s="5">
+        <v>50</v>
+      </c>
+      <c r="X51" s="48"/>
       <c r="Y51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="8:27">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="10"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
+    <row r="52" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A52" s="36">
+        <v>1048</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="31">
+        <v>6</v>
+      </c>
+      <c r="F52" s="37">
+        <v>229674</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1</v>
+      </c>
+      <c r="H52" s="39">
+        <v>268562</v>
+      </c>
+      <c r="I52" s="47">
+        <v>500</v>
+      </c>
+      <c r="J52" s="47">
+        <v>158</v>
+      </c>
+      <c r="K52" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L52" s="49">
+        <v>1</v>
+      </c>
+      <c r="M52" s="47">
+        <v>15</v>
+      </c>
+      <c r="N52" s="48">
+        <v>600</v>
+      </c>
+      <c r="O52" s="49">
+        <v>23</v>
+      </c>
+      <c r="P52" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R52" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S52" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T52" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U52" s="48">
+        <v>3</v>
+      </c>
+      <c r="V52" s="47">
+        <v>30</v>
+      </c>
+      <c r="W52" s="47">
+        <v>30</v>
+      </c>
+      <c r="X52" s="48"/>
       <c r="Y52" s="10"/>
       <c r="AA52" s="10"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="8:27">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="10"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
+    <row r="53" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A53" s="31">
+        <v>1049</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="31">
+        <v>2</v>
+      </c>
+      <c r="F53" s="37">
+        <v>327983</v>
+      </c>
+      <c r="G53" s="31">
+        <v>2</v>
+      </c>
+      <c r="H53" s="35">
+        <v>268651</v>
+      </c>
+      <c r="I53" s="47">
+        <v>2000</v>
+      </c>
+      <c r="J53" s="47">
+        <v>50</v>
+      </c>
+      <c r="K53" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L53" s="49">
+        <v>1</v>
+      </c>
+      <c r="M53" s="47">
+        <v>10</v>
+      </c>
+      <c r="N53" s="48">
+        <v>600</v>
+      </c>
+      <c r="O53" s="49">
+        <v>23</v>
+      </c>
+      <c r="P53" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R53" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S53" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T53" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U53" s="48">
+        <v>3</v>
+      </c>
+      <c r="V53" s="47">
+        <v>100</v>
+      </c>
+      <c r="W53" s="47">
+        <v>100</v>
+      </c>
+      <c r="X53" s="48">
+        <v>5003</v>
+      </c>
       <c r="Y53" s="10"/>
       <c r="AA53" s="10"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="8:27">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="10"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
+    <row r="54" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A54" s="31">
+        <v>1050</v>
+      </c>
+      <c r="B54" s="31">
+        <v>2</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="31">
+        <v>2</v>
+      </c>
+      <c r="F54" s="37">
+        <v>327808</v>
+      </c>
+      <c r="G54" s="31">
+        <v>2</v>
+      </c>
+      <c r="H54" s="35">
+        <v>285174</v>
+      </c>
+      <c r="I54" s="5">
+        <v>400</v>
+      </c>
+      <c r="J54" s="5">
+        <v>105</v>
+      </c>
+      <c r="K54" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5">
+        <v>5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>100</v>
+      </c>
+      <c r="O54" s="4">
+        <v>23</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S54" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U54" s="1">
+        <v>3</v>
+      </c>
+      <c r="V54" s="5">
+        <v>30</v>
+      </c>
+      <c r="W54" s="5">
+        <v>30</v>
+      </c>
+      <c r="X54" s="48"/>
       <c r="Y54" s="10"/>
       <c r="AA54" s="10"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="8:27">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="10"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
+    <row r="55" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A55" s="31">
+        <v>1051</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="31">
+        <v>5</v>
+      </c>
+      <c r="F55" s="37">
+        <v>142146</v>
+      </c>
+      <c r="G55" s="31">
+        <v>2</v>
+      </c>
+      <c r="H55" s="35">
+        <v>281015</v>
+      </c>
+      <c r="I55" s="5">
+        <v>400</v>
+      </c>
+      <c r="J55" s="5">
+        <v>105</v>
+      </c>
+      <c r="K55" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5">
+        <v>5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>100</v>
+      </c>
+      <c r="O55" s="4">
+        <v>23</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S55" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U55" s="1">
+        <v>3</v>
+      </c>
+      <c r="V55" s="5">
+        <v>30</v>
+      </c>
+      <c r="W55" s="5">
+        <v>30</v>
+      </c>
+      <c r="X55" s="48"/>
       <c r="Y55" s="10"/>
       <c r="AA55" s="10"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="8:27">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="10"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
+    <row r="56" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A56" s="31">
+        <v>1052</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="31">
+        <v>5</v>
+      </c>
+      <c r="F56" s="37">
+        <v>142145</v>
+      </c>
+      <c r="G56" s="31">
+        <v>2</v>
+      </c>
+      <c r="H56" s="35">
+        <v>268567</v>
+      </c>
+      <c r="I56" s="5">
+        <v>400</v>
+      </c>
+      <c r="J56" s="5">
+        <v>105</v>
+      </c>
+      <c r="K56" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5">
+        <v>5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>100</v>
+      </c>
+      <c r="O56" s="4">
+        <v>23</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S56" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U56" s="1">
+        <v>3</v>
+      </c>
+      <c r="V56" s="5">
+        <v>30</v>
+      </c>
+      <c r="W56" s="5">
+        <v>30</v>
+      </c>
+      <c r="X56" s="48"/>
       <c r="Y56" s="10"/>
       <c r="AA56" s="10"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="8:27">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="10"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
+    <row r="57" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A57" s="31">
+        <v>1053</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="31">
+        <v>1</v>
+      </c>
+      <c r="F57" s="37">
+        <v>142264</v>
+      </c>
+      <c r="G57" s="31">
+        <v>2</v>
+      </c>
+      <c r="H57" s="35">
+        <v>268562</v>
+      </c>
+      <c r="I57" s="5">
+        <v>300</v>
+      </c>
+      <c r="J57" s="5">
+        <v>105</v>
+      </c>
+      <c r="K57" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="4">
+        <v>23</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S57" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U57" s="1">
+        <v>3</v>
+      </c>
+      <c r="V57" s="5">
+        <v>50</v>
+      </c>
+      <c r="W57" s="5">
+        <v>50</v>
+      </c>
+      <c r="X57" s="48"/>
       <c r="Y57" s="10"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="8:27">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="10"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
+    <row r="58" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A58" s="31">
+        <v>1054</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="31">
+        <v>6</v>
+      </c>
+      <c r="F58" s="37">
+        <v>143398</v>
+      </c>
+      <c r="G58" s="31">
+        <v>2</v>
+      </c>
+      <c r="H58" s="35">
+        <v>268567</v>
+      </c>
+      <c r="I58" s="5">
+        <v>400</v>
+      </c>
+      <c r="J58" s="5">
+        <v>105</v>
+      </c>
+      <c r="K58" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5">
+        <v>5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>100</v>
+      </c>
+      <c r="O58" s="4">
+        <v>23</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S58" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U58" s="1">
+        <v>3</v>
+      </c>
+      <c r="V58" s="5">
+        <v>30</v>
+      </c>
+      <c r="W58" s="5">
+        <v>30</v>
+      </c>
+      <c r="X58" s="48"/>
       <c r="Y58" s="10"/>
       <c r="AA58" s="10"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="8:27">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="10"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
+    <row r="59" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A59" s="31">
+        <v>1055</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="31">
+        <v>3</v>
+      </c>
+      <c r="F59" s="37">
+        <v>137848</v>
+      </c>
+      <c r="G59" s="31">
+        <v>2</v>
+      </c>
+      <c r="H59" s="35">
+        <v>281015</v>
+      </c>
+      <c r="I59" s="5">
+        <v>400</v>
+      </c>
+      <c r="J59" s="5">
+        <v>105</v>
+      </c>
+      <c r="K59" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>100</v>
+      </c>
+      <c r="O59" s="4">
+        <v>23</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S59" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U59" s="1">
+        <v>3</v>
+      </c>
+      <c r="V59" s="5">
+        <v>30</v>
+      </c>
+      <c r="W59" s="5">
+        <v>30</v>
+      </c>
+      <c r="X59" s="48"/>
       <c r="Y59" s="10"/>
       <c r="AA59" s="10"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="8:27">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="10"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
+    <row r="60" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A60" s="31">
+        <v>1056</v>
+      </c>
+      <c r="B60" s="31">
+        <v>2</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="31">
+        <v>2</v>
+      </c>
+      <c r="F60" s="37">
+        <v>351891</v>
+      </c>
+      <c r="G60" s="31">
+        <v>2</v>
+      </c>
+      <c r="H60" s="35">
+        <v>285174</v>
+      </c>
+      <c r="I60" s="5">
+        <v>500</v>
+      </c>
+      <c r="J60" s="5">
+        <v>75</v>
+      </c>
+      <c r="K60" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L60" s="42">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5">
+        <v>100</v>
+      </c>
+      <c r="N60" s="1">
+        <v>500</v>
+      </c>
+      <c r="O60" s="1">
+        <v>23</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>97861</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S60" s="52">
+        <v>285139</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U60" s="1">
+        <v>3</v>
+      </c>
+      <c r="V60" s="5">
+        <v>200</v>
+      </c>
+      <c r="W60" s="5">
+        <v>200</v>
+      </c>
+      <c r="X60" s="48"/>
       <c r="Y60" s="10"/>
       <c r="AA60" s="10"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="8:27">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="10"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
+    <row r="61" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A61" s="36">
+        <v>1057</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1</v>
+      </c>
+      <c r="F61" s="37">
+        <v>156704</v>
+      </c>
+      <c r="G61" s="31">
+        <v>1</v>
+      </c>
+      <c r="H61" s="39">
+        <v>281015</v>
+      </c>
+      <c r="I61" s="5">
+        <v>500</v>
+      </c>
+      <c r="J61" s="5">
+        <v>105</v>
+      </c>
+      <c r="K61" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5">
+        <v>5</v>
+      </c>
+      <c r="N61" s="1">
+        <v>100</v>
+      </c>
+      <c r="O61" s="4">
+        <v>23</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S61" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U61" s="1">
+        <v>3</v>
+      </c>
+      <c r="V61" s="5">
+        <v>30</v>
+      </c>
+      <c r="W61" s="5">
+        <v>30</v>
+      </c>
+      <c r="X61" s="48"/>
       <c r="Y61" s="10"/>
       <c r="AA61" s="10"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="8:27">
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="10"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
+    <row r="62" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A62" s="31">
+        <v>1058</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="31">
+        <v>5</v>
+      </c>
+      <c r="F62" s="37">
+        <v>339129</v>
+      </c>
+      <c r="G62" s="31">
+        <v>1</v>
+      </c>
+      <c r="H62" s="35">
+        <v>285018</v>
+      </c>
+      <c r="I62" s="5">
+        <v>500</v>
+      </c>
+      <c r="J62" s="5">
+        <v>75</v>
+      </c>
+      <c r="K62" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L62" s="42">
+        <v>1</v>
+      </c>
+      <c r="M62" s="5">
+        <v>100</v>
+      </c>
+      <c r="N62" s="1">
+        <v>500</v>
+      </c>
+      <c r="O62" s="1">
+        <v>23</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>97861</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S62" s="52">
+        <v>285139</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U62" s="1">
+        <v>3</v>
+      </c>
+      <c r="V62" s="5">
+        <v>200</v>
+      </c>
+      <c r="W62" s="5">
+        <v>200</v>
+      </c>
+      <c r="X62" s="48"/>
       <c r="Y62" s="10"/>
       <c r="AA62" s="10"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="8:27">
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="10"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
+    <row r="63" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A63" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="40">
+        <v>152976</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>285018</v>
+      </c>
+      <c r="I63" s="5">
+        <v>700</v>
+      </c>
+      <c r="J63" s="5">
+        <v>105</v>
+      </c>
+      <c r="K63" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5">
+        <v>10</v>
+      </c>
+      <c r="N63" s="1">
+        <v>200</v>
+      </c>
+      <c r="O63" s="4">
+        <v>23</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S63" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U63" s="1">
+        <v>3</v>
+      </c>
+      <c r="V63" s="5">
+        <v>50</v>
+      </c>
+      <c r="W63" s="5">
+        <v>50</v>
+      </c>
+      <c r="X63" s="48"/>
       <c r="Y63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="8:27">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="10"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
+    <row r="64" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A64" s="1">
+        <v>1060</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="40">
+        <v>268048</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5">
+        <v>281015</v>
+      </c>
+      <c r="I64" s="5">
+        <v>600</v>
+      </c>
+      <c r="J64" s="5">
+        <v>90</v>
+      </c>
+      <c r="K64" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="5">
+        <v>10</v>
+      </c>
+      <c r="N64" s="1">
+        <v>100</v>
+      </c>
+      <c r="O64" s="4">
+        <v>23</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S64" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U64" s="1">
+        <v>3</v>
+      </c>
+      <c r="V64" s="45">
+        <v>0</v>
+      </c>
+      <c r="W64" s="45">
+        <v>45</v>
+      </c>
+      <c r="X64" s="48"/>
       <c r="Y64" s="10"/>
       <c r="AA64" s="10"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="8:27">
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="10"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
+    <row r="65" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A65" s="1">
+        <v>1061</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="40">
+        <v>182063</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>281015</v>
+      </c>
+      <c r="I65" s="5">
+        <v>400</v>
+      </c>
+      <c r="J65" s="5">
+        <v>105</v>
+      </c>
+      <c r="K65" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="5">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>100</v>
+      </c>
+      <c r="O65" s="4">
+        <v>23</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S65" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U65" s="1">
+        <v>3</v>
+      </c>
+      <c r="V65" s="5">
+        <v>30</v>
+      </c>
+      <c r="W65" s="5">
+        <v>30</v>
+      </c>
+      <c r="X65" s="48"/>
       <c r="Y65" s="10"/>
       <c r="AA65" s="10"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="8:27">
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="10"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
+    <row r="66" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A66" s="56">
+        <v>1062</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="40">
+        <v>374107</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>357757</v>
+      </c>
+      <c r="I66" s="47">
+        <v>2000</v>
+      </c>
+      <c r="J66" s="47">
+        <v>50</v>
+      </c>
+      <c r="K66" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L66" s="49">
+        <v>1</v>
+      </c>
+      <c r="M66" s="47">
+        <v>10</v>
+      </c>
+      <c r="N66" s="48">
+        <v>600</v>
+      </c>
+      <c r="O66" s="49">
+        <v>23</v>
+      </c>
+      <c r="P66" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q66" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R66" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S66" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T66" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U66" s="48">
+        <v>3</v>
+      </c>
+      <c r="V66" s="47">
+        <v>100</v>
+      </c>
+      <c r="W66" s="47">
+        <v>100</v>
+      </c>
+      <c r="X66" s="48">
+        <v>5003</v>
+      </c>
       <c r="Y66" s="10"/>
       <c r="AA66" s="10"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="8:27">
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="10"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
+    <row r="67" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A67" s="56">
+        <v>1063</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="40">
+        <v>374066</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>357757</v>
+      </c>
+      <c r="I67" s="47">
+        <v>2000</v>
+      </c>
+      <c r="J67" s="47">
+        <v>75</v>
+      </c>
+      <c r="K67" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L67" s="49">
+        <v>1</v>
+      </c>
+      <c r="M67" s="47">
+        <v>30</v>
+      </c>
+      <c r="N67" s="48">
+        <v>1000</v>
+      </c>
+      <c r="O67" s="49">
+        <v>23</v>
+      </c>
+      <c r="P67" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q67" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R67" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S67" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T67" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U67" s="48">
+        <v>3</v>
+      </c>
+      <c r="V67" s="47">
+        <v>100</v>
+      </c>
+      <c r="W67" s="47">
+        <v>100</v>
+      </c>
+      <c r="X67" s="48">
+        <v>5002</v>
+      </c>
       <c r="Y67" s="10"/>
       <c r="AA67" s="10"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="8:27">
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="10"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
+    <row r="68" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A68" s="1">
+        <v>1064</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="40">
+        <v>310795</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5">
+        <v>268562</v>
+      </c>
+      <c r="I68" s="5">
+        <v>700</v>
+      </c>
+      <c r="J68" s="5">
+        <v>105</v>
+      </c>
+      <c r="K68" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <v>10</v>
+      </c>
+      <c r="N68" s="1">
+        <v>200</v>
+      </c>
+      <c r="O68" s="4">
+        <v>23</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S68" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U68" s="1">
+        <v>3</v>
+      </c>
+      <c r="V68" s="5">
+        <v>50</v>
+      </c>
+      <c r="W68" s="5">
+        <v>50</v>
+      </c>
+      <c r="X68" s="48"/>
       <c r="Y68" s="10"/>
       <c r="AA68" s="10"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="8:27">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="10"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
+    <row r="69" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A69" s="1">
+        <v>1065</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="40">
+        <v>310796</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5">
+        <v>268562</v>
+      </c>
+      <c r="I69" s="5">
+        <v>700</v>
+      </c>
+      <c r="J69" s="5">
+        <v>105</v>
+      </c>
+      <c r="K69" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="5">
+        <v>10</v>
+      </c>
+      <c r="N69" s="1">
+        <v>200</v>
+      </c>
+      <c r="O69" s="4">
+        <v>23</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S69" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U69" s="1">
+        <v>3</v>
+      </c>
+      <c r="V69" s="5">
+        <v>50</v>
+      </c>
+      <c r="W69" s="5">
+        <v>50</v>
+      </c>
+      <c r="X69" s="48"/>
       <c r="Y69" s="10"/>
       <c r="AA69" s="10"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="8:27">
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="10"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
+    <row r="70" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A70" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="40">
+        <v>141498</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="47">
+        <v>285174</v>
+      </c>
+      <c r="I70" s="47">
+        <v>700</v>
+      </c>
+      <c r="J70" s="47">
+        <v>105</v>
+      </c>
+      <c r="K70" s="51">
+        <v>107535</v>
+      </c>
+      <c r="L70" s="49">
+        <v>1</v>
+      </c>
+      <c r="M70" s="47">
+        <v>10</v>
+      </c>
+      <c r="N70" s="48">
+        <v>200</v>
+      </c>
+      <c r="O70" s="49">
+        <v>23</v>
+      </c>
+      <c r="P70" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q70" s="48">
+        <v>97861</v>
+      </c>
+      <c r="R70" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S70" s="49">
+        <v>281693</v>
+      </c>
+      <c r="T70" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="U70" s="48">
+        <v>3</v>
+      </c>
+      <c r="V70" s="47">
+        <v>50</v>
+      </c>
+      <c r="W70" s="47">
+        <v>50</v>
+      </c>
+      <c r="X70" s="48"/>
       <c r="Y70" s="10"/>
       <c r="AA70" s="10"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="8:27">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="10"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
+    <row r="71" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A71" s="56">
+        <v>1067</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6</v>
+      </c>
+      <c r="F71" s="40">
+        <v>164354</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="5">
+        <v>281015</v>
+      </c>
+      <c r="I71" s="5">
+        <v>500</v>
+      </c>
+      <c r="J71" s="5">
+        <v>75</v>
+      </c>
+      <c r="K71" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L71" s="42">
+        <v>1</v>
+      </c>
+      <c r="M71" s="5">
+        <v>100</v>
+      </c>
+      <c r="N71" s="1">
+        <v>500</v>
+      </c>
+      <c r="O71" s="1">
+        <v>23</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>97861</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S71" s="52">
+        <v>285139</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U71" s="1">
+        <v>3</v>
+      </c>
+      <c r="V71" s="5">
+        <v>200</v>
+      </c>
+      <c r="W71" s="5">
+        <v>200</v>
+      </c>
+      <c r="X71" s="48"/>
       <c r="Y71" s="10"/>
       <c r="AA71" s="10"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="8:27">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="10"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
+    <row r="72" s="1" customFormat="1" ht="16.35" spans="1:27">
+      <c r="A72" s="56">
+        <v>1068</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="40">
+        <v>164364</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5">
+        <v>281015</v>
+      </c>
+      <c r="I72" s="5">
+        <v>600</v>
+      </c>
+      <c r="J72" s="5">
+        <v>105</v>
+      </c>
+      <c r="K72" s="30">
+        <v>107535</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="5">
+        <v>5</v>
+      </c>
+      <c r="N72" s="6">
+        <v>100</v>
+      </c>
+      <c r="O72" s="4">
+        <v>23</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>97861</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S72" s="4">
+        <v>281693</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U72" s="1">
+        <v>3</v>
+      </c>
+      <c r="V72" s="5">
+        <v>50</v>
+      </c>
+      <c r="W72" s="5">
+        <v>50</v>
+      </c>
+      <c r="X72" s="48"/>
       <c r="Y72" s="10"/>
       <c r="AA72" s="10"/>
     </row>
@@ -11478,18 +13470,10 @@
       <c r="Y375" s="10"/>
       <c r="AA375" s="10"/>
     </row>
-    <row r="376" s="1" customFormat="1" spans="8:27">
-      <c r="H376" s="5"/>
-      <c r="I376" s="5"/>
-      <c r="J376" s="5"/>
-      <c r="M376" s="5"/>
-      <c r="N376" s="10"/>
-      <c r="V376" s="5"/>
-      <c r="W376" s="5"/>
-      <c r="Y376" s="10"/>
-      <c r="AA376" s="10"/>
-    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:X72" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20640" windowHeight="13571" tabRatio="500"/>
+    <workbookView windowWidth="30708" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AMJ$373</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
   <si>
     <t>int</t>
   </si>
@@ -480,7 +480,7 @@
     <t>Monster_name_47</t>
   </si>
   <si>
-    <t>柴犬</t>
+    <t>柴犬玩偶</t>
   </si>
   <si>
     <t>Monster_name_48</t>
@@ -564,13 +564,13 @@
     <t>Monster_name_61</t>
   </si>
   <si>
-    <t>水史莱姆</t>
+    <t>企鹅玩偶</t>
   </si>
   <si>
     <t>Monster_name_62</t>
   </si>
   <si>
-    <t>岩浆史莱姆</t>
+    <t>粉色睡衣怪</t>
   </si>
   <si>
     <t>Monster_name_63</t>
@@ -589,18 +589,6 @@
   </si>
   <si>
     <t>太阳神</t>
-  </si>
-  <si>
-    <t>Monster_name_66</t>
-  </si>
-  <si>
-    <t>熊人</t>
-  </si>
-  <si>
-    <t>Monster_name_67</t>
-  </si>
-  <si>
-    <t>光兔子</t>
   </si>
 </sst>
 </file>
@@ -812,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +835,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5429"/>
         <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1203,7 +1197,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,16 +1221,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1245,89 +1239,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1418,16 +1412,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1452,12 +1440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -1479,8 +1461,29 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1935,12 +1938,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ375"/>
+  <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2044,7 +2047,7 @@
       <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="53"/>
+      <c r="Y1" s="49"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
@@ -2134,7 +2137,7 @@
       <c r="X2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="53"/>
+      <c r="Y2" s="49"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -2179,7 +2182,7 @@
       <c r="I3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="39" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2221,10 +2224,10 @@
       <c r="W3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="53"/>
+      <c r="Y3" s="49"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -2286,7 +2289,7 @@
       <c r="K5" s="30">
         <v>107535</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="40">
         <v>1</v>
       </c>
       <c r="M5" s="23">
@@ -2307,7 +2310,7 @@
       <c r="R5" s="1">
         <v>0.3</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="48">
         <v>285139</v>
       </c>
       <c r="T5" s="1">
@@ -2322,14 +2325,14 @@
       <c r="W5" s="5">
         <v>200</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="40">
         <v>5002</v>
       </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="54"/>
-      <c r="AD5" s="55"/>
-      <c r="AG5" s="55"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="50"/>
+      <c r="AD5" s="51"/>
+      <c r="AG5" s="51"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A6" s="10">
@@ -2365,7 +2368,7 @@
       <c r="K6" s="30">
         <v>107535</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="40">
         <v>1</v>
       </c>
       <c r="M6" s="5">
@@ -2386,7 +2389,7 @@
       <c r="R6" s="1">
         <v>0.3</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="48">
         <v>285139</v>
       </c>
       <c r="T6" s="1">
@@ -2401,9 +2404,9 @@
       <c r="W6" s="5">
         <v>200</v>
       </c>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="54"/>
-      <c r="AA6" s="54"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="50"/>
+      <c r="AA6" s="50"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A7" s="10">
@@ -2439,7 +2442,7 @@
       <c r="K7" s="30">
         <v>107535</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="40">
         <v>1</v>
       </c>
       <c r="M7" s="23">
@@ -2460,7 +2463,7 @@
       <c r="R7" s="1">
         <v>0.3</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="48">
         <v>20291</v>
       </c>
       <c r="T7" s="1">
@@ -2475,12 +2478,12 @@
       <c r="W7" s="5">
         <v>200</v>
       </c>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="54"/>
-      <c r="AD7" s="55"/>
-      <c r="AG7" s="55"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="50"/>
+      <c r="AD7" s="51"/>
+      <c r="AG7" s="51"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A8" s="10">
@@ -2516,7 +2519,7 @@
       <c r="K8" s="30">
         <v>107535</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="40">
         <v>1</v>
       </c>
       <c r="M8" s="5">
@@ -2552,9 +2555,9 @@
       <c r="W8" s="5">
         <v>200</v>
       </c>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="54"/>
-      <c r="AA8" s="54"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="50"/>
+      <c r="AA8" s="50"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A9" s="10">
@@ -2590,7 +2593,7 @@
       <c r="K9" s="30">
         <v>107535</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="40">
         <v>1</v>
       </c>
       <c r="M9" s="5">
@@ -2611,7 +2614,7 @@
       <c r="R9" s="1">
         <v>0.3</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="48">
         <v>285139</v>
       </c>
       <c r="T9" s="1">
@@ -2626,9 +2629,9 @@
       <c r="W9" s="5">
         <v>200</v>
       </c>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="54"/>
-      <c r="AA9" s="54"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="50"/>
+      <c r="AA9" s="50"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A10" s="10">
@@ -2664,7 +2667,7 @@
       <c r="K10" s="30">
         <v>107535</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <v>1</v>
       </c>
       <c r="M10" s="5">
@@ -2685,7 +2688,7 @@
       <c r="R10" s="1">
         <v>0.3</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="48">
         <v>285139</v>
       </c>
       <c r="T10" s="1">
@@ -2700,9 +2703,9 @@
       <c r="W10" s="5">
         <v>200</v>
       </c>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="54"/>
-      <c r="AA10" s="54"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="50"/>
+      <c r="AA10" s="50"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1">
@@ -2772,7 +2775,7 @@
       <c r="W11" s="5">
         <v>200</v>
       </c>
-      <c r="X11" s="42"/>
+      <c r="X11" s="40"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:1024">
       <c r="A12" s="17">
@@ -2797,19 +2800,19 @@
       <c r="H12" s="5">
         <v>281015</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="41">
         <v>500</v>
       </c>
       <c r="J12" s="5">
         <v>105</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="42">
         <v>107535</v>
       </c>
       <c r="L12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <v>5</v>
       </c>
       <c r="N12" s="2">
@@ -2836,13 +2839,13 @@
       <c r="U12" s="17">
         <v>3</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="41">
         <v>30</v>
       </c>
-      <c r="W12" s="43">
+      <c r="W12" s="41">
         <v>30</v>
       </c>
-      <c r="X12" s="42"/>
+      <c r="X12" s="40"/>
       <c r="Z12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
@@ -3909,7 +3912,7 @@
       <c r="W13" s="5">
         <v>50</v>
       </c>
-      <c r="X13" s="42"/>
+      <c r="X13" s="40"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:1024">
       <c r="A14" s="24">
@@ -3981,7 +3984,7 @@
       <c r="W14" s="5">
         <v>50</v>
       </c>
-      <c r="X14" s="42"/>
+      <c r="X14" s="40"/>
       <c r="Z14" s="25"/>
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
@@ -5042,15 +5045,15 @@
       <c r="U15" s="1">
         <v>3</v>
       </c>
-      <c r="V15" s="45">
+      <c r="V15" s="43">
         <v>30</v>
       </c>
-      <c r="W15" s="45">
+      <c r="W15" s="43">
         <v>140</v>
       </c>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="54"/>
-      <c r="AA15" s="54"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="50"/>
+      <c r="AA15" s="50"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A16" s="1">
@@ -5078,7 +5081,7 @@
       <c r="I16" s="5">
         <v>1200</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="43">
         <v>45</v>
       </c>
       <c r="K16" s="30">
@@ -5114,18 +5117,18 @@
       <c r="U16" s="1">
         <v>3</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="43">
         <v>50</v>
       </c>
-      <c r="W16" s="45">
+      <c r="W16" s="43">
         <v>200</v>
       </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="54"/>
-      <c r="AD16" s="55"/>
-      <c r="AG16" s="55"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="50"/>
+      <c r="AD16" s="51"/>
+      <c r="AG16" s="51"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A17" s="1">
@@ -5194,9 +5197,9 @@
       <c r="W17" s="5">
         <v>50</v>
       </c>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="54"/>
-      <c r="AA17" s="54"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="50"/>
+      <c r="AA17" s="50"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1">
@@ -5265,7 +5268,7 @@
       <c r="W18" s="30">
         <v>100</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="40">
         <v>5001</v>
       </c>
     </row>
@@ -5336,7 +5339,7 @@
       <c r="W19" s="5">
         <v>30</v>
       </c>
-      <c r="X19" s="42"/>
+      <c r="X19" s="40"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1">
@@ -5405,7 +5408,7 @@
       <c r="W20" s="5">
         <v>50</v>
       </c>
-      <c r="X20" s="42"/>
+      <c r="X20" s="40"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1">
@@ -5474,7 +5477,7 @@
       <c r="W21" s="5">
         <v>70</v>
       </c>
-      <c r="X21" s="42"/>
+      <c r="X21" s="40"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1">
@@ -5543,7 +5546,7 @@
       <c r="W22" s="5">
         <v>50</v>
       </c>
-      <c r="X22" s="42"/>
+      <c r="X22" s="40"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1">
@@ -5612,7 +5615,7 @@
       <c r="W23" s="5">
         <v>100</v>
       </c>
-      <c r="X23" s="42">
+      <c r="X23" s="40">
         <v>5002</v>
       </c>
     </row>
@@ -5683,7 +5686,7 @@
       <c r="W24" s="5">
         <v>30</v>
       </c>
-      <c r="X24" s="42"/>
+      <c r="X24" s="40"/>
       <c r="Y24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
@@ -5748,13 +5751,13 @@
       <c r="U25" s="1">
         <v>3</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="41">
         <v>150</v>
       </c>
-      <c r="W25" s="43">
+      <c r="W25" s="41">
         <v>0</v>
       </c>
-      <c r="X25" s="42"/>
+      <c r="X25" s="40"/>
       <c r="Y25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
@@ -5825,7 +5828,7 @@
       <c r="W26" s="5">
         <v>50</v>
       </c>
-      <c r="X26" s="42"/>
+      <c r="X26" s="40"/>
       <c r="Y26" s="10"/>
       <c r="AA26" s="10"/>
     </row>
@@ -5854,7 +5857,7 @@
       <c r="I27" s="5">
         <v>2000</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <v>50</v>
       </c>
       <c r="K27" s="30">
@@ -5896,7 +5899,7 @@
       <c r="W27" s="5">
         <v>100</v>
       </c>
-      <c r="X27" s="42">
+      <c r="X27" s="40">
         <v>5003</v>
       </c>
       <c r="Y27" s="10"/>
@@ -5969,7 +5972,7 @@
       <c r="W28" s="5">
         <v>50</v>
       </c>
-      <c r="X28" s="42"/>
+      <c r="X28" s="40"/>
       <c r="Y28" s="10"/>
       <c r="AA28" s="10"/>
     </row>
@@ -6040,7 +6043,7 @@
       <c r="W29" s="5">
         <v>30</v>
       </c>
-      <c r="X29" s="42"/>
+      <c r="X29" s="40"/>
       <c r="Y29" s="10"/>
       <c r="AA29" s="10"/>
     </row>
@@ -6111,7 +6114,7 @@
       <c r="W30" s="5">
         <v>100</v>
       </c>
-      <c r="X30" s="42"/>
+      <c r="X30" s="40"/>
       <c r="Y30" s="10"/>
       <c r="AA30" s="10"/>
     </row>
@@ -6137,7 +6140,7 @@
       <c r="H31" s="5">
         <v>281015</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="44">
         <v>300</v>
       </c>
       <c r="J31" s="5">
@@ -6176,13 +6179,13 @@
       <c r="U31" s="1">
         <v>3</v>
       </c>
-      <c r="V31" s="46">
+      <c r="V31" s="44">
         <v>100</v>
       </c>
-      <c r="W31" s="46">
+      <c r="W31" s="44">
         <v>0</v>
       </c>
-      <c r="X31" s="42"/>
+      <c r="X31" s="40"/>
       <c r="Y31" s="10"/>
       <c r="AA31" s="10"/>
     </row>
@@ -6208,7 +6211,7 @@
       <c r="H32" s="5">
         <v>281015</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="44">
         <v>500</v>
       </c>
       <c r="J32" s="5">
@@ -6247,13 +6250,13 @@
       <c r="U32" s="1">
         <v>3</v>
       </c>
-      <c r="V32" s="46">
+      <c r="V32" s="44">
         <v>200</v>
       </c>
-      <c r="W32" s="46">
+      <c r="W32" s="44">
         <v>0</v>
       </c>
-      <c r="X32" s="42"/>
+      <c r="X32" s="40"/>
       <c r="Y32" s="10"/>
       <c r="AA32" s="10"/>
     </row>
@@ -6324,7 +6327,7 @@
       <c r="W33" s="5">
         <v>70</v>
       </c>
-      <c r="X33" s="42"/>
+      <c r="X33" s="40"/>
       <c r="Y33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
@@ -6395,7 +6398,7 @@
       <c r="W34" s="5">
         <v>30</v>
       </c>
-      <c r="X34" s="42"/>
+      <c r="X34" s="40"/>
       <c r="Y34" s="10"/>
       <c r="AA34" s="10"/>
     </row>
@@ -6424,7 +6427,7 @@
       <c r="I35" s="5">
         <v>1200</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="43">
         <v>30</v>
       </c>
       <c r="K35" s="30">
@@ -6460,13 +6463,13 @@
       <c r="U35" s="1">
         <v>3</v>
       </c>
-      <c r="V35" s="45">
+      <c r="V35" s="43">
         <v>300</v>
       </c>
-      <c r="W35" s="45">
+      <c r="W35" s="43">
         <v>30</v>
       </c>
-      <c r="X35" s="42"/>
+      <c r="X35" s="40"/>
       <c r="Y35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
@@ -6537,7 +6540,7 @@
       <c r="W36" s="5">
         <v>100</v>
       </c>
-      <c r="X36" s="42">
+      <c r="X36" s="40">
         <v>5002</v>
       </c>
       <c r="Y36" s="10"/>
@@ -6604,13 +6607,13 @@
       <c r="U37" s="1">
         <v>3</v>
       </c>
-      <c r="V37" s="45">
+      <c r="V37" s="43">
         <v>0</v>
       </c>
-      <c r="W37" s="45">
+      <c r="W37" s="43">
         <v>45</v>
       </c>
-      <c r="X37" s="42"/>
+      <c r="X37" s="40"/>
       <c r="Y37" s="10"/>
       <c r="AA37" s="10"/>
     </row>
@@ -6639,7 +6642,7 @@
       <c r="I38" s="5">
         <v>700</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="43">
         <v>90</v>
       </c>
       <c r="K38" s="30">
@@ -6675,13 +6678,13 @@
       <c r="U38" s="1">
         <v>3</v>
       </c>
-      <c r="V38" s="45">
+      <c r="V38" s="43">
         <v>10</v>
       </c>
-      <c r="W38" s="45">
+      <c r="W38" s="43">
         <v>90</v>
       </c>
-      <c r="X38" s="42"/>
+      <c r="X38" s="40"/>
       <c r="Y38" s="10"/>
       <c r="AA38" s="10"/>
     </row>
@@ -6752,7 +6755,7 @@
       <c r="W39" s="5">
         <v>30</v>
       </c>
-      <c r="X39" s="42"/>
+      <c r="X39" s="40"/>
       <c r="Y39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
@@ -6817,13 +6820,13 @@
       <c r="U40" s="1">
         <v>3</v>
       </c>
-      <c r="V40" s="46">
+      <c r="V40" s="44">
         <v>200</v>
       </c>
-      <c r="W40" s="46">
+      <c r="W40" s="44">
         <v>200</v>
       </c>
-      <c r="X40" s="42"/>
+      <c r="X40" s="40"/>
       <c r="Y40" s="10"/>
       <c r="AA40" s="10"/>
     </row>
@@ -6894,7 +6897,7 @@
       <c r="W41" s="5">
         <v>70</v>
       </c>
-      <c r="X41" s="42"/>
+      <c r="X41" s="40"/>
       <c r="Y41" s="10"/>
       <c r="AA41" s="10"/>
     </row>
@@ -6965,7 +6968,7 @@
       <c r="W42" s="5">
         <v>50</v>
       </c>
-      <c r="X42" s="42"/>
+      <c r="X42" s="40"/>
       <c r="Y42" s="10"/>
       <c r="AA42" s="10"/>
     </row>
@@ -7039,7 +7042,7 @@
       <c r="W43" s="5">
         <v>100</v>
       </c>
-      <c r="X43" s="42"/>
+      <c r="X43" s="40"/>
       <c r="Y43" s="10"/>
       <c r="AA43" s="10"/>
     </row>
@@ -7080,13 +7083,13 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="47">
+      <c r="M44" s="35">
         <v>10</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="31">
         <v>100</v>
       </c>
-      <c r="O44" s="49">
+      <c r="O44" s="45">
         <v>23</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -7113,7 +7116,7 @@
       <c r="W44" s="5">
         <v>100</v>
       </c>
-      <c r="X44" s="42"/>
+      <c r="X44" s="40"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="10"/>
@@ -8116,7 +8119,7 @@
       <c r="AMJ44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A45" s="36">
+      <c r="A45" s="31">
         <v>1041</v>
       </c>
       <c r="B45" s="31"/>
@@ -8129,13 +8132,13 @@
       <c r="E45" s="31">
         <v>4</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <v>151159</v>
       </c>
       <c r="G45" s="31">
         <v>1</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="37">
         <v>281015</v>
       </c>
       <c r="I45" s="5">
@@ -8150,13 +8153,13 @@
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="47">
+      <c r="M45" s="35">
         <v>5</v>
       </c>
-      <c r="N45" s="50">
+      <c r="N45" s="46">
         <v>100</v>
       </c>
-      <c r="O45" s="49">
+      <c r="O45" s="45">
         <v>23</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -8183,12 +8186,12 @@
       <c r="W45" s="5">
         <v>50</v>
       </c>
-      <c r="X45" s="48"/>
+      <c r="X45" s="31"/>
       <c r="Y45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A46" s="36">
+      <c r="A46" s="31">
         <v>1042</v>
       </c>
       <c r="B46" s="31"/>
@@ -8201,7 +8204,7 @@
       <c r="E46" s="31">
         <v>5</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <v>156501</v>
       </c>
       <c r="G46" s="31">
@@ -8222,13 +8225,13 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="47">
+      <c r="M46" s="35">
         <v>5</v>
       </c>
-      <c r="N46" s="50">
+      <c r="N46" s="46">
         <v>100</v>
       </c>
-      <c r="O46" s="49">
+      <c r="O46" s="45">
         <v>23</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -8255,7 +8258,7 @@
       <c r="W46" s="5">
         <v>50</v>
       </c>
-      <c r="X46" s="48"/>
+      <c r="X46" s="31"/>
       <c r="Y46" s="10"/>
       <c r="AA46" s="10"/>
     </row>
@@ -8273,7 +8276,7 @@
       <c r="E47" s="31">
         <v>4</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <v>174697</v>
       </c>
       <c r="G47" s="31">
@@ -8282,57 +8285,57 @@
       <c r="H47" s="35">
         <v>150774</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="35">
         <v>500</v>
       </c>
-      <c r="J47" s="47">
+      <c r="J47" s="35">
         <v>158</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="47">
         <v>107535</v>
       </c>
-      <c r="L47" s="49">
-        <v>1</v>
-      </c>
-      <c r="M47" s="47">
+      <c r="L47" s="45">
+        <v>1</v>
+      </c>
+      <c r="M47" s="35">
         <v>15</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="31">
         <v>200</v>
       </c>
-      <c r="O47" s="49">
+      <c r="O47" s="45">
         <v>23</v>
       </c>
-      <c r="P47" s="48" t="s">
+      <c r="P47" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q47" s="48">
+      <c r="Q47" s="31">
         <v>97861</v>
       </c>
-      <c r="R47" s="48">
+      <c r="R47" s="31">
         <v>0.3</v>
       </c>
-      <c r="S47" s="49">
+      <c r="S47" s="45">
         <v>281693</v>
       </c>
-      <c r="T47" s="48">
+      <c r="T47" s="31">
         <v>1.5</v>
       </c>
-      <c r="U47" s="48">
+      <c r="U47" s="31">
         <v>3</v>
       </c>
-      <c r="V47" s="47">
+      <c r="V47" s="35">
         <v>30</v>
       </c>
-      <c r="W47" s="47">
+      <c r="W47" s="35">
         <v>30</v>
       </c>
-      <c r="X47" s="48"/>
+      <c r="X47" s="31"/>
       <c r="Y47" s="10"/>
       <c r="AA47" s="10"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A48" s="36">
+      <c r="A48" s="31">
         <v>1044</v>
       </c>
       <c r="B48" s="31"/>
@@ -8345,7 +8348,7 @@
       <c r="E48" s="31">
         <v>4</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <v>192427</v>
       </c>
       <c r="G48" s="31">
@@ -8399,7 +8402,7 @@
       <c r="W48" s="5">
         <v>70</v>
       </c>
-      <c r="X48" s="48"/>
+      <c r="X48" s="31"/>
       <c r="Y48" s="10"/>
       <c r="AA48" s="10"/>
     </row>
@@ -8411,13 +8414,13 @@
       <c r="C49" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="36" t="s">
         <v>143</v>
       </c>
       <c r="E49" s="31">
         <v>4</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <v>220755</v>
       </c>
       <c r="G49" s="31">
@@ -8426,52 +8429,52 @@
       <c r="H49" s="35">
         <v>281015</v>
       </c>
-      <c r="I49" s="47">
+      <c r="I49" s="35">
         <v>300</v>
       </c>
-      <c r="J49" s="47">
+      <c r="J49" s="35">
         <v>105</v>
       </c>
-      <c r="K49" s="51">
+      <c r="K49" s="47">
         <v>107535</v>
       </c>
-      <c r="L49" s="49">
-        <v>1</v>
-      </c>
-      <c r="M49" s="47">
+      <c r="L49" s="45">
+        <v>1</v>
+      </c>
+      <c r="M49" s="35">
         <v>5</v>
       </c>
-      <c r="N49" s="48">
+      <c r="N49" s="31">
         <v>100</v>
       </c>
-      <c r="O49" s="49">
+      <c r="O49" s="45">
         <v>23</v>
       </c>
-      <c r="P49" s="48" t="s">
+      <c r="P49" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q49" s="48">
+      <c r="Q49" s="31">
         <v>97861</v>
       </c>
-      <c r="R49" s="48">
+      <c r="R49" s="31">
         <v>0.3</v>
       </c>
-      <c r="S49" s="49">
+      <c r="S49" s="45">
         <v>281693</v>
       </c>
-      <c r="T49" s="48">
+      <c r="T49" s="31">
         <v>1.5</v>
       </c>
-      <c r="U49" s="48">
+      <c r="U49" s="31">
         <v>3</v>
       </c>
-      <c r="V49" s="47">
+      <c r="V49" s="35">
         <v>0</v>
       </c>
-      <c r="W49" s="47">
+      <c r="W49" s="35">
         <v>100</v>
       </c>
-      <c r="X49" s="48"/>
+      <c r="X49" s="31"/>
       <c r="Y49" s="10"/>
       <c r="AA49" s="10"/>
     </row>
@@ -8483,13 +8486,13 @@
       <c r="C50" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="36" t="s">
         <v>145</v>
       </c>
       <c r="E50" s="31">
         <v>3</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <v>295550</v>
       </c>
       <c r="G50" s="31">
@@ -8537,13 +8540,13 @@
       <c r="U50" s="1">
         <v>3</v>
       </c>
-      <c r="V50" s="45">
+      <c r="V50" s="43">
         <v>0</v>
       </c>
-      <c r="W50" s="45">
+      <c r="W50" s="43">
         <v>45</v>
       </c>
-      <c r="X50" s="48"/>
+      <c r="X50" s="31"/>
       <c r="Y50" s="10"/>
       <c r="AA50" s="10"/>
     </row>
@@ -8555,13 +8558,13 @@
       <c r="C51" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="36" t="s">
         <v>147</v>
       </c>
       <c r="E51" s="31">
         <v>3</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="36">
         <v>143394</v>
       </c>
       <c r="G51" s="31">
@@ -8570,7 +8573,7 @@
       <c r="H51" s="35">
         <v>281015</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="44">
         <v>300</v>
       </c>
       <c r="J51" s="5">
@@ -8585,7 +8588,7 @@
       <c r="M51" s="5">
         <v>5</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>100</v>
       </c>
       <c r="O51" s="4">
@@ -8609,85 +8612,85 @@
       <c r="U51" s="1">
         <v>3</v>
       </c>
-      <c r="V51" s="5">
-        <v>50</v>
-      </c>
-      <c r="W51" s="5">
-        <v>50</v>
-      </c>
-      <c r="X51" s="48"/>
+      <c r="V51" s="44">
+        <v>100</v>
+      </c>
+      <c r="W51" s="44">
+        <v>0</v>
+      </c>
+      <c r="X51" s="31"/>
       <c r="Y51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A52" s="36">
+      <c r="A52" s="31">
         <v>1048</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="36" t="s">
         <v>149</v>
       </c>
       <c r="E52" s="31">
         <v>6</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="36">
         <v>229674</v>
       </c>
       <c r="G52" s="31">
         <v>1</v>
       </c>
-      <c r="H52" s="39">
+      <c r="H52" s="35">
         <v>268562</v>
       </c>
-      <c r="I52" s="47">
+      <c r="I52" s="35">
         <v>500</v>
       </c>
-      <c r="J52" s="47">
+      <c r="J52" s="35">
         <v>158</v>
       </c>
-      <c r="K52" s="51">
+      <c r="K52" s="47">
         <v>107535</v>
       </c>
-      <c r="L52" s="49">
-        <v>1</v>
-      </c>
-      <c r="M52" s="47">
+      <c r="L52" s="45">
+        <v>1</v>
+      </c>
+      <c r="M52" s="35">
         <v>15</v>
       </c>
-      <c r="N52" s="48">
+      <c r="N52" s="31">
         <v>600</v>
       </c>
-      <c r="O52" s="49">
+      <c r="O52" s="45">
         <v>23</v>
       </c>
-      <c r="P52" s="48" t="s">
+      <c r="P52" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q52" s="48">
+      <c r="Q52" s="31">
         <v>97861</v>
       </c>
-      <c r="R52" s="48">
+      <c r="R52" s="31">
         <v>0.3</v>
       </c>
-      <c r="S52" s="49">
+      <c r="S52" s="45">
         <v>281693</v>
       </c>
-      <c r="T52" s="48">
+      <c r="T52" s="31">
         <v>1.5</v>
       </c>
-      <c r="U52" s="48">
+      <c r="U52" s="31">
         <v>3</v>
       </c>
-      <c r="V52" s="47">
+      <c r="V52" s="35">
         <v>30</v>
       </c>
-      <c r="W52" s="47">
+      <c r="W52" s="35">
         <v>30</v>
       </c>
-      <c r="X52" s="48"/>
+      <c r="X52" s="31"/>
       <c r="Y52" s="10"/>
       <c r="AA52" s="10"/>
     </row>
@@ -8699,13 +8702,13 @@
       <c r="C53" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="36" t="s">
         <v>151</v>
       </c>
       <c r="E53" s="31">
         <v>2</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <v>327983</v>
       </c>
       <c r="G53" s="31">
@@ -8714,52 +8717,52 @@
       <c r="H53" s="35">
         <v>268651</v>
       </c>
-      <c r="I53" s="47">
+      <c r="I53" s="35">
         <v>2000</v>
       </c>
-      <c r="J53" s="47">
+      <c r="J53" s="35">
         <v>50</v>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="47">
         <v>107535</v>
       </c>
-      <c r="L53" s="49">
-        <v>1</v>
-      </c>
-      <c r="M53" s="47">
+      <c r="L53" s="45">
+        <v>1</v>
+      </c>
+      <c r="M53" s="35">
         <v>10</v>
       </c>
-      <c r="N53" s="48">
+      <c r="N53" s="31">
         <v>600</v>
       </c>
-      <c r="O53" s="49">
+      <c r="O53" s="45">
         <v>23</v>
       </c>
-      <c r="P53" s="48" t="s">
+      <c r="P53" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q53" s="48">
+      <c r="Q53" s="31">
         <v>97861</v>
       </c>
-      <c r="R53" s="48">
+      <c r="R53" s="31">
         <v>0.3</v>
       </c>
-      <c r="S53" s="49">
+      <c r="S53" s="45">
         <v>281693</v>
       </c>
-      <c r="T53" s="48">
+      <c r="T53" s="31">
         <v>1.5</v>
       </c>
-      <c r="U53" s="48">
+      <c r="U53" s="31">
         <v>3</v>
       </c>
-      <c r="V53" s="47">
+      <c r="V53" s="35">
         <v>100</v>
       </c>
-      <c r="W53" s="47">
+      <c r="W53" s="35">
         <v>100</v>
       </c>
-      <c r="X53" s="48">
+      <c r="X53" s="31">
         <v>5003</v>
       </c>
       <c r="Y53" s="10"/>
@@ -8775,13 +8778,13 @@
       <c r="C54" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="36" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="31">
         <v>2</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <v>327808</v>
       </c>
       <c r="G54" s="31">
@@ -8835,7 +8838,7 @@
       <c r="W54" s="5">
         <v>30</v>
       </c>
-      <c r="X54" s="48"/>
+      <c r="X54" s="31"/>
       <c r="Y54" s="10"/>
       <c r="AA54" s="10"/>
     </row>
@@ -8847,13 +8850,13 @@
       <c r="C55" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="36" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="31">
         <v>5</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <v>142146</v>
       </c>
       <c r="G55" s="31">
@@ -8907,7 +8910,7 @@
       <c r="W55" s="5">
         <v>30</v>
       </c>
-      <c r="X55" s="48"/>
+      <c r="X55" s="31"/>
       <c r="Y55" s="10"/>
       <c r="AA55" s="10"/>
     </row>
@@ -8919,13 +8922,13 @@
       <c r="C56" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="36" t="s">
         <v>157</v>
       </c>
       <c r="E56" s="31">
         <v>5</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="36">
         <v>142145</v>
       </c>
       <c r="G56" s="31">
@@ -8979,7 +8982,7 @@
       <c r="W56" s="5">
         <v>30</v>
       </c>
-      <c r="X56" s="48"/>
+      <c r="X56" s="31"/>
       <c r="Y56" s="10"/>
       <c r="AA56" s="10"/>
     </row>
@@ -8991,13 +8994,13 @@
       <c r="C57" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="36" t="s">
         <v>159</v>
       </c>
       <c r="E57" s="31">
         <v>1</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="36">
         <v>142264</v>
       </c>
       <c r="G57" s="31">
@@ -9051,7 +9054,7 @@
       <c r="W57" s="5">
         <v>50</v>
       </c>
-      <c r="X57" s="48"/>
+      <c r="X57" s="31"/>
       <c r="Y57" s="10"/>
       <c r="AA57" s="10"/>
     </row>
@@ -9063,13 +9066,13 @@
       <c r="C58" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="36" t="s">
         <v>161</v>
       </c>
       <c r="E58" s="31">
         <v>6</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="36">
         <v>143398</v>
       </c>
       <c r="G58" s="31">
@@ -9123,7 +9126,7 @@
       <c r="W58" s="5">
         <v>30</v>
       </c>
-      <c r="X58" s="48"/>
+      <c r="X58" s="31"/>
       <c r="Y58" s="10"/>
       <c r="AA58" s="10"/>
     </row>
@@ -9135,13 +9138,13 @@
       <c r="C59" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="36" t="s">
         <v>163</v>
       </c>
       <c r="E59" s="31">
         <v>3</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="36">
         <v>137848</v>
       </c>
       <c r="G59" s="31">
@@ -9195,7 +9198,7 @@
       <c r="W59" s="5">
         <v>30</v>
       </c>
-      <c r="X59" s="48"/>
+      <c r="X59" s="31"/>
       <c r="Y59" s="10"/>
       <c r="AA59" s="10"/>
     </row>
@@ -9209,13 +9212,13 @@
       <c r="C60" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="36" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="31">
         <v>2</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="36">
         <v>351891</v>
       </c>
       <c r="G60" s="31">
@@ -9233,7 +9236,7 @@
       <c r="K60" s="30">
         <v>107535</v>
       </c>
-      <c r="L60" s="42">
+      <c r="L60" s="40">
         <v>1</v>
       </c>
       <c r="M60" s="5">
@@ -9254,7 +9257,7 @@
       <c r="R60" s="1">
         <v>0.3</v>
       </c>
-      <c r="S60" s="52">
+      <c r="S60" s="48">
         <v>285139</v>
       </c>
       <c r="T60" s="1">
@@ -9269,31 +9272,31 @@
       <c r="W60" s="5">
         <v>200</v>
       </c>
-      <c r="X60" s="48"/>
+      <c r="X60" s="31"/>
       <c r="Y60" s="10"/>
       <c r="AA60" s="10"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A61" s="36">
+      <c r="A61" s="31">
         <v>1057</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="36" t="s">
         <v>167</v>
       </c>
       <c r="E61" s="31">
         <v>1</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="36">
         <v>156704</v>
       </c>
       <c r="G61" s="31">
         <v>1</v>
       </c>
-      <c r="H61" s="39">
+      <c r="H61" s="35">
         <v>281015</v>
       </c>
       <c r="I61" s="5">
@@ -9341,7 +9344,7 @@
       <c r="W61" s="5">
         <v>30</v>
       </c>
-      <c r="X61" s="48"/>
+      <c r="X61" s="31"/>
       <c r="Y61" s="10"/>
       <c r="AA61" s="10"/>
     </row>
@@ -9353,13 +9356,13 @@
       <c r="C62" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E62" s="31">
         <v>5</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="36">
         <v>339129</v>
       </c>
       <c r="G62" s="31">
@@ -9377,7 +9380,7 @@
       <c r="K62" s="30">
         <v>107535</v>
       </c>
-      <c r="L62" s="42">
+      <c r="L62" s="40">
         <v>1</v>
       </c>
       <c r="M62" s="5">
@@ -9398,7 +9401,7 @@
       <c r="R62" s="1">
         <v>0.3</v>
       </c>
-      <c r="S62" s="52">
+      <c r="S62" s="48">
         <v>285139</v>
       </c>
       <c r="T62" s="1">
@@ -9413,7 +9416,7 @@
       <c r="W62" s="5">
         <v>200</v>
       </c>
-      <c r="X62" s="48"/>
+      <c r="X62" s="31"/>
       <c r="Y62" s="10"/>
       <c r="AA62" s="10"/>
     </row>
@@ -9421,19 +9424,17 @@
       <c r="A63" s="1">
         <v>1059</v>
       </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="38" t="s">
         <v>171</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="38">
         <v>152976</v>
       </c>
       <c r="G63" s="1">
@@ -9443,10 +9444,10 @@
         <v>285018</v>
       </c>
       <c r="I63" s="5">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="J63" s="5">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="K63" s="30">
         <v>107535</v>
@@ -9455,10 +9456,10 @@
         <v>1</v>
       </c>
       <c r="M63" s="5">
-        <v>10</v>
-      </c>
-      <c r="N63" s="1">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1000</v>
       </c>
       <c r="O63" s="4">
         <v>23</v>
@@ -9481,13 +9482,15 @@
       <c r="U63" s="1">
         <v>3</v>
       </c>
-      <c r="V63" s="5">
-        <v>50</v>
-      </c>
-      <c r="W63" s="5">
-        <v>50</v>
-      </c>
-      <c r="X63" s="48"/>
+      <c r="V63" s="30">
+        <v>100</v>
+      </c>
+      <c r="W63" s="30">
+        <v>100</v>
+      </c>
+      <c r="X63" s="40">
+        <v>5001</v>
+      </c>
       <c r="Y63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
@@ -9498,13 +9501,13 @@
       <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="38" t="s">
         <v>173</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="38">
         <v>268048</v>
       </c>
       <c r="G64" s="1">
@@ -9552,13 +9555,13 @@
       <c r="U64" s="1">
         <v>3</v>
       </c>
-      <c r="V64" s="45">
+      <c r="V64" s="43">
         <v>0</v>
       </c>
-      <c r="W64" s="45">
+      <c r="W64" s="43">
         <v>45</v>
       </c>
-      <c r="X64" s="48"/>
+      <c r="X64" s="31"/>
       <c r="Y64" s="10"/>
       <c r="AA64" s="10"/>
     </row>
@@ -9569,13 +9572,13 @@
       <c r="C65" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="38" t="s">
         <v>175</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
-      <c r="F65" s="40">
+      <c r="F65" s="38">
         <v>182063</v>
       </c>
       <c r="G65" s="1">
@@ -9629,153 +9632,149 @@
       <c r="W65" s="5">
         <v>30</v>
       </c>
-      <c r="X65" s="48"/>
+      <c r="X65" s="31"/>
       <c r="Y65" s="10"/>
       <c r="AA65" s="10"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A66" s="56">
+      <c r="A66" s="52">
         <v>1062</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="54">
         <v>3</v>
       </c>
-      <c r="F66" s="40">
-        <v>374107</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="5">
-        <v>357757</v>
-      </c>
-      <c r="I66" s="47">
+      <c r="F66" s="55">
+        <v>263895</v>
+      </c>
+      <c r="G66" s="54">
+        <v>1</v>
+      </c>
+      <c r="H66" s="56">
+        <v>280687</v>
+      </c>
+      <c r="I66" s="57">
         <v>2000</v>
       </c>
-      <c r="J66" s="47">
+      <c r="J66" s="57">
         <v>50</v>
       </c>
-      <c r="K66" s="51">
+      <c r="K66" s="58">
         <v>107535</v>
       </c>
-      <c r="L66" s="49">
-        <v>1</v>
-      </c>
-      <c r="M66" s="47">
+      <c r="L66" s="59">
+        <v>1</v>
+      </c>
+      <c r="M66" s="57">
         <v>10</v>
       </c>
-      <c r="N66" s="48">
+      <c r="N66" s="60">
         <v>600</v>
       </c>
-      <c r="O66" s="49">
+      <c r="O66" s="59">
         <v>23</v>
       </c>
-      <c r="P66" s="48" t="s">
+      <c r="P66" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="Q66" s="48">
+      <c r="Q66" s="60">
         <v>97861</v>
       </c>
-      <c r="R66" s="48">
+      <c r="R66" s="60">
         <v>0.3</v>
       </c>
-      <c r="S66" s="49">
+      <c r="S66" s="59">
         <v>281693</v>
       </c>
-      <c r="T66" s="48">
+      <c r="T66" s="60">
         <v>1.5</v>
       </c>
-      <c r="U66" s="48">
+      <c r="U66" s="60">
         <v>3</v>
       </c>
-      <c r="V66" s="47">
+      <c r="V66" s="57">
         <v>100</v>
       </c>
-      <c r="W66" s="47">
+      <c r="W66" s="57">
         <v>100</v>
       </c>
-      <c r="X66" s="48">
-        <v>5003</v>
-      </c>
+      <c r="X66" s="31"/>
       <c r="Y66" s="10"/>
       <c r="AA66" s="10"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A67" s="56">
+      <c r="A67" s="52">
         <v>1063</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="54">
         <v>4</v>
       </c>
-      <c r="F67" s="40">
-        <v>374066</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="F67" s="55">
+        <v>155838</v>
+      </c>
+      <c r="G67" s="54">
         <v>1</v>
       </c>
       <c r="H67" s="5">
-        <v>357757</v>
-      </c>
-      <c r="I67" s="47">
-        <v>2000</v>
-      </c>
-      <c r="J67" s="47">
-        <v>75</v>
-      </c>
-      <c r="K67" s="51">
+        <v>268680</v>
+      </c>
+      <c r="I67" s="44">
+        <v>300</v>
+      </c>
+      <c r="J67" s="5">
+        <v>105</v>
+      </c>
+      <c r="K67" s="30">
         <v>107535</v>
       </c>
-      <c r="L67" s="49">
-        <v>1</v>
-      </c>
-      <c r="M67" s="47">
-        <v>30</v>
-      </c>
-      <c r="N67" s="48">
-        <v>1000</v>
-      </c>
-      <c r="O67" s="49">
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="5">
+        <v>5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>100</v>
+      </c>
+      <c r="O67" s="4">
         <v>23</v>
       </c>
-      <c r="P67" s="48" t="s">
+      <c r="P67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q67" s="48">
+      <c r="Q67" s="1">
         <v>97861</v>
       </c>
-      <c r="R67" s="48">
+      <c r="R67" s="1">
         <v>0.3</v>
       </c>
-      <c r="S67" s="49">
+      <c r="S67" s="4">
         <v>281693</v>
       </c>
-      <c r="T67" s="48">
+      <c r="T67" s="1">
         <v>1.5</v>
       </c>
-      <c r="U67" s="48">
+      <c r="U67" s="1">
         <v>3</v>
       </c>
-      <c r="V67" s="47">
+      <c r="V67" s="44">
         <v>100</v>
       </c>
-      <c r="W67" s="47">
-        <v>100</v>
-      </c>
-      <c r="X67" s="48">
-        <v>5002</v>
-      </c>
+      <c r="W67" s="44">
+        <v>0</v>
+      </c>
+      <c r="X67" s="31"/>
       <c r="Y67" s="10"/>
       <c r="AA67" s="10"/>
     </row>
@@ -9786,13 +9785,13 @@
       <c r="C68" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="38" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
       </c>
-      <c r="F68" s="40">
+      <c r="F68" s="38">
         <v>310795</v>
       </c>
       <c r="G68" s="1">
@@ -9846,7 +9845,7 @@
       <c r="W68" s="5">
         <v>50</v>
       </c>
-      <c r="X68" s="48"/>
+      <c r="X68" s="31"/>
       <c r="Y68" s="10"/>
       <c r="AA68" s="10"/>
     </row>
@@ -9857,13 +9856,13 @@
       <c r="C69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="38" t="s">
         <v>183</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
-      <c r="F69" s="40">
+      <c r="F69" s="38">
         <v>310796</v>
       </c>
       <c r="G69" s="1">
@@ -9873,10 +9872,10 @@
         <v>268562</v>
       </c>
       <c r="I69" s="5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J69" s="5">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K69" s="30">
         <v>107535</v>
@@ -9888,7 +9887,7 @@
         <v>10</v>
       </c>
       <c r="N69" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O69" s="4">
         <v>23</v>
@@ -9911,13 +9910,13 @@
       <c r="U69" s="1">
         <v>3</v>
       </c>
-      <c r="V69" s="5">
-        <v>50</v>
-      </c>
-      <c r="W69" s="5">
-        <v>50</v>
-      </c>
-      <c r="X69" s="48"/>
+      <c r="V69" s="43">
+        <v>0</v>
+      </c>
+      <c r="W69" s="43">
+        <v>45</v>
+      </c>
+      <c r="X69" s="31"/>
       <c r="Y69" s="10"/>
       <c r="AA69" s="10"/>
     </row>
@@ -9931,209 +9930,89 @@
       <c r="C70" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="38" t="s">
         <v>185</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="40">
+      <c r="F70" s="38">
         <v>141498</v>
       </c>
       <c r="G70" s="1">
         <v>2</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="35">
         <v>285174</v>
       </c>
-      <c r="I70" s="47">
+      <c r="I70" s="35">
         <v>700</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="35">
         <v>105</v>
       </c>
-      <c r="K70" s="51">
+      <c r="K70" s="47">
         <v>107535</v>
       </c>
-      <c r="L70" s="49">
-        <v>1</v>
-      </c>
-      <c r="M70" s="47">
+      <c r="L70" s="45">
+        <v>1</v>
+      </c>
+      <c r="M70" s="35">
         <v>10</v>
       </c>
-      <c r="N70" s="48">
+      <c r="N70" s="31">
         <v>200</v>
       </c>
-      <c r="O70" s="49">
+      <c r="O70" s="45">
         <v>23</v>
       </c>
-      <c r="P70" s="48" t="s">
+      <c r="P70" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q70" s="48">
+      <c r="Q70" s="31">
         <v>97861</v>
       </c>
-      <c r="R70" s="48">
+      <c r="R70" s="31">
         <v>0.3</v>
       </c>
-      <c r="S70" s="49">
+      <c r="S70" s="45">
         <v>281693</v>
       </c>
-      <c r="T70" s="48">
+      <c r="T70" s="31">
         <v>1.5</v>
       </c>
-      <c r="U70" s="48">
+      <c r="U70" s="31">
         <v>3</v>
       </c>
-      <c r="V70" s="47">
+      <c r="V70" s="35">
         <v>50</v>
       </c>
-      <c r="W70" s="47">
+      <c r="W70" s="35">
         <v>50</v>
       </c>
-      <c r="X70" s="48"/>
+      <c r="X70" s="31"/>
       <c r="Y70" s="10"/>
       <c r="AA70" s="10"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A71" s="56">
-        <v>1067</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E71" s="1">
-        <v>6</v>
-      </c>
-      <c r="F71" s="40">
-        <v>164354</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="5">
-        <v>281015</v>
-      </c>
-      <c r="I71" s="5">
-        <v>500</v>
-      </c>
-      <c r="J71" s="5">
-        <v>75</v>
-      </c>
-      <c r="K71" s="30">
-        <v>107535</v>
-      </c>
-      <c r="L71" s="42">
-        <v>1</v>
-      </c>
-      <c r="M71" s="5">
-        <v>100</v>
-      </c>
-      <c r="N71" s="1">
-        <v>500</v>
-      </c>
-      <c r="O71" s="1">
-        <v>23</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q71" s="13">
-        <v>97861</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S71" s="52">
-        <v>285139</v>
-      </c>
-      <c r="T71" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="U71" s="1">
-        <v>3</v>
-      </c>
-      <c r="V71" s="5">
-        <v>200</v>
-      </c>
-      <c r="W71" s="5">
-        <v>200</v>
-      </c>
-      <c r="X71" s="48"/>
+    <row r="71" s="1" customFormat="1" spans="8:27">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="10"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
       <c r="Y71" s="10"/>
       <c r="AA71" s="10"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A72" s="56">
-        <v>1068</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="40">
-        <v>164364</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1</v>
-      </c>
-      <c r="H72" s="5">
-        <v>281015</v>
-      </c>
-      <c r="I72" s="5">
-        <v>600</v>
-      </c>
-      <c r="J72" s="5">
-        <v>105</v>
-      </c>
-      <c r="K72" s="30">
-        <v>107535</v>
-      </c>
-      <c r="L72" s="4">
-        <v>1</v>
-      </c>
-      <c r="M72" s="5">
-        <v>5</v>
-      </c>
-      <c r="N72" s="6">
-        <v>100</v>
-      </c>
-      <c r="O72" s="4">
-        <v>23</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>97861</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S72" s="4">
-        <v>281693</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="U72" s="1">
-        <v>3</v>
-      </c>
-      <c r="V72" s="5">
-        <v>50</v>
-      </c>
-      <c r="W72" s="5">
-        <v>50</v>
-      </c>
-      <c r="X72" s="48"/>
+    <row r="72" s="1" customFormat="1" spans="8:27">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="10"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
       <c r="Y72" s="10"/>
       <c r="AA72" s="10"/>
     </row>
@@ -13448,30 +13327,8 @@
       <c r="Y373" s="10"/>
       <c r="AA373" s="10"/>
     </row>
-    <row r="374" s="1" customFormat="1" spans="8:27">
-      <c r="H374" s="5"/>
-      <c r="I374" s="5"/>
-      <c r="J374" s="5"/>
-      <c r="M374" s="5"/>
-      <c r="N374" s="10"/>
-      <c r="V374" s="5"/>
-      <c r="W374" s="5"/>
-      <c r="Y374" s="10"/>
-      <c r="AA374" s="10"/>
-    </row>
-    <row r="375" s="1" customFormat="1" spans="8:27">
-      <c r="H375" s="5"/>
-      <c r="I375" s="5"/>
-      <c r="J375" s="5"/>
-      <c r="M375" s="5"/>
-      <c r="N375" s="10"/>
-      <c r="V375" s="5"/>
-      <c r="W375" s="5"/>
-      <c r="Y375" s="10"/>
-      <c r="AA375" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:X72" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AMJ373" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -800,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +827,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF4000"/>
       </patternFill>
@@ -835,12 +847,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5429"/>
         <bgColor rgb="FFFF4000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1197,7 +1203,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,16 +1227,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1239,89 +1245,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1412,14 +1418,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1433,16 +1448,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,32 +1472,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1941,9 +1940,9 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2047,7 +2046,7 @@
       <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="49"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
@@ -2137,7 +2136,7 @@
       <c r="X2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="49"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
@@ -2182,7 +2181,7 @@
       <c r="I3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="42" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2224,10 +2223,10 @@
       <c r="W3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="49"/>
+      <c r="Y3" s="51"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -2289,7 +2288,7 @@
       <c r="K5" s="30">
         <v>107535</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="43">
         <v>1</v>
       </c>
       <c r="M5" s="23">
@@ -2310,7 +2309,7 @@
       <c r="R5" s="1">
         <v>0.3</v>
       </c>
-      <c r="S5" s="48">
+      <c r="S5" s="50">
         <v>285139</v>
       </c>
       <c r="T5" s="1">
@@ -2325,14 +2324,14 @@
       <c r="W5" s="5">
         <v>200</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="43">
         <v>5002</v>
       </c>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="50"/>
-      <c r="AD5" s="51"/>
-      <c r="AG5" s="51"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
+      <c r="AD5" s="53"/>
+      <c r="AG5" s="53"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A6" s="10">
@@ -2368,7 +2367,7 @@
       <c r="K6" s="30">
         <v>107535</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="5">
@@ -2389,7 +2388,7 @@
       <c r="R6" s="1">
         <v>0.3</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="50">
         <v>285139</v>
       </c>
       <c r="T6" s="1">
@@ -2404,9 +2403,9 @@
       <c r="W6" s="5">
         <v>200</v>
       </c>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="50"/>
-      <c r="AA6" s="50"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="52"/>
+      <c r="AA6" s="52"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A7" s="10">
@@ -2442,7 +2441,7 @@
       <c r="K7" s="30">
         <v>107535</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="43">
         <v>1</v>
       </c>
       <c r="M7" s="23">
@@ -2463,7 +2462,7 @@
       <c r="R7" s="1">
         <v>0.3</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="50">
         <v>20291</v>
       </c>
       <c r="T7" s="1">
@@ -2478,12 +2477,12 @@
       <c r="W7" s="5">
         <v>200</v>
       </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="50"/>
-      <c r="AD7" s="51"/>
-      <c r="AG7" s="51"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="52"/>
+      <c r="AD7" s="53"/>
+      <c r="AG7" s="53"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A8" s="10">
@@ -2519,7 +2518,7 @@
       <c r="K8" s="30">
         <v>107535</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="43">
         <v>1</v>
       </c>
       <c r="M8" s="5">
@@ -2555,9 +2554,9 @@
       <c r="W8" s="5">
         <v>200</v>
       </c>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="50"/>
-      <c r="AA8" s="50"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="52"/>
+      <c r="AA8" s="52"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A9" s="10">
@@ -2593,7 +2592,7 @@
       <c r="K9" s="30">
         <v>107535</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="43">
         <v>1</v>
       </c>
       <c r="M9" s="5">
@@ -2614,7 +2613,7 @@
       <c r="R9" s="1">
         <v>0.3</v>
       </c>
-      <c r="S9" s="48">
+      <c r="S9" s="50">
         <v>285139</v>
       </c>
       <c r="T9" s="1">
@@ -2629,9 +2628,9 @@
       <c r="W9" s="5">
         <v>200</v>
       </c>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="50"/>
-      <c r="AA9" s="50"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="52"/>
+      <c r="AA9" s="52"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A10" s="10">
@@ -2667,7 +2666,7 @@
       <c r="K10" s="30">
         <v>107535</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="43">
         <v>1</v>
       </c>
       <c r="M10" s="5">
@@ -2688,7 +2687,7 @@
       <c r="R10" s="1">
         <v>0.3</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="50">
         <v>285139</v>
       </c>
       <c r="T10" s="1">
@@ -2703,9 +2702,9 @@
       <c r="W10" s="5">
         <v>200</v>
       </c>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="50"/>
-      <c r="AA10" s="50"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="52"/>
+      <c r="AA10" s="52"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1">
@@ -2775,7 +2774,7 @@
       <c r="W11" s="5">
         <v>200</v>
       </c>
-      <c r="X11" s="40"/>
+      <c r="X11" s="43"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:1024">
       <c r="A12" s="17">
@@ -2800,19 +2799,19 @@
       <c r="H12" s="5">
         <v>281015</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="44">
         <v>500</v>
       </c>
       <c r="J12" s="5">
         <v>105</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="45">
         <v>107535</v>
       </c>
       <c r="L12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="44">
         <v>5</v>
       </c>
       <c r="N12" s="2">
@@ -2839,13 +2838,13 @@
       <c r="U12" s="17">
         <v>3</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="44">
         <v>30</v>
       </c>
-      <c r="W12" s="41">
+      <c r="W12" s="44">
         <v>30</v>
       </c>
-      <c r="X12" s="40"/>
+      <c r="X12" s="43"/>
       <c r="Z12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
@@ -3912,7 +3911,7 @@
       <c r="W13" s="5">
         <v>50</v>
       </c>
-      <c r="X13" s="40"/>
+      <c r="X13" s="43"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="20.25" customHeight="1" spans="1:1024">
       <c r="A14" s="24">
@@ -3984,7 +3983,7 @@
       <c r="W14" s="5">
         <v>50</v>
       </c>
-      <c r="X14" s="40"/>
+      <c r="X14" s="43"/>
       <c r="Z14" s="25"/>
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
@@ -5045,15 +5044,15 @@
       <c r="U15" s="1">
         <v>3</v>
       </c>
-      <c r="V15" s="43">
+      <c r="V15" s="46">
         <v>30</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="46">
         <v>140</v>
       </c>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="50"/>
-      <c r="AA15" s="50"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="52"/>
+      <c r="AA15" s="52"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.2" spans="1:33">
       <c r="A16" s="1">
@@ -5081,7 +5080,7 @@
       <c r="I16" s="5">
         <v>1200</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="46">
         <v>45</v>
       </c>
       <c r="K16" s="30">
@@ -5117,18 +5116,18 @@
       <c r="U16" s="1">
         <v>3</v>
       </c>
-      <c r="V16" s="43">
+      <c r="V16" s="46">
         <v>50</v>
       </c>
-      <c r="W16" s="43">
+      <c r="W16" s="46">
         <v>200</v>
       </c>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="50"/>
-      <c r="AD16" s="51"/>
-      <c r="AG16" s="51"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="52"/>
+      <c r="AD16" s="53"/>
+      <c r="AG16" s="53"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.2" spans="1:27">
       <c r="A17" s="1">
@@ -5197,9 +5196,9 @@
       <c r="W17" s="5">
         <v>50</v>
       </c>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="50"/>
-      <c r="AA17" s="50"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="52"/>
+      <c r="AA17" s="52"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1">
@@ -5268,7 +5267,7 @@
       <c r="W18" s="30">
         <v>100</v>
       </c>
-      <c r="X18" s="40">
+      <c r="X18" s="43">
         <v>5001</v>
       </c>
     </row>
@@ -5339,7 +5338,7 @@
       <c r="W19" s="5">
         <v>30</v>
       </c>
-      <c r="X19" s="40"/>
+      <c r="X19" s="43"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1">
@@ -5408,7 +5407,7 @@
       <c r="W20" s="5">
         <v>50</v>
       </c>
-      <c r="X20" s="40"/>
+      <c r="X20" s="43"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1">
@@ -5477,7 +5476,7 @@
       <c r="W21" s="5">
         <v>70</v>
       </c>
-      <c r="X21" s="40"/>
+      <c r="X21" s="43"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1">
@@ -5546,7 +5545,7 @@
       <c r="W22" s="5">
         <v>50</v>
       </c>
-      <c r="X22" s="40"/>
+      <c r="X22" s="43"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1">
@@ -5615,7 +5614,7 @@
       <c r="W23" s="5">
         <v>100</v>
       </c>
-      <c r="X23" s="40">
+      <c r="X23" s="43">
         <v>5002</v>
       </c>
     </row>
@@ -5686,7 +5685,7 @@
       <c r="W24" s="5">
         <v>30</v>
       </c>
-      <c r="X24" s="40"/>
+      <c r="X24" s="43"/>
       <c r="Y24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
@@ -5751,13 +5750,13 @@
       <c r="U25" s="1">
         <v>3</v>
       </c>
-      <c r="V25" s="41">
+      <c r="V25" s="44">
         <v>150</v>
       </c>
-      <c r="W25" s="41">
+      <c r="W25" s="44">
         <v>0</v>
       </c>
-      <c r="X25" s="40"/>
+      <c r="X25" s="43"/>
       <c r="Y25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
@@ -5828,7 +5827,7 @@
       <c r="W26" s="5">
         <v>50</v>
       </c>
-      <c r="X26" s="40"/>
+      <c r="X26" s="43"/>
       <c r="Y26" s="10"/>
       <c r="AA26" s="10"/>
     </row>
@@ -5857,7 +5856,7 @@
       <c r="I27" s="5">
         <v>2000</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <v>50</v>
       </c>
       <c r="K27" s="30">
@@ -5899,7 +5898,7 @@
       <c r="W27" s="5">
         <v>100</v>
       </c>
-      <c r="X27" s="40">
+      <c r="X27" s="43">
         <v>5003</v>
       </c>
       <c r="Y27" s="10"/>
@@ -5972,7 +5971,7 @@
       <c r="W28" s="5">
         <v>50</v>
       </c>
-      <c r="X28" s="40"/>
+      <c r="X28" s="43"/>
       <c r="Y28" s="10"/>
       <c r="AA28" s="10"/>
     </row>
@@ -6043,7 +6042,7 @@
       <c r="W29" s="5">
         <v>30</v>
       </c>
-      <c r="X29" s="40"/>
+      <c r="X29" s="43"/>
       <c r="Y29" s="10"/>
       <c r="AA29" s="10"/>
     </row>
@@ -6114,7 +6113,7 @@
       <c r="W30" s="5">
         <v>100</v>
       </c>
-      <c r="X30" s="40"/>
+      <c r="X30" s="43"/>
       <c r="Y30" s="10"/>
       <c r="AA30" s="10"/>
     </row>
@@ -6140,7 +6139,7 @@
       <c r="H31" s="5">
         <v>281015</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="47">
         <v>300</v>
       </c>
       <c r="J31" s="5">
@@ -6179,13 +6178,13 @@
       <c r="U31" s="1">
         <v>3</v>
       </c>
-      <c r="V31" s="44">
+      <c r="V31" s="47">
         <v>100</v>
       </c>
-      <c r="W31" s="44">
+      <c r="W31" s="47">
         <v>0</v>
       </c>
-      <c r="X31" s="40"/>
+      <c r="X31" s="43"/>
       <c r="Y31" s="10"/>
       <c r="AA31" s="10"/>
     </row>
@@ -6211,7 +6210,7 @@
       <c r="H32" s="5">
         <v>281015</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="47">
         <v>500</v>
       </c>
       <c r="J32" s="5">
@@ -6250,13 +6249,13 @@
       <c r="U32" s="1">
         <v>3</v>
       </c>
-      <c r="V32" s="44">
+      <c r="V32" s="47">
         <v>200</v>
       </c>
-      <c r="W32" s="44">
+      <c r="W32" s="47">
         <v>0</v>
       </c>
-      <c r="X32" s="40"/>
+      <c r="X32" s="43"/>
       <c r="Y32" s="10"/>
       <c r="AA32" s="10"/>
     </row>
@@ -6327,7 +6326,7 @@
       <c r="W33" s="5">
         <v>70</v>
       </c>
-      <c r="X33" s="40"/>
+      <c r="X33" s="43"/>
       <c r="Y33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
@@ -6398,7 +6397,7 @@
       <c r="W34" s="5">
         <v>30</v>
       </c>
-      <c r="X34" s="40"/>
+      <c r="X34" s="43"/>
       <c r="Y34" s="10"/>
       <c r="AA34" s="10"/>
     </row>
@@ -6427,7 +6426,7 @@
       <c r="I35" s="5">
         <v>1200</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="46">
         <v>30</v>
       </c>
       <c r="K35" s="30">
@@ -6463,13 +6462,13 @@
       <c r="U35" s="1">
         <v>3</v>
       </c>
-      <c r="V35" s="43">
+      <c r="V35" s="46">
         <v>300</v>
       </c>
-      <c r="W35" s="43">
+      <c r="W35" s="46">
         <v>30</v>
       </c>
-      <c r="X35" s="40"/>
+      <c r="X35" s="43"/>
       <c r="Y35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
@@ -6540,7 +6539,7 @@
       <c r="W36" s="5">
         <v>100</v>
       </c>
-      <c r="X36" s="40">
+      <c r="X36" s="43">
         <v>5002</v>
       </c>
       <c r="Y36" s="10"/>
@@ -6607,13 +6606,13 @@
       <c r="U37" s="1">
         <v>3</v>
       </c>
-      <c r="V37" s="43">
+      <c r="V37" s="46">
         <v>0</v>
       </c>
-      <c r="W37" s="43">
+      <c r="W37" s="46">
         <v>45</v>
       </c>
-      <c r="X37" s="40"/>
+      <c r="X37" s="43"/>
       <c r="Y37" s="10"/>
       <c r="AA37" s="10"/>
     </row>
@@ -6642,7 +6641,7 @@
       <c r="I38" s="5">
         <v>700</v>
       </c>
-      <c r="J38" s="43">
+      <c r="J38" s="46">
         <v>90</v>
       </c>
       <c r="K38" s="30">
@@ -6678,13 +6677,13 @@
       <c r="U38" s="1">
         <v>3</v>
       </c>
-      <c r="V38" s="43">
+      <c r="V38" s="46">
         <v>10</v>
       </c>
-      <c r="W38" s="43">
+      <c r="W38" s="46">
         <v>90</v>
       </c>
-      <c r="X38" s="40"/>
+      <c r="X38" s="43"/>
       <c r="Y38" s="10"/>
       <c r="AA38" s="10"/>
     </row>
@@ -6755,7 +6754,7 @@
       <c r="W39" s="5">
         <v>30</v>
       </c>
-      <c r="X39" s="40"/>
+      <c r="X39" s="43"/>
       <c r="Y39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
@@ -6820,13 +6819,13 @@
       <c r="U40" s="1">
         <v>3</v>
       </c>
-      <c r="V40" s="44">
+      <c r="V40" s="47">
         <v>200</v>
       </c>
-      <c r="W40" s="44">
+      <c r="W40" s="47">
         <v>200</v>
       </c>
-      <c r="X40" s="40"/>
+      <c r="X40" s="43"/>
       <c r="Y40" s="10"/>
       <c r="AA40" s="10"/>
     </row>
@@ -6897,7 +6896,7 @@
       <c r="W41" s="5">
         <v>70</v>
       </c>
-      <c r="X41" s="40"/>
+      <c r="X41" s="43"/>
       <c r="Y41" s="10"/>
       <c r="AA41" s="10"/>
     </row>
@@ -6968,7 +6967,7 @@
       <c r="W42" s="5">
         <v>50</v>
       </c>
-      <c r="X42" s="40"/>
+      <c r="X42" s="43"/>
       <c r="Y42" s="10"/>
       <c r="AA42" s="10"/>
     </row>
@@ -7042,7 +7041,7 @@
       <c r="W43" s="5">
         <v>100</v>
       </c>
-      <c r="X43" s="40"/>
+      <c r="X43" s="43"/>
       <c r="Y43" s="10"/>
       <c r="AA43" s="10"/>
     </row>
@@ -7089,7 +7088,7 @@
       <c r="N44" s="31">
         <v>100</v>
       </c>
-      <c r="O44" s="45">
+      <c r="O44" s="48">
         <v>23</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -7116,7 +7115,7 @@
       <c r="W44" s="5">
         <v>100</v>
       </c>
-      <c r="X44" s="40"/>
+      <c r="X44" s="43"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="10"/>
@@ -8119,7 +8118,7 @@
       <c r="AMJ44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A45" s="31">
+      <c r="A45" s="36">
         <v>1041</v>
       </c>
       <c r="B45" s="31"/>
@@ -8132,20 +8131,20 @@
       <c r="E45" s="31">
         <v>4</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="37">
         <v>151159</v>
       </c>
       <c r="G45" s="31">
         <v>1</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="38">
         <v>281015</v>
       </c>
       <c r="I45" s="5">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="5">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="K45" s="30">
         <v>107535</v>
@@ -8153,13 +8152,13 @@
       <c r="L45" s="4">
         <v>1</v>
       </c>
-      <c r="M45" s="35">
-        <v>5</v>
-      </c>
-      <c r="N45" s="46">
-        <v>100</v>
-      </c>
-      <c r="O45" s="45">
+      <c r="M45" s="5">
+        <v>30</v>
+      </c>
+      <c r="N45" s="6">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="4">
         <v>23</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -8181,17 +8180,19 @@
         <v>3</v>
       </c>
       <c r="V45" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W45" s="5">
-        <v>50</v>
-      </c>
-      <c r="X45" s="31"/>
+        <v>100</v>
+      </c>
+      <c r="X45" s="43">
+        <v>5002</v>
+      </c>
       <c r="Y45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A46" s="31">
+      <c r="A46" s="36">
         <v>1042</v>
       </c>
       <c r="B46" s="31"/>
@@ -8204,7 +8205,7 @@
       <c r="E46" s="31">
         <v>5</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="37">
         <v>156501</v>
       </c>
       <c r="G46" s="31">
@@ -8214,10 +8215,10 @@
         <v>269143</v>
       </c>
       <c r="I46" s="5">
-        <v>300</v>
-      </c>
-      <c r="J46" s="5">
-        <v>105</v>
+        <v>1200</v>
+      </c>
+      <c r="J46" s="46">
+        <v>45</v>
       </c>
       <c r="K46" s="30">
         <v>107535</v>
@@ -8225,13 +8226,13 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="35">
-        <v>5</v>
-      </c>
-      <c r="N46" s="46">
-        <v>100</v>
-      </c>
-      <c r="O46" s="45">
+      <c r="M46" s="5">
+        <v>15</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="4">
         <v>23</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -8252,18 +8253,18 @@
       <c r="U46" s="1">
         <v>3</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="46">
         <v>50</v>
       </c>
-      <c r="W46" s="5">
-        <v>50</v>
+      <c r="W46" s="46">
+        <v>200</v>
       </c>
       <c r="X46" s="31"/>
       <c r="Y46" s="10"/>
       <c r="AA46" s="10"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A47" s="31">
+      <c r="A47" s="39">
         <v>1043</v>
       </c>
       <c r="B47" s="31"/>
@@ -8276,7 +8277,7 @@
       <c r="E47" s="31">
         <v>4</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="37">
         <v>174697</v>
       </c>
       <c r="G47" s="31">
@@ -8285,49 +8286,49 @@
       <c r="H47" s="35">
         <v>150774</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="5">
         <v>500</v>
       </c>
-      <c r="J47" s="35">
-        <v>158</v>
-      </c>
-      <c r="K47" s="47">
+      <c r="J47" s="5">
+        <v>105</v>
+      </c>
+      <c r="K47" s="30">
         <v>107535</v>
       </c>
-      <c r="L47" s="45">
-        <v>1</v>
-      </c>
-      <c r="M47" s="35">
-        <v>15</v>
-      </c>
-      <c r="N47" s="31">
-        <v>200</v>
-      </c>
-      <c r="O47" s="45">
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>100</v>
+      </c>
+      <c r="O47" s="4">
         <v>23</v>
       </c>
-      <c r="P47" s="31" t="s">
+      <c r="P47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q47" s="31">
+      <c r="Q47" s="1">
         <v>97861</v>
       </c>
-      <c r="R47" s="31">
+      <c r="R47" s="1">
         <v>0.3</v>
       </c>
-      <c r="S47" s="45">
+      <c r="S47" s="4">
         <v>281693</v>
       </c>
-      <c r="T47" s="31">
+      <c r="T47" s="1">
         <v>1.5</v>
       </c>
-      <c r="U47" s="31">
+      <c r="U47" s="1">
         <v>3</v>
       </c>
-      <c r="V47" s="35">
+      <c r="V47" s="5">
         <v>30</v>
       </c>
-      <c r="W47" s="35">
+      <c r="W47" s="5">
         <v>30</v>
       </c>
       <c r="X47" s="31"/>
@@ -8335,7 +8336,7 @@
       <c r="AA47" s="10"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A48" s="31">
+      <c r="A48" s="36">
         <v>1044</v>
       </c>
       <c r="B48" s="31"/>
@@ -8348,7 +8349,7 @@
       <c r="E48" s="31">
         <v>4</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="37">
         <v>192427</v>
       </c>
       <c r="G48" s="31">
@@ -8358,10 +8359,10 @@
         <v>269143</v>
       </c>
       <c r="I48" s="5">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="J48" s="5">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K48" s="30">
         <v>107535</v>
@@ -8370,10 +8371,10 @@
         <v>1</v>
       </c>
       <c r="M48" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N48" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O48" s="4">
         <v>23</v>
@@ -8397,10 +8398,10 @@
         <v>3</v>
       </c>
       <c r="V48" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="W48" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="X48" s="31"/>
       <c r="Y48" s="10"/>
@@ -8414,13 +8415,13 @@
       <c r="C49" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="37" t="s">
         <v>143</v>
       </c>
       <c r="E49" s="31">
         <v>4</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="37">
         <v>220755</v>
       </c>
       <c r="G49" s="31">
@@ -8435,10 +8436,10 @@
       <c r="J49" s="35">
         <v>105</v>
       </c>
-      <c r="K49" s="47">
+      <c r="K49" s="49">
         <v>107535</v>
       </c>
-      <c r="L49" s="45">
+      <c r="L49" s="48">
         <v>1</v>
       </c>
       <c r="M49" s="35">
@@ -8447,7 +8448,7 @@
       <c r="N49" s="31">
         <v>100</v>
       </c>
-      <c r="O49" s="45">
+      <c r="O49" s="48">
         <v>23</v>
       </c>
       <c r="P49" s="31" t="s">
@@ -8459,7 +8460,7 @@
       <c r="R49" s="31">
         <v>0.3</v>
       </c>
-      <c r="S49" s="45">
+      <c r="S49" s="48">
         <v>281693</v>
       </c>
       <c r="T49" s="31">
@@ -8479,20 +8480,20 @@
       <c r="AA49" s="10"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A50" s="31">
+      <c r="A50" s="36">
         <v>1046</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="37" t="s">
         <v>145</v>
       </c>
       <c r="E50" s="31">
         <v>3</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="37">
         <v>295550</v>
       </c>
       <c r="G50" s="31">
@@ -8502,7 +8503,7 @@
         <v>268562</v>
       </c>
       <c r="I50" s="5">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J50" s="5">
         <v>90</v>
@@ -8514,10 +8515,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="5">
-        <v>10</v>
-      </c>
-      <c r="N50" s="1">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="N50" s="6">
+        <v>200</v>
       </c>
       <c r="O50" s="4">
         <v>23</v>
@@ -8540,31 +8541,31 @@
       <c r="U50" s="1">
         <v>3</v>
       </c>
-      <c r="V50" s="43">
-        <v>0</v>
-      </c>
-      <c r="W50" s="43">
-        <v>45</v>
+      <c r="V50" s="5">
+        <v>70</v>
+      </c>
+      <c r="W50" s="5">
+        <v>70</v>
       </c>
       <c r="X50" s="31"/>
       <c r="Y50" s="10"/>
       <c r="AA50" s="10"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A51" s="31">
+      <c r="A51" s="36">
         <v>1047</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="37" t="s">
         <v>147</v>
       </c>
       <c r="E51" s="31">
-        <v>3</v>
-      </c>
-      <c r="F51" s="36">
+        <v>6</v>
+      </c>
+      <c r="F51" s="37">
         <v>143394</v>
       </c>
       <c r="G51" s="31">
@@ -8573,11 +8574,11 @@
       <c r="H51" s="35">
         <v>281015</v>
       </c>
-      <c r="I51" s="44">
-        <v>300</v>
+      <c r="I51" s="5">
+        <v>600</v>
       </c>
       <c r="J51" s="5">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K51" s="30">
         <v>107535</v>
@@ -8586,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N51" s="1">
         <v>100</v>
@@ -8612,31 +8613,31 @@
       <c r="U51" s="1">
         <v>3</v>
       </c>
-      <c r="V51" s="44">
-        <v>100</v>
-      </c>
-      <c r="W51" s="44">
+      <c r="V51" s="46">
         <v>0</v>
+      </c>
+      <c r="W51" s="46">
+        <v>45</v>
       </c>
       <c r="X51" s="31"/>
       <c r="Y51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A52" s="31">
+      <c r="A52" s="36">
         <v>1048</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="37" t="s">
         <v>149</v>
       </c>
       <c r="E52" s="31">
         <v>6</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="37">
         <v>229674</v>
       </c>
       <c r="G52" s="31">
@@ -8645,50 +8646,50 @@
       <c r="H52" s="35">
         <v>268562</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="5">
         <v>500</v>
       </c>
-      <c r="J52" s="35">
+      <c r="J52" s="5">
         <v>158</v>
       </c>
-      <c r="K52" s="47">
+      <c r="K52" s="30">
         <v>107535</v>
       </c>
-      <c r="L52" s="45">
-        <v>1</v>
-      </c>
-      <c r="M52" s="35">
-        <v>15</v>
-      </c>
-      <c r="N52" s="31">
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5">
+        <v>20</v>
+      </c>
+      <c r="N52" s="1">
         <v>600</v>
       </c>
-      <c r="O52" s="45">
+      <c r="O52" s="4">
         <v>23</v>
       </c>
-      <c r="P52" s="31" t="s">
+      <c r="P52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q52" s="31">
+      <c r="Q52" s="1">
         <v>97861</v>
       </c>
-      <c r="R52" s="31">
+      <c r="R52" s="1">
         <v>0.3</v>
       </c>
-      <c r="S52" s="45">
+      <c r="S52" s="4">
         <v>281693</v>
       </c>
-      <c r="T52" s="31">
+      <c r="T52" s="1">
         <v>1.5</v>
       </c>
-      <c r="U52" s="31">
+      <c r="U52" s="1">
         <v>3</v>
       </c>
-      <c r="V52" s="35">
-        <v>30</v>
-      </c>
-      <c r="W52" s="35">
-        <v>30</v>
+      <c r="V52" s="5">
+        <v>50</v>
+      </c>
+      <c r="W52" s="5">
+        <v>50</v>
       </c>
       <c r="X52" s="31"/>
       <c r="Y52" s="10"/>
@@ -8702,13 +8703,13 @@
       <c r="C53" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="37" t="s">
         <v>151</v>
       </c>
       <c r="E53" s="31">
         <v>2</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="37">
         <v>327983</v>
       </c>
       <c r="G53" s="31">
@@ -8723,10 +8724,10 @@
       <c r="J53" s="35">
         <v>50</v>
       </c>
-      <c r="K53" s="47">
+      <c r="K53" s="49">
         <v>107535</v>
       </c>
-      <c r="L53" s="45">
+      <c r="L53" s="48">
         <v>1</v>
       </c>
       <c r="M53" s="35">
@@ -8735,7 +8736,7 @@
       <c r="N53" s="31">
         <v>600</v>
       </c>
-      <c r="O53" s="45">
+      <c r="O53" s="48">
         <v>23</v>
       </c>
       <c r="P53" s="31" t="s">
@@ -8747,7 +8748,7 @@
       <c r="R53" s="31">
         <v>0.3</v>
       </c>
-      <c r="S53" s="45">
+      <c r="S53" s="48">
         <v>281693</v>
       </c>
       <c r="T53" s="31">
@@ -8778,13 +8779,13 @@
       <c r="C54" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="37" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="31">
         <v>2</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="37">
         <v>327808</v>
       </c>
       <c r="G54" s="31">
@@ -8843,20 +8844,20 @@
       <c r="AA54" s="10"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A55" s="31">
+      <c r="A55" s="36">
         <v>1051</v>
       </c>
       <c r="B55" s="31"/>
       <c r="C55" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="37" t="s">
         <v>155</v>
       </c>
       <c r="E55" s="31">
         <v>5</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="37">
         <v>142146</v>
       </c>
       <c r="G55" s="31">
@@ -8866,7 +8867,7 @@
         <v>281015</v>
       </c>
       <c r="I55" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J55" s="5">
         <v>105</v>
@@ -8915,20 +8916,20 @@
       <c r="AA55" s="10"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A56" s="31">
+      <c r="A56" s="36">
         <v>1052</v>
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="37" t="s">
         <v>157</v>
       </c>
       <c r="E56" s="31">
-        <v>5</v>
-      </c>
-      <c r="F56" s="36">
+        <v>2</v>
+      </c>
+      <c r="F56" s="37">
         <v>142145</v>
       </c>
       <c r="G56" s="31">
@@ -8938,7 +8939,7 @@
         <v>268567</v>
       </c>
       <c r="I56" s="5">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J56" s="5">
         <v>105</v>
@@ -8950,10 +8951,10 @@
         <v>1</v>
       </c>
       <c r="M56" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N56" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O56" s="4">
         <v>23</v>
@@ -8976,11 +8977,11 @@
       <c r="U56" s="1">
         <v>3</v>
       </c>
-      <c r="V56" s="5">
+      <c r="V56" s="46">
         <v>30</v>
       </c>
-      <c r="W56" s="5">
-        <v>30</v>
+      <c r="W56" s="46">
+        <v>140</v>
       </c>
       <c r="X56" s="31"/>
       <c r="Y56" s="10"/>
@@ -8994,13 +8995,13 @@
       <c r="C57" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="37" t="s">
         <v>159</v>
       </c>
       <c r="E57" s="31">
         <v>1</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="37">
         <v>142264</v>
       </c>
       <c r="G57" s="31">
@@ -9059,20 +9060,20 @@
       <c r="AA57" s="10"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A58" s="31">
+      <c r="A58" s="36">
         <v>1054</v>
       </c>
       <c r="B58" s="31"/>
       <c r="C58" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="37" t="s">
         <v>161</v>
       </c>
       <c r="E58" s="31">
         <v>6</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="37">
         <v>143398</v>
       </c>
       <c r="G58" s="31">
@@ -9082,10 +9083,10 @@
         <v>268567</v>
       </c>
       <c r="I58" s="5">
-        <v>400</v>
-      </c>
-      <c r="J58" s="5">
-        <v>105</v>
+        <v>700</v>
+      </c>
+      <c r="J58" s="46">
+        <v>90</v>
       </c>
       <c r="K58" s="30">
         <v>107535</v>
@@ -9094,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N58" s="1">
         <v>100</v>
@@ -9120,31 +9121,31 @@
       <c r="U58" s="1">
         <v>3</v>
       </c>
-      <c r="V58" s="5">
-        <v>30</v>
-      </c>
-      <c r="W58" s="5">
-        <v>30</v>
+      <c r="V58" s="46">
+        <v>10</v>
+      </c>
+      <c r="W58" s="46">
+        <v>90</v>
       </c>
       <c r="X58" s="31"/>
       <c r="Y58" s="10"/>
       <c r="AA58" s="10"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A59" s="31">
+      <c r="A59" s="36">
         <v>1055</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="37" t="s">
         <v>163</v>
       </c>
       <c r="E59" s="31">
         <v>3</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F59" s="37">
         <v>137848</v>
       </c>
       <c r="G59" s="31">
@@ -9154,7 +9155,7 @@
         <v>281015</v>
       </c>
       <c r="I59" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J59" s="5">
         <v>105</v>
@@ -9168,7 +9169,7 @@
       <c r="M59" s="5">
         <v>5</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="6">
         <v>100</v>
       </c>
       <c r="O59" s="4">
@@ -9203,22 +9204,20 @@
       <c r="AA59" s="10"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A60" s="31">
+      <c r="A60" s="36">
         <v>1056</v>
       </c>
-      <c r="B60" s="31">
-        <v>2</v>
-      </c>
+      <c r="B60" s="31"/>
       <c r="C60" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="37" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="31">
         <v>2</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="37">
         <v>351891</v>
       </c>
       <c r="G60" s="31">
@@ -9228,37 +9227,37 @@
         <v>285174</v>
       </c>
       <c r="I60" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J60" s="5">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K60" s="30">
         <v>107535</v>
       </c>
-      <c r="L60" s="40">
+      <c r="L60" s="4">
         <v>1</v>
       </c>
       <c r="M60" s="5">
+        <v>5</v>
+      </c>
+      <c r="N60" s="6">
         <v>100</v>
       </c>
-      <c r="N60" s="1">
-        <v>500</v>
-      </c>
-      <c r="O60" s="1">
+      <c r="O60" s="4">
         <v>23</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="Q60" s="1">
         <v>97861</v>
       </c>
       <c r="R60" s="1">
         <v>0.3</v>
       </c>
-      <c r="S60" s="48">
-        <v>285139</v>
+      <c r="S60" s="4">
+        <v>281693</v>
       </c>
       <c r="T60" s="1">
         <v>1.5</v>
@@ -9267,30 +9266,30 @@
         <v>3</v>
       </c>
       <c r="V60" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="W60" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="X60" s="31"/>
       <c r="Y60" s="10"/>
       <c r="AA60" s="10"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A61" s="31">
+      <c r="A61" s="36">
         <v>1057</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="37" t="s">
         <v>167</v>
       </c>
       <c r="E61" s="31">
         <v>1</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="37">
         <v>156704</v>
       </c>
       <c r="G61" s="31">
@@ -9356,13 +9355,13 @@
       <c r="C62" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="37" t="s">
         <v>169</v>
       </c>
       <c r="E62" s="31">
         <v>5</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="37">
         <v>339129</v>
       </c>
       <c r="G62" s="31">
@@ -9380,7 +9379,7 @@
       <c r="K62" s="30">
         <v>107535</v>
       </c>
-      <c r="L62" s="40">
+      <c r="L62" s="43">
         <v>1</v>
       </c>
       <c r="M62" s="5">
@@ -9401,7 +9400,7 @@
       <c r="R62" s="1">
         <v>0.3</v>
       </c>
-      <c r="S62" s="48">
+      <c r="S62" s="50">
         <v>285139</v>
       </c>
       <c r="T62" s="1">
@@ -9421,20 +9420,20 @@
       <c r="AA62" s="10"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A63" s="1">
+      <c r="A63" s="36">
         <v>1059</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="40" t="s">
         <v>171</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="40">
         <v>152976</v>
       </c>
       <c r="G63" s="1">
@@ -9488,26 +9487,26 @@
       <c r="W63" s="30">
         <v>100</v>
       </c>
-      <c r="X63" s="40">
+      <c r="X63" s="43">
         <v>5001</v>
       </c>
       <c r="Y63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A64" s="1">
+      <c r="A64" s="41">
         <v>1060</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="40" t="s">
         <v>173</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="40">
         <v>268048</v>
       </c>
       <c r="G64" s="1">
@@ -9529,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N64" s="1">
         <v>100</v>
@@ -9555,11 +9554,11 @@
       <c r="U64" s="1">
         <v>3</v>
       </c>
-      <c r="V64" s="43">
-        <v>0</v>
-      </c>
-      <c r="W64" s="43">
-        <v>45</v>
+      <c r="V64" s="46">
+        <v>10</v>
+      </c>
+      <c r="W64" s="46">
+        <v>80</v>
       </c>
       <c r="X64" s="31"/>
       <c r="Y64" s="10"/>
@@ -9572,13 +9571,13 @@
       <c r="C65" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="40" t="s">
         <v>175</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="40">
         <v>182063</v>
       </c>
       <c r="G65" s="1">
@@ -9637,99 +9636,101 @@
       <c r="AA65" s="10"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A66" s="52">
+      <c r="A66" s="36">
         <v>1062</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="E66" s="54">
+      <c r="E66" s="55">
         <v>3</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="56">
         <v>263895</v>
       </c>
-      <c r="G66" s="54">
-        <v>1</v>
-      </c>
-      <c r="H66" s="56">
+      <c r="G66" s="55">
+        <v>1</v>
+      </c>
+      <c r="H66" s="57">
         <v>280687</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I66" s="5">
         <v>2000</v>
       </c>
-      <c r="J66" s="57">
-        <v>50</v>
-      </c>
-      <c r="K66" s="58">
+      <c r="J66" s="5">
+        <v>75</v>
+      </c>
+      <c r="K66" s="30">
         <v>107535</v>
       </c>
-      <c r="L66" s="59">
-        <v>1</v>
-      </c>
-      <c r="M66" s="57">
-        <v>10</v>
-      </c>
-      <c r="N66" s="60">
-        <v>600</v>
-      </c>
-      <c r="O66" s="59">
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="5">
+        <v>30</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="4">
         <v>23</v>
       </c>
-      <c r="P66" s="60" t="s">
+      <c r="P66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q66" s="60">
+      <c r="Q66" s="1">
         <v>97861</v>
       </c>
-      <c r="R66" s="60">
+      <c r="R66" s="1">
         <v>0.3</v>
       </c>
-      <c r="S66" s="59">
+      <c r="S66" s="4">
         <v>281693</v>
       </c>
-      <c r="T66" s="60">
+      <c r="T66" s="1">
         <v>1.5</v>
       </c>
-      <c r="U66" s="60">
+      <c r="U66" s="1">
         <v>3</v>
       </c>
-      <c r="V66" s="57">
+      <c r="V66" s="5">
         <v>100</v>
       </c>
-      <c r="W66" s="57">
+      <c r="W66" s="5">
         <v>100</v>
       </c>
-      <c r="X66" s="31"/>
+      <c r="X66" s="43">
+        <v>5002</v>
+      </c>
       <c r="Y66" s="10"/>
       <c r="AA66" s="10"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="16.35" spans="1:27">
-      <c r="A67" s="52">
+      <c r="A67" s="36">
         <v>1063</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="55">
         <v>4</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="56">
         <v>155838</v>
       </c>
-      <c r="G67" s="54">
+      <c r="G67" s="55">
         <v>1</v>
       </c>
       <c r="H67" s="5">
         <v>268680</v>
       </c>
-      <c r="I67" s="44">
+      <c r="I67" s="47">
         <v>300</v>
       </c>
       <c r="J67" s="5">
@@ -9768,10 +9769,10 @@
       <c r="U67" s="1">
         <v>3</v>
       </c>
-      <c r="V67" s="44">
+      <c r="V67" s="47">
         <v>100</v>
       </c>
-      <c r="W67" s="44">
+      <c r="W67" s="47">
         <v>0</v>
       </c>
       <c r="X67" s="31"/>
@@ -9785,13 +9786,13 @@
       <c r="C68" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="40" t="s">
         <v>181</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="40">
         <v>310795</v>
       </c>
       <c r="G68" s="1">
@@ -9856,13 +9857,13 @@
       <c r="C69" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="40" t="s">
         <v>183</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="40">
         <v>310796</v>
       </c>
       <c r="G69" s="1">
@@ -9910,10 +9911,10 @@
       <c r="U69" s="1">
         <v>3</v>
       </c>
-      <c r="V69" s="43">
+      <c r="V69" s="46">
         <v>0</v>
       </c>
-      <c r="W69" s="43">
+      <c r="W69" s="46">
         <v>45</v>
       </c>
       <c r="X69" s="31"/>
@@ -9930,13 +9931,13 @@
       <c r="C70" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="40" t="s">
         <v>185</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="40">
         <v>141498</v>
       </c>
       <c r="G70" s="1">
@@ -9951,10 +9952,10 @@
       <c r="J70" s="35">
         <v>105</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="49">
         <v>107535</v>
       </c>
-      <c r="L70" s="45">
+      <c r="L70" s="48">
         <v>1</v>
       </c>
       <c r="M70" s="35">
@@ -9963,7 +9964,7 @@
       <c r="N70" s="31">
         <v>200</v>
       </c>
-      <c r="O70" s="45">
+      <c r="O70" s="48">
         <v>23</v>
       </c>
       <c r="P70" s="31" t="s">
@@ -9975,7 +9976,7 @@
       <c r="R70" s="31">
         <v>0.3</v>
       </c>
-      <c r="S70" s="45">
+      <c r="S70" s="48">
         <v>281693</v>
       </c>
       <c r="T70" s="31">

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30708" windowHeight="14100" tabRatio="500"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,10 +596,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -652,7 +652,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -660,21 +660,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -682,7 +682,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -690,7 +690,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -698,7 +698,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -706,7 +706,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -714,14 +714,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -729,7 +729,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -737,7 +737,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -745,14 +745,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -760,42 +760,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DejaVu Sans"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1192,11 +1192,11 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,55 +1486,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1940,12 +1940,12 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5:T70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.9" style="4" customWidth="1"/>
@@ -2257,7 +2257,7 @@
       <c r="Y4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.2" spans="1:33">
+    <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="10">
         <v>1001</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>285139</v>
       </c>
       <c r="T5" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
@@ -2333,7 +2333,7 @@
       <c r="AD5" s="53"/>
       <c r="AG5" s="53"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.2" spans="1:27">
+    <row r="6" s="1" customFormat="1" spans="1:27">
       <c r="A6" s="10">
         <v>1002</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>285139</v>
       </c>
       <c r="T6" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
@@ -2407,7 +2407,7 @@
       <c r="Y6" s="52"/>
       <c r="AA6" s="52"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.2" spans="1:33">
+    <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7" s="10">
         <v>1003</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>20291</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="1">
         <v>3</v>
@@ -2484,7 +2484,7 @@
       <c r="AD7" s="53"/>
       <c r="AG7" s="53"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.2" spans="1:27">
+    <row r="8" s="1" customFormat="1" spans="1:27">
       <c r="A8" s="10">
         <v>1004</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>285395</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U8" s="1">
         <v>3</v>
@@ -2558,7 +2558,7 @@
       <c r="Y8" s="52"/>
       <c r="AA8" s="52"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.2" spans="1:27">
+    <row r="9" s="1" customFormat="1" spans="1:27">
       <c r="A9" s="10">
         <v>1005</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>285139</v>
       </c>
       <c r="T9" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U9" s="1">
         <v>3</v>
@@ -2632,7 +2632,7 @@
       <c r="Y9" s="52"/>
       <c r="AA9" s="52"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.2" spans="1:27">
+    <row r="10" s="1" customFormat="1" spans="1:27">
       <c r="A10" s="10">
         <v>1006</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>285139</v>
       </c>
       <c r="T10" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U10" s="1">
         <v>3</v>
@@ -2763,7 +2763,7 @@
         <v>281693</v>
       </c>
       <c r="T11" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U11" s="1">
         <v>3</v>
@@ -2832,8 +2832,8 @@
       <c r="S12" s="18">
         <v>281693</v>
       </c>
-      <c r="T12" s="17">
-        <v>1.5</v>
+      <c r="T12" s="1">
+        <v>0.8</v>
       </c>
       <c r="U12" s="17">
         <v>3</v>
@@ -3900,7 +3900,7 @@
         <v>281693</v>
       </c>
       <c r="T13" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U13" s="1">
         <v>3</v>
@@ -3972,7 +3972,7 @@
         <v>281693</v>
       </c>
       <c r="T14" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U14" s="1">
         <v>3</v>
@@ -4983,7 +4983,7 @@
       <c r="AMI14" s="25"/>
       <c r="AMJ14" s="25"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.2" spans="1:27">
+    <row r="15" s="1" customFormat="1" spans="1:27">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>281693</v>
       </c>
       <c r="T15" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U15" s="1">
         <v>3</v>
@@ -5054,7 +5054,7 @@
       <c r="Y15" s="52"/>
       <c r="AA15" s="52"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.2" spans="1:33">
+    <row r="16" s="1" customFormat="1" spans="1:33">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>281693</v>
       </c>
       <c r="T16" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U16" s="1">
         <v>3</v>
@@ -5129,7 +5129,7 @@
       <c r="AD16" s="53"/>
       <c r="AG16" s="53"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.2" spans="1:27">
+    <row r="17" s="1" customFormat="1" spans="1:27">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>281693</v>
       </c>
       <c r="T17" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U17" s="1">
         <v>3</v>
@@ -5256,7 +5256,7 @@
         <v>281693</v>
       </c>
       <c r="T18" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U18" s="1">
         <v>3</v>
@@ -5327,7 +5327,7 @@
         <v>281693</v>
       </c>
       <c r="T19" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U19" s="1">
         <v>3</v>
@@ -5396,7 +5396,7 @@
         <v>281693</v>
       </c>
       <c r="T20" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U20" s="1">
         <v>3</v>
@@ -5465,7 +5465,7 @@
         <v>281693</v>
       </c>
       <c r="T21" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U21" s="1">
         <v>3</v>
@@ -5534,7 +5534,7 @@
         <v>281693</v>
       </c>
       <c r="T22" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U22" s="1">
         <v>3</v>
@@ -5603,7 +5603,7 @@
         <v>281693</v>
       </c>
       <c r="T23" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U23" s="1">
         <v>3</v>
@@ -5674,7 +5674,7 @@
         <v>281693</v>
       </c>
       <c r="T24" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U24" s="1">
         <v>3</v>
@@ -5745,7 +5745,7 @@
         <v>281693</v>
       </c>
       <c r="T25" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U25" s="1">
         <v>3</v>
@@ -5816,7 +5816,7 @@
         <v>281693</v>
       </c>
       <c r="T26" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U26" s="1">
         <v>3</v>
@@ -5887,7 +5887,7 @@
         <v>281693</v>
       </c>
       <c r="T27" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U27" s="1">
         <v>3</v>
@@ -5960,7 +5960,7 @@
         <v>281693</v>
       </c>
       <c r="T28" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U28" s="1">
         <v>3</v>
@@ -6031,7 +6031,7 @@
         <v>281693</v>
       </c>
       <c r="T29" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U29" s="1">
         <v>3</v>
@@ -6102,7 +6102,7 @@
         <v>281693</v>
       </c>
       <c r="T30" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U30" s="1">
         <v>3</v>
@@ -6173,7 +6173,7 @@
         <v>281693</v>
       </c>
       <c r="T31" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U31" s="1">
         <v>3</v>
@@ -6244,7 +6244,7 @@
         <v>281693</v>
       </c>
       <c r="T32" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U32" s="1">
         <v>3</v>
@@ -6315,7 +6315,7 @@
         <v>281693</v>
       </c>
       <c r="T33" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U33" s="1">
         <v>3</v>
@@ -6386,7 +6386,7 @@
         <v>281693</v>
       </c>
       <c r="T34" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -6457,7 +6457,7 @@
         <v>281693</v>
       </c>
       <c r="T35" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U35" s="1">
         <v>3</v>
@@ -6528,7 +6528,7 @@
         <v>281693</v>
       </c>
       <c r="T36" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U36" s="1">
         <v>3</v>
@@ -6601,7 +6601,7 @@
         <v>281693</v>
       </c>
       <c r="T37" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U37" s="1">
         <v>3</v>
@@ -6672,7 +6672,7 @@
         <v>281693</v>
       </c>
       <c r="T38" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U38" s="1">
         <v>3</v>
@@ -6743,7 +6743,7 @@
         <v>281693</v>
       </c>
       <c r="T39" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U39" s="1">
         <v>3</v>
@@ -6814,7 +6814,7 @@
         <v>281693</v>
       </c>
       <c r="T40" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U40" s="1">
         <v>3</v>
@@ -6885,7 +6885,7 @@
         <v>281693</v>
       </c>
       <c r="T41" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U41" s="1">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>281693</v>
       </c>
       <c r="T42" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U42" s="1">
         <v>3</v>
@@ -7030,7 +7030,7 @@
         <v>281693</v>
       </c>
       <c r="T43" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U43" s="1">
         <v>3</v>
@@ -7045,7 +7045,7 @@
       <c r="Y43" s="10"/>
       <c r="AA43" s="10"/>
     </row>
-    <row r="44" ht="16.35" spans="1:1024">
+    <row r="44" ht="17.25" spans="1:1024">
       <c r="A44" s="31">
         <v>1040</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>281693</v>
       </c>
       <c r="T44" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U44" s="1">
         <v>3</v>
@@ -8117,7 +8117,7 @@
       <c r="AMI44" s="1"/>
       <c r="AMJ44" s="1"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="45" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A45" s="36">
         <v>1041</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>281693</v>
       </c>
       <c r="T45" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U45" s="1">
         <v>3</v>
@@ -8191,7 +8191,7 @@
       <c r="Y45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="46" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A46" s="36">
         <v>1042</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>281693</v>
       </c>
       <c r="T46" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U46" s="1">
         <v>3</v>
@@ -8263,7 +8263,7 @@
       <c r="Y46" s="10"/>
       <c r="AA46" s="10"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="47" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A47" s="39">
         <v>1043</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>281693</v>
       </c>
       <c r="T47" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U47" s="1">
         <v>3</v>
@@ -8335,7 +8335,7 @@
       <c r="Y47" s="10"/>
       <c r="AA47" s="10"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="48" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A48" s="36">
         <v>1044</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>281693</v>
       </c>
       <c r="T48" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U48" s="1">
         <v>3</v>
@@ -8407,7 +8407,7 @@
       <c r="Y48" s="10"/>
       <c r="AA48" s="10"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="49" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A49" s="31">
         <v>1045</v>
       </c>
@@ -8463,8 +8463,8 @@
       <c r="S49" s="48">
         <v>281693</v>
       </c>
-      <c r="T49" s="31">
-        <v>1.5</v>
+      <c r="T49" s="1">
+        <v>0.8</v>
       </c>
       <c r="U49" s="31">
         <v>3</v>
@@ -8479,7 +8479,7 @@
       <c r="Y49" s="10"/>
       <c r="AA49" s="10"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="50" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A50" s="36">
         <v>1046</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>281693</v>
       </c>
       <c r="T50" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U50" s="1">
         <v>3</v>
@@ -8551,7 +8551,7 @@
       <c r="Y50" s="10"/>
       <c r="AA50" s="10"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="51" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A51" s="36">
         <v>1047</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>281693</v>
       </c>
       <c r="T51" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U51" s="1">
         <v>3</v>
@@ -8623,7 +8623,7 @@
       <c r="Y51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="52" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A52" s="36">
         <v>1048</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>281693</v>
       </c>
       <c r="T52" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U52" s="1">
         <v>3</v>
@@ -8695,7 +8695,7 @@
       <c r="Y52" s="10"/>
       <c r="AA52" s="10"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="53" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A53" s="31">
         <v>1049</v>
       </c>
@@ -8751,8 +8751,8 @@
       <c r="S53" s="48">
         <v>281693</v>
       </c>
-      <c r="T53" s="31">
-        <v>1.5</v>
+      <c r="T53" s="1">
+        <v>0.8</v>
       </c>
       <c r="U53" s="31">
         <v>3</v>
@@ -8769,7 +8769,7 @@
       <c r="Y53" s="10"/>
       <c r="AA53" s="10"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="54" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A54" s="31">
         <v>1050</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>281693</v>
       </c>
       <c r="T54" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U54" s="1">
         <v>3</v>
@@ -8843,7 +8843,7 @@
       <c r="Y54" s="10"/>
       <c r="AA54" s="10"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="55" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A55" s="36">
         <v>1051</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>281693</v>
       </c>
       <c r="T55" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U55" s="1">
         <v>3</v>
@@ -8915,7 +8915,7 @@
       <c r="Y55" s="10"/>
       <c r="AA55" s="10"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="56" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A56" s="36">
         <v>1052</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>281693</v>
       </c>
       <c r="T56" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U56" s="1">
         <v>3</v>
@@ -8987,7 +8987,7 @@
       <c r="Y56" s="10"/>
       <c r="AA56" s="10"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="57" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A57" s="31">
         <v>1053</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>281693</v>
       </c>
       <c r="T57" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U57" s="1">
         <v>3</v>
@@ -9059,7 +9059,7 @@
       <c r="Y57" s="10"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="58" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A58" s="36">
         <v>1054</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>281693</v>
       </c>
       <c r="T58" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U58" s="1">
         <v>3</v>
@@ -9131,7 +9131,7 @@
       <c r="Y58" s="10"/>
       <c r="AA58" s="10"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="59" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A59" s="36">
         <v>1055</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>281693</v>
       </c>
       <c r="T59" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U59" s="1">
         <v>3</v>
@@ -9203,7 +9203,7 @@
       <c r="Y59" s="10"/>
       <c r="AA59" s="10"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="60" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A60" s="36">
         <v>1056</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>281693</v>
       </c>
       <c r="T60" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U60" s="1">
         <v>3</v>
@@ -9275,7 +9275,7 @@
       <c r="Y60" s="10"/>
       <c r="AA60" s="10"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="61" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A61" s="36">
         <v>1057</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>281693</v>
       </c>
       <c r="T61" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U61" s="1">
         <v>3</v>
@@ -9347,7 +9347,7 @@
       <c r="Y61" s="10"/>
       <c r="AA61" s="10"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="62" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A62" s="31">
         <v>1058</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>285139</v>
       </c>
       <c r="T62" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U62" s="1">
         <v>3</v>
@@ -9419,11 +9419,10 @@
       <c r="Y62" s="10"/>
       <c r="AA62" s="10"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="63" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A63" s="36">
         <v>1059</v>
       </c>
-      <c r="B63" s="1"/>
       <c r="C63" s="11" t="s">
         <v>170</v>
       </c>
@@ -9476,7 +9475,7 @@
         <v>281693</v>
       </c>
       <c r="T63" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U63" s="1">
         <v>3</v>
@@ -9493,7 +9492,7 @@
       <c r="Y63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="64" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A64" s="41">
         <v>1060</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>281693</v>
       </c>
       <c r="T64" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U64" s="1">
         <v>3</v>
@@ -9564,7 +9563,7 @@
       <c r="Y64" s="10"/>
       <c r="AA64" s="10"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="65" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A65" s="1">
         <v>1061</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>281693</v>
       </c>
       <c r="T65" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U65" s="1">
         <v>3</v>
@@ -9635,7 +9634,7 @@
       <c r="Y65" s="10"/>
       <c r="AA65" s="10"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="66" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A66" s="36">
         <v>1062</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>281693</v>
       </c>
       <c r="T66" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U66" s="1">
         <v>3</v>
@@ -9708,7 +9707,7 @@
       <c r="Y66" s="10"/>
       <c r="AA66" s="10"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="67" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A67" s="36">
         <v>1063</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>281693</v>
       </c>
       <c r="T67" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U67" s="1">
         <v>3</v>
@@ -9779,7 +9778,7 @@
       <c r="Y67" s="10"/>
       <c r="AA67" s="10"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="68" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A68" s="1">
         <v>1064</v>
       </c>
@@ -9835,7 +9834,7 @@
         <v>281693</v>
       </c>
       <c r="T68" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U68" s="1">
         <v>3</v>
@@ -9850,7 +9849,7 @@
       <c r="Y68" s="10"/>
       <c r="AA68" s="10"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="69" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A69" s="1">
         <v>1065</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>281693</v>
       </c>
       <c r="T69" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U69" s="1">
         <v>3</v>
@@ -9921,7 +9920,7 @@
       <c r="Y69" s="10"/>
       <c r="AA69" s="10"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="16.35" spans="1:27">
+    <row r="70" s="1" customFormat="1" ht="17.25" spans="1:27">
       <c r="A70" s="1">
         <v>1066</v>
       </c>
@@ -9979,8 +9978,8 @@
       <c r="S70" s="48">
         <v>281693</v>
       </c>
-      <c r="T70" s="31">
-        <v>1.5</v>
+      <c r="T70" s="1">
+        <v>0.8</v>
       </c>
       <c r="U70" s="31">
         <v>3</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGE\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8BADE-D191-4CE7-99C2-CAC6321AC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26AF91-0FA2-4AE2-B59B-D492D931ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37284" yWindow="2352" windowWidth="23040" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -400,9 +402,6 @@
     <t>Monster_name_33</t>
   </si>
   <si>
-    <t>青年地精</t>
-  </si>
-  <si>
     <t>Monster_name_34</t>
   </si>
   <si>
@@ -454,9 +453,6 @@
     <t>Monster_name_42</t>
   </si>
   <si>
-    <t>三头犬</t>
-  </si>
-  <si>
     <t>Monster_name_43</t>
   </si>
   <si>
@@ -593,13 +589,19 @@
   </si>
   <si>
     <t>太阳神</t>
+  </si>
+  <si>
+    <t>女天使</t>
+  </si>
+  <si>
+    <t>外星人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -609,7 +611,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -617,40 +618,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -899,7 +889,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1308,39 +1298,39 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="5" customWidth="1"/>
     <col min="9" max="10" width="7.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.59765625" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.69921875" style="4" customWidth="1"/>
     <col min="16" max="16" width="21" style="4" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="17.3984375" style="4" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="4" customWidth="1"/>
     <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.8984375" style="4" customWidth="1"/>
     <col min="22" max="22" width="11" style="5"/>
-    <col min="23" max="23" width="15.625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="23.125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="23.09765625" style="4" customWidth="1"/>
     <col min="26" max="26" width="11" style="4"/>
     <col min="28" max="1024" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" ht="26.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1420,7 @@
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:1024" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" ht="24.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1510,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1024" ht="95.25" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1610,7 +1600,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1024" s="1" customFormat="1">
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1624,7 +1614,7 @@
       <c r="Y4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:1024" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A5" s="9">
         <v>1001</v>
       </c>
@@ -1680,7 +1670,7 @@
         <v>285139</v>
       </c>
       <c r="T5" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
@@ -1700,7 +1690,7 @@
       <c r="AD5" s="44"/>
       <c r="AG5" s="44"/>
     </row>
-    <row r="6" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A6" s="9">
         <v>1002</v>
       </c>
@@ -1759,7 +1749,7 @@
         <v>285139</v>
       </c>
       <c r="T6" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
@@ -1774,7 +1764,7 @@
       <c r="Y6" s="43"/>
       <c r="AA6" s="43"/>
     </row>
-    <row r="7" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A7" s="9">
         <v>1003</v>
       </c>
@@ -1833,7 +1823,7 @@
         <v>20291</v>
       </c>
       <c r="T7" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>3</v>
@@ -1851,7 +1841,7 @@
       <c r="AD7" s="44"/>
       <c r="AG7" s="44"/>
     </row>
-    <row r="8" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A8" s="9">
         <v>1004</v>
       </c>
@@ -1910,7 +1900,7 @@
         <v>285395</v>
       </c>
       <c r="T8" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>3</v>
@@ -1925,7 +1915,7 @@
       <c r="Y8" s="43"/>
       <c r="AA8" s="43"/>
     </row>
-    <row r="9" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A9" s="9">
         <v>1005</v>
       </c>
@@ -1984,7 +1974,7 @@
         <v>285139</v>
       </c>
       <c r="T9" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U9" s="1">
         <v>3</v>
@@ -1999,7 +1989,7 @@
       <c r="Y9" s="43"/>
       <c r="AA9" s="43"/>
     </row>
-    <row r="10" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A10" s="9">
         <v>1006</v>
       </c>
@@ -2058,7 +2048,7 @@
         <v>285139</v>
       </c>
       <c r="T10" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U10" s="1">
         <v>3</v>
@@ -2073,7 +2063,7 @@
       <c r="Y10" s="43"/>
       <c r="AA10" s="43"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1024">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2130,7 +2120,7 @@
         <v>281693</v>
       </c>
       <c r="T11" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U11" s="1">
         <v>3</v>
@@ -2143,7 +2133,7 @@
       </c>
       <c r="X11" s="36"/>
     </row>
-    <row r="12" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1024" s="2" customFormat="1">
       <c r="A12" s="16">
         <v>1008</v>
       </c>
@@ -2164,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I12" s="37">
         <v>500</v>
@@ -2199,8 +2189,8 @@
       <c r="S12" s="17">
         <v>281693</v>
       </c>
-      <c r="T12" s="1">
-        <v>0.8</v>
+      <c r="T12" s="16">
+        <v>1.5</v>
       </c>
       <c r="U12" s="16">
         <v>3</v>
@@ -3211,7 +3201,7 @@
       <c r="AMI12" s="17"/>
       <c r="AMJ12" s="17"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1024">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -3267,7 +3257,7 @@
         <v>281693</v>
       </c>
       <c r="T13" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U13" s="1">
         <v>3</v>
@@ -3280,7 +3270,7 @@
       </c>
       <c r="X13" s="36"/>
     </row>
-    <row r="14" spans="1:1024" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1024" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="23">
         <v>1010</v>
       </c>
@@ -3339,7 +3329,7 @@
         <v>281693</v>
       </c>
       <c r="T14" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U14" s="1">
         <v>3</v>
@@ -4350,7 +4340,7 @@
       <c r="AMI14" s="24"/>
       <c r="AMJ14" s="24"/>
     </row>
-    <row r="15" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -4370,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I15" s="5">
         <v>700</v>
@@ -4406,7 +4396,7 @@
         <v>281693</v>
       </c>
       <c r="T15" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U15" s="1">
         <v>3</v>
@@ -4421,7 +4411,7 @@
       <c r="Y15" s="43"/>
       <c r="AA15" s="43"/>
     </row>
-    <row r="16" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1024" s="1" customFormat="1" ht="16.2">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -4478,7 +4468,7 @@
         <v>281693</v>
       </c>
       <c r="T16" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U16" s="1">
         <v>3</v>
@@ -4496,7 +4486,7 @@
       <c r="AD16" s="44"/>
       <c r="AG16" s="44"/>
     </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="1" customFormat="1" ht="16.2">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -4552,7 +4542,7 @@
         <v>281693</v>
       </c>
       <c r="T17" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U17" s="1">
         <v>3</v>
@@ -4567,7 +4557,7 @@
       <c r="Y17" s="43"/>
       <c r="AA17" s="43"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -4623,7 +4613,7 @@
         <v>281693</v>
       </c>
       <c r="T18" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U18" s="1">
         <v>3</v>
@@ -4638,7 +4628,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -4694,7 +4684,7 @@
         <v>281693</v>
       </c>
       <c r="T19" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U19" s="1">
         <v>3</v>
@@ -4707,7 +4697,7 @@
       </c>
       <c r="X19" s="36"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -4763,7 +4753,7 @@
         <v>281693</v>
       </c>
       <c r="T20" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U20" s="1">
         <v>3</v>
@@ -4776,7 +4766,7 @@
       </c>
       <c r="X20" s="36"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -4832,7 +4822,7 @@
         <v>281693</v>
       </c>
       <c r="T21" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U21" s="1">
         <v>3</v>
@@ -4845,7 +4835,7 @@
       </c>
       <c r="X21" s="36"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -4901,7 +4891,7 @@
         <v>281693</v>
       </c>
       <c r="T22" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U22" s="1">
         <v>3</v>
@@ -4914,7 +4904,7 @@
       </c>
       <c r="X22" s="36"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -4934,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I23" s="5">
         <v>2000</v>
@@ -4970,7 +4960,7 @@
         <v>281693</v>
       </c>
       <c r="T23" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U23" s="1">
         <v>3</v>
@@ -4985,7 +4975,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" s="1" customFormat="1">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -5041,7 +5031,7 @@
         <v>281693</v>
       </c>
       <c r="T24" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U24" s="1">
         <v>3</v>
@@ -5056,7 +5046,7 @@
       <c r="Y24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -5112,7 +5102,7 @@
         <v>281693</v>
       </c>
       <c r="T25" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U25" s="1">
         <v>3</v>
@@ -5127,7 +5117,7 @@
       <c r="Y25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -5183,7 +5173,7 @@
         <v>281693</v>
       </c>
       <c r="T26" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U26" s="1">
         <v>3</v>
@@ -5198,7 +5188,7 @@
       <c r="Y26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -5254,7 +5244,7 @@
         <v>281693</v>
       </c>
       <c r="T27" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U27" s="1">
         <v>3</v>
@@ -5271,7 +5261,7 @@
       <c r="Y27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -5327,7 +5317,7 @@
         <v>281693</v>
       </c>
       <c r="T28" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U28" s="1">
         <v>3</v>
@@ -5342,7 +5332,7 @@
       <c r="Y28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -5362,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I29" s="5">
         <v>500</v>
@@ -5398,7 +5388,7 @@
         <v>281693</v>
       </c>
       <c r="T29" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U29" s="1">
         <v>3</v>
@@ -5413,7 +5403,7 @@
       <c r="Y29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -5433,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I30" s="5">
         <v>2000</v>
@@ -5469,7 +5459,7 @@
         <v>281693</v>
       </c>
       <c r="T30" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U30" s="1">
         <v>3</v>
@@ -5484,7 +5474,7 @@
       <c r="Y30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -5504,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I31" s="40">
         <v>300</v>
@@ -5540,7 +5530,7 @@
         <v>281693</v>
       </c>
       <c r="T31" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U31" s="1">
         <v>3</v>
@@ -5555,7 +5545,7 @@
       <c r="Y31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" s="1" customFormat="1">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -5575,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I32" s="40">
         <v>500</v>
@@ -5611,7 +5601,7 @@
         <v>281693</v>
       </c>
       <c r="T32" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U32" s="1">
         <v>3</v>
@@ -5626,7 +5616,7 @@
       <c r="Y32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1024" s="1" customFormat="1">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -5646,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I33" s="5">
         <v>1200</v>
@@ -5682,7 +5672,7 @@
         <v>281693</v>
       </c>
       <c r="T33" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U33" s="1">
         <v>3</v>
@@ -5697,7 +5687,7 @@
       <c r="Y33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1024" s="1" customFormat="1">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -5717,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I34" s="5">
         <v>500</v>
@@ -5753,7 +5743,7 @@
         <v>281693</v>
       </c>
       <c r="T34" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -5768,7 +5758,7 @@
       <c r="Y34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1024" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -5788,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I35" s="5">
         <v>1200</v>
@@ -5824,7 +5814,7 @@
         <v>281693</v>
       </c>
       <c r="T35" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U35" s="1">
         <v>3</v>
@@ -5839,7 +5829,7 @@
       <c r="Y35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1024" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -5859,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I36" s="5">
         <v>2000</v>
@@ -5895,7 +5885,7 @@
         <v>281693</v>
       </c>
       <c r="T36" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U36" s="1">
         <v>3</v>
@@ -5912,7 +5902,7 @@
       <c r="Y36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1024" s="1" customFormat="1">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -5932,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I37" s="5">
         <v>600</v>
@@ -5968,7 +5958,7 @@
         <v>281693</v>
       </c>
       <c r="T37" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U37" s="1">
         <v>3</v>
@@ -5983,7 +5973,7 @@
       <c r="Y37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1024" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -5991,19 +5981,19 @@
         <v>120</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="E38" s="1">
         <v>6</v>
       </c>
       <c r="F38" s="12">
-        <v>142300</v>
+        <v>142880</v>
       </c>
       <c r="G38" s="12">
         <v>2</v>
       </c>
       <c r="H38" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I38" s="5">
         <v>700</v>
@@ -6039,7 +6029,7 @@
         <v>281693</v>
       </c>
       <c r="T38" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U38" s="1">
         <v>3</v>
@@ -6054,15 +6044,15 @@
       <c r="Y38" s="9"/>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1024" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -6074,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I39" s="5">
         <v>400</v>
@@ -6110,7 +6100,7 @@
         <v>281693</v>
       </c>
       <c r="T39" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U39" s="1">
         <v>3</v>
@@ -6125,15 +6115,15 @@
       <c r="Y39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1024" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -6145,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I40" s="5">
         <v>2000</v>
@@ -6181,7 +6171,7 @@
         <v>281693</v>
       </c>
       <c r="T40" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U40" s="1">
         <v>3</v>
@@ -6196,15 +6186,15 @@
       <c r="Y40" s="9"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1024" s="1" customFormat="1">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -6216,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I41" s="5">
         <v>1200</v>
@@ -6252,7 +6242,7 @@
         <v>281693</v>
       </c>
       <c r="T41" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U41" s="1">
         <v>3</v>
@@ -6267,15 +6257,15 @@
       <c r="Y41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1024" s="1" customFormat="1">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -6287,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I42" s="5">
         <v>700</v>
@@ -6323,7 +6313,7 @@
         <v>281693</v>
       </c>
       <c r="T42" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U42" s="1">
         <v>3</v>
@@ -6338,7 +6328,7 @@
       <c r="Y42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1024" s="1" customFormat="1">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -6346,10 +6336,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -6361,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I43" s="5">
         <v>500</v>
@@ -6397,7 +6387,7 @@
         <v>281693</v>
       </c>
       <c r="T43" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U43" s="1">
         <v>3</v>
@@ -6412,7 +6402,7 @@
       <c r="Y43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:1024" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1024">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -6420,10 +6410,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -6435,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I44" s="5">
         <v>500</v>
@@ -6471,7 +6461,7 @@
         <v>281693</v>
       </c>
       <c r="T44" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U44" s="1">
         <v>3</v>
@@ -7484,15 +7474,15 @@
       <c r="AMI44" s="1"/>
       <c r="AMJ44" s="1"/>
     </row>
-    <row r="45" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1024" s="1" customFormat="1">
       <c r="A45" s="30">
         <v>1041</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
@@ -7504,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="32">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I45" s="5">
         <v>2000</v>
@@ -7540,7 +7530,7 @@
         <v>281693</v>
       </c>
       <c r="T45" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U45" s="1">
         <v>3</v>
@@ -7557,15 +7547,15 @@
       <c r="Y45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1024" s="1" customFormat="1">
       <c r="A46" s="30">
         <v>1042</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -7613,7 +7603,7 @@
         <v>281693</v>
       </c>
       <c r="T46" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U46" s="1">
         <v>3</v>
@@ -7627,27 +7617,27 @@
       <c r="Y46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1024" s="1" customFormat="1">
       <c r="A47" s="33">
         <v>1043</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="31">
-        <v>174697</v>
+        <v>137837</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>150774</v>
+        <v>303165</v>
       </c>
       <c r="I47" s="5">
         <v>500</v>
@@ -7683,7 +7673,7 @@
         <v>281693</v>
       </c>
       <c r="T47" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U47" s="1">
         <v>3</v>
@@ -7697,15 +7687,15 @@
       <c r="Y47" s="9"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1024" s="1" customFormat="1">
       <c r="A48" s="30">
         <v>1044</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -7753,7 +7743,7 @@
         <v>281693</v>
       </c>
       <c r="T48" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U48" s="1">
         <v>3</v>
@@ -7767,15 +7757,15 @@
       <c r="Y48" s="9"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -7787,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I49" s="5">
         <v>300</v>
@@ -7823,7 +7813,7 @@
         <v>281693</v>
       </c>
       <c r="T49" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U49" s="1">
         <v>3</v>
@@ -7837,15 +7827,15 @@
       <c r="Y49" s="9"/>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" s="1" customFormat="1">
       <c r="A50" s="30">
         <v>1046</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -7857,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I50" s="5">
         <v>1200</v>
@@ -7893,7 +7883,7 @@
         <v>281693</v>
       </c>
       <c r="T50" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U50" s="1">
         <v>3</v>
@@ -7907,15 +7897,15 @@
       <c r="Y50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="1" customFormat="1">
       <c r="A51" s="30">
         <v>1047</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -7927,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I51" s="5">
         <v>600</v>
@@ -7963,7 +7953,7 @@
         <v>281693</v>
       </c>
       <c r="T51" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U51" s="1">
         <v>3</v>
@@ -7977,15 +7967,15 @@
       <c r="Y51" s="9"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" s="1" customFormat="1">
       <c r="A52" s="30">
         <v>1048</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -7997,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I52" s="5">
         <v>500</v>
@@ -8033,7 +8023,7 @@
         <v>281693</v>
       </c>
       <c r="T52" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U52" s="1">
         <v>3</v>
@@ -8047,15 +8037,15 @@
       <c r="Y52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -8103,7 +8093,7 @@
         <v>281693</v>
       </c>
       <c r="T53" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U53" s="1">
         <v>3</v>
@@ -8120,7 +8110,7 @@
       <c r="Y53" s="9"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>1050</v>
       </c>
@@ -8128,10 +8118,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -8179,7 +8169,7 @@
         <v>281693</v>
       </c>
       <c r="T54" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U54" s="1">
         <v>3</v>
@@ -8193,15 +8183,15 @@
       <c r="Y54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" s="1" customFormat="1">
       <c r="A55" s="30">
         <v>1051</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
@@ -8213,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I55" s="5">
         <v>500</v>
@@ -8249,7 +8239,7 @@
         <v>281693</v>
       </c>
       <c r="T55" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U55" s="1">
         <v>3</v>
@@ -8263,15 +8253,15 @@
       <c r="Y55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" s="1" customFormat="1">
       <c r="A56" s="30">
         <v>1052</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -8319,7 +8309,7 @@
         <v>281693</v>
       </c>
       <c r="T56" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U56" s="1">
         <v>3</v>
@@ -8333,15 +8323,15 @@
       <c r="Y56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>1053</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -8353,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I57" s="5">
         <v>300</v>
@@ -8389,7 +8379,7 @@
         <v>281693</v>
       </c>
       <c r="T57" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U57" s="1">
         <v>3</v>
@@ -8403,15 +8393,15 @@
       <c r="Y57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" s="1" customFormat="1">
       <c r="A58" s="30">
         <v>1054</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1">
         <v>6</v>
@@ -8459,7 +8449,7 @@
         <v>281693</v>
       </c>
       <c r="T58" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U58" s="1">
         <v>3</v>
@@ -8473,15 +8463,15 @@
       <c r="Y58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" s="1" customFormat="1">
       <c r="A59" s="30">
         <v>1055</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -8493,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I59" s="5">
         <v>500</v>
@@ -8529,7 +8519,7 @@
         <v>281693</v>
       </c>
       <c r="T59" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U59" s="1">
         <v>3</v>
@@ -8543,15 +8533,15 @@
       <c r="Y59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" s="1" customFormat="1">
       <c r="A60" s="30">
         <v>1056</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -8599,7 +8589,7 @@
         <v>281693</v>
       </c>
       <c r="T60" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U60" s="1">
         <v>3</v>
@@ -8613,15 +8603,15 @@
       <c r="Y60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" s="1" customFormat="1">
       <c r="A61" s="30">
         <v>1057</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -8633,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I61" s="5">
         <v>500</v>
@@ -8669,7 +8659,7 @@
         <v>281693</v>
       </c>
       <c r="T61" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U61" s="1">
         <v>3</v>
@@ -8683,15 +8673,15 @@
       <c r="Y61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>1058</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
@@ -8718,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N62" s="1">
         <v>500</v>
@@ -8739,7 +8729,7 @@
         <v>285139</v>
       </c>
       <c r="T62" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U62" s="1">
         <v>3</v>
@@ -8753,15 +8743,15 @@
       <c r="Y62" s="9"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" s="1" customFormat="1">
       <c r="A63" s="30">
         <v>1059</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -8809,7 +8799,7 @@
         <v>281693</v>
       </c>
       <c r="T63" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U63" s="1">
         <v>3</v>
@@ -8826,15 +8816,15 @@
       <c r="Y63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" s="1" customFormat="1">
       <c r="A64" s="34">
         <v>1060</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
@@ -8846,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I64" s="5">
         <v>600</v>
@@ -8882,7 +8872,7 @@
         <v>281693</v>
       </c>
       <c r="T64" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U64" s="1">
         <v>3</v>
@@ -8896,15 +8886,15 @@
       <c r="Y64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>1061</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
@@ -8916,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I65" s="5">
         <v>400</v>
@@ -8952,7 +8942,7 @@
         <v>281693</v>
       </c>
       <c r="T65" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U65" s="1">
         <v>3</v>
@@ -8966,15 +8956,15 @@
       <c r="Y65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" s="1" customFormat="1">
       <c r="A66" s="30">
         <v>1062</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E66" s="46">
         <v>3</v>
@@ -9022,7 +9012,7 @@
         <v>281693</v>
       </c>
       <c r="T66" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U66" s="1">
         <v>3</v>
@@ -9039,15 +9029,15 @@
       <c r="Y66" s="9"/>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" s="1" customFormat="1">
       <c r="A67" s="30">
         <v>1063</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E67" s="46">
         <v>4</v>
@@ -9095,7 +9085,7 @@
         <v>281693</v>
       </c>
       <c r="T67" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U67" s="1">
         <v>3</v>
@@ -9109,15 +9099,15 @@
       <c r="Y67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>1064</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -9129,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I68" s="5">
         <v>700</v>
@@ -9165,7 +9155,7 @@
         <v>281693</v>
       </c>
       <c r="T68" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U68" s="1">
         <v>3</v>
@@ -9179,15 +9169,15 @@
       <c r="Y68" s="9"/>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>1065</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
@@ -9199,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I69" s="5">
         <v>600</v>
@@ -9235,7 +9225,7 @@
         <v>281693</v>
       </c>
       <c r="T69" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U69" s="1">
         <v>3</v>
@@ -9249,7 +9239,7 @@
       <c r="Y69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" s="1" customFormat="1">
       <c r="A70" s="1">
         <v>1066</v>
       </c>
@@ -9257,10 +9247,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -9308,7 +9298,7 @@
         <v>281693</v>
       </c>
       <c r="T70" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="U70" s="1">
         <v>3</v>
@@ -9322,7 +9312,7 @@
       <c r="Y70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" s="1" customFormat="1">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -9333,7 +9323,7 @@
       <c r="Y71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" s="1" customFormat="1">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -9344,7 +9334,7 @@
       <c r="Y72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" s="1" customFormat="1">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -9355,7 +9345,7 @@
       <c r="Y73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" s="1" customFormat="1">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -9366,7 +9356,7 @@
       <c r="Y74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" s="1" customFormat="1">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -9377,7 +9367,7 @@
       <c r="Y75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" s="1" customFormat="1">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -9388,7 +9378,7 @@
       <c r="Y76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" s="1" customFormat="1">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -9399,7 +9389,7 @@
       <c r="Y77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" s="1" customFormat="1">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -9410,7 +9400,7 @@
       <c r="Y78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" s="1" customFormat="1">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -9421,7 +9411,7 @@
       <c r="Y79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" s="1" customFormat="1">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -9432,7 +9422,7 @@
       <c r="Y80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:27" s="1" customFormat="1">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -9443,7 +9433,7 @@
       <c r="Y81" s="9"/>
       <c r="AA81" s="9"/>
     </row>
-    <row r="82" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:27" s="1" customFormat="1">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -9454,7 +9444,7 @@
       <c r="Y82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:27" s="1" customFormat="1">
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -9465,7 +9455,7 @@
       <c r="Y83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:27" s="1" customFormat="1">
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -9476,7 +9466,7 @@
       <c r="Y84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:27" s="1" customFormat="1">
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -9487,7 +9477,7 @@
       <c r="Y85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:27" s="1" customFormat="1">
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -9498,7 +9488,7 @@
       <c r="Y86" s="9"/>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:27" s="1" customFormat="1">
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -9509,7 +9499,7 @@
       <c r="Y87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:27" s="1" customFormat="1">
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -9520,7 +9510,7 @@
       <c r="Y88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:27" s="1" customFormat="1">
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -9531,7 +9521,7 @@
       <c r="Y89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:27" s="1" customFormat="1">
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -9542,7 +9532,7 @@
       <c r="Y90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
-    <row r="91" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:27" s="1" customFormat="1">
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -9553,7 +9543,7 @@
       <c r="Y91" s="9"/>
       <c r="AA91" s="9"/>
     </row>
-    <row r="92" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:27" s="1" customFormat="1">
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -9564,7 +9554,7 @@
       <c r="Y92" s="9"/>
       <c r="AA92" s="9"/>
     </row>
-    <row r="93" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:27" s="1" customFormat="1">
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -9575,7 +9565,7 @@
       <c r="Y93" s="9"/>
       <c r="AA93" s="9"/>
     </row>
-    <row r="94" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:27" s="1" customFormat="1">
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -9586,7 +9576,7 @@
       <c r="Y94" s="9"/>
       <c r="AA94" s="9"/>
     </row>
-    <row r="95" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:27" s="1" customFormat="1">
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -9597,7 +9587,7 @@
       <c r="Y95" s="9"/>
       <c r="AA95" s="9"/>
     </row>
-    <row r="96" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:27" s="1" customFormat="1">
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -9608,7 +9598,7 @@
       <c r="Y96" s="9"/>
       <c r="AA96" s="9"/>
     </row>
-    <row r="97" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:27" s="1" customFormat="1">
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -9619,7 +9609,7 @@
       <c r="Y97" s="9"/>
       <c r="AA97" s="9"/>
     </row>
-    <row r="98" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:27" s="1" customFormat="1">
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -9630,7 +9620,7 @@
       <c r="Y98" s="9"/>
       <c r="AA98" s="9"/>
     </row>
-    <row r="99" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:27" s="1" customFormat="1">
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -9641,7 +9631,7 @@
       <c r="Y99" s="9"/>
       <c r="AA99" s="9"/>
     </row>
-    <row r="100" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:27" s="1" customFormat="1">
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -9652,7 +9642,7 @@
       <c r="Y100" s="9"/>
       <c r="AA100" s="9"/>
     </row>
-    <row r="101" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:27" s="1" customFormat="1">
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -9663,7 +9653,7 @@
       <c r="Y101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:27" s="1" customFormat="1">
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -9674,7 +9664,7 @@
       <c r="Y102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:27" s="1" customFormat="1">
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -9685,7 +9675,7 @@
       <c r="Y103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:27" s="1" customFormat="1">
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -9696,7 +9686,7 @@
       <c r="Y104" s="9"/>
       <c r="AA104" s="9"/>
     </row>
-    <row r="105" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:27" s="1" customFormat="1">
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -9707,7 +9697,7 @@
       <c r="Y105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:27" s="1" customFormat="1">
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -9718,7 +9708,7 @@
       <c r="Y106" s="9"/>
       <c r="AA106" s="9"/>
     </row>
-    <row r="107" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:27" s="1" customFormat="1">
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -9729,7 +9719,7 @@
       <c r="Y107" s="9"/>
       <c r="AA107" s="9"/>
     </row>
-    <row r="108" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:27" s="1" customFormat="1">
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -9740,7 +9730,7 @@
       <c r="Y108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:27" s="1" customFormat="1">
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -9751,7 +9741,7 @@
       <c r="Y109" s="9"/>
       <c r="AA109" s="9"/>
     </row>
-    <row r="110" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:27" s="1" customFormat="1">
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
@@ -9762,7 +9752,7 @@
       <c r="Y110" s="9"/>
       <c r="AA110" s="9"/>
     </row>
-    <row r="111" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:27" s="1" customFormat="1">
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -9773,7 +9763,7 @@
       <c r="Y111" s="9"/>
       <c r="AA111" s="9"/>
     </row>
-    <row r="112" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:27" s="1" customFormat="1">
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -9784,7 +9774,7 @@
       <c r="Y112" s="9"/>
       <c r="AA112" s="9"/>
     </row>
-    <row r="113" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:27" s="1" customFormat="1">
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
@@ -9795,7 +9785,7 @@
       <c r="Y113" s="9"/>
       <c r="AA113" s="9"/>
     </row>
-    <row r="114" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:27" s="1" customFormat="1">
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -9806,7 +9796,7 @@
       <c r="Y114" s="9"/>
       <c r="AA114" s="9"/>
     </row>
-    <row r="115" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:27" s="1" customFormat="1">
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -9817,7 +9807,7 @@
       <c r="Y115" s="9"/>
       <c r="AA115" s="9"/>
     </row>
-    <row r="116" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:27" s="1" customFormat="1">
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -9828,7 +9818,7 @@
       <c r="Y116" s="9"/>
       <c r="AA116" s="9"/>
     </row>
-    <row r="117" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:27" s="1" customFormat="1">
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -9839,7 +9829,7 @@
       <c r="Y117" s="9"/>
       <c r="AA117" s="9"/>
     </row>
-    <row r="118" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:27" s="1" customFormat="1">
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -9850,7 +9840,7 @@
       <c r="Y118" s="9"/>
       <c r="AA118" s="9"/>
     </row>
-    <row r="119" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:27" s="1" customFormat="1">
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -9861,7 +9851,7 @@
       <c r="Y119" s="9"/>
       <c r="AA119" s="9"/>
     </row>
-    <row r="120" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:27" s="1" customFormat="1">
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
@@ -9872,7 +9862,7 @@
       <c r="Y120" s="9"/>
       <c r="AA120" s="9"/>
     </row>
-    <row r="121" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:27" s="1" customFormat="1">
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -9883,7 +9873,7 @@
       <c r="Y121" s="9"/>
       <c r="AA121" s="9"/>
     </row>
-    <row r="122" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:27" s="1" customFormat="1">
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -9894,7 +9884,7 @@
       <c r="Y122" s="9"/>
       <c r="AA122" s="9"/>
     </row>
-    <row r="123" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:27" s="1" customFormat="1">
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -9905,7 +9895,7 @@
       <c r="Y123" s="9"/>
       <c r="AA123" s="9"/>
     </row>
-    <row r="124" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="8:27" s="1" customFormat="1">
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
@@ -9916,7 +9906,7 @@
       <c r="Y124" s="9"/>
       <c r="AA124" s="9"/>
     </row>
-    <row r="125" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="8:27" s="1" customFormat="1">
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -9927,7 +9917,7 @@
       <c r="Y125" s="9"/>
       <c r="AA125" s="9"/>
     </row>
-    <row r="126" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="8:27" s="1" customFormat="1">
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -9938,7 +9928,7 @@
       <c r="Y126" s="9"/>
       <c r="AA126" s="9"/>
     </row>
-    <row r="127" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="8:27" s="1" customFormat="1">
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -9949,7 +9939,7 @@
       <c r="Y127" s="9"/>
       <c r="AA127" s="9"/>
     </row>
-    <row r="128" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="8:27" s="1" customFormat="1">
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
@@ -9960,7 +9950,7 @@
       <c r="Y128" s="9"/>
       <c r="AA128" s="9"/>
     </row>
-    <row r="129" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="8:27" s="1" customFormat="1">
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -9971,7 +9961,7 @@
       <c r="Y129" s="9"/>
       <c r="AA129" s="9"/>
     </row>
-    <row r="130" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="8:27" s="1" customFormat="1">
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
@@ -9982,7 +9972,7 @@
       <c r="Y130" s="9"/>
       <c r="AA130" s="9"/>
     </row>
-    <row r="131" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="8:27" s="1" customFormat="1">
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
@@ -9993,7 +9983,7 @@
       <c r="Y131" s="9"/>
       <c r="AA131" s="9"/>
     </row>
-    <row r="132" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="8:27" s="1" customFormat="1">
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -10004,7 +9994,7 @@
       <c r="Y132" s="9"/>
       <c r="AA132" s="9"/>
     </row>
-    <row r="133" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="8:27" s="1" customFormat="1">
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -10015,7 +10005,7 @@
       <c r="Y133" s="9"/>
       <c r="AA133" s="9"/>
     </row>
-    <row r="134" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="8:27" s="1" customFormat="1">
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -10026,7 +10016,7 @@
       <c r="Y134" s="9"/>
       <c r="AA134" s="9"/>
     </row>
-    <row r="135" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="8:27" s="1" customFormat="1">
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -10037,7 +10027,7 @@
       <c r="Y135" s="9"/>
       <c r="AA135" s="9"/>
     </row>
-    <row r="136" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="8:27" s="1" customFormat="1">
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -10048,7 +10038,7 @@
       <c r="Y136" s="9"/>
       <c r="AA136" s="9"/>
     </row>
-    <row r="137" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="8:27" s="1" customFormat="1">
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -10059,7 +10049,7 @@
       <c r="Y137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="8:27" s="1" customFormat="1">
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -10070,7 +10060,7 @@
       <c r="Y138" s="9"/>
       <c r="AA138" s="9"/>
     </row>
-    <row r="139" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="8:27" s="1" customFormat="1">
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -10081,7 +10071,7 @@
       <c r="Y139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
-    <row r="140" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="8:27" s="1" customFormat="1">
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -10092,7 +10082,7 @@
       <c r="Y140" s="9"/>
       <c r="AA140" s="9"/>
     </row>
-    <row r="141" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="8:27" s="1" customFormat="1">
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -10103,7 +10093,7 @@
       <c r="Y141" s="9"/>
       <c r="AA141" s="9"/>
     </row>
-    <row r="142" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="8:27" s="1" customFormat="1">
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
@@ -10114,7 +10104,7 @@
       <c r="Y142" s="9"/>
       <c r="AA142" s="9"/>
     </row>
-    <row r="143" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="8:27" s="1" customFormat="1">
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -10125,7 +10115,7 @@
       <c r="Y143" s="9"/>
       <c r="AA143" s="9"/>
     </row>
-    <row r="144" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="8:27" s="1" customFormat="1">
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -10136,7 +10126,7 @@
       <c r="Y144" s="9"/>
       <c r="AA144" s="9"/>
     </row>
-    <row r="145" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="8:27" s="1" customFormat="1">
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
@@ -10147,7 +10137,7 @@
       <c r="Y145" s="9"/>
       <c r="AA145" s="9"/>
     </row>
-    <row r="146" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="8:27" s="1" customFormat="1">
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
@@ -10158,7 +10148,7 @@
       <c r="Y146" s="9"/>
       <c r="AA146" s="9"/>
     </row>
-    <row r="147" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="8:27" s="1" customFormat="1">
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
@@ -10169,7 +10159,7 @@
       <c r="Y147" s="9"/>
       <c r="AA147" s="9"/>
     </row>
-    <row r="148" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="8:27" s="1" customFormat="1">
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -10180,7 +10170,7 @@
       <c r="Y148" s="9"/>
       <c r="AA148" s="9"/>
     </row>
-    <row r="149" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="8:27" s="1" customFormat="1">
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -10191,7 +10181,7 @@
       <c r="Y149" s="9"/>
       <c r="AA149" s="9"/>
     </row>
-    <row r="150" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="8:27" s="1" customFormat="1">
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -10202,7 +10192,7 @@
       <c r="Y150" s="9"/>
       <c r="AA150" s="9"/>
     </row>
-    <row r="151" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="8:27" s="1" customFormat="1">
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
@@ -10213,7 +10203,7 @@
       <c r="Y151" s="9"/>
       <c r="AA151" s="9"/>
     </row>
-    <row r="152" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="8:27" s="1" customFormat="1">
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -10224,7 +10214,7 @@
       <c r="Y152" s="9"/>
       <c r="AA152" s="9"/>
     </row>
-    <row r="153" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="8:27" s="1" customFormat="1">
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -10235,7 +10225,7 @@
       <c r="Y153" s="9"/>
       <c r="AA153" s="9"/>
     </row>
-    <row r="154" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="8:27" s="1" customFormat="1">
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -10246,7 +10236,7 @@
       <c r="Y154" s="9"/>
       <c r="AA154" s="9"/>
     </row>
-    <row r="155" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="8:27" s="1" customFormat="1">
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -10257,7 +10247,7 @@
       <c r="Y155" s="9"/>
       <c r="AA155" s="9"/>
     </row>
-    <row r="156" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="8:27" s="1" customFormat="1">
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -10268,7 +10258,7 @@
       <c r="Y156" s="9"/>
       <c r="AA156" s="9"/>
     </row>
-    <row r="157" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="8:27" s="1" customFormat="1">
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
@@ -10279,7 +10269,7 @@
       <c r="Y157" s="9"/>
       <c r="AA157" s="9"/>
     </row>
-    <row r="158" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="8:27" s="1" customFormat="1">
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -10290,7 +10280,7 @@
       <c r="Y158" s="9"/>
       <c r="AA158" s="9"/>
     </row>
-    <row r="159" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="8:27" s="1" customFormat="1">
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10301,7 +10291,7 @@
       <c r="Y159" s="9"/>
       <c r="AA159" s="9"/>
     </row>
-    <row r="160" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="8:27" s="1" customFormat="1">
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10312,7 +10302,7 @@
       <c r="Y160" s="9"/>
       <c r="AA160" s="9"/>
     </row>
-    <row r="161" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="8:27" s="1" customFormat="1">
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10323,7 +10313,7 @@
       <c r="Y161" s="9"/>
       <c r="AA161" s="9"/>
     </row>
-    <row r="162" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="8:27" s="1" customFormat="1">
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10334,7 +10324,7 @@
       <c r="Y162" s="9"/>
       <c r="AA162" s="9"/>
     </row>
-    <row r="163" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="8:27" s="1" customFormat="1">
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10345,7 +10335,7 @@
       <c r="Y163" s="9"/>
       <c r="AA163" s="9"/>
     </row>
-    <row r="164" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="8:27" s="1" customFormat="1">
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10356,7 +10346,7 @@
       <c r="Y164" s="9"/>
       <c r="AA164" s="9"/>
     </row>
-    <row r="165" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="8:27" s="1" customFormat="1">
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10367,7 +10357,7 @@
       <c r="Y165" s="9"/>
       <c r="AA165" s="9"/>
     </row>
-    <row r="166" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:27" s="1" customFormat="1">
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10378,7 +10368,7 @@
       <c r="Y166" s="9"/>
       <c r="AA166" s="9"/>
     </row>
-    <row r="167" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:27" s="1" customFormat="1">
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10389,7 +10379,7 @@
       <c r="Y167" s="9"/>
       <c r="AA167" s="9"/>
     </row>
-    <row r="168" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="8:27" s="1" customFormat="1">
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10400,7 +10390,7 @@
       <c r="Y168" s="9"/>
       <c r="AA168" s="9"/>
     </row>
-    <row r="169" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="8:27" s="1" customFormat="1">
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10411,7 +10401,7 @@
       <c r="Y169" s="9"/>
       <c r="AA169" s="9"/>
     </row>
-    <row r="170" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="8:27" s="1" customFormat="1">
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10422,7 +10412,7 @@
       <c r="Y170" s="9"/>
       <c r="AA170" s="9"/>
     </row>
-    <row r="171" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="8:27" s="1" customFormat="1">
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -10433,7 +10423,7 @@
       <c r="Y171" s="9"/>
       <c r="AA171" s="9"/>
     </row>
-    <row r="172" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="8:27" s="1" customFormat="1">
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -10444,7 +10434,7 @@
       <c r="Y172" s="9"/>
       <c r="AA172" s="9"/>
     </row>
-    <row r="173" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="8:27" s="1" customFormat="1">
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10455,7 +10445,7 @@
       <c r="Y173" s="9"/>
       <c r="AA173" s="9"/>
     </row>
-    <row r="174" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="8:27" s="1" customFormat="1">
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -10466,7 +10456,7 @@
       <c r="Y174" s="9"/>
       <c r="AA174" s="9"/>
     </row>
-    <row r="175" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="8:27" s="1" customFormat="1">
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -10477,7 +10467,7 @@
       <c r="Y175" s="9"/>
       <c r="AA175" s="9"/>
     </row>
-    <row r="176" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="8:27" s="1" customFormat="1">
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -10488,7 +10478,7 @@
       <c r="Y176" s="9"/>
       <c r="AA176" s="9"/>
     </row>
-    <row r="177" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="8:27" s="1" customFormat="1">
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
@@ -10499,7 +10489,7 @@
       <c r="Y177" s="9"/>
       <c r="AA177" s="9"/>
     </row>
-    <row r="178" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="8:27" s="1" customFormat="1">
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -10510,7 +10500,7 @@
       <c r="Y178" s="9"/>
       <c r="AA178" s="9"/>
     </row>
-    <row r="179" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="8:27" s="1" customFormat="1">
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -10521,7 +10511,7 @@
       <c r="Y179" s="9"/>
       <c r="AA179" s="9"/>
     </row>
-    <row r="180" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="8:27" s="1" customFormat="1">
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -10532,7 +10522,7 @@
       <c r="Y180" s="9"/>
       <c r="AA180" s="9"/>
     </row>
-    <row r="181" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="8:27" s="1" customFormat="1">
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -10543,7 +10533,7 @@
       <c r="Y181" s="9"/>
       <c r="AA181" s="9"/>
     </row>
-    <row r="182" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="8:27" s="1" customFormat="1">
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -10554,7 +10544,7 @@
       <c r="Y182" s="9"/>
       <c r="AA182" s="9"/>
     </row>
-    <row r="183" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="8:27" s="1" customFormat="1">
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
@@ -10565,7 +10555,7 @@
       <c r="Y183" s="9"/>
       <c r="AA183" s="9"/>
     </row>
-    <row r="184" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="8:27" s="1" customFormat="1">
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -10576,7 +10566,7 @@
       <c r="Y184" s="9"/>
       <c r="AA184" s="9"/>
     </row>
-    <row r="185" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="8:27" s="1" customFormat="1">
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -10587,7 +10577,7 @@
       <c r="Y185" s="9"/>
       <c r="AA185" s="9"/>
     </row>
-    <row r="186" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="8:27" s="1" customFormat="1">
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
@@ -10598,7 +10588,7 @@
       <c r="Y186" s="9"/>
       <c r="AA186" s="9"/>
     </row>
-    <row r="187" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="8:27" s="1" customFormat="1">
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
@@ -10609,7 +10599,7 @@
       <c r="Y187" s="9"/>
       <c r="AA187" s="9"/>
     </row>
-    <row r="188" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="8:27" s="1" customFormat="1">
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -10620,7 +10610,7 @@
       <c r="Y188" s="9"/>
       <c r="AA188" s="9"/>
     </row>
-    <row r="189" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="8:27" s="1" customFormat="1">
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -10631,7 +10621,7 @@
       <c r="Y189" s="9"/>
       <c r="AA189" s="9"/>
     </row>
-    <row r="190" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="8:27" s="1" customFormat="1">
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -10642,7 +10632,7 @@
       <c r="Y190" s="9"/>
       <c r="AA190" s="9"/>
     </row>
-    <row r="191" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="8:27" s="1" customFormat="1">
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
@@ -10653,7 +10643,7 @@
       <c r="Y191" s="9"/>
       <c r="AA191" s="9"/>
     </row>
-    <row r="192" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="8:27" s="1" customFormat="1">
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
@@ -10664,7 +10654,7 @@
       <c r="Y192" s="9"/>
       <c r="AA192" s="9"/>
     </row>
-    <row r="193" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="8:27" s="1" customFormat="1">
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
@@ -10675,7 +10665,7 @@
       <c r="Y193" s="9"/>
       <c r="AA193" s="9"/>
     </row>
-    <row r="194" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="8:27" s="1" customFormat="1">
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -10686,7 +10676,7 @@
       <c r="Y194" s="9"/>
       <c r="AA194" s="9"/>
     </row>
-    <row r="195" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="8:27" s="1" customFormat="1">
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -10697,7 +10687,7 @@
       <c r="Y195" s="9"/>
       <c r="AA195" s="9"/>
     </row>
-    <row r="196" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="8:27" s="1" customFormat="1">
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -10708,7 +10698,7 @@
       <c r="Y196" s="9"/>
       <c r="AA196" s="9"/>
     </row>
-    <row r="197" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="8:27" s="1" customFormat="1">
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
@@ -10719,7 +10709,7 @@
       <c r="Y197" s="9"/>
       <c r="AA197" s="9"/>
     </row>
-    <row r="198" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="8:27" s="1" customFormat="1">
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
@@ -10730,7 +10720,7 @@
       <c r="Y198" s="9"/>
       <c r="AA198" s="9"/>
     </row>
-    <row r="199" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="8:27" s="1" customFormat="1">
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
@@ -10741,7 +10731,7 @@
       <c r="Y199" s="9"/>
       <c r="AA199" s="9"/>
     </row>
-    <row r="200" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="8:27" s="1" customFormat="1">
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -10752,7 +10742,7 @@
       <c r="Y200" s="9"/>
       <c r="AA200" s="9"/>
     </row>
-    <row r="201" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="8:27" s="1" customFormat="1">
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
@@ -10763,7 +10753,7 @@
       <c r="Y201" s="9"/>
       <c r="AA201" s="9"/>
     </row>
-    <row r="202" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="8:27" s="1" customFormat="1">
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
@@ -10774,7 +10764,7 @@
       <c r="Y202" s="9"/>
       <c r="AA202" s="9"/>
     </row>
-    <row r="203" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="8:27" s="1" customFormat="1">
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
@@ -10785,7 +10775,7 @@
       <c r="Y203" s="9"/>
       <c r="AA203" s="9"/>
     </row>
-    <row r="204" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="8:27" s="1" customFormat="1">
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
@@ -10796,7 +10786,7 @@
       <c r="Y204" s="9"/>
       <c r="AA204" s="9"/>
     </row>
-    <row r="205" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="8:27" s="1" customFormat="1">
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
@@ -10807,7 +10797,7 @@
       <c r="Y205" s="9"/>
       <c r="AA205" s="9"/>
     </row>
-    <row r="206" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="8:27" s="1" customFormat="1">
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
@@ -10818,7 +10808,7 @@
       <c r="Y206" s="9"/>
       <c r="AA206" s="9"/>
     </row>
-    <row r="207" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="8:27" s="1" customFormat="1">
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
@@ -10829,7 +10819,7 @@
       <c r="Y207" s="9"/>
       <c r="AA207" s="9"/>
     </row>
-    <row r="208" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="8:27" s="1" customFormat="1">
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
@@ -10840,7 +10830,7 @@
       <c r="Y208" s="9"/>
       <c r="AA208" s="9"/>
     </row>
-    <row r="209" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="8:27" s="1" customFormat="1">
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
@@ -10851,7 +10841,7 @@
       <c r="Y209" s="9"/>
       <c r="AA209" s="9"/>
     </row>
-    <row r="210" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="8:27" s="1" customFormat="1">
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
@@ -10862,7 +10852,7 @@
       <c r="Y210" s="9"/>
       <c r="AA210" s="9"/>
     </row>
-    <row r="211" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="8:27" s="1" customFormat="1">
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
@@ -10873,7 +10863,7 @@
       <c r="Y211" s="9"/>
       <c r="AA211" s="9"/>
     </row>
-    <row r="212" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="8:27" s="1" customFormat="1">
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
@@ -10884,7 +10874,7 @@
       <c r="Y212" s="9"/>
       <c r="AA212" s="9"/>
     </row>
-    <row r="213" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="8:27" s="1" customFormat="1">
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
@@ -10895,7 +10885,7 @@
       <c r="Y213" s="9"/>
       <c r="AA213" s="9"/>
     </row>
-    <row r="214" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="8:27" s="1" customFormat="1">
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
@@ -10906,7 +10896,7 @@
       <c r="Y214" s="9"/>
       <c r="AA214" s="9"/>
     </row>
-    <row r="215" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="8:27" s="1" customFormat="1">
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
@@ -10917,7 +10907,7 @@
       <c r="Y215" s="9"/>
       <c r="AA215" s="9"/>
     </row>
-    <row r="216" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="8:27" s="1" customFormat="1">
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
@@ -10928,7 +10918,7 @@
       <c r="Y216" s="9"/>
       <c r="AA216" s="9"/>
     </row>
-    <row r="217" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="8:27" s="1" customFormat="1">
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
@@ -10939,7 +10929,7 @@
       <c r="Y217" s="9"/>
       <c r="AA217" s="9"/>
     </row>
-    <row r="218" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="8:27" s="1" customFormat="1">
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
@@ -10950,7 +10940,7 @@
       <c r="Y218" s="9"/>
       <c r="AA218" s="9"/>
     </row>
-    <row r="219" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="8:27" s="1" customFormat="1">
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
@@ -10961,7 +10951,7 @@
       <c r="Y219" s="9"/>
       <c r="AA219" s="9"/>
     </row>
-    <row r="220" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="8:27" s="1" customFormat="1">
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
@@ -10972,7 +10962,7 @@
       <c r="Y220" s="9"/>
       <c r="AA220" s="9"/>
     </row>
-    <row r="221" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="8:27" s="1" customFormat="1">
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
@@ -10983,7 +10973,7 @@
       <c r="Y221" s="9"/>
       <c r="AA221" s="9"/>
     </row>
-    <row r="222" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="8:27" s="1" customFormat="1">
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
@@ -10994,7 +10984,7 @@
       <c r="Y222" s="9"/>
       <c r="AA222" s="9"/>
     </row>
-    <row r="223" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="8:27" s="1" customFormat="1">
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
@@ -11005,7 +10995,7 @@
       <c r="Y223" s="9"/>
       <c r="AA223" s="9"/>
     </row>
-    <row r="224" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="8:27" s="1" customFormat="1">
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
@@ -11016,7 +11006,7 @@
       <c r="Y224" s="9"/>
       <c r="AA224" s="9"/>
     </row>
-    <row r="225" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="8:27" s="1" customFormat="1">
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
@@ -11027,7 +11017,7 @@
       <c r="Y225" s="9"/>
       <c r="AA225" s="9"/>
     </row>
-    <row r="226" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="8:27" s="1" customFormat="1">
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
@@ -11038,7 +11028,7 @@
       <c r="Y226" s="9"/>
       <c r="AA226" s="9"/>
     </row>
-    <row r="227" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="8:27" s="1" customFormat="1">
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
@@ -11049,7 +11039,7 @@
       <c r="Y227" s="9"/>
       <c r="AA227" s="9"/>
     </row>
-    <row r="228" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="8:27" s="1" customFormat="1">
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
@@ -11060,7 +11050,7 @@
       <c r="Y228" s="9"/>
       <c r="AA228" s="9"/>
     </row>
-    <row r="229" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="8:27" s="1" customFormat="1">
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
@@ -11071,7 +11061,7 @@
       <c r="Y229" s="9"/>
       <c r="AA229" s="9"/>
     </row>
-    <row r="230" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="8:27" s="1" customFormat="1">
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
@@ -11082,7 +11072,7 @@
       <c r="Y230" s="9"/>
       <c r="AA230" s="9"/>
     </row>
-    <row r="231" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="8:27" s="1" customFormat="1">
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
@@ -11093,7 +11083,7 @@
       <c r="Y231" s="9"/>
       <c r="AA231" s="9"/>
     </row>
-    <row r="232" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="8:27" s="1" customFormat="1">
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
@@ -11104,7 +11094,7 @@
       <c r="Y232" s="9"/>
       <c r="AA232" s="9"/>
     </row>
-    <row r="233" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="8:27" s="1" customFormat="1">
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
@@ -11115,7 +11105,7 @@
       <c r="Y233" s="9"/>
       <c r="AA233" s="9"/>
     </row>
-    <row r="234" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="8:27" s="1" customFormat="1">
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
@@ -11126,7 +11116,7 @@
       <c r="Y234" s="9"/>
       <c r="AA234" s="9"/>
     </row>
-    <row r="235" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="8:27" s="1" customFormat="1">
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
@@ -11137,7 +11127,7 @@
       <c r="Y235" s="9"/>
       <c r="AA235" s="9"/>
     </row>
-    <row r="236" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="8:27" s="1" customFormat="1">
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
@@ -11148,7 +11138,7 @@
       <c r="Y236" s="9"/>
       <c r="AA236" s="9"/>
     </row>
-    <row r="237" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="8:27" s="1" customFormat="1">
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
@@ -11159,7 +11149,7 @@
       <c r="Y237" s="9"/>
       <c r="AA237" s="9"/>
     </row>
-    <row r="238" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="8:27" s="1" customFormat="1">
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
@@ -11170,7 +11160,7 @@
       <c r="Y238" s="9"/>
       <c r="AA238" s="9"/>
     </row>
-    <row r="239" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="8:27" s="1" customFormat="1">
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
@@ -11181,7 +11171,7 @@
       <c r="Y239" s="9"/>
       <c r="AA239" s="9"/>
     </row>
-    <row r="240" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="8:27" s="1" customFormat="1">
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
@@ -11192,7 +11182,7 @@
       <c r="Y240" s="9"/>
       <c r="AA240" s="9"/>
     </row>
-    <row r="241" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="8:27" s="1" customFormat="1">
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
@@ -11203,7 +11193,7 @@
       <c r="Y241" s="9"/>
       <c r="AA241" s="9"/>
     </row>
-    <row r="242" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="8:27" s="1" customFormat="1">
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
@@ -11214,7 +11204,7 @@
       <c r="Y242" s="9"/>
       <c r="AA242" s="9"/>
     </row>
-    <row r="243" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="8:27" s="1" customFormat="1">
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
@@ -11225,7 +11215,7 @@
       <c r="Y243" s="9"/>
       <c r="AA243" s="9"/>
     </row>
-    <row r="244" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="8:27" s="1" customFormat="1">
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
@@ -11236,7 +11226,7 @@
       <c r="Y244" s="9"/>
       <c r="AA244" s="9"/>
     </row>
-    <row r="245" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="8:27" s="1" customFormat="1">
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
@@ -11247,7 +11237,7 @@
       <c r="Y245" s="9"/>
       <c r="AA245" s="9"/>
     </row>
-    <row r="246" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="8:27" s="1" customFormat="1">
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
@@ -11258,7 +11248,7 @@
       <c r="Y246" s="9"/>
       <c r="AA246" s="9"/>
     </row>
-    <row r="247" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="8:27" s="1" customFormat="1">
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
@@ -11269,7 +11259,7 @@
       <c r="Y247" s="9"/>
       <c r="AA247" s="9"/>
     </row>
-    <row r="248" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="8:27" s="1" customFormat="1">
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
@@ -11280,7 +11270,7 @@
       <c r="Y248" s="9"/>
       <c r="AA248" s="9"/>
     </row>
-    <row r="249" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="8:27" s="1" customFormat="1">
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
@@ -11291,7 +11281,7 @@
       <c r="Y249" s="9"/>
       <c r="AA249" s="9"/>
     </row>
-    <row r="250" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="8:27" s="1" customFormat="1">
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
@@ -11302,7 +11292,7 @@
       <c r="Y250" s="9"/>
       <c r="AA250" s="9"/>
     </row>
-    <row r="251" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="8:27" s="1" customFormat="1">
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
@@ -11313,7 +11303,7 @@
       <c r="Y251" s="9"/>
       <c r="AA251" s="9"/>
     </row>
-    <row r="252" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="8:27" s="1" customFormat="1">
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
@@ -11324,7 +11314,7 @@
       <c r="Y252" s="9"/>
       <c r="AA252" s="9"/>
     </row>
-    <row r="253" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="8:27" s="1" customFormat="1">
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
@@ -11335,7 +11325,7 @@
       <c r="Y253" s="9"/>
       <c r="AA253" s="9"/>
     </row>
-    <row r="254" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="8:27" s="1" customFormat="1">
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
@@ -11346,7 +11336,7 @@
       <c r="Y254" s="9"/>
       <c r="AA254" s="9"/>
     </row>
-    <row r="255" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="8:27" s="1" customFormat="1">
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
@@ -11357,7 +11347,7 @@
       <c r="Y255" s="9"/>
       <c r="AA255" s="9"/>
     </row>
-    <row r="256" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="8:27" s="1" customFormat="1">
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
@@ -11368,7 +11358,7 @@
       <c r="Y256" s="9"/>
       <c r="AA256" s="9"/>
     </row>
-    <row r="257" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="8:27" s="1" customFormat="1">
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
@@ -11379,7 +11369,7 @@
       <c r="Y257" s="9"/>
       <c r="AA257" s="9"/>
     </row>
-    <row r="258" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="8:27" s="1" customFormat="1">
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
@@ -11390,7 +11380,7 @@
       <c r="Y258" s="9"/>
       <c r="AA258" s="9"/>
     </row>
-    <row r="259" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="8:27" s="1" customFormat="1">
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -11401,7 +11391,7 @@
       <c r="Y259" s="9"/>
       <c r="AA259" s="9"/>
     </row>
-    <row r="260" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="8:27" s="1" customFormat="1">
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
@@ -11412,7 +11402,7 @@
       <c r="Y260" s="9"/>
       <c r="AA260" s="9"/>
     </row>
-    <row r="261" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="8:27" s="1" customFormat="1">
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
@@ -11423,7 +11413,7 @@
       <c r="Y261" s="9"/>
       <c r="AA261" s="9"/>
     </row>
-    <row r="262" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="8:27" s="1" customFormat="1">
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
@@ -11434,7 +11424,7 @@
       <c r="Y262" s="9"/>
       <c r="AA262" s="9"/>
     </row>
-    <row r="263" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="8:27" s="1" customFormat="1">
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
@@ -11445,7 +11435,7 @@
       <c r="Y263" s="9"/>
       <c r="AA263" s="9"/>
     </row>
-    <row r="264" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="8:27" s="1" customFormat="1">
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
@@ -11456,7 +11446,7 @@
       <c r="Y264" s="9"/>
       <c r="AA264" s="9"/>
     </row>
-    <row r="265" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="8:27" s="1" customFormat="1">
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
@@ -11467,7 +11457,7 @@
       <c r="Y265" s="9"/>
       <c r="AA265" s="9"/>
     </row>
-    <row r="266" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="8:27" s="1" customFormat="1">
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
@@ -11478,7 +11468,7 @@
       <c r="Y266" s="9"/>
       <c r="AA266" s="9"/>
     </row>
-    <row r="267" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="8:27" s="1" customFormat="1">
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
@@ -11489,7 +11479,7 @@
       <c r="Y267" s="9"/>
       <c r="AA267" s="9"/>
     </row>
-    <row r="268" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="8:27" s="1" customFormat="1">
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
@@ -11500,7 +11490,7 @@
       <c r="Y268" s="9"/>
       <c r="AA268" s="9"/>
     </row>
-    <row r="269" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="8:27" s="1" customFormat="1">
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
@@ -11511,7 +11501,7 @@
       <c r="Y269" s="9"/>
       <c r="AA269" s="9"/>
     </row>
-    <row r="270" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="8:27" s="1" customFormat="1">
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
@@ -11522,7 +11512,7 @@
       <c r="Y270" s="9"/>
       <c r="AA270" s="9"/>
     </row>
-    <row r="271" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="8:27" s="1" customFormat="1">
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
@@ -11533,7 +11523,7 @@
       <c r="Y271" s="9"/>
       <c r="AA271" s="9"/>
     </row>
-    <row r="272" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="8:27" s="1" customFormat="1">
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
@@ -11544,7 +11534,7 @@
       <c r="Y272" s="9"/>
       <c r="AA272" s="9"/>
     </row>
-    <row r="273" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="8:27" s="1" customFormat="1">
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
@@ -11555,7 +11545,7 @@
       <c r="Y273" s="9"/>
       <c r="AA273" s="9"/>
     </row>
-    <row r="274" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="8:27" s="1" customFormat="1">
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
@@ -11566,7 +11556,7 @@
       <c r="Y274" s="9"/>
       <c r="AA274" s="9"/>
     </row>
-    <row r="275" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="8:27" s="1" customFormat="1">
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
@@ -11577,7 +11567,7 @@
       <c r="Y275" s="9"/>
       <c r="AA275" s="9"/>
     </row>
-    <row r="276" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="8:27" s="1" customFormat="1">
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
@@ -11588,7 +11578,7 @@
       <c r="Y276" s="9"/>
       <c r="AA276" s="9"/>
     </row>
-    <row r="277" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="8:27" s="1" customFormat="1">
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
@@ -11599,7 +11589,7 @@
       <c r="Y277" s="9"/>
       <c r="AA277" s="9"/>
     </row>
-    <row r="278" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="8:27" s="1" customFormat="1">
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
@@ -11610,7 +11600,7 @@
       <c r="Y278" s="9"/>
       <c r="AA278" s="9"/>
     </row>
-    <row r="279" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="8:27" s="1" customFormat="1">
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
@@ -11621,7 +11611,7 @@
       <c r="Y279" s="9"/>
       <c r="AA279" s="9"/>
     </row>
-    <row r="280" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="8:27" s="1" customFormat="1">
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
@@ -11632,7 +11622,7 @@
       <c r="Y280" s="9"/>
       <c r="AA280" s="9"/>
     </row>
-    <row r="281" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="8:27" s="1" customFormat="1">
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
@@ -11643,7 +11633,7 @@
       <c r="Y281" s="9"/>
       <c r="AA281" s="9"/>
     </row>
-    <row r="282" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="8:27" s="1" customFormat="1">
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
@@ -11654,7 +11644,7 @@
       <c r="Y282" s="9"/>
       <c r="AA282" s="9"/>
     </row>
-    <row r="283" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="8:27" s="1" customFormat="1">
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
@@ -11665,7 +11655,7 @@
       <c r="Y283" s="9"/>
       <c r="AA283" s="9"/>
     </row>
-    <row r="284" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="8:27" s="1" customFormat="1">
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
@@ -11676,7 +11666,7 @@
       <c r="Y284" s="9"/>
       <c r="AA284" s="9"/>
     </row>
-    <row r="285" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="8:27" s="1" customFormat="1">
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
@@ -11687,7 +11677,7 @@
       <c r="Y285" s="9"/>
       <c r="AA285" s="9"/>
     </row>
-    <row r="286" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="8:27" s="1" customFormat="1">
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
@@ -11698,7 +11688,7 @@
       <c r="Y286" s="9"/>
       <c r="AA286" s="9"/>
     </row>
-    <row r="287" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="8:27" s="1" customFormat="1">
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
@@ -11709,7 +11699,7 @@
       <c r="Y287" s="9"/>
       <c r="AA287" s="9"/>
     </row>
-    <row r="288" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="8:27" s="1" customFormat="1">
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
@@ -11720,7 +11710,7 @@
       <c r="Y288" s="9"/>
       <c r="AA288" s="9"/>
     </row>
-    <row r="289" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="8:27" s="1" customFormat="1">
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
@@ -11731,7 +11721,7 @@
       <c r="Y289" s="9"/>
       <c r="AA289" s="9"/>
     </row>
-    <row r="290" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="8:27" s="1" customFormat="1">
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
@@ -11742,7 +11732,7 @@
       <c r="Y290" s="9"/>
       <c r="AA290" s="9"/>
     </row>
-    <row r="291" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="8:27" s="1" customFormat="1">
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
@@ -11753,7 +11743,7 @@
       <c r="Y291" s="9"/>
       <c r="AA291" s="9"/>
     </row>
-    <row r="292" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="8:27" s="1" customFormat="1">
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
@@ -11764,7 +11754,7 @@
       <c r="Y292" s="9"/>
       <c r="AA292" s="9"/>
     </row>
-    <row r="293" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="8:27" s="1" customFormat="1">
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
@@ -11775,7 +11765,7 @@
       <c r="Y293" s="9"/>
       <c r="AA293" s="9"/>
     </row>
-    <row r="294" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="8:27" s="1" customFormat="1">
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
@@ -11786,7 +11776,7 @@
       <c r="Y294" s="9"/>
       <c r="AA294" s="9"/>
     </row>
-    <row r="295" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="8:27" s="1" customFormat="1">
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
@@ -11797,7 +11787,7 @@
       <c r="Y295" s="9"/>
       <c r="AA295" s="9"/>
     </row>
-    <row r="296" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="8:27" s="1" customFormat="1">
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
@@ -11808,7 +11798,7 @@
       <c r="Y296" s="9"/>
       <c r="AA296" s="9"/>
     </row>
-    <row r="297" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="8:27" s="1" customFormat="1">
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
@@ -11819,7 +11809,7 @@
       <c r="Y297" s="9"/>
       <c r="AA297" s="9"/>
     </row>
-    <row r="298" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="8:27" s="1" customFormat="1">
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
@@ -11830,7 +11820,7 @@
       <c r="Y298" s="9"/>
       <c r="AA298" s="9"/>
     </row>
-    <row r="299" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="8:27" s="1" customFormat="1">
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
@@ -11841,7 +11831,7 @@
       <c r="Y299" s="9"/>
       <c r="AA299" s="9"/>
     </row>
-    <row r="300" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="8:27" s="1" customFormat="1">
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
@@ -11852,7 +11842,7 @@
       <c r="Y300" s="9"/>
       <c r="AA300" s="9"/>
     </row>
-    <row r="301" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="8:27" s="1" customFormat="1">
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
@@ -11863,7 +11853,7 @@
       <c r="Y301" s="9"/>
       <c r="AA301" s="9"/>
     </row>
-    <row r="302" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="8:27" s="1" customFormat="1">
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
@@ -11874,7 +11864,7 @@
       <c r="Y302" s="9"/>
       <c r="AA302" s="9"/>
     </row>
-    <row r="303" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="8:27" s="1" customFormat="1">
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
@@ -11885,7 +11875,7 @@
       <c r="Y303" s="9"/>
       <c r="AA303" s="9"/>
     </row>
-    <row r="304" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="8:27" s="1" customFormat="1">
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
@@ -11896,7 +11886,7 @@
       <c r="Y304" s="9"/>
       <c r="AA304" s="9"/>
     </row>
-    <row r="305" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="8:27" s="1" customFormat="1">
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
@@ -11907,7 +11897,7 @@
       <c r="Y305" s="9"/>
       <c r="AA305" s="9"/>
     </row>
-    <row r="306" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="8:27" s="1" customFormat="1">
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
@@ -11918,7 +11908,7 @@
       <c r="Y306" s="9"/>
       <c r="AA306" s="9"/>
     </row>
-    <row r="307" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="8:27" s="1" customFormat="1">
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
@@ -11929,7 +11919,7 @@
       <c r="Y307" s="9"/>
       <c r="AA307" s="9"/>
     </row>
-    <row r="308" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="8:27" s="1" customFormat="1">
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
@@ -11940,7 +11930,7 @@
       <c r="Y308" s="9"/>
       <c r="AA308" s="9"/>
     </row>
-    <row r="309" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="8:27" s="1" customFormat="1">
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
@@ -11951,7 +11941,7 @@
       <c r="Y309" s="9"/>
       <c r="AA309" s="9"/>
     </row>
-    <row r="310" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="8:27" s="1" customFormat="1">
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
@@ -11962,7 +11952,7 @@
       <c r="Y310" s="9"/>
       <c r="AA310" s="9"/>
     </row>
-    <row r="311" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="8:27" s="1" customFormat="1">
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
@@ -11973,7 +11963,7 @@
       <c r="Y311" s="9"/>
       <c r="AA311" s="9"/>
     </row>
-    <row r="312" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="8:27" s="1" customFormat="1">
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
@@ -11984,7 +11974,7 @@
       <c r="Y312" s="9"/>
       <c r="AA312" s="9"/>
     </row>
-    <row r="313" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="8:27" s="1" customFormat="1">
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
@@ -11995,7 +11985,7 @@
       <c r="Y313" s="9"/>
       <c r="AA313" s="9"/>
     </row>
-    <row r="314" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="8:27" s="1" customFormat="1">
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
@@ -12006,7 +11996,7 @@
       <c r="Y314" s="9"/>
       <c r="AA314" s="9"/>
     </row>
-    <row r="315" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="8:27" s="1" customFormat="1">
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
@@ -12017,7 +12007,7 @@
       <c r="Y315" s="9"/>
       <c r="AA315" s="9"/>
     </row>
-    <row r="316" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="8:27" s="1" customFormat="1">
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
@@ -12028,7 +12018,7 @@
       <c r="Y316" s="9"/>
       <c r="AA316" s="9"/>
     </row>
-    <row r="317" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="8:27" s="1" customFormat="1">
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
@@ -12039,7 +12029,7 @@
       <c r="Y317" s="9"/>
       <c r="AA317" s="9"/>
     </row>
-    <row r="318" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="8:27" s="1" customFormat="1">
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
@@ -12050,7 +12040,7 @@
       <c r="Y318" s="9"/>
       <c r="AA318" s="9"/>
     </row>
-    <row r="319" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="8:27" s="1" customFormat="1">
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
@@ -12061,7 +12051,7 @@
       <c r="Y319" s="9"/>
       <c r="AA319" s="9"/>
     </row>
-    <row r="320" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="8:27" s="1" customFormat="1">
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
@@ -12072,7 +12062,7 @@
       <c r="Y320" s="9"/>
       <c r="AA320" s="9"/>
     </row>
-    <row r="321" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="8:27" s="1" customFormat="1">
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
@@ -12083,7 +12073,7 @@
       <c r="Y321" s="9"/>
       <c r="AA321" s="9"/>
     </row>
-    <row r="322" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="8:27" s="1" customFormat="1">
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
@@ -12094,7 +12084,7 @@
       <c r="Y322" s="9"/>
       <c r="AA322" s="9"/>
     </row>
-    <row r="323" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="8:27" s="1" customFormat="1">
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
@@ -12105,7 +12095,7 @@
       <c r="Y323" s="9"/>
       <c r="AA323" s="9"/>
     </row>
-    <row r="324" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="8:27" s="1" customFormat="1">
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
@@ -12116,7 +12106,7 @@
       <c r="Y324" s="9"/>
       <c r="AA324" s="9"/>
     </row>
-    <row r="325" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="8:27" s="1" customFormat="1">
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
@@ -12127,7 +12117,7 @@
       <c r="Y325" s="9"/>
       <c r="AA325" s="9"/>
     </row>
-    <row r="326" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="8:27" s="1" customFormat="1">
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
@@ -12138,7 +12128,7 @@
       <c r="Y326" s="9"/>
       <c r="AA326" s="9"/>
     </row>
-    <row r="327" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="8:27" s="1" customFormat="1">
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
@@ -12149,7 +12139,7 @@
       <c r="Y327" s="9"/>
       <c r="AA327" s="9"/>
     </row>
-    <row r="328" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="8:27" s="1" customFormat="1">
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
@@ -12160,7 +12150,7 @@
       <c r="Y328" s="9"/>
       <c r="AA328" s="9"/>
     </row>
-    <row r="329" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="8:27" s="1" customFormat="1">
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
@@ -12171,7 +12161,7 @@
       <c r="Y329" s="9"/>
       <c r="AA329" s="9"/>
     </row>
-    <row r="330" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="8:27" s="1" customFormat="1">
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
@@ -12182,7 +12172,7 @@
       <c r="Y330" s="9"/>
       <c r="AA330" s="9"/>
     </row>
-    <row r="331" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="8:27" s="1" customFormat="1">
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
@@ -12193,7 +12183,7 @@
       <c r="Y331" s="9"/>
       <c r="AA331" s="9"/>
     </row>
-    <row r="332" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="8:27" s="1" customFormat="1">
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
@@ -12204,7 +12194,7 @@
       <c r="Y332" s="9"/>
       <c r="AA332" s="9"/>
     </row>
-    <row r="333" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="8:27" s="1" customFormat="1">
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
@@ -12215,7 +12205,7 @@
       <c r="Y333" s="9"/>
       <c r="AA333" s="9"/>
     </row>
-    <row r="334" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="8:27" s="1" customFormat="1">
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
@@ -12226,7 +12216,7 @@
       <c r="Y334" s="9"/>
       <c r="AA334" s="9"/>
     </row>
-    <row r="335" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="8:27" s="1" customFormat="1">
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
@@ -12237,7 +12227,7 @@
       <c r="Y335" s="9"/>
       <c r="AA335" s="9"/>
     </row>
-    <row r="336" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="8:27" s="1" customFormat="1">
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
@@ -12248,7 +12238,7 @@
       <c r="Y336" s="9"/>
       <c r="AA336" s="9"/>
     </row>
-    <row r="337" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="8:27" s="1" customFormat="1">
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
@@ -12259,7 +12249,7 @@
       <c r="Y337" s="9"/>
       <c r="AA337" s="9"/>
     </row>
-    <row r="338" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="8:27" s="1" customFormat="1">
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
@@ -12270,7 +12260,7 @@
       <c r="Y338" s="9"/>
       <c r="AA338" s="9"/>
     </row>
-    <row r="339" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="8:27" s="1" customFormat="1">
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
@@ -12281,7 +12271,7 @@
       <c r="Y339" s="9"/>
       <c r="AA339" s="9"/>
     </row>
-    <row r="340" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="8:27" s="1" customFormat="1">
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
@@ -12292,7 +12282,7 @@
       <c r="Y340" s="9"/>
       <c r="AA340" s="9"/>
     </row>
-    <row r="341" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="8:27" s="1" customFormat="1">
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
@@ -12303,7 +12293,7 @@
       <c r="Y341" s="9"/>
       <c r="AA341" s="9"/>
     </row>
-    <row r="342" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="8:27" s="1" customFormat="1">
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
@@ -12314,7 +12304,7 @@
       <c r="Y342" s="9"/>
       <c r="AA342" s="9"/>
     </row>
-    <row r="343" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="8:27" s="1" customFormat="1">
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
@@ -12325,7 +12315,7 @@
       <c r="Y343" s="9"/>
       <c r="AA343" s="9"/>
     </row>
-    <row r="344" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="8:27" s="1" customFormat="1">
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
@@ -12336,7 +12326,7 @@
       <c r="Y344" s="9"/>
       <c r="AA344" s="9"/>
     </row>
-    <row r="345" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="8:27" s="1" customFormat="1">
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
@@ -12347,7 +12337,7 @@
       <c r="Y345" s="9"/>
       <c r="AA345" s="9"/>
     </row>
-    <row r="346" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="8:27" s="1" customFormat="1">
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
@@ -12358,7 +12348,7 @@
       <c r="Y346" s="9"/>
       <c r="AA346" s="9"/>
     </row>
-    <row r="347" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="8:27" s="1" customFormat="1">
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
@@ -12369,7 +12359,7 @@
       <c r="Y347" s="9"/>
       <c r="AA347" s="9"/>
     </row>
-    <row r="348" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="8:27" s="1" customFormat="1">
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
@@ -12380,7 +12370,7 @@
       <c r="Y348" s="9"/>
       <c r="AA348" s="9"/>
     </row>
-    <row r="349" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="8:27" s="1" customFormat="1">
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
@@ -12391,7 +12381,7 @@
       <c r="Y349" s="9"/>
       <c r="AA349" s="9"/>
     </row>
-    <row r="350" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="8:27" s="1" customFormat="1">
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
@@ -12402,7 +12392,7 @@
       <c r="Y350" s="9"/>
       <c r="AA350" s="9"/>
     </row>
-    <row r="351" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="8:27" s="1" customFormat="1">
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
@@ -12413,7 +12403,7 @@
       <c r="Y351" s="9"/>
       <c r="AA351" s="9"/>
     </row>
-    <row r="352" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="8:27" s="1" customFormat="1">
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
@@ -12424,7 +12414,7 @@
       <c r="Y352" s="9"/>
       <c r="AA352" s="9"/>
     </row>
-    <row r="353" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="8:27" s="1" customFormat="1">
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
@@ -12435,7 +12425,7 @@
       <c r="Y353" s="9"/>
       <c r="AA353" s="9"/>
     </row>
-    <row r="354" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="8:27" s="1" customFormat="1">
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
@@ -12446,7 +12436,7 @@
       <c r="Y354" s="9"/>
       <c r="AA354" s="9"/>
     </row>
-    <row r="355" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="8:27" s="1" customFormat="1">
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
@@ -12457,7 +12447,7 @@
       <c r="Y355" s="9"/>
       <c r="AA355" s="9"/>
     </row>
-    <row r="356" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="8:27" s="1" customFormat="1">
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
@@ -12468,7 +12458,7 @@
       <c r="Y356" s="9"/>
       <c r="AA356" s="9"/>
     </row>
-    <row r="357" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="8:27" s="1" customFormat="1">
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
@@ -12479,7 +12469,7 @@
       <c r="Y357" s="9"/>
       <c r="AA357" s="9"/>
     </row>
-    <row r="358" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="8:27" s="1" customFormat="1">
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
@@ -12490,7 +12480,7 @@
       <c r="Y358" s="9"/>
       <c r="AA358" s="9"/>
     </row>
-    <row r="359" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="8:27" s="1" customFormat="1">
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
@@ -12501,7 +12491,7 @@
       <c r="Y359" s="9"/>
       <c r="AA359" s="9"/>
     </row>
-    <row r="360" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="8:27" s="1" customFormat="1">
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
@@ -12512,7 +12502,7 @@
       <c r="Y360" s="9"/>
       <c r="AA360" s="9"/>
     </row>
-    <row r="361" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="8:27" s="1" customFormat="1">
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
@@ -12523,7 +12513,7 @@
       <c r="Y361" s="9"/>
       <c r="AA361" s="9"/>
     </row>
-    <row r="362" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="8:27" s="1" customFormat="1">
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
@@ -12534,7 +12524,7 @@
       <c r="Y362" s="9"/>
       <c r="AA362" s="9"/>
     </row>
-    <row r="363" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="8:27" s="1" customFormat="1">
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
@@ -12545,7 +12535,7 @@
       <c r="Y363" s="9"/>
       <c r="AA363" s="9"/>
     </row>
-    <row r="364" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="8:27" s="1" customFormat="1">
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
@@ -12556,7 +12546,7 @@
       <c r="Y364" s="9"/>
       <c r="AA364" s="9"/>
     </row>
-    <row r="365" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="8:27" s="1" customFormat="1">
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
@@ -12567,7 +12557,7 @@
       <c r="Y365" s="9"/>
       <c r="AA365" s="9"/>
     </row>
-    <row r="366" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="8:27" s="1" customFormat="1">
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
@@ -12578,7 +12568,7 @@
       <c r="Y366" s="9"/>
       <c r="AA366" s="9"/>
     </row>
-    <row r="367" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="8:27" s="1" customFormat="1">
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
@@ -12589,7 +12579,7 @@
       <c r="Y367" s="9"/>
       <c r="AA367" s="9"/>
     </row>
-    <row r="368" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="8:27" s="1" customFormat="1">
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
@@ -12600,7 +12590,7 @@
       <c r="Y368" s="9"/>
       <c r="AA368" s="9"/>
     </row>
-    <row r="369" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="8:27" s="1" customFormat="1">
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
@@ -12611,7 +12601,7 @@
       <c r="Y369" s="9"/>
       <c r="AA369" s="9"/>
     </row>
-    <row r="370" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="8:27" s="1" customFormat="1">
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
@@ -12622,7 +12612,7 @@
       <c r="Y370" s="9"/>
       <c r="AA370" s="9"/>
     </row>
-    <row r="371" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="8:27" s="1" customFormat="1">
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5"/>
@@ -12633,7 +12623,7 @@
       <c r="Y371" s="9"/>
       <c r="AA371" s="9"/>
     </row>
-    <row r="372" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="8:27" s="1" customFormat="1">
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5"/>
@@ -12644,7 +12634,7 @@
       <c r="Y372" s="9"/>
       <c r="AA372" s="9"/>
     </row>
-    <row r="373" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="8:27" s="1" customFormat="1">
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
@@ -12657,7 +12647,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AMJ373" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGE\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26AF91-0FA2-4AE2-B59B-D492D931ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8BADE-D191-4CE7-99C2-CAC6321AC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37284" yWindow="2352" windowWidth="23040" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -402,6 +400,9 @@
     <t>Monster_name_33</t>
   </si>
   <si>
+    <t>青年地精</t>
+  </si>
+  <si>
     <t>Monster_name_34</t>
   </si>
   <si>
@@ -453,6 +454,9 @@
     <t>Monster_name_42</t>
   </si>
   <si>
+    <t>三头犬</t>
+  </si>
+  <si>
     <t>Monster_name_43</t>
   </si>
   <si>
@@ -589,19 +593,13 @@
   </si>
   <si>
     <t>太阳神</t>
-  </si>
-  <si>
-    <t>女天使</t>
-  </si>
-  <si>
-    <t>外星人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -611,6 +609,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -618,29 +617,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -889,7 +899,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1298,39 +1308,39 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="4" customWidth="1"/>
     <col min="6" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="5" customWidth="1"/>
     <col min="9" max="10" width="7.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.59765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" customWidth="1"/>
-    <col min="15" max="15" width="9.69921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="4" customWidth="1"/>
     <col min="16" max="16" width="21" style="4" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="4" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="4" customWidth="1"/>
     <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.8984375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="4" customWidth="1"/>
     <col min="22" max="22" width="11" style="5"/>
-    <col min="23" max="23" width="15.59765625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="23.09765625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="23.125" style="4" customWidth="1"/>
     <col min="26" max="26" width="11" style="4"/>
     <col min="28" max="1024" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="26.25" customHeight="1">
+    <row r="1" spans="1:1024" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1430,7 @@
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:1024" ht="24.75" customHeight="1">
+    <row r="2" spans="1:1024" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1510,7 +1520,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" ht="95.25" customHeight="1">
+    <row r="3" spans="1:1024" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1610,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1624,7 @@
       <c r="Y4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="5" spans="1:1024" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1001</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>285139</v>
       </c>
       <c r="T5" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
@@ -1690,7 +1700,7 @@
       <c r="AD5" s="44"/>
       <c r="AG5" s="44"/>
     </row>
-    <row r="6" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="6" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1002</v>
       </c>
@@ -1749,7 +1759,7 @@
         <v>285139</v>
       </c>
       <c r="T6" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U6" s="1">
         <v>3</v>
@@ -1764,7 +1774,7 @@
       <c r="Y6" s="43"/>
       <c r="AA6" s="43"/>
     </row>
-    <row r="7" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="7" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1003</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>20291</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="1">
         <v>3</v>
@@ -1841,7 +1851,7 @@
       <c r="AD7" s="44"/>
       <c r="AG7" s="44"/>
     </row>
-    <row r="8" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="8" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1004</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>285395</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U8" s="1">
         <v>3</v>
@@ -1915,7 +1925,7 @@
       <c r="Y8" s="43"/>
       <c r="AA8" s="43"/>
     </row>
-    <row r="9" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="9" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1005</v>
       </c>
@@ -1974,7 +1984,7 @@
         <v>285139</v>
       </c>
       <c r="T9" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U9" s="1">
         <v>3</v>
@@ -1989,7 +1999,7 @@
       <c r="Y9" s="43"/>
       <c r="AA9" s="43"/>
     </row>
-    <row r="10" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="10" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1006</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>285139</v>
       </c>
       <c r="T10" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U10" s="1">
         <v>3</v>
@@ -2063,7 +2073,7 @@
       <c r="Y10" s="43"/>
       <c r="AA10" s="43"/>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>281693</v>
       </c>
       <c r="T11" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U11" s="1">
         <v>3</v>
@@ -2133,7 +2143,7 @@
       </c>
       <c r="X11" s="36"/>
     </row>
-    <row r="12" spans="1:1024" s="2" customFormat="1">
+    <row r="12" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>1008</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I12" s="37">
         <v>500</v>
@@ -2189,8 +2199,8 @@
       <c r="S12" s="17">
         <v>281693</v>
       </c>
-      <c r="T12" s="16">
-        <v>1.5</v>
+      <c r="T12" s="1">
+        <v>0.8</v>
       </c>
       <c r="U12" s="16">
         <v>3</v>
@@ -3201,7 +3211,7 @@
       <c r="AMI12" s="17"/>
       <c r="AMJ12" s="17"/>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -3257,7 +3267,7 @@
         <v>281693</v>
       </c>
       <c r="T13" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U13" s="1">
         <v>3</v>
@@ -3270,7 +3280,7 @@
       </c>
       <c r="X13" s="36"/>
     </row>
-    <row r="14" spans="1:1024" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:1024" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>1010</v>
       </c>
@@ -3329,7 +3339,7 @@
         <v>281693</v>
       </c>
       <c r="T14" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U14" s="1">
         <v>3</v>
@@ -4340,7 +4350,7 @@
       <c r="AMI14" s="24"/>
       <c r="AMJ14" s="24"/>
     </row>
-    <row r="15" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="15" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -4360,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I15" s="5">
         <v>700</v>
@@ -4396,7 +4406,7 @@
         <v>281693</v>
       </c>
       <c r="T15" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U15" s="1">
         <v>3</v>
@@ -4411,7 +4421,7 @@
       <c r="Y15" s="43"/>
       <c r="AA15" s="43"/>
     </row>
-    <row r="16" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="16" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>281693</v>
       </c>
       <c r="T16" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U16" s="1">
         <v>3</v>
@@ -4486,7 +4496,7 @@
       <c r="AD16" s="44"/>
       <c r="AG16" s="44"/>
     </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" ht="16.2">
+    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -4542,7 +4552,7 @@
         <v>281693</v>
       </c>
       <c r="T17" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U17" s="1">
         <v>3</v>
@@ -4557,7 +4567,7 @@
       <c r="Y17" s="43"/>
       <c r="AA17" s="43"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -4613,7 +4623,7 @@
         <v>281693</v>
       </c>
       <c r="T18" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U18" s="1">
         <v>3</v>
@@ -4628,7 +4638,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>281693</v>
       </c>
       <c r="T19" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U19" s="1">
         <v>3</v>
@@ -4697,7 +4707,7 @@
       </c>
       <c r="X19" s="36"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -4753,7 +4763,7 @@
         <v>281693</v>
       </c>
       <c r="T20" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U20" s="1">
         <v>3</v>
@@ -4766,7 +4776,7 @@
       </c>
       <c r="X20" s="36"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -4822,7 +4832,7 @@
         <v>281693</v>
       </c>
       <c r="T21" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U21" s="1">
         <v>3</v>
@@ -4835,7 +4845,7 @@
       </c>
       <c r="X21" s="36"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -4891,7 +4901,7 @@
         <v>281693</v>
       </c>
       <c r="T22" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U22" s="1">
         <v>3</v>
@@ -4904,7 +4914,7 @@
       </c>
       <c r="X22" s="36"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -4924,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="5">
-        <v>268725</v>
+        <v>268562</v>
       </c>
       <c r="I23" s="5">
         <v>2000</v>
@@ -4960,7 +4970,7 @@
         <v>281693</v>
       </c>
       <c r="T23" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U23" s="1">
         <v>3</v>
@@ -4975,7 +4985,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1">
+    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -5031,7 +5041,7 @@
         <v>281693</v>
       </c>
       <c r="T24" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U24" s="1">
         <v>3</v>
@@ -5046,7 +5056,7 @@
       <c r="Y24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" s="1" customFormat="1">
+    <row r="25" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -5102,7 +5112,7 @@
         <v>281693</v>
       </c>
       <c r="T25" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U25" s="1">
         <v>3</v>
@@ -5117,7 +5127,7 @@
       <c r="Y25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" s="1" customFormat="1">
+    <row r="26" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -5173,7 +5183,7 @@
         <v>281693</v>
       </c>
       <c r="T26" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U26" s="1">
         <v>3</v>
@@ -5188,7 +5198,7 @@
       <c r="Y26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" s="1" customFormat="1">
+    <row r="27" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>281693</v>
       </c>
       <c r="T27" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U27" s="1">
         <v>3</v>
@@ -5261,7 +5271,7 @@
       <c r="Y27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" s="1" customFormat="1">
+    <row r="28" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>281693</v>
       </c>
       <c r="T28" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U28" s="1">
         <v>3</v>
@@ -5332,7 +5342,7 @@
       <c r="Y28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" s="1" customFormat="1">
+    <row r="29" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -5352,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I29" s="5">
         <v>500</v>
@@ -5388,7 +5398,7 @@
         <v>281693</v>
       </c>
       <c r="T29" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U29" s="1">
         <v>3</v>
@@ -5403,7 +5413,7 @@
       <c r="Y29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" s="1" customFormat="1">
+    <row r="30" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I30" s="5">
         <v>2000</v>
@@ -5459,7 +5469,7 @@
         <v>281693</v>
       </c>
       <c r="T30" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U30" s="1">
         <v>3</v>
@@ -5474,7 +5484,7 @@
       <c r="Y30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" s="1" customFormat="1">
+    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I31" s="40">
         <v>300</v>
@@ -5530,7 +5540,7 @@
         <v>281693</v>
       </c>
       <c r="T31" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U31" s="1">
         <v>3</v>
@@ -5545,7 +5555,7 @@
       <c r="Y31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1">
+    <row r="32" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I32" s="40">
         <v>500</v>
@@ -5601,7 +5611,7 @@
         <v>281693</v>
       </c>
       <c r="T32" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U32" s="1">
         <v>3</v>
@@ -5616,7 +5626,7 @@
       <c r="Y32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:1024" s="1" customFormat="1">
+    <row r="33" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -5636,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I33" s="5">
         <v>1200</v>
@@ -5672,7 +5682,7 @@
         <v>281693</v>
       </c>
       <c r="T33" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U33" s="1">
         <v>3</v>
@@ -5687,7 +5697,7 @@
       <c r="Y33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:1024" s="1" customFormat="1">
+    <row r="34" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I34" s="5">
         <v>500</v>
@@ -5743,7 +5753,7 @@
         <v>281693</v>
       </c>
       <c r="T34" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -5758,7 +5768,7 @@
       <c r="Y34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:1024" s="1" customFormat="1">
+    <row r="35" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I35" s="5">
         <v>1200</v>
@@ -5814,7 +5824,7 @@
         <v>281693</v>
       </c>
       <c r="T35" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U35" s="1">
         <v>3</v>
@@ -5829,7 +5839,7 @@
       <c r="Y35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:1024" s="1" customFormat="1">
+    <row r="36" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -5849,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I36" s="5">
         <v>2000</v>
@@ -5885,7 +5895,7 @@
         <v>281693</v>
       </c>
       <c r="T36" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U36" s="1">
         <v>3</v>
@@ -5902,7 +5912,7 @@
       <c r="Y36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:1024" s="1" customFormat="1">
+    <row r="37" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -5922,7 +5932,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I37" s="5">
         <v>600</v>
@@ -5958,7 +5968,7 @@
         <v>281693</v>
       </c>
       <c r="T37" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U37" s="1">
         <v>3</v>
@@ -5973,7 +5983,7 @@
       <c r="Y37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:1024" s="1" customFormat="1">
+    <row r="38" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -5981,19 +5991,19 @@
         <v>120</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="E38" s="1">
         <v>6</v>
       </c>
       <c r="F38" s="12">
-        <v>142880</v>
+        <v>142300</v>
       </c>
       <c r="G38" s="12">
         <v>2</v>
       </c>
       <c r="H38" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I38" s="5">
         <v>700</v>
@@ -6029,7 +6039,7 @@
         <v>281693</v>
       </c>
       <c r="T38" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U38" s="1">
         <v>3</v>
@@ -6044,15 +6054,15 @@
       <c r="Y38" s="9"/>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:1024" s="1" customFormat="1">
+    <row r="39" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -6064,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I39" s="5">
         <v>400</v>
@@ -6100,7 +6110,7 @@
         <v>281693</v>
       </c>
       <c r="T39" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U39" s="1">
         <v>3</v>
@@ -6115,15 +6125,15 @@
       <c r="Y39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:1024" s="1" customFormat="1">
+    <row r="40" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -6135,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I40" s="5">
         <v>2000</v>
@@ -6171,7 +6181,7 @@
         <v>281693</v>
       </c>
       <c r="T40" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U40" s="1">
         <v>3</v>
@@ -6186,15 +6196,15 @@
       <c r="Y40" s="9"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:1024" s="1" customFormat="1">
+    <row r="41" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -6206,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I41" s="5">
         <v>1200</v>
@@ -6242,7 +6252,7 @@
         <v>281693</v>
       </c>
       <c r="T41" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U41" s="1">
         <v>3</v>
@@ -6257,15 +6267,15 @@
       <c r="Y41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:1024" s="1" customFormat="1">
+    <row r="42" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -6277,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I42" s="5">
         <v>700</v>
@@ -6313,7 +6323,7 @@
         <v>281693</v>
       </c>
       <c r="T42" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U42" s="1">
         <v>3</v>
@@ -6328,7 +6338,7 @@
       <c r="Y42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:1024" s="1" customFormat="1">
+    <row r="43" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -6336,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -6351,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I43" s="5">
         <v>500</v>
@@ -6387,7 +6397,7 @@
         <v>281693</v>
       </c>
       <c r="T43" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U43" s="1">
         <v>3</v>
@@ -6402,7 +6412,7 @@
       <c r="Y43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:1024">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -6410,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -6425,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I44" s="5">
         <v>500</v>
@@ -6461,7 +6471,7 @@
         <v>281693</v>
       </c>
       <c r="T44" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U44" s="1">
         <v>3</v>
@@ -7474,15 +7484,15 @@
       <c r="AMI44" s="1"/>
       <c r="AMJ44" s="1"/>
     </row>
-    <row r="45" spans="1:1024" s="1" customFormat="1">
+    <row r="45" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>1041</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
@@ -7494,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="32">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I45" s="5">
         <v>2000</v>
@@ -7530,7 +7540,7 @@
         <v>281693</v>
       </c>
       <c r="T45" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U45" s="1">
         <v>3</v>
@@ -7547,15 +7557,15 @@
       <c r="Y45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:1024" s="1" customFormat="1">
+    <row r="46" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>1042</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -7603,7 +7613,7 @@
         <v>281693</v>
       </c>
       <c r="T46" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U46" s="1">
         <v>3</v>
@@ -7617,27 +7627,27 @@
       <c r="Y46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:1024" s="1" customFormat="1">
+    <row r="47" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>1043</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="31">
-        <v>137837</v>
+        <v>174697</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>303165</v>
+        <v>150774</v>
       </c>
       <c r="I47" s="5">
         <v>500</v>
@@ -7673,7 +7683,7 @@
         <v>281693</v>
       </c>
       <c r="T47" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U47" s="1">
         <v>3</v>
@@ -7687,15 +7697,15 @@
       <c r="Y47" s="9"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:1024" s="1" customFormat="1">
+    <row r="48" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>1044</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -7743,7 +7753,7 @@
         <v>281693</v>
       </c>
       <c r="T48" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U48" s="1">
         <v>3</v>
@@ -7757,15 +7767,15 @@
       <c r="Y48" s="9"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" s="1" customFormat="1">
+    <row r="49" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -7777,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I49" s="5">
         <v>300</v>
@@ -7813,7 +7823,7 @@
         <v>281693</v>
       </c>
       <c r="T49" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U49" s="1">
         <v>3</v>
@@ -7827,15 +7837,15 @@
       <c r="Y49" s="9"/>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" s="1" customFormat="1">
+    <row r="50" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>1046</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -7847,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="5">
-        <v>268725</v>
+        <v>268562</v>
       </c>
       <c r="I50" s="5">
         <v>1200</v>
@@ -7883,7 +7893,7 @@
         <v>281693</v>
       </c>
       <c r="T50" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U50" s="1">
         <v>3</v>
@@ -7897,15 +7907,15 @@
       <c r="Y50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" s="1" customFormat="1">
+    <row r="51" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>1047</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -7917,7 +7927,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I51" s="5">
         <v>600</v>
@@ -7953,7 +7963,7 @@
         <v>281693</v>
       </c>
       <c r="T51" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U51" s="1">
         <v>3</v>
@@ -7967,15 +7977,15 @@
       <c r="Y51" s="9"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" s="1" customFormat="1">
+    <row r="52" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>1048</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -7987,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="5">
-        <v>268725</v>
+        <v>268562</v>
       </c>
       <c r="I52" s="5">
         <v>500</v>
@@ -8023,7 +8033,7 @@
         <v>281693</v>
       </c>
       <c r="T52" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U52" s="1">
         <v>3</v>
@@ -8037,15 +8047,15 @@
       <c r="Y52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" s="1" customFormat="1">
+    <row r="53" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -8093,7 +8103,7 @@
         <v>281693</v>
       </c>
       <c r="T53" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U53" s="1">
         <v>3</v>
@@ -8110,7 +8120,7 @@
       <c r="Y53" s="9"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" s="1" customFormat="1">
+    <row r="54" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1050</v>
       </c>
@@ -8118,10 +8128,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -8169,7 +8179,7 @@
         <v>281693</v>
       </c>
       <c r="T54" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U54" s="1">
         <v>3</v>
@@ -8183,15 +8193,15 @@
       <c r="Y54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" s="1" customFormat="1">
+    <row r="55" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>1051</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
@@ -8203,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I55" s="5">
         <v>500</v>
@@ -8239,7 +8249,7 @@
         <v>281693</v>
       </c>
       <c r="T55" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U55" s="1">
         <v>3</v>
@@ -8253,15 +8263,15 @@
       <c r="Y55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" s="1" customFormat="1">
+    <row r="56" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>1052</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -8309,7 +8319,7 @@
         <v>281693</v>
       </c>
       <c r="T56" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U56" s="1">
         <v>3</v>
@@ -8323,15 +8333,15 @@
       <c r="Y56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" s="1" customFormat="1">
+    <row r="57" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1053</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -8343,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="5">
-        <v>268725</v>
+        <v>268562</v>
       </c>
       <c r="I57" s="5">
         <v>300</v>
@@ -8379,7 +8389,7 @@
         <v>281693</v>
       </c>
       <c r="T57" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U57" s="1">
         <v>3</v>
@@ -8393,15 +8403,15 @@
       <c r="Y57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" s="1" customFormat="1">
+    <row r="58" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>1054</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1">
         <v>6</v>
@@ -8449,7 +8459,7 @@
         <v>281693</v>
       </c>
       <c r="T58" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U58" s="1">
         <v>3</v>
@@ -8463,15 +8473,15 @@
       <c r="Y58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" s="1" customFormat="1">
+    <row r="59" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>1055</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -8483,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I59" s="5">
         <v>500</v>
@@ -8519,7 +8529,7 @@
         <v>281693</v>
       </c>
       <c r="T59" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U59" s="1">
         <v>3</v>
@@ -8533,15 +8543,15 @@
       <c r="Y59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" s="1" customFormat="1">
+    <row r="60" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>1056</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -8589,7 +8599,7 @@
         <v>281693</v>
       </c>
       <c r="T60" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U60" s="1">
         <v>3</v>
@@ -8603,15 +8613,15 @@
       <c r="Y60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" s="1" customFormat="1">
+    <row r="61" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>1057</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -8623,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I61" s="5">
         <v>500</v>
@@ -8659,7 +8669,7 @@
         <v>281693</v>
       </c>
       <c r="T61" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U61" s="1">
         <v>3</v>
@@ -8673,15 +8683,15 @@
       <c r="Y61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" s="1" customFormat="1">
+    <row r="62" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1058</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
@@ -8708,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="5">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N62" s="1">
         <v>500</v>
@@ -8729,7 +8739,7 @@
         <v>285139</v>
       </c>
       <c r="T62" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U62" s="1">
         <v>3</v>
@@ -8743,15 +8753,15 @@
       <c r="Y62" s="9"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" s="1" customFormat="1">
+    <row r="63" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>1059</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -8799,7 +8809,7 @@
         <v>281693</v>
       </c>
       <c r="T63" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U63" s="1">
         <v>3</v>
@@ -8816,15 +8826,15 @@
       <c r="Y63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" s="1" customFormat="1">
+    <row r="64" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34">
         <v>1060</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
@@ -8836,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I64" s="5">
         <v>600</v>
@@ -8872,7 +8882,7 @@
         <v>281693</v>
       </c>
       <c r="T64" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U64" s="1">
         <v>3</v>
@@ -8886,15 +8896,15 @@
       <c r="Y64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" s="1" customFormat="1">
+    <row r="65" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1061</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
@@ -8906,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>303165</v>
+        <v>281015</v>
       </c>
       <c r="I65" s="5">
         <v>400</v>
@@ -8942,7 +8952,7 @@
         <v>281693</v>
       </c>
       <c r="T65" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U65" s="1">
         <v>3</v>
@@ -8956,15 +8966,15 @@
       <c r="Y65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" s="1" customFormat="1">
+    <row r="66" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>1062</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E66" s="46">
         <v>3</v>
@@ -9012,7 +9022,7 @@
         <v>281693</v>
       </c>
       <c r="T66" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U66" s="1">
         <v>3</v>
@@ -9029,15 +9039,15 @@
       <c r="Y66" s="9"/>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" s="1" customFormat="1">
+    <row r="67" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>1063</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E67" s="46">
         <v>4</v>
@@ -9085,7 +9095,7 @@
         <v>281693</v>
       </c>
       <c r="T67" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U67" s="1">
         <v>3</v>
@@ -9099,15 +9109,15 @@
       <c r="Y67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" s="1" customFormat="1">
+    <row r="68" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1064</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -9119,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>268725</v>
+        <v>268562</v>
       </c>
       <c r="I68" s="5">
         <v>700</v>
@@ -9155,7 +9165,7 @@
         <v>281693</v>
       </c>
       <c r="T68" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U68" s="1">
         <v>3</v>
@@ -9169,15 +9179,15 @@
       <c r="Y68" s="9"/>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" s="1" customFormat="1">
+    <row r="69" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1065</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
@@ -9189,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="5">
-        <v>268725</v>
+        <v>268562</v>
       </c>
       <c r="I69" s="5">
         <v>600</v>
@@ -9225,7 +9235,7 @@
         <v>281693</v>
       </c>
       <c r="T69" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U69" s="1">
         <v>3</v>
@@ -9239,7 +9249,7 @@
       <c r="Y69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" s="1" customFormat="1">
+    <row r="70" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1066</v>
       </c>
@@ -9247,10 +9257,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -9298,7 +9308,7 @@
         <v>281693</v>
       </c>
       <c r="T70" s="1">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="U70" s="1">
         <v>3</v>
@@ -9312,7 +9322,7 @@
       <c r="Y70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" s="1" customFormat="1">
+    <row r="71" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -9323,7 +9333,7 @@
       <c r="Y71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" s="1" customFormat="1">
+    <row r="72" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -9334,7 +9344,7 @@
       <c r="Y72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" s="1" customFormat="1">
+    <row r="73" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -9345,7 +9355,7 @@
       <c r="Y73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" s="1" customFormat="1">
+    <row r="74" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -9356,7 +9366,7 @@
       <c r="Y74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" s="1" customFormat="1">
+    <row r="75" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -9367,7 +9377,7 @@
       <c r="Y75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" s="1" customFormat="1">
+    <row r="76" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -9378,7 +9388,7 @@
       <c r="Y76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1">
+    <row r="77" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -9389,7 +9399,7 @@
       <c r="Y77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" s="1" customFormat="1">
+    <row r="78" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -9400,7 +9410,7 @@
       <c r="Y78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" s="1" customFormat="1">
+    <row r="79" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -9411,7 +9421,7 @@
       <c r="Y79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" s="1" customFormat="1">
+    <row r="80" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -9422,7 +9432,7 @@
       <c r="Y80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="8:27" s="1" customFormat="1">
+    <row r="81" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -9433,7 +9443,7 @@
       <c r="Y81" s="9"/>
       <c r="AA81" s="9"/>
     </row>
-    <row r="82" spans="8:27" s="1" customFormat="1">
+    <row r="82" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -9444,7 +9454,7 @@
       <c r="Y82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="8:27" s="1" customFormat="1">
+    <row r="83" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -9455,7 +9465,7 @@
       <c r="Y83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="8:27" s="1" customFormat="1">
+    <row r="84" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -9466,7 +9476,7 @@
       <c r="Y84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="8:27" s="1" customFormat="1">
+    <row r="85" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -9477,7 +9487,7 @@
       <c r="Y85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="8:27" s="1" customFormat="1">
+    <row r="86" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -9488,7 +9498,7 @@
       <c r="Y86" s="9"/>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="8:27" s="1" customFormat="1">
+    <row r="87" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -9499,7 +9509,7 @@
       <c r="Y87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" spans="8:27" s="1" customFormat="1">
+    <row r="88" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -9510,7 +9520,7 @@
       <c r="Y88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" spans="8:27" s="1" customFormat="1">
+    <row r="89" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -9521,7 +9531,7 @@
       <c r="Y89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="8:27" s="1" customFormat="1">
+    <row r="90" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -9532,7 +9542,7 @@
       <c r="Y90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
-    <row r="91" spans="8:27" s="1" customFormat="1">
+    <row r="91" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -9543,7 +9553,7 @@
       <c r="Y91" s="9"/>
       <c r="AA91" s="9"/>
     </row>
-    <row r="92" spans="8:27" s="1" customFormat="1">
+    <row r="92" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -9554,7 +9564,7 @@
       <c r="Y92" s="9"/>
       <c r="AA92" s="9"/>
     </row>
-    <row r="93" spans="8:27" s="1" customFormat="1">
+    <row r="93" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -9565,7 +9575,7 @@
       <c r="Y93" s="9"/>
       <c r="AA93" s="9"/>
     </row>
-    <row r="94" spans="8:27" s="1" customFormat="1">
+    <row r="94" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -9576,7 +9586,7 @@
       <c r="Y94" s="9"/>
       <c r="AA94" s="9"/>
     </row>
-    <row r="95" spans="8:27" s="1" customFormat="1">
+    <row r="95" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -9587,7 +9597,7 @@
       <c r="Y95" s="9"/>
       <c r="AA95" s="9"/>
     </row>
-    <row r="96" spans="8:27" s="1" customFormat="1">
+    <row r="96" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -9598,7 +9608,7 @@
       <c r="Y96" s="9"/>
       <c r="AA96" s="9"/>
     </row>
-    <row r="97" spans="8:27" s="1" customFormat="1">
+    <row r="97" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -9609,7 +9619,7 @@
       <c r="Y97" s="9"/>
       <c r="AA97" s="9"/>
     </row>
-    <row r="98" spans="8:27" s="1" customFormat="1">
+    <row r="98" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -9620,7 +9630,7 @@
       <c r="Y98" s="9"/>
       <c r="AA98" s="9"/>
     </row>
-    <row r="99" spans="8:27" s="1" customFormat="1">
+    <row r="99" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -9631,7 +9641,7 @@
       <c r="Y99" s="9"/>
       <c r="AA99" s="9"/>
     </row>
-    <row r="100" spans="8:27" s="1" customFormat="1">
+    <row r="100" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -9642,7 +9652,7 @@
       <c r="Y100" s="9"/>
       <c r="AA100" s="9"/>
     </row>
-    <row r="101" spans="8:27" s="1" customFormat="1">
+    <row r="101" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -9653,7 +9663,7 @@
       <c r="Y101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="8:27" s="1" customFormat="1">
+    <row r="102" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -9664,7 +9674,7 @@
       <c r="Y102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="8:27" s="1" customFormat="1">
+    <row r="103" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -9675,7 +9685,7 @@
       <c r="Y103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="8:27" s="1" customFormat="1">
+    <row r="104" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -9686,7 +9696,7 @@
       <c r="Y104" s="9"/>
       <c r="AA104" s="9"/>
     </row>
-    <row r="105" spans="8:27" s="1" customFormat="1">
+    <row r="105" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -9697,7 +9707,7 @@
       <c r="Y105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="8:27" s="1" customFormat="1">
+    <row r="106" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -9708,7 +9718,7 @@
       <c r="Y106" s="9"/>
       <c r="AA106" s="9"/>
     </row>
-    <row r="107" spans="8:27" s="1" customFormat="1">
+    <row r="107" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -9719,7 +9729,7 @@
       <c r="Y107" s="9"/>
       <c r="AA107" s="9"/>
     </row>
-    <row r="108" spans="8:27" s="1" customFormat="1">
+    <row r="108" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -9730,7 +9740,7 @@
       <c r="Y108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="8:27" s="1" customFormat="1">
+    <row r="109" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -9741,7 +9751,7 @@
       <c r="Y109" s="9"/>
       <c r="AA109" s="9"/>
     </row>
-    <row r="110" spans="8:27" s="1" customFormat="1">
+    <row r="110" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
@@ -9752,7 +9762,7 @@
       <c r="Y110" s="9"/>
       <c r="AA110" s="9"/>
     </row>
-    <row r="111" spans="8:27" s="1" customFormat="1">
+    <row r="111" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -9763,7 +9773,7 @@
       <c r="Y111" s="9"/>
       <c r="AA111" s="9"/>
     </row>
-    <row r="112" spans="8:27" s="1" customFormat="1">
+    <row r="112" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -9774,7 +9784,7 @@
       <c r="Y112" s="9"/>
       <c r="AA112" s="9"/>
     </row>
-    <row r="113" spans="8:27" s="1" customFormat="1">
+    <row r="113" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
@@ -9785,7 +9795,7 @@
       <c r="Y113" s="9"/>
       <c r="AA113" s="9"/>
     </row>
-    <row r="114" spans="8:27" s="1" customFormat="1">
+    <row r="114" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -9796,7 +9806,7 @@
       <c r="Y114" s="9"/>
       <c r="AA114" s="9"/>
     </row>
-    <row r="115" spans="8:27" s="1" customFormat="1">
+    <row r="115" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -9807,7 +9817,7 @@
       <c r="Y115" s="9"/>
       <c r="AA115" s="9"/>
     </row>
-    <row r="116" spans="8:27" s="1" customFormat="1">
+    <row r="116" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -9818,7 +9828,7 @@
       <c r="Y116" s="9"/>
       <c r="AA116" s="9"/>
     </row>
-    <row r="117" spans="8:27" s="1" customFormat="1">
+    <row r="117" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -9829,7 +9839,7 @@
       <c r="Y117" s="9"/>
       <c r="AA117" s="9"/>
     </row>
-    <row r="118" spans="8:27" s="1" customFormat="1">
+    <row r="118" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -9840,7 +9850,7 @@
       <c r="Y118" s="9"/>
       <c r="AA118" s="9"/>
     </row>
-    <row r="119" spans="8:27" s="1" customFormat="1">
+    <row r="119" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -9851,7 +9861,7 @@
       <c r="Y119" s="9"/>
       <c r="AA119" s="9"/>
     </row>
-    <row r="120" spans="8:27" s="1" customFormat="1">
+    <row r="120" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
@@ -9862,7 +9872,7 @@
       <c r="Y120" s="9"/>
       <c r="AA120" s="9"/>
     </row>
-    <row r="121" spans="8:27" s="1" customFormat="1">
+    <row r="121" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -9873,7 +9883,7 @@
       <c r="Y121" s="9"/>
       <c r="AA121" s="9"/>
     </row>
-    <row r="122" spans="8:27" s="1" customFormat="1">
+    <row r="122" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -9884,7 +9894,7 @@
       <c r="Y122" s="9"/>
       <c r="AA122" s="9"/>
     </row>
-    <row r="123" spans="8:27" s="1" customFormat="1">
+    <row r="123" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -9895,7 +9905,7 @@
       <c r="Y123" s="9"/>
       <c r="AA123" s="9"/>
     </row>
-    <row r="124" spans="8:27" s="1" customFormat="1">
+    <row r="124" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
@@ -9906,7 +9916,7 @@
       <c r="Y124" s="9"/>
       <c r="AA124" s="9"/>
     </row>
-    <row r="125" spans="8:27" s="1" customFormat="1">
+    <row r="125" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -9917,7 +9927,7 @@
       <c r="Y125" s="9"/>
       <c r="AA125" s="9"/>
     </row>
-    <row r="126" spans="8:27" s="1" customFormat="1">
+    <row r="126" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -9928,7 +9938,7 @@
       <c r="Y126" s="9"/>
       <c r="AA126" s="9"/>
     </row>
-    <row r="127" spans="8:27" s="1" customFormat="1">
+    <row r="127" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -9939,7 +9949,7 @@
       <c r="Y127" s="9"/>
       <c r="AA127" s="9"/>
     </row>
-    <row r="128" spans="8:27" s="1" customFormat="1">
+    <row r="128" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
@@ -9950,7 +9960,7 @@
       <c r="Y128" s="9"/>
       <c r="AA128" s="9"/>
     </row>
-    <row r="129" spans="8:27" s="1" customFormat="1">
+    <row r="129" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -9961,7 +9971,7 @@
       <c r="Y129" s="9"/>
       <c r="AA129" s="9"/>
     </row>
-    <row r="130" spans="8:27" s="1" customFormat="1">
+    <row r="130" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
@@ -9972,7 +9982,7 @@
       <c r="Y130" s="9"/>
       <c r="AA130" s="9"/>
     </row>
-    <row r="131" spans="8:27" s="1" customFormat="1">
+    <row r="131" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
@@ -9983,7 +9993,7 @@
       <c r="Y131" s="9"/>
       <c r="AA131" s="9"/>
     </row>
-    <row r="132" spans="8:27" s="1" customFormat="1">
+    <row r="132" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -9994,7 +10004,7 @@
       <c r="Y132" s="9"/>
       <c r="AA132" s="9"/>
     </row>
-    <row r="133" spans="8:27" s="1" customFormat="1">
+    <row r="133" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -10005,7 +10015,7 @@
       <c r="Y133" s="9"/>
       <c r="AA133" s="9"/>
     </row>
-    <row r="134" spans="8:27" s="1" customFormat="1">
+    <row r="134" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -10016,7 +10026,7 @@
       <c r="Y134" s="9"/>
       <c r="AA134" s="9"/>
     </row>
-    <row r="135" spans="8:27" s="1" customFormat="1">
+    <row r="135" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -10027,7 +10037,7 @@
       <c r="Y135" s="9"/>
       <c r="AA135" s="9"/>
     </row>
-    <row r="136" spans="8:27" s="1" customFormat="1">
+    <row r="136" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -10038,7 +10048,7 @@
       <c r="Y136" s="9"/>
       <c r="AA136" s="9"/>
     </row>
-    <row r="137" spans="8:27" s="1" customFormat="1">
+    <row r="137" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -10049,7 +10059,7 @@
       <c r="Y137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="8:27" s="1" customFormat="1">
+    <row r="138" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -10060,7 +10070,7 @@
       <c r="Y138" s="9"/>
       <c r="AA138" s="9"/>
     </row>
-    <row r="139" spans="8:27" s="1" customFormat="1">
+    <row r="139" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -10071,7 +10081,7 @@
       <c r="Y139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
-    <row r="140" spans="8:27" s="1" customFormat="1">
+    <row r="140" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -10082,7 +10092,7 @@
       <c r="Y140" s="9"/>
       <c r="AA140" s="9"/>
     </row>
-    <row r="141" spans="8:27" s="1" customFormat="1">
+    <row r="141" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -10093,7 +10103,7 @@
       <c r="Y141" s="9"/>
       <c r="AA141" s="9"/>
     </row>
-    <row r="142" spans="8:27" s="1" customFormat="1">
+    <row r="142" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
@@ -10104,7 +10114,7 @@
       <c r="Y142" s="9"/>
       <c r="AA142" s="9"/>
     </row>
-    <row r="143" spans="8:27" s="1" customFormat="1">
+    <row r="143" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -10115,7 +10125,7 @@
       <c r="Y143" s="9"/>
       <c r="AA143" s="9"/>
     </row>
-    <row r="144" spans="8:27" s="1" customFormat="1">
+    <row r="144" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -10126,7 +10136,7 @@
       <c r="Y144" s="9"/>
       <c r="AA144" s="9"/>
     </row>
-    <row r="145" spans="8:27" s="1" customFormat="1">
+    <row r="145" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
@@ -10137,7 +10147,7 @@
       <c r="Y145" s="9"/>
       <c r="AA145" s="9"/>
     </row>
-    <row r="146" spans="8:27" s="1" customFormat="1">
+    <row r="146" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
@@ -10148,7 +10158,7 @@
       <c r="Y146" s="9"/>
       <c r="AA146" s="9"/>
     </row>
-    <row r="147" spans="8:27" s="1" customFormat="1">
+    <row r="147" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
@@ -10159,7 +10169,7 @@
       <c r="Y147" s="9"/>
       <c r="AA147" s="9"/>
     </row>
-    <row r="148" spans="8:27" s="1" customFormat="1">
+    <row r="148" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -10170,7 +10180,7 @@
       <c r="Y148" s="9"/>
       <c r="AA148" s="9"/>
     </row>
-    <row r="149" spans="8:27" s="1" customFormat="1">
+    <row r="149" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -10181,7 +10191,7 @@
       <c r="Y149" s="9"/>
       <c r="AA149" s="9"/>
     </row>
-    <row r="150" spans="8:27" s="1" customFormat="1">
+    <row r="150" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -10192,7 +10202,7 @@
       <c r="Y150" s="9"/>
       <c r="AA150" s="9"/>
     </row>
-    <row r="151" spans="8:27" s="1" customFormat="1">
+    <row r="151" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
@@ -10203,7 +10213,7 @@
       <c r="Y151" s="9"/>
       <c r="AA151" s="9"/>
     </row>
-    <row r="152" spans="8:27" s="1" customFormat="1">
+    <row r="152" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -10214,7 +10224,7 @@
       <c r="Y152" s="9"/>
       <c r="AA152" s="9"/>
     </row>
-    <row r="153" spans="8:27" s="1" customFormat="1">
+    <row r="153" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -10225,7 +10235,7 @@
       <c r="Y153" s="9"/>
       <c r="AA153" s="9"/>
     </row>
-    <row r="154" spans="8:27" s="1" customFormat="1">
+    <row r="154" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -10236,7 +10246,7 @@
       <c r="Y154" s="9"/>
       <c r="AA154" s="9"/>
     </row>
-    <row r="155" spans="8:27" s="1" customFormat="1">
+    <row r="155" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -10247,7 +10257,7 @@
       <c r="Y155" s="9"/>
       <c r="AA155" s="9"/>
     </row>
-    <row r="156" spans="8:27" s="1" customFormat="1">
+    <row r="156" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -10258,7 +10268,7 @@
       <c r="Y156" s="9"/>
       <c r="AA156" s="9"/>
     </row>
-    <row r="157" spans="8:27" s="1" customFormat="1">
+    <row r="157" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
@@ -10269,7 +10279,7 @@
       <c r="Y157" s="9"/>
       <c r="AA157" s="9"/>
     </row>
-    <row r="158" spans="8:27" s="1" customFormat="1">
+    <row r="158" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -10280,7 +10290,7 @@
       <c r="Y158" s="9"/>
       <c r="AA158" s="9"/>
     </row>
-    <row r="159" spans="8:27" s="1" customFormat="1">
+    <row r="159" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10291,7 +10301,7 @@
       <c r="Y159" s="9"/>
       <c r="AA159" s="9"/>
     </row>
-    <row r="160" spans="8:27" s="1" customFormat="1">
+    <row r="160" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10302,7 +10312,7 @@
       <c r="Y160" s="9"/>
       <c r="AA160" s="9"/>
     </row>
-    <row r="161" spans="8:27" s="1" customFormat="1">
+    <row r="161" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10313,7 +10323,7 @@
       <c r="Y161" s="9"/>
       <c r="AA161" s="9"/>
     </row>
-    <row r="162" spans="8:27" s="1" customFormat="1">
+    <row r="162" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10324,7 +10334,7 @@
       <c r="Y162" s="9"/>
       <c r="AA162" s="9"/>
     </row>
-    <row r="163" spans="8:27" s="1" customFormat="1">
+    <row r="163" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10335,7 +10345,7 @@
       <c r="Y163" s="9"/>
       <c r="AA163" s="9"/>
     </row>
-    <row r="164" spans="8:27" s="1" customFormat="1">
+    <row r="164" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10346,7 +10356,7 @@
       <c r="Y164" s="9"/>
       <c r="AA164" s="9"/>
     </row>
-    <row r="165" spans="8:27" s="1" customFormat="1">
+    <row r="165" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10357,7 +10367,7 @@
       <c r="Y165" s="9"/>
       <c r="AA165" s="9"/>
     </row>
-    <row r="166" spans="8:27" s="1" customFormat="1">
+    <row r="166" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10368,7 +10378,7 @@
       <c r="Y166" s="9"/>
       <c r="AA166" s="9"/>
     </row>
-    <row r="167" spans="8:27" s="1" customFormat="1">
+    <row r="167" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10379,7 +10389,7 @@
       <c r="Y167" s="9"/>
       <c r="AA167" s="9"/>
     </row>
-    <row r="168" spans="8:27" s="1" customFormat="1">
+    <row r="168" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10390,7 +10400,7 @@
       <c r="Y168" s="9"/>
       <c r="AA168" s="9"/>
     </row>
-    <row r="169" spans="8:27" s="1" customFormat="1">
+    <row r="169" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10401,7 +10411,7 @@
       <c r="Y169" s="9"/>
       <c r="AA169" s="9"/>
     </row>
-    <row r="170" spans="8:27" s="1" customFormat="1">
+    <row r="170" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10412,7 +10422,7 @@
       <c r="Y170" s="9"/>
       <c r="AA170" s="9"/>
     </row>
-    <row r="171" spans="8:27" s="1" customFormat="1">
+    <row r="171" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -10423,7 +10433,7 @@
       <c r="Y171" s="9"/>
       <c r="AA171" s="9"/>
     </row>
-    <row r="172" spans="8:27" s="1" customFormat="1">
+    <row r="172" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -10434,7 +10444,7 @@
       <c r="Y172" s="9"/>
       <c r="AA172" s="9"/>
     </row>
-    <row r="173" spans="8:27" s="1" customFormat="1">
+    <row r="173" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10445,7 +10455,7 @@
       <c r="Y173" s="9"/>
       <c r="AA173" s="9"/>
     </row>
-    <row r="174" spans="8:27" s="1" customFormat="1">
+    <row r="174" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -10456,7 +10466,7 @@
       <c r="Y174" s="9"/>
       <c r="AA174" s="9"/>
     </row>
-    <row r="175" spans="8:27" s="1" customFormat="1">
+    <row r="175" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -10467,7 +10477,7 @@
       <c r="Y175" s="9"/>
       <c r="AA175" s="9"/>
     </row>
-    <row r="176" spans="8:27" s="1" customFormat="1">
+    <row r="176" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -10478,7 +10488,7 @@
       <c r="Y176" s="9"/>
       <c r="AA176" s="9"/>
     </row>
-    <row r="177" spans="8:27" s="1" customFormat="1">
+    <row r="177" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
@@ -10489,7 +10499,7 @@
       <c r="Y177" s="9"/>
       <c r="AA177" s="9"/>
     </row>
-    <row r="178" spans="8:27" s="1" customFormat="1">
+    <row r="178" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -10500,7 +10510,7 @@
       <c r="Y178" s="9"/>
       <c r="AA178" s="9"/>
     </row>
-    <row r="179" spans="8:27" s="1" customFormat="1">
+    <row r="179" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -10511,7 +10521,7 @@
       <c r="Y179" s="9"/>
       <c r="AA179" s="9"/>
     </row>
-    <row r="180" spans="8:27" s="1" customFormat="1">
+    <row r="180" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -10522,7 +10532,7 @@
       <c r="Y180" s="9"/>
       <c r="AA180" s="9"/>
     </row>
-    <row r="181" spans="8:27" s="1" customFormat="1">
+    <row r="181" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -10533,7 +10543,7 @@
       <c r="Y181" s="9"/>
       <c r="AA181" s="9"/>
     </row>
-    <row r="182" spans="8:27" s="1" customFormat="1">
+    <row r="182" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -10544,7 +10554,7 @@
       <c r="Y182" s="9"/>
       <c r="AA182" s="9"/>
     </row>
-    <row r="183" spans="8:27" s="1" customFormat="1">
+    <row r="183" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
@@ -10555,7 +10565,7 @@
       <c r="Y183" s="9"/>
       <c r="AA183" s="9"/>
     </row>
-    <row r="184" spans="8:27" s="1" customFormat="1">
+    <row r="184" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -10566,7 +10576,7 @@
       <c r="Y184" s="9"/>
       <c r="AA184" s="9"/>
     </row>
-    <row r="185" spans="8:27" s="1" customFormat="1">
+    <row r="185" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -10577,7 +10587,7 @@
       <c r="Y185" s="9"/>
       <c r="AA185" s="9"/>
     </row>
-    <row r="186" spans="8:27" s="1" customFormat="1">
+    <row r="186" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
@@ -10588,7 +10598,7 @@
       <c r="Y186" s="9"/>
       <c r="AA186" s="9"/>
     </row>
-    <row r="187" spans="8:27" s="1" customFormat="1">
+    <row r="187" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
@@ -10599,7 +10609,7 @@
       <c r="Y187" s="9"/>
       <c r="AA187" s="9"/>
     </row>
-    <row r="188" spans="8:27" s="1" customFormat="1">
+    <row r="188" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -10610,7 +10620,7 @@
       <c r="Y188" s="9"/>
       <c r="AA188" s="9"/>
     </row>
-    <row r="189" spans="8:27" s="1" customFormat="1">
+    <row r="189" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -10621,7 +10631,7 @@
       <c r="Y189" s="9"/>
       <c r="AA189" s="9"/>
     </row>
-    <row r="190" spans="8:27" s="1" customFormat="1">
+    <row r="190" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -10632,7 +10642,7 @@
       <c r="Y190" s="9"/>
       <c r="AA190" s="9"/>
     </row>
-    <row r="191" spans="8:27" s="1" customFormat="1">
+    <row r="191" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
@@ -10643,7 +10653,7 @@
       <c r="Y191" s="9"/>
       <c r="AA191" s="9"/>
     </row>
-    <row r="192" spans="8:27" s="1" customFormat="1">
+    <row r="192" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
@@ -10654,7 +10664,7 @@
       <c r="Y192" s="9"/>
       <c r="AA192" s="9"/>
     </row>
-    <row r="193" spans="8:27" s="1" customFormat="1">
+    <row r="193" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
@@ -10665,7 +10675,7 @@
       <c r="Y193" s="9"/>
       <c r="AA193" s="9"/>
     </row>
-    <row r="194" spans="8:27" s="1" customFormat="1">
+    <row r="194" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -10676,7 +10686,7 @@
       <c r="Y194" s="9"/>
       <c r="AA194" s="9"/>
     </row>
-    <row r="195" spans="8:27" s="1" customFormat="1">
+    <row r="195" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -10687,7 +10697,7 @@
       <c r="Y195" s="9"/>
       <c r="AA195" s="9"/>
     </row>
-    <row r="196" spans="8:27" s="1" customFormat="1">
+    <row r="196" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -10698,7 +10708,7 @@
       <c r="Y196" s="9"/>
       <c r="AA196" s="9"/>
     </row>
-    <row r="197" spans="8:27" s="1" customFormat="1">
+    <row r="197" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
@@ -10709,7 +10719,7 @@
       <c r="Y197" s="9"/>
       <c r="AA197" s="9"/>
     </row>
-    <row r="198" spans="8:27" s="1" customFormat="1">
+    <row r="198" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
@@ -10720,7 +10730,7 @@
       <c r="Y198" s="9"/>
       <c r="AA198" s="9"/>
     </row>
-    <row r="199" spans="8:27" s="1" customFormat="1">
+    <row r="199" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
@@ -10731,7 +10741,7 @@
       <c r="Y199" s="9"/>
       <c r="AA199" s="9"/>
     </row>
-    <row r="200" spans="8:27" s="1" customFormat="1">
+    <row r="200" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -10742,7 +10752,7 @@
       <c r="Y200" s="9"/>
       <c r="AA200" s="9"/>
     </row>
-    <row r="201" spans="8:27" s="1" customFormat="1">
+    <row r="201" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
@@ -10753,7 +10763,7 @@
       <c r="Y201" s="9"/>
       <c r="AA201" s="9"/>
     </row>
-    <row r="202" spans="8:27" s="1" customFormat="1">
+    <row r="202" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
@@ -10764,7 +10774,7 @@
       <c r="Y202" s="9"/>
       <c r="AA202" s="9"/>
     </row>
-    <row r="203" spans="8:27" s="1" customFormat="1">
+    <row r="203" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
@@ -10775,7 +10785,7 @@
       <c r="Y203" s="9"/>
       <c r="AA203" s="9"/>
     </row>
-    <row r="204" spans="8:27" s="1" customFormat="1">
+    <row r="204" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
@@ -10786,7 +10796,7 @@
       <c r="Y204" s="9"/>
       <c r="AA204" s="9"/>
     </row>
-    <row r="205" spans="8:27" s="1" customFormat="1">
+    <row r="205" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
@@ -10797,7 +10807,7 @@
       <c r="Y205" s="9"/>
       <c r="AA205" s="9"/>
     </row>
-    <row r="206" spans="8:27" s="1" customFormat="1">
+    <row r="206" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
@@ -10808,7 +10818,7 @@
       <c r="Y206" s="9"/>
       <c r="AA206" s="9"/>
     </row>
-    <row r="207" spans="8:27" s="1" customFormat="1">
+    <row r="207" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
@@ -10819,7 +10829,7 @@
       <c r="Y207" s="9"/>
       <c r="AA207" s="9"/>
     </row>
-    <row r="208" spans="8:27" s="1" customFormat="1">
+    <row r="208" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
@@ -10830,7 +10840,7 @@
       <c r="Y208" s="9"/>
       <c r="AA208" s="9"/>
     </row>
-    <row r="209" spans="8:27" s="1" customFormat="1">
+    <row r="209" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
@@ -10841,7 +10851,7 @@
       <c r="Y209" s="9"/>
       <c r="AA209" s="9"/>
     </row>
-    <row r="210" spans="8:27" s="1" customFormat="1">
+    <row r="210" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
@@ -10852,7 +10862,7 @@
       <c r="Y210" s="9"/>
       <c r="AA210" s="9"/>
     </row>
-    <row r="211" spans="8:27" s="1" customFormat="1">
+    <row r="211" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
@@ -10863,7 +10873,7 @@
       <c r="Y211" s="9"/>
       <c r="AA211" s="9"/>
     </row>
-    <row r="212" spans="8:27" s="1" customFormat="1">
+    <row r="212" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
@@ -10874,7 +10884,7 @@
       <c r="Y212" s="9"/>
       <c r="AA212" s="9"/>
     </row>
-    <row r="213" spans="8:27" s="1" customFormat="1">
+    <row r="213" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
@@ -10885,7 +10895,7 @@
       <c r="Y213" s="9"/>
       <c r="AA213" s="9"/>
     </row>
-    <row r="214" spans="8:27" s="1" customFormat="1">
+    <row r="214" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
@@ -10896,7 +10906,7 @@
       <c r="Y214" s="9"/>
       <c r="AA214" s="9"/>
     </row>
-    <row r="215" spans="8:27" s="1" customFormat="1">
+    <row r="215" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
@@ -10907,7 +10917,7 @@
       <c r="Y215" s="9"/>
       <c r="AA215" s="9"/>
     </row>
-    <row r="216" spans="8:27" s="1" customFormat="1">
+    <row r="216" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
@@ -10918,7 +10928,7 @@
       <c r="Y216" s="9"/>
       <c r="AA216" s="9"/>
     </row>
-    <row r="217" spans="8:27" s="1" customFormat="1">
+    <row r="217" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
@@ -10929,7 +10939,7 @@
       <c r="Y217" s="9"/>
       <c r="AA217" s="9"/>
     </row>
-    <row r="218" spans="8:27" s="1" customFormat="1">
+    <row r="218" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
@@ -10940,7 +10950,7 @@
       <c r="Y218" s="9"/>
       <c r="AA218" s="9"/>
     </row>
-    <row r="219" spans="8:27" s="1" customFormat="1">
+    <row r="219" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
@@ -10951,7 +10961,7 @@
       <c r="Y219" s="9"/>
       <c r="AA219" s="9"/>
     </row>
-    <row r="220" spans="8:27" s="1" customFormat="1">
+    <row r="220" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
@@ -10962,7 +10972,7 @@
       <c r="Y220" s="9"/>
       <c r="AA220" s="9"/>
     </row>
-    <row r="221" spans="8:27" s="1" customFormat="1">
+    <row r="221" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
@@ -10973,7 +10983,7 @@
       <c r="Y221" s="9"/>
       <c r="AA221" s="9"/>
     </row>
-    <row r="222" spans="8:27" s="1" customFormat="1">
+    <row r="222" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
@@ -10984,7 +10994,7 @@
       <c r="Y222" s="9"/>
       <c r="AA222" s="9"/>
     </row>
-    <row r="223" spans="8:27" s="1" customFormat="1">
+    <row r="223" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
@@ -10995,7 +11005,7 @@
       <c r="Y223" s="9"/>
       <c r="AA223" s="9"/>
     </row>
-    <row r="224" spans="8:27" s="1" customFormat="1">
+    <row r="224" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
@@ -11006,7 +11016,7 @@
       <c r="Y224" s="9"/>
       <c r="AA224" s="9"/>
     </row>
-    <row r="225" spans="8:27" s="1" customFormat="1">
+    <row r="225" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
@@ -11017,7 +11027,7 @@
       <c r="Y225" s="9"/>
       <c r="AA225" s="9"/>
     </row>
-    <row r="226" spans="8:27" s="1" customFormat="1">
+    <row r="226" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
@@ -11028,7 +11038,7 @@
       <c r="Y226" s="9"/>
       <c r="AA226" s="9"/>
     </row>
-    <row r="227" spans="8:27" s="1" customFormat="1">
+    <row r="227" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
@@ -11039,7 +11049,7 @@
       <c r="Y227" s="9"/>
       <c r="AA227" s="9"/>
     </row>
-    <row r="228" spans="8:27" s="1" customFormat="1">
+    <row r="228" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
@@ -11050,7 +11060,7 @@
       <c r="Y228" s="9"/>
       <c r="AA228" s="9"/>
     </row>
-    <row r="229" spans="8:27" s="1" customFormat="1">
+    <row r="229" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
@@ -11061,7 +11071,7 @@
       <c r="Y229" s="9"/>
       <c r="AA229" s="9"/>
     </row>
-    <row r="230" spans="8:27" s="1" customFormat="1">
+    <row r="230" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
@@ -11072,7 +11082,7 @@
       <c r="Y230" s="9"/>
       <c r="AA230" s="9"/>
     </row>
-    <row r="231" spans="8:27" s="1" customFormat="1">
+    <row r="231" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
@@ -11083,7 +11093,7 @@
       <c r="Y231" s="9"/>
       <c r="AA231" s="9"/>
     </row>
-    <row r="232" spans="8:27" s="1" customFormat="1">
+    <row r="232" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
@@ -11094,7 +11104,7 @@
       <c r="Y232" s="9"/>
       <c r="AA232" s="9"/>
     </row>
-    <row r="233" spans="8:27" s="1" customFormat="1">
+    <row r="233" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
@@ -11105,7 +11115,7 @@
       <c r="Y233" s="9"/>
       <c r="AA233" s="9"/>
     </row>
-    <row r="234" spans="8:27" s="1" customFormat="1">
+    <row r="234" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
@@ -11116,7 +11126,7 @@
       <c r="Y234" s="9"/>
       <c r="AA234" s="9"/>
     </row>
-    <row r="235" spans="8:27" s="1" customFormat="1">
+    <row r="235" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
@@ -11127,7 +11137,7 @@
       <c r="Y235" s="9"/>
       <c r="AA235" s="9"/>
     </row>
-    <row r="236" spans="8:27" s="1" customFormat="1">
+    <row r="236" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
@@ -11138,7 +11148,7 @@
       <c r="Y236" s="9"/>
       <c r="AA236" s="9"/>
     </row>
-    <row r="237" spans="8:27" s="1" customFormat="1">
+    <row r="237" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
@@ -11149,7 +11159,7 @@
       <c r="Y237" s="9"/>
       <c r="AA237" s="9"/>
     </row>
-    <row r="238" spans="8:27" s="1" customFormat="1">
+    <row r="238" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
@@ -11160,7 +11170,7 @@
       <c r="Y238" s="9"/>
       <c r="AA238" s="9"/>
     </row>
-    <row r="239" spans="8:27" s="1" customFormat="1">
+    <row r="239" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
@@ -11171,7 +11181,7 @@
       <c r="Y239" s="9"/>
       <c r="AA239" s="9"/>
     </row>
-    <row r="240" spans="8:27" s="1" customFormat="1">
+    <row r="240" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
@@ -11182,7 +11192,7 @@
       <c r="Y240" s="9"/>
       <c r="AA240" s="9"/>
     </row>
-    <row r="241" spans="8:27" s="1" customFormat="1">
+    <row r="241" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
@@ -11193,7 +11203,7 @@
       <c r="Y241" s="9"/>
       <c r="AA241" s="9"/>
     </row>
-    <row r="242" spans="8:27" s="1" customFormat="1">
+    <row r="242" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
@@ -11204,7 +11214,7 @@
       <c r="Y242" s="9"/>
       <c r="AA242" s="9"/>
     </row>
-    <row r="243" spans="8:27" s="1" customFormat="1">
+    <row r="243" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
@@ -11215,7 +11225,7 @@
       <c r="Y243" s="9"/>
       <c r="AA243" s="9"/>
     </row>
-    <row r="244" spans="8:27" s="1" customFormat="1">
+    <row r="244" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
@@ -11226,7 +11236,7 @@
       <c r="Y244" s="9"/>
       <c r="AA244" s="9"/>
     </row>
-    <row r="245" spans="8:27" s="1" customFormat="1">
+    <row r="245" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
@@ -11237,7 +11247,7 @@
       <c r="Y245" s="9"/>
       <c r="AA245" s="9"/>
     </row>
-    <row r="246" spans="8:27" s="1" customFormat="1">
+    <row r="246" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
@@ -11248,7 +11258,7 @@
       <c r="Y246" s="9"/>
       <c r="AA246" s="9"/>
     </row>
-    <row r="247" spans="8:27" s="1" customFormat="1">
+    <row r="247" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
@@ -11259,7 +11269,7 @@
       <c r="Y247" s="9"/>
       <c r="AA247" s="9"/>
     </row>
-    <row r="248" spans="8:27" s="1" customFormat="1">
+    <row r="248" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
@@ -11270,7 +11280,7 @@
       <c r="Y248" s="9"/>
       <c r="AA248" s="9"/>
     </row>
-    <row r="249" spans="8:27" s="1" customFormat="1">
+    <row r="249" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
@@ -11281,7 +11291,7 @@
       <c r="Y249" s="9"/>
       <c r="AA249" s="9"/>
     </row>
-    <row r="250" spans="8:27" s="1" customFormat="1">
+    <row r="250" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
@@ -11292,7 +11302,7 @@
       <c r="Y250" s="9"/>
       <c r="AA250" s="9"/>
     </row>
-    <row r="251" spans="8:27" s="1" customFormat="1">
+    <row r="251" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
@@ -11303,7 +11313,7 @@
       <c r="Y251" s="9"/>
       <c r="AA251" s="9"/>
     </row>
-    <row r="252" spans="8:27" s="1" customFormat="1">
+    <row r="252" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
@@ -11314,7 +11324,7 @@
       <c r="Y252" s="9"/>
       <c r="AA252" s="9"/>
     </row>
-    <row r="253" spans="8:27" s="1" customFormat="1">
+    <row r="253" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
@@ -11325,7 +11335,7 @@
       <c r="Y253" s="9"/>
       <c r="AA253" s="9"/>
     </row>
-    <row r="254" spans="8:27" s="1" customFormat="1">
+    <row r="254" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
@@ -11336,7 +11346,7 @@
       <c r="Y254" s="9"/>
       <c r="AA254" s="9"/>
     </row>
-    <row r="255" spans="8:27" s="1" customFormat="1">
+    <row r="255" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
@@ -11347,7 +11357,7 @@
       <c r="Y255" s="9"/>
       <c r="AA255" s="9"/>
     </row>
-    <row r="256" spans="8:27" s="1" customFormat="1">
+    <row r="256" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
@@ -11358,7 +11368,7 @@
       <c r="Y256" s="9"/>
       <c r="AA256" s="9"/>
     </row>
-    <row r="257" spans="8:27" s="1" customFormat="1">
+    <row r="257" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
@@ -11369,7 +11379,7 @@
       <c r="Y257" s="9"/>
       <c r="AA257" s="9"/>
     </row>
-    <row r="258" spans="8:27" s="1" customFormat="1">
+    <row r="258" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
@@ -11380,7 +11390,7 @@
       <c r="Y258" s="9"/>
       <c r="AA258" s="9"/>
     </row>
-    <row r="259" spans="8:27" s="1" customFormat="1">
+    <row r="259" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -11391,7 +11401,7 @@
       <c r="Y259" s="9"/>
       <c r="AA259" s="9"/>
     </row>
-    <row r="260" spans="8:27" s="1" customFormat="1">
+    <row r="260" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
@@ -11402,7 +11412,7 @@
       <c r="Y260" s="9"/>
       <c r="AA260" s="9"/>
     </row>
-    <row r="261" spans="8:27" s="1" customFormat="1">
+    <row r="261" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
@@ -11413,7 +11423,7 @@
       <c r="Y261" s="9"/>
       <c r="AA261" s="9"/>
     </row>
-    <row r="262" spans="8:27" s="1" customFormat="1">
+    <row r="262" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
@@ -11424,7 +11434,7 @@
       <c r="Y262" s="9"/>
       <c r="AA262" s="9"/>
     </row>
-    <row r="263" spans="8:27" s="1" customFormat="1">
+    <row r="263" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
@@ -11435,7 +11445,7 @@
       <c r="Y263" s="9"/>
       <c r="AA263" s="9"/>
     </row>
-    <row r="264" spans="8:27" s="1" customFormat="1">
+    <row r="264" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
@@ -11446,7 +11456,7 @@
       <c r="Y264" s="9"/>
       <c r="AA264" s="9"/>
     </row>
-    <row r="265" spans="8:27" s="1" customFormat="1">
+    <row r="265" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
@@ -11457,7 +11467,7 @@
       <c r="Y265" s="9"/>
       <c r="AA265" s="9"/>
     </row>
-    <row r="266" spans="8:27" s="1" customFormat="1">
+    <row r="266" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
@@ -11468,7 +11478,7 @@
       <c r="Y266" s="9"/>
       <c r="AA266" s="9"/>
     </row>
-    <row r="267" spans="8:27" s="1" customFormat="1">
+    <row r="267" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
@@ -11479,7 +11489,7 @@
       <c r="Y267" s="9"/>
       <c r="AA267" s="9"/>
     </row>
-    <row r="268" spans="8:27" s="1" customFormat="1">
+    <row r="268" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
@@ -11490,7 +11500,7 @@
       <c r="Y268" s="9"/>
       <c r="AA268" s="9"/>
     </row>
-    <row r="269" spans="8:27" s="1" customFormat="1">
+    <row r="269" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
@@ -11501,7 +11511,7 @@
       <c r="Y269" s="9"/>
       <c r="AA269" s="9"/>
     </row>
-    <row r="270" spans="8:27" s="1" customFormat="1">
+    <row r="270" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
@@ -11512,7 +11522,7 @@
       <c r="Y270" s="9"/>
       <c r="AA270" s="9"/>
     </row>
-    <row r="271" spans="8:27" s="1" customFormat="1">
+    <row r="271" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
@@ -11523,7 +11533,7 @@
       <c r="Y271" s="9"/>
       <c r="AA271" s="9"/>
     </row>
-    <row r="272" spans="8:27" s="1" customFormat="1">
+    <row r="272" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
@@ -11534,7 +11544,7 @@
       <c r="Y272" s="9"/>
       <c r="AA272" s="9"/>
     </row>
-    <row r="273" spans="8:27" s="1" customFormat="1">
+    <row r="273" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
@@ -11545,7 +11555,7 @@
       <c r="Y273" s="9"/>
       <c r="AA273" s="9"/>
     </row>
-    <row r="274" spans="8:27" s="1" customFormat="1">
+    <row r="274" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
@@ -11556,7 +11566,7 @@
       <c r="Y274" s="9"/>
       <c r="AA274" s="9"/>
     </row>
-    <row r="275" spans="8:27" s="1" customFormat="1">
+    <row r="275" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
@@ -11567,7 +11577,7 @@
       <c r="Y275" s="9"/>
       <c r="AA275" s="9"/>
     </row>
-    <row r="276" spans="8:27" s="1" customFormat="1">
+    <row r="276" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
@@ -11578,7 +11588,7 @@
       <c r="Y276" s="9"/>
       <c r="AA276" s="9"/>
     </row>
-    <row r="277" spans="8:27" s="1" customFormat="1">
+    <row r="277" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
@@ -11589,7 +11599,7 @@
       <c r="Y277" s="9"/>
       <c r="AA277" s="9"/>
     </row>
-    <row r="278" spans="8:27" s="1" customFormat="1">
+    <row r="278" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
@@ -11600,7 +11610,7 @@
       <c r="Y278" s="9"/>
       <c r="AA278" s="9"/>
     </row>
-    <row r="279" spans="8:27" s="1" customFormat="1">
+    <row r="279" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
@@ -11611,7 +11621,7 @@
       <c r="Y279" s="9"/>
       <c r="AA279" s="9"/>
     </row>
-    <row r="280" spans="8:27" s="1" customFormat="1">
+    <row r="280" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
@@ -11622,7 +11632,7 @@
       <c r="Y280" s="9"/>
       <c r="AA280" s="9"/>
     </row>
-    <row r="281" spans="8:27" s="1" customFormat="1">
+    <row r="281" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
@@ -11633,7 +11643,7 @@
       <c r="Y281" s="9"/>
       <c r="AA281" s="9"/>
     </row>
-    <row r="282" spans="8:27" s="1" customFormat="1">
+    <row r="282" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
@@ -11644,7 +11654,7 @@
       <c r="Y282" s="9"/>
       <c r="AA282" s="9"/>
     </row>
-    <row r="283" spans="8:27" s="1" customFormat="1">
+    <row r="283" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
@@ -11655,7 +11665,7 @@
       <c r="Y283" s="9"/>
       <c r="AA283" s="9"/>
     </row>
-    <row r="284" spans="8:27" s="1" customFormat="1">
+    <row r="284" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
@@ -11666,7 +11676,7 @@
       <c r="Y284" s="9"/>
       <c r="AA284" s="9"/>
     </row>
-    <row r="285" spans="8:27" s="1" customFormat="1">
+    <row r="285" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
@@ -11677,7 +11687,7 @@
       <c r="Y285" s="9"/>
       <c r="AA285" s="9"/>
     </row>
-    <row r="286" spans="8:27" s="1" customFormat="1">
+    <row r="286" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
@@ -11688,7 +11698,7 @@
       <c r="Y286" s="9"/>
       <c r="AA286" s="9"/>
     </row>
-    <row r="287" spans="8:27" s="1" customFormat="1">
+    <row r="287" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
@@ -11699,7 +11709,7 @@
       <c r="Y287" s="9"/>
       <c r="AA287" s="9"/>
     </row>
-    <row r="288" spans="8:27" s="1" customFormat="1">
+    <row r="288" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
@@ -11710,7 +11720,7 @@
       <c r="Y288" s="9"/>
       <c r="AA288" s="9"/>
     </row>
-    <row r="289" spans="8:27" s="1" customFormat="1">
+    <row r="289" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
@@ -11721,7 +11731,7 @@
       <c r="Y289" s="9"/>
       <c r="AA289" s="9"/>
     </row>
-    <row r="290" spans="8:27" s="1" customFormat="1">
+    <row r="290" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
@@ -11732,7 +11742,7 @@
       <c r="Y290" s="9"/>
       <c r="AA290" s="9"/>
     </row>
-    <row r="291" spans="8:27" s="1" customFormat="1">
+    <row r="291" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
@@ -11743,7 +11753,7 @@
       <c r="Y291" s="9"/>
       <c r="AA291" s="9"/>
     </row>
-    <row r="292" spans="8:27" s="1" customFormat="1">
+    <row r="292" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
@@ -11754,7 +11764,7 @@
       <c r="Y292" s="9"/>
       <c r="AA292" s="9"/>
     </row>
-    <row r="293" spans="8:27" s="1" customFormat="1">
+    <row r="293" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
@@ -11765,7 +11775,7 @@
       <c r="Y293" s="9"/>
       <c r="AA293" s="9"/>
     </row>
-    <row r="294" spans="8:27" s="1" customFormat="1">
+    <row r="294" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
@@ -11776,7 +11786,7 @@
       <c r="Y294" s="9"/>
       <c r="AA294" s="9"/>
     </row>
-    <row r="295" spans="8:27" s="1" customFormat="1">
+    <row r="295" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
@@ -11787,7 +11797,7 @@
       <c r="Y295" s="9"/>
       <c r="AA295" s="9"/>
     </row>
-    <row r="296" spans="8:27" s="1" customFormat="1">
+    <row r="296" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
@@ -11798,7 +11808,7 @@
       <c r="Y296" s="9"/>
       <c r="AA296" s="9"/>
     </row>
-    <row r="297" spans="8:27" s="1" customFormat="1">
+    <row r="297" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
@@ -11809,7 +11819,7 @@
       <c r="Y297" s="9"/>
       <c r="AA297" s="9"/>
     </row>
-    <row r="298" spans="8:27" s="1" customFormat="1">
+    <row r="298" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
@@ -11820,7 +11830,7 @@
       <c r="Y298" s="9"/>
       <c r="AA298" s="9"/>
     </row>
-    <row r="299" spans="8:27" s="1" customFormat="1">
+    <row r="299" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
@@ -11831,7 +11841,7 @@
       <c r="Y299" s="9"/>
       <c r="AA299" s="9"/>
     </row>
-    <row r="300" spans="8:27" s="1" customFormat="1">
+    <row r="300" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
@@ -11842,7 +11852,7 @@
       <c r="Y300" s="9"/>
       <c r="AA300" s="9"/>
     </row>
-    <row r="301" spans="8:27" s="1" customFormat="1">
+    <row r="301" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
@@ -11853,7 +11863,7 @@
       <c r="Y301" s="9"/>
       <c r="AA301" s="9"/>
     </row>
-    <row r="302" spans="8:27" s="1" customFormat="1">
+    <row r="302" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
@@ -11864,7 +11874,7 @@
       <c r="Y302" s="9"/>
       <c r="AA302" s="9"/>
     </row>
-    <row r="303" spans="8:27" s="1" customFormat="1">
+    <row r="303" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
@@ -11875,7 +11885,7 @@
       <c r="Y303" s="9"/>
       <c r="AA303" s="9"/>
     </row>
-    <row r="304" spans="8:27" s="1" customFormat="1">
+    <row r="304" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
@@ -11886,7 +11896,7 @@
       <c r="Y304" s="9"/>
       <c r="AA304" s="9"/>
     </row>
-    <row r="305" spans="8:27" s="1" customFormat="1">
+    <row r="305" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
@@ -11897,7 +11907,7 @@
       <c r="Y305" s="9"/>
       <c r="AA305" s="9"/>
     </row>
-    <row r="306" spans="8:27" s="1" customFormat="1">
+    <row r="306" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
@@ -11908,7 +11918,7 @@
       <c r="Y306" s="9"/>
       <c r="AA306" s="9"/>
     </row>
-    <row r="307" spans="8:27" s="1" customFormat="1">
+    <row r="307" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
@@ -11919,7 +11929,7 @@
       <c r="Y307" s="9"/>
       <c r="AA307" s="9"/>
     </row>
-    <row r="308" spans="8:27" s="1" customFormat="1">
+    <row r="308" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
@@ -11930,7 +11940,7 @@
       <c r="Y308" s="9"/>
       <c r="AA308" s="9"/>
     </row>
-    <row r="309" spans="8:27" s="1" customFormat="1">
+    <row r="309" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
@@ -11941,7 +11951,7 @@
       <c r="Y309" s="9"/>
       <c r="AA309" s="9"/>
     </row>
-    <row r="310" spans="8:27" s="1" customFormat="1">
+    <row r="310" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
@@ -11952,7 +11962,7 @@
       <c r="Y310" s="9"/>
       <c r="AA310" s="9"/>
     </row>
-    <row r="311" spans="8:27" s="1" customFormat="1">
+    <row r="311" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
@@ -11963,7 +11973,7 @@
       <c r="Y311" s="9"/>
       <c r="AA311" s="9"/>
     </row>
-    <row r="312" spans="8:27" s="1" customFormat="1">
+    <row r="312" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
@@ -11974,7 +11984,7 @@
       <c r="Y312" s="9"/>
       <c r="AA312" s="9"/>
     </row>
-    <row r="313" spans="8:27" s="1" customFormat="1">
+    <row r="313" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
@@ -11985,7 +11995,7 @@
       <c r="Y313" s="9"/>
       <c r="AA313" s="9"/>
     </row>
-    <row r="314" spans="8:27" s="1" customFormat="1">
+    <row r="314" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
@@ -11996,7 +12006,7 @@
       <c r="Y314" s="9"/>
       <c r="AA314" s="9"/>
     </row>
-    <row r="315" spans="8:27" s="1" customFormat="1">
+    <row r="315" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
@@ -12007,7 +12017,7 @@
       <c r="Y315" s="9"/>
       <c r="AA315" s="9"/>
     </row>
-    <row r="316" spans="8:27" s="1" customFormat="1">
+    <row r="316" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
@@ -12018,7 +12028,7 @@
       <c r="Y316" s="9"/>
       <c r="AA316" s="9"/>
     </row>
-    <row r="317" spans="8:27" s="1" customFormat="1">
+    <row r="317" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
@@ -12029,7 +12039,7 @@
       <c r="Y317" s="9"/>
       <c r="AA317" s="9"/>
     </row>
-    <row r="318" spans="8:27" s="1" customFormat="1">
+    <row r="318" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
@@ -12040,7 +12050,7 @@
       <c r="Y318" s="9"/>
       <c r="AA318" s="9"/>
     </row>
-    <row r="319" spans="8:27" s="1" customFormat="1">
+    <row r="319" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
@@ -12051,7 +12061,7 @@
       <c r="Y319" s="9"/>
       <c r="AA319" s="9"/>
     </row>
-    <row r="320" spans="8:27" s="1" customFormat="1">
+    <row r="320" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
@@ -12062,7 +12072,7 @@
       <c r="Y320" s="9"/>
       <c r="AA320" s="9"/>
     </row>
-    <row r="321" spans="8:27" s="1" customFormat="1">
+    <row r="321" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
@@ -12073,7 +12083,7 @@
       <c r="Y321" s="9"/>
       <c r="AA321" s="9"/>
     </row>
-    <row r="322" spans="8:27" s="1" customFormat="1">
+    <row r="322" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
@@ -12084,7 +12094,7 @@
       <c r="Y322" s="9"/>
       <c r="AA322" s="9"/>
     </row>
-    <row r="323" spans="8:27" s="1" customFormat="1">
+    <row r="323" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
@@ -12095,7 +12105,7 @@
       <c r="Y323" s="9"/>
       <c r="AA323" s="9"/>
     </row>
-    <row r="324" spans="8:27" s="1" customFormat="1">
+    <row r="324" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
@@ -12106,7 +12116,7 @@
       <c r="Y324" s="9"/>
       <c r="AA324" s="9"/>
     </row>
-    <row r="325" spans="8:27" s="1" customFormat="1">
+    <row r="325" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
@@ -12117,7 +12127,7 @@
       <c r="Y325" s="9"/>
       <c r="AA325" s="9"/>
     </row>
-    <row r="326" spans="8:27" s="1" customFormat="1">
+    <row r="326" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
@@ -12128,7 +12138,7 @@
       <c r="Y326" s="9"/>
       <c r="AA326" s="9"/>
     </row>
-    <row r="327" spans="8:27" s="1" customFormat="1">
+    <row r="327" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
@@ -12139,7 +12149,7 @@
       <c r="Y327" s="9"/>
       <c r="AA327" s="9"/>
     </row>
-    <row r="328" spans="8:27" s="1" customFormat="1">
+    <row r="328" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
@@ -12150,7 +12160,7 @@
       <c r="Y328" s="9"/>
       <c r="AA328" s="9"/>
     </row>
-    <row r="329" spans="8:27" s="1" customFormat="1">
+    <row r="329" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
@@ -12161,7 +12171,7 @@
       <c r="Y329" s="9"/>
       <c r="AA329" s="9"/>
     </row>
-    <row r="330" spans="8:27" s="1" customFormat="1">
+    <row r="330" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
@@ -12172,7 +12182,7 @@
       <c r="Y330" s="9"/>
       <c r="AA330" s="9"/>
     </row>
-    <row r="331" spans="8:27" s="1" customFormat="1">
+    <row r="331" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
@@ -12183,7 +12193,7 @@
       <c r="Y331" s="9"/>
       <c r="AA331" s="9"/>
     </row>
-    <row r="332" spans="8:27" s="1" customFormat="1">
+    <row r="332" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
@@ -12194,7 +12204,7 @@
       <c r="Y332" s="9"/>
       <c r="AA332" s="9"/>
     </row>
-    <row r="333" spans="8:27" s="1" customFormat="1">
+    <row r="333" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
@@ -12205,7 +12215,7 @@
       <c r="Y333" s="9"/>
       <c r="AA333" s="9"/>
     </row>
-    <row r="334" spans="8:27" s="1" customFormat="1">
+    <row r="334" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
@@ -12216,7 +12226,7 @@
       <c r="Y334" s="9"/>
       <c r="AA334" s="9"/>
     </row>
-    <row r="335" spans="8:27" s="1" customFormat="1">
+    <row r="335" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
@@ -12227,7 +12237,7 @@
       <c r="Y335" s="9"/>
       <c r="AA335" s="9"/>
     </row>
-    <row r="336" spans="8:27" s="1" customFormat="1">
+    <row r="336" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
@@ -12238,7 +12248,7 @@
       <c r="Y336" s="9"/>
       <c r="AA336" s="9"/>
     </row>
-    <row r="337" spans="8:27" s="1" customFormat="1">
+    <row r="337" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
@@ -12249,7 +12259,7 @@
       <c r="Y337" s="9"/>
       <c r="AA337" s="9"/>
     </row>
-    <row r="338" spans="8:27" s="1" customFormat="1">
+    <row r="338" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
@@ -12260,7 +12270,7 @@
       <c r="Y338" s="9"/>
       <c r="AA338" s="9"/>
     </row>
-    <row r="339" spans="8:27" s="1" customFormat="1">
+    <row r="339" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
@@ -12271,7 +12281,7 @@
       <c r="Y339" s="9"/>
       <c r="AA339" s="9"/>
     </row>
-    <row r="340" spans="8:27" s="1" customFormat="1">
+    <row r="340" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
@@ -12282,7 +12292,7 @@
       <c r="Y340" s="9"/>
       <c r="AA340" s="9"/>
     </row>
-    <row r="341" spans="8:27" s="1" customFormat="1">
+    <row r="341" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
@@ -12293,7 +12303,7 @@
       <c r="Y341" s="9"/>
       <c r="AA341" s="9"/>
     </row>
-    <row r="342" spans="8:27" s="1" customFormat="1">
+    <row r="342" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
@@ -12304,7 +12314,7 @@
       <c r="Y342" s="9"/>
       <c r="AA342" s="9"/>
     </row>
-    <row r="343" spans="8:27" s="1" customFormat="1">
+    <row r="343" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
@@ -12315,7 +12325,7 @@
       <c r="Y343" s="9"/>
       <c r="AA343" s="9"/>
     </row>
-    <row r="344" spans="8:27" s="1" customFormat="1">
+    <row r="344" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
@@ -12326,7 +12336,7 @@
       <c r="Y344" s="9"/>
       <c r="AA344" s="9"/>
     </row>
-    <row r="345" spans="8:27" s="1" customFormat="1">
+    <row r="345" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
@@ -12337,7 +12347,7 @@
       <c r="Y345" s="9"/>
       <c r="AA345" s="9"/>
     </row>
-    <row r="346" spans="8:27" s="1" customFormat="1">
+    <row r="346" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
@@ -12348,7 +12358,7 @@
       <c r="Y346" s="9"/>
       <c r="AA346" s="9"/>
     </row>
-    <row r="347" spans="8:27" s="1" customFormat="1">
+    <row r="347" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
@@ -12359,7 +12369,7 @@
       <c r="Y347" s="9"/>
       <c r="AA347" s="9"/>
     </row>
-    <row r="348" spans="8:27" s="1" customFormat="1">
+    <row r="348" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
@@ -12370,7 +12380,7 @@
       <c r="Y348" s="9"/>
       <c r="AA348" s="9"/>
     </row>
-    <row r="349" spans="8:27" s="1" customFormat="1">
+    <row r="349" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
@@ -12381,7 +12391,7 @@
       <c r="Y349" s="9"/>
       <c r="AA349" s="9"/>
     </row>
-    <row r="350" spans="8:27" s="1" customFormat="1">
+    <row r="350" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
@@ -12392,7 +12402,7 @@
       <c r="Y350" s="9"/>
       <c r="AA350" s="9"/>
     </row>
-    <row r="351" spans="8:27" s="1" customFormat="1">
+    <row r="351" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
@@ -12403,7 +12413,7 @@
       <c r="Y351" s="9"/>
       <c r="AA351" s="9"/>
     </row>
-    <row r="352" spans="8:27" s="1" customFormat="1">
+    <row r="352" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
@@ -12414,7 +12424,7 @@
       <c r="Y352" s="9"/>
       <c r="AA352" s="9"/>
     </row>
-    <row r="353" spans="8:27" s="1" customFormat="1">
+    <row r="353" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
@@ -12425,7 +12435,7 @@
       <c r="Y353" s="9"/>
       <c r="AA353" s="9"/>
     </row>
-    <row r="354" spans="8:27" s="1" customFormat="1">
+    <row r="354" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
@@ -12436,7 +12446,7 @@
       <c r="Y354" s="9"/>
       <c r="AA354" s="9"/>
     </row>
-    <row r="355" spans="8:27" s="1" customFormat="1">
+    <row r="355" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
@@ -12447,7 +12457,7 @@
       <c r="Y355" s="9"/>
       <c r="AA355" s="9"/>
     </row>
-    <row r="356" spans="8:27" s="1" customFormat="1">
+    <row r="356" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
@@ -12458,7 +12468,7 @@
       <c r="Y356" s="9"/>
       <c r="AA356" s="9"/>
     </row>
-    <row r="357" spans="8:27" s="1" customFormat="1">
+    <row r="357" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
@@ -12469,7 +12479,7 @@
       <c r="Y357" s="9"/>
       <c r="AA357" s="9"/>
     </row>
-    <row r="358" spans="8:27" s="1" customFormat="1">
+    <row r="358" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
@@ -12480,7 +12490,7 @@
       <c r="Y358" s="9"/>
       <c r="AA358" s="9"/>
     </row>
-    <row r="359" spans="8:27" s="1" customFormat="1">
+    <row r="359" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
@@ -12491,7 +12501,7 @@
       <c r="Y359" s="9"/>
       <c r="AA359" s="9"/>
     </row>
-    <row r="360" spans="8:27" s="1" customFormat="1">
+    <row r="360" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
@@ -12502,7 +12512,7 @@
       <c r="Y360" s="9"/>
       <c r="AA360" s="9"/>
     </row>
-    <row r="361" spans="8:27" s="1" customFormat="1">
+    <row r="361" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
@@ -12513,7 +12523,7 @@
       <c r="Y361" s="9"/>
       <c r="AA361" s="9"/>
     </row>
-    <row r="362" spans="8:27" s="1" customFormat="1">
+    <row r="362" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
@@ -12524,7 +12534,7 @@
       <c r="Y362" s="9"/>
       <c r="AA362" s="9"/>
     </row>
-    <row r="363" spans="8:27" s="1" customFormat="1">
+    <row r="363" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
@@ -12535,7 +12545,7 @@
       <c r="Y363" s="9"/>
       <c r="AA363" s="9"/>
     </row>
-    <row r="364" spans="8:27" s="1" customFormat="1">
+    <row r="364" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
@@ -12546,7 +12556,7 @@
       <c r="Y364" s="9"/>
       <c r="AA364" s="9"/>
     </row>
-    <row r="365" spans="8:27" s="1" customFormat="1">
+    <row r="365" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
@@ -12557,7 +12567,7 @@
       <c r="Y365" s="9"/>
       <c r="AA365" s="9"/>
     </row>
-    <row r="366" spans="8:27" s="1" customFormat="1">
+    <row r="366" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
@@ -12568,7 +12578,7 @@
       <c r="Y366" s="9"/>
       <c r="AA366" s="9"/>
     </row>
-    <row r="367" spans="8:27" s="1" customFormat="1">
+    <row r="367" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
@@ -12579,7 +12589,7 @@
       <c r="Y367" s="9"/>
       <c r="AA367" s="9"/>
     </row>
-    <row r="368" spans="8:27" s="1" customFormat="1">
+    <row r="368" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
@@ -12590,7 +12600,7 @@
       <c r="Y368" s="9"/>
       <c r="AA368" s="9"/>
     </row>
-    <row r="369" spans="8:27" s="1" customFormat="1">
+    <row r="369" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
@@ -12601,7 +12611,7 @@
       <c r="Y369" s="9"/>
       <c r="AA369" s="9"/>
     </row>
-    <row r="370" spans="8:27" s="1" customFormat="1">
+    <row r="370" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
@@ -12612,7 +12622,7 @@
       <c r="Y370" s="9"/>
       <c r="AA370" s="9"/>
     </row>
-    <row r="371" spans="8:27" s="1" customFormat="1">
+    <row r="371" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5"/>
@@ -12623,7 +12633,7 @@
       <c r="Y371" s="9"/>
       <c r="AA371" s="9"/>
     </row>
-    <row r="372" spans="8:27" s="1" customFormat="1">
+    <row r="372" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5"/>
@@ -12634,7 +12644,7 @@
       <c r="Y372" s="9"/>
       <c r="AA372" s="9"/>
     </row>
-    <row r="373" spans="8:27" s="1" customFormat="1">
+    <row r="373" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>
@@ -12647,6 +12657,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AMJ373" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8BADE-D191-4CE7-99C2-CAC6321AC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22A444-9846-4328-8998-CB609C192FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,8 +1308,8 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5794,7 +5794,7 @@
         <v>1200</v>
       </c>
       <c r="J35" s="39">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K35" s="29">
         <v>107535</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22A444-9846-4328-8998-CB609C192FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E277704-8CC9-4D32-962E-BA4354F0FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>Monster_name_33</t>
   </si>
   <si>
-    <t>青年地精</t>
-  </si>
-  <si>
     <t>Monster_name_34</t>
   </si>
   <si>
@@ -454,9 +451,6 @@
     <t>Monster_name_42</t>
   </si>
   <si>
-    <t>三头犬</t>
-  </si>
-  <si>
     <t>Monster_name_43</t>
   </si>
   <si>
@@ -593,6 +587,12 @@
   </si>
   <si>
     <t>太阳神</t>
+  </si>
+  <si>
+    <t>外星人</t>
+  </si>
+  <si>
+    <t>大蜘蛛</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1308,8 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I12" s="37">
         <v>500</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I15" s="5">
         <v>700</v>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="5">
-        <v>268512</v>
+        <v>268725</v>
       </c>
       <c r="I19" s="5">
         <v>500</v>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I23" s="5">
         <v>2000</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="5">
-        <v>268512</v>
+        <v>268725</v>
       </c>
       <c r="I24" s="5">
         <v>500</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="5">
-        <v>268512</v>
+        <v>268725</v>
       </c>
       <c r="I28" s="5">
         <v>700</v>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I29" s="5">
         <v>500</v>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I30" s="5">
         <v>2000</v>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I31" s="40">
         <v>300</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I32" s="40">
         <v>500</v>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I33" s="5">
         <v>1200</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I34" s="5">
         <v>500</v>
@@ -5788,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I35" s="5">
         <v>1200</v>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I36" s="5">
         <v>2000</v>
@@ -5932,7 +5932,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I37" s="5">
         <v>600</v>
@@ -5991,19 +5991,19 @@
         <v>120</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E38" s="1">
         <v>6</v>
       </c>
       <c r="F38" s="12">
-        <v>142300</v>
+        <v>142880</v>
       </c>
       <c r="G38" s="12">
         <v>2</v>
       </c>
       <c r="H38" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I38" s="5">
         <v>700</v>
@@ -6059,10 +6059,10 @@
         <v>1035</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I39" s="5">
         <v>400</v>
@@ -6130,10 +6130,10 @@
         <v>1036</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I40" s="5">
         <v>2000</v>
@@ -6201,10 +6201,10 @@
         <v>1037</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I41" s="5">
         <v>1200</v>
@@ -6272,10 +6272,10 @@
         <v>1038</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I42" s="5">
         <v>700</v>
@@ -6346,10 +6346,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -6361,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I43" s="5">
         <v>500</v>
@@ -6420,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>133</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I44" s="5">
         <v>500</v>
@@ -7489,10 +7489,10 @@
         <v>1041</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
@@ -7504,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="32">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I45" s="5">
         <v>2000</v>
@@ -7562,10 +7562,10 @@
         <v>1042</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -7632,22 +7632,22 @@
         <v>1043</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="31">
-        <v>174697</v>
+        <v>324787</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>150774</v>
+        <v>336669</v>
       </c>
       <c r="I47" s="5">
         <v>500</v>
@@ -7702,10 +7702,10 @@
         <v>1044</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -7772,10 +7772,10 @@
         <v>1045</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" s="1">
         <v>4</v>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I49" s="5">
         <v>300</v>
@@ -7842,10 +7842,10 @@
         <v>1046</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -7857,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I50" s="5">
         <v>1200</v>
@@ -7912,10 +7912,10 @@
         <v>1047</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -7927,7 +7927,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I51" s="5">
         <v>600</v>
@@ -7982,10 +7982,10 @@
         <v>1048</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I52" s="5">
         <v>500</v>
@@ -8052,10 +8052,10 @@
         <v>1049</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -8128,10 +8128,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -8198,10 +8198,10 @@
         <v>1051</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
@@ -8213,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I55" s="5">
         <v>500</v>
@@ -8268,10 +8268,10 @@
         <v>1052</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -8338,10 +8338,10 @@
         <v>1053</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -8353,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I57" s="5">
         <v>300</v>
@@ -8408,10 +8408,10 @@
         <v>1054</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1">
         <v>6</v>
@@ -8478,10 +8478,10 @@
         <v>1055</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -8493,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I59" s="5">
         <v>500</v>
@@ -8548,10 +8548,10 @@
         <v>1056</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -8618,10 +8618,10 @@
         <v>1057</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I61" s="5">
         <v>500</v>
@@ -8688,10 +8688,10 @@
         <v>1058</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
@@ -8758,10 +8758,10 @@
         <v>1059</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -8831,10 +8831,10 @@
         <v>1060</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
@@ -8846,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I64" s="5">
         <v>600</v>
@@ -8901,10 +8901,10 @@
         <v>1061</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <v>281015</v>
+        <v>303165</v>
       </c>
       <c r="I65" s="5">
         <v>400</v>
@@ -8971,10 +8971,10 @@
         <v>1062</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E66" s="46">
         <v>3</v>
@@ -9044,10 +9044,10 @@
         <v>1063</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E67" s="46">
         <v>4</v>
@@ -9114,10 +9114,10 @@
         <v>1064</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -9129,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I68" s="5">
         <v>700</v>
@@ -9184,10 +9184,10 @@
         <v>1065</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="5">
-        <v>268562</v>
+        <v>268725</v>
       </c>
       <c r="I69" s="5">
         <v>600</v>
@@ -9257,10 +9257,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E277704-8CC9-4D32-962E-BA4354F0FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719EF890-3A98-40C0-8525-7D88F5782720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,8 +1308,8 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5275,6 +5275,9 @@
       <c r="A28" s="1">
         <v>1024</v>
       </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
       <c r="C28" s="10" t="s">
         <v>100</v>
       </c>
@@ -5986,6 +5989,9 @@
     <row r="38" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>120</v>
@@ -7701,6 +7707,9 @@
       <c r="A48" s="30">
         <v>1044</v>
       </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
       <c r="C48" s="10" t="s">
         <v>138</v>
       </c>
@@ -8477,6 +8486,9 @@
       <c r="A59" s="30">
         <v>1055</v>
       </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
       <c r="C59" s="10" t="s">
         <v>160</v>
       </c>
@@ -8546,6 +8558,9 @@
     <row r="60" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>1056</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>162</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719EF890-3A98-40C0-8525-7D88F5782720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC43A8-2A3C-4F2B-ADD5-AEDCB0D86B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,8 +1308,8 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4571,6 +4571,9 @@
       <c r="A18" s="1">
         <v>1014</v>
       </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
       <c r="C18" s="10" t="s">
         <v>80</v>
       </c>
@@ -4918,6 +4921,9 @@
       <c r="A23" s="1">
         <v>1019</v>
       </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
       <c r="C23" s="10" t="s">
         <v>90</v>
       </c>
@@ -5202,6 +5208,9 @@
       <c r="A27" s="1">
         <v>1023</v>
       </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
       <c r="C27" s="10" t="s">
         <v>98</v>
       </c>
@@ -5845,6 +5854,9 @@
     <row r="36" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>116</v>
@@ -7494,6 +7506,9 @@
       <c r="A45" s="30">
         <v>1041</v>
       </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
       <c r="C45" s="10" t="s">
         <v>133</v>
       </c>
@@ -8060,6 +8075,9 @@
       <c r="A53" s="1">
         <v>1049</v>
       </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
       <c r="C53" s="10" t="s">
         <v>148</v>
       </c>
@@ -8772,6 +8790,9 @@
       <c r="A63" s="30">
         <v>1059</v>
       </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
       <c r="C63" s="10" t="s">
         <v>168</v>
       </c>
@@ -8984,6 +9005,9 @@
     <row r="66" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>1062</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>174</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGE\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83248035-BCEF-4B62-9FF2-FDF4A8EF3B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012FA41-2DBB-40C2-820F-95D58BF40DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -899,7 +899,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1308,39 +1308,39 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="4" customWidth="1"/>
     <col min="6" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="5" customWidth="1"/>
     <col min="9" max="10" width="7.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.59765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="4" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" customWidth="1"/>
-    <col min="15" max="15" width="9.69921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="4" customWidth="1"/>
     <col min="16" max="16" width="21" style="4" customWidth="1"/>
     <col min="17" max="17" width="9.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.3984375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="4" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="4" customWidth="1"/>
     <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.8984375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="4" customWidth="1"/>
     <col min="22" max="22" width="11" style="5"/>
-    <col min="23" max="23" width="15.59765625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="23.09765625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="15.625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="23.125" style="4" customWidth="1"/>
     <col min="26" max="26" width="11" style="4"/>
     <col min="28" max="1024" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="26.25" customHeight="1">
+    <row r="1" spans="1:1024" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:1024" ht="24.75" customHeight="1">
+    <row r="2" spans="1:1024" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" ht="95.25" customHeight="1">
+    <row r="3" spans="1:1024" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="1" customFormat="1">
+    <row r="4" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="Y4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="5" spans="1:1024" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1001</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="AD5" s="44"/>
       <c r="AG5" s="44"/>
     </row>
-    <row r="6" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="6" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1002</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="Y6" s="43"/>
       <c r="AA6" s="43"/>
     </row>
-    <row r="7" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="7" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1003</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="AD7" s="44"/>
       <c r="AG7" s="44"/>
     </row>
-    <row r="8" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="8" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1004</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="Y8" s="43"/>
       <c r="AA8" s="43"/>
     </row>
-    <row r="9" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="9" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1005</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="Y9" s="43"/>
       <c r="AA9" s="43"/>
     </row>
-    <row r="10" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="10" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1006</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="Y10" s="43"/>
       <c r="AA10" s="43"/>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2085,10 +2085,10 @@
         <v>67</v>
       </c>
       <c r="E11" s="1">
+        <v>268048</v>
+      </c>
+      <c r="F11" s="1">
         <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>268048</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="X11" s="36"/>
     </row>
-    <row r="12" spans="1:1024" s="2" customFormat="1">
+    <row r="12" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>1008</v>
       </c>
@@ -2155,10 +2155,10 @@
         <v>69</v>
       </c>
       <c r="E12" s="16">
+        <v>156486</v>
+      </c>
+      <c r="F12" s="20">
         <v>2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>156486</v>
       </c>
       <c r="G12" s="20">
         <v>1</v>
@@ -3211,7 +3211,7 @@
       <c r="AMI12" s="17"/>
       <c r="AMJ12" s="17"/>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -3222,10 +3222,10 @@
         <v>71</v>
       </c>
       <c r="E13" s="1">
+        <v>157055</v>
+      </c>
+      <c r="F13" s="12">
         <v>2</v>
-      </c>
-      <c r="F13" s="12">
-        <v>157055</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="X13" s="36"/>
     </row>
-    <row r="14" spans="1:1024" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:1024" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>1010</v>
       </c>
@@ -3294,10 +3294,10 @@
         <v>73</v>
       </c>
       <c r="E14" s="23">
+        <v>183662</v>
+      </c>
+      <c r="F14" s="27">
         <v>2</v>
-      </c>
-      <c r="F14" s="27">
-        <v>183662</v>
       </c>
       <c r="G14" s="27">
         <v>1</v>
@@ -4350,7 +4350,7 @@
       <c r="AMI14" s="24"/>
       <c r="AMJ14" s="24"/>
     </row>
-    <row r="15" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="15" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -4361,10 +4361,10 @@
         <v>75</v>
       </c>
       <c r="E15" s="1">
+        <v>156842</v>
+      </c>
+      <c r="F15" s="12">
         <v>2</v>
-      </c>
-      <c r="F15" s="12">
-        <v>156842</v>
       </c>
       <c r="G15" s="12">
         <v>1</v>
@@ -4421,7 +4421,7 @@
       <c r="Y15" s="43"/>
       <c r="AA15" s="43"/>
     </row>
-    <row r="16" spans="1:1024" s="1" customFormat="1" ht="16.2">
+    <row r="16" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -4433,10 +4433,10 @@
         <v>77</v>
       </c>
       <c r="E16" s="13">
+        <v>157127</v>
+      </c>
+      <c r="F16" s="12">
         <v>2</v>
-      </c>
-      <c r="F16" s="12">
-        <v>157127</v>
       </c>
       <c r="G16" s="12">
         <v>1</v>
@@ -4496,7 +4496,7 @@
       <c r="AD16" s="44"/>
       <c r="AG16" s="44"/>
     </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" ht="16.2">
+    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -4507,10 +4507,10 @@
         <v>79</v>
       </c>
       <c r="E17" s="1">
+        <v>311953</v>
+      </c>
+      <c r="F17" s="12">
         <v>2</v>
-      </c>
-      <c r="F17" s="12">
-        <v>311953</v>
       </c>
       <c r="G17" s="12">
         <v>1</v>
@@ -4567,10 +4567,13 @@
       <c r="Y17" s="43"/>
       <c r="AA17" s="43"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
       <c r="C18" s="10" t="s">
         <v>80</v>
       </c>
@@ -4578,10 +4581,10 @@
         <v>81</v>
       </c>
       <c r="E18" s="9">
+        <v>192626</v>
+      </c>
+      <c r="F18" s="12">
         <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>192626</v>
       </c>
       <c r="G18" s="12">
         <v>1</v>
@@ -4638,7 +4641,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -4649,10 +4652,10 @@
         <v>83</v>
       </c>
       <c r="E19" s="1">
+        <v>195139</v>
+      </c>
+      <c r="F19" s="12">
         <v>3</v>
-      </c>
-      <c r="F19" s="12">
-        <v>195139</v>
       </c>
       <c r="G19" s="12">
         <v>1</v>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="X19" s="36"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -4718,10 +4721,10 @@
         <v>85</v>
       </c>
       <c r="E20" s="1">
+        <v>155187</v>
+      </c>
+      <c r="F20" s="12">
         <v>3</v>
-      </c>
-      <c r="F20" s="12">
-        <v>155187</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
@@ -4776,7 +4779,7 @@
       </c>
       <c r="X20" s="36"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -4787,10 +4790,10 @@
         <v>87</v>
       </c>
       <c r="E21" s="1">
+        <v>156952</v>
+      </c>
+      <c r="F21" s="12">
         <v>3</v>
-      </c>
-      <c r="F21" s="12">
-        <v>156952</v>
       </c>
       <c r="G21" s="12">
         <v>1</v>
@@ -4845,7 +4848,7 @@
       </c>
       <c r="X21" s="36"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -4856,10 +4859,10 @@
         <v>89</v>
       </c>
       <c r="E22" s="1">
+        <v>156959</v>
+      </c>
+      <c r="F22" s="12">
         <v>3</v>
-      </c>
-      <c r="F22" s="12">
-        <v>156959</v>
       </c>
       <c r="G22" s="12">
         <v>1</v>
@@ -4914,10 +4917,13 @@
       </c>
       <c r="X22" s="36"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
       <c r="C23" s="10" t="s">
         <v>90</v>
       </c>
@@ -4925,10 +4931,10 @@
         <v>91</v>
       </c>
       <c r="E23" s="1">
+        <v>194484</v>
+      </c>
+      <c r="F23" s="12">
         <v>3</v>
-      </c>
-      <c r="F23" s="12">
-        <v>194484</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
@@ -4985,7 +4991,7 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1">
+    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -4996,10 +5002,10 @@
         <v>93</v>
       </c>
       <c r="E24" s="1">
+        <v>151885</v>
+      </c>
+      <c r="F24" s="12">
         <v>5</v>
-      </c>
-      <c r="F24" s="12">
-        <v>151885</v>
       </c>
       <c r="G24" s="12">
         <v>1</v>
@@ -5056,7 +5062,7 @@
       <c r="Y24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" s="1" customFormat="1">
+    <row r="25" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -5067,10 +5073,10 @@
         <v>95</v>
       </c>
       <c r="E25" s="1">
+        <v>156764</v>
+      </c>
+      <c r="F25" s="12">
         <v>5</v>
-      </c>
-      <c r="F25" s="12">
-        <v>156764</v>
       </c>
       <c r="G25" s="12">
         <v>1</v>
@@ -5127,7 +5133,7 @@
       <c r="Y25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" s="1" customFormat="1">
+    <row r="26" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -5138,10 +5144,10 @@
         <v>97</v>
       </c>
       <c r="E26" s="1">
+        <v>156809</v>
+      </c>
+      <c r="F26" s="12">
         <v>5</v>
-      </c>
-      <c r="F26" s="12">
-        <v>156809</v>
       </c>
       <c r="G26" s="12">
         <v>1</v>
@@ -5198,10 +5204,13 @@
       <c r="Y26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" s="1" customFormat="1">
+    <row r="27" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
       <c r="C27" s="10" t="s">
         <v>98</v>
       </c>
@@ -5209,10 +5218,10 @@
         <v>99</v>
       </c>
       <c r="E27" s="1">
+        <v>157271</v>
+      </c>
+      <c r="F27" s="12">
         <v>5</v>
-      </c>
-      <c r="F27" s="12">
-        <v>157271</v>
       </c>
       <c r="G27" s="12">
         <v>1</v>
@@ -5271,10 +5280,13 @@
       <c r="Y27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" s="1" customFormat="1">
+    <row r="28" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
       <c r="C28" s="10" t="s">
         <v>100</v>
       </c>
@@ -5282,10 +5294,10 @@
         <v>101</v>
       </c>
       <c r="E28" s="1">
+        <v>155742</v>
+      </c>
+      <c r="F28" s="12">
         <v>5</v>
-      </c>
-      <c r="F28" s="12">
-        <v>155742</v>
       </c>
       <c r="G28" s="12">
         <v>1</v>
@@ -5342,7 +5354,7 @@
       <c r="Y28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" s="1" customFormat="1">
+    <row r="29" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -5353,10 +5365,10 @@
         <v>103</v>
       </c>
       <c r="E29" s="1">
+        <v>151835</v>
+      </c>
+      <c r="F29" s="12">
         <v>4</v>
-      </c>
-      <c r="F29" s="12">
-        <v>151835</v>
       </c>
       <c r="G29" s="12">
         <v>1</v>
@@ -5413,7 +5425,7 @@
       <c r="Y29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" s="1" customFormat="1">
+    <row r="30" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -5424,10 +5436,10 @@
         <v>105</v>
       </c>
       <c r="E30" s="1">
+        <v>192832</v>
+      </c>
+      <c r="F30" s="12">
         <v>4</v>
-      </c>
-      <c r="F30" s="12">
-        <v>192832</v>
       </c>
       <c r="G30" s="12">
         <v>1</v>
@@ -5484,7 +5496,7 @@
       <c r="Y30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" s="1" customFormat="1">
+    <row r="31" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -5495,10 +5507,10 @@
         <v>107</v>
       </c>
       <c r="E31" s="1">
+        <v>192643</v>
+      </c>
+      <c r="F31" s="12">
         <v>4</v>
-      </c>
-      <c r="F31" s="12">
-        <v>192643</v>
       </c>
       <c r="G31" s="12">
         <v>1</v>
@@ -5555,7 +5567,7 @@
       <c r="Y31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1">
+    <row r="32" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -5566,10 +5578,10 @@
         <v>109</v>
       </c>
       <c r="E32" s="1">
+        <v>311954</v>
+      </c>
+      <c r="F32" s="12">
         <v>4</v>
-      </c>
-      <c r="F32" s="12">
-        <v>311954</v>
       </c>
       <c r="G32" s="12">
         <v>1</v>
@@ -5626,7 +5638,7 @@
       <c r="Y32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:1024" s="1" customFormat="1">
+    <row r="33" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -5637,10 +5649,10 @@
         <v>111</v>
       </c>
       <c r="E33" s="1">
+        <v>195287</v>
+      </c>
+      <c r="F33" s="12">
         <v>4</v>
-      </c>
-      <c r="F33" s="12">
-        <v>195287</v>
       </c>
       <c r="G33" s="12">
         <v>1</v>
@@ -5697,7 +5709,7 @@
       <c r="Y33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:1024" s="1" customFormat="1">
+    <row r="34" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -5708,10 +5720,10 @@
         <v>113</v>
       </c>
       <c r="E34" s="1">
+        <v>151886</v>
+      </c>
+      <c r="F34" s="12">
         <v>6</v>
-      </c>
-      <c r="F34" s="12">
-        <v>151886</v>
       </c>
       <c r="G34" s="12">
         <v>1</v>
@@ -5768,7 +5780,7 @@
       <c r="Y34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:1024" s="1" customFormat="1">
+    <row r="35" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -5779,10 +5791,10 @@
         <v>115</v>
       </c>
       <c r="E35" s="1">
+        <v>180478</v>
+      </c>
+      <c r="F35" s="12">
         <v>6</v>
-      </c>
-      <c r="F35" s="12">
-        <v>180478</v>
       </c>
       <c r="G35" s="12">
         <v>1</v>
@@ -5839,10 +5851,13 @@
       <c r="Y35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:1024" s="1" customFormat="1">
+    <row r="36" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
       <c r="C36" s="10" t="s">
         <v>116</v>
       </c>
@@ -5850,10 +5865,10 @@
         <v>117</v>
       </c>
       <c r="E36" s="1">
+        <v>179413</v>
+      </c>
+      <c r="F36" s="12">
         <v>6</v>
-      </c>
-      <c r="F36" s="12">
-        <v>179413</v>
       </c>
       <c r="G36" s="12">
         <v>1</v>
@@ -5912,7 +5927,7 @@
       <c r="Y36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:1024" s="1" customFormat="1">
+    <row r="37" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -5923,10 +5938,10 @@
         <v>119</v>
       </c>
       <c r="E37" s="1">
+        <v>142306</v>
+      </c>
+      <c r="F37" s="12">
         <v>6</v>
-      </c>
-      <c r="F37" s="12">
-        <v>142306</v>
       </c>
       <c r="G37" s="12">
         <v>2</v>
@@ -5983,10 +5998,13 @@
       <c r="Y37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:1024" s="1" customFormat="1">
+    <row r="38" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
       <c r="C38" s="10" t="s">
         <v>120</v>
       </c>
@@ -5994,10 +6012,10 @@
         <v>184</v>
       </c>
       <c r="E38" s="1">
+        <v>142880</v>
+      </c>
+      <c r="F38" s="12">
         <v>6</v>
-      </c>
-      <c r="F38" s="12">
-        <v>142880</v>
       </c>
       <c r="G38" s="12">
         <v>2</v>
@@ -6054,7 +6072,7 @@
       <c r="Y38" s="9"/>
       <c r="AA38" s="9"/>
     </row>
-    <row r="39" spans="1:1024" s="1" customFormat="1">
+    <row r="39" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -6065,10 +6083,10 @@
         <v>122</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>151157</v>
       </c>
       <c r="F39" s="12">
-        <v>151157</v>
+        <v>1</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
@@ -6125,7 +6143,7 @@
       <c r="Y39" s="9"/>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="1:1024" s="1" customFormat="1">
+    <row r="40" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -6136,10 +6154,10 @@
         <v>124</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>196958</v>
       </c>
       <c r="F40" s="12">
-        <v>196958</v>
+        <v>1</v>
       </c>
       <c r="G40" s="12">
         <v>1</v>
@@ -6196,7 +6214,7 @@
       <c r="Y40" s="9"/>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="1:1024" s="1" customFormat="1">
+    <row r="41" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -6207,10 +6225,10 @@
         <v>126</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>142396</v>
       </c>
       <c r="F41" s="12">
-        <v>142396</v>
+        <v>1</v>
       </c>
       <c r="G41" s="12">
         <v>2</v>
@@ -6267,7 +6285,7 @@
       <c r="Y41" s="9"/>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="1:1024" s="1" customFormat="1">
+    <row r="42" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
@@ -6278,10 +6296,10 @@
         <v>128</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>137844</v>
       </c>
       <c r="F42" s="12">
-        <v>137844</v>
+        <v>1</v>
       </c>
       <c r="G42" s="12">
         <v>2</v>
@@ -6338,7 +6356,7 @@
       <c r="Y42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:1024" s="1" customFormat="1">
+    <row r="43" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -6352,10 +6370,10 @@
         <v>130</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>142153</v>
       </c>
       <c r="F43" s="12">
-        <v>142153</v>
+        <v>1</v>
       </c>
       <c r="G43" s="12">
         <v>2</v>
@@ -6412,7 +6430,7 @@
       <c r="Y43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:1024">
+    <row r="44" spans="1:1024" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -6426,10 +6444,10 @@
         <v>132</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>268049</v>
       </c>
       <c r="F44" s="12">
-        <v>268049</v>
+        <v>1</v>
       </c>
       <c r="G44" s="12">
         <v>1</v>
@@ -7484,10 +7502,13 @@
       <c r="AMI44" s="1"/>
       <c r="AMJ44" s="1"/>
     </row>
-    <row r="45" spans="1:1024" s="1" customFormat="1">
+    <row r="45" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="30">
         <v>1041</v>
       </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
       <c r="C45" s="10" t="s">
         <v>133</v>
       </c>
@@ -7495,10 +7516,10 @@
         <v>134</v>
       </c>
       <c r="E45" s="1">
+        <v>151159</v>
+      </c>
+      <c r="F45" s="31">
         <v>4</v>
-      </c>
-      <c r="F45" s="31">
-        <v>151159</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -7557,7 +7578,7 @@
       <c r="Y45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:1024" s="1" customFormat="1">
+    <row r="46" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="30">
         <v>1042</v>
       </c>
@@ -7568,10 +7589,10 @@
         <v>136</v>
       </c>
       <c r="E46" s="1">
+        <v>156501</v>
+      </c>
+      <c r="F46" s="31">
         <v>5</v>
-      </c>
-      <c r="F46" s="31">
-        <v>156501</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -7627,7 +7648,7 @@
       <c r="Y46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:1024" s="1" customFormat="1">
+    <row r="47" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="33">
         <v>1043</v>
       </c>
@@ -7638,10 +7659,10 @@
         <v>185</v>
       </c>
       <c r="E47" s="1">
+        <v>324787</v>
+      </c>
+      <c r="F47" s="31">
         <v>4</v>
-      </c>
-      <c r="F47" s="31">
-        <v>324787</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -7697,10 +7718,13 @@
       <c r="Y47" s="9"/>
       <c r="AA47" s="9"/>
     </row>
-    <row r="48" spans="1:1024" s="1" customFormat="1">
+    <row r="48" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="30">
         <v>1044</v>
       </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
       <c r="C48" s="10" t="s">
         <v>138</v>
       </c>
@@ -7708,10 +7732,10 @@
         <v>139</v>
       </c>
       <c r="E48" s="1">
+        <v>192427</v>
+      </c>
+      <c r="F48" s="31">
         <v>4</v>
-      </c>
-      <c r="F48" s="31">
-        <v>192427</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -7767,7 +7791,7 @@
       <c r="Y48" s="9"/>
       <c r="AA48" s="9"/>
     </row>
-    <row r="49" spans="1:27" s="1" customFormat="1">
+    <row r="49" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
@@ -7778,10 +7802,10 @@
         <v>141</v>
       </c>
       <c r="E49" s="1">
+        <v>220755</v>
+      </c>
+      <c r="F49" s="31">
         <v>4</v>
-      </c>
-      <c r="F49" s="31">
-        <v>220755</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -7837,7 +7861,7 @@
       <c r="Y49" s="9"/>
       <c r="AA49" s="9"/>
     </row>
-    <row r="50" spans="1:27" s="1" customFormat="1">
+    <row r="50" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="30">
         <v>1046</v>
       </c>
@@ -7848,10 +7872,10 @@
         <v>143</v>
       </c>
       <c r="E50" s="1">
+        <v>295550</v>
+      </c>
+      <c r="F50" s="31">
         <v>3</v>
-      </c>
-      <c r="F50" s="31">
-        <v>295550</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -7907,7 +7931,7 @@
       <c r="Y50" s="9"/>
       <c r="AA50" s="9"/>
     </row>
-    <row r="51" spans="1:27" s="1" customFormat="1">
+    <row r="51" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="30">
         <v>1047</v>
       </c>
@@ -7918,10 +7942,10 @@
         <v>145</v>
       </c>
       <c r="E51" s="1">
+        <v>143394</v>
+      </c>
+      <c r="F51" s="31">
         <v>6</v>
-      </c>
-      <c r="F51" s="31">
-        <v>143394</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -7977,7 +8001,7 @@
       <c r="Y51" s="9"/>
       <c r="AA51" s="9"/>
     </row>
-    <row r="52" spans="1:27" s="1" customFormat="1">
+    <row r="52" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="30">
         <v>1048</v>
       </c>
@@ -7988,10 +8012,10 @@
         <v>147</v>
       </c>
       <c r="E52" s="1">
+        <v>229674</v>
+      </c>
+      <c r="F52" s="31">
         <v>6</v>
-      </c>
-      <c r="F52" s="31">
-        <v>229674</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -8047,10 +8071,13 @@
       <c r="Y52" s="9"/>
       <c r="AA52" s="9"/>
     </row>
-    <row r="53" spans="1:27" s="1" customFormat="1">
+    <row r="53" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
+      <c r="B53" s="1">
+        <v>5</v>
+      </c>
       <c r="C53" s="10" t="s">
         <v>148</v>
       </c>
@@ -8058,10 +8085,10 @@
         <v>149</v>
       </c>
       <c r="E53" s="1">
+        <v>327983</v>
+      </c>
+      <c r="F53" s="31">
         <v>2</v>
-      </c>
-      <c r="F53" s="31">
-        <v>327983</v>
       </c>
       <c r="G53" s="1">
         <v>2</v>
@@ -8120,7 +8147,7 @@
       <c r="Y53" s="9"/>
       <c r="AA53" s="9"/>
     </row>
-    <row r="54" spans="1:27" s="1" customFormat="1">
+    <row r="54" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>1050</v>
       </c>
@@ -8134,10 +8161,10 @@
         <v>151</v>
       </c>
       <c r="E54" s="1">
+        <v>327808</v>
+      </c>
+      <c r="F54" s="31">
         <v>2</v>
-      </c>
-      <c r="F54" s="31">
-        <v>327808</v>
       </c>
       <c r="G54" s="1">
         <v>2</v>
@@ -8193,7 +8220,7 @@
       <c r="Y54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" s="1" customFormat="1">
+    <row r="55" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="30">
         <v>1051</v>
       </c>
@@ -8204,10 +8231,10 @@
         <v>153</v>
       </c>
       <c r="E55" s="1">
+        <v>142146</v>
+      </c>
+      <c r="F55" s="31">
         <v>5</v>
-      </c>
-      <c r="F55" s="31">
-        <v>142146</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -8263,7 +8290,7 @@
       <c r="Y55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" s="1" customFormat="1">
+    <row r="56" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="30">
         <v>1052</v>
       </c>
@@ -8274,10 +8301,10 @@
         <v>155</v>
       </c>
       <c r="E56" s="1">
+        <v>142145</v>
+      </c>
+      <c r="F56" s="31">
         <v>2</v>
-      </c>
-      <c r="F56" s="31">
-        <v>142145</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -8333,7 +8360,7 @@
       <c r="Y56" s="9"/>
       <c r="AA56" s="9"/>
     </row>
-    <row r="57" spans="1:27" s="1" customFormat="1">
+    <row r="57" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>1053</v>
       </c>
@@ -8344,10 +8371,10 @@
         <v>157</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>142264</v>
       </c>
       <c r="F57" s="31">
-        <v>142264</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>2</v>
@@ -8403,7 +8430,7 @@
       <c r="Y57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" s="1" customFormat="1">
+    <row r="58" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="30">
         <v>1054</v>
       </c>
@@ -8414,10 +8441,10 @@
         <v>159</v>
       </c>
       <c r="E58" s="1">
+        <v>143398</v>
+      </c>
+      <c r="F58" s="31">
         <v>6</v>
-      </c>
-      <c r="F58" s="31">
-        <v>143398</v>
       </c>
       <c r="G58" s="1">
         <v>2</v>
@@ -8473,10 +8500,13 @@
       <c r="Y58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" s="1" customFormat="1" ht="16.2" thickBot="1">
+    <row r="59" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="30">
         <v>1055</v>
       </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
       <c r="C59" s="10" t="s">
         <v>160</v>
       </c>
@@ -8484,10 +8514,10 @@
         <v>161</v>
       </c>
       <c r="E59" s="1">
+        <v>137848</v>
+      </c>
+      <c r="F59" s="31">
         <v>3</v>
-      </c>
-      <c r="F59" s="31">
-        <v>137848</v>
       </c>
       <c r="G59" s="1">
         <v>2</v>
@@ -8543,10 +8573,13 @@
       <c r="Y59" s="9"/>
       <c r="AA59" s="9"/>
     </row>
-    <row r="60" spans="1:27" s="1" customFormat="1" ht="16.2" thickBot="1">
+    <row r="60" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="30">
         <v>1056</v>
       </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
       <c r="C60" s="10" t="s">
         <v>162</v>
       </c>
@@ -8554,10 +8587,10 @@
         <v>163</v>
       </c>
       <c r="E60" s="1">
+        <v>351891</v>
+      </c>
+      <c r="F60" s="31">
         <v>2</v>
-      </c>
-      <c r="F60" s="31">
-        <v>351891</v>
       </c>
       <c r="G60" s="1">
         <v>2</v>
@@ -8613,7 +8646,7 @@
       <c r="Y60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" s="1" customFormat="1" ht="16.2" thickBot="1">
+    <row r="61" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="30">
         <v>1057</v>
       </c>
@@ -8624,10 +8657,10 @@
         <v>165</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>156704</v>
       </c>
       <c r="F61" s="31">
-        <v>156704</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -8683,7 +8716,7 @@
       <c r="Y61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" s="1" customFormat="1">
+    <row r="62" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>1058</v>
       </c>
@@ -8694,10 +8727,10 @@
         <v>167</v>
       </c>
       <c r="E62" s="1">
+        <v>339129</v>
+      </c>
+      <c r="F62" s="31">
         <v>5</v>
-      </c>
-      <c r="F62" s="31">
-        <v>339129</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -8753,10 +8786,13 @@
       <c r="Y62" s="9"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" s="1" customFormat="1">
+    <row r="63" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30">
         <v>1059</v>
       </c>
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
       <c r="C63" s="10" t="s">
         <v>168</v>
       </c>
@@ -8764,10 +8800,10 @@
         <v>169</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>152976</v>
       </c>
       <c r="F63" s="31">
-        <v>152976</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -8826,7 +8862,7 @@
       <c r="Y63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" s="1" customFormat="1">
+    <row r="64" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="34">
         <v>1060</v>
       </c>
@@ -8837,10 +8873,10 @@
         <v>171</v>
       </c>
       <c r="E64" s="1">
+        <v>268048</v>
+      </c>
+      <c r="F64" s="31">
         <v>6</v>
-      </c>
-      <c r="F64" s="31">
-        <v>268048</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -8896,7 +8932,7 @@
       <c r="Y64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" s="1" customFormat="1">
+    <row r="65" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>1061</v>
       </c>
@@ -8907,10 +8943,10 @@
         <v>173</v>
       </c>
       <c r="E65" s="1">
+        <v>182063</v>
+      </c>
+      <c r="F65" s="31">
         <v>4</v>
-      </c>
-      <c r="F65" s="31">
-        <v>182063</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -8966,10 +9002,13 @@
       <c r="Y65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" s="1" customFormat="1">
+    <row r="66" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="30">
         <v>1062</v>
       </c>
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
       <c r="C66" s="10" t="s">
         <v>174</v>
       </c>
@@ -8977,10 +9016,10 @@
         <v>175</v>
       </c>
       <c r="E66" s="46">
+        <v>263895</v>
+      </c>
+      <c r="F66" s="47">
         <v>3</v>
-      </c>
-      <c r="F66" s="47">
-        <v>263895</v>
       </c>
       <c r="G66" s="46">
         <v>1</v>
@@ -9039,7 +9078,7 @@
       <c r="Y66" s="9"/>
       <c r="AA66" s="9"/>
     </row>
-    <row r="67" spans="1:27" s="1" customFormat="1">
+    <row r="67" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="30">
         <v>1063</v>
       </c>
@@ -9050,10 +9089,10 @@
         <v>177</v>
       </c>
       <c r="E67" s="46">
+        <v>155838</v>
+      </c>
+      <c r="F67" s="47">
         <v>4</v>
-      </c>
-      <c r="F67" s="47">
-        <v>155838</v>
       </c>
       <c r="G67" s="46">
         <v>1</v>
@@ -9109,7 +9148,7 @@
       <c r="Y67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" s="1" customFormat="1">
+    <row r="68" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>1064</v>
       </c>
@@ -9120,10 +9159,10 @@
         <v>179</v>
       </c>
       <c r="E68" s="1">
+        <v>310795</v>
+      </c>
+      <c r="F68" s="31">
         <v>3</v>
-      </c>
-      <c r="F68" s="31">
-        <v>310795</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -9179,7 +9218,7 @@
       <c r="Y68" s="9"/>
       <c r="AA68" s="9"/>
     </row>
-    <row r="69" spans="1:27" s="1" customFormat="1">
+    <row r="69" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>1065</v>
       </c>
@@ -9190,10 +9229,10 @@
         <v>181</v>
       </c>
       <c r="E69" s="1">
+        <v>310796</v>
+      </c>
+      <c r="F69" s="31">
         <v>5</v>
-      </c>
-      <c r="F69" s="31">
-        <v>310796</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -9249,7 +9288,7 @@
       <c r="Y69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" s="1" customFormat="1">
+    <row r="70" spans="1:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>1066</v>
       </c>
@@ -9263,10 +9302,10 @@
         <v>183</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>141498</v>
       </c>
       <c r="F70" s="31">
-        <v>141498</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>2</v>
@@ -9322,7 +9361,7 @@
       <c r="Y70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
-    <row r="71" spans="1:27" s="1" customFormat="1">
+    <row r="71" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -9333,7 +9372,7 @@
       <c r="Y71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" s="1" customFormat="1">
+    <row r="72" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -9344,7 +9383,7 @@
       <c r="Y72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" s="1" customFormat="1">
+    <row r="73" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -9355,7 +9394,7 @@
       <c r="Y73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" s="1" customFormat="1">
+    <row r="74" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -9366,7 +9405,7 @@
       <c r="Y74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" s="1" customFormat="1">
+    <row r="75" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -9377,7 +9416,7 @@
       <c r="Y75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" s="1" customFormat="1">
+    <row r="76" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -9388,7 +9427,7 @@
       <c r="Y76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" s="1" customFormat="1">
+    <row r="77" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -9399,7 +9438,7 @@
       <c r="Y77" s="9"/>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" spans="1:27" s="1" customFormat="1">
+    <row r="78" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -9410,7 +9449,7 @@
       <c r="Y78" s="9"/>
       <c r="AA78" s="9"/>
     </row>
-    <row r="79" spans="1:27" s="1" customFormat="1">
+    <row r="79" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -9421,7 +9460,7 @@
       <c r="Y79" s="9"/>
       <c r="AA79" s="9"/>
     </row>
-    <row r="80" spans="1:27" s="1" customFormat="1">
+    <row r="80" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -9432,7 +9471,7 @@
       <c r="Y80" s="9"/>
       <c r="AA80" s="9"/>
     </row>
-    <row r="81" spans="8:27" s="1" customFormat="1">
+    <row r="81" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -9443,7 +9482,7 @@
       <c r="Y81" s="9"/>
       <c r="AA81" s="9"/>
     </row>
-    <row r="82" spans="8:27" s="1" customFormat="1">
+    <row r="82" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -9454,7 +9493,7 @@
       <c r="Y82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
-    <row r="83" spans="8:27" s="1" customFormat="1">
+    <row r="83" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -9465,7 +9504,7 @@
       <c r="Y83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" spans="8:27" s="1" customFormat="1">
+    <row r="84" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -9476,7 +9515,7 @@
       <c r="Y84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" spans="8:27" s="1" customFormat="1">
+    <row r="85" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -9487,7 +9526,7 @@
       <c r="Y85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" spans="8:27" s="1" customFormat="1">
+    <row r="86" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -9498,7 +9537,7 @@
       <c r="Y86" s="9"/>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" spans="8:27" s="1" customFormat="1">
+    <row r="87" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -9509,7 +9548,7 @@
       <c r="Y87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" spans="8:27" s="1" customFormat="1">
+    <row r="88" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -9520,7 +9559,7 @@
       <c r="Y88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" spans="8:27" s="1" customFormat="1">
+    <row r="89" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -9531,7 +9570,7 @@
       <c r="Y89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
-    <row r="90" spans="8:27" s="1" customFormat="1">
+    <row r="90" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -9542,7 +9581,7 @@
       <c r="Y90" s="9"/>
       <c r="AA90" s="9"/>
     </row>
-    <row r="91" spans="8:27" s="1" customFormat="1">
+    <row r="91" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -9553,7 +9592,7 @@
       <c r="Y91" s="9"/>
       <c r="AA91" s="9"/>
     </row>
-    <row r="92" spans="8:27" s="1" customFormat="1">
+    <row r="92" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -9564,7 +9603,7 @@
       <c r="Y92" s="9"/>
       <c r="AA92" s="9"/>
     </row>
-    <row r="93" spans="8:27" s="1" customFormat="1">
+    <row r="93" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -9575,7 +9614,7 @@
       <c r="Y93" s="9"/>
       <c r="AA93" s="9"/>
     </row>
-    <row r="94" spans="8:27" s="1" customFormat="1">
+    <row r="94" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -9586,7 +9625,7 @@
       <c r="Y94" s="9"/>
       <c r="AA94" s="9"/>
     </row>
-    <row r="95" spans="8:27" s="1" customFormat="1">
+    <row r="95" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -9597,7 +9636,7 @@
       <c r="Y95" s="9"/>
       <c r="AA95" s="9"/>
     </row>
-    <row r="96" spans="8:27" s="1" customFormat="1">
+    <row r="96" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -9608,7 +9647,7 @@
       <c r="Y96" s="9"/>
       <c r="AA96" s="9"/>
     </row>
-    <row r="97" spans="8:27" s="1" customFormat="1">
+    <row r="97" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -9619,7 +9658,7 @@
       <c r="Y97" s="9"/>
       <c r="AA97" s="9"/>
     </row>
-    <row r="98" spans="8:27" s="1" customFormat="1">
+    <row r="98" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -9630,7 +9669,7 @@
       <c r="Y98" s="9"/>
       <c r="AA98" s="9"/>
     </row>
-    <row r="99" spans="8:27" s="1" customFormat="1">
+    <row r="99" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -9641,7 +9680,7 @@
       <c r="Y99" s="9"/>
       <c r="AA99" s="9"/>
     </row>
-    <row r="100" spans="8:27" s="1" customFormat="1">
+    <row r="100" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -9652,7 +9691,7 @@
       <c r="Y100" s="9"/>
       <c r="AA100" s="9"/>
     </row>
-    <row r="101" spans="8:27" s="1" customFormat="1">
+    <row r="101" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -9663,7 +9702,7 @@
       <c r="Y101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="8:27" s="1" customFormat="1">
+    <row r="102" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -9674,7 +9713,7 @@
       <c r="Y102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="8:27" s="1" customFormat="1">
+    <row r="103" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -9685,7 +9724,7 @@
       <c r="Y103" s="9"/>
       <c r="AA103" s="9"/>
     </row>
-    <row r="104" spans="8:27" s="1" customFormat="1">
+    <row r="104" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -9696,7 +9735,7 @@
       <c r="Y104" s="9"/>
       <c r="AA104" s="9"/>
     </row>
-    <row r="105" spans="8:27" s="1" customFormat="1">
+    <row r="105" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -9707,7 +9746,7 @@
       <c r="Y105" s="9"/>
       <c r="AA105" s="9"/>
     </row>
-    <row r="106" spans="8:27" s="1" customFormat="1">
+    <row r="106" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -9718,7 +9757,7 @@
       <c r="Y106" s="9"/>
       <c r="AA106" s="9"/>
     </row>
-    <row r="107" spans="8:27" s="1" customFormat="1">
+    <row r="107" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -9729,7 +9768,7 @@
       <c r="Y107" s="9"/>
       <c r="AA107" s="9"/>
     </row>
-    <row r="108" spans="8:27" s="1" customFormat="1">
+    <row r="108" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -9740,7 +9779,7 @@
       <c r="Y108" s="9"/>
       <c r="AA108" s="9"/>
     </row>
-    <row r="109" spans="8:27" s="1" customFormat="1">
+    <row r="109" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -9751,7 +9790,7 @@
       <c r="Y109" s="9"/>
       <c r="AA109" s="9"/>
     </row>
-    <row r="110" spans="8:27" s="1" customFormat="1">
+    <row r="110" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
@@ -9762,7 +9801,7 @@
       <c r="Y110" s="9"/>
       <c r="AA110" s="9"/>
     </row>
-    <row r="111" spans="8:27" s="1" customFormat="1">
+    <row r="111" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -9773,7 +9812,7 @@
       <c r="Y111" s="9"/>
       <c r="AA111" s="9"/>
     </row>
-    <row r="112" spans="8:27" s="1" customFormat="1">
+    <row r="112" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -9784,7 +9823,7 @@
       <c r="Y112" s="9"/>
       <c r="AA112" s="9"/>
     </row>
-    <row r="113" spans="8:27" s="1" customFormat="1">
+    <row r="113" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
@@ -9795,7 +9834,7 @@
       <c r="Y113" s="9"/>
       <c r="AA113" s="9"/>
     </row>
-    <row r="114" spans="8:27" s="1" customFormat="1">
+    <row r="114" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -9806,7 +9845,7 @@
       <c r="Y114" s="9"/>
       <c r="AA114" s="9"/>
     </row>
-    <row r="115" spans="8:27" s="1" customFormat="1">
+    <row r="115" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -9817,7 +9856,7 @@
       <c r="Y115" s="9"/>
       <c r="AA115" s="9"/>
     </row>
-    <row r="116" spans="8:27" s="1" customFormat="1">
+    <row r="116" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -9828,7 +9867,7 @@
       <c r="Y116" s="9"/>
       <c r="AA116" s="9"/>
     </row>
-    <row r="117" spans="8:27" s="1" customFormat="1">
+    <row r="117" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -9839,7 +9878,7 @@
       <c r="Y117" s="9"/>
       <c r="AA117" s="9"/>
     </row>
-    <row r="118" spans="8:27" s="1" customFormat="1">
+    <row r="118" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -9850,7 +9889,7 @@
       <c r="Y118" s="9"/>
       <c r="AA118" s="9"/>
     </row>
-    <row r="119" spans="8:27" s="1" customFormat="1">
+    <row r="119" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -9861,7 +9900,7 @@
       <c r="Y119" s="9"/>
       <c r="AA119" s="9"/>
     </row>
-    <row r="120" spans="8:27" s="1" customFormat="1">
+    <row r="120" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
@@ -9872,7 +9911,7 @@
       <c r="Y120" s="9"/>
       <c r="AA120" s="9"/>
     </row>
-    <row r="121" spans="8:27" s="1" customFormat="1">
+    <row r="121" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -9883,7 +9922,7 @@
       <c r="Y121" s="9"/>
       <c r="AA121" s="9"/>
     </row>
-    <row r="122" spans="8:27" s="1" customFormat="1">
+    <row r="122" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -9894,7 +9933,7 @@
       <c r="Y122" s="9"/>
       <c r="AA122" s="9"/>
     </row>
-    <row r="123" spans="8:27" s="1" customFormat="1">
+    <row r="123" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -9905,7 +9944,7 @@
       <c r="Y123" s="9"/>
       <c r="AA123" s="9"/>
     </row>
-    <row r="124" spans="8:27" s="1" customFormat="1">
+    <row r="124" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
@@ -9916,7 +9955,7 @@
       <c r="Y124" s="9"/>
       <c r="AA124" s="9"/>
     </row>
-    <row r="125" spans="8:27" s="1" customFormat="1">
+    <row r="125" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -9927,7 +9966,7 @@
       <c r="Y125" s="9"/>
       <c r="AA125" s="9"/>
     </row>
-    <row r="126" spans="8:27" s="1" customFormat="1">
+    <row r="126" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -9938,7 +9977,7 @@
       <c r="Y126" s="9"/>
       <c r="AA126" s="9"/>
     </row>
-    <row r="127" spans="8:27" s="1" customFormat="1">
+    <row r="127" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -9949,7 +9988,7 @@
       <c r="Y127" s="9"/>
       <c r="AA127" s="9"/>
     </row>
-    <row r="128" spans="8:27" s="1" customFormat="1">
+    <row r="128" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
@@ -9960,7 +9999,7 @@
       <c r="Y128" s="9"/>
       <c r="AA128" s="9"/>
     </row>
-    <row r="129" spans="8:27" s="1" customFormat="1">
+    <row r="129" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -9971,7 +10010,7 @@
       <c r="Y129" s="9"/>
       <c r="AA129" s="9"/>
     </row>
-    <row r="130" spans="8:27" s="1" customFormat="1">
+    <row r="130" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
@@ -9982,7 +10021,7 @@
       <c r="Y130" s="9"/>
       <c r="AA130" s="9"/>
     </row>
-    <row r="131" spans="8:27" s="1" customFormat="1">
+    <row r="131" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
@@ -9993,7 +10032,7 @@
       <c r="Y131" s="9"/>
       <c r="AA131" s="9"/>
     </row>
-    <row r="132" spans="8:27" s="1" customFormat="1">
+    <row r="132" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -10004,7 +10043,7 @@
       <c r="Y132" s="9"/>
       <c r="AA132" s="9"/>
     </row>
-    <row r="133" spans="8:27" s="1" customFormat="1">
+    <row r="133" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -10015,7 +10054,7 @@
       <c r="Y133" s="9"/>
       <c r="AA133" s="9"/>
     </row>
-    <row r="134" spans="8:27" s="1" customFormat="1">
+    <row r="134" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -10026,7 +10065,7 @@
       <c r="Y134" s="9"/>
       <c r="AA134" s="9"/>
     </row>
-    <row r="135" spans="8:27" s="1" customFormat="1">
+    <row r="135" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -10037,7 +10076,7 @@
       <c r="Y135" s="9"/>
       <c r="AA135" s="9"/>
     </row>
-    <row r="136" spans="8:27" s="1" customFormat="1">
+    <row r="136" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -10048,7 +10087,7 @@
       <c r="Y136" s="9"/>
       <c r="AA136" s="9"/>
     </row>
-    <row r="137" spans="8:27" s="1" customFormat="1">
+    <row r="137" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -10059,7 +10098,7 @@
       <c r="Y137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="8:27" s="1" customFormat="1">
+    <row r="138" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -10070,7 +10109,7 @@
       <c r="Y138" s="9"/>
       <c r="AA138" s="9"/>
     </row>
-    <row r="139" spans="8:27" s="1" customFormat="1">
+    <row r="139" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -10081,7 +10120,7 @@
       <c r="Y139" s="9"/>
       <c r="AA139" s="9"/>
     </row>
-    <row r="140" spans="8:27" s="1" customFormat="1">
+    <row r="140" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -10092,7 +10131,7 @@
       <c r="Y140" s="9"/>
       <c r="AA140" s="9"/>
     </row>
-    <row r="141" spans="8:27" s="1" customFormat="1">
+    <row r="141" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -10103,7 +10142,7 @@
       <c r="Y141" s="9"/>
       <c r="AA141" s="9"/>
     </row>
-    <row r="142" spans="8:27" s="1" customFormat="1">
+    <row r="142" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
@@ -10114,7 +10153,7 @@
       <c r="Y142" s="9"/>
       <c r="AA142" s="9"/>
     </row>
-    <row r="143" spans="8:27" s="1" customFormat="1">
+    <row r="143" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -10125,7 +10164,7 @@
       <c r="Y143" s="9"/>
       <c r="AA143" s="9"/>
     </row>
-    <row r="144" spans="8:27" s="1" customFormat="1">
+    <row r="144" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -10136,7 +10175,7 @@
       <c r="Y144" s="9"/>
       <c r="AA144" s="9"/>
     </row>
-    <row r="145" spans="8:27" s="1" customFormat="1">
+    <row r="145" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
@@ -10147,7 +10186,7 @@
       <c r="Y145" s="9"/>
       <c r="AA145" s="9"/>
     </row>
-    <row r="146" spans="8:27" s="1" customFormat="1">
+    <row r="146" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
@@ -10158,7 +10197,7 @@
       <c r="Y146" s="9"/>
       <c r="AA146" s="9"/>
     </row>
-    <row r="147" spans="8:27" s="1" customFormat="1">
+    <row r="147" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
@@ -10169,7 +10208,7 @@
       <c r="Y147" s="9"/>
       <c r="AA147" s="9"/>
     </row>
-    <row r="148" spans="8:27" s="1" customFormat="1">
+    <row r="148" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -10180,7 +10219,7 @@
       <c r="Y148" s="9"/>
       <c r="AA148" s="9"/>
     </row>
-    <row r="149" spans="8:27" s="1" customFormat="1">
+    <row r="149" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -10191,7 +10230,7 @@
       <c r="Y149" s="9"/>
       <c r="AA149" s="9"/>
     </row>
-    <row r="150" spans="8:27" s="1" customFormat="1">
+    <row r="150" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -10202,7 +10241,7 @@
       <c r="Y150" s="9"/>
       <c r="AA150" s="9"/>
     </row>
-    <row r="151" spans="8:27" s="1" customFormat="1">
+    <row r="151" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
@@ -10213,7 +10252,7 @@
       <c r="Y151" s="9"/>
       <c r="AA151" s="9"/>
     </row>
-    <row r="152" spans="8:27" s="1" customFormat="1">
+    <row r="152" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -10224,7 +10263,7 @@
       <c r="Y152" s="9"/>
       <c r="AA152" s="9"/>
     </row>
-    <row r="153" spans="8:27" s="1" customFormat="1">
+    <row r="153" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -10235,7 +10274,7 @@
       <c r="Y153" s="9"/>
       <c r="AA153" s="9"/>
     </row>
-    <row r="154" spans="8:27" s="1" customFormat="1">
+    <row r="154" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -10246,7 +10285,7 @@
       <c r="Y154" s="9"/>
       <c r="AA154" s="9"/>
     </row>
-    <row r="155" spans="8:27" s="1" customFormat="1">
+    <row r="155" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -10257,7 +10296,7 @@
       <c r="Y155" s="9"/>
       <c r="AA155" s="9"/>
     </row>
-    <row r="156" spans="8:27" s="1" customFormat="1">
+    <row r="156" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -10268,7 +10307,7 @@
       <c r="Y156" s="9"/>
       <c r="AA156" s="9"/>
     </row>
-    <row r="157" spans="8:27" s="1" customFormat="1">
+    <row r="157" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
@@ -10279,7 +10318,7 @@
       <c r="Y157" s="9"/>
       <c r="AA157" s="9"/>
     </row>
-    <row r="158" spans="8:27" s="1" customFormat="1">
+    <row r="158" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -10290,7 +10329,7 @@
       <c r="Y158" s="9"/>
       <c r="AA158" s="9"/>
     </row>
-    <row r="159" spans="8:27" s="1" customFormat="1">
+    <row r="159" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10301,7 +10340,7 @@
       <c r="Y159" s="9"/>
       <c r="AA159" s="9"/>
     </row>
-    <row r="160" spans="8:27" s="1" customFormat="1">
+    <row r="160" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10312,7 +10351,7 @@
       <c r="Y160" s="9"/>
       <c r="AA160" s="9"/>
     </row>
-    <row r="161" spans="8:27" s="1" customFormat="1">
+    <row r="161" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10323,7 +10362,7 @@
       <c r="Y161" s="9"/>
       <c r="AA161" s="9"/>
     </row>
-    <row r="162" spans="8:27" s="1" customFormat="1">
+    <row r="162" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10334,7 +10373,7 @@
       <c r="Y162" s="9"/>
       <c r="AA162" s="9"/>
     </row>
-    <row r="163" spans="8:27" s="1" customFormat="1">
+    <row r="163" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10345,7 +10384,7 @@
       <c r="Y163" s="9"/>
       <c r="AA163" s="9"/>
     </row>
-    <row r="164" spans="8:27" s="1" customFormat="1">
+    <row r="164" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10356,7 +10395,7 @@
       <c r="Y164" s="9"/>
       <c r="AA164" s="9"/>
     </row>
-    <row r="165" spans="8:27" s="1" customFormat="1">
+    <row r="165" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10367,7 +10406,7 @@
       <c r="Y165" s="9"/>
       <c r="AA165" s="9"/>
     </row>
-    <row r="166" spans="8:27" s="1" customFormat="1">
+    <row r="166" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10378,7 +10417,7 @@
       <c r="Y166" s="9"/>
       <c r="AA166" s="9"/>
     </row>
-    <row r="167" spans="8:27" s="1" customFormat="1">
+    <row r="167" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10389,7 +10428,7 @@
       <c r="Y167" s="9"/>
       <c r="AA167" s="9"/>
     </row>
-    <row r="168" spans="8:27" s="1" customFormat="1">
+    <row r="168" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10400,7 +10439,7 @@
       <c r="Y168" s="9"/>
       <c r="AA168" s="9"/>
     </row>
-    <row r="169" spans="8:27" s="1" customFormat="1">
+    <row r="169" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10411,7 +10450,7 @@
       <c r="Y169" s="9"/>
       <c r="AA169" s="9"/>
     </row>
-    <row r="170" spans="8:27" s="1" customFormat="1">
+    <row r="170" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10422,7 +10461,7 @@
       <c r="Y170" s="9"/>
       <c r="AA170" s="9"/>
     </row>
-    <row r="171" spans="8:27" s="1" customFormat="1">
+    <row r="171" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -10433,7 +10472,7 @@
       <c r="Y171" s="9"/>
       <c r="AA171" s="9"/>
     </row>
-    <row r="172" spans="8:27" s="1" customFormat="1">
+    <row r="172" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -10444,7 +10483,7 @@
       <c r="Y172" s="9"/>
       <c r="AA172" s="9"/>
     </row>
-    <row r="173" spans="8:27" s="1" customFormat="1">
+    <row r="173" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10455,7 +10494,7 @@
       <c r="Y173" s="9"/>
       <c r="AA173" s="9"/>
     </row>
-    <row r="174" spans="8:27" s="1" customFormat="1">
+    <row r="174" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -10466,7 +10505,7 @@
       <c r="Y174" s="9"/>
       <c r="AA174" s="9"/>
     </row>
-    <row r="175" spans="8:27" s="1" customFormat="1">
+    <row r="175" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -10477,7 +10516,7 @@
       <c r="Y175" s="9"/>
       <c r="AA175" s="9"/>
     </row>
-    <row r="176" spans="8:27" s="1" customFormat="1">
+    <row r="176" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -10488,7 +10527,7 @@
       <c r="Y176" s="9"/>
       <c r="AA176" s="9"/>
     </row>
-    <row r="177" spans="8:27" s="1" customFormat="1">
+    <row r="177" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
@@ -10499,7 +10538,7 @@
       <c r="Y177" s="9"/>
       <c r="AA177" s="9"/>
     </row>
-    <row r="178" spans="8:27" s="1" customFormat="1">
+    <row r="178" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -10510,7 +10549,7 @@
       <c r="Y178" s="9"/>
       <c r="AA178" s="9"/>
     </row>
-    <row r="179" spans="8:27" s="1" customFormat="1">
+    <row r="179" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -10521,7 +10560,7 @@
       <c r="Y179" s="9"/>
       <c r="AA179" s="9"/>
     </row>
-    <row r="180" spans="8:27" s="1" customFormat="1">
+    <row r="180" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -10532,7 +10571,7 @@
       <c r="Y180" s="9"/>
       <c r="AA180" s="9"/>
     </row>
-    <row r="181" spans="8:27" s="1" customFormat="1">
+    <row r="181" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
@@ -10543,7 +10582,7 @@
       <c r="Y181" s="9"/>
       <c r="AA181" s="9"/>
     </row>
-    <row r="182" spans="8:27" s="1" customFormat="1">
+    <row r="182" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -10554,7 +10593,7 @@
       <c r="Y182" s="9"/>
       <c r="AA182" s="9"/>
     </row>
-    <row r="183" spans="8:27" s="1" customFormat="1">
+    <row r="183" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
@@ -10565,7 +10604,7 @@
       <c r="Y183" s="9"/>
       <c r="AA183" s="9"/>
     </row>
-    <row r="184" spans="8:27" s="1" customFormat="1">
+    <row r="184" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -10576,7 +10615,7 @@
       <c r="Y184" s="9"/>
       <c r="AA184" s="9"/>
     </row>
-    <row r="185" spans="8:27" s="1" customFormat="1">
+    <row r="185" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -10587,7 +10626,7 @@
       <c r="Y185" s="9"/>
       <c r="AA185" s="9"/>
     </row>
-    <row r="186" spans="8:27" s="1" customFormat="1">
+    <row r="186" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
@@ -10598,7 +10637,7 @@
       <c r="Y186" s="9"/>
       <c r="AA186" s="9"/>
     </row>
-    <row r="187" spans="8:27" s="1" customFormat="1">
+    <row r="187" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
@@ -10609,7 +10648,7 @@
       <c r="Y187" s="9"/>
       <c r="AA187" s="9"/>
     </row>
-    <row r="188" spans="8:27" s="1" customFormat="1">
+    <row r="188" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
@@ -10620,7 +10659,7 @@
       <c r="Y188" s="9"/>
       <c r="AA188" s="9"/>
     </row>
-    <row r="189" spans="8:27" s="1" customFormat="1">
+    <row r="189" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -10631,7 +10670,7 @@
       <c r="Y189" s="9"/>
       <c r="AA189" s="9"/>
     </row>
-    <row r="190" spans="8:27" s="1" customFormat="1">
+    <row r="190" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -10642,7 +10681,7 @@
       <c r="Y190" s="9"/>
       <c r="AA190" s="9"/>
     </row>
-    <row r="191" spans="8:27" s="1" customFormat="1">
+    <row r="191" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
@@ -10653,7 +10692,7 @@
       <c r="Y191" s="9"/>
       <c r="AA191" s="9"/>
     </row>
-    <row r="192" spans="8:27" s="1" customFormat="1">
+    <row r="192" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
@@ -10664,7 +10703,7 @@
       <c r="Y192" s="9"/>
       <c r="AA192" s="9"/>
     </row>
-    <row r="193" spans="8:27" s="1" customFormat="1">
+    <row r="193" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
@@ -10675,7 +10714,7 @@
       <c r="Y193" s="9"/>
       <c r="AA193" s="9"/>
     </row>
-    <row r="194" spans="8:27" s="1" customFormat="1">
+    <row r="194" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -10686,7 +10725,7 @@
       <c r="Y194" s="9"/>
       <c r="AA194" s="9"/>
     </row>
-    <row r="195" spans="8:27" s="1" customFormat="1">
+    <row r="195" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -10697,7 +10736,7 @@
       <c r="Y195" s="9"/>
       <c r="AA195" s="9"/>
     </row>
-    <row r="196" spans="8:27" s="1" customFormat="1">
+    <row r="196" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -10708,7 +10747,7 @@
       <c r="Y196" s="9"/>
       <c r="AA196" s="9"/>
     </row>
-    <row r="197" spans="8:27" s="1" customFormat="1">
+    <row r="197" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
@@ -10719,7 +10758,7 @@
       <c r="Y197" s="9"/>
       <c r="AA197" s="9"/>
     </row>
-    <row r="198" spans="8:27" s="1" customFormat="1">
+    <row r="198" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
@@ -10730,7 +10769,7 @@
       <c r="Y198" s="9"/>
       <c r="AA198" s="9"/>
     </row>
-    <row r="199" spans="8:27" s="1" customFormat="1">
+    <row r="199" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
@@ -10741,7 +10780,7 @@
       <c r="Y199" s="9"/>
       <c r="AA199" s="9"/>
     </row>
-    <row r="200" spans="8:27" s="1" customFormat="1">
+    <row r="200" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -10752,7 +10791,7 @@
       <c r="Y200" s="9"/>
       <c r="AA200" s="9"/>
     </row>
-    <row r="201" spans="8:27" s="1" customFormat="1">
+    <row r="201" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
@@ -10763,7 +10802,7 @@
       <c r="Y201" s="9"/>
       <c r="AA201" s="9"/>
     </row>
-    <row r="202" spans="8:27" s="1" customFormat="1">
+    <row r="202" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
@@ -10774,7 +10813,7 @@
       <c r="Y202" s="9"/>
       <c r="AA202" s="9"/>
     </row>
-    <row r="203" spans="8:27" s="1" customFormat="1">
+    <row r="203" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
@@ -10785,7 +10824,7 @@
       <c r="Y203" s="9"/>
       <c r="AA203" s="9"/>
     </row>
-    <row r="204" spans="8:27" s="1" customFormat="1">
+    <row r="204" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
@@ -10796,7 +10835,7 @@
       <c r="Y204" s="9"/>
       <c r="AA204" s="9"/>
     </row>
-    <row r="205" spans="8:27" s="1" customFormat="1">
+    <row r="205" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
@@ -10807,7 +10846,7 @@
       <c r="Y205" s="9"/>
       <c r="AA205" s="9"/>
     </row>
-    <row r="206" spans="8:27" s="1" customFormat="1">
+    <row r="206" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
@@ -10818,7 +10857,7 @@
       <c r="Y206" s="9"/>
       <c r="AA206" s="9"/>
     </row>
-    <row r="207" spans="8:27" s="1" customFormat="1">
+    <row r="207" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
@@ -10829,7 +10868,7 @@
       <c r="Y207" s="9"/>
       <c r="AA207" s="9"/>
     </row>
-    <row r="208" spans="8:27" s="1" customFormat="1">
+    <row r="208" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
@@ -10840,7 +10879,7 @@
       <c r="Y208" s="9"/>
       <c r="AA208" s="9"/>
     </row>
-    <row r="209" spans="8:27" s="1" customFormat="1">
+    <row r="209" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
@@ -10851,7 +10890,7 @@
       <c r="Y209" s="9"/>
       <c r="AA209" s="9"/>
     </row>
-    <row r="210" spans="8:27" s="1" customFormat="1">
+    <row r="210" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
@@ -10862,7 +10901,7 @@
       <c r="Y210" s="9"/>
       <c r="AA210" s="9"/>
     </row>
-    <row r="211" spans="8:27" s="1" customFormat="1">
+    <row r="211" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
@@ -10873,7 +10912,7 @@
       <c r="Y211" s="9"/>
       <c r="AA211" s="9"/>
     </row>
-    <row r="212" spans="8:27" s="1" customFormat="1">
+    <row r="212" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
@@ -10884,7 +10923,7 @@
       <c r="Y212" s="9"/>
       <c r="AA212" s="9"/>
     </row>
-    <row r="213" spans="8:27" s="1" customFormat="1">
+    <row r="213" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
@@ -10895,7 +10934,7 @@
       <c r="Y213" s="9"/>
       <c r="AA213" s="9"/>
     </row>
-    <row r="214" spans="8:27" s="1" customFormat="1">
+    <row r="214" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
@@ -10906,7 +10945,7 @@
       <c r="Y214" s="9"/>
       <c r="AA214" s="9"/>
     </row>
-    <row r="215" spans="8:27" s="1" customFormat="1">
+    <row r="215" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
@@ -10917,7 +10956,7 @@
       <c r="Y215" s="9"/>
       <c r="AA215" s="9"/>
     </row>
-    <row r="216" spans="8:27" s="1" customFormat="1">
+    <row r="216" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
@@ -10928,7 +10967,7 @@
       <c r="Y216" s="9"/>
       <c r="AA216" s="9"/>
     </row>
-    <row r="217" spans="8:27" s="1" customFormat="1">
+    <row r="217" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
@@ -10939,7 +10978,7 @@
       <c r="Y217" s="9"/>
       <c r="AA217" s="9"/>
     </row>
-    <row r="218" spans="8:27" s="1" customFormat="1">
+    <row r="218" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
@@ -10950,7 +10989,7 @@
       <c r="Y218" s="9"/>
       <c r="AA218" s="9"/>
     </row>
-    <row r="219" spans="8:27" s="1" customFormat="1">
+    <row r="219" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
@@ -10961,7 +11000,7 @@
       <c r="Y219" s="9"/>
       <c r="AA219" s="9"/>
     </row>
-    <row r="220" spans="8:27" s="1" customFormat="1">
+    <row r="220" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
@@ -10972,7 +11011,7 @@
       <c r="Y220" s="9"/>
       <c r="AA220" s="9"/>
     </row>
-    <row r="221" spans="8:27" s="1" customFormat="1">
+    <row r="221" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
@@ -10983,7 +11022,7 @@
       <c r="Y221" s="9"/>
       <c r="AA221" s="9"/>
     </row>
-    <row r="222" spans="8:27" s="1" customFormat="1">
+    <row r="222" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
@@ -10994,7 +11033,7 @@
       <c r="Y222" s="9"/>
       <c r="AA222" s="9"/>
     </row>
-    <row r="223" spans="8:27" s="1" customFormat="1">
+    <row r="223" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
@@ -11005,7 +11044,7 @@
       <c r="Y223" s="9"/>
       <c r="AA223" s="9"/>
     </row>
-    <row r="224" spans="8:27" s="1" customFormat="1">
+    <row r="224" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
@@ -11016,7 +11055,7 @@
       <c r="Y224" s="9"/>
       <c r="AA224" s="9"/>
     </row>
-    <row r="225" spans="8:27" s="1" customFormat="1">
+    <row r="225" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
@@ -11027,7 +11066,7 @@
       <c r="Y225" s="9"/>
       <c r="AA225" s="9"/>
     </row>
-    <row r="226" spans="8:27" s="1" customFormat="1">
+    <row r="226" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
@@ -11038,7 +11077,7 @@
       <c r="Y226" s="9"/>
       <c r="AA226" s="9"/>
     </row>
-    <row r="227" spans="8:27" s="1" customFormat="1">
+    <row r="227" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
@@ -11049,7 +11088,7 @@
       <c r="Y227" s="9"/>
       <c r="AA227" s="9"/>
     </row>
-    <row r="228" spans="8:27" s="1" customFormat="1">
+    <row r="228" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
@@ -11060,7 +11099,7 @@
       <c r="Y228" s="9"/>
       <c r="AA228" s="9"/>
     </row>
-    <row r="229" spans="8:27" s="1" customFormat="1">
+    <row r="229" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
@@ -11071,7 +11110,7 @@
       <c r="Y229" s="9"/>
       <c r="AA229" s="9"/>
     </row>
-    <row r="230" spans="8:27" s="1" customFormat="1">
+    <row r="230" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
@@ -11082,7 +11121,7 @@
       <c r="Y230" s="9"/>
       <c r="AA230" s="9"/>
     </row>
-    <row r="231" spans="8:27" s="1" customFormat="1">
+    <row r="231" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
@@ -11093,7 +11132,7 @@
       <c r="Y231" s="9"/>
       <c r="AA231" s="9"/>
     </row>
-    <row r="232" spans="8:27" s="1" customFormat="1">
+    <row r="232" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
@@ -11104,7 +11143,7 @@
       <c r="Y232" s="9"/>
       <c r="AA232" s="9"/>
     </row>
-    <row r="233" spans="8:27" s="1" customFormat="1">
+    <row r="233" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
@@ -11115,7 +11154,7 @@
       <c r="Y233" s="9"/>
       <c r="AA233" s="9"/>
     </row>
-    <row r="234" spans="8:27" s="1" customFormat="1">
+    <row r="234" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
@@ -11126,7 +11165,7 @@
       <c r="Y234" s="9"/>
       <c r="AA234" s="9"/>
     </row>
-    <row r="235" spans="8:27" s="1" customFormat="1">
+    <row r="235" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
@@ -11137,7 +11176,7 @@
       <c r="Y235" s="9"/>
       <c r="AA235" s="9"/>
     </row>
-    <row r="236" spans="8:27" s="1" customFormat="1">
+    <row r="236" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
@@ -11148,7 +11187,7 @@
       <c r="Y236" s="9"/>
       <c r="AA236" s="9"/>
     </row>
-    <row r="237" spans="8:27" s="1" customFormat="1">
+    <row r="237" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
@@ -11159,7 +11198,7 @@
       <c r="Y237" s="9"/>
       <c r="AA237" s="9"/>
     </row>
-    <row r="238" spans="8:27" s="1" customFormat="1">
+    <row r="238" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
@@ -11170,7 +11209,7 @@
       <c r="Y238" s="9"/>
       <c r="AA238" s="9"/>
     </row>
-    <row r="239" spans="8:27" s="1" customFormat="1">
+    <row r="239" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
@@ -11181,7 +11220,7 @@
       <c r="Y239" s="9"/>
       <c r="AA239" s="9"/>
     </row>
-    <row r="240" spans="8:27" s="1" customFormat="1">
+    <row r="240" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
@@ -11192,7 +11231,7 @@
       <c r="Y240" s="9"/>
       <c r="AA240" s="9"/>
     </row>
-    <row r="241" spans="8:27" s="1" customFormat="1">
+    <row r="241" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
@@ -11203,7 +11242,7 @@
       <c r="Y241" s="9"/>
       <c r="AA241" s="9"/>
     </row>
-    <row r="242" spans="8:27" s="1" customFormat="1">
+    <row r="242" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
@@ -11214,7 +11253,7 @@
       <c r="Y242" s="9"/>
       <c r="AA242" s="9"/>
     </row>
-    <row r="243" spans="8:27" s="1" customFormat="1">
+    <row r="243" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
@@ -11225,7 +11264,7 @@
       <c r="Y243" s="9"/>
       <c r="AA243" s="9"/>
     </row>
-    <row r="244" spans="8:27" s="1" customFormat="1">
+    <row r="244" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
@@ -11236,7 +11275,7 @@
       <c r="Y244" s="9"/>
       <c r="AA244" s="9"/>
     </row>
-    <row r="245" spans="8:27" s="1" customFormat="1">
+    <row r="245" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
@@ -11247,7 +11286,7 @@
       <c r="Y245" s="9"/>
       <c r="AA245" s="9"/>
     </row>
-    <row r="246" spans="8:27" s="1" customFormat="1">
+    <row r="246" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
@@ -11258,7 +11297,7 @@
       <c r="Y246" s="9"/>
       <c r="AA246" s="9"/>
     </row>
-    <row r="247" spans="8:27" s="1" customFormat="1">
+    <row r="247" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
@@ -11269,7 +11308,7 @@
       <c r="Y247" s="9"/>
       <c r="AA247" s="9"/>
     </row>
-    <row r="248" spans="8:27" s="1" customFormat="1">
+    <row r="248" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
@@ -11280,7 +11319,7 @@
       <c r="Y248" s="9"/>
       <c r="AA248" s="9"/>
     </row>
-    <row r="249" spans="8:27" s="1" customFormat="1">
+    <row r="249" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
@@ -11291,7 +11330,7 @@
       <c r="Y249" s="9"/>
       <c r="AA249" s="9"/>
     </row>
-    <row r="250" spans="8:27" s="1" customFormat="1">
+    <row r="250" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
@@ -11302,7 +11341,7 @@
       <c r="Y250" s="9"/>
       <c r="AA250" s="9"/>
     </row>
-    <row r="251" spans="8:27" s="1" customFormat="1">
+    <row r="251" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
@@ -11313,7 +11352,7 @@
       <c r="Y251" s="9"/>
       <c r="AA251" s="9"/>
     </row>
-    <row r="252" spans="8:27" s="1" customFormat="1">
+    <row r="252" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
@@ -11324,7 +11363,7 @@
       <c r="Y252" s="9"/>
       <c r="AA252" s="9"/>
     </row>
-    <row r="253" spans="8:27" s="1" customFormat="1">
+    <row r="253" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
@@ -11335,7 +11374,7 @@
       <c r="Y253" s="9"/>
       <c r="AA253" s="9"/>
     </row>
-    <row r="254" spans="8:27" s="1" customFormat="1">
+    <row r="254" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
@@ -11346,7 +11385,7 @@
       <c r="Y254" s="9"/>
       <c r="AA254" s="9"/>
     </row>
-    <row r="255" spans="8:27" s="1" customFormat="1">
+    <row r="255" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
@@ -11357,7 +11396,7 @@
       <c r="Y255" s="9"/>
       <c r="AA255" s="9"/>
     </row>
-    <row r="256" spans="8:27" s="1" customFormat="1">
+    <row r="256" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
@@ -11368,7 +11407,7 @@
       <c r="Y256" s="9"/>
       <c r="AA256" s="9"/>
     </row>
-    <row r="257" spans="8:27" s="1" customFormat="1">
+    <row r="257" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
@@ -11379,7 +11418,7 @@
       <c r="Y257" s="9"/>
       <c r="AA257" s="9"/>
     </row>
-    <row r="258" spans="8:27" s="1" customFormat="1">
+    <row r="258" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
@@ -11390,7 +11429,7 @@
       <c r="Y258" s="9"/>
       <c r="AA258" s="9"/>
     </row>
-    <row r="259" spans="8:27" s="1" customFormat="1">
+    <row r="259" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -11401,7 +11440,7 @@
       <c r="Y259" s="9"/>
       <c r="AA259" s="9"/>
     </row>
-    <row r="260" spans="8:27" s="1" customFormat="1">
+    <row r="260" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
@@ -11412,7 +11451,7 @@
       <c r="Y260" s="9"/>
       <c r="AA260" s="9"/>
     </row>
-    <row r="261" spans="8:27" s="1" customFormat="1">
+    <row r="261" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
@@ -11423,7 +11462,7 @@
       <c r="Y261" s="9"/>
       <c r="AA261" s="9"/>
     </row>
-    <row r="262" spans="8:27" s="1" customFormat="1">
+    <row r="262" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
@@ -11434,7 +11473,7 @@
       <c r="Y262" s="9"/>
       <c r="AA262" s="9"/>
     </row>
-    <row r="263" spans="8:27" s="1" customFormat="1">
+    <row r="263" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
@@ -11445,7 +11484,7 @@
       <c r="Y263" s="9"/>
       <c r="AA263" s="9"/>
     </row>
-    <row r="264" spans="8:27" s="1" customFormat="1">
+    <row r="264" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
@@ -11456,7 +11495,7 @@
       <c r="Y264" s="9"/>
       <c r="AA264" s="9"/>
     </row>
-    <row r="265" spans="8:27" s="1" customFormat="1">
+    <row r="265" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
@@ -11467,7 +11506,7 @@
       <c r="Y265" s="9"/>
       <c r="AA265" s="9"/>
     </row>
-    <row r="266" spans="8:27" s="1" customFormat="1">
+    <row r="266" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
@@ -11478,7 +11517,7 @@
       <c r="Y266" s="9"/>
       <c r="AA266" s="9"/>
     </row>
-    <row r="267" spans="8:27" s="1" customFormat="1">
+    <row r="267" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
@@ -11489,7 +11528,7 @@
       <c r="Y267" s="9"/>
       <c r="AA267" s="9"/>
     </row>
-    <row r="268" spans="8:27" s="1" customFormat="1">
+    <row r="268" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
@@ -11500,7 +11539,7 @@
       <c r="Y268" s="9"/>
       <c r="AA268" s="9"/>
     </row>
-    <row r="269" spans="8:27" s="1" customFormat="1">
+    <row r="269" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
@@ -11511,7 +11550,7 @@
       <c r="Y269" s="9"/>
       <c r="AA269" s="9"/>
     </row>
-    <row r="270" spans="8:27" s="1" customFormat="1">
+    <row r="270" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
@@ -11522,7 +11561,7 @@
       <c r="Y270" s="9"/>
       <c r="AA270" s="9"/>
     </row>
-    <row r="271" spans="8:27" s="1" customFormat="1">
+    <row r="271" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
@@ -11533,7 +11572,7 @@
       <c r="Y271" s="9"/>
       <c r="AA271" s="9"/>
     </row>
-    <row r="272" spans="8:27" s="1" customFormat="1">
+    <row r="272" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
@@ -11544,7 +11583,7 @@
       <c r="Y272" s="9"/>
       <c r="AA272" s="9"/>
     </row>
-    <row r="273" spans="8:27" s="1" customFormat="1">
+    <row r="273" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
@@ -11555,7 +11594,7 @@
       <c r="Y273" s="9"/>
       <c r="AA273" s="9"/>
     </row>
-    <row r="274" spans="8:27" s="1" customFormat="1">
+    <row r="274" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
@@ -11566,7 +11605,7 @@
       <c r="Y274" s="9"/>
       <c r="AA274" s="9"/>
     </row>
-    <row r="275" spans="8:27" s="1" customFormat="1">
+    <row r="275" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
@@ -11577,7 +11616,7 @@
       <c r="Y275" s="9"/>
       <c r="AA275" s="9"/>
     </row>
-    <row r="276" spans="8:27" s="1" customFormat="1">
+    <row r="276" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
@@ -11588,7 +11627,7 @@
       <c r="Y276" s="9"/>
       <c r="AA276" s="9"/>
     </row>
-    <row r="277" spans="8:27" s="1" customFormat="1">
+    <row r="277" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
@@ -11599,7 +11638,7 @@
       <c r="Y277" s="9"/>
       <c r="AA277" s="9"/>
     </row>
-    <row r="278" spans="8:27" s="1" customFormat="1">
+    <row r="278" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
@@ -11610,7 +11649,7 @@
       <c r="Y278" s="9"/>
       <c r="AA278" s="9"/>
     </row>
-    <row r="279" spans="8:27" s="1" customFormat="1">
+    <row r="279" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
@@ -11621,7 +11660,7 @@
       <c r="Y279" s="9"/>
       <c r="AA279" s="9"/>
     </row>
-    <row r="280" spans="8:27" s="1" customFormat="1">
+    <row r="280" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
@@ -11632,7 +11671,7 @@
       <c r="Y280" s="9"/>
       <c r="AA280" s="9"/>
     </row>
-    <row r="281" spans="8:27" s="1" customFormat="1">
+    <row r="281" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
@@ -11643,7 +11682,7 @@
       <c r="Y281" s="9"/>
       <c r="AA281" s="9"/>
     </row>
-    <row r="282" spans="8:27" s="1" customFormat="1">
+    <row r="282" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
@@ -11654,7 +11693,7 @@
       <c r="Y282" s="9"/>
       <c r="AA282" s="9"/>
     </row>
-    <row r="283" spans="8:27" s="1" customFormat="1">
+    <row r="283" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
@@ -11665,7 +11704,7 @@
       <c r="Y283" s="9"/>
       <c r="AA283" s="9"/>
     </row>
-    <row r="284" spans="8:27" s="1" customFormat="1">
+    <row r="284" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
@@ -11676,7 +11715,7 @@
       <c r="Y284" s="9"/>
       <c r="AA284" s="9"/>
     </row>
-    <row r="285" spans="8:27" s="1" customFormat="1">
+    <row r="285" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
@@ -11687,7 +11726,7 @@
       <c r="Y285" s="9"/>
       <c r="AA285" s="9"/>
     </row>
-    <row r="286" spans="8:27" s="1" customFormat="1">
+    <row r="286" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
@@ -11698,7 +11737,7 @@
       <c r="Y286" s="9"/>
       <c r="AA286" s="9"/>
     </row>
-    <row r="287" spans="8:27" s="1" customFormat="1">
+    <row r="287" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
@@ -11709,7 +11748,7 @@
       <c r="Y287" s="9"/>
       <c r="AA287" s="9"/>
     </row>
-    <row r="288" spans="8:27" s="1" customFormat="1">
+    <row r="288" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
@@ -11720,7 +11759,7 @@
       <c r="Y288" s="9"/>
       <c r="AA288" s="9"/>
     </row>
-    <row r="289" spans="8:27" s="1" customFormat="1">
+    <row r="289" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
@@ -11731,7 +11770,7 @@
       <c r="Y289" s="9"/>
       <c r="AA289" s="9"/>
     </row>
-    <row r="290" spans="8:27" s="1" customFormat="1">
+    <row r="290" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
@@ -11742,7 +11781,7 @@
       <c r="Y290" s="9"/>
       <c r="AA290" s="9"/>
     </row>
-    <row r="291" spans="8:27" s="1" customFormat="1">
+    <row r="291" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
@@ -11753,7 +11792,7 @@
       <c r="Y291" s="9"/>
       <c r="AA291" s="9"/>
     </row>
-    <row r="292" spans="8:27" s="1" customFormat="1">
+    <row r="292" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
@@ -11764,7 +11803,7 @@
       <c r="Y292" s="9"/>
       <c r="AA292" s="9"/>
     </row>
-    <row r="293" spans="8:27" s="1" customFormat="1">
+    <row r="293" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
@@ -11775,7 +11814,7 @@
       <c r="Y293" s="9"/>
       <c r="AA293" s="9"/>
     </row>
-    <row r="294" spans="8:27" s="1" customFormat="1">
+    <row r="294" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
@@ -11786,7 +11825,7 @@
       <c r="Y294" s="9"/>
       <c r="AA294" s="9"/>
     </row>
-    <row r="295" spans="8:27" s="1" customFormat="1">
+    <row r="295" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
@@ -11797,7 +11836,7 @@
       <c r="Y295" s="9"/>
       <c r="AA295" s="9"/>
     </row>
-    <row r="296" spans="8:27" s="1" customFormat="1">
+    <row r="296" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
@@ -11808,7 +11847,7 @@
       <c r="Y296" s="9"/>
       <c r="AA296" s="9"/>
     </row>
-    <row r="297" spans="8:27" s="1" customFormat="1">
+    <row r="297" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
@@ -11819,7 +11858,7 @@
       <c r="Y297" s="9"/>
       <c r="AA297" s="9"/>
     </row>
-    <row r="298" spans="8:27" s="1" customFormat="1">
+    <row r="298" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
@@ -11830,7 +11869,7 @@
       <c r="Y298" s="9"/>
       <c r="AA298" s="9"/>
     </row>
-    <row r="299" spans="8:27" s="1" customFormat="1">
+    <row r="299" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
@@ -11841,7 +11880,7 @@
       <c r="Y299" s="9"/>
       <c r="AA299" s="9"/>
     </row>
-    <row r="300" spans="8:27" s="1" customFormat="1">
+    <row r="300" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
@@ -11852,7 +11891,7 @@
       <c r="Y300" s="9"/>
       <c r="AA300" s="9"/>
     </row>
-    <row r="301" spans="8:27" s="1" customFormat="1">
+    <row r="301" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
@@ -11863,7 +11902,7 @@
       <c r="Y301" s="9"/>
       <c r="AA301" s="9"/>
     </row>
-    <row r="302" spans="8:27" s="1" customFormat="1">
+    <row r="302" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
@@ -11874,7 +11913,7 @@
       <c r="Y302" s="9"/>
       <c r="AA302" s="9"/>
     </row>
-    <row r="303" spans="8:27" s="1" customFormat="1">
+    <row r="303" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
@@ -11885,7 +11924,7 @@
       <c r="Y303" s="9"/>
       <c r="AA303" s="9"/>
     </row>
-    <row r="304" spans="8:27" s="1" customFormat="1">
+    <row r="304" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
@@ -11896,7 +11935,7 @@
       <c r="Y304" s="9"/>
       <c r="AA304" s="9"/>
     </row>
-    <row r="305" spans="8:27" s="1" customFormat="1">
+    <row r="305" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
@@ -11907,7 +11946,7 @@
       <c r="Y305" s="9"/>
       <c r="AA305" s="9"/>
     </row>
-    <row r="306" spans="8:27" s="1" customFormat="1">
+    <row r="306" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
@@ -11918,7 +11957,7 @@
       <c r="Y306" s="9"/>
       <c r="AA306" s="9"/>
     </row>
-    <row r="307" spans="8:27" s="1" customFormat="1">
+    <row r="307" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
@@ -11929,7 +11968,7 @@
       <c r="Y307" s="9"/>
       <c r="AA307" s="9"/>
     </row>
-    <row r="308" spans="8:27" s="1" customFormat="1">
+    <row r="308" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
@@ -11940,7 +11979,7 @@
       <c r="Y308" s="9"/>
       <c r="AA308" s="9"/>
     </row>
-    <row r="309" spans="8:27" s="1" customFormat="1">
+    <row r="309" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
@@ -11951,7 +11990,7 @@
       <c r="Y309" s="9"/>
       <c r="AA309" s="9"/>
     </row>
-    <row r="310" spans="8:27" s="1" customFormat="1">
+    <row r="310" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
@@ -11962,7 +12001,7 @@
       <c r="Y310" s="9"/>
       <c r="AA310" s="9"/>
     </row>
-    <row r="311" spans="8:27" s="1" customFormat="1">
+    <row r="311" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
@@ -11973,7 +12012,7 @@
       <c r="Y311" s="9"/>
       <c r="AA311" s="9"/>
     </row>
-    <row r="312" spans="8:27" s="1" customFormat="1">
+    <row r="312" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
@@ -11984,7 +12023,7 @@
       <c r="Y312" s="9"/>
       <c r="AA312" s="9"/>
     </row>
-    <row r="313" spans="8:27" s="1" customFormat="1">
+    <row r="313" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
@@ -11995,7 +12034,7 @@
       <c r="Y313" s="9"/>
       <c r="AA313" s="9"/>
     </row>
-    <row r="314" spans="8:27" s="1" customFormat="1">
+    <row r="314" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
@@ -12006,7 +12045,7 @@
       <c r="Y314" s="9"/>
       <c r="AA314" s="9"/>
     </row>
-    <row r="315" spans="8:27" s="1" customFormat="1">
+    <row r="315" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
@@ -12017,7 +12056,7 @@
       <c r="Y315" s="9"/>
       <c r="AA315" s="9"/>
     </row>
-    <row r="316" spans="8:27" s="1" customFormat="1">
+    <row r="316" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
@@ -12028,7 +12067,7 @@
       <c r="Y316" s="9"/>
       <c r="AA316" s="9"/>
     </row>
-    <row r="317" spans="8:27" s="1" customFormat="1">
+    <row r="317" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
@@ -12039,7 +12078,7 @@
       <c r="Y317" s="9"/>
       <c r="AA317" s="9"/>
     </row>
-    <row r="318" spans="8:27" s="1" customFormat="1">
+    <row r="318" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
@@ -12050,7 +12089,7 @@
       <c r="Y318" s="9"/>
       <c r="AA318" s="9"/>
     </row>
-    <row r="319" spans="8:27" s="1" customFormat="1">
+    <row r="319" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
@@ -12061,7 +12100,7 @@
       <c r="Y319" s="9"/>
       <c r="AA319" s="9"/>
     </row>
-    <row r="320" spans="8:27" s="1" customFormat="1">
+    <row r="320" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
@@ -12072,7 +12111,7 @@
       <c r="Y320" s="9"/>
       <c r="AA320" s="9"/>
     </row>
-    <row r="321" spans="8:27" s="1" customFormat="1">
+    <row r="321" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
@@ -12083,7 +12122,7 @@
       <c r="Y321" s="9"/>
       <c r="AA321" s="9"/>
     </row>
-    <row r="322" spans="8:27" s="1" customFormat="1">
+    <row r="322" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
@@ -12094,7 +12133,7 @@
       <c r="Y322" s="9"/>
       <c r="AA322" s="9"/>
     </row>
-    <row r="323" spans="8:27" s="1" customFormat="1">
+    <row r="323" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
@@ -12105,7 +12144,7 @@
       <c r="Y323" s="9"/>
       <c r="AA323" s="9"/>
     </row>
-    <row r="324" spans="8:27" s="1" customFormat="1">
+    <row r="324" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
@@ -12116,7 +12155,7 @@
       <c r="Y324" s="9"/>
       <c r="AA324" s="9"/>
     </row>
-    <row r="325" spans="8:27" s="1" customFormat="1">
+    <row r="325" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
@@ -12127,7 +12166,7 @@
       <c r="Y325" s="9"/>
       <c r="AA325" s="9"/>
     </row>
-    <row r="326" spans="8:27" s="1" customFormat="1">
+    <row r="326" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
@@ -12138,7 +12177,7 @@
       <c r="Y326" s="9"/>
       <c r="AA326" s="9"/>
     </row>
-    <row r="327" spans="8:27" s="1" customFormat="1">
+    <row r="327" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
@@ -12149,7 +12188,7 @@
       <c r="Y327" s="9"/>
       <c r="AA327" s="9"/>
     </row>
-    <row r="328" spans="8:27" s="1" customFormat="1">
+    <row r="328" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
@@ -12160,7 +12199,7 @@
       <c r="Y328" s="9"/>
       <c r="AA328" s="9"/>
     </row>
-    <row r="329" spans="8:27" s="1" customFormat="1">
+    <row r="329" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
@@ -12171,7 +12210,7 @@
       <c r="Y329" s="9"/>
       <c r="AA329" s="9"/>
     </row>
-    <row r="330" spans="8:27" s="1" customFormat="1">
+    <row r="330" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
@@ -12182,7 +12221,7 @@
       <c r="Y330" s="9"/>
       <c r="AA330" s="9"/>
     </row>
-    <row r="331" spans="8:27" s="1" customFormat="1">
+    <row r="331" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
@@ -12193,7 +12232,7 @@
       <c r="Y331" s="9"/>
       <c r="AA331" s="9"/>
     </row>
-    <row r="332" spans="8:27" s="1" customFormat="1">
+    <row r="332" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
@@ -12204,7 +12243,7 @@
       <c r="Y332" s="9"/>
       <c r="AA332" s="9"/>
     </row>
-    <row r="333" spans="8:27" s="1" customFormat="1">
+    <row r="333" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
@@ -12215,7 +12254,7 @@
       <c r="Y333" s="9"/>
       <c r="AA333" s="9"/>
     </row>
-    <row r="334" spans="8:27" s="1" customFormat="1">
+    <row r="334" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
@@ -12226,7 +12265,7 @@
       <c r="Y334" s="9"/>
       <c r="AA334" s="9"/>
     </row>
-    <row r="335" spans="8:27" s="1" customFormat="1">
+    <row r="335" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
@@ -12237,7 +12276,7 @@
       <c r="Y335" s="9"/>
       <c r="AA335" s="9"/>
     </row>
-    <row r="336" spans="8:27" s="1" customFormat="1">
+    <row r="336" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
@@ -12248,7 +12287,7 @@
       <c r="Y336" s="9"/>
       <c r="AA336" s="9"/>
     </row>
-    <row r="337" spans="8:27" s="1" customFormat="1">
+    <row r="337" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
@@ -12259,7 +12298,7 @@
       <c r="Y337" s="9"/>
       <c r="AA337" s="9"/>
     </row>
-    <row r="338" spans="8:27" s="1" customFormat="1">
+    <row r="338" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
@@ -12270,7 +12309,7 @@
       <c r="Y338" s="9"/>
       <c r="AA338" s="9"/>
     </row>
-    <row r="339" spans="8:27" s="1" customFormat="1">
+    <row r="339" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
@@ -12281,7 +12320,7 @@
       <c r="Y339" s="9"/>
       <c r="AA339" s="9"/>
     </row>
-    <row r="340" spans="8:27" s="1" customFormat="1">
+    <row r="340" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
@@ -12292,7 +12331,7 @@
       <c r="Y340" s="9"/>
       <c r="AA340" s="9"/>
     </row>
-    <row r="341" spans="8:27" s="1" customFormat="1">
+    <row r="341" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
@@ -12303,7 +12342,7 @@
       <c r="Y341" s="9"/>
       <c r="AA341" s="9"/>
     </row>
-    <row r="342" spans="8:27" s="1" customFormat="1">
+    <row r="342" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
@@ -12314,7 +12353,7 @@
       <c r="Y342" s="9"/>
       <c r="AA342" s="9"/>
     </row>
-    <row r="343" spans="8:27" s="1" customFormat="1">
+    <row r="343" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
@@ -12325,7 +12364,7 @@
       <c r="Y343" s="9"/>
       <c r="AA343" s="9"/>
     </row>
-    <row r="344" spans="8:27" s="1" customFormat="1">
+    <row r="344" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
@@ -12336,7 +12375,7 @@
       <c r="Y344" s="9"/>
       <c r="AA344" s="9"/>
     </row>
-    <row r="345" spans="8:27" s="1" customFormat="1">
+    <row r="345" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
@@ -12347,7 +12386,7 @@
       <c r="Y345" s="9"/>
       <c r="AA345" s="9"/>
     </row>
-    <row r="346" spans="8:27" s="1" customFormat="1">
+    <row r="346" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
@@ -12358,7 +12397,7 @@
       <c r="Y346" s="9"/>
       <c r="AA346" s="9"/>
     </row>
-    <row r="347" spans="8:27" s="1" customFormat="1">
+    <row r="347" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
@@ -12369,7 +12408,7 @@
       <c r="Y347" s="9"/>
       <c r="AA347" s="9"/>
     </row>
-    <row r="348" spans="8:27" s="1" customFormat="1">
+    <row r="348" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
@@ -12380,7 +12419,7 @@
       <c r="Y348" s="9"/>
       <c r="AA348" s="9"/>
     </row>
-    <row r="349" spans="8:27" s="1" customFormat="1">
+    <row r="349" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
@@ -12391,7 +12430,7 @@
       <c r="Y349" s="9"/>
       <c r="AA349" s="9"/>
     </row>
-    <row r="350" spans="8:27" s="1" customFormat="1">
+    <row r="350" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
@@ -12402,7 +12441,7 @@
       <c r="Y350" s="9"/>
       <c r="AA350" s="9"/>
     </row>
-    <row r="351" spans="8:27" s="1" customFormat="1">
+    <row r="351" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
@@ -12413,7 +12452,7 @@
       <c r="Y351" s="9"/>
       <c r="AA351" s="9"/>
     </row>
-    <row r="352" spans="8:27" s="1" customFormat="1">
+    <row r="352" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
@@ -12424,7 +12463,7 @@
       <c r="Y352" s="9"/>
       <c r="AA352" s="9"/>
     </row>
-    <row r="353" spans="8:27" s="1" customFormat="1">
+    <row r="353" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
@@ -12435,7 +12474,7 @@
       <c r="Y353" s="9"/>
       <c r="AA353" s="9"/>
     </row>
-    <row r="354" spans="8:27" s="1" customFormat="1">
+    <row r="354" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
@@ -12446,7 +12485,7 @@
       <c r="Y354" s="9"/>
       <c r="AA354" s="9"/>
     </row>
-    <row r="355" spans="8:27" s="1" customFormat="1">
+    <row r="355" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
@@ -12457,7 +12496,7 @@
       <c r="Y355" s="9"/>
       <c r="AA355" s="9"/>
     </row>
-    <row r="356" spans="8:27" s="1" customFormat="1">
+    <row r="356" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
@@ -12468,7 +12507,7 @@
       <c r="Y356" s="9"/>
       <c r="AA356" s="9"/>
     </row>
-    <row r="357" spans="8:27" s="1" customFormat="1">
+    <row r="357" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
@@ -12479,7 +12518,7 @@
       <c r="Y357" s="9"/>
       <c r="AA357" s="9"/>
     </row>
-    <row r="358" spans="8:27" s="1" customFormat="1">
+    <row r="358" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
@@ -12490,7 +12529,7 @@
       <c r="Y358" s="9"/>
       <c r="AA358" s="9"/>
     </row>
-    <row r="359" spans="8:27" s="1" customFormat="1">
+    <row r="359" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
@@ -12501,7 +12540,7 @@
       <c r="Y359" s="9"/>
       <c r="AA359" s="9"/>
     </row>
-    <row r="360" spans="8:27" s="1" customFormat="1">
+    <row r="360" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
@@ -12512,7 +12551,7 @@
       <c r="Y360" s="9"/>
       <c r="AA360" s="9"/>
     </row>
-    <row r="361" spans="8:27" s="1" customFormat="1">
+    <row r="361" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
@@ -12523,7 +12562,7 @@
       <c r="Y361" s="9"/>
       <c r="AA361" s="9"/>
     </row>
-    <row r="362" spans="8:27" s="1" customFormat="1">
+    <row r="362" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
@@ -12534,7 +12573,7 @@
       <c r="Y362" s="9"/>
       <c r="AA362" s="9"/>
     </row>
-    <row r="363" spans="8:27" s="1" customFormat="1">
+    <row r="363" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
       <c r="J363" s="5"/>
@@ -12545,7 +12584,7 @@
       <c r="Y363" s="9"/>
       <c r="AA363" s="9"/>
     </row>
-    <row r="364" spans="8:27" s="1" customFormat="1">
+    <row r="364" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
       <c r="J364" s="5"/>
@@ -12556,7 +12595,7 @@
       <c r="Y364" s="9"/>
       <c r="AA364" s="9"/>
     </row>
-    <row r="365" spans="8:27" s="1" customFormat="1">
+    <row r="365" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
       <c r="J365" s="5"/>
@@ -12567,7 +12606,7 @@
       <c r="Y365" s="9"/>
       <c r="AA365" s="9"/>
     </row>
-    <row r="366" spans="8:27" s="1" customFormat="1">
+    <row r="366" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
       <c r="J366" s="5"/>
@@ -12578,7 +12617,7 @@
       <c r="Y366" s="9"/>
       <c r="AA366" s="9"/>
     </row>
-    <row r="367" spans="8:27" s="1" customFormat="1">
+    <row r="367" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
       <c r="J367" s="5"/>
@@ -12589,7 +12628,7 @@
       <c r="Y367" s="9"/>
       <c r="AA367" s="9"/>
     </row>
-    <row r="368" spans="8:27" s="1" customFormat="1">
+    <row r="368" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
       <c r="J368" s="5"/>
@@ -12600,7 +12639,7 @@
       <c r="Y368" s="9"/>
       <c r="AA368" s="9"/>
     </row>
-    <row r="369" spans="8:27" s="1" customFormat="1">
+    <row r="369" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
       <c r="J369" s="5"/>
@@ -12611,7 +12650,7 @@
       <c r="Y369" s="9"/>
       <c r="AA369" s="9"/>
     </row>
-    <row r="370" spans="8:27" s="1" customFormat="1">
+    <row r="370" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
       <c r="J370" s="5"/>
@@ -12622,7 +12661,7 @@
       <c r="Y370" s="9"/>
       <c r="AA370" s="9"/>
     </row>
-    <row r="371" spans="8:27" s="1" customFormat="1">
+    <row r="371" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
       <c r="J371" s="5"/>
@@ -12633,7 +12672,7 @@
       <c r="Y371" s="9"/>
       <c r="AA371" s="9"/>
     </row>
-    <row r="372" spans="8:27" s="1" customFormat="1">
+    <row r="372" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
       <c r="J372" s="5"/>
@@ -12644,7 +12683,7 @@
       <c r="Y372" s="9"/>
       <c r="AA372" s="9"/>
     </row>
-    <row r="373" spans="8:27" s="1" customFormat="1">
+    <row r="373" spans="8:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
       <c r="J373" s="5"/>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012FA41-2DBB-40C2-820F-95D58BF40DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC9E8C4-7ADE-4CA0-B5B8-0C660530039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -891,11 +891,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,8 +1311,8 @@
   <dimension ref="A1:AMJ373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1634,7 +1637,7 @@
       <c r="D5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="11">
@@ -1713,7 +1716,7 @@
       <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="48">
         <v>2</v>
       </c>
       <c r="F6" s="12">
@@ -1787,7 +1790,7 @@
       <c r="D7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
       <c r="F7" s="12">
@@ -1864,7 +1867,7 @@
       <c r="D8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="48">
         <v>4</v>
       </c>
       <c r="F8" s="1">
@@ -1938,7 +1941,7 @@
       <c r="D9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="48">
         <v>5</v>
       </c>
       <c r="F9" s="1">
@@ -2012,7 +2015,7 @@
       <c r="D10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="48">
         <v>6</v>
       </c>
       <c r="F10" s="1">
@@ -2084,11 +2087,11 @@
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
         <v>268048</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2154,11 +2157,11 @@
       <c r="D12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="38">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
         <v>156486</v>
-      </c>
-      <c r="F12" s="20">
-        <v>2</v>
       </c>
       <c r="G12" s="20">
         <v>1</v>
@@ -3221,11 +3224,11 @@
       <c r="D13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
         <v>157055</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -3293,11 +3296,11 @@
       <c r="D14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="49">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
         <v>183662</v>
-      </c>
-      <c r="F14" s="27">
-        <v>2</v>
       </c>
       <c r="G14" s="27">
         <v>1</v>
@@ -4360,11 +4363,11 @@
       <c r="D15" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
         <v>156842</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2</v>
       </c>
       <c r="G15" s="12">
         <v>1</v>
@@ -4432,11 +4435,11 @@
       <c r="D16" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13">
         <v>157127</v>
-      </c>
-      <c r="F16" s="12">
-        <v>2</v>
       </c>
       <c r="G16" s="12">
         <v>1</v>
@@ -4506,11 +4509,11 @@
       <c r="D17" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
         <v>311953</v>
-      </c>
-      <c r="F17" s="12">
-        <v>2</v>
       </c>
       <c r="G17" s="12">
         <v>1</v>
@@ -4580,11 +4583,11 @@
       <c r="D18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
         <v>192626</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
       </c>
       <c r="G18" s="12">
         <v>1</v>
@@ -4651,11 +4654,11 @@
       <c r="D19" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
         <v>195139</v>
-      </c>
-      <c r="F19" s="12">
-        <v>3</v>
       </c>
       <c r="G19" s="12">
         <v>1</v>
@@ -4720,11 +4723,11 @@
       <c r="D20" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
         <v>155187</v>
-      </c>
-      <c r="F20" s="12">
-        <v>3</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
@@ -4789,11 +4792,11 @@
       <c r="D21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
         <v>156952</v>
-      </c>
-      <c r="F21" s="12">
-        <v>3</v>
       </c>
       <c r="G21" s="12">
         <v>1</v>
@@ -4858,11 +4861,11 @@
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
         <v>156959</v>
-      </c>
-      <c r="F22" s="12">
-        <v>3</v>
       </c>
       <c r="G22" s="12">
         <v>1</v>
@@ -4930,11 +4933,11 @@
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
         <v>194484</v>
-      </c>
-      <c r="F23" s="12">
-        <v>3</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
@@ -5001,11 +5004,11 @@
       <c r="D24" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
         <v>151885</v>
-      </c>
-      <c r="F24" s="12">
-        <v>5</v>
       </c>
       <c r="G24" s="12">
         <v>1</v>
@@ -5072,11 +5075,11 @@
       <c r="D25" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
         <v>156764</v>
-      </c>
-      <c r="F25" s="12">
-        <v>5</v>
       </c>
       <c r="G25" s="12">
         <v>1</v>
@@ -5143,11 +5146,11 @@
       <c r="D26" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
         <v>156809</v>
-      </c>
-      <c r="F26" s="12">
-        <v>5</v>
       </c>
       <c r="G26" s="12">
         <v>1</v>
@@ -5217,11 +5220,11 @@
       <c r="D27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
         <v>157271</v>
-      </c>
-      <c r="F27" s="12">
-        <v>5</v>
       </c>
       <c r="G27" s="12">
         <v>1</v>
@@ -5293,11 +5296,11 @@
       <c r="D28" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
         <v>155742</v>
-      </c>
-      <c r="F28" s="12">
-        <v>5</v>
       </c>
       <c r="G28" s="12">
         <v>1</v>
@@ -5364,11 +5367,11 @@
       <c r="D29" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
         <v>151835</v>
-      </c>
-      <c r="F29" s="12">
-        <v>4</v>
       </c>
       <c r="G29" s="12">
         <v>1</v>
@@ -5435,11 +5438,11 @@
       <c r="D30" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
         <v>192832</v>
-      </c>
-      <c r="F30" s="12">
-        <v>4</v>
       </c>
       <c r="G30" s="12">
         <v>1</v>
@@ -5506,11 +5509,11 @@
       <c r="D31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
         <v>192643</v>
-      </c>
-      <c r="F31" s="12">
-        <v>4</v>
       </c>
       <c r="G31" s="12">
         <v>1</v>
@@ -5577,11 +5580,11 @@
       <c r="D32" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
         <v>311954</v>
-      </c>
-      <c r="F32" s="12">
-        <v>4</v>
       </c>
       <c r="G32" s="12">
         <v>1</v>
@@ -5648,11 +5651,11 @@
       <c r="D33" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="5">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
         <v>195287</v>
-      </c>
-      <c r="F33" s="12">
-        <v>4</v>
       </c>
       <c r="G33" s="12">
         <v>1</v>
@@ -5719,11 +5722,11 @@
       <c r="D34" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="5">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
         <v>151886</v>
-      </c>
-      <c r="F34" s="12">
-        <v>6</v>
       </c>
       <c r="G34" s="12">
         <v>1</v>
@@ -5790,11 +5793,11 @@
       <c r="D35" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1">
         <v>180478</v>
-      </c>
-      <c r="F35" s="12">
-        <v>6</v>
       </c>
       <c r="G35" s="12">
         <v>1</v>
@@ -5864,11 +5867,11 @@
       <c r="D36" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="5">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
         <v>179413</v>
-      </c>
-      <c r="F36" s="12">
-        <v>6</v>
       </c>
       <c r="G36" s="12">
         <v>1</v>
@@ -5937,11 +5940,11 @@
       <c r="D37" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
         <v>142306</v>
-      </c>
-      <c r="F37" s="12">
-        <v>6</v>
       </c>
       <c r="G37" s="12">
         <v>2</v>
@@ -6011,11 +6014,11 @@
       <c r="D38" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="5">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
         <v>142880</v>
-      </c>
-      <c r="F38" s="12">
-        <v>6</v>
       </c>
       <c r="G38" s="12">
         <v>2</v>
@@ -6082,11 +6085,11 @@
       <c r="D39" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
         <v>151157</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
@@ -6153,11 +6156,11 @@
       <c r="D40" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
         <v>196958</v>
-      </c>
-      <c r="F40" s="12">
-        <v>1</v>
       </c>
       <c r="G40" s="12">
         <v>1</v>
@@ -6224,11 +6227,11 @@
       <c r="D41" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
         <v>142396</v>
-      </c>
-      <c r="F41" s="12">
-        <v>1</v>
       </c>
       <c r="G41" s="12">
         <v>2</v>
@@ -6295,11 +6298,11 @@
       <c r="D42" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
         <v>137844</v>
-      </c>
-      <c r="F42" s="12">
-        <v>1</v>
       </c>
       <c r="G42" s="12">
         <v>2</v>
@@ -6369,11 +6372,11 @@
       <c r="D43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
         <v>142153</v>
-      </c>
-      <c r="F43" s="12">
-        <v>1</v>
       </c>
       <c r="G43" s="12">
         <v>2</v>
@@ -6430,7 +6433,7 @@
       <c r="Y43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:1024" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -6443,11 +6446,11 @@
       <c r="D44" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
         <v>268049</v>
-      </c>
-      <c r="F44" s="12">
-        <v>1</v>
       </c>
       <c r="G44" s="12">
         <v>1</v>
@@ -7502,7 +7505,7 @@
       <c r="AMI44" s="1"/>
       <c r="AMJ44" s="1"/>
     </row>
-    <row r="45" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>1041</v>
       </c>
@@ -7515,11 +7518,11 @@
       <c r="D45" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="5">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
         <v>151159</v>
-      </c>
-      <c r="F45" s="31">
-        <v>4</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -7578,7 +7581,7 @@
       <c r="Y45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>1042</v>
       </c>
@@ -7588,11 +7591,11 @@
       <c r="D46" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="5">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
         <v>156501</v>
-      </c>
-      <c r="F46" s="31">
-        <v>5</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -7648,7 +7651,7 @@
       <c r="Y46" s="9"/>
       <c r="AA46" s="9"/>
     </row>
-    <row r="47" spans="1:1024" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="33">
         <v>1043</v>
       </c>
@@ -7658,11 +7661,11 @@
       <c r="D47" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="5">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
         <v>324787</v>
-      </c>
-      <c r="F47" s="31">
-        <v>4</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -7731,11 +7734,11 @@
       <c r="D48" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="5">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
         <v>192427</v>
-      </c>
-      <c r="F48" s="31">
-        <v>4</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -7801,11 +7804,11 @@
       <c r="D49" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="5">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
         <v>220755</v>
-      </c>
-      <c r="F49" s="31">
-        <v>4</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -7871,11 +7874,11 @@
       <c r="D50" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
         <v>295550</v>
-      </c>
-      <c r="F50" s="31">
-        <v>3</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -7941,11 +7944,11 @@
       <c r="D51" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="5">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
         <v>143394</v>
-      </c>
-      <c r="F51" s="31">
-        <v>6</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -8011,11 +8014,11 @@
       <c r="D52" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="5">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
         <v>229674</v>
-      </c>
-      <c r="F52" s="31">
-        <v>6</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -8084,11 +8087,11 @@
       <c r="D53" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
         <v>327983</v>
-      </c>
-      <c r="F53" s="31">
-        <v>2</v>
       </c>
       <c r="G53" s="1">
         <v>2</v>
@@ -8160,11 +8163,11 @@
       <c r="D54" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="5">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
         <v>327808</v>
-      </c>
-      <c r="F54" s="31">
-        <v>2</v>
       </c>
       <c r="G54" s="1">
         <v>2</v>
@@ -8230,11 +8233,11 @@
       <c r="D55" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="5">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
         <v>142146</v>
-      </c>
-      <c r="F55" s="31">
-        <v>5</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -8300,11 +8303,11 @@
       <c r="D56" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="5">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
         <v>142145</v>
-      </c>
-      <c r="F56" s="31">
-        <v>2</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -8370,11 +8373,11 @@
       <c r="D57" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
         <v>142264</v>
-      </c>
-      <c r="F57" s="31">
-        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>2</v>
@@ -8440,11 +8443,11 @@
       <c r="D58" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="5">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
         <v>143398</v>
-      </c>
-      <c r="F58" s="31">
-        <v>6</v>
       </c>
       <c r="G58" s="1">
         <v>2</v>
@@ -8513,11 +8516,11 @@
       <c r="D59" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
         <v>137848</v>
-      </c>
-      <c r="F59" s="31">
-        <v>3</v>
       </c>
       <c r="G59" s="1">
         <v>2</v>
@@ -8586,11 +8589,11 @@
       <c r="D60" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
         <v>351891</v>
-      </c>
-      <c r="F60" s="31">
-        <v>2</v>
       </c>
       <c r="G60" s="1">
         <v>2</v>
@@ -8656,11 +8659,11 @@
       <c r="D61" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
         <v>156704</v>
-      </c>
-      <c r="F61" s="31">
-        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -8726,11 +8729,11 @@
       <c r="D62" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="5">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1">
         <v>339129</v>
-      </c>
-      <c r="F62" s="31">
-        <v>5</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -8799,11 +8802,11 @@
       <c r="D63" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
         <v>152976</v>
-      </c>
-      <c r="F63" s="31">
-        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -8872,11 +8875,11 @@
       <c r="D64" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="5">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
         <v>268048</v>
-      </c>
-      <c r="F64" s="31">
-        <v>6</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -8942,11 +8945,11 @@
       <c r="D65" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="5">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
         <v>182063</v>
-      </c>
-      <c r="F65" s="31">
-        <v>4</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -9015,16 +9018,16 @@
       <c r="D66" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="46">
         <v>263895</v>
       </c>
-      <c r="F66" s="47">
-        <v>3</v>
-      </c>
       <c r="G66" s="46">
         <v>1</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="47">
         <v>280687</v>
       </c>
       <c r="I66" s="5">
@@ -9088,11 +9091,11 @@
       <c r="D67" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="5">
+        <v>4</v>
+      </c>
+      <c r="F67" s="46">
         <v>155838</v>
-      </c>
-      <c r="F67" s="47">
-        <v>4</v>
       </c>
       <c r="G67" s="46">
         <v>1</v>
@@ -9158,11 +9161,11 @@
       <c r="D68" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="5">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
         <v>310795</v>
-      </c>
-      <c r="F68" s="31">
-        <v>3</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -9228,11 +9231,11 @@
       <c r="D69" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="5">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
         <v>310796</v>
-      </c>
-      <c r="F69" s="31">
-        <v>5</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -9301,11 +9304,11 @@
       <c r="D70" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
         <v>141498</v>
-      </c>
-      <c r="F70" s="31">
-        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>2</v>

--- a/nevergiveup/Excel/Monster_怪物表.xlsx
+++ b/nevergiveup/Excel/Monster_怪物表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC9E8C4-7ADE-4CA0-B5B8-0C660530039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B57D65-4C99-4A91-B897-84C04CDFEBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1312,7 +1312,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1729,7 +1729,7 @@
         <v>122498</v>
       </c>
       <c r="I6" s="5">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="J6" s="5">
         <v>200</v>
@@ -1880,7 +1880,7 @@
         <v>164988</v>
       </c>
       <c r="I8" s="5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J8" s="5">
         <v>150</v>
@@ -1954,7 +1954,7 @@
         <v>97860</v>
       </c>
       <c r="I9" s="5">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="J9" s="5">
         <v>150</v>
